--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="818">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/08/coronavirus-covid-19-at-a-glance-19-august-2021_0.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/08/coronavirus-covid-19-at-a-glance-22-august-2021_0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1355-new-cases-1408-recoveries_i_0000133518.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1302-new-cases-1355-recoveries_i_0000133630.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -501,7 +501,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-18-de-agosto-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-22-de-agosto-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-19082021-yz10</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-23082021-gvrj</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/08/Boletin-COVID-19-no.516.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/08/Boletin-COVID-19-no.519.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/368659</t>
+    <t xml:space="preserve">http://irangov.ir/detail/368763</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-august-18-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/clinical-management-summary-for-saturday-august-21-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -2050,7 +2050,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1X6UvNW3PIEGMKYQ0pa6U8Afe7hmo2nqD</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/16c2A4k5eYiuDraXa3ADzGtfmleoXQYFs</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2134,7 +2134,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_20_AUGUST.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/23-08_BULETIN_DE_PRESĂ_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2157,7 +2157,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18736</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18754</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2314,24 +2314,20 @@
     <t xml:space="preserve">South Africa - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/dsfsi/covid19za</t>
+    <t xml:space="preserve">https://www.nicd.ac.za/wp-content/uploads/2021/08/COVID-19-Testing-Summary-Week-32-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Communicable Diseases (NICD)</t>
   </si>
   <si>
-    <t xml:space="preserve">Made available by the University of Pretoria on Github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.nicd.ac.za/media/alerts/</t>
+    <t xml:space="preserve">https://www.nicd.ac.za/diseases-a-z-index/disease-index-covid-19/surveillance-reports/weekly-testing-summary/</t>
   </si>
   <si>
     <t xml:space="preserve">The South African National Institute for Communicable Diseases (NICD) publishes daily updates on the number of confirmed cases, deaths and tests conducted nationally and by province. These updates are published on its [website](https://www.nicd.ac.za/media/alerts/) and on its offical Twitter account ([@nicd_sa](https://twitter.com/nicd_sa)).
 The NICD reports the number of 'tests processed', which is also labelled as 'total tested'. On 18 April 2020, the official twitter account for the [Department for Health](https://twitter.com/HealthZA/status/1251605326681575427) clarified that repeat tests for COVID-19 are not counted and that the testing figures refer to the number of people tested.
+Testing figures include both PCR and antigen tests.
 The source provides data for both the cumulative number of people tested to date and the number of people tested in the last 24 hours. The daily change in the cumulative number of people tested to date equals the number of people tested in the last 24 hours, suggesting that the cumulative total will repeatedly count people that have undergone more than one round of testing over the course of the pandemic. However no further details were found at either source.
-The NICD began publishing daily updates on 7 February 2020, allowing us to develop a time series from this date forward. We do not know the first date of testing. As of 7 February 2020, 42 people had been tested.
-We source this data from the [Data Repository for South Africa](https://github.com/dsfsi/covid19za) repository, created, maintained and hosted by the Data Science for Social Impact research group, led by Dr. Vukosi Marivate at the University of Pretoria.
-Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+The NICD began publishing daily updates on 7 February 2020, allowing us to develop a time series from this date forward. We do not know the first date of testing. As of 7 February 2020, 42 people had been tested.</t>
   </si>
   <si>
     <t xml:space="preserve">KOR</t>
@@ -2465,10 +2461,16 @@
     <t xml:space="preserve">Thailand - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www3.dmsc.moph.go.th/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Medical Sciences Ministry of Public Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Medical Sciences, Ministry of Public Health</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://service.dmsc.moph.go.th/labscovid19/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Medical Sciences, Ministry of Public Health</t>
   </si>
   <si>
     <t xml:space="preserve">The Ministry of Public Health's Department of Medical Sciences publishes a complete time series of tests performed in Thailand. Data is available since January 2020.
@@ -3327,7 +3329,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3337,31 +3339,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H5" t="n">
-        <v>12766144</v>
+        <v>12845080</v>
       </c>
       <c r="I5" t="n">
-        <v>282.463</v>
+        <v>284.21</v>
       </c>
       <c r="J5" t="n">
-        <v>29710</v>
+        <v>34445</v>
       </c>
       <c r="K5" t="n">
-        <v>0.657</v>
+        <v>0.762</v>
       </c>
       <c r="L5" t="n">
-        <v>33888</v>
+        <v>31654</v>
       </c>
       <c r="M5" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.084</v>
+        <v>0.076</v>
       </c>
       <c r="O5" t="n">
-        <v>11.9</v>
+        <v>13.2</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3441,7 +3443,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3451,31 +3453,27 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H7" t="n">
-        <v>28776897</v>
+        <v>29460946</v>
       </c>
       <c r="I7" t="n">
-        <v>1128.511</v>
-      </c>
-      <c r="J7" t="n">
-        <v>206177</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8.085</v>
-      </c>
+        <v>1155.337</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7" t="n">
-        <v>202250</v>
+        <v>212496</v>
       </c>
       <c r="M7" t="n">
-        <v>7.931</v>
+        <v>8.333</v>
       </c>
       <c r="N7" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="O7" t="n">
-        <v>348.4</v>
+        <v>280.4</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3498,7 +3496,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44426</v>
+        <v>44430</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3508,31 +3506,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="H8" t="n">
-        <v>72424887</v>
+        <v>73832634</v>
       </c>
       <c r="I8" t="n">
-        <v>8041.491</v>
+        <v>8197.796</v>
       </c>
       <c r="J8" t="n">
-        <v>269632</v>
+        <v>330086</v>
       </c>
       <c r="K8" t="n">
-        <v>29.938</v>
+        <v>36.65</v>
       </c>
       <c r="L8" t="n">
-        <v>330898</v>
+        <v>322169</v>
       </c>
       <c r="M8" t="n">
-        <v>36.74</v>
+        <v>35.771</v>
       </c>
       <c r="N8" t="n">
         <v>0.003</v>
       </c>
       <c r="O8" t="n">
-        <v>353.2</v>
+        <v>289.3</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3555,7 +3553,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3565,21 +3563,21 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H9" t="n">
-        <v>4268668</v>
+        <v>4319841</v>
       </c>
       <c r="I9" t="n">
-        <v>421.007</v>
+        <v>426.054</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>14929</v>
+        <v>16245</v>
       </c>
       <c r="M9" t="n">
-        <v>1.472</v>
+        <v>1.602</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3604,7 +3602,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3614,21 +3612,21 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H10" t="n">
-        <v>5735703</v>
+        <v>5781405</v>
       </c>
       <c r="I10" t="n">
-        <v>3370.804</v>
+        <v>3397.663</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="n">
-        <v>14880</v>
+        <v>14835</v>
       </c>
       <c r="M10" t="n">
-        <v>8.745</v>
+        <v>8.718</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -3653,7 +3651,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3663,31 +3661,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H11" t="n">
-        <v>8517620</v>
+        <v>8631337</v>
       </c>
       <c r="I11" t="n">
-        <v>51.719</v>
+        <v>52.41</v>
       </c>
       <c r="J11" t="n">
-        <v>41014</v>
+        <v>31689</v>
       </c>
       <c r="K11" t="n">
-        <v>0.249</v>
+        <v>0.192</v>
       </c>
       <c r="L11" t="n">
-        <v>38497</v>
+        <v>37148</v>
       </c>
       <c r="M11" t="n">
-        <v>0.234</v>
+        <v>0.226</v>
       </c>
       <c r="N11" t="n">
-        <v>0.187</v>
+        <v>0.166</v>
       </c>
       <c r="O11" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3710,7 +3708,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44427</v>
+        <v>44431</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3720,32 +3718,24 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H12" t="n">
-        <v>7603034</v>
+        <v>7660634</v>
       </c>
       <c r="I12" t="n">
-        <v>804.612</v>
-      </c>
-      <c r="J12" t="n">
-        <v>20457</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.165</v>
-      </c>
+        <v>810.707</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
       <c r="L12" t="n">
-        <v>17564</v>
+        <v>16546</v>
       </c>
       <c r="M12" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="O12" t="n">
-        <v>15.8</v>
-      </c>
+        <v>1.751</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
       <c r="P12" t="s">
         <v>83</v>
       </c>
@@ -3767,7 +3757,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3777,31 +3767,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H13" t="n">
-        <v>18193868</v>
+        <v>18238898</v>
       </c>
       <c r="I13" t="n">
-        <v>1569.842</v>
+        <v>1573.728</v>
       </c>
       <c r="J13" t="n">
-        <v>45218</v>
+        <v>44823</v>
       </c>
       <c r="K13" t="n">
-        <v>3.902</v>
+        <v>3.868</v>
       </c>
       <c r="L13" t="n">
-        <v>49342</v>
+        <v>48432</v>
       </c>
       <c r="M13" t="n">
-        <v>4.257</v>
+        <v>4.179</v>
       </c>
       <c r="N13" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="O13" t="n">
-        <v>22.7</v>
+        <v>22.2</v>
       </c>
       <c r="P13" t="s">
         <v>90</v>
@@ -3824,7 +3814,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44426</v>
+        <v>44431</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3834,28 +3824,24 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14" t="n">
-        <v>202015</v>
+        <v>206689</v>
       </c>
       <c r="I14" t="n">
-        <v>508.059</v>
+        <v>519.814</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>1141</v>
+        <v>994</v>
       </c>
       <c r="M14" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="O14" t="n">
-        <v>15.7</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14"/>
       <c r="P14" t="s">
         <v>96</v>
       </c>
@@ -4032,7 +4018,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4042,31 +4028,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H18" t="n">
-        <v>1111191</v>
+        <v>1113991</v>
       </c>
       <c r="I18" t="n">
-        <v>338.694</v>
+        <v>339.547</v>
       </c>
       <c r="J18" t="n">
-        <v>2312</v>
+        <v>2800</v>
       </c>
       <c r="K18" t="n">
-        <v>0.705</v>
+        <v>0.853</v>
       </c>
       <c r="L18" t="n">
-        <v>2249</v>
+        <v>2389</v>
       </c>
       <c r="M18" t="n">
-        <v>0.686</v>
+        <v>0.728</v>
       </c>
       <c r="N18" t="n">
-        <v>0.115</v>
+        <v>0.119</v>
       </c>
       <c r="O18" t="n">
-        <v>8.7</v>
+        <v>8.4</v>
       </c>
       <c r="P18" t="s">
         <v>118</v>
@@ -4134,7 +4120,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4144,21 +4130,21 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H20" t="n">
-        <v>3966443</v>
+        <v>4014833</v>
       </c>
       <c r="I20" t="n">
-        <v>570.839</v>
+        <v>577.803</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>19386</v>
+        <v>18501</v>
       </c>
       <c r="M20" t="n">
-        <v>2.79</v>
+        <v>2.663</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -4297,7 +4283,7 @@
         <v>143</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="D23" t="s">
         <v>139</v>
@@ -4307,31 +4293,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H23" t="n">
-        <v>39653674</v>
+        <v>39731231</v>
       </c>
       <c r="I23" t="n">
-        <v>1050.647</v>
+        <v>1052.702</v>
       </c>
       <c r="J23" t="n">
-        <v>76230</v>
+        <v>77557</v>
       </c>
       <c r="K23" t="n">
-        <v>2.02</v>
+        <v>2.055</v>
       </c>
       <c r="L23" t="n">
-        <v>64931</v>
+        <v>65706</v>
       </c>
       <c r="M23" t="n">
-        <v>1.72</v>
+        <v>1.741</v>
       </c>
       <c r="N23" t="n">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="O23" t="n">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="P23" t="s">
         <v>140</v>
@@ -4354,7 +4340,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44425</v>
+        <v>44429</v>
       </c>
       <c r="D24" t="s">
         <v>147</v>
@@ -4364,15 +4350,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>1532</v>
+        <v>1117</v>
       </c>
       <c r="K24" t="n">
-        <v>2.755</v>
+        <v>2.009</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4399,7 +4385,7 @@
         <v>152</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="D25" t="s">
         <v>153</v>
@@ -4409,31 +4395,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H25" t="n">
-        <v>19421472</v>
+        <v>19602606</v>
       </c>
       <c r="I25" t="n">
-        <v>1015.969</v>
+        <v>1025.444</v>
       </c>
       <c r="J25" t="n">
-        <v>68052</v>
+        <v>59480</v>
       </c>
       <c r="K25" t="n">
-        <v>3.56</v>
+        <v>3.111</v>
       </c>
       <c r="L25" t="n">
-        <v>53303</v>
+        <v>52940</v>
       </c>
       <c r="M25" t="n">
-        <v>2.788</v>
+        <v>2.769</v>
       </c>
       <c r="N25" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="O25" t="n">
-        <v>73.2</v>
+        <v>80.1</v>
       </c>
       <c r="P25" t="s">
         <v>155</v>
@@ -4501,7 +4487,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -4511,31 +4497,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H27" t="n">
-        <v>23532461</v>
+        <v>23700152</v>
       </c>
       <c r="I27" t="n">
-        <v>462.483</v>
+        <v>465.778</v>
       </c>
       <c r="J27" t="n">
-        <v>56605</v>
+        <v>53419</v>
       </c>
       <c r="K27" t="n">
-        <v>1.112</v>
+        <v>1.05</v>
       </c>
       <c r="L27" t="n">
-        <v>50486</v>
+        <v>47940</v>
       </c>
       <c r="M27" t="n">
-        <v>0.992</v>
+        <v>0.942</v>
       </c>
       <c r="N27" t="n">
-        <v>0.085</v>
+        <v>0.079</v>
       </c>
       <c r="O27" t="n">
-        <v>11.8</v>
+        <v>12.7</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -4558,7 +4544,7 @@
         <v>171</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D28" t="s">
         <v>172</v>
@@ -4568,31 +4554,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H28" t="n">
-        <v>1577767</v>
+        <v>1602957</v>
       </c>
       <c r="I28" t="n">
-        <v>309.724</v>
+        <v>314.668</v>
       </c>
       <c r="J28" t="n">
-        <v>4357</v>
+        <v>9002</v>
       </c>
       <c r="K28" t="n">
-        <v>0.855</v>
+        <v>1.767</v>
       </c>
       <c r="L28" t="n">
-        <v>7530</v>
+        <v>7430</v>
       </c>
       <c r="M28" t="n">
-        <v>1.478</v>
+        <v>1.459</v>
       </c>
       <c r="N28" t="n">
-        <v>0.178</v>
+        <v>0.189</v>
       </c>
       <c r="O28" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="P28" t="s">
         <v>173</v>
@@ -4646,10 +4632,10 @@
         <v>0.139</v>
       </c>
       <c r="N29" t="n">
-        <v>0.053</v>
+        <v>0.043</v>
       </c>
       <c r="O29" t="n">
-        <v>18.9</v>
+        <v>23.2</v>
       </c>
       <c r="P29" t="s">
         <v>178</v>
@@ -4672,7 +4658,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4682,25 +4668,21 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H30" t="n">
-        <v>2447178</v>
+        <v>2470457</v>
       </c>
       <c r="I30" t="n">
-        <v>596.107</v>
-      </c>
-      <c r="J30" t="n">
-        <v>9948</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.423</v>
-      </c>
+        <v>601.777</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
       <c r="L30" t="n">
-        <v>8383</v>
+        <v>8613</v>
       </c>
       <c r="M30" t="n">
-        <v>2.042</v>
+        <v>2.098</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -4784,7 +4766,7 @@
         <v>195</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44424</v>
+        <v>44430</v>
       </c>
       <c r="D32" t="s">
         <v>196</v>
@@ -4794,31 +4776,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="H32" t="n">
-        <v>10959437</v>
+        <v>11245172</v>
       </c>
       <c r="I32" t="n">
-        <v>12341.639</v>
+        <v>12663.411</v>
       </c>
       <c r="J32" t="n">
-        <v>44374</v>
+        <v>32091</v>
       </c>
       <c r="K32" t="n">
-        <v>49.97</v>
+        <v>36.138</v>
       </c>
       <c r="L32" t="n">
-        <v>48191</v>
+        <v>47158</v>
       </c>
       <c r="M32" t="n">
-        <v>54.269</v>
+        <v>53.106</v>
       </c>
       <c r="N32" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="O32" t="n">
-        <v>119.4</v>
+        <v>134.1</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4841,7 +4823,7 @@
         <v>199</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="D33" t="s">
         <v>200</v>
@@ -4851,21 +4833,21 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>90885</v>
+        <v>57502</v>
       </c>
       <c r="K33" t="n">
-        <v>8.487</v>
+        <v>5.37</v>
       </c>
       <c r="L33" t="n">
-        <v>98008</v>
+        <v>92280</v>
       </c>
       <c r="M33" t="n">
-        <v>9.152</v>
+        <v>8.617</v>
       </c>
       <c r="N33" t="n">
         <v>0.002</v>
@@ -4947,7 +4929,7 @@
         <v>209</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="D35" t="s">
         <v>210</v>
@@ -4957,31 +4939,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H35" t="n">
-        <v>38964678</v>
+        <v>39200236</v>
       </c>
       <c r="I35" t="n">
-        <v>6727.091</v>
+        <v>6767.759</v>
       </c>
       <c r="J35" t="n">
-        <v>40586</v>
+        <v>48363</v>
       </c>
       <c r="K35" t="n">
-        <v>7.007</v>
+        <v>8.35</v>
       </c>
       <c r="L35" t="n">
-        <v>59547</v>
+        <v>67151</v>
       </c>
       <c r="M35" t="n">
-        <v>10.281</v>
+        <v>11.593</v>
       </c>
       <c r="N35" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="O35" t="n">
-        <v>59.5</v>
+        <v>68.4</v>
       </c>
       <c r="P35" t="s">
         <v>211</v>
@@ -5004,7 +4986,7 @@
         <v>215</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D36" t="s">
         <v>216</v>
@@ -5014,27 +4996,31 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H36" t="n">
-        <v>1910033</v>
+        <v>1921446</v>
       </c>
       <c r="I36" t="n">
-        <v>176.074</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36"/>
+        <v>177.126</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4351</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.401</v>
+      </c>
       <c r="L36" t="n">
-        <v>4922</v>
+        <v>4443</v>
       </c>
       <c r="M36" t="n">
-        <v>0.454</v>
+        <v>0.41</v>
       </c>
       <c r="N36" t="n">
-        <v>0.053</v>
+        <v>0.054</v>
       </c>
       <c r="O36" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P36" t="s">
         <v>217</v>
@@ -5199,8 +5185,12 @@
       <c r="M39" t="n">
         <v>0.519</v>
       </c>
-      <c r="N39"/>
-      <c r="O39"/>
+      <c r="N39" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O39" t="n">
+        <v>52</v>
+      </c>
       <c r="P39" t="s">
         <v>238</v>
       </c>
@@ -5222,7 +5212,7 @@
         <v>241</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="D40" t="s">
         <v>242</v>
@@ -5232,31 +5222,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H40" t="n">
-        <v>1714002</v>
+        <v>1723182</v>
       </c>
       <c r="I40" t="n">
-        <v>1292.086</v>
+        <v>1299.006</v>
       </c>
       <c r="J40" t="n">
-        <v>4444</v>
+        <v>3683</v>
       </c>
       <c r="K40" t="n">
-        <v>3.35</v>
+        <v>2.776</v>
       </c>
       <c r="L40" t="n">
-        <v>4237</v>
+        <v>3927</v>
       </c>
       <c r="M40" t="n">
-        <v>3.194</v>
+        <v>2.96</v>
       </c>
       <c r="N40" t="n">
-        <v>0.065</v>
+        <v>0.066</v>
       </c>
       <c r="O40" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="P40" t="s">
         <v>243</v>
@@ -5279,7 +5269,7 @@
         <v>246</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="D41" t="s">
         <v>247</v>
@@ -5289,31 +5279,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H41" t="n">
-        <v>3142116</v>
+        <v>3164055</v>
       </c>
       <c r="I41" t="n">
-        <v>27.331</v>
+        <v>27.522</v>
       </c>
       <c r="J41" t="n">
-        <v>7149</v>
+        <v>6108</v>
       </c>
       <c r="K41" t="n">
-        <v>0.062</v>
+        <v>0.053</v>
       </c>
       <c r="L41" t="n">
-        <v>6485</v>
+        <v>7026</v>
       </c>
       <c r="M41" t="n">
-        <v>0.056</v>
+        <v>0.061</v>
       </c>
       <c r="N41" t="n">
-        <v>0.122</v>
+        <v>0.133</v>
       </c>
       <c r="O41" t="n">
-        <v>8.2</v>
+        <v>7.5</v>
       </c>
       <c r="P41" t="s">
         <v>248</v>
@@ -5393,7 +5383,7 @@
         <v>256</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="D43" t="s">
         <v>257</v>
@@ -5403,31 +5393,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H43" t="n">
-        <v>6301305</v>
+        <v>6328674</v>
       </c>
       <c r="I43" t="n">
-        <v>1137.272</v>
+        <v>1142.212</v>
       </c>
       <c r="J43" t="n">
-        <v>25000</v>
+        <v>3626</v>
       </c>
       <c r="K43" t="n">
-        <v>4.512</v>
+        <v>0.654</v>
       </c>
       <c r="L43" t="n">
-        <v>19317</v>
+        <v>14470</v>
       </c>
       <c r="M43" t="n">
-        <v>3.486</v>
+        <v>2.612</v>
       </c>
       <c r="N43" t="n">
-        <v>0.037</v>
+        <v>0.045</v>
       </c>
       <c r="O43" t="n">
-        <v>26.8</v>
+        <v>22.3</v>
       </c>
       <c r="P43" t="s">
         <v>259</v>
@@ -5450,7 +5440,7 @@
         <v>262</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D44" t="s">
         <v>263</v>
@@ -5460,27 +5450,27 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="n">
-        <v>973351</v>
+        <v>855094</v>
       </c>
       <c r="K44" t="n">
-        <v>14.406</v>
+        <v>12.656</v>
       </c>
       <c r="L44" t="n">
-        <v>781128</v>
+        <v>777395</v>
       </c>
       <c r="M44" t="n">
-        <v>11.561</v>
+        <v>11.506</v>
       </c>
       <c r="N44" t="n">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
       <c r="O44" t="n">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="P44" t="s">
         <v>264</v>
@@ -5503,7 +5493,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="D45" t="s">
         <v>268</v>
@@ -5513,21 +5503,21 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="n">
-        <v>1046805</v>
+        <v>1054727</v>
       </c>
       <c r="I45" t="n">
-        <v>470.32</v>
+        <v>473.88</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="n">
-        <v>2827</v>
+        <v>3002</v>
       </c>
       <c r="M45" t="n">
-        <v>1.27</v>
+        <v>1.349</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -5825,7 +5815,7 @@
         <v>305</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="D51" t="s">
         <v>306</v>
@@ -5835,31 +5825,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H51" t="n">
-        <v>2059534</v>
+        <v>2088641</v>
       </c>
       <c r="I51" t="n">
-        <v>114.958</v>
+        <v>116.582</v>
       </c>
       <c r="J51" t="n">
-        <v>15284</v>
+        <v>13501</v>
       </c>
       <c r="K51" t="n">
-        <v>0.853</v>
+        <v>0.754</v>
       </c>
       <c r="L51" t="n">
-        <v>9945</v>
+        <v>10656</v>
       </c>
       <c r="M51" t="n">
-        <v>0.555</v>
+        <v>0.595</v>
       </c>
       <c r="N51" t="n">
-        <v>0.334</v>
+        <v>0.346</v>
       </c>
       <c r="O51" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P51" t="s">
         <v>308</v>
@@ -5935,7 +5925,7 @@
         <v>319</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44427</v>
+        <v>44431</v>
       </c>
       <c r="D53" t="s">
         <v>320</v>
@@ -5947,32 +5937,28 @@
         <v>322</v>
       </c>
       <c r="G53" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H53" t="n">
-        <v>6016847</v>
+        <v>6041605</v>
       </c>
       <c r="I53" t="n">
-        <v>622.839</v>
+        <v>625.402</v>
       </c>
       <c r="J53" t="n">
-        <v>10125</v>
+        <v>24758</v>
       </c>
       <c r="K53" t="n">
-        <v>1.048</v>
+        <v>2.563</v>
       </c>
       <c r="L53" t="n">
-        <v>7447</v>
+        <v>6765</v>
       </c>
       <c r="M53" t="n">
-        <v>0.771</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="O53" t="n">
-        <v>91.6</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
       <c r="P53" t="s">
         <v>321</v>
       </c>
@@ -5994,7 +5980,7 @@
         <v>326</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44426</v>
+        <v>44430</v>
       </c>
       <c r="D54" t="s">
         <v>327</v>
@@ -6004,25 +5990,25 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H54" t="n">
-        <v>551511</v>
+        <v>561271</v>
       </c>
       <c r="I54" t="n">
-        <v>1616.149</v>
+        <v>1644.75</v>
       </c>
       <c r="J54" t="n">
-        <v>3349</v>
+        <v>2028</v>
       </c>
       <c r="K54" t="n">
-        <v>9.814</v>
+        <v>5.943</v>
       </c>
       <c r="L54" t="n">
-        <v>3061</v>
+        <v>2873</v>
       </c>
       <c r="M54" t="n">
-        <v>8.97</v>
+        <v>8.419</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -6047,7 +6033,7 @@
         <v>331</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44426</v>
+        <v>44430</v>
       </c>
       <c r="D55" t="s">
         <v>332</v>
@@ -6059,31 +6045,31 @@
         <v>334</v>
       </c>
       <c r="G55" t="n">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="H55" t="n">
-        <v>498427083</v>
+        <v>506256239</v>
       </c>
       <c r="I55" t="n">
-        <v>361.178</v>
+        <v>366.851</v>
       </c>
       <c r="J55" t="n">
-        <v>1797559</v>
+        <v>1680081</v>
       </c>
       <c r="K55" t="n">
-        <v>1.303</v>
+        <v>1.217</v>
       </c>
       <c r="L55" t="n">
-        <v>1910082</v>
+        <v>1804543</v>
       </c>
       <c r="M55" t="n">
-        <v>1.384</v>
+        <v>1.308</v>
       </c>
       <c r="N55" t="n">
         <v>0.018</v>
       </c>
       <c r="O55" t="n">
-        <v>54.7</v>
+        <v>56.4</v>
       </c>
       <c r="P55" t="s">
         <v>333</v>
@@ -6106,7 +6092,7 @@
         <v>337</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="D56" t="s">
         <v>338</v>
@@ -6116,24 +6102,24 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H56" t="n">
-        <v>20070696</v>
+        <v>20299651</v>
       </c>
       <c r="I56" t="n">
-        <v>73.378</v>
+        <v>74.215</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56" t="n">
-        <v>108192</v>
+        <v>100510</v>
       </c>
       <c r="M56" t="n">
-        <v>0.396</v>
+        <v>0.367</v>
       </c>
       <c r="N56" t="n">
-        <v>0.21</v>
+        <v>0.207</v>
       </c>
       <c r="O56" t="n">
         <v>4.8</v>
@@ -6159,7 +6145,7 @@
         <v>343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="D57" t="s">
         <v>344</v>
@@ -6169,25 +6155,21 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H57" t="n">
-        <v>27666082</v>
+        <v>27974949</v>
       </c>
       <c r="I57" t="n">
-        <v>329.386</v>
-      </c>
-      <c r="J57" t="n">
-        <v>86429</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1.029</v>
-      </c>
+        <v>333.063</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57"/>
       <c r="L57" t="n">
-        <v>97350</v>
+        <v>99297</v>
       </c>
       <c r="M57" t="n">
-        <v>1.159</v>
+        <v>1.182</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
@@ -6269,7 +6251,7 @@
         <v>356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="D59" t="s">
         <v>357</v>
@@ -6279,31 +6261,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H59" t="n">
-        <v>6460831</v>
+        <v>6481201</v>
       </c>
       <c r="I59" t="n">
-        <v>1308.444</v>
+        <v>1312.57</v>
       </c>
       <c r="J59" t="n">
-        <v>21024</v>
+        <v>20011</v>
       </c>
       <c r="K59" t="n">
-        <v>4.258</v>
+        <v>4.053</v>
       </c>
       <c r="L59" t="n">
-        <v>20683</v>
+        <v>20385</v>
       </c>
       <c r="M59" t="n">
-        <v>4.189</v>
+        <v>4.128</v>
       </c>
       <c r="N59" t="n">
-        <v>0.085</v>
+        <v>0.087</v>
       </c>
       <c r="O59" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="P59" t="s">
         <v>358</v>
@@ -6326,7 +6308,7 @@
         <v>362</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44427</v>
+        <v>44431</v>
       </c>
       <c r="D60" t="s">
         <v>363</v>
@@ -6336,32 +6318,28 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="H60" t="n">
-        <v>21734206</v>
+        <v>22161561</v>
       </c>
       <c r="I60" t="n">
-        <v>2511.016</v>
+        <v>2560.39</v>
       </c>
       <c r="J60" t="n">
-        <v>146296</v>
+        <v>66563</v>
       </c>
       <c r="K60" t="n">
-        <v>16.902</v>
+        <v>7.69</v>
       </c>
       <c r="L60" t="n">
-        <v>129487</v>
+        <v>124933</v>
       </c>
       <c r="M60" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="O60" t="n">
-        <v>19.8</v>
-      </c>
+        <v>14.434</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60"/>
       <c r="P60" t="s">
         <v>36</v>
       </c>
@@ -6383,7 +6361,7 @@
         <v>368</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="D61" t="s">
         <v>369</v>
@@ -6395,31 +6373,31 @@
         <v>371</v>
       </c>
       <c r="G61" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H61" t="n">
-        <v>31914369</v>
+        <v>32072928</v>
       </c>
       <c r="I61" t="n">
-        <v>527.843</v>
+        <v>530.466</v>
       </c>
       <c r="J61" t="n">
-        <v>52577</v>
+        <v>48443</v>
       </c>
       <c r="K61" t="n">
-        <v>0.87</v>
+        <v>0.801</v>
       </c>
       <c r="L61" t="n">
-        <v>48255</v>
+        <v>48573</v>
       </c>
       <c r="M61" t="n">
-        <v>0.798</v>
+        <v>0.803</v>
       </c>
       <c r="N61" t="n">
         <v>0.129</v>
       </c>
       <c r="O61" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="P61" t="s">
         <v>372</v>
@@ -6442,7 +6420,7 @@
         <v>375</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="D62" t="s">
         <v>369</v>
@@ -6454,25 +6432,25 @@
         <v>371</v>
       </c>
       <c r="G62" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H62" t="n">
-        <v>81351951</v>
+        <v>82003364</v>
       </c>
       <c r="I62" t="n">
-        <v>1345.509</v>
+        <v>1356.283</v>
       </c>
       <c r="J62" t="n">
-        <v>206531</v>
+        <v>175539</v>
       </c>
       <c r="K62" t="n">
-        <v>3.416</v>
+        <v>2.903</v>
       </c>
       <c r="L62" t="n">
-        <v>197916</v>
+        <v>199494</v>
       </c>
       <c r="M62" t="n">
-        <v>3.273</v>
+        <v>3.3</v>
       </c>
       <c r="N62" t="n">
         <v>0.031</v>
@@ -6501,7 +6479,7 @@
         <v>378</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="D63" t="s">
         <v>379</v>
@@ -6511,31 +6489,27 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H63" t="n">
-        <v>526075</v>
+        <v>531130</v>
       </c>
       <c r="I63" t="n">
-        <v>177.658</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2184</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.738</v>
-      </c>
+        <v>179.365</v>
+      </c>
+      <c r="J63"/>
+      <c r="K63"/>
       <c r="L63" t="n">
-        <v>1768</v>
+        <v>1726</v>
       </c>
       <c r="M63" t="n">
-        <v>0.597</v>
+        <v>0.583</v>
       </c>
       <c r="N63" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="O63" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P63" t="s">
         <v>380</v>
@@ -6558,7 +6532,7 @@
         <v>384</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="D64" t="s">
         <v>385</v>
@@ -6568,31 +6542,31 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H64" t="n">
-        <v>19482275</v>
+        <v>19624796</v>
       </c>
       <c r="I64" t="n">
-        <v>154.039</v>
+        <v>155.166</v>
       </c>
       <c r="J64" t="n">
-        <v>232366</v>
+        <v>113293</v>
       </c>
       <c r="K64" t="n">
-        <v>1.837</v>
+        <v>0.896</v>
       </c>
       <c r="L64" t="n">
-        <v>123563</v>
+        <v>113067</v>
       </c>
       <c r="M64" t="n">
-        <v>0.977</v>
+        <v>0.894</v>
       </c>
       <c r="N64" t="n">
-        <v>0.165</v>
+        <v>0.193</v>
       </c>
       <c r="O64" t="n">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="P64" t="s">
         <v>386</v>
@@ -6953,7 +6927,7 @@
         <v>424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="D71" t="s">
         <v>425</v>
@@ -6965,28 +6939,32 @@
         <v>427</v>
       </c>
       <c r="G71" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H71" t="n">
-        <v>3237834</v>
+        <v>3256328</v>
       </c>
       <c r="I71" t="n">
-        <v>1716.589</v>
+        <v>1726.394</v>
       </c>
       <c r="J71" t="n">
-        <v>9231</v>
+        <v>7712</v>
       </c>
       <c r="K71" t="n">
-        <v>4.894</v>
+        <v>4.089</v>
       </c>
       <c r="L71" t="n">
-        <v>8515</v>
+        <v>8389</v>
       </c>
       <c r="M71" t="n">
-        <v>4.514</v>
-      </c>
-      <c r="N71"/>
-      <c r="O71"/>
+        <v>4.448</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="O71" t="n">
+        <v>63.6</v>
+      </c>
       <c r="P71" t="s">
         <v>426</v>
       </c>
@@ -7057,7 +7035,7 @@
         <v>435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="D73" t="s">
         <v>436</v>
@@ -7067,15 +7045,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>9109</v>
+        <v>7065</v>
       </c>
       <c r="K73" t="n">
-        <v>1.326</v>
+        <v>1.028</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7102,7 +7080,7 @@
         <v>441</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44425</v>
+        <v>44429</v>
       </c>
       <c r="D74" t="s">
         <v>442</v>
@@ -7112,13 +7090,13 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H74" t="n">
-        <v>59666</v>
+        <v>60280</v>
       </c>
       <c r="I74" t="n">
-        <v>1564.517</v>
+        <v>1580.617</v>
       </c>
       <c r="J74" t="n">
         <v>83</v>
@@ -7127,16 +7105,16 @@
         <v>2.176</v>
       </c>
       <c r="L74" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M74" t="n">
-        <v>3.304</v>
+        <v>3.487</v>
       </c>
       <c r="N74" t="n">
-        <v>0.088</v>
+        <v>0.084</v>
       </c>
       <c r="O74" t="n">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
       <c r="P74" t="s">
         <v>443</v>
@@ -7216,7 +7194,7 @@
         <v>452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="D76" t="s">
         <v>453</v>
@@ -7226,31 +7204,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H76" t="n">
-        <v>3371442</v>
+        <v>3375755</v>
       </c>
       <c r="I76" t="n">
-        <v>5385.897</v>
+        <v>5392.787</v>
       </c>
       <c r="J76" t="n">
-        <v>3702</v>
+        <v>4313</v>
       </c>
       <c r="K76" t="n">
-        <v>5.914</v>
+        <v>6.89</v>
       </c>
       <c r="L76" t="n">
-        <v>4349</v>
+        <v>4088</v>
       </c>
       <c r="M76" t="n">
-        <v>6.948</v>
+        <v>6.531</v>
       </c>
       <c r="N76" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="O76" t="n">
-        <v>85.3</v>
+        <v>76.7</v>
       </c>
       <c r="P76" t="s">
         <v>454</v>
@@ -7383,7 +7361,7 @@
         <v>469</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="D79" t="s">
         <v>470</v>
@@ -7395,31 +7373,31 @@
         <v>472</v>
       </c>
       <c r="G79" t="n">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="H79" t="n">
-        <v>24389054</v>
+        <v>24845446</v>
       </c>
       <c r="I79" t="n">
-        <v>753.539</v>
+        <v>767.64</v>
       </c>
       <c r="J79" t="n">
-        <v>165312</v>
+        <v>147850</v>
       </c>
       <c r="K79" t="n">
-        <v>5.108</v>
+        <v>4.568</v>
       </c>
       <c r="L79" t="n">
-        <v>157651</v>
+        <v>154537</v>
       </c>
       <c r="M79" t="n">
-        <v>4.871</v>
+        <v>4.775</v>
       </c>
       <c r="N79" t="n">
-        <v>0.132</v>
+        <v>0.14</v>
       </c>
       <c r="O79" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="P79" t="s">
         <v>36</v>
@@ -7605,7 +7583,7 @@
         <v>494</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="D83" t="s">
         <v>495</v>
@@ -7615,28 +7593,28 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="H83" t="n">
-        <v>8802064</v>
+        <v>8933286</v>
       </c>
       <c r="I83" t="n">
-        <v>68.269</v>
+        <v>69.286</v>
       </c>
       <c r="J83" t="n">
-        <v>18711</v>
+        <v>4609</v>
       </c>
       <c r="K83" t="n">
-        <v>0.145</v>
+        <v>0.036</v>
       </c>
       <c r="L83" t="n">
-        <v>30152</v>
+        <v>29457</v>
       </c>
       <c r="M83" t="n">
-        <v>0.234</v>
+        <v>0.228</v>
       </c>
       <c r="N83" t="n">
-        <v>0.422</v>
+        <v>0.415</v>
       </c>
       <c r="O83" t="n">
         <v>2.4</v>
@@ -7662,7 +7640,7 @@
         <v>500</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="D84" t="s">
         <v>501</v>
@@ -7672,21 +7650,21 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H84" t="n">
-        <v>1512076</v>
+        <v>1528763</v>
       </c>
       <c r="I84" t="n">
-        <v>374.836</v>
+        <v>378.973</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>5522</v>
+        <v>5819</v>
       </c>
       <c r="M84" t="n">
-        <v>1.369</v>
+        <v>1.443</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
@@ -8106,7 +8084,7 @@
         <v>548</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="D92" t="s">
         <v>549</v>
@@ -8116,25 +8094,21 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H92" t="n">
-        <v>2612235</v>
+        <v>2727853</v>
       </c>
       <c r="I92" t="n">
-        <v>541.707</v>
-      </c>
-      <c r="J92" t="n">
-        <v>27899</v>
-      </c>
-      <c r="K92" t="n">
-        <v>5.785</v>
-      </c>
+        <v>565.683</v>
+      </c>
+      <c r="J92"/>
+      <c r="K92"/>
       <c r="L92" t="n">
-        <v>9086</v>
+        <v>23914</v>
       </c>
       <c r="M92" t="n">
-        <v>1.884</v>
+        <v>4.959</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -8159,7 +8133,7 @@
         <v>554</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44425</v>
+        <v>44431</v>
       </c>
       <c r="D93" t="s">
         <v>555</v>
@@ -8169,28 +8143,24 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H93" t="n">
-        <v>2648684</v>
+        <v>2727834</v>
       </c>
       <c r="I93" t="n">
-        <v>12.849</v>
+        <v>13.233</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>7444</v>
+        <v>12371</v>
       </c>
       <c r="M93" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="O93" t="n">
-        <v>12</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="N93"/>
+      <c r="O93"/>
       <c r="P93" t="s">
         <v>556</v>
       </c>
@@ -8238,8 +8208,12 @@
       <c r="M94" t="n">
         <v>3.868</v>
       </c>
-      <c r="N94"/>
-      <c r="O94"/>
+      <c r="N94" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="O94" t="n">
+        <v>9.1</v>
+      </c>
       <c r="P94" t="s">
         <v>36</v>
       </c>
@@ -8261,7 +8235,7 @@
         <v>564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44425</v>
+        <v>44429</v>
       </c>
       <c r="D95" t="s">
         <v>565</v>
@@ -8271,25 +8245,25 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="H95" t="n">
-        <v>6821287</v>
+        <v>6893909</v>
       </c>
       <c r="I95" t="n">
-        <v>1258.252</v>
+        <v>1271.648</v>
       </c>
       <c r="J95" t="n">
-        <v>18859</v>
+        <v>10560</v>
       </c>
       <c r="K95" t="n">
-        <v>3.479</v>
+        <v>1.948</v>
       </c>
       <c r="L95" t="n">
-        <v>16339</v>
+        <v>17484</v>
       </c>
       <c r="M95" t="n">
-        <v>3.014</v>
+        <v>3.225</v>
       </c>
       <c r="N95" t="n">
         <v>0.033</v>
@@ -8363,7 +8337,7 @@
         <v>575</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="D97" t="s">
         <v>576</v>
@@ -8373,25 +8347,21 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H97" t="n">
-        <v>17115272</v>
+        <v>17276450</v>
       </c>
       <c r="I97" t="n">
-        <v>77.482</v>
-      </c>
-      <c r="J97" t="n">
-        <v>51982</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.235</v>
-      </c>
+        <v>78.212</v>
+      </c>
+      <c r="J97"/>
+      <c r="K97"/>
       <c r="L97" t="n">
-        <v>54320</v>
+        <v>54038</v>
       </c>
       <c r="M97" t="n">
-        <v>0.246</v>
+        <v>0.245</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8691,7 +8661,7 @@
         <v>608</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="D103" t="s">
         <v>609</v>
@@ -8701,31 +8671,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H103" t="n">
-        <v>16810880</v>
+        <v>17019761</v>
       </c>
       <c r="I103" t="n">
-        <v>153.41</v>
+        <v>155.317</v>
       </c>
       <c r="J103" t="n">
-        <v>64004</v>
+        <v>60690</v>
       </c>
       <c r="K103" t="n">
-        <v>0.584</v>
+        <v>0.554</v>
       </c>
       <c r="L103" t="n">
-        <v>56736</v>
+        <v>59891</v>
       </c>
       <c r="M103" t="n">
-        <v>0.518</v>
+        <v>0.547</v>
       </c>
       <c r="N103" t="n">
-        <v>0.223</v>
+        <v>0.231</v>
       </c>
       <c r="O103" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="P103" t="s">
         <v>314</v>
@@ -8862,7 +8832,7 @@
         <v>621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="D106" t="s">
         <v>622</v>
@@ -8872,31 +8842,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H106" t="n">
-        <v>16378600</v>
+        <v>16496290</v>
       </c>
       <c r="I106" t="n">
-        <v>1606.264</v>
+        <v>1617.806</v>
       </c>
       <c r="J106" t="n">
-        <v>54686</v>
+        <v>58972</v>
       </c>
       <c r="K106" t="n">
-        <v>5.363</v>
+        <v>5.783</v>
       </c>
       <c r="L106" t="n">
-        <v>57480</v>
+        <v>53650</v>
       </c>
       <c r="M106" t="n">
-        <v>5.637</v>
+        <v>5.262</v>
       </c>
       <c r="N106" t="n">
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
       <c r="O106" t="n">
-        <v>24.6</v>
+        <v>23.3</v>
       </c>
       <c r="P106" t="s">
         <v>623</v>
@@ -8919,7 +8889,7 @@
         <v>626</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44426</v>
+        <v>44430</v>
       </c>
       <c r="D107" t="s">
         <v>627</v>
@@ -8929,31 +8899,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H107" t="n">
-        <v>2432003</v>
+        <v>2453234</v>
       </c>
       <c r="I107" t="n">
-        <v>844.135</v>
+        <v>851.504</v>
       </c>
       <c r="J107" t="n">
-        <v>6249</v>
+        <v>4191</v>
       </c>
       <c r="K107" t="n">
-        <v>2.169</v>
+        <v>1.455</v>
       </c>
       <c r="L107" t="n">
-        <v>5739</v>
+        <v>5591</v>
       </c>
       <c r="M107" t="n">
-        <v>1.992</v>
+        <v>1.941</v>
       </c>
       <c r="N107" t="n">
-        <v>0.039</v>
+        <v>0.043</v>
       </c>
       <c r="O107" t="n">
-        <v>25.6</v>
+        <v>23.4</v>
       </c>
       <c r="P107" t="s">
         <v>629</v>
@@ -8976,7 +8946,7 @@
         <v>632</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="D108" t="s">
         <v>633</v>
@@ -8986,21 +8956,21 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H108" t="n">
-        <v>8949362</v>
+        <v>8980921</v>
       </c>
       <c r="I108" t="n">
-        <v>465.2</v>
+        <v>466.84</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108" t="n">
-        <v>13794</v>
+        <v>14398</v>
       </c>
       <c r="M108" t="n">
-        <v>0.717</v>
+        <v>0.748</v>
       </c>
       <c r="N108"/>
       <c r="O108"/>
@@ -9025,7 +8995,7 @@
         <v>639</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="D109" t="s">
         <v>640</v>
@@ -9035,27 +9005,27 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H109" t="n">
-        <v>174175810</v>
+        <v>175504485</v>
       </c>
       <c r="I109" t="n">
-        <v>1193.521</v>
+        <v>1202.625</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>432834</v>
+        <v>441055</v>
       </c>
       <c r="M109" t="n">
-        <v>2.966</v>
+        <v>3.022</v>
       </c>
       <c r="N109" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="O109" t="n">
-        <v>20.8</v>
+        <v>21.7</v>
       </c>
       <c r="P109" t="s">
         <v>641</v>
@@ -9078,7 +9048,7 @@
         <v>645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="D110" t="s">
         <v>646</v>
@@ -9088,28 +9058,32 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H110" t="n">
-        <v>2272373</v>
+        <v>2301288</v>
       </c>
       <c r="I110" t="n">
-        <v>175.443</v>
+        <v>177.675</v>
       </c>
       <c r="J110" t="n">
-        <v>11534</v>
+        <v>16143</v>
       </c>
       <c r="K110" t="n">
-        <v>0.891</v>
+        <v>1.246</v>
       </c>
       <c r="L110" t="n">
-        <v>10302</v>
+        <v>11332</v>
       </c>
       <c r="M110" t="n">
-        <v>0.795</v>
-      </c>
-      <c r="N110"/>
-      <c r="O110"/>
+        <v>0.875</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="O110" t="n">
+        <v>23.9</v>
+      </c>
       <c r="P110" t="s">
         <v>647</v>
       </c>
@@ -9131,7 +9105,7 @@
         <v>651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="D111" t="s">
         <v>652</v>
@@ -9141,21 +9115,21 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H111" t="n">
-        <v>28307</v>
+        <v>29284</v>
       </c>
       <c r="I111" t="n">
-        <v>532.166</v>
+        <v>550.534</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111" t="n">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="M111" t="n">
-        <v>2.294</v>
+        <v>4.192</v>
       </c>
       <c r="N111"/>
       <c r="O111"/>
@@ -9180,7 +9154,7 @@
         <v>656</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44426</v>
+        <v>44430</v>
       </c>
       <c r="D112" t="s">
         <v>657</v>
@@ -9190,31 +9164,31 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H112" t="n">
-        <v>26708643</v>
+        <v>26960332</v>
       </c>
       <c r="I112" t="n">
-        <v>767.184</v>
+        <v>774.414</v>
       </c>
       <c r="J112" t="n">
-        <v>69991</v>
+        <v>63280</v>
       </c>
       <c r="K112" t="n">
-        <v>2.01</v>
+        <v>1.818</v>
       </c>
       <c r="L112" t="n">
-        <v>75404</v>
+        <v>67719</v>
       </c>
       <c r="M112" t="n">
-        <v>2.166</v>
+        <v>1.945</v>
       </c>
       <c r="N112" t="n">
-        <v>0.014</v>
+        <v>0.008</v>
       </c>
       <c r="O112" t="n">
-        <v>73.4</v>
+        <v>123.9</v>
       </c>
       <c r="P112" t="s">
         <v>36</v>
@@ -9237,7 +9211,7 @@
         <v>660</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44427</v>
+        <v>44431</v>
       </c>
       <c r="D113" t="s">
         <v>661</v>
@@ -9247,32 +9221,28 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H113" t="n">
-        <v>720464</v>
+        <v>732197</v>
       </c>
       <c r="I113" t="n">
-        <v>43.028</v>
+        <v>43.729</v>
       </c>
       <c r="J113" t="n">
-        <v>2571</v>
+        <v>2377</v>
       </c>
       <c r="K113" t="n">
-        <v>0.154</v>
+        <v>0.142</v>
       </c>
       <c r="L113" t="n">
-        <v>3023</v>
+        <v>2762</v>
       </c>
       <c r="M113" t="n">
-        <v>0.181</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.088</v>
-      </c>
-      <c r="O113" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0.165</v>
+      </c>
+      <c r="N113"/>
+      <c r="O113"/>
       <c r="P113" t="s">
         <v>662</v>
       </c>
@@ -9294,7 +9264,7 @@
         <v>665</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="D114" t="s">
         <v>666</v>
@@ -9306,31 +9276,31 @@
         <v>667</v>
       </c>
       <c r="G114" t="n">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H114" t="n">
-        <v>4870940</v>
+        <v>4903335</v>
       </c>
       <c r="I114" t="n">
-        <v>715.831</v>
+        <v>720.592</v>
       </c>
       <c r="J114" t="n">
-        <v>12869</v>
+        <v>8101</v>
       </c>
       <c r="K114" t="n">
-        <v>1.891</v>
+        <v>1.191</v>
       </c>
       <c r="L114" t="n">
-        <v>11586</v>
+        <v>11934</v>
       </c>
       <c r="M114" t="n">
-        <v>1.703</v>
+        <v>1.754</v>
       </c>
       <c r="N114" t="n">
-        <v>0.109</v>
+        <v>0.123</v>
       </c>
       <c r="O114" t="n">
-        <v>9.2</v>
+        <v>8.1</v>
       </c>
       <c r="P114" t="s">
         <v>36</v>
@@ -9406,7 +9376,7 @@
         <v>676</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="D116" t="s">
         <v>677</v>
@@ -9416,25 +9386,25 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H116" t="n">
-        <v>40904258</v>
+        <v>40962563</v>
       </c>
       <c r="I116" t="n">
-        <v>7492.112</v>
+        <v>7502.791</v>
       </c>
       <c r="J116" t="n">
-        <v>12873</v>
+        <v>12794</v>
       </c>
       <c r="K116" t="n">
-        <v>2.358</v>
+        <v>2.343</v>
       </c>
       <c r="L116" t="n">
-        <v>14379</v>
+        <v>15550</v>
       </c>
       <c r="M116" t="n">
-        <v>2.634</v>
+        <v>2.848</v>
       </c>
       <c r="N116" t="n">
         <v>0.007</v>
@@ -9463,7 +9433,7 @@
         <v>680</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="D117" t="s">
         <v>681</v>
@@ -9473,31 +9443,31 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H117" t="n">
-        <v>1423354</v>
+        <v>1427627</v>
       </c>
       <c r="I117" t="n">
-        <v>684.656</v>
+        <v>686.712</v>
       </c>
       <c r="J117" t="n">
-        <v>2481</v>
+        <v>754</v>
       </c>
       <c r="K117" t="n">
-        <v>1.193</v>
+        <v>0.363</v>
       </c>
       <c r="L117" t="n">
-        <v>1802</v>
+        <v>1899</v>
       </c>
       <c r="M117" t="n">
-        <v>0.867</v>
+        <v>0.913</v>
       </c>
       <c r="N117" t="n">
-        <v>0.145</v>
+        <v>0.163</v>
       </c>
       <c r="O117" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="P117" t="s">
         <v>682</v>
@@ -9520,7 +9490,7 @@
         <v>685</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44407</v>
+        <v>44422</v>
       </c>
       <c r="D118" t="s">
         <v>686</v>
@@ -9528,114 +9498,104 @@
       <c r="E118" t="s">
         <v>687</v>
       </c>
-      <c r="F118" t="s">
-        <v>688</v>
-      </c>
+      <c r="F118"/>
       <c r="G118" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H118" t="n">
-        <v>14806616</v>
+        <v>15526881</v>
       </c>
       <c r="I118" t="n">
-        <v>249.653</v>
-      </c>
-      <c r="J118" t="n">
-        <v>55715</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.939</v>
-      </c>
+        <v>261.798</v>
+      </c>
+      <c r="J118"/>
+      <c r="K118"/>
       <c r="L118" t="n">
-        <v>46990</v>
+        <v>48945</v>
       </c>
       <c r="M118" t="n">
-        <v>0.792</v>
+        <v>0.825</v>
       </c>
       <c r="N118" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="O118" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="P118" t="s">
         <v>687</v>
       </c>
       <c r="Q118" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="R118" t="s">
         <v>31</v>
       </c>
       <c r="S118" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>690</v>
+      </c>
+      <c r="B119" t="s">
         <v>691</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" s="1" t="n">
+        <v>44431</v>
+      </c>
+      <c r="D119" t="s">
         <v>692</v>
       </c>
-      <c r="C119" s="1" t="n">
-        <v>44428</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>693</v>
-      </c>
-      <c r="E119" t="s">
-        <v>694</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H119" t="n">
-        <v>11907419</v>
+        <v>12004786</v>
       </c>
       <c r="I119" t="n">
-        <v>232.253</v>
-      </c>
-      <c r="J119" t="n">
-        <v>41455</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.809</v>
-      </c>
+        <v>234.152</v>
+      </c>
+      <c r="J119"/>
+      <c r="K119"/>
       <c r="L119" t="n">
-        <v>26998</v>
+        <v>33295</v>
       </c>
       <c r="M119" t="n">
-        <v>0.527</v>
+        <v>0.649</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
       <c r="P119" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="Q119" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="R119" t="s">
         <v>31</v>
       </c>
       <c r="S119" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>695</v>
+      </c>
+      <c r="B120" t="s">
         <v>696</v>
-      </c>
-      <c r="B120" t="s">
-        <v>697</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>44342</v>
       </c>
       <c r="D120" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E120" t="s">
         <v>36</v>
@@ -9668,30 +9628,30 @@
         <v>36</v>
       </c>
       <c r="Q120" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R120" t="s">
         <v>44</v>
       </c>
       <c r="S120" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>700</v>
+      </c>
+      <c r="B121" t="s">
         <v>701</v>
-      </c>
-      <c r="B121" t="s">
-        <v>702</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>44420</v>
       </c>
       <c r="D121" t="s">
+        <v>702</v>
+      </c>
+      <c r="E121" t="s">
         <v>703</v>
-      </c>
-      <c r="E121" t="s">
-        <v>704</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
@@ -9718,90 +9678,86 @@
         <v>8.3</v>
       </c>
       <c r="P121" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q121" t="s">
         <v>705</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>706</v>
       </c>
       <c r="R121" t="s">
         <v>44</v>
       </c>
       <c r="S121" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>707</v>
+      </c>
+      <c r="B122" t="s">
         <v>708</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" s="1" t="n">
+        <v>44431</v>
+      </c>
+      <c r="D122" t="s">
         <v>709</v>
       </c>
-      <c r="C122" s="1" t="n">
-        <v>44427</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>710</v>
-      </c>
-      <c r="E122" t="s">
-        <v>711</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H122" t="n">
-        <v>4725632</v>
+        <v>4799668</v>
       </c>
       <c r="I122" t="n">
-        <v>220.687</v>
+        <v>224.145</v>
       </c>
       <c r="J122" t="n">
-        <v>22290</v>
+        <v>14716</v>
       </c>
       <c r="K122" t="n">
-        <v>1.041</v>
+        <v>0.687</v>
       </c>
       <c r="L122" t="n">
-        <v>10720</v>
+        <v>17034</v>
       </c>
       <c r="M122" t="n">
-        <v>0.501</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.374</v>
-      </c>
-      <c r="O122" t="n">
-        <v>2.7</v>
-      </c>
+        <v>0.795</v>
+      </c>
+      <c r="N122"/>
+      <c r="O122"/>
       <c r="P122" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q122" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="R122" t="s">
         <v>44</v>
       </c>
       <c r="S122" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>712</v>
+      </c>
+      <c r="B123" t="s">
         <v>713</v>
-      </c>
-      <c r="B123" t="s">
-        <v>714</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>44423</v>
       </c>
       <c r="D123" t="s">
+        <v>714</v>
+      </c>
+      <c r="E123" t="s">
         <v>715</v>
-      </c>
-      <c r="E123" t="s">
-        <v>716</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
@@ -9828,27 +9784,27 @@
         <v>18.5</v>
       </c>
       <c r="P123" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q123" t="s">
         <v>717</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>718</v>
       </c>
       <c r="R123" t="s">
         <v>44</v>
       </c>
       <c r="S123" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>719</v>
+      </c>
+      <c r="B124" t="s">
         <v>720</v>
       </c>
-      <c r="B124" t="s">
-        <v>721</v>
-      </c>
       <c r="C124" s="1" t="n">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="D124" t="s">
         <v>442</v>
@@ -9858,31 +9814,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H124" t="n">
-        <v>9026925</v>
+        <v>9112363</v>
       </c>
       <c r="I124" t="n">
-        <v>1043.018</v>
+        <v>1052.89</v>
       </c>
       <c r="J124" t="n">
-        <v>18854</v>
+        <v>21770</v>
       </c>
       <c r="K124" t="n">
-        <v>2.178</v>
+        <v>2.515</v>
       </c>
       <c r="L124" t="n">
-        <v>20606</v>
+        <v>22643</v>
       </c>
       <c r="M124" t="n">
-        <v>2.381</v>
+        <v>2.616</v>
       </c>
       <c r="N124" t="n">
-        <v>0.132</v>
+        <v>0.129</v>
       </c>
       <c r="O124" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="P124" t="s">
         <v>443</v>
@@ -9894,103 +9850,103 @@
         <v>44</v>
       </c>
       <c r="S124" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>722</v>
+      </c>
+      <c r="B125" t="s">
         <v>723</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" s="1" t="n">
+        <v>44429</v>
+      </c>
+      <c r="D125" t="s">
         <v>724</v>
       </c>
-      <c r="C125" s="1" t="n">
-        <v>44427</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>725</v>
-      </c>
-      <c r="E125" t="s">
-        <v>726</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H125" t="n">
-        <v>2450350</v>
+        <v>2495285</v>
       </c>
       <c r="I125" t="n">
-        <v>102.883</v>
+        <v>104.77</v>
       </c>
       <c r="J125" t="n">
-        <v>11804</v>
+        <v>15516</v>
       </c>
       <c r="K125" t="n">
-        <v>0.496</v>
+        <v>0.651</v>
       </c>
       <c r="L125" t="n">
-        <v>19159</v>
+        <v>20032</v>
       </c>
       <c r="M125" t="n">
-        <v>0.804</v>
+        <v>0.841</v>
       </c>
       <c r="N125" t="n">
         <v>0.001</v>
       </c>
       <c r="O125" t="n">
-        <v>1741.7</v>
+        <v>1920.8</v>
       </c>
       <c r="P125" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="Q125" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="R125" t="s">
         <v>31</v>
       </c>
       <c r="S125" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>727</v>
+      </c>
+      <c r="B126" t="s">
         <v>728</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" s="1" t="n">
+        <v>44429</v>
+      </c>
+      <c r="D126" t="s">
         <v>729</v>
       </c>
-      <c r="C126" s="1" t="n">
-        <v>44387</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>730</v>
-      </c>
-      <c r="E126" t="s">
-        <v>190</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>553</v>
+        <v>595</v>
       </c>
       <c r="H126" t="n">
-        <v>9201621</v>
+        <v>11830518</v>
       </c>
       <c r="I126" t="n">
-        <v>131.828</v>
+        <v>169.492</v>
       </c>
       <c r="J126" t="n">
-        <v>75150</v>
+        <v>46129</v>
       </c>
       <c r="K126" t="n">
-        <v>1.077</v>
+        <v>0.661</v>
       </c>
       <c r="L126" t="n">
-        <v>64371</v>
+        <v>59982</v>
       </c>
       <c r="M126" t="n">
-        <v>0.922</v>
+        <v>0.859</v>
       </c>
       <c r="N126"/>
       <c r="O126"/>
@@ -9998,85 +9954,77 @@
         <v>731</v>
       </c>
       <c r="Q126" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="R126" t="s">
         <v>44</v>
       </c>
       <c r="S126" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B127" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44426</v>
+        <v>44431</v>
       </c>
       <c r="D127" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E127" t="s">
         <v>36</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H127" t="n">
-        <v>171936</v>
+        <v>175199</v>
       </c>
       <c r="I127" t="n">
-        <v>130.408</v>
-      </c>
-      <c r="J127" t="n">
-        <v>1289</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.978</v>
-      </c>
+        <v>132.883</v>
+      </c>
+      <c r="J127"/>
+      <c r="K127"/>
       <c r="L127" t="n">
-        <v>921</v>
+        <v>762</v>
       </c>
       <c r="M127" t="n">
-        <v>0.699</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="O127" t="n">
-        <v>5</v>
-      </c>
+        <v>0.578</v>
+      </c>
+      <c r="N127"/>
+      <c r="O127"/>
       <c r="P127" t="s">
         <v>36</v>
       </c>
       <c r="Q127" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="R127" t="s">
         <v>24</v>
       </c>
       <c r="S127" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B128" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
@@ -10107,30 +10055,30 @@
         <v>9.9</v>
       </c>
       <c r="P128" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Q128" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="R128" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="S128" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B129" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>44420</v>
       </c>
       <c r="D129" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E129" t="s">
         <v>36</v>
@@ -10167,79 +10115,79 @@
         <v>36</v>
       </c>
       <c r="Q129" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="R129" t="s">
         <v>31</v>
       </c>
       <c r="S129" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B130" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="D130" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E130" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H130" t="n">
-        <v>2434016</v>
+        <v>2469723</v>
       </c>
       <c r="I130" t="n">
-        <v>205.948</v>
+        <v>208.969</v>
       </c>
       <c r="J130"/>
       <c r="K130"/>
       <c r="L130" t="n">
-        <v>9250</v>
+        <v>10026</v>
       </c>
       <c r="M130" t="n">
-        <v>0.783</v>
+        <v>0.848</v>
       </c>
       <c r="N130"/>
       <c r="O130"/>
       <c r="P130" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="Q130" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="R130" t="s">
         <v>31</v>
       </c>
       <c r="S130" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B131" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>44380</v>
       </c>
       <c r="D131" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E131" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
@@ -10270,33 +10218,33 @@
         <v>43.2</v>
       </c>
       <c r="P131" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Q131" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="R131" t="s">
         <v>44</v>
       </c>
       <c r="S131" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B132" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>44425</v>
       </c>
       <c r="D132" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E132" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
@@ -10327,316 +10275,304 @@
         <v>20.6</v>
       </c>
       <c r="P132" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Q132" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="R132" t="s">
         <v>108</v>
       </c>
       <c r="S132" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B133" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="D133" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E133" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H133" t="n">
-        <v>11773325</v>
+        <v>11827261</v>
       </c>
       <c r="I133" t="n">
-        <v>269.205</v>
-      </c>
-      <c r="J133" t="n">
-        <v>23478</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.537</v>
-      </c>
+        <v>270.438</v>
+      </c>
+      <c r="J133"/>
+      <c r="K133"/>
       <c r="L133" t="n">
-        <v>20878</v>
+        <v>20537</v>
       </c>
       <c r="M133" t="n">
-        <v>0.477</v>
+        <v>0.47</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
       <c r="P133" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="Q133" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="R133" t="s">
         <v>44</v>
       </c>
       <c r="S133" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B134" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44427</v>
+        <v>44431</v>
       </c>
       <c r="D134" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E134" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H134" t="n">
-        <v>70987563</v>
+        <v>72200005</v>
       </c>
       <c r="I134" t="n">
-        <v>7177.421</v>
+        <v>7300.009</v>
       </c>
       <c r="J134" t="n">
-        <v>318348</v>
+        <v>290691</v>
       </c>
       <c r="K134" t="n">
-        <v>32.188</v>
+        <v>29.391</v>
       </c>
       <c r="L134" t="n">
-        <v>280085</v>
+        <v>300803</v>
       </c>
       <c r="M134" t="n">
-        <v>28.319</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="O134" t="n">
-        <v>245.1</v>
-      </c>
+        <v>30.414</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134"/>
       <c r="P134" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q134" t="s">
         <v>776</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>775</v>
       </c>
       <c r="R134" t="s">
         <v>44</v>
       </c>
       <c r="S134" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B135" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="D135" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E135" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F135" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G135" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H135" t="n">
-        <v>233809959</v>
+        <v>234648590</v>
       </c>
       <c r="I135" t="n">
-        <v>3444.156</v>
+        <v>3456.509</v>
       </c>
       <c r="J135" t="n">
-        <v>813360</v>
+        <v>838631</v>
       </c>
       <c r="K135" t="n">
-        <v>11.981</v>
+        <v>12.354</v>
       </c>
       <c r="L135" t="n">
-        <v>738525</v>
+        <v>739447</v>
       </c>
       <c r="M135" t="n">
-        <v>10.879</v>
+        <v>10.892</v>
       </c>
       <c r="N135" t="n">
         <v>0.041</v>
       </c>
       <c r="O135" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="P135" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Q135" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="R135" t="s">
         <v>44</v>
       </c>
       <c r="S135" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B136" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D136" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E136" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H136" t="n">
-        <v>507032525</v>
+        <v>511822768</v>
       </c>
       <c r="I136" t="n">
-        <v>1531.808</v>
+        <v>1546.28</v>
       </c>
       <c r="J136" t="n">
-        <v>252720</v>
+        <v>645687</v>
       </c>
       <c r="K136" t="n">
-        <v>0.763</v>
+        <v>1.951</v>
       </c>
       <c r="L136" t="n">
-        <v>888640</v>
+        <v>877581</v>
       </c>
       <c r="M136" t="n">
-        <v>2.685</v>
+        <v>2.651</v>
       </c>
       <c r="N136" t="n">
-        <v>0.151</v>
+        <v>0.161</v>
       </c>
       <c r="O136" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="P136" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="Q136" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="R136" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="S136" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B137" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44427</v>
+        <v>44430</v>
       </c>
       <c r="D137" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E137" t="s">
         <v>190</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H137" t="n">
-        <v>3234738</v>
+        <v>3270618</v>
       </c>
       <c r="I137" t="n">
-        <v>931.201</v>
-      </c>
-      <c r="J137" t="n">
-        <v>10539</v>
-      </c>
-      <c r="K137" t="n">
-        <v>3.034</v>
-      </c>
+        <v>941.53</v>
+      </c>
+      <c r="J137"/>
+      <c r="K137"/>
       <c r="L137" t="n">
-        <v>7621</v>
+        <v>8605</v>
       </c>
       <c r="M137" t="n">
-        <v>2.194</v>
+        <v>2.477</v>
       </c>
       <c r="N137" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="O137" t="n">
-        <v>70.1</v>
+        <v>75.1</v>
       </c>
       <c r="P137" t="s">
         <v>190</v>
       </c>
       <c r="Q137" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="R137" t="s">
         <v>44</v>
       </c>
       <c r="S137" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B138" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>44425</v>
       </c>
       <c r="D138" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E138" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
@@ -10667,90 +10603,90 @@
         <v>18.6</v>
       </c>
       <c r="P138" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="Q138" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="R138" t="s">
         <v>108</v>
       </c>
       <c r="S138" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B139" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="D139" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E139" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H139" t="n">
-        <v>2201555</v>
+        <v>2216799</v>
       </c>
       <c r="I139" t="n">
-        <v>119.754</v>
+        <v>120.583</v>
       </c>
       <c r="J139" t="n">
-        <v>6811</v>
+        <v>7086</v>
       </c>
       <c r="K139" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="L139" t="n">
-        <v>4735</v>
+        <v>6098</v>
       </c>
       <c r="M139" t="n">
-        <v>0.258</v>
+        <v>0.332</v>
       </c>
       <c r="N139" t="n">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="O139" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="P139" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="Q139" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="R139" t="s">
         <v>44</v>
       </c>
       <c r="S139" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B140" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D140" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E140" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
@@ -10781,16 +10717,16 @@
         <v>12.4</v>
       </c>
       <c r="P140" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="Q140" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="R140" t="s">
         <v>44</v>
       </c>
       <c r="S140" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -731,7 +731,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/08/Boletin-COVID-19-no.519.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/08/Boletin-COVID-19-no.521.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -930,7 +930,7 @@
     <t xml:space="preserve">Gambia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/08/GMB-COVID-19-Situational-Report-2021-7th_9th-August-No-353.pdf</t>
+    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/08/GMB-COVID-19-Situational-Report-2021-20th-August-No-359.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, The Gambia</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/clinical-management-summary-for-saturday-august-21-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-august-22-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -2314,13 +2314,13 @@
     <t xml:space="preserve">South Africa - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.nicd.ac.za/wp-content/uploads/2021/08/COVID-19-Testing-Summary-Week-32-2021.pdf</t>
+    <t xml:space="preserve">https://twitter.com/HealthZA/status/1429861910917361666</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Communicable Diseases (NICD)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.nicd.ac.za/diseases-a-z-index/disease-index-covid-19/surveillance-reports/weekly-testing-summary/</t>
+    <t xml:space="preserve">https://twitter.com/HealthZA?ref_src=twsrc%5Egoogle%7Ctwcamp%5Eserp%7Ctwgr%5Eauthor</t>
   </si>
   <si>
     <t xml:space="preserve">The South African National Institute for Communicable Diseases (NICD) publishes daily updates on the number of confirmed cases, deaths and tests conducted nationally and by province. These updates are published on its [website](https://www.nicd.ac.za/media/alerts/) and on its offical Twitter account ([@nicd_sa](https://twitter.com/nicd_sa)).
@@ -3329,7 +3329,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3339,31 +3339,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H5" t="n">
-        <v>12845080</v>
+        <v>12883511</v>
       </c>
       <c r="I5" t="n">
-        <v>284.21</v>
+        <v>285.06</v>
       </c>
       <c r="J5" t="n">
-        <v>34445</v>
+        <v>38431</v>
       </c>
       <c r="K5" t="n">
-        <v>0.762</v>
+        <v>0.85</v>
       </c>
       <c r="L5" t="n">
-        <v>31654</v>
+        <v>31452</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7</v>
+        <v>0.696</v>
       </c>
       <c r="N5" t="n">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
       <c r="O5" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3579,8 +3579,12 @@
       <c r="M9" t="n">
         <v>1.602</v>
       </c>
-      <c r="N9"/>
-      <c r="O9"/>
+      <c r="N9" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.6</v>
+      </c>
       <c r="P9" t="s">
         <v>65</v>
       </c>
@@ -3628,8 +3632,12 @@
       <c r="M10" t="n">
         <v>8.718</v>
       </c>
-      <c r="N10"/>
-      <c r="O10"/>
+      <c r="N10" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O10" t="n">
+        <v>150.5</v>
+      </c>
       <c r="P10" t="s">
         <v>70</v>
       </c>
@@ -3734,8 +3742,12 @@
       <c r="M12" t="n">
         <v>1.751</v>
       </c>
-      <c r="N12"/>
-      <c r="O12"/>
+      <c r="N12" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="O12" t="n">
+        <v>13.7</v>
+      </c>
       <c r="P12" t="s">
         <v>83</v>
       </c>
@@ -3840,8 +3852,12 @@
       <c r="M14" t="n">
         <v>2.5</v>
       </c>
-      <c r="N14"/>
-      <c r="O14"/>
+      <c r="N14" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="O14" t="n">
+        <v>12.7</v>
+      </c>
       <c r="P14" t="s">
         <v>96</v>
       </c>
@@ -4146,8 +4162,12 @@
       <c r="M20" t="n">
         <v>2.663</v>
       </c>
-      <c r="N20"/>
-      <c r="O20"/>
+      <c r="N20" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="O20" t="n">
+        <v>15</v>
+      </c>
       <c r="P20" t="s">
         <v>130</v>
       </c>
@@ -4684,8 +4704,12 @@
       <c r="M30" t="n">
         <v>2.098</v>
       </c>
-      <c r="N30"/>
-      <c r="O30"/>
+      <c r="N30" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="O30" t="n">
+        <v>21.8</v>
+      </c>
       <c r="P30" t="s">
         <v>184</v>
       </c>
@@ -4986,7 +5010,7 @@
         <v>215</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44427</v>
+        <v>44429</v>
       </c>
       <c r="D36" t="s">
         <v>216</v>
@@ -4996,31 +5020,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H36" t="n">
-        <v>1921446</v>
+        <v>1928791</v>
       </c>
       <c r="I36" t="n">
-        <v>177.126</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4351</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.401</v>
-      </c>
+        <v>177.803</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
       <c r="L36" t="n">
-        <v>4443</v>
+        <v>4086</v>
       </c>
       <c r="M36" t="n">
-        <v>0.41</v>
+        <v>0.377</v>
       </c>
       <c r="N36" t="n">
-        <v>0.054</v>
+        <v>0.059</v>
       </c>
       <c r="O36" t="n">
-        <v>18.6</v>
+        <v>17.1</v>
       </c>
       <c r="P36" t="s">
         <v>217</v>
@@ -5519,8 +5539,12 @@
       <c r="M45" t="n">
         <v>1.349</v>
       </c>
-      <c r="N45"/>
-      <c r="O45"/>
+      <c r="N45" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O45" t="n">
+        <v>191</v>
+      </c>
       <c r="P45" t="s">
         <v>269</v>
       </c>
@@ -5542,7 +5566,7 @@
         <v>274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D46" t="s">
         <v>275</v>
@@ -5552,24 +5576,28 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H46" t="n">
-        <v>93657</v>
+        <v>98435</v>
       </c>
       <c r="I46" t="n">
-        <v>38.755</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1003</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
+        <v>40.732</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46" t="n">
+        <v>362</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="O46" t="n">
+        <v>5.7</v>
+      </c>
       <c r="P46" t="s">
         <v>276</v>
       </c>
@@ -5957,8 +5985,12 @@
       <c r="M53" t="n">
         <v>0.7</v>
       </c>
-      <c r="N53"/>
-      <c r="O53"/>
+      <c r="N53" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O53" t="n">
+        <v>76.8</v>
+      </c>
       <c r="P53" t="s">
         <v>321</v>
       </c>
@@ -6092,7 +6124,7 @@
         <v>337</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44428</v>
+        <v>44430</v>
       </c>
       <c r="D56" t="s">
         <v>338</v>
@@ -6102,27 +6134,27 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H56" t="n">
-        <v>20299651</v>
+        <v>20501173</v>
       </c>
       <c r="I56" t="n">
-        <v>74.215</v>
+        <v>74.952</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56" t="n">
-        <v>100510</v>
+        <v>101245</v>
       </c>
       <c r="M56" t="n">
-        <v>0.367</v>
+        <v>0.37</v>
       </c>
       <c r="N56" t="n">
-        <v>0.207</v>
+        <v>0.177</v>
       </c>
       <c r="O56" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="P56" t="s">
         <v>339</v>
@@ -6171,8 +6203,12 @@
       <c r="M57" t="n">
         <v>1.182</v>
       </c>
-      <c r="N57"/>
-      <c r="O57"/>
+      <c r="N57" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.8</v>
+      </c>
       <c r="P57" t="s">
         <v>345</v>
       </c>
@@ -6338,8 +6374,12 @@
       <c r="M60" t="n">
         <v>14.434</v>
       </c>
-      <c r="N60"/>
-      <c r="O60"/>
+      <c r="N60" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="O60" t="n">
+        <v>17.1</v>
+      </c>
       <c r="P60" t="s">
         <v>36</v>
       </c>
@@ -6479,7 +6519,7 @@
         <v>378</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="D63" t="s">
         <v>379</v>
@@ -6489,27 +6529,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H63" t="n">
-        <v>531130</v>
+        <v>533840</v>
       </c>
       <c r="I63" t="n">
-        <v>179.365</v>
-      </c>
-      <c r="J63"/>
-      <c r="K63"/>
+        <v>180.281</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2710</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.915</v>
+      </c>
       <c r="L63" t="n">
-        <v>1726</v>
+        <v>1864</v>
       </c>
       <c r="M63" t="n">
-        <v>0.583</v>
+        <v>0.629</v>
       </c>
       <c r="N63" t="n">
-        <v>0.33</v>
+        <v>0.256</v>
       </c>
       <c r="O63" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="P63" t="s">
         <v>380</v>
@@ -6589,7 +6633,7 @@
         <v>390</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44427</v>
+        <v>44431</v>
       </c>
       <c r="D65" t="s">
         <v>391</v>
@@ -6599,31 +6643,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H65" t="n">
-        <v>8924446</v>
+        <v>9031711</v>
       </c>
       <c r="I65" t="n">
-        <v>874.676</v>
+        <v>885.189</v>
       </c>
       <c r="J65" t="n">
-        <v>27749</v>
+        <v>34484</v>
       </c>
       <c r="K65" t="n">
-        <v>2.72</v>
+        <v>3.38</v>
       </c>
       <c r="L65" t="n">
-        <v>29880</v>
+        <v>31207</v>
       </c>
       <c r="M65" t="n">
-        <v>2.929</v>
+        <v>3.059</v>
       </c>
       <c r="N65" t="n">
-        <v>0.033</v>
+        <v>0.027</v>
       </c>
       <c r="O65" t="n">
-        <v>30.6</v>
+        <v>37.5</v>
       </c>
       <c r="P65" t="s">
         <v>392</v>
@@ -6756,7 +6800,7 @@
         <v>406</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44427</v>
+        <v>44431</v>
       </c>
       <c r="D68" t="s">
         <v>407</v>
@@ -6766,31 +6810,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H68" t="n">
-        <v>846044</v>
+        <v>889180</v>
       </c>
       <c r="I68" t="n">
-        <v>437.736</v>
+        <v>460.054</v>
       </c>
       <c r="J68" t="n">
-        <v>11373</v>
+        <v>7946</v>
       </c>
       <c r="K68" t="n">
-        <v>5.884</v>
+        <v>4.111</v>
       </c>
       <c r="L68" t="n">
-        <v>7711</v>
+        <v>9676</v>
       </c>
       <c r="M68" t="n">
-        <v>3.99</v>
+        <v>5.006</v>
       </c>
       <c r="N68" t="n">
-        <v>0.194</v>
+        <v>0.198</v>
       </c>
       <c r="O68" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="P68" t="s">
         <v>409</v>
@@ -7493,19 +7537,19 @@
         <v>1152894</v>
       </c>
       <c r="I81" t="n">
-        <v>2611.081</v>
+        <v>2240.526</v>
       </c>
       <c r="J81" t="n">
         <v>3496</v>
       </c>
       <c r="K81" t="n">
-        <v>7.918</v>
+        <v>6.794</v>
       </c>
       <c r="L81" t="n">
         <v>3301</v>
       </c>
       <c r="M81" t="n">
-        <v>7.476</v>
+        <v>6.415</v>
       </c>
       <c r="N81" t="n">
         <v>0.022</v>
@@ -7666,8 +7710,12 @@
       <c r="M84" t="n">
         <v>1.443</v>
       </c>
-      <c r="N84"/>
-      <c r="O84"/>
+      <c r="N84" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="O84" t="n">
+        <v>16.3</v>
+      </c>
       <c r="P84" t="s">
         <v>502</v>
       </c>
@@ -8110,8 +8158,12 @@
       <c r="M92" t="n">
         <v>4.959</v>
       </c>
-      <c r="N92"/>
-      <c r="O92"/>
+      <c r="N92" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O92" t="n">
+        <v>984.7</v>
+      </c>
       <c r="P92" t="s">
         <v>550</v>
       </c>
@@ -8159,8 +8211,12 @@
       <c r="M93" t="n">
         <v>0.06</v>
       </c>
-      <c r="N93"/>
-      <c r="O93"/>
+      <c r="N93" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="O93" t="n">
+        <v>19.2</v>
+      </c>
       <c r="P93" t="s">
         <v>556</v>
       </c>
@@ -8363,8 +8419,12 @@
       <c r="M97" t="n">
         <v>0.245</v>
       </c>
-      <c r="N97"/>
-      <c r="O97"/>
+      <c r="N97" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="O97" t="n">
+        <v>14.4</v>
+      </c>
       <c r="P97" t="s">
         <v>577</v>
       </c>
@@ -8972,8 +9032,12 @@
       <c r="M108" t="n">
         <v>0.748</v>
       </c>
-      <c r="N108"/>
-      <c r="O108"/>
+      <c r="N108" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="O108" t="n">
+        <v>26.3</v>
+      </c>
       <c r="P108" t="s">
         <v>635</v>
       </c>
@@ -9048,7 +9112,7 @@
         <v>645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="D110" t="s">
         <v>646</v>
@@ -9058,31 +9122,31 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H110" t="n">
-        <v>2301288</v>
+        <v>2313938</v>
       </c>
       <c r="I110" t="n">
-        <v>177.675</v>
+        <v>178.652</v>
       </c>
       <c r="J110" t="n">
-        <v>16143</v>
+        <v>12650</v>
       </c>
       <c r="K110" t="n">
-        <v>1.246</v>
+        <v>0.977</v>
       </c>
       <c r="L110" t="n">
-        <v>11332</v>
+        <v>11700</v>
       </c>
       <c r="M110" t="n">
-        <v>0.875</v>
+        <v>0.903</v>
       </c>
       <c r="N110" t="n">
-        <v>0.042</v>
+        <v>0.041</v>
       </c>
       <c r="O110" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="P110" t="s">
         <v>647</v>
@@ -9131,8 +9195,12 @@
       <c r="M111" t="n">
         <v>4.192</v>
       </c>
-      <c r="N111"/>
-      <c r="O111"/>
+      <c r="N111" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="O111" t="n">
+        <v>9.3</v>
+      </c>
       <c r="P111" t="s">
         <v>36</v>
       </c>
@@ -9241,8 +9309,12 @@
       <c r="M113" t="n">
         <v>0.165</v>
       </c>
-      <c r="N113"/>
-      <c r="O113"/>
+      <c r="N113" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O113" t="n">
+        <v>16.7</v>
+      </c>
       <c r="P113" t="s">
         <v>662</v>
       </c>
@@ -9490,7 +9562,7 @@
         <v>685</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44422</v>
+        <v>44431</v>
       </c>
       <c r="D118" t="s">
         <v>686</v>
@@ -9500,24 +9572,28 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="H118" t="n">
-        <v>15526881</v>
+        <v>16040903</v>
       </c>
       <c r="I118" t="n">
-        <v>261.798</v>
-      </c>
-      <c r="J118"/>
-      <c r="K118"/>
+        <v>270.465</v>
+      </c>
+      <c r="J118" t="n">
+        <v>37789</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.637</v>
+      </c>
       <c r="L118" t="n">
-        <v>48945</v>
+        <v>58183</v>
       </c>
       <c r="M118" t="n">
-        <v>0.825</v>
+        <v>0.981</v>
       </c>
       <c r="N118" t="n">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="O118" t="n">
         <v>4.8</v>
@@ -9569,8 +9645,12 @@
       <c r="M119" t="n">
         <v>0.649</v>
       </c>
-      <c r="N119"/>
-      <c r="O119"/>
+      <c r="N119" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="O119" t="n">
+        <v>18.7</v>
+      </c>
       <c r="P119" t="s">
         <v>693</v>
       </c>
@@ -9728,8 +9808,12 @@
       <c r="M122" t="n">
         <v>0.795</v>
       </c>
-      <c r="N122"/>
-      <c r="O122"/>
+      <c r="N122" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O122" t="n">
+        <v>3.3</v>
+      </c>
       <c r="P122" t="s">
         <v>710</v>
       </c>
@@ -9997,8 +10081,12 @@
       <c r="M127" t="n">
         <v>0.578</v>
       </c>
-      <c r="N127"/>
-      <c r="O127"/>
+      <c r="N127" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="O127" t="n">
+        <v>3.1</v>
+      </c>
       <c r="P127" t="s">
         <v>36</v>
       </c>
@@ -10158,8 +10246,12 @@
       <c r="M130" t="n">
         <v>0.848</v>
       </c>
-      <c r="N130"/>
-      <c r="O130"/>
+      <c r="N130" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="O130" t="n">
+        <v>4.1</v>
+      </c>
       <c r="P130" t="s">
         <v>753</v>
       </c>
@@ -10321,8 +10413,12 @@
       <c r="M133" t="n">
         <v>0.47</v>
       </c>
-      <c r="N133"/>
-      <c r="O133"/>
+      <c r="N133" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O133" t="n">
+        <v>11.1</v>
+      </c>
       <c r="P133" t="s">
         <v>771</v>
       </c>
@@ -10374,8 +10470,12 @@
       <c r="M134" t="n">
         <v>30.414</v>
       </c>
-      <c r="N134"/>
-      <c r="O134"/>
+      <c r="N134" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="O134" t="n">
+        <v>278.8</v>
+      </c>
       <c r="P134" t="s">
         <v>777</v>
       </c>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="820">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -436,17 +436,19 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://coronavirus.bg/bg/statistika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria COVID-19 Information Portal</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://coronavirus.bg/</t>
   </si>
   <si>
-    <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria COVID-19 Information Portal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bulgaria's official COVID-19 information portal provides irregular updates of the cumulative number of 'tests done'.
-On 25 December 2020, the phrasing of the metric on the official webpage went from "PCR tests performed" to "tests performed". This is likely to mean that antigen tests are now included in the number of tests published by the government.
 Using web archives we reconstruct the testing time series starting from 11 April 2020. We cannot say with certainty when testing began, only that the earliest observation available to us begins from 11 April 2020. For 19 April 2020, we take the figure provided in Bulgaria's [COVID-19 dashboard](https://coronavirus.bg/arcgis/apps/opsdashboard/index.html#/ecacd239ee7e4fba956f7948f586af93) as no snapshot was available using web archives. The test figures provided in the dashboard match the figures provided by the information portal for all other dates available.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
@@ -1418,10 +1420,13 @@
     <t xml:space="preserve">Laos - people tested</t>
   </si>
   <si>
+    <t xml:space="preserve">https://app.powerbi.com/view?r=eyJrIjoiM2JkZWRhNTQtNDY5YS00YWM3LWI4ZjUtNmExM2VmZDM4YjU5IiwidCI6ImNkOWNiOGVjLWU2MjEtNDcyYS05NzlhLTU0OWFiNWJhMjQ3MCIsImMiOjF9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of Laos</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.covid19.gov.la/index.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government of Laos</t>
   </si>
   <si>
     <t xml:space="preserve">The number of people tested</t>
@@ -4149,53 +4154,53 @@
         <v>423</v>
       </c>
       <c r="H20" t="n">
-        <v>4014833</v>
+        <v>4044359</v>
       </c>
       <c r="I20" t="n">
-        <v>577.803</v>
+        <v>582.052</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>18501</v>
+        <v>22719</v>
       </c>
       <c r="M20" t="n">
-        <v>2.663</v>
+        <v>3.27</v>
       </c>
       <c r="N20" t="n">
-        <v>0.067</v>
+        <v>0.054</v>
       </c>
       <c r="O20" t="n">
-        <v>15</v>
+        <v>18.4</v>
       </c>
       <c r="P20" t="s">
         <v>130</v>
       </c>
       <c r="Q20" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="R20" t="s">
         <v>44</v>
       </c>
       <c r="S20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>44389</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
@@ -4226,33 +4231,33 @@
         <v>28.2</v>
       </c>
       <c r="P21" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q21" t="s">
         <v>135</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>134</v>
       </c>
       <c r="R21" t="s">
         <v>24</v>
       </c>
       <c r="S21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>44227</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
@@ -4283,33 +4288,33 @@
         <v>13.9</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R22" t="s">
         <v>31</v>
       </c>
       <c r="S22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>44428</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
@@ -4340,33 +4345,33 @@
         <v>28.1</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R23" t="s">
         <v>44</v>
       </c>
       <c r="S23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
@@ -4385,33 +4390,33 @@
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="R24" t="s">
         <v>44</v>
       </c>
       <c r="S24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
@@ -4442,33 +4447,33 @@
         <v>80.1</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R25" t="s">
         <v>44</v>
       </c>
       <c r="S25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>44049</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
@@ -4487,33 +4492,33 @@
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R26" t="s">
         <v>44</v>
       </c>
       <c r="S26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
@@ -4544,30 +4549,30 @@
         <v>12.7</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="R27" t="s">
         <v>44</v>
       </c>
       <c r="S27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>44427</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -4601,33 +4606,33 @@
         <v>5.3</v>
       </c>
       <c r="P28" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q28" t="s">
         <v>173</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>172</v>
       </c>
       <c r="R28" t="s">
         <v>31</v>
       </c>
       <c r="S28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
@@ -4658,33 +4663,33 @@
         <v>23.2</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R29" t="s">
         <v>108</v>
       </c>
       <c r="S29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
@@ -4711,36 +4716,36 @@
         <v>21.8</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R30" t="s">
         <v>31</v>
       </c>
       <c r="S30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>44381</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G31" t="n">
         <v>470</v>
@@ -4770,30 +4775,30 @@
         <v>11.4</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R31" t="s">
         <v>44</v>
       </c>
       <c r="S31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -4830,27 +4835,27 @@
         <v>36</v>
       </c>
       <c r="Q32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R32" t="s">
         <v>44</v>
       </c>
       <c r="S32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -4883,30 +4888,30 @@
         <v>36</v>
       </c>
       <c r="Q33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R33" t="s">
         <v>44</v>
       </c>
       <c r="S33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
@@ -4933,33 +4938,33 @@
         <v>11.1</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R34" t="s">
         <v>108</v>
       </c>
       <c r="S34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
@@ -4990,33 +4995,33 @@
         <v>68.4</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R35" t="s">
         <v>44</v>
       </c>
       <c r="S35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
@@ -5043,36 +5048,36 @@
         <v>17.1</v>
       </c>
       <c r="P36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R36" t="s">
         <v>108</v>
       </c>
       <c r="S36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>44420</v>
       </c>
       <c r="D37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G37" t="n">
         <v>500</v>
@@ -5102,33 +5107,33 @@
         <v>5.3</v>
       </c>
       <c r="P37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R37" t="s">
         <v>31</v>
       </c>
       <c r="S37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>44308</v>
       </c>
       <c r="D38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
@@ -5159,33 +5164,33 @@
         <v>15.2</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R38" t="s">
         <v>44</v>
       </c>
       <c r="S38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>44428</v>
       </c>
       <c r="D39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
@@ -5212,33 +5217,33 @@
         <v>52</v>
       </c>
       <c r="P39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R39" t="s">
         <v>24</v>
       </c>
       <c r="S39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
@@ -5269,33 +5274,33 @@
         <v>15.1</v>
       </c>
       <c r="P40" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q40" t="s">
         <v>243</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>242</v>
       </c>
       <c r="R40" t="s">
         <v>44</v>
       </c>
       <c r="S40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
@@ -5326,33 +5331,33 @@
         <v>7.5</v>
       </c>
       <c r="P41" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q41" t="s">
         <v>248</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>247</v>
       </c>
       <c r="R41" t="s">
         <v>44</v>
       </c>
       <c r="S41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>44402</v>
       </c>
       <c r="D42" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E42" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
@@ -5383,33 +5388,33 @@
         <v>4.2</v>
       </c>
       <c r="P42" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q42" t="s">
         <v>253</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>252</v>
       </c>
       <c r="R42" t="s">
         <v>44</v>
       </c>
       <c r="S42" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
@@ -5440,33 +5445,33 @@
         <v>22.3</v>
       </c>
       <c r="P43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R43" t="s">
         <v>44</v>
       </c>
       <c r="S43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>44427</v>
       </c>
       <c r="D44" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E44" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
@@ -5493,33 +5498,33 @@
         <v>31.2</v>
       </c>
       <c r="P44" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q44" t="s">
         <v>264</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>263</v>
       </c>
       <c r="R44" t="s">
         <v>31</v>
       </c>
       <c r="S44" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
@@ -5546,30 +5551,30 @@
         <v>191</v>
       </c>
       <c r="P45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R45" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>44428</v>
       </c>
       <c r="D46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -5599,33 +5604,33 @@
         <v>5.7</v>
       </c>
       <c r="P46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R46" t="s">
         <v>108</v>
       </c>
       <c r="S46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
@@ -5656,33 +5661,33 @@
         <v>9</v>
       </c>
       <c r="P47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q47" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R47" t="s">
         <v>24</v>
       </c>
       <c r="S47" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>44423</v>
       </c>
       <c r="D48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
@@ -5709,33 +5714,33 @@
         <v>16.7</v>
       </c>
       <c r="P48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R48" t="s">
         <v>44</v>
       </c>
       <c r="S48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>44395</v>
       </c>
       <c r="D49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
@@ -5766,33 +5771,33 @@
         <v>30.1</v>
       </c>
       <c r="P49" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R49" t="s">
         <v>108</v>
       </c>
       <c r="S49" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>44427</v>
       </c>
       <c r="D50" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
@@ -5823,33 +5828,33 @@
         <v>27.9</v>
       </c>
       <c r="P50" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q50" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R50" t="s">
         <v>108</v>
       </c>
       <c r="S50" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B51" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>44428</v>
       </c>
       <c r="D51" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E51" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
@@ -5880,33 +5885,33 @@
         <v>2.9</v>
       </c>
       <c r="P51" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q51" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R51" t="s">
         <v>31</v>
       </c>
       <c r="S51" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B52" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>44418</v>
       </c>
       <c r="D52" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E52" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
@@ -5933,36 +5938,36 @@
         <v>16666.7</v>
       </c>
       <c r="P52" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R52" t="s">
         <v>44</v>
       </c>
       <c r="S52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B53" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D53" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F53" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G53" t="n">
         <v>512</v>
@@ -5992,33 +5997,33 @@
         <v>76.8</v>
       </c>
       <c r="P53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q53" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R53" t="s">
         <v>108</v>
       </c>
       <c r="S53" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B54" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E54" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
@@ -6045,36 +6050,36 @@
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q54" t="s">
         <v>328</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>327</v>
       </c>
       <c r="R54" t="s">
         <v>44</v>
       </c>
       <c r="S54" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B55" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D55" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E55" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F55" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G55" t="n">
         <v>512</v>
@@ -6104,33 +6109,33 @@
         <v>56.4</v>
       </c>
       <c r="P55" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q55" t="s">
         <v>333</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>332</v>
       </c>
       <c r="R55" t="s">
         <v>108</v>
       </c>
       <c r="S55" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
@@ -6157,33 +6162,33 @@
         <v>5.7</v>
       </c>
       <c r="P56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q56" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R56" t="s">
         <v>31</v>
       </c>
       <c r="S56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
@@ -6210,33 +6215,33 @@
         <v>2.8</v>
       </c>
       <c r="P57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q57" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="R57" t="s">
         <v>44</v>
       </c>
       <c r="S57" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B58" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>44427</v>
       </c>
       <c r="D58" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E58" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
@@ -6267,33 +6272,33 @@
         <v>4.8</v>
       </c>
       <c r="P58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q58" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="R58" t="s">
         <v>108</v>
       </c>
       <c r="S58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>44428</v>
       </c>
       <c r="D59" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E59" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
@@ -6324,33 +6329,33 @@
         <v>11.5</v>
       </c>
       <c r="P59" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q59" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R59" t="s">
         <v>44</v>
       </c>
       <c r="S59" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B60" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D60" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E60" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
@@ -6384,33 +6389,33 @@
         <v>36</v>
       </c>
       <c r="Q60" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="R60" t="s">
         <v>44</v>
       </c>
       <c r="S60" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B61" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D61" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E61" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F61" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G61" t="n">
         <v>491</v>
@@ -6440,36 +6445,36 @@
         <v>7.7</v>
       </c>
       <c r="P61" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q61" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="R61" t="s">
         <v>31</v>
       </c>
       <c r="S61" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D62" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E62" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G62" t="n">
         <v>546</v>
@@ -6499,33 +6504,33 @@
         <v>31.8</v>
       </c>
       <c r="P62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q62" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="R62" t="s">
         <v>44</v>
       </c>
       <c r="S62" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B63" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D63" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E63" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
@@ -6556,33 +6561,33 @@
         <v>3.9</v>
       </c>
       <c r="P63" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q63" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="R63" t="s">
         <v>108</v>
       </c>
       <c r="S63" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B64" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D64" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
@@ -6613,33 +6618,33 @@
         <v>5.2</v>
       </c>
       <c r="P64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q64" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R64" t="s">
         <v>31</v>
       </c>
       <c r="S64" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B65" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D65" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E65" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
@@ -6670,33 +6675,33 @@
         <v>37.5</v>
       </c>
       <c r="P65" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q65" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R65" t="s">
         <v>44</v>
       </c>
       <c r="S65" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B66" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>44355</v>
       </c>
       <c r="D66" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E66" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
@@ -6727,33 +6732,33 @@
         <v>33.4</v>
       </c>
       <c r="P66" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q66" t="s">
         <v>398</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>397</v>
       </c>
       <c r="R66" t="s">
         <v>44</v>
       </c>
       <c r="S66" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B67" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>44320</v>
       </c>
       <c r="D67" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E67" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
@@ -6783,30 +6788,30 @@
         <v>36</v>
       </c>
       <c r="Q67" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="R67" t="s">
         <v>44</v>
       </c>
       <c r="S67" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B68" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D68" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E68" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
@@ -6837,33 +6842,33 @@
         <v>5.1</v>
       </c>
       <c r="P68" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q68" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="R68" t="s">
         <v>24</v>
       </c>
       <c r="S68" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B69" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D69" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E69" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
@@ -6894,93 +6899,81 @@
         <v>31.3</v>
       </c>
       <c r="P69" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q69" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="R69" t="s">
         <v>44</v>
       </c>
       <c r="S69" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B70" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44383</v>
+        <v>44431</v>
       </c>
       <c r="D70" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E70" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H70" t="n">
-        <v>305013</v>
+        <v>404790</v>
       </c>
       <c r="I70" t="n">
-        <v>41.923</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1559</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="L70" t="n">
-        <v>1458</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="O70" t="n">
-        <v>41.5</v>
-      </c>
+        <v>55.637</v>
+      </c>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
       <c r="P70" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q70" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="R70" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="S70" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B71" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D71" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E71" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F71" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G71" t="n">
         <v>541</v>
@@ -7010,33 +7003,33 @@
         <v>63.6</v>
       </c>
       <c r="P71" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q71" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="R71" t="s">
         <v>44</v>
       </c>
       <c r="S71" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B72" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="D72" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E72" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
@@ -7059,33 +7052,33 @@
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q72" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="R72" t="s">
         <v>24</v>
       </c>
       <c r="S72" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B73" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D73" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E73" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
@@ -7104,33 +7097,33 @@
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q73" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="R73" t="s">
         <v>108</v>
       </c>
       <c r="S73" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B74" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D74" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E74" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
@@ -7161,33 +7154,33 @@
         <v>11.9</v>
       </c>
       <c r="P74" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q74" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="R74" t="s">
         <v>44</v>
       </c>
       <c r="S74" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B75" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>44424</v>
       </c>
       <c r="D75" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E75" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
@@ -7218,33 +7211,33 @@
         <v>23.3</v>
       </c>
       <c r="P75" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q75" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="R75" t="s">
         <v>44</v>
       </c>
       <c r="S75" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B76" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>44427</v>
       </c>
       <c r="D76" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E76" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
@@ -7275,33 +7268,33 @@
         <v>76.7</v>
       </c>
       <c r="P76" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q76" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="R76" t="s">
         <v>44</v>
       </c>
       <c r="S76" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B77" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>44425</v>
       </c>
       <c r="D77" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E77" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
@@ -7332,33 +7325,33 @@
         <v>99.3</v>
       </c>
       <c r="P77" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q77" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="R77" t="s">
         <v>44</v>
       </c>
       <c r="S77" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B78" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>44400</v>
       </c>
       <c r="D78" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E78" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
@@ -7385,36 +7378,36 @@
         <v>3.1</v>
       </c>
       <c r="P78" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q78" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="R78" t="s">
         <v>108</v>
       </c>
       <c r="S78" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B79" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D79" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E79" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F79" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G79" t="n">
         <v>576</v>
@@ -7447,30 +7440,30 @@
         <v>36</v>
       </c>
       <c r="Q79" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="R79" t="s">
         <v>31</v>
       </c>
       <c r="S79" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B80" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>44427</v>
       </c>
       <c r="D80" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E80" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
@@ -7501,33 +7494,33 @@
         <v>45.3</v>
       </c>
       <c r="P80" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q80" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="R80" t="s">
         <v>108</v>
       </c>
       <c r="S80" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B81" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>44427</v>
       </c>
       <c r="D81" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E81" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
@@ -7558,30 +7551,30 @@
         <v>45.2</v>
       </c>
       <c r="P81" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q81" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="R81" t="s">
         <v>44</v>
       </c>
       <c r="S81" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B82" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>44290</v>
       </c>
       <c r="D82" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
@@ -7607,33 +7600,33 @@
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q82" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="R82" t="s">
         <v>44</v>
       </c>
       <c r="S82" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B83" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D83" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E83" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
@@ -7664,33 +7657,33 @@
         <v>2.4</v>
       </c>
       <c r="P83" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q83" t="s">
         <v>497</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>495</v>
       </c>
       <c r="R83" t="s">
         <v>31</v>
       </c>
       <c r="S83" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B84" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D84" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E84" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
@@ -7717,30 +7710,30 @@
         <v>16.3</v>
       </c>
       <c r="P84" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="Q84" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="R84" t="s">
         <v>24</v>
       </c>
       <c r="S84" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B85" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>44388</v>
       </c>
       <c r="D85" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
@@ -7777,30 +7770,30 @@
         <v>36</v>
       </c>
       <c r="Q85" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="R85" t="s">
         <v>108</v>
       </c>
       <c r="S85" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B86" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>44427</v>
       </c>
       <c r="D86" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E86" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
@@ -7831,33 +7824,33 @@
         <v>4.7</v>
       </c>
       <c r="P86" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Q86" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="R86" t="s">
         <v>31</v>
       </c>
       <c r="S86" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B87" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D87" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E87" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
@@ -7888,33 +7881,33 @@
         <v>4.8</v>
       </c>
       <c r="P87" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="Q87" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="R87" t="s">
         <v>72</v>
       </c>
       <c r="S87" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D88" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E88" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
@@ -7945,33 +7938,33 @@
         <v>3.9</v>
       </c>
       <c r="P88" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="Q88" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="R88" t="s">
         <v>108</v>
       </c>
       <c r="S88" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B89" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D89" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E89" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
@@ -8002,33 +7995,33 @@
         <v>7.9</v>
       </c>
       <c r="P89" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Q89" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="R89" t="s">
         <v>108</v>
       </c>
       <c r="S89" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B90" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>44427</v>
       </c>
       <c r="D90" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E90" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
@@ -8059,33 +8052,33 @@
         <v>4.5</v>
       </c>
       <c r="P90" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Q90" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="R90" t="s">
         <v>44</v>
       </c>
       <c r="S90" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B91" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>44423</v>
       </c>
       <c r="D91" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E91" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
@@ -8112,30 +8105,30 @@
         <v>13.7</v>
       </c>
       <c r="P91" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="Q91" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="R91" t="s">
         <v>31</v>
       </c>
       <c r="S91" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B92" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D92" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
@@ -8165,33 +8158,33 @@
         <v>984.7</v>
       </c>
       <c r="P92" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="Q92" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="R92" t="s">
         <v>44</v>
       </c>
       <c r="S92" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B93" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D93" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E93" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
@@ -8218,30 +8211,30 @@
         <v>19.2</v>
       </c>
       <c r="P93" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Q93" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="R93" t="s">
         <v>108</v>
       </c>
       <c r="S93" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B94" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>44428</v>
       </c>
       <c r="D94" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E94" t="s">
         <v>36</v>
@@ -8274,30 +8267,30 @@
         <v>36</v>
       </c>
       <c r="Q94" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="R94" t="s">
         <v>44</v>
       </c>
       <c r="S94" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B95" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D95" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E95" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
@@ -8328,33 +8321,33 @@
         <v>30.4</v>
       </c>
       <c r="P95" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="Q95" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="R95" t="s">
         <v>31</v>
       </c>
       <c r="S95" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B96" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="D96" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E96" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
@@ -8373,33 +8366,33 @@
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Q96" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="R96" t="s">
         <v>72</v>
       </c>
       <c r="S96" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B97" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D97" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E97" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
@@ -8426,30 +8419,30 @@
         <v>14.4</v>
       </c>
       <c r="P97" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Q97" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="R97" t="s">
         <v>44</v>
       </c>
       <c r="S97" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B98" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>44427</v>
       </c>
       <c r="D98" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E98"/>
       <c r="F98"/>
@@ -8477,33 +8470,33 @@
         <v>8.7</v>
       </c>
       <c r="P98" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="Q98" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="R98" t="s">
         <v>44</v>
       </c>
       <c r="S98" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B99" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D99" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E99" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
@@ -8534,33 +8527,33 @@
         <v>13.6</v>
       </c>
       <c r="P99" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="Q99" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="R99" t="s">
         <v>44</v>
       </c>
       <c r="S99" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B100" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>44304</v>
       </c>
       <c r="D100" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E100" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
@@ -8587,33 +8580,33 @@
         <v>5.1</v>
       </c>
       <c r="P100" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q100" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="R100" t="s">
         <v>24</v>
       </c>
       <c r="S100" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B101" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D101" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E101" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
@@ -8644,33 +8637,33 @@
         <v>19.9</v>
       </c>
       <c r="P101" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Q101" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="R101" t="s">
         <v>44</v>
       </c>
       <c r="S101" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B102" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D102" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E102" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
@@ -8701,33 +8694,33 @@
         <v>20.8</v>
       </c>
       <c r="P102" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q102" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="R102" t="s">
         <v>44</v>
       </c>
       <c r="S102" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B103" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D103" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E103" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
@@ -8758,33 +8751,33 @@
         <v>4.3</v>
       </c>
       <c r="P103" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q103" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="R103" t="s">
         <v>31</v>
       </c>
       <c r="S103" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B104" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>44427</v>
       </c>
       <c r="D104" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E104" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
@@ -8815,33 +8808,33 @@
         <v>210.9</v>
       </c>
       <c r="P104" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="Q104" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="R104" t="s">
         <v>31</v>
       </c>
       <c r="S104" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B105" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D105" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E105" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
@@ -8872,30 +8865,30 @@
         <v>208.6</v>
       </c>
       <c r="P105" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="Q105" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="R105" t="s">
         <v>108</v>
       </c>
       <c r="S105" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B106" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>44428</v>
       </c>
       <c r="D106" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E106" t="s">
         <v>36</v>
@@ -8929,33 +8922,33 @@
         <v>23.3</v>
       </c>
       <c r="P106" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="Q106" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="R106" t="s">
         <v>44</v>
       </c>
       <c r="S106" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B107" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D107" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E107" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
@@ -8986,33 +8979,33 @@
         <v>23.4</v>
       </c>
       <c r="P107" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q107" t="s">
         <v>629</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>627</v>
       </c>
       <c r="R107" t="s">
         <v>31</v>
       </c>
       <c r="S107" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B108" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D108" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E108" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
@@ -9039,33 +9032,33 @@
         <v>26.3</v>
       </c>
       <c r="P108" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="Q108" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="R108" t="s">
         <v>44</v>
       </c>
       <c r="S108" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B109" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D109" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E109" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
@@ -9092,33 +9085,33 @@
         <v>21.7</v>
       </c>
       <c r="P109" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Q109" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="R109" t="s">
         <v>44</v>
       </c>
       <c r="S109" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B110" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D110" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E110" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
@@ -9149,30 +9142,30 @@
         <v>24.2</v>
       </c>
       <c r="P110" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="Q110" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="R110" t="s">
         <v>108</v>
       </c>
       <c r="S110" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B111" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D111" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E111" t="s">
         <v>36</v>
@@ -9205,27 +9198,27 @@
         <v>36</v>
       </c>
       <c r="Q111" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="R111" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="S111" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B112" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D112" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E112" t="s">
         <v>36</v>
@@ -9262,30 +9255,30 @@
         <v>36</v>
       </c>
       <c r="Q112" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="R112" t="s">
         <v>44</v>
       </c>
       <c r="S112" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B113" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D113" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E113" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
@@ -9316,36 +9309,36 @@
         <v>16.7</v>
       </c>
       <c r="P113" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="Q113" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="R113" t="s">
         <v>44</v>
       </c>
       <c r="S113" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B114" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D114" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E114" t="s">
         <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G114" t="n">
         <v>543</v>
@@ -9378,27 +9371,27 @@
         <v>36</v>
       </c>
       <c r="Q114" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="R114" t="s">
         <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B115" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>44424</v>
       </c>
       <c r="D115" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E115" t="s">
         <v>36</v>
@@ -9431,27 +9424,27 @@
         <v>36</v>
       </c>
       <c r="Q115" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="R115" t="s">
         <v>108</v>
       </c>
       <c r="S115" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B116" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D116" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E116" t="s">
         <v>36</v>
@@ -9488,30 +9481,30 @@
         <v>36</v>
       </c>
       <c r="Q116" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="R116" t="s">
         <v>44</v>
       </c>
       <c r="S116" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B117" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D117" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E117" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
@@ -9542,33 +9535,33 @@
         <v>6.1</v>
       </c>
       <c r="P117" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="Q117" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="R117" t="s">
         <v>44</v>
       </c>
       <c r="S117" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B118" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D118" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E118" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
@@ -9599,33 +9592,33 @@
         <v>4.8</v>
       </c>
       <c r="P118" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="Q118" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="R118" t="s">
         <v>31</v>
       </c>
       <c r="S118" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B119" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D119" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E119" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
@@ -9652,30 +9645,30 @@
         <v>18.7</v>
       </c>
       <c r="P119" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="Q119" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="R119" t="s">
         <v>31</v>
       </c>
       <c r="S119" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B120" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>44342</v>
       </c>
       <c r="D120" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E120" t="s">
         <v>36</v>
@@ -9708,30 +9701,30 @@
         <v>36</v>
       </c>
       <c r="Q120" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="R120" t="s">
         <v>44</v>
       </c>
       <c r="S120" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B121" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>44420</v>
       </c>
       <c r="D121" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E121" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
@@ -9758,33 +9751,33 @@
         <v>8.3</v>
       </c>
       <c r="P121" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="Q121" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="R121" t="s">
         <v>44</v>
       </c>
       <c r="S121" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B122" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D122" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E122" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
@@ -9815,33 +9808,33 @@
         <v>3.3</v>
       </c>
       <c r="P122" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="Q122" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="R122" t="s">
         <v>44</v>
       </c>
       <c r="S122" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B123" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>44423</v>
       </c>
       <c r="D123" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E123" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
@@ -9868,33 +9861,33 @@
         <v>18.5</v>
       </c>
       <c r="P123" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="Q123" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="R123" t="s">
         <v>44</v>
       </c>
       <c r="S123" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B124" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D124" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E124" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
@@ -9925,33 +9918,33 @@
         <v>7.8</v>
       </c>
       <c r="P124" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q124" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="R124" t="s">
         <v>44</v>
       </c>
       <c r="S124" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B125" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D125" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E125" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
@@ -9982,33 +9975,33 @@
         <v>1920.8</v>
       </c>
       <c r="P125" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="Q125" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="R125" t="s">
         <v>31</v>
       </c>
       <c r="S125" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B126" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D126" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E126" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
@@ -10035,30 +10028,30 @@
       <c r="N126"/>
       <c r="O126"/>
       <c r="P126" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="Q126" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R126" t="s">
         <v>44</v>
       </c>
       <c r="S126" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B127" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D127" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E127" t="s">
         <v>36</v>
@@ -10091,28 +10084,28 @@
         <v>36</v>
       </c>
       <c r="Q127" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="R127" t="s">
         <v>24</v>
       </c>
       <c r="S127" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B128" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
@@ -10143,30 +10136,30 @@
         <v>9.9</v>
       </c>
       <c r="P128" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="Q128" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="R128" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="S128" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B129" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>44420</v>
       </c>
       <c r="D129" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E129" t="s">
         <v>36</v>
@@ -10203,30 +10196,30 @@
         <v>36</v>
       </c>
       <c r="Q129" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="R129" t="s">
         <v>31</v>
       </c>
       <c r="S129" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B130" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D130" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E130" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
@@ -10253,90 +10246,90 @@
         <v>4.1</v>
       </c>
       <c r="P130" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="Q130" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="R130" t="s">
         <v>31</v>
       </c>
       <c r="S130" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B131" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44380</v>
+        <v>44431</v>
       </c>
       <c r="D131" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E131" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="H131" t="n">
-        <v>61455218</v>
+        <v>74057684</v>
       </c>
       <c r="I131" t="n">
-        <v>728.668</v>
+        <v>878.095</v>
       </c>
       <c r="J131" t="n">
-        <v>218924</v>
+        <v>282528</v>
       </c>
       <c r="K131" t="n">
-        <v>2.596</v>
+        <v>3.35</v>
       </c>
       <c r="L131" t="n">
-        <v>223582</v>
+        <v>286591</v>
       </c>
       <c r="M131" t="n">
-        <v>2.651</v>
+        <v>3.398</v>
       </c>
       <c r="N131" t="n">
-        <v>0.023</v>
+        <v>0.069</v>
       </c>
       <c r="O131" t="n">
-        <v>43.2</v>
+        <v>14.6</v>
       </c>
       <c r="P131" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="Q131" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="R131" t="s">
         <v>44</v>
       </c>
       <c r="S131" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B132" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>44425</v>
       </c>
       <c r="D132" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E132" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
@@ -10367,33 +10360,33 @@
         <v>20.6</v>
       </c>
       <c r="P132" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="Q132" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="R132" t="s">
         <v>108</v>
       </c>
       <c r="S132" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B133" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D133" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E133" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
@@ -10420,33 +10413,33 @@
         <v>11.1</v>
       </c>
       <c r="P133" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="Q133" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="R133" t="s">
         <v>44</v>
       </c>
       <c r="S133" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B134" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D134" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E134" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
@@ -10477,36 +10470,36 @@
         <v>278.8</v>
       </c>
       <c r="P134" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="Q134" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="R134" t="s">
         <v>44</v>
       </c>
       <c r="S134" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B135" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>44427</v>
       </c>
       <c r="D135" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E135" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F135" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="G135" t="n">
         <v>507</v>
@@ -10536,33 +10529,33 @@
         <v>24.2</v>
       </c>
       <c r="P135" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="Q135" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="R135" t="s">
         <v>44</v>
       </c>
       <c r="S135" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B136" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>44427</v>
       </c>
       <c r="D136" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E136" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
@@ -10593,33 +10586,33 @@
         <v>6.2</v>
       </c>
       <c r="P136" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="Q136" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="R136" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="S136" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B137" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D137" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
@@ -10646,33 +10639,33 @@
         <v>75.1</v>
       </c>
       <c r="P137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q137" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="R137" t="s">
         <v>44</v>
       </c>
       <c r="S137" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B138" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>44425</v>
       </c>
       <c r="D138" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E138" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
@@ -10703,33 +10696,33 @@
         <v>18.6</v>
       </c>
       <c r="P138" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="Q138" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="R138" t="s">
         <v>108</v>
       </c>
       <c r="S138" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B139" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D139" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E139" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
@@ -10760,33 +10753,33 @@
         <v>18.9</v>
       </c>
       <c r="P139" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q139" t="s">
         <v>810</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>808</v>
       </c>
       <c r="R139" t="s">
         <v>44</v>
       </c>
       <c r="S139" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B140" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D140" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E140" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
@@ -10817,16 +10810,16 @@
         <v>12.4</v>
       </c>
       <c r="P140" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="Q140" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="R140" t="s">
         <v>44</v>
       </c>
       <c r="S140" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4224</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4238</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/08/coronavirus-covid-19-at-a-glance-22-august-2021_0.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/08/coronavirus-covid-19-at-a-glance-26-august-2021_0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1302-new-cases-1355-recoveries_i_0000133630.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1551-new-cases-1504-recoveries_i_0000133819.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5928-reporte-521-del-ministerio-de-salud-hasta-hoy-se-aplicaron-5-215-804-vacunas-anticovid-y-764-pacientes-se-recuperaron</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5956-salud-en-su-reporte-528-informa-que-hasta-la-fecha-se-aplicaron-5-574-927-vacunas-y-856-pacientes-fueron-dados-de-alta</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-22-de-agosto-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-25-de-agosto-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -601,7 +601,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1979050995593918</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1985146321651052</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -696,7 +696,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=8bab46e1d7</t>
+    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=e9ca0fd896</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -715,7 +715,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-23082021-gvrj</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-26082021-fs80</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -733,7 +733,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/08/Boletin-COVID-19-no.521.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/08/Boletin-COVID-19-no.524.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/08/MSP_ecu_cvd19_datos_epi_20210811_03h00.11-1.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/08/covid-25.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">Gambia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/08/GMB-COVID-19-Situational-Report-2021-20th-August-No-359.pdf</t>
+    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/08/GMB-COVID-19-Situational-Report_2021_21st_23rd_August_No-360.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, The Gambia</t>
@@ -951,7 +951,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/2366</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/2432</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/08/covid-gr-daily-report-20210819.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/08/covid-gr-daily-report-20210826.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1168,7 +1168,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/368763</t>
+    <t xml:space="preserve">http://irangov.ir/detail/368885</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1188,7 +1188,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1428342309343711236</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1430879998387359748</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1291,7 +1291,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-august-22-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-august-25-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1428061774197239822</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1430960760189071362</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1426,13 +1426,10 @@
     <t xml:space="preserve">Government of Laos</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.la/index.php</t>
-  </si>
-  <si>
     <t xml:space="preserve">The number of people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">The Government of Laos maintains a [dashboard](https://www.covid19.gov.la/index.php) reporting the number of people tested</t>
+    <t xml:space="preserve">The Government of Laos maintains a [dashboard](https://app.powerbi.com/view?r=eyJrIjoiM2JkZWRhNTQtNDY5YS00YWM3LWI4ZjUtNmExM2VmZDM4YjU5IiwidCI6ImNkOWNiOGVjLWU2MjEtNDcyYS05NzlhLTU0OWFiNWJhMjQ3MCIsImMiOjF9) reporting the number of people tested</t>
   </si>
   <si>
     <t xml:space="preserve">LVA</t>
@@ -1548,7 +1545,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4416557195075497/4416547741743109/</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4431504933580723/4431496296914920/</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1612,7 +1609,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1428401136596176904</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1430937855606591500</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1633,7 +1630,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/401965468188669/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/406376767747539/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1724,7 +1721,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1428386974302355456</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1430936831462453252</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1767,7 +1764,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FAug_2021%20(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(18-8-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FAug_2021%20(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(26-8-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1787,7 +1784,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.800678790605126/800678593938479</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.804663896873282/804663740206631</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1809,7 +1806,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1ZhwbFHAR5R8k669sF3fhPEImSTf9DPSA</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/12e7FrknRFrstaHcOi-ukZNClPMzX3ZYV</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1830,7 +1827,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-08/COVID-19_WebSite_rapport_wekelijks_20210817_1158_publicatie.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-08/COVID-19_WebSite_rapport_wekelijks_20210824_1215_final.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1962,7 +1959,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4079749958817518</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4100698613389319</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1984,7 +1981,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1428175054546870275</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1431029241429299204</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2018,7 +2015,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1428127129082941447</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1431065725398048768</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2055,7 +2052,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/16c2A4k5eYiuDraXa3ADzGtfmleoXQYFs</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1rlY2r9SyQVHFI9fQ_1T0IHbtt-opS8y5</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2076,7 +2073,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1428276801504260097</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1430813516634542085</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2139,7 +2136,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/23-08_BULETIN_DE_PRESĂ_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/27-08_BULETIN_DE_PRESA_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2162,7 +2159,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18754</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18791</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2319,7 +2316,7 @@
     <t xml:space="preserve">South Africa - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HealthZA/status/1429861910917361666</t>
+    <t xml:space="preserve">https://sacoronavirus.co.za/2021/08/26/update-on-covid-19-thursday-26-august-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Communicable Diseases (NICD)</t>
@@ -2375,7 +2372,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_12_08_2021.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_19_08_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2505,6 +2502,9 @@
     <t xml:space="preserve">Togo Ministry of Health</t>
   </si>
   <si>
+    <t xml:space="preserve">Provided to OWID directly by MOH</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://covid19.gouv.tg/</t>
   </si>
   <si>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-814/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-828/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2572,9 +2572,8 @@
     <t xml:space="preserve">https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
-    <t xml:space="preserve">The Turkish Ministry of Health now publishes a daily chart of Coronavirus confirmed cases, deaths, recoveries, total tests ("TOPLAM TEST SAYISI"), and tests today ("BUGÜNKÜ TEST SAYISI").
+    <t xml:space="preserve">The Turkish Ministry of Health now publishes a daily chart of Coronavirus confirmed cases, deaths, recoveries, and tests today ("BUGÜNKÜ TEST SAYISI").
 These daily charts are published on the Turkish Ministry of Health's website – previous versions can be found on Web Archive. This only extends back to 27 March 2020. Prior to this date, we rely on figures reported by the Turkish Minister for Health at daily press conferences. In these reports they detail the latest update of confirmed cases, deaths and tests conducted.
-We are not aware of the date that testing began: only that as of 18 March 2020 – the first data point in our series – 10,018 tests had been conducted.
 No other information concerning the figures is known.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
@@ -2585,7 +2584,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1428347439187038211</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1430817081117876225</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2714,7 +2713,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1217-bc-byt-207842-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1263-bc-byt-2021-ve-tinh-hinh-dich-covid-19-va-ket-qua-phong-chong-dich-208280-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam Ministry of Health</t>
@@ -2760,7 +2759,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1428120260394242055</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1429176031592734726</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2778,10 +2777,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -2818,7 +2815,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3105,10 +3102,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -3236,7 +3233,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44424</v>
+        <v>44431</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3246,27 +3243,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>207446</v>
+        <v>208619</v>
       </c>
       <c r="I3" t="n">
-        <v>2684.864</v>
+        <v>2700.045</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="M3" t="n">
-        <v>2.291</v>
+        <v>2.174</v>
       </c>
       <c r="N3" t="n">
-        <v>0.095</v>
+        <v>0.041</v>
       </c>
       <c r="O3" t="n">
-        <v>10.5</v>
+        <v>24.5</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3334,7 +3331,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3344,31 +3341,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H5" t="n">
-        <v>12883511</v>
+        <v>13001932</v>
       </c>
       <c r="I5" t="n">
-        <v>285.06</v>
+        <v>287.68</v>
       </c>
       <c r="J5" t="n">
-        <v>38431</v>
+        <v>30076</v>
       </c>
       <c r="K5" t="n">
-        <v>0.85</v>
+        <v>0.665</v>
       </c>
       <c r="L5" t="n">
-        <v>31452</v>
+        <v>31793</v>
       </c>
       <c r="M5" t="n">
-        <v>0.696</v>
+        <v>0.703</v>
       </c>
       <c r="N5" t="n">
-        <v>0.075</v>
+        <v>0.072</v>
       </c>
       <c r="O5" t="n">
-        <v>13.3</v>
+        <v>13.9</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3391,7 +3388,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44427</v>
+        <v>44434</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3401,31 +3398,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H6" t="n">
-        <v>1461464</v>
+        <v>1511103</v>
       </c>
       <c r="I6" t="n">
-        <v>493.199</v>
+        <v>509.951</v>
       </c>
       <c r="J6" t="n">
-        <v>7514</v>
+        <v>6918</v>
       </c>
       <c r="K6" t="n">
-        <v>2.536</v>
+        <v>2.335</v>
       </c>
       <c r="L6" t="n">
-        <v>6561</v>
+        <v>7091</v>
       </c>
       <c r="M6" t="n">
-        <v>2.214</v>
+        <v>2.393</v>
       </c>
       <c r="N6" t="n">
-        <v>0.062</v>
+        <v>0.071</v>
       </c>
       <c r="O6" t="n">
-        <v>16.2</v>
+        <v>14.2</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3448,7 +3445,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44430</v>
+        <v>44434</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3458,27 +3455,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H7" t="n">
-        <v>29460946</v>
+        <v>30541835</v>
       </c>
       <c r="I7" t="n">
-        <v>1155.337</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
+        <v>1197.725</v>
+      </c>
+      <c r="J7" t="n">
+        <v>258583</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.141</v>
+      </c>
       <c r="L7" t="n">
-        <v>212496</v>
+        <v>252134</v>
       </c>
       <c r="M7" t="n">
-        <v>8.333</v>
+        <v>9.888</v>
       </c>
       <c r="N7" t="n">
         <v>0.004</v>
       </c>
       <c r="O7" t="n">
-        <v>280.4</v>
+        <v>267.9</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3501,7 +3502,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3511,31 +3512,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H8" t="n">
-        <v>73832634</v>
+        <v>74676120</v>
       </c>
       <c r="I8" t="n">
-        <v>8197.796</v>
+        <v>8291.451</v>
       </c>
       <c r="J8" t="n">
-        <v>330086</v>
+        <v>281445</v>
       </c>
       <c r="K8" t="n">
-        <v>36.65</v>
+        <v>31.249</v>
       </c>
       <c r="L8" t="n">
-        <v>322169</v>
+        <v>321605</v>
       </c>
       <c r="M8" t="n">
-        <v>35.771</v>
+        <v>35.708</v>
       </c>
       <c r="N8" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="O8" t="n">
-        <v>289.3</v>
+        <v>262.2</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3558,7 +3559,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3568,27 +3569,27 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>4319841</v>
+        <v>4379510</v>
       </c>
       <c r="I9" t="n">
-        <v>426.054</v>
+        <v>431.939</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>16245</v>
+        <v>16962</v>
       </c>
       <c r="M9" t="n">
-        <v>1.602</v>
+        <v>1.673</v>
       </c>
       <c r="N9" t="n">
-        <v>0.216</v>
+        <v>0.207</v>
       </c>
       <c r="O9" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3611,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3621,27 +3622,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H10" t="n">
-        <v>5781405</v>
+        <v>5850590</v>
       </c>
       <c r="I10" t="n">
-        <v>3397.663</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10"/>
+        <v>3438.322</v>
+      </c>
+      <c r="J10" t="n">
+        <v>18377</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10.8</v>
+      </c>
       <c r="L10" t="n">
-        <v>14835</v>
+        <v>17340</v>
       </c>
       <c r="M10" t="n">
-        <v>8.718</v>
+        <v>10.191</v>
       </c>
       <c r="N10" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="O10" t="n">
-        <v>150.5</v>
+        <v>176.2</v>
       </c>
       <c r="P10" t="s">
         <v>70</v>
@@ -3664,7 +3669,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44430</v>
+        <v>44434</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3674,31 +3679,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H11" t="n">
-        <v>8631337</v>
+        <v>8770585</v>
       </c>
       <c r="I11" t="n">
-        <v>52.41</v>
+        <v>53.255</v>
       </c>
       <c r="J11" t="n">
-        <v>31689</v>
+        <v>34111</v>
       </c>
       <c r="K11" t="n">
-        <v>0.192</v>
+        <v>0.207</v>
       </c>
       <c r="L11" t="n">
-        <v>37148</v>
+        <v>36138</v>
       </c>
       <c r="M11" t="n">
-        <v>0.226</v>
+        <v>0.219</v>
       </c>
       <c r="N11" t="n">
-        <v>0.166</v>
+        <v>0.14</v>
       </c>
       <c r="O11" t="n">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3721,7 +3726,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3731,27 +3736,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H12" t="n">
-        <v>7660634</v>
+        <v>7720145</v>
       </c>
       <c r="I12" t="n">
-        <v>810.707</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12"/>
+        <v>817.005</v>
+      </c>
+      <c r="J12" t="n">
+        <v>19773</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.093</v>
+      </c>
       <c r="L12" t="n">
-        <v>16546</v>
+        <v>16730</v>
       </c>
       <c r="M12" t="n">
-        <v>1.751</v>
+        <v>1.77</v>
       </c>
       <c r="N12" t="n">
-        <v>0.073</v>
+        <v>0.078</v>
       </c>
       <c r="O12" t="n">
-        <v>13.7</v>
+        <v>12.7</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3774,7 +3783,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44427</v>
+        <v>44433</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3784,31 +3793,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="H13" t="n">
-        <v>18238898</v>
+        <v>18488837</v>
       </c>
       <c r="I13" t="n">
-        <v>1573.728</v>
+        <v>1595.293</v>
       </c>
       <c r="J13" t="n">
-        <v>44823</v>
+        <v>40666</v>
       </c>
       <c r="K13" t="n">
-        <v>3.868</v>
+        <v>3.509</v>
       </c>
       <c r="L13" t="n">
-        <v>48432</v>
+        <v>42061</v>
       </c>
       <c r="M13" t="n">
-        <v>4.179</v>
+        <v>3.629</v>
       </c>
       <c r="N13" t="n">
-        <v>0.045</v>
+        <v>0.052</v>
       </c>
       <c r="O13" t="n">
-        <v>22.2</v>
+        <v>19.2</v>
       </c>
       <c r="P13" t="s">
         <v>90</v>
@@ -3831,7 +3840,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3841,27 +3850,27 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
-        <v>206689</v>
+        <v>211942</v>
       </c>
       <c r="I14" t="n">
-        <v>519.814</v>
+        <v>533.025</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>994</v>
+        <v>1418</v>
       </c>
       <c r="M14" t="n">
-        <v>2.5</v>
+        <v>3.566</v>
       </c>
       <c r="N14" t="n">
-        <v>0.078</v>
+        <v>0.062</v>
       </c>
       <c r="O14" t="n">
-        <v>12.7</v>
+        <v>16.2</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -3982,7 +3991,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3992,31 +4001,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="H17" t="n">
-        <v>2207227</v>
+        <v>2253463</v>
       </c>
       <c r="I17" t="n">
-        <v>189.088</v>
+        <v>193.049</v>
       </c>
       <c r="J17" t="n">
-        <v>8445</v>
+        <v>8598</v>
       </c>
       <c r="K17" t="n">
-        <v>0.723</v>
+        <v>0.737</v>
       </c>
       <c r="L17" t="n">
-        <v>6671</v>
+        <v>6605</v>
       </c>
       <c r="M17" t="n">
-        <v>0.571</v>
+        <v>0.566</v>
       </c>
       <c r="N17" t="n">
-        <v>0.09</v>
+        <v>0.086</v>
       </c>
       <c r="O17" t="n">
-        <v>11.1</v>
+        <v>11.7</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4039,7 +4048,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44428</v>
+        <v>44434</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4049,31 +4058,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H18" t="n">
-        <v>1113991</v>
+        <v>1129226</v>
       </c>
       <c r="I18" t="n">
-        <v>339.547</v>
+        <v>344.191</v>
       </c>
       <c r="J18" t="n">
-        <v>2800</v>
+        <v>3259</v>
       </c>
       <c r="K18" t="n">
-        <v>0.853</v>
+        <v>0.993</v>
       </c>
       <c r="L18" t="n">
-        <v>2389</v>
+        <v>2576</v>
       </c>
       <c r="M18" t="n">
-        <v>0.728</v>
+        <v>0.785</v>
       </c>
       <c r="N18" t="n">
-        <v>0.119</v>
+        <v>0.169</v>
       </c>
       <c r="O18" t="n">
-        <v>8.4</v>
+        <v>5.9</v>
       </c>
       <c r="P18" t="s">
         <v>118</v>
@@ -4141,7 +4150,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4151,27 +4160,27 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H20" t="n">
-        <v>4044359</v>
+        <v>4114130</v>
       </c>
       <c r="I20" t="n">
-        <v>582.052</v>
+        <v>592.094</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>22719</v>
+        <v>24094</v>
       </c>
       <c r="M20" t="n">
-        <v>3.27</v>
+        <v>3.468</v>
       </c>
       <c r="N20" t="n">
-        <v>0.054</v>
+        <v>0.058</v>
       </c>
       <c r="O20" t="n">
-        <v>18.4</v>
+        <v>17.3</v>
       </c>
       <c r="P20" t="s">
         <v>130</v>
@@ -4308,7 +4317,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44428</v>
+        <v>44434</v>
       </c>
       <c r="D23" t="s">
         <v>140</v>
@@ -4318,31 +4327,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H23" t="n">
-        <v>39731231</v>
+        <v>40150588</v>
       </c>
       <c r="I23" t="n">
-        <v>1052.702</v>
+        <v>1063.813</v>
       </c>
       <c r="J23" t="n">
-        <v>77557</v>
+        <v>83484</v>
       </c>
       <c r="K23" t="n">
-        <v>2.055</v>
+        <v>2.212</v>
       </c>
       <c r="L23" t="n">
-        <v>65706</v>
+        <v>70988</v>
       </c>
       <c r="M23" t="n">
-        <v>1.741</v>
+        <v>1.881</v>
       </c>
       <c r="N23" t="n">
-        <v>0.036</v>
+        <v>0.04</v>
       </c>
       <c r="O23" t="n">
-        <v>28.1</v>
+        <v>25.1</v>
       </c>
       <c r="P23" t="s">
         <v>141</v>
@@ -4365,7 +4374,7 @@
         <v>147</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44429</v>
+        <v>44432</v>
       </c>
       <c r="D24" t="s">
         <v>148</v>
@@ -4375,15 +4384,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>1117</v>
+        <v>1477</v>
       </c>
       <c r="K24" t="n">
-        <v>2.009</v>
+        <v>2.657</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4410,7 +4419,7 @@
         <v>153</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44430</v>
+        <v>44434</v>
       </c>
       <c r="D25" t="s">
         <v>154</v>
@@ -4420,31 +4429,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H25" t="n">
-        <v>19602606</v>
+        <v>19785781</v>
       </c>
       <c r="I25" t="n">
-        <v>1025.444</v>
+        <v>1035.026</v>
       </c>
       <c r="J25" t="n">
-        <v>59480</v>
+        <v>63985</v>
       </c>
       <c r="K25" t="n">
-        <v>3.111</v>
+        <v>3.347</v>
       </c>
       <c r="L25" t="n">
-        <v>52940</v>
+        <v>52044</v>
       </c>
       <c r="M25" t="n">
-        <v>2.769</v>
+        <v>2.723</v>
       </c>
       <c r="N25" t="n">
         <v>0.012</v>
       </c>
       <c r="O25" t="n">
-        <v>80.1</v>
+        <v>85.3</v>
       </c>
       <c r="P25" t="s">
         <v>156</v>
@@ -4512,7 +4521,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44430</v>
+        <v>44434</v>
       </c>
       <c r="D27" t="s">
         <v>167</v>
@@ -4522,31 +4531,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H27" t="n">
-        <v>23700152</v>
+        <v>23881781</v>
       </c>
       <c r="I27" t="n">
-        <v>465.778</v>
+        <v>469.348</v>
       </c>
       <c r="J27" t="n">
-        <v>53419</v>
+        <v>53070</v>
       </c>
       <c r="K27" t="n">
-        <v>1.05</v>
+        <v>1.043</v>
       </c>
       <c r="L27" t="n">
-        <v>47940</v>
+        <v>49903</v>
       </c>
       <c r="M27" t="n">
-        <v>0.942</v>
+        <v>0.981</v>
       </c>
       <c r="N27" t="n">
-        <v>0.079</v>
+        <v>0.067</v>
       </c>
       <c r="O27" t="n">
-        <v>12.7</v>
+        <v>14.9</v>
       </c>
       <c r="P27" t="s">
         <v>168</v>
@@ -4569,7 +4578,7 @@
         <v>172</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44427</v>
+        <v>44431</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
@@ -4579,31 +4588,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H28" t="n">
-        <v>1602957</v>
+        <v>1632278</v>
       </c>
       <c r="I28" t="n">
-        <v>314.668</v>
+        <v>320.424</v>
       </c>
       <c r="J28" t="n">
-        <v>9002</v>
+        <v>4363</v>
       </c>
       <c r="K28" t="n">
-        <v>1.767</v>
+        <v>0.856</v>
       </c>
       <c r="L28" t="n">
-        <v>7430</v>
+        <v>7787</v>
       </c>
       <c r="M28" t="n">
-        <v>1.459</v>
+        <v>1.529</v>
       </c>
       <c r="N28" t="n">
-        <v>0.189</v>
+        <v>0.2</v>
       </c>
       <c r="O28" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="P28" t="s">
         <v>174</v>
@@ -4626,7 +4635,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44426</v>
+        <v>44434</v>
       </c>
       <c r="D29" t="s">
         <v>178</v>
@@ -4636,31 +4645,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H29" t="n">
-        <v>847957</v>
+        <v>880168</v>
       </c>
       <c r="I29" t="n">
-        <v>32.146</v>
+        <v>33.367</v>
       </c>
       <c r="J29" t="n">
-        <v>4241</v>
+        <v>4628</v>
       </c>
       <c r="K29" t="n">
-        <v>0.161</v>
+        <v>0.175</v>
       </c>
       <c r="L29" t="n">
-        <v>3665</v>
+        <v>4001</v>
       </c>
       <c r="M29" t="n">
-        <v>0.139</v>
+        <v>0.152</v>
       </c>
       <c r="N29" t="n">
-        <v>0.043</v>
+        <v>0.049</v>
       </c>
       <c r="O29" t="n">
-        <v>23.2</v>
+        <v>20.5</v>
       </c>
       <c r="P29" t="s">
         <v>179</v>
@@ -4683,7 +4692,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44431</v>
+        <v>44435</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4693,28 +4702,24 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H30" t="n">
-        <v>2470457</v>
+        <v>2510859</v>
       </c>
       <c r="I30" t="n">
-        <v>601.777</v>
+        <v>611.619</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>8613</v>
+        <v>9097</v>
       </c>
       <c r="M30" t="n">
-        <v>2.098</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="O30" t="n">
-        <v>21.8</v>
-      </c>
+        <v>2.216</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30"/>
       <c r="P30" t="s">
         <v>185</v>
       </c>
@@ -4795,7 +4800,7 @@
         <v>196</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44430</v>
+        <v>44434</v>
       </c>
       <c r="D32" t="s">
         <v>197</v>
@@ -4805,31 +4810,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="H32" t="n">
-        <v>11245172</v>
+        <v>11434585</v>
       </c>
       <c r="I32" t="n">
-        <v>12663.411</v>
+        <v>12876.712</v>
       </c>
       <c r="J32" t="n">
-        <v>32091</v>
+        <v>45382</v>
       </c>
       <c r="K32" t="n">
-        <v>36.138</v>
+        <v>51.106</v>
       </c>
       <c r="L32" t="n">
-        <v>47158</v>
+        <v>45866</v>
       </c>
       <c r="M32" t="n">
-        <v>53.106</v>
+        <v>51.651</v>
       </c>
       <c r="N32" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="O32" t="n">
-        <v>134.1</v>
+        <v>159.4</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4852,7 +4857,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44430</v>
+        <v>44434</v>
       </c>
       <c r="D33" t="s">
         <v>201</v>
@@ -4862,21 +4867,21 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>57502</v>
+        <v>83563</v>
       </c>
       <c r="K33" t="n">
-        <v>5.37</v>
+        <v>7.803</v>
       </c>
       <c r="L33" t="n">
-        <v>92280</v>
+        <v>88093</v>
       </c>
       <c r="M33" t="n">
-        <v>8.617</v>
+        <v>8.226</v>
       </c>
       <c r="N33" t="n">
         <v>0.002</v>
@@ -4905,7 +4910,7 @@
         <v>204</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="D34" t="s">
         <v>205</v>
@@ -4915,27 +4920,27 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34" t="n">
-        <v>2415</v>
+        <v>2098</v>
       </c>
       <c r="K34" t="n">
-        <v>0.027</v>
+        <v>0.023</v>
       </c>
       <c r="L34" t="n">
-        <v>1888</v>
+        <v>2085</v>
       </c>
       <c r="M34" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="N34" t="n">
-        <v>0.09</v>
+        <v>0.064</v>
       </c>
       <c r="O34" t="n">
-        <v>11.1</v>
+        <v>15.7</v>
       </c>
       <c r="P34" t="s">
         <v>206</v>
@@ -4958,7 +4963,7 @@
         <v>210</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44429</v>
+        <v>44433</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -4968,31 +4973,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H35" t="n">
-        <v>39200236</v>
+        <v>39464855</v>
       </c>
       <c r="I35" t="n">
-        <v>6767.759</v>
+        <v>6813.445</v>
       </c>
       <c r="J35" t="n">
-        <v>48363</v>
+        <v>49934</v>
       </c>
       <c r="K35" t="n">
-        <v>8.35</v>
+        <v>8.621</v>
       </c>
       <c r="L35" t="n">
-        <v>67151</v>
+        <v>67322</v>
       </c>
       <c r="M35" t="n">
-        <v>11.593</v>
+        <v>11.623</v>
       </c>
       <c r="N35" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="O35" t="n">
-        <v>68.4</v>
+        <v>69.3</v>
       </c>
       <c r="P35" t="s">
         <v>212</v>
@@ -5015,7 +5020,7 @@
         <v>216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44429</v>
+        <v>44432</v>
       </c>
       <c r="D36" t="s">
         <v>217</v>
@@ -5025,27 +5030,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H36" t="n">
-        <v>1928791</v>
+        <v>1938279</v>
       </c>
       <c r="I36" t="n">
-        <v>177.803</v>
+        <v>178.678</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>4086</v>
+        <v>3531</v>
       </c>
       <c r="M36" t="n">
-        <v>0.377</v>
+        <v>0.326</v>
       </c>
       <c r="N36" t="n">
-        <v>0.059</v>
+        <v>0.07</v>
       </c>
       <c r="O36" t="n">
-        <v>17.1</v>
+        <v>14.2</v>
       </c>
       <c r="P36" t="s">
         <v>218</v>
@@ -5068,7 +5073,7 @@
         <v>222</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44420</v>
+        <v>44433</v>
       </c>
       <c r="D37" t="s">
         <v>223</v>
@@ -5080,31 +5085,31 @@
         <v>225</v>
       </c>
       <c r="G37" t="n">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="H37" t="n">
-        <v>1628513</v>
+        <v>1662510</v>
       </c>
       <c r="I37" t="n">
-        <v>92.303</v>
+        <v>94.23</v>
       </c>
       <c r="J37" t="n">
-        <v>3623</v>
+        <v>2897</v>
       </c>
       <c r="K37" t="n">
-        <v>0.205</v>
+        <v>0.164</v>
       </c>
       <c r="L37" t="n">
-        <v>2597</v>
+        <v>2514</v>
       </c>
       <c r="M37" t="n">
-        <v>0.147</v>
+        <v>0.142</v>
       </c>
       <c r="N37" t="n">
-        <v>0.188</v>
+        <v>0.333</v>
       </c>
       <c r="O37" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="P37" t="s">
         <v>226</v>
@@ -5184,7 +5189,7 @@
         <v>236</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44428</v>
+        <v>44433</v>
       </c>
       <c r="D39" t="s">
         <v>237</v>
@@ -5194,27 +5199,27 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="n">
-        <v>189186</v>
+        <v>192584</v>
       </c>
       <c r="I39" t="n">
-        <v>134.845</v>
+        <v>137.267</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39" t="n">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="M39" t="n">
-        <v>0.519</v>
+        <v>0.516</v>
       </c>
       <c r="N39" t="n">
-        <v>0.019</v>
+        <v>0.032</v>
       </c>
       <c r="O39" t="n">
-        <v>52</v>
+        <v>31.1</v>
       </c>
       <c r="P39" t="s">
         <v>239</v>
@@ -5237,7 +5242,7 @@
         <v>242</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44430</v>
+        <v>44434</v>
       </c>
       <c r="D40" t="s">
         <v>243</v>
@@ -5247,31 +5252,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H40" t="n">
-        <v>1723182</v>
+        <v>1742729</v>
       </c>
       <c r="I40" t="n">
-        <v>1299.006</v>
+        <v>1313.741</v>
       </c>
       <c r="J40" t="n">
-        <v>3683</v>
+        <v>4440</v>
       </c>
       <c r="K40" t="n">
-        <v>2.776</v>
+        <v>3.347</v>
       </c>
       <c r="L40" t="n">
-        <v>3927</v>
+        <v>4105</v>
       </c>
       <c r="M40" t="n">
-        <v>2.96</v>
+        <v>3.095</v>
       </c>
       <c r="N40" t="n">
-        <v>0.066</v>
+        <v>0.076</v>
       </c>
       <c r="O40" t="n">
-        <v>15.1</v>
+        <v>13.2</v>
       </c>
       <c r="P40" t="s">
         <v>244</v>
@@ -5294,7 +5299,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44430</v>
+        <v>44434</v>
       </c>
       <c r="D41" t="s">
         <v>248</v>
@@ -5304,31 +5309,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H41" t="n">
-        <v>3164055</v>
+        <v>3200770</v>
       </c>
       <c r="I41" t="n">
-        <v>27.522</v>
+        <v>27.842</v>
       </c>
       <c r="J41" t="n">
-        <v>6108</v>
+        <v>10620</v>
       </c>
       <c r="K41" t="n">
-        <v>0.053</v>
+        <v>0.092</v>
       </c>
       <c r="L41" t="n">
-        <v>7026</v>
+        <v>8379</v>
       </c>
       <c r="M41" t="n">
-        <v>0.061</v>
+        <v>0.073</v>
       </c>
       <c r="N41" t="n">
-        <v>0.133</v>
+        <v>0.153</v>
       </c>
       <c r="O41" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="P41" t="s">
         <v>249</v>
@@ -5408,7 +5413,7 @@
         <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44429</v>
+        <v>44433</v>
       </c>
       <c r="D43" t="s">
         <v>258</v>
@@ -5418,31 +5423,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H43" t="n">
-        <v>6328674</v>
+        <v>6471878</v>
       </c>
       <c r="I43" t="n">
-        <v>1142.212</v>
+        <v>1168.058</v>
       </c>
       <c r="J43" t="n">
-        <v>3626</v>
+        <v>29034</v>
       </c>
       <c r="K43" t="n">
-        <v>0.654</v>
+        <v>5.24</v>
       </c>
       <c r="L43" t="n">
-        <v>14470</v>
+        <v>23019</v>
       </c>
       <c r="M43" t="n">
-        <v>2.612</v>
+        <v>4.155</v>
       </c>
       <c r="N43" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="O43" t="n">
-        <v>22.3</v>
+        <v>37.3</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5465,7 +5470,7 @@
         <v>263</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44427</v>
+        <v>44431</v>
       </c>
       <c r="D44" t="s">
         <v>264</v>
@@ -5475,27 +5480,27 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="n">
-        <v>855094</v>
+        <v>895786</v>
       </c>
       <c r="K44" t="n">
-        <v>12.656</v>
+        <v>13.258</v>
       </c>
       <c r="L44" t="n">
-        <v>777395</v>
+        <v>762950</v>
       </c>
       <c r="M44" t="n">
-        <v>11.506</v>
+        <v>11.292</v>
       </c>
       <c r="N44" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="O44" t="n">
-        <v>31.2</v>
+        <v>33.3</v>
       </c>
       <c r="P44" t="s">
         <v>265</v>
@@ -5518,7 +5523,7 @@
         <v>268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="D45" t="s">
         <v>269</v>
@@ -5528,27 +5533,27 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H45" t="n">
-        <v>1054727</v>
+        <v>1061767</v>
       </c>
       <c r="I45" t="n">
-        <v>473.88</v>
+        <v>477.043</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="n">
-        <v>3002</v>
+        <v>3172</v>
       </c>
       <c r="M45" t="n">
-        <v>1.349</v>
+        <v>1.425</v>
       </c>
       <c r="N45" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="O45" t="n">
-        <v>191</v>
+        <v>163.3</v>
       </c>
       <c r="P45" t="s">
         <v>270</v>
@@ -5571,7 +5576,7 @@
         <v>275</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44428</v>
+        <v>44431</v>
       </c>
       <c r="D46" t="s">
         <v>276</v>
@@ -5581,27 +5586,27 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H46" t="n">
-        <v>98435</v>
+        <v>99342</v>
       </c>
       <c r="I46" t="n">
-        <v>40.732</v>
+        <v>41.107</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="M46" t="n">
-        <v>0.15</v>
+        <v>0.136</v>
       </c>
       <c r="N46" t="n">
-        <v>0.175</v>
+        <v>0.12</v>
       </c>
       <c r="O46" t="n">
-        <v>5.7</v>
+        <v>8.3</v>
       </c>
       <c r="P46" t="s">
         <v>277</v>
@@ -5624,7 +5629,7 @@
         <v>281</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44426</v>
+        <v>44434</v>
       </c>
       <c r="D47" t="s">
         <v>282</v>
@@ -5634,31 +5639,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H47" t="n">
-        <v>7515000</v>
+        <v>7860000</v>
       </c>
       <c r="I47" t="n">
-        <v>1883.848</v>
+        <v>1970.332</v>
       </c>
       <c r="J47" t="n">
-        <v>57000</v>
+        <v>44000</v>
       </c>
       <c r="K47" t="n">
-        <v>14.289</v>
+        <v>11.03</v>
       </c>
       <c r="L47" t="n">
-        <v>45286</v>
+        <v>42143</v>
       </c>
       <c r="M47" t="n">
-        <v>11.352</v>
+        <v>10.564</v>
       </c>
       <c r="N47" t="n">
-        <v>0.111</v>
+        <v>0.105</v>
       </c>
       <c r="O47" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="P47" t="s">
         <v>283</v>
@@ -5681,7 +5686,7 @@
         <v>287</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44423</v>
+        <v>44430</v>
       </c>
       <c r="D48" t="s">
         <v>288</v>
@@ -5691,27 +5696,27 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H48" t="n">
-        <v>68790183</v>
+        <v>69471706</v>
       </c>
       <c r="I48" t="n">
-        <v>821.043</v>
+        <v>829.177</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>79885</v>
+        <v>97209</v>
       </c>
       <c r="M48" t="n">
-        <v>0.953</v>
+        <v>1.16</v>
       </c>
       <c r="N48" t="n">
-        <v>0.06</v>
+        <v>0.079</v>
       </c>
       <c r="O48" t="n">
-        <v>16.7</v>
+        <v>12.7</v>
       </c>
       <c r="P48" t="s">
         <v>289</v>
@@ -5791,7 +5796,7 @@
         <v>299</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44427</v>
+        <v>44434</v>
       </c>
       <c r="D50" t="s">
         <v>300</v>
@@ -5801,25 +5806,25 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="H50" t="n">
-        <v>14451763</v>
+        <v>15096664</v>
       </c>
       <c r="I50" t="n">
-        <v>1386.519</v>
+        <v>1448.391</v>
       </c>
       <c r="J50" t="n">
-        <v>102298</v>
+        <v>103260</v>
       </c>
       <c r="K50" t="n">
-        <v>9.815</v>
+        <v>9.907</v>
       </c>
       <c r="L50" t="n">
-        <v>87747</v>
+        <v>92129</v>
       </c>
       <c r="M50" t="n">
-        <v>8.419</v>
+        <v>8.839</v>
       </c>
       <c r="N50" t="n">
         <v>0.036</v>
@@ -5848,7 +5853,7 @@
         <v>306</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44428</v>
+        <v>44433</v>
       </c>
       <c r="D51" t="s">
         <v>307</v>
@@ -5858,28 +5863,28 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="H51" t="n">
-        <v>2088641</v>
+        <v>2141913</v>
       </c>
       <c r="I51" t="n">
-        <v>116.582</v>
+        <v>119.556</v>
       </c>
       <c r="J51" t="n">
-        <v>13501</v>
+        <v>16658</v>
       </c>
       <c r="K51" t="n">
-        <v>0.754</v>
+        <v>0.93</v>
       </c>
       <c r="L51" t="n">
-        <v>10656</v>
+        <v>11738</v>
       </c>
       <c r="M51" t="n">
-        <v>0.595</v>
+        <v>0.655</v>
       </c>
       <c r="N51" t="n">
-        <v>0.346</v>
+        <v>0.339</v>
       </c>
       <c r="O51" t="n">
         <v>2.9</v>
@@ -5958,7 +5963,7 @@
         <v>320</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="D53" t="s">
         <v>321</v>
@@ -5970,31 +5975,31 @@
         <v>323</v>
       </c>
       <c r="G53" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H53" t="n">
-        <v>6041605</v>
+        <v>6081089</v>
       </c>
       <c r="I53" t="n">
-        <v>625.402</v>
+        <v>629.49</v>
       </c>
       <c r="J53" t="n">
-        <v>24758</v>
+        <v>18410</v>
       </c>
       <c r="K53" t="n">
-        <v>2.563</v>
+        <v>1.906</v>
       </c>
       <c r="L53" t="n">
-        <v>6765</v>
+        <v>9177</v>
       </c>
       <c r="M53" t="n">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="N53" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="O53" t="n">
-        <v>76.8</v>
+        <v>87.3</v>
       </c>
       <c r="P53" t="s">
         <v>322</v>
@@ -6017,7 +6022,7 @@
         <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -6027,25 +6032,25 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H54" t="n">
-        <v>561271</v>
+        <v>570204</v>
       </c>
       <c r="I54" t="n">
-        <v>1644.75</v>
+        <v>1670.927</v>
       </c>
       <c r="J54" t="n">
-        <v>2028</v>
+        <v>2749</v>
       </c>
       <c r="K54" t="n">
-        <v>5.943</v>
+        <v>8.056</v>
       </c>
       <c r="L54" t="n">
-        <v>2873</v>
+        <v>2670</v>
       </c>
       <c r="M54" t="n">
-        <v>8.419</v>
+        <v>7.824</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -6070,7 +6075,7 @@
         <v>332</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44430</v>
+        <v>44435</v>
       </c>
       <c r="D55" t="s">
         <v>333</v>
@@ -6082,32 +6087,28 @@
         <v>335</v>
       </c>
       <c r="G55" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="H55" t="n">
-        <v>506256239</v>
+        <v>514954309</v>
       </c>
       <c r="I55" t="n">
-        <v>366.851</v>
+        <v>373.154</v>
       </c>
       <c r="J55" t="n">
-        <v>1680081</v>
+        <v>1824931</v>
       </c>
       <c r="K55" t="n">
-        <v>1.217</v>
+        <v>1.322</v>
       </c>
       <c r="L55" t="n">
-        <v>1804543</v>
+        <v>1750658</v>
       </c>
       <c r="M55" t="n">
-        <v>1.308</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="O55" t="n">
-        <v>56.4</v>
-      </c>
+        <v>1.269</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
       <c r="P55" t="s">
         <v>334</v>
       </c>
@@ -6129,7 +6130,7 @@
         <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44430</v>
+        <v>44434</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
@@ -6139,27 +6140,27 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H56" t="n">
-        <v>20501173</v>
+        <v>20974752</v>
       </c>
       <c r="I56" t="n">
-        <v>74.952</v>
+        <v>76.684</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56" t="n">
-        <v>101245</v>
+        <v>112797</v>
       </c>
       <c r="M56" t="n">
-        <v>0.37</v>
+        <v>0.412</v>
       </c>
       <c r="N56" t="n">
-        <v>0.177</v>
+        <v>0.144</v>
       </c>
       <c r="O56" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="P56" t="s">
         <v>340</v>
@@ -6182,7 +6183,7 @@
         <v>344</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="D57" t="s">
         <v>345</v>
@@ -6192,27 +6193,31 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H57" t="n">
-        <v>27974949</v>
+        <v>28330070</v>
       </c>
       <c r="I57" t="n">
-        <v>333.063</v>
-      </c>
-      <c r="J57"/>
-      <c r="K57"/>
+        <v>337.291</v>
+      </c>
+      <c r="J57" t="n">
+        <v>116841</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.391</v>
+      </c>
       <c r="L57" t="n">
-        <v>99297</v>
+        <v>107202</v>
       </c>
       <c r="M57" t="n">
-        <v>1.182</v>
+        <v>1.276</v>
       </c>
       <c r="N57" t="n">
-        <v>0.358</v>
+        <v>0.327</v>
       </c>
       <c r="O57" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P57" t="s">
         <v>346</v>
@@ -6235,7 +6240,7 @@
         <v>350</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44427</v>
+        <v>44434</v>
       </c>
       <c r="D58" t="s">
         <v>351</v>
@@ -6245,31 +6250,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="H58" t="n">
-        <v>13912862</v>
+        <v>14168599</v>
       </c>
       <c r="I58" t="n">
-        <v>345.897</v>
+        <v>352.256</v>
       </c>
       <c r="J58" t="n">
-        <v>40653</v>
+        <v>44512</v>
       </c>
       <c r="K58" t="n">
-        <v>1.011</v>
+        <v>1.107</v>
       </c>
       <c r="L58" t="n">
-        <v>40077</v>
+        <v>36534</v>
       </c>
       <c r="M58" t="n">
-        <v>0.996</v>
+        <v>0.908</v>
       </c>
       <c r="N58" t="n">
-        <v>0.207</v>
+        <v>0.181</v>
       </c>
       <c r="O58" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="P58" t="s">
         <v>353</v>
@@ -6292,7 +6297,7 @@
         <v>357</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44428</v>
+        <v>44434</v>
       </c>
       <c r="D59" t="s">
         <v>358</v>
@@ -6302,31 +6307,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H59" t="n">
-        <v>6481201</v>
+        <v>6599859</v>
       </c>
       <c r="I59" t="n">
-        <v>1312.57</v>
+        <v>1336.6</v>
       </c>
       <c r="J59" t="n">
-        <v>20011</v>
+        <v>22426</v>
       </c>
       <c r="K59" t="n">
-        <v>4.053</v>
+        <v>4.542</v>
       </c>
       <c r="L59" t="n">
-        <v>20385</v>
+        <v>19786</v>
       </c>
       <c r="M59" t="n">
-        <v>4.128</v>
+        <v>4.007</v>
       </c>
       <c r="N59" t="n">
-        <v>0.087</v>
+        <v>0.094</v>
       </c>
       <c r="O59" t="n">
-        <v>11.5</v>
+        <v>10.7</v>
       </c>
       <c r="P59" t="s">
         <v>359</v>
@@ -6349,7 +6354,7 @@
         <v>363</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="D60" t="s">
         <v>364</v>
@@ -6359,31 +6364,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H60" t="n">
-        <v>22161561</v>
+        <v>22710194</v>
       </c>
       <c r="I60" t="n">
-        <v>2560.39</v>
+        <v>2623.775</v>
       </c>
       <c r="J60" t="n">
-        <v>66563</v>
+        <v>147184</v>
       </c>
       <c r="K60" t="n">
-        <v>7.69</v>
+        <v>17.005</v>
       </c>
       <c r="L60" t="n">
-        <v>124933</v>
+        <v>139117</v>
       </c>
       <c r="M60" t="n">
-        <v>14.434</v>
+        <v>16.073</v>
       </c>
       <c r="N60" t="n">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="O60" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
@@ -6406,7 +6411,7 @@
         <v>369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44430</v>
+        <v>44434</v>
       </c>
       <c r="D61" t="s">
         <v>370</v>
@@ -6418,31 +6423,31 @@
         <v>372</v>
       </c>
       <c r="G61" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H61" t="n">
-        <v>32072928</v>
+        <v>32268573</v>
       </c>
       <c r="I61" t="n">
-        <v>530.466</v>
+        <v>533.702</v>
       </c>
       <c r="J61" t="n">
-        <v>48443</v>
+        <v>54003</v>
       </c>
       <c r="K61" t="n">
-        <v>0.801</v>
+        <v>0.893</v>
       </c>
       <c r="L61" t="n">
-        <v>48573</v>
+        <v>50601</v>
       </c>
       <c r="M61" t="n">
-        <v>0.803</v>
+        <v>0.837</v>
       </c>
       <c r="N61" t="n">
         <v>0.129</v>
       </c>
       <c r="O61" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="P61" t="s">
         <v>373</v>
@@ -6465,7 +6470,7 @@
         <v>376</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44430</v>
+        <v>44434</v>
       </c>
       <c r="D62" t="s">
         <v>370</v>
@@ -6477,31 +6482,31 @@
         <v>372</v>
       </c>
       <c r="G62" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H62" t="n">
-        <v>82003364</v>
+        <v>82836243</v>
       </c>
       <c r="I62" t="n">
-        <v>1356.283</v>
+        <v>1370.059</v>
       </c>
       <c r="J62" t="n">
-        <v>175539</v>
+        <v>220872</v>
       </c>
       <c r="K62" t="n">
-        <v>2.903</v>
+        <v>3.653</v>
       </c>
       <c r="L62" t="n">
-        <v>199494</v>
+        <v>212042</v>
       </c>
       <c r="M62" t="n">
-        <v>3.3</v>
+        <v>3.507</v>
       </c>
       <c r="N62" t="n">
         <v>0.031</v>
       </c>
       <c r="O62" t="n">
-        <v>31.8</v>
+        <v>32.5</v>
       </c>
       <c r="P62" t="s">
         <v>373</v>
@@ -6524,7 +6529,7 @@
         <v>379</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44430</v>
+        <v>44433</v>
       </c>
       <c r="D63" t="s">
         <v>380</v>
@@ -6534,31 +6539,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H63" t="n">
-        <v>533840</v>
+        <v>538347</v>
       </c>
       <c r="I63" t="n">
-        <v>180.281</v>
+        <v>181.803</v>
       </c>
       <c r="J63" t="n">
-        <v>2710</v>
+        <v>1723</v>
       </c>
       <c r="K63" t="n">
-        <v>0.915</v>
+        <v>0.582</v>
       </c>
       <c r="L63" t="n">
-        <v>1864</v>
+        <v>1753</v>
       </c>
       <c r="M63" t="n">
-        <v>0.629</v>
+        <v>0.592</v>
       </c>
       <c r="N63" t="n">
-        <v>0.256</v>
+        <v>0.363</v>
       </c>
       <c r="O63" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="P63" t="s">
         <v>381</v>
@@ -6581,7 +6586,7 @@
         <v>385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44429</v>
+        <v>44434</v>
       </c>
       <c r="D64" t="s">
         <v>386</v>
@@ -6591,31 +6596,31 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="H64" t="n">
-        <v>19624796</v>
+        <v>20265016</v>
       </c>
       <c r="I64" t="n">
-        <v>155.166</v>
+        <v>160.228</v>
       </c>
       <c r="J64" t="n">
-        <v>113293</v>
+        <v>145404</v>
       </c>
       <c r="K64" t="n">
-        <v>0.896</v>
+        <v>1.15</v>
       </c>
       <c r="L64" t="n">
-        <v>113067</v>
+        <v>111820</v>
       </c>
       <c r="M64" t="n">
-        <v>0.894</v>
+        <v>0.884</v>
       </c>
       <c r="N64" t="n">
-        <v>0.193</v>
+        <v>0.206</v>
       </c>
       <c r="O64" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="P64" t="s">
         <v>387</v>
@@ -6638,7 +6643,7 @@
         <v>391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="D65" t="s">
         <v>392</v>
@@ -6648,31 +6653,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H65" t="n">
-        <v>9031711</v>
+        <v>9123785</v>
       </c>
       <c r="I65" t="n">
-        <v>885.189</v>
+        <v>894.213</v>
       </c>
       <c r="J65" t="n">
-        <v>34484</v>
+        <v>31726</v>
       </c>
       <c r="K65" t="n">
-        <v>3.38</v>
+        <v>3.109</v>
       </c>
       <c r="L65" t="n">
-        <v>31207</v>
+        <v>28477</v>
       </c>
       <c r="M65" t="n">
-        <v>3.059</v>
+        <v>2.791</v>
       </c>
       <c r="N65" t="n">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="O65" t="n">
-        <v>37.5</v>
+        <v>34.3</v>
       </c>
       <c r="P65" t="s">
         <v>393</v>
@@ -6805,7 +6810,7 @@
         <v>407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="D68" t="s">
         <v>408</v>
@@ -6815,31 +6820,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H68" t="n">
-        <v>889180</v>
+        <v>925052</v>
       </c>
       <c r="I68" t="n">
-        <v>460.054</v>
+        <v>478.614</v>
       </c>
       <c r="J68" t="n">
-        <v>7946</v>
+        <v>12406</v>
       </c>
       <c r="K68" t="n">
-        <v>4.111</v>
+        <v>6.419</v>
       </c>
       <c r="L68" t="n">
-        <v>9676</v>
+        <v>11287</v>
       </c>
       <c r="M68" t="n">
-        <v>5.006</v>
+        <v>5.84</v>
       </c>
       <c r="N68" t="n">
-        <v>0.198</v>
+        <v>0.177</v>
       </c>
       <c r="O68" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="P68" t="s">
         <v>410</v>
@@ -6862,7 +6867,7 @@
         <v>413</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44426</v>
+        <v>44434</v>
       </c>
       <c r="D69" t="s">
         <v>414</v>
@@ -6872,31 +6877,31 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H69" t="n">
-        <v>3631090</v>
+        <v>3724132</v>
       </c>
       <c r="I69" t="n">
-        <v>850.26</v>
+        <v>872.047</v>
       </c>
       <c r="J69" t="n">
-        <v>9900</v>
+        <v>13264</v>
       </c>
       <c r="K69" t="n">
-        <v>2.318</v>
+        <v>3.106</v>
       </c>
       <c r="L69" t="n">
-        <v>11138</v>
+        <v>11576</v>
       </c>
       <c r="M69" t="n">
-        <v>2.608</v>
+        <v>2.711</v>
       </c>
       <c r="N69" t="n">
-        <v>0.032</v>
+        <v>0.017</v>
       </c>
       <c r="O69" t="n">
-        <v>31.3</v>
+        <v>59.7</v>
       </c>
       <c r="P69" t="s">
         <v>415</v>
@@ -6919,7 +6924,7 @@
         <v>419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="D70" t="s">
         <v>420</v>
@@ -6929,16 +6934,20 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H70" t="n">
-        <v>404790</v>
+        <v>413500</v>
       </c>
       <c r="I70" t="n">
-        <v>55.637</v>
-      </c>
-      <c r="J70"/>
-      <c r="K70"/>
+        <v>56.834</v>
+      </c>
+      <c r="J70" t="n">
+        <v>8710</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.197</v>
+      </c>
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
@@ -6947,33 +6956,33 @@
         <v>421</v>
       </c>
       <c r="Q70" t="s">
+        <v>420</v>
+      </c>
+      <c r="R70" t="s">
         <v>422</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>423</v>
-      </c>
-      <c r="S70" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>424</v>
+      </c>
+      <c r="B71" t="s">
         <v>425</v>
-      </c>
-      <c r="B71" t="s">
-        <v>426</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D71" t="s">
+        <v>426</v>
+      </c>
+      <c r="E71" t="s">
         <v>427</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>428</v>
-      </c>
-      <c r="F71" t="s">
-        <v>429</v>
       </c>
       <c r="G71" t="n">
         <v>541</v>
@@ -7003,33 +7012,33 @@
         <v>63.6</v>
       </c>
       <c r="P71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q71" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R71" t="s">
         <v>44</v>
       </c>
       <c r="S71" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>430</v>
+      </c>
+      <c r="B72" t="s">
         <v>431</v>
-      </c>
-      <c r="B72" t="s">
-        <v>432</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="D72" t="s">
+        <v>432</v>
+      </c>
+      <c r="E72" t="s">
         <v>433</v>
-      </c>
-      <c r="E72" t="s">
-        <v>434</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
@@ -7052,135 +7061,135 @@
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q72" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R72" t="s">
         <v>24</v>
       </c>
       <c r="S72" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>435</v>
+      </c>
+      <c r="B73" t="s">
         <v>436</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="n">
+        <v>44433</v>
+      </c>
+      <c r="D73" t="s">
         <v>437</v>
       </c>
-      <c r="C73" s="1" t="n">
-        <v>44430</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>438</v>
-      </c>
-      <c r="E73" t="s">
-        <v>439</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>7065</v>
+        <v>7548</v>
       </c>
       <c r="K73" t="n">
-        <v>1.028</v>
+        <v>1.098</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q73" t="s">
         <v>439</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>440</v>
       </c>
       <c r="R73" t="s">
         <v>108</v>
       </c>
       <c r="S73" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>441</v>
+      </c>
+      <c r="B74" t="s">
         <v>442</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" s="1" t="n">
+        <v>44432</v>
+      </c>
+      <c r="D74" t="s">
         <v>443</v>
       </c>
-      <c r="C74" s="1" t="n">
-        <v>44429</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>444</v>
-      </c>
-      <c r="E74" t="s">
-        <v>445</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H74" t="n">
-        <v>60280</v>
+        <v>60670</v>
       </c>
       <c r="I74" t="n">
-        <v>1580.617</v>
+        <v>1590.844</v>
       </c>
       <c r="J74" t="n">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="K74" t="n">
-        <v>2.176</v>
+        <v>3.12</v>
       </c>
       <c r="L74" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M74" t="n">
-        <v>3.487</v>
+        <v>3.75</v>
       </c>
       <c r="N74" t="n">
-        <v>0.084</v>
+        <v>0.061</v>
       </c>
       <c r="O74" t="n">
-        <v>11.9</v>
+        <v>16.4</v>
       </c>
       <c r="P74" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q74" t="s">
         <v>445</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>446</v>
       </c>
       <c r="R74" t="s">
         <v>44</v>
       </c>
       <c r="S74" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>447</v>
+      </c>
+      <c r="B75" t="s">
         <v>448</v>
-      </c>
-      <c r="B75" t="s">
-        <v>449</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>44424</v>
       </c>
       <c r="D75" t="s">
+        <v>449</v>
+      </c>
+      <c r="E75" t="s">
         <v>450</v>
-      </c>
-      <c r="E75" t="s">
-        <v>451</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
@@ -7211,147 +7220,147 @@
         <v>23.3</v>
       </c>
       <c r="P75" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q75" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R75" t="s">
         <v>44</v>
       </c>
       <c r="S75" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>452</v>
+      </c>
+      <c r="B76" t="s">
         <v>453</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="1" t="n">
+        <v>44433</v>
+      </c>
+      <c r="D76" t="s">
         <v>454</v>
       </c>
-      <c r="C76" s="1" t="n">
-        <v>44427</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>455</v>
-      </c>
-      <c r="E76" t="s">
-        <v>456</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="H76" t="n">
-        <v>3375755</v>
+        <v>3398895</v>
       </c>
       <c r="I76" t="n">
-        <v>5392.787</v>
+        <v>5429.753</v>
       </c>
       <c r="J76" t="n">
-        <v>4313</v>
+        <v>3954</v>
       </c>
       <c r="K76" t="n">
-        <v>6.89</v>
+        <v>6.317</v>
       </c>
       <c r="L76" t="n">
-        <v>4088</v>
+        <v>3922</v>
       </c>
       <c r="M76" t="n">
-        <v>6.531</v>
+        <v>6.265</v>
       </c>
       <c r="N76" t="n">
-        <v>0.013</v>
+        <v>0.017</v>
       </c>
       <c r="O76" t="n">
-        <v>76.7</v>
+        <v>60.1</v>
       </c>
       <c r="P76" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="R76" t="s">
         <v>44</v>
       </c>
       <c r="S76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>457</v>
+      </c>
+      <c r="B77" t="s">
         <v>458</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="1" t="n">
+        <v>44430</v>
+      </c>
+      <c r="D77" t="s">
         <v>459</v>
       </c>
-      <c r="C77" s="1" t="n">
-        <v>44425</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>460</v>
-      </c>
-      <c r="E77" t="s">
-        <v>461</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H77" t="n">
-        <v>235147</v>
+        <v>237617</v>
       </c>
       <c r="I77" t="n">
-        <v>8.492</v>
+        <v>8.581</v>
       </c>
       <c r="J77" t="n">
-        <v>525</v>
+        <v>219</v>
       </c>
       <c r="K77" t="n">
-        <v>0.019</v>
+        <v>0.008</v>
       </c>
       <c r="L77" t="n">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="M77" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="N77" t="n">
         <v>0.01</v>
       </c>
       <c r="O77" t="n">
-        <v>99.3</v>
+        <v>102.9</v>
       </c>
       <c r="P77" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q77" t="s">
         <v>461</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>462</v>
       </c>
       <c r="R77" t="s">
         <v>44</v>
       </c>
       <c r="S77" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>463</v>
+      </c>
+      <c r="B78" t="s">
         <v>464</v>
-      </c>
-      <c r="B78" t="s">
-        <v>465</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>44400</v>
       </c>
       <c r="D78" t="s">
+        <v>465</v>
+      </c>
+      <c r="E78" t="s">
         <v>466</v>
-      </c>
-      <c r="E78" t="s">
-        <v>467</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
@@ -7378,203 +7387,203 @@
         <v>3.1</v>
       </c>
       <c r="P78" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q78" t="s">
         <v>467</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>468</v>
       </c>
       <c r="R78" t="s">
         <v>108</v>
       </c>
       <c r="S78" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>469</v>
+      </c>
+      <c r="B79" t="s">
         <v>470</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="1" t="n">
+        <v>44432</v>
+      </c>
+      <c r="D79" t="s">
         <v>471</v>
       </c>
-      <c r="C79" s="1" t="n">
-        <v>44429</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>472</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>473</v>
       </c>
-      <c r="F79" t="s">
-        <v>474</v>
-      </c>
       <c r="G79" t="n">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="H79" t="n">
-        <v>24845446</v>
+        <v>25291332</v>
       </c>
       <c r="I79" t="n">
-        <v>767.64</v>
+        <v>781.417</v>
       </c>
       <c r="J79" t="n">
-        <v>147850</v>
+        <v>172457</v>
       </c>
       <c r="K79" t="n">
-        <v>4.568</v>
+        <v>5.328</v>
       </c>
       <c r="L79" t="n">
-        <v>154537</v>
+        <v>152513</v>
       </c>
       <c r="M79" t="n">
-        <v>4.775</v>
+        <v>4.712</v>
       </c>
       <c r="N79" t="n">
         <v>0.14</v>
       </c>
       <c r="O79" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="P79" t="s">
         <v>36</v>
       </c>
       <c r="Q79" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R79" t="s">
         <v>31</v>
       </c>
       <c r="S79" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>476</v>
+      </c>
+      <c r="B80" t="s">
         <v>477</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D80" t="s">
         <v>478</v>
       </c>
-      <c r="C80" s="1" t="n">
-        <v>44427</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>479</v>
-      </c>
-      <c r="E80" t="s">
-        <v>480</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="H80" t="n">
-        <v>1310121</v>
+        <v>1350321</v>
       </c>
       <c r="I80" t="n">
-        <v>2423.717</v>
+        <v>2498.087</v>
       </c>
       <c r="J80" t="n">
-        <v>6750</v>
+        <v>5681</v>
       </c>
       <c r="K80" t="n">
-        <v>12.487</v>
+        <v>10.51</v>
       </c>
       <c r="L80" t="n">
-        <v>5463</v>
+        <v>5743</v>
       </c>
       <c r="M80" t="n">
-        <v>10.107</v>
+        <v>10.625</v>
       </c>
       <c r="N80" t="n">
-        <v>0.022</v>
+        <v>0.019</v>
       </c>
       <c r="O80" t="n">
-        <v>45.3</v>
+        <v>51.7</v>
       </c>
       <c r="P80" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q80" t="s">
         <v>480</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>481</v>
       </c>
       <c r="R80" t="s">
         <v>108</v>
       </c>
       <c r="S80" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>482</v>
+      </c>
+      <c r="B81" t="s">
         <v>483</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D81" t="s">
         <v>484</v>
       </c>
-      <c r="C81" s="1" t="n">
-        <v>44427</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>485</v>
-      </c>
-      <c r="E81" t="s">
-        <v>486</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="H81" t="n">
-        <v>1152894</v>
+        <v>1174898</v>
       </c>
       <c r="I81" t="n">
-        <v>2240.526</v>
+        <v>2283.288</v>
       </c>
       <c r="J81" t="n">
-        <v>3496</v>
+        <v>3264</v>
       </c>
       <c r="K81" t="n">
-        <v>6.794</v>
+        <v>6.343</v>
       </c>
       <c r="L81" t="n">
-        <v>3301</v>
+        <v>3143</v>
       </c>
       <c r="M81" t="n">
-        <v>6.415</v>
+        <v>6.108</v>
       </c>
       <c r="N81" t="n">
-        <v>0.022</v>
+        <v>0.016</v>
       </c>
       <c r="O81" t="n">
-        <v>45.2</v>
+        <v>63.2</v>
       </c>
       <c r="P81" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q81" t="s">
         <v>486</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>487</v>
       </c>
       <c r="R81" t="s">
         <v>44</v>
       </c>
       <c r="S81" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>488</v>
+      </c>
+      <c r="B82" t="s">
         <v>489</v>
-      </c>
-      <c r="B82" t="s">
-        <v>490</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>44290</v>
       </c>
       <c r="D82" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
@@ -7600,140 +7609,140 @@
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q82" t="s">
         <v>492</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>493</v>
       </c>
       <c r="R82" t="s">
         <v>44</v>
       </c>
       <c r="S82" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>494</v>
+      </c>
+      <c r="B83" t="s">
         <v>495</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" s="1" t="n">
+        <v>44433</v>
+      </c>
+      <c r="D83" t="s">
         <v>496</v>
       </c>
-      <c r="C83" s="1" t="n">
-        <v>44429</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>497</v>
-      </c>
-      <c r="E83" t="s">
-        <v>498</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="H83" t="n">
-        <v>8933286</v>
+        <v>9106750</v>
       </c>
       <c r="I83" t="n">
-        <v>69.286</v>
+        <v>70.632</v>
       </c>
       <c r="J83" t="n">
-        <v>4609</v>
+        <v>15740</v>
       </c>
       <c r="K83" t="n">
-        <v>0.036</v>
+        <v>0.122</v>
       </c>
       <c r="L83" t="n">
-        <v>29457</v>
+        <v>27043</v>
       </c>
       <c r="M83" t="n">
-        <v>0.228</v>
+        <v>0.21</v>
       </c>
       <c r="N83" t="n">
-        <v>0.415</v>
+        <v>0.404</v>
       </c>
       <c r="O83" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P83" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q83" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="R83" t="s">
         <v>31</v>
       </c>
       <c r="S83" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>500</v>
+      </c>
+      <c r="B84" t="s">
         <v>501</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D84" t="s">
         <v>502</v>
       </c>
-      <c r="C84" s="1" t="n">
-        <v>44431</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>503</v>
-      </c>
-      <c r="E84" t="s">
-        <v>504</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H84" t="n">
-        <v>1528763</v>
+        <v>1551934</v>
       </c>
       <c r="I84" t="n">
-        <v>378.973</v>
+        <v>384.717</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>5819</v>
+        <v>6607</v>
       </c>
       <c r="M84" t="n">
-        <v>1.443</v>
+        <v>1.638</v>
       </c>
       <c r="N84" t="n">
         <v>0.061</v>
       </c>
       <c r="O84" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P84" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q84" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R84" t="s">
         <v>24</v>
       </c>
       <c r="S84" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>505</v>
+      </c>
+      <c r="B85" t="s">
         <v>506</v>
-      </c>
-      <c r="B85" t="s">
-        <v>507</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>44388</v>
       </c>
       <c r="D85" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
@@ -7770,87 +7779,87 @@
         <v>36</v>
       </c>
       <c r="Q85" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R85" t="s">
         <v>108</v>
       </c>
       <c r="S85" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>510</v>
+      </c>
+      <c r="B86" t="s">
         <v>511</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D86" t="s">
         <v>512</v>
       </c>
-      <c r="C86" s="1" t="n">
-        <v>44427</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>513</v>
-      </c>
-      <c r="E86" t="s">
-        <v>514</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="H86" t="n">
-        <v>7735577</v>
+        <v>7964719</v>
       </c>
       <c r="I86" t="n">
-        <v>209.576</v>
+        <v>215.784</v>
       </c>
       <c r="J86" t="n">
-        <v>44125</v>
+        <v>37875</v>
       </c>
       <c r="K86" t="n">
-        <v>1.195</v>
+        <v>1.026</v>
       </c>
       <c r="L86" t="n">
-        <v>40221</v>
+        <v>32735</v>
       </c>
       <c r="M86" t="n">
-        <v>1.09</v>
+        <v>0.887</v>
       </c>
       <c r="N86" t="n">
-        <v>0.215</v>
+        <v>0.196</v>
       </c>
       <c r="O86" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="P86" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q86" t="s">
         <v>514</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>515</v>
       </c>
       <c r="R86" t="s">
         <v>31</v>
       </c>
       <c r="S86" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>516</v>
+      </c>
+      <c r="B87" t="s">
         <v>517</v>
-      </c>
-      <c r="B87" t="s">
-        <v>518</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D87" t="s">
+        <v>518</v>
+      </c>
+      <c r="E87" t="s">
         <v>519</v>
-      </c>
-      <c r="E87" t="s">
-        <v>520</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
@@ -7881,310 +7890,310 @@
         <v>4.8</v>
       </c>
       <c r="P87" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q87" t="s">
         <v>520</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>521</v>
       </c>
       <c r="R87" t="s">
         <v>72</v>
       </c>
       <c r="S87" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>522</v>
+      </c>
+      <c r="B88" t="s">
         <v>523</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D88" t="s">
         <v>524</v>
       </c>
-      <c r="C88" s="1" t="n">
-        <v>44426</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>525</v>
-      </c>
-      <c r="E88" t="s">
-        <v>526</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="H88" t="n">
-        <v>3383579</v>
+        <v>3471394</v>
       </c>
       <c r="I88" t="n">
-        <v>62.187</v>
+        <v>63.801</v>
       </c>
       <c r="J88" t="n">
-        <v>11945</v>
+        <v>12249</v>
       </c>
       <c r="K88" t="n">
-        <v>0.22</v>
+        <v>0.225</v>
       </c>
       <c r="L88" t="n">
-        <v>12225</v>
+        <v>10918</v>
       </c>
       <c r="M88" t="n">
-        <v>0.225</v>
+        <v>0.201</v>
       </c>
       <c r="N88" t="n">
-        <v>0.256</v>
+        <v>0.232</v>
       </c>
       <c r="O88" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="P88" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q88" t="s">
         <v>526</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>527</v>
       </c>
       <c r="R88" t="s">
         <v>108</v>
       </c>
       <c r="S88" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>528</v>
+      </c>
+      <c r="B89" t="s">
         <v>529</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" s="1" t="n">
+        <v>44433</v>
+      </c>
+      <c r="D89" t="s">
         <v>530</v>
       </c>
-      <c r="C89" s="1" t="n">
-        <v>44426</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>531</v>
-      </c>
-      <c r="E89" t="s">
-        <v>532</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="H89" t="n">
-        <v>641771</v>
+        <v>652869</v>
       </c>
       <c r="I89" t="n">
-        <v>252.575</v>
+        <v>256.942</v>
       </c>
       <c r="J89" t="n">
-        <v>1731</v>
+        <v>1820</v>
       </c>
       <c r="K89" t="n">
-        <v>0.681</v>
+        <v>0.716</v>
       </c>
       <c r="L89" t="n">
-        <v>1446</v>
+        <v>1585</v>
       </c>
       <c r="M89" t="n">
-        <v>0.569</v>
+        <v>0.624</v>
       </c>
       <c r="N89" t="n">
-        <v>0.127</v>
+        <v>0.108</v>
       </c>
       <c r="O89" t="n">
-        <v>7.9</v>
+        <v>9.3</v>
       </c>
       <c r="P89" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q89" t="s">
         <v>533</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>534</v>
       </c>
       <c r="R89" t="s">
         <v>108</v>
       </c>
       <c r="S89" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>535</v>
+      </c>
+      <c r="B90" t="s">
         <v>536</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D90" t="s">
         <v>537</v>
       </c>
-      <c r="C90" s="1" t="n">
-        <v>44427</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>538</v>
-      </c>
-      <c r="E90" t="s">
-        <v>539</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
+        <v>544</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3868717</v>
+      </c>
+      <c r="I90" t="n">
+        <v>132.778</v>
+      </c>
+      <c r="J90" t="n">
+        <v>9702</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="L90" t="n">
+        <v>9386</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="O90" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P90" t="s">
         <v>538</v>
       </c>
-      <c r="H90" t="n">
-        <v>3803015</v>
-      </c>
-      <c r="I90" t="n">
-        <v>130.523</v>
-      </c>
-      <c r="J90" t="n">
-        <v>11946</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L90" t="n">
-        <v>10558</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.362</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.223</v>
-      </c>
-      <c r="O90" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
         <v>539</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>540</v>
       </c>
       <c r="R90" t="s">
         <v>44</v>
       </c>
       <c r="S90" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>541</v>
+      </c>
+      <c r="B91" t="s">
         <v>542</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="1" t="n">
+        <v>44430</v>
+      </c>
+      <c r="D91" t="s">
         <v>543</v>
       </c>
-      <c r="C91" s="1" t="n">
-        <v>44423</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>544</v>
-      </c>
-      <c r="E91" t="s">
-        <v>545</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H91" t="n">
-        <v>12348581</v>
+        <v>12493403</v>
       </c>
       <c r="I91" t="n">
-        <v>720.67</v>
+        <v>729.121</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>19402</v>
+        <v>17158</v>
       </c>
       <c r="M91" t="n">
-        <v>1.132</v>
+        <v>1.001</v>
       </c>
       <c r="N91" t="n">
-        <v>0.073</v>
+        <v>0.08</v>
       </c>
       <c r="O91" t="n">
-        <v>13.7</v>
+        <v>12.5</v>
       </c>
       <c r="P91" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q91" t="s">
         <v>546</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>547</v>
       </c>
       <c r="R91" t="s">
         <v>31</v>
       </c>
       <c r="S91" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>548</v>
+      </c>
+      <c r="B92" t="s">
         <v>549</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="1" t="n">
+        <v>44435</v>
+      </c>
+      <c r="D92" t="s">
         <v>550</v>
-      </c>
-      <c r="C92" s="1" t="n">
-        <v>44431</v>
-      </c>
-      <c r="D92" t="s">
-        <v>551</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H92" t="n">
-        <v>2727853</v>
+        <v>2891738</v>
       </c>
       <c r="I92" t="n">
-        <v>565.683</v>
-      </c>
-      <c r="J92"/>
-      <c r="K92"/>
+        <v>599.668</v>
+      </c>
+      <c r="J92" t="n">
+        <v>37021</v>
+      </c>
+      <c r="K92" t="n">
+        <v>7.677</v>
+      </c>
       <c r="L92" t="n">
-        <v>23914</v>
+        <v>39929</v>
       </c>
       <c r="M92" t="n">
-        <v>4.959</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O92" t="n">
-        <v>984.7</v>
-      </c>
+        <v>8.28</v>
+      </c>
+      <c r="N92"/>
+      <c r="O92"/>
       <c r="P92" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q92" t="s">
         <v>552</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>553</v>
       </c>
       <c r="R92" t="s">
         <v>44</v>
       </c>
       <c r="S92" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>554</v>
+      </c>
+      <c r="B93" t="s">
         <v>555</v>
-      </c>
-      <c r="B93" t="s">
-        <v>556</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D93" t="s">
+        <v>556</v>
+      </c>
+      <c r="E93" t="s">
         <v>557</v>
-      </c>
-      <c r="E93" t="s">
-        <v>558</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
@@ -8211,143 +8220,143 @@
         <v>19.2</v>
       </c>
       <c r="P93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Q93" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R93" t="s">
         <v>108</v>
       </c>
       <c r="S93" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>559</v>
+      </c>
+      <c r="B94" t="s">
         <v>560</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D94" t="s">
         <v>561</v>
-      </c>
-      <c r="C94" s="1" t="n">
-        <v>44428</v>
-      </c>
-      <c r="D94" t="s">
-        <v>562</v>
       </c>
       <c r="E94" t="s">
         <v>36</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H94" t="n">
-        <v>1079208</v>
+        <v>1124382</v>
       </c>
       <c r="I94" t="n">
-        <v>518.008</v>
+        <v>539.691</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="n">
-        <v>8059</v>
+        <v>8062</v>
       </c>
       <c r="M94" t="n">
-        <v>3.868</v>
+        <v>3.87</v>
       </c>
       <c r="N94" t="n">
-        <v>0.109</v>
+        <v>0.124</v>
       </c>
       <c r="O94" t="n">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="P94" t="s">
         <v>36</v>
       </c>
       <c r="Q94" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="R94" t="s">
         <v>44</v>
       </c>
       <c r="S94" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>564</v>
+      </c>
+      <c r="B95" t="s">
         <v>565</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" s="1" t="n">
+        <v>44432</v>
+      </c>
+      <c r="D95" t="s">
         <v>566</v>
       </c>
-      <c r="C95" s="1" t="n">
-        <v>44429</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>567</v>
-      </c>
-      <c r="E95" t="s">
-        <v>568</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H95" t="n">
-        <v>6893909</v>
+        <v>6967268</v>
       </c>
       <c r="I95" t="n">
-        <v>1271.648</v>
+        <v>1285.179</v>
       </c>
       <c r="J95" t="n">
-        <v>10560</v>
+        <v>28861</v>
       </c>
       <c r="K95" t="n">
-        <v>1.948</v>
+        <v>5.324</v>
       </c>
       <c r="L95" t="n">
-        <v>17484</v>
+        <v>20754</v>
       </c>
       <c r="M95" t="n">
-        <v>3.225</v>
+        <v>3.828</v>
       </c>
       <c r="N95" t="n">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="O95" t="n">
-        <v>30.4</v>
+        <v>28.7</v>
       </c>
       <c r="P95" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Q95" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R95" t="s">
         <v>31</v>
       </c>
       <c r="S95" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>569</v>
+      </c>
+      <c r="B96" t="s">
         <v>570</v>
-      </c>
-      <c r="B96" t="s">
-        <v>571</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="D96" t="s">
+        <v>571</v>
+      </c>
+      <c r="E96" t="s">
         <v>572</v>
-      </c>
-      <c r="E96" t="s">
-        <v>573</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
@@ -8366,191 +8375,183 @@
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q96" t="s">
         <v>573</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>574</v>
       </c>
       <c r="R96" t="s">
         <v>72</v>
       </c>
       <c r="S96" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>575</v>
+      </c>
+      <c r="B97" t="s">
         <v>576</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" s="1" t="n">
+        <v>44435</v>
+      </c>
+      <c r="D97" t="s">
         <v>577</v>
       </c>
-      <c r="C97" s="1" t="n">
-        <v>44431</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>578</v>
-      </c>
-      <c r="E97" t="s">
-        <v>579</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H97" t="n">
-        <v>17276450</v>
+        <v>17520285</v>
       </c>
       <c r="I97" t="n">
-        <v>78.212</v>
-      </c>
-      <c r="J97"/>
-      <c r="K97"/>
+        <v>79.316</v>
+      </c>
+      <c r="J97" t="n">
+        <v>61036</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.276</v>
+      </c>
       <c r="L97" t="n">
-        <v>54038</v>
+        <v>57859</v>
       </c>
       <c r="M97" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="O97" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0.262</v>
+      </c>
+      <c r="N97"/>
+      <c r="O97"/>
       <c r="P97" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Q97" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="R97" t="s">
         <v>44</v>
       </c>
       <c r="S97" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>580</v>
+      </c>
+      <c r="B98" t="s">
         <v>581</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D98" t="s">
         <v>582</v>
-      </c>
-      <c r="C98" s="1" t="n">
-        <v>44427</v>
-      </c>
-      <c r="D98" t="s">
-        <v>583</v>
       </c>
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>6857</v>
+        <v>9709</v>
       </c>
       <c r="K98" t="n">
-        <v>1.344</v>
+        <v>1.903</v>
       </c>
       <c r="L98" t="n">
-        <v>5417</v>
+        <v>7468</v>
       </c>
       <c r="M98" t="n">
-        <v>1.062</v>
+        <v>1.464</v>
       </c>
       <c r="N98" t="n">
-        <v>0.115</v>
+        <v>0.173</v>
       </c>
       <c r="O98" t="n">
-        <v>8.7</v>
+        <v>5.8</v>
       </c>
       <c r="P98" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q98" t="s">
         <v>584</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>585</v>
       </c>
       <c r="R98" t="s">
         <v>44</v>
       </c>
       <c r="S98" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>586</v>
+      </c>
+      <c r="B99" t="s">
         <v>587</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D99" t="s">
         <v>588</v>
       </c>
-      <c r="C99" s="1" t="n">
-        <v>44426</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>589</v>
-      </c>
-      <c r="E99" t="s">
-        <v>590</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="H99" t="n">
-        <v>3543469</v>
+        <v>3620041</v>
       </c>
       <c r="I99" t="n">
-        <v>821.242</v>
+        <v>838.989</v>
       </c>
       <c r="J99" t="n">
-        <v>11486</v>
+        <v>10247</v>
       </c>
       <c r="K99" t="n">
-        <v>2.662</v>
-      </c>
-      <c r="L99" t="n">
-        <v>9869</v>
-      </c>
-      <c r="M99" t="n">
-        <v>2.287</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="O99" t="n">
-        <v>13.6</v>
-      </c>
+        <v>2.375</v>
+      </c>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
       <c r="P99" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q99" t="s">
         <v>590</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>591</v>
       </c>
       <c r="R99" t="s">
         <v>44</v>
       </c>
       <c r="S99" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>592</v>
+      </c>
+      <c r="B100" t="s">
         <v>593</v>
-      </c>
-      <c r="B100" t="s">
-        <v>594</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>44304</v>
       </c>
       <c r="D100" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E100" t="s">
         <v>315</v>
@@ -8583,84 +8584,84 @@
         <v>315</v>
       </c>
       <c r="Q100" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R100" t="s">
         <v>24</v>
       </c>
       <c r="S100" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>597</v>
+      </c>
+      <c r="B101" t="s">
         <v>598</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D101" t="s">
         <v>599</v>
       </c>
-      <c r="C101" s="1" t="n">
-        <v>44426</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>600</v>
-      </c>
-      <c r="E101" t="s">
-        <v>601</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="H101" t="n">
-        <v>1735964</v>
+        <v>1761311</v>
       </c>
       <c r="I101" t="n">
-        <v>243.387</v>
+        <v>246.941</v>
       </c>
       <c r="J101" t="n">
-        <v>3481</v>
+        <v>3096</v>
       </c>
       <c r="K101" t="n">
-        <v>0.488</v>
+        <v>0.434</v>
       </c>
       <c r="L101" t="n">
-        <v>3288</v>
+        <v>3113</v>
       </c>
       <c r="M101" t="n">
-        <v>0.461</v>
+        <v>0.436</v>
       </c>
       <c r="N101" t="n">
-        <v>0.05</v>
+        <v>0.039</v>
       </c>
       <c r="O101" t="n">
-        <v>19.9</v>
+        <v>25.4</v>
       </c>
       <c r="P101" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q101" t="s">
         <v>601</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>602</v>
       </c>
       <c r="R101" t="s">
         <v>44</v>
       </c>
       <c r="S101" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>603</v>
+      </c>
+      <c r="B102" t="s">
         <v>604</v>
-      </c>
-      <c r="B102" t="s">
-        <v>605</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D102" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E102" t="s">
         <v>168</v>
@@ -8697,701 +8698,685 @@
         <v>168</v>
       </c>
       <c r="Q102" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="R102" t="s">
         <v>44</v>
       </c>
       <c r="S102" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>608</v>
+      </c>
+      <c r="B103" t="s">
         <v>609</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" s="1" t="n">
+        <v>44433</v>
+      </c>
+      <c r="D103" t="s">
         <v>610</v>
       </c>
-      <c r="C103" s="1" t="n">
-        <v>44429</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>611</v>
-      </c>
-      <c r="E103" t="s">
-        <v>612</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H103" t="n">
-        <v>17019761</v>
+        <v>17279168</v>
       </c>
       <c r="I103" t="n">
-        <v>155.317</v>
+        <v>157.684</v>
       </c>
       <c r="J103" t="n">
-        <v>60690</v>
+        <v>67378</v>
       </c>
       <c r="K103" t="n">
-        <v>0.554</v>
+        <v>0.615</v>
       </c>
       <c r="L103" t="n">
-        <v>59891</v>
+        <v>62781</v>
       </c>
       <c r="M103" t="n">
-        <v>0.547</v>
+        <v>0.573</v>
       </c>
       <c r="N103" t="n">
-        <v>0.231</v>
+        <v>0.243</v>
       </c>
       <c r="O103" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="P103" t="s">
         <v>315</v>
       </c>
       <c r="Q103" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="R103" t="s">
         <v>31</v>
       </c>
       <c r="S103" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>614</v>
+      </c>
+      <c r="B104" t="s">
         <v>615</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D104" t="s">
         <v>616</v>
       </c>
-      <c r="C104" s="1" t="n">
-        <v>44427</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>617</v>
-      </c>
-      <c r="E104" t="s">
-        <v>618</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="H104" t="n">
-        <v>18932972</v>
+        <v>19193365</v>
       </c>
       <c r="I104" t="n">
-        <v>500.255</v>
+        <v>507.136</v>
       </c>
       <c r="J104" t="n">
-        <v>37854</v>
+        <v>37477</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="L104" t="n">
-        <v>39134</v>
+        <v>37199</v>
       </c>
       <c r="M104" t="n">
-        <v>1.034</v>
+        <v>0.983</v>
       </c>
       <c r="N104" t="n">
         <v>0.005</v>
       </c>
       <c r="O104" t="n">
-        <v>210.9</v>
+        <v>185.2</v>
       </c>
       <c r="P104" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q104" t="s">
         <v>618</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>619</v>
       </c>
       <c r="R104" t="s">
         <v>31</v>
       </c>
       <c r="S104" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B105" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44426</v>
+        <v>44433</v>
       </c>
       <c r="D105" t="s">
+        <v>616</v>
+      </c>
+      <c r="E105" t="s">
         <v>617</v>
-      </c>
-      <c r="E105" t="s">
-        <v>618</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="H105" t="n">
-        <v>19336157</v>
+        <v>19599018</v>
       </c>
       <c r="I105" t="n">
-        <v>510.909</v>
+        <v>517.854</v>
       </c>
       <c r="J105" t="n">
-        <v>38238</v>
+        <v>37768</v>
       </c>
       <c r="K105" t="n">
-        <v>1.01</v>
+        <v>0.998</v>
       </c>
       <c r="L105" t="n">
-        <v>39506</v>
+        <v>37552</v>
       </c>
       <c r="M105" t="n">
-        <v>1.044</v>
+        <v>0.992</v>
       </c>
       <c r="N105" t="n">
         <v>0.005</v>
       </c>
       <c r="O105" t="n">
-        <v>208.6</v>
+        <v>189.5</v>
       </c>
       <c r="P105" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q105" t="s">
         <v>618</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>619</v>
       </c>
       <c r="R105" t="s">
         <v>108</v>
       </c>
       <c r="S105" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>621</v>
+      </c>
+      <c r="B106" t="s">
         <v>622</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" s="1" t="n">
+        <v>44433</v>
+      </c>
+      <c r="D106" t="s">
         <v>623</v>
-      </c>
-      <c r="C106" s="1" t="n">
-        <v>44428</v>
-      </c>
-      <c r="D106" t="s">
-        <v>624</v>
       </c>
       <c r="E106" t="s">
         <v>36</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="H106" t="n">
-        <v>16496290</v>
+        <v>16743692</v>
       </c>
       <c r="I106" t="n">
-        <v>1617.806</v>
+        <v>1642.069</v>
       </c>
       <c r="J106" t="n">
-        <v>58972</v>
+        <v>50690</v>
       </c>
       <c r="K106" t="n">
-        <v>5.783</v>
+        <v>4.971</v>
       </c>
       <c r="L106" t="n">
-        <v>53650</v>
+        <v>52083</v>
       </c>
       <c r="M106" t="n">
-        <v>5.262</v>
+        <v>5.108</v>
       </c>
       <c r="N106" t="n">
-        <v>0.043</v>
+        <v>0.045</v>
       </c>
       <c r="O106" t="n">
-        <v>23.3</v>
+        <v>22.4</v>
       </c>
       <c r="P106" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Q106" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="R106" t="s">
         <v>44</v>
       </c>
       <c r="S106" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>626</v>
+      </c>
+      <c r="B107" t="s">
         <v>627</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D107" t="s">
         <v>628</v>
       </c>
-      <c r="C107" s="1" t="n">
-        <v>44430</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>629</v>
-      </c>
-      <c r="E107" t="s">
-        <v>630</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H107" t="n">
-        <v>2453234</v>
+        <v>2475733</v>
       </c>
       <c r="I107" t="n">
-        <v>851.504</v>
+        <v>859.313</v>
       </c>
       <c r="J107" t="n">
-        <v>4191</v>
+        <v>5762</v>
       </c>
       <c r="K107" t="n">
-        <v>1.455</v>
+        <v>2</v>
       </c>
       <c r="L107" t="n">
-        <v>5591</v>
+        <v>5349</v>
       </c>
       <c r="M107" t="n">
-        <v>1.941</v>
+        <v>1.857</v>
       </c>
       <c r="N107" t="n">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="O107" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="P107" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Q107" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="R107" t="s">
         <v>31</v>
       </c>
       <c r="S107" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>632</v>
+      </c>
+      <c r="B108" t="s">
         <v>633</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" s="1" t="n">
+        <v>44435</v>
+      </c>
+      <c r="D108" t="s">
         <v>634</v>
       </c>
-      <c r="C108" s="1" t="n">
-        <v>44431</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>635</v>
-      </c>
-      <c r="E108" t="s">
-        <v>636</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H108" t="n">
-        <v>8980921</v>
+        <v>9041399</v>
       </c>
       <c r="I108" t="n">
-        <v>466.84</v>
+        <v>469.984</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108" t="n">
-        <v>14398</v>
+        <v>13148</v>
       </c>
       <c r="M108" t="n">
-        <v>0.748</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="O108" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0.683</v>
+      </c>
+      <c r="N108"/>
+      <c r="O108"/>
       <c r="P108" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q108" t="s">
         <v>637</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>638</v>
       </c>
       <c r="R108" t="s">
         <v>44</v>
       </c>
       <c r="S108" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>639</v>
+      </c>
+      <c r="B109" t="s">
         <v>640</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D109" t="s">
         <v>641</v>
       </c>
-      <c r="C109" s="1" t="n">
-        <v>44430</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>642</v>
-      </c>
-      <c r="E109" t="s">
-        <v>643</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H109" t="n">
-        <v>175504485</v>
+        <v>177197247</v>
       </c>
       <c r="I109" t="n">
-        <v>1202.625</v>
+        <v>1214.225</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>441055</v>
+        <v>431634</v>
       </c>
       <c r="M109" t="n">
-        <v>3.022</v>
+        <v>2.958</v>
       </c>
       <c r="N109" t="n">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="O109" t="n">
-        <v>21.7</v>
+        <v>22.2</v>
       </c>
       <c r="P109" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q109" t="s">
         <v>643</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>644</v>
       </c>
       <c r="R109" t="s">
         <v>44</v>
       </c>
       <c r="S109" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>645</v>
+      </c>
+      <c r="B110" t="s">
         <v>646</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" s="1" t="n">
+        <v>44435</v>
+      </c>
+      <c r="D110" t="s">
         <v>647</v>
       </c>
-      <c r="C110" s="1" t="n">
-        <v>44431</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>648</v>
-      </c>
-      <c r="E110" t="s">
-        <v>649</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H110" t="n">
-        <v>2313938</v>
+        <v>2358929</v>
       </c>
       <c r="I110" t="n">
-        <v>178.652</v>
-      </c>
-      <c r="J110" t="n">
-        <v>12650</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.977</v>
-      </c>
+        <v>182.126</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110"/>
       <c r="L110" t="n">
-        <v>11700</v>
+        <v>12365</v>
       </c>
       <c r="M110" t="n">
-        <v>0.903</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="O110" t="n">
-        <v>24.2</v>
-      </c>
+        <v>0.955</v>
+      </c>
+      <c r="N110"/>
+      <c r="O110"/>
       <c r="P110" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q110" t="s">
         <v>649</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>650</v>
       </c>
       <c r="R110" t="s">
         <v>108</v>
       </c>
       <c r="S110" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>651</v>
+      </c>
+      <c r="B111" t="s">
         <v>652</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" s="1" t="n">
+        <v>44435</v>
+      </c>
+      <c r="D111" t="s">
         <v>653</v>
-      </c>
-      <c r="C111" s="1" t="n">
-        <v>44431</v>
-      </c>
-      <c r="D111" t="s">
-        <v>654</v>
       </c>
       <c r="E111" t="s">
         <v>36</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H111" t="n">
-        <v>29284</v>
+        <v>30204</v>
       </c>
       <c r="I111" t="n">
-        <v>550.534</v>
+        <v>567.83</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111" t="n">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="M111" t="n">
-        <v>4.192</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.108</v>
-      </c>
-      <c r="O111" t="n">
-        <v>9.3</v>
-      </c>
+        <v>5.095</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111"/>
       <c r="P111" t="s">
         <v>36</v>
       </c>
       <c r="Q111" t="s">
+        <v>654</v>
+      </c>
+      <c r="R111" t="s">
+        <v>422</v>
+      </c>
+      <c r="S111" t="s">
         <v>655</v>
-      </c>
-      <c r="R111" t="s">
-        <v>423</v>
-      </c>
-      <c r="S111" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>656</v>
+      </c>
+      <c r="B112" t="s">
         <v>657</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" s="1" t="n">
+        <v>44433</v>
+      </c>
+      <c r="D112" t="s">
         <v>658</v>
-      </c>
-      <c r="C112" s="1" t="n">
-        <v>44430</v>
-      </c>
-      <c r="D112" t="s">
-        <v>659</v>
       </c>
       <c r="E112" t="s">
         <v>36</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H112" t="n">
-        <v>26960332</v>
+        <v>27163038</v>
       </c>
       <c r="I112" t="n">
-        <v>774.414</v>
+        <v>780.236</v>
       </c>
       <c r="J112" t="n">
-        <v>63280</v>
+        <v>65815</v>
       </c>
       <c r="K112" t="n">
-        <v>1.818</v>
+        <v>1.89</v>
       </c>
       <c r="L112" t="n">
-        <v>67719</v>
+        <v>64914</v>
       </c>
       <c r="M112" t="n">
-        <v>1.945</v>
+        <v>1.865</v>
       </c>
       <c r="N112" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="O112" t="n">
-        <v>123.9</v>
+        <v>158.6</v>
       </c>
       <c r="P112" t="s">
         <v>36</v>
       </c>
       <c r="Q112" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R112" t="s">
         <v>44</v>
       </c>
       <c r="S112" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>660</v>
+      </c>
+      <c r="B113" t="s">
         <v>661</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D113" t="s">
         <v>662</v>
       </c>
-      <c r="C113" s="1" t="n">
-        <v>44431</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>663</v>
-      </c>
-      <c r="E113" t="s">
-        <v>664</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H113" t="n">
-        <v>732197</v>
+        <v>739290</v>
       </c>
       <c r="I113" t="n">
-        <v>43.729</v>
+        <v>44.153</v>
       </c>
       <c r="J113" t="n">
-        <v>2377</v>
+        <v>2241</v>
       </c>
       <c r="K113" t="n">
-        <v>0.142</v>
+        <v>0.134</v>
       </c>
       <c r="L113" t="n">
-        <v>2762</v>
+        <v>2689</v>
       </c>
       <c r="M113" t="n">
-        <v>0.165</v>
+        <v>0.161</v>
       </c>
       <c r="N113" t="n">
-        <v>0.06</v>
+        <v>0.046</v>
       </c>
       <c r="O113" t="n">
-        <v>16.7</v>
+        <v>21.5</v>
       </c>
       <c r="P113" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Q113" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="R113" t="s">
         <v>44</v>
       </c>
       <c r="S113" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>665</v>
+      </c>
+      <c r="B114" t="s">
         <v>666</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D114" t="s">
         <v>667</v>
-      </c>
-      <c r="C114" s="1" t="n">
-        <v>44430</v>
-      </c>
-      <c r="D114" t="s">
-        <v>668</v>
       </c>
       <c r="E114" t="s">
         <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G114" t="n">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H114" t="n">
-        <v>4903335</v>
+        <v>4960665</v>
       </c>
       <c r="I114" t="n">
-        <v>720.592</v>
+        <v>729.017</v>
       </c>
       <c r="J114" t="n">
-        <v>8101</v>
+        <v>14270</v>
       </c>
       <c r="K114" t="n">
-        <v>1.191</v>
+        <v>2.097</v>
       </c>
       <c r="L114" t="n">
-        <v>11934</v>
+        <v>12818</v>
       </c>
       <c r="M114" t="n">
-        <v>1.754</v>
+        <v>1.884</v>
       </c>
       <c r="N114" t="n">
-        <v>0.123</v>
+        <v>0.147</v>
       </c>
       <c r="O114" t="n">
-        <v>8.1</v>
+        <v>6.8</v>
       </c>
       <c r="P114" t="s">
         <v>36</v>
       </c>
       <c r="Q114" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="R114" t="s">
         <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>671</v>
+      </c>
+      <c r="B115" t="s">
         <v>672</v>
-      </c>
-      <c r="B115" t="s">
-        <v>673</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>44424</v>
       </c>
       <c r="D115" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E115" t="s">
         <v>36</v>
@@ -9424,251 +9409,251 @@
         <v>36</v>
       </c>
       <c r="Q115" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="R115" t="s">
         <v>108</v>
       </c>
       <c r="S115" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>676</v>
+      </c>
+      <c r="B116" t="s">
         <v>677</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" s="1" t="n">
+        <v>44433</v>
+      </c>
+      <c r="D116" t="s">
         <v>678</v>
-      </c>
-      <c r="C116" s="1" t="n">
-        <v>44429</v>
-      </c>
-      <c r="D116" t="s">
-        <v>679</v>
       </c>
       <c r="E116" t="s">
         <v>36</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H116" t="n">
-        <v>40962563</v>
+        <v>41027308</v>
       </c>
       <c r="I116" t="n">
-        <v>7502.791</v>
+        <v>7514.65</v>
       </c>
       <c r="J116" t="n">
-        <v>12794</v>
+        <v>13426</v>
       </c>
       <c r="K116" t="n">
-        <v>2.343</v>
+        <v>2.459</v>
       </c>
       <c r="L116" t="n">
-        <v>15550</v>
+        <v>16340</v>
       </c>
       <c r="M116" t="n">
-        <v>2.848</v>
+        <v>2.993</v>
       </c>
       <c r="N116" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="O116" t="n">
-        <v>142.9</v>
+        <v>125</v>
       </c>
       <c r="P116" t="s">
         <v>36</v>
       </c>
       <c r="Q116" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="R116" t="s">
         <v>44</v>
       </c>
       <c r="S116" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>680</v>
+      </c>
+      <c r="B117" t="s">
         <v>681</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D117" t="s">
         <v>682</v>
       </c>
-      <c r="C117" s="1" t="n">
-        <v>44430</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>683</v>
-      </c>
-      <c r="E117" t="s">
-        <v>684</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H117" t="n">
-        <v>1427627</v>
+        <v>1438812</v>
       </c>
       <c r="I117" t="n">
-        <v>686.712</v>
+        <v>692.092</v>
       </c>
       <c r="J117" t="n">
-        <v>754</v>
+        <v>2953</v>
       </c>
       <c r="K117" t="n">
-        <v>0.363</v>
+        <v>1.42</v>
       </c>
       <c r="L117" t="n">
-        <v>1899</v>
+        <v>2208</v>
       </c>
       <c r="M117" t="n">
-        <v>0.913</v>
+        <v>1.062</v>
       </c>
       <c r="N117" t="n">
-        <v>0.163</v>
+        <v>0.18</v>
       </c>
       <c r="O117" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="P117" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Q117" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R117" t="s">
         <v>44</v>
       </c>
       <c r="S117" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>685</v>
+      </c>
+      <c r="B118" t="s">
         <v>686</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" s="1" t="n">
+        <v>44433</v>
+      </c>
+      <c r="D118" t="s">
         <v>687</v>
       </c>
-      <c r="C118" s="1" t="n">
-        <v>44431</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>688</v>
-      </c>
-      <c r="E118" t="s">
-        <v>689</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H118" t="n">
-        <v>16040903</v>
+        <v>16228941</v>
       </c>
       <c r="I118" t="n">
-        <v>270.465</v>
+        <v>273.635</v>
       </c>
       <c r="J118" t="n">
-        <v>37789</v>
+        <v>132360</v>
       </c>
       <c r="K118" t="n">
-        <v>0.637</v>
+        <v>2.232</v>
       </c>
       <c r="L118" t="n">
-        <v>58183</v>
+        <v>68058</v>
       </c>
       <c r="M118" t="n">
-        <v>0.981</v>
+        <v>1.148</v>
       </c>
       <c r="N118" t="n">
-        <v>0.209</v>
+        <v>0.175</v>
       </c>
       <c r="O118" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="P118" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q118" t="s">
         <v>689</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>690</v>
       </c>
       <c r="R118" t="s">
         <v>31</v>
       </c>
       <c r="S118" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>691</v>
+      </c>
+      <c r="B119" t="s">
         <v>692</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" s="1" t="n">
+        <v>44435</v>
+      </c>
+      <c r="D119" t="s">
         <v>693</v>
       </c>
-      <c r="C119" s="1" t="n">
-        <v>44431</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>694</v>
-      </c>
-      <c r="E119" t="s">
-        <v>695</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H119" t="n">
-        <v>12004786</v>
+        <v>12209316</v>
       </c>
       <c r="I119" t="n">
-        <v>234.152</v>
-      </c>
-      <c r="J119"/>
-      <c r="K119"/>
+        <v>238.141</v>
+      </c>
+      <c r="J119" t="n">
+        <v>53113</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1.036</v>
+      </c>
       <c r="L119" t="n">
-        <v>33295</v>
+        <v>43128</v>
       </c>
       <c r="M119" t="n">
-        <v>0.649</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="O119" t="n">
-        <v>18.7</v>
-      </c>
+        <v>0.841</v>
+      </c>
+      <c r="N119"/>
+      <c r="O119"/>
       <c r="P119" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Q119" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="R119" t="s">
         <v>31</v>
       </c>
       <c r="S119" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>696</v>
+      </c>
+      <c r="B120" t="s">
         <v>697</v>
-      </c>
-      <c r="B120" t="s">
-        <v>698</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>44342</v>
       </c>
       <c r="D120" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E120" t="s">
         <v>36</v>
@@ -9701,307 +9686,307 @@
         <v>36</v>
       </c>
       <c r="Q120" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R120" t="s">
         <v>44</v>
       </c>
       <c r="S120" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>701</v>
+      </c>
+      <c r="B121" t="s">
         <v>702</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" s="1" t="n">
+        <v>44427</v>
+      </c>
+      <c r="D121" t="s">
         <v>703</v>
       </c>
-      <c r="C121" s="1" t="n">
-        <v>44420</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>704</v>
-      </c>
-      <c r="E121" t="s">
-        <v>705</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H121" t="n">
-        <v>53892999</v>
+        <v>54719110</v>
       </c>
       <c r="I121" t="n">
-        <v>1152.673</v>
+        <v>1170.343</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>132552</v>
+        <v>114479</v>
       </c>
       <c r="M121" t="n">
-        <v>2.835</v>
+        <v>2.448</v>
       </c>
       <c r="N121" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="O121" t="n">
-        <v>8.3</v>
+        <v>10</v>
       </c>
       <c r="P121" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q121" t="s">
         <v>706</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>707</v>
       </c>
       <c r="R121" t="s">
         <v>44</v>
       </c>
       <c r="S121" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>708</v>
+      </c>
+      <c r="B122" t="s">
         <v>709</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D122" t="s">
         <v>710</v>
       </c>
-      <c r="C122" s="1" t="n">
-        <v>44431</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>711</v>
-      </c>
-      <c r="E122" t="s">
-        <v>712</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H122" t="n">
-        <v>4799668</v>
+        <v>4900346</v>
       </c>
       <c r="I122" t="n">
-        <v>224.145</v>
+        <v>228.846</v>
       </c>
       <c r="J122" t="n">
-        <v>14716</v>
+        <v>16189</v>
       </c>
       <c r="K122" t="n">
-        <v>0.687</v>
+        <v>0.756</v>
       </c>
       <c r="L122" t="n">
-        <v>17034</v>
+        <v>17519</v>
       </c>
       <c r="M122" t="n">
-        <v>0.795</v>
+        <v>0.818</v>
       </c>
       <c r="N122" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="O122" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P122" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="Q122" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R122" t="s">
         <v>44</v>
       </c>
       <c r="S122" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>713</v>
+      </c>
+      <c r="B123" t="s">
         <v>714</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" s="1" t="n">
+        <v>44430</v>
+      </c>
+      <c r="D123" t="s">
         <v>715</v>
       </c>
-      <c r="C123" s="1" t="n">
-        <v>44423</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>716</v>
-      </c>
-      <c r="E123" t="s">
-        <v>717</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="n">
-        <v>14839</v>
+        <v>17533</v>
       </c>
       <c r="K123" t="n">
-        <v>1.469</v>
+        <v>1.736</v>
       </c>
       <c r="L123" t="n">
-        <v>14839</v>
+        <v>17533</v>
       </c>
       <c r="M123" t="n">
-        <v>1.469</v>
+        <v>1.736</v>
       </c>
       <c r="N123" t="n">
-        <v>0.054</v>
+        <v>0.052</v>
       </c>
       <c r="O123" t="n">
-        <v>18.5</v>
+        <v>19.1</v>
       </c>
       <c r="P123" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q123" t="s">
         <v>718</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>719</v>
       </c>
       <c r="R123" t="s">
         <v>44</v>
       </c>
       <c r="S123" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>720</v>
+      </c>
+      <c r="B124" t="s">
         <v>721</v>
       </c>
-      <c r="B124" t="s">
-        <v>722</v>
-      </c>
       <c r="C124" s="1" t="n">
-        <v>44429</v>
+        <v>44433</v>
       </c>
       <c r="D124" t="s">
+        <v>443</v>
+      </c>
+      <c r="E124" t="s">
         <v>444</v>
-      </c>
-      <c r="E124" t="s">
-        <v>445</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H124" t="n">
-        <v>9112363</v>
+        <v>9198104</v>
       </c>
       <c r="I124" t="n">
-        <v>1052.89</v>
+        <v>1062.797</v>
       </c>
       <c r="J124" t="n">
-        <v>21770</v>
+        <v>22174</v>
       </c>
       <c r="K124" t="n">
-        <v>2.515</v>
+        <v>2.562</v>
       </c>
       <c r="L124" t="n">
-        <v>22643</v>
+        <v>23951</v>
       </c>
       <c r="M124" t="n">
-        <v>2.616</v>
+        <v>2.767</v>
       </c>
       <c r="N124" t="n">
-        <v>0.129</v>
+        <v>0.119</v>
       </c>
       <c r="O124" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="P124" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q124" t="s">
         <v>445</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>446</v>
       </c>
       <c r="R124" t="s">
         <v>44</v>
       </c>
       <c r="S124" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>723</v>
+      </c>
+      <c r="B125" t="s">
         <v>724</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D125" t="s">
         <v>725</v>
       </c>
-      <c r="C125" s="1" t="n">
-        <v>44429</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>726</v>
-      </c>
-      <c r="E125" t="s">
-        <v>727</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="H125" t="n">
-        <v>2495285</v>
+        <v>2596704</v>
       </c>
       <c r="I125" t="n">
-        <v>104.77</v>
+        <v>109.028</v>
       </c>
       <c r="J125" t="n">
-        <v>15516</v>
+        <v>13498</v>
       </c>
       <c r="K125" t="n">
-        <v>0.651</v>
+        <v>0.567</v>
       </c>
       <c r="L125" t="n">
-        <v>20032</v>
+        <v>19397</v>
       </c>
       <c r="M125" t="n">
-        <v>0.841</v>
+        <v>0.814</v>
       </c>
       <c r="N125" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>1920.8</v>
+        <v>2715.5</v>
       </c>
       <c r="P125" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Q125" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="R125" t="s">
         <v>31</v>
       </c>
       <c r="S125" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>728</v>
+      </c>
+      <c r="B126" t="s">
         <v>729</v>
-      </c>
-      <c r="B126" t="s">
-        <v>730</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D126" t="s">
+        <v>730</v>
+      </c>
+      <c r="E126" t="s">
         <v>731</v>
-      </c>
-      <c r="E126" t="s">
-        <v>732</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
@@ -10028,115 +10013,117 @@
       <c r="N126"/>
       <c r="O126"/>
       <c r="P126" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q126" t="s">
         <v>733</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>734</v>
       </c>
       <c r="R126" t="s">
         <v>44</v>
       </c>
       <c r="S126" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>735</v>
+      </c>
+      <c r="B127" t="s">
         <v>736</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" s="1" t="n">
+        <v>44433</v>
+      </c>
+      <c r="D127" t="s">
         <v>737</v>
-      </c>
-      <c r="C127" s="1" t="n">
-        <v>44431</v>
-      </c>
-      <c r="D127" t="s">
-        <v>738</v>
       </c>
       <c r="E127" t="s">
         <v>36</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H127" t="n">
-        <v>175199</v>
+        <v>177411</v>
       </c>
       <c r="I127" t="n">
-        <v>132.883</v>
+        <v>134.561</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
       <c r="L127" t="n">
-        <v>762</v>
+        <v>782</v>
       </c>
       <c r="M127" t="n">
-        <v>0.578</v>
+        <v>0.593</v>
       </c>
       <c r="N127" t="n">
-        <v>0.323</v>
+        <v>0.391</v>
       </c>
       <c r="O127" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P127" t="s">
         <v>36</v>
       </c>
       <c r="Q127" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R127" t="s">
         <v>24</v>
       </c>
       <c r="S127" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>739</v>
+      </c>
+      <c r="B128" t="s">
         <v>740</v>
       </c>
-      <c r="B128" t="s">
-        <v>741</v>
-      </c>
       <c r="C128" s="1" t="n">
-        <v>44426</v>
+        <v>44434</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
+        <v>741</v>
+      </c>
+      <c r="F128" t="s">
         <v>742</v>
       </c>
-      <c r="F128"/>
       <c r="G128" t="n">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="H128" t="n">
-        <v>437491</v>
+        <v>453355</v>
       </c>
       <c r="I128" t="n">
-        <v>52.845</v>
+        <v>54.761</v>
       </c>
       <c r="J128" t="n">
-        <v>2122</v>
+        <v>2007</v>
       </c>
       <c r="K128" t="n">
-        <v>0.256</v>
+        <v>0.242</v>
       </c>
       <c r="L128" t="n">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="M128" t="n">
         <v>0.232</v>
       </c>
       <c r="N128" t="n">
-        <v>0.101</v>
+        <v>0.142</v>
       </c>
       <c r="O128" t="n">
-        <v>9.9</v>
+        <v>7</v>
       </c>
       <c r="P128" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Q128" t="s">
         <v>743</v>
@@ -10156,41 +10143,39 @@
         <v>747</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44420</v>
+        <v>44434</v>
       </c>
       <c r="D129" t="s">
         <v>748</v>
       </c>
-      <c r="E129" t="s">
-        <v>36</v>
-      </c>
+      <c r="E129"/>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="H129" t="n">
-        <v>285856</v>
+        <v>304866</v>
       </c>
       <c r="I129" t="n">
-        <v>204.257</v>
+        <v>217.841</v>
       </c>
       <c r="J129" t="n">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="K129" t="n">
-        <v>0.607</v>
+        <v>0.612</v>
       </c>
       <c r="L129" t="n">
-        <v>1386</v>
+        <v>34751</v>
       </c>
       <c r="M129" t="n">
-        <v>0.99</v>
+        <v>24.831</v>
       </c>
       <c r="N129" t="n">
-        <v>0.168</v>
+        <v>0.005</v>
       </c>
       <c r="O129" t="n">
-        <v>6</v>
+        <v>208.3</v>
       </c>
       <c r="P129" t="s">
         <v>36</v>
@@ -10213,7 +10198,7 @@
         <v>752</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="D130" t="s">
         <v>753</v>
@@ -10223,27 +10208,31 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H130" t="n">
-        <v>2469723</v>
+        <v>2514986</v>
       </c>
       <c r="I130" t="n">
-        <v>208.969</v>
-      </c>
-      <c r="J130"/>
-      <c r="K130"/>
+        <v>212.799</v>
+      </c>
+      <c r="J130" t="n">
+        <v>14970</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1.267</v>
+      </c>
       <c r="L130" t="n">
-        <v>10026</v>
+        <v>12339</v>
       </c>
       <c r="M130" t="n">
-        <v>0.848</v>
+        <v>1.044</v>
       </c>
       <c r="N130" t="n">
-        <v>0.244</v>
+        <v>0.217</v>
       </c>
       <c r="O130" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="P130" t="s">
         <v>755</v>
@@ -10323,7 +10312,7 @@
         <v>765</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44425</v>
+        <v>44432</v>
       </c>
       <c r="D132" t="s">
         <v>766</v>
@@ -10333,31 +10322,31 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H132" t="n">
-        <v>1536425</v>
+        <v>1561437</v>
       </c>
       <c r="I132" t="n">
-        <v>33.59</v>
+        <v>34.136</v>
       </c>
       <c r="J132" t="n">
-        <v>3099</v>
+        <v>2721</v>
       </c>
       <c r="K132" t="n">
-        <v>0.068</v>
+        <v>0.059</v>
       </c>
       <c r="L132" t="n">
-        <v>3619</v>
+        <v>3573</v>
       </c>
       <c r="M132" t="n">
-        <v>0.079</v>
+        <v>0.078</v>
       </c>
       <c r="N132" t="n">
-        <v>0.049</v>
+        <v>0.868</v>
       </c>
       <c r="O132" t="n">
-        <v>20.6</v>
+        <v>1.2</v>
       </c>
       <c r="P132" t="s">
         <v>767</v>
@@ -10380,7 +10369,7 @@
         <v>771</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44431</v>
+        <v>44435</v>
       </c>
       <c r="D133" t="s">
         <v>772</v>
@@ -10390,28 +10379,28 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H133" t="n">
-        <v>11827261</v>
+        <v>11903521</v>
       </c>
       <c r="I133" t="n">
-        <v>270.438</v>
-      </c>
-      <c r="J133"/>
-      <c r="K133"/>
+        <v>272.182</v>
+      </c>
+      <c r="J133" t="n">
+        <v>23049</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.527</v>
+      </c>
       <c r="L133" t="n">
-        <v>20537</v>
+        <v>18599</v>
       </c>
       <c r="M133" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O133" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0.425</v>
+      </c>
+      <c r="N133"/>
+      <c r="O133"/>
       <c r="P133" t="s">
         <v>773</v>
       </c>
@@ -10433,7 +10422,7 @@
         <v>777</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="D134" t="s">
         <v>778</v>
@@ -10443,31 +10432,31 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H134" t="n">
-        <v>72200005</v>
+        <v>73166834</v>
       </c>
       <c r="I134" t="n">
-        <v>7300.009</v>
+        <v>7397.763</v>
       </c>
       <c r="J134" t="n">
-        <v>290691</v>
+        <v>306873</v>
       </c>
       <c r="K134" t="n">
-        <v>29.391</v>
+        <v>31.027</v>
       </c>
       <c r="L134" t="n">
-        <v>300803</v>
+        <v>311324</v>
       </c>
       <c r="M134" t="n">
-        <v>30.414</v>
+        <v>31.477</v>
       </c>
       <c r="N134" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O134" t="n">
-        <v>278.8</v>
+        <v>301.2</v>
       </c>
       <c r="P134" t="s">
         <v>779</v>
@@ -10490,7 +10479,7 @@
         <v>782</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44427</v>
+        <v>44433</v>
       </c>
       <c r="D135" t="s">
         <v>783</v>
@@ -10502,31 +10491,31 @@
         <v>785</v>
       </c>
       <c r="G135" t="n">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="H135" t="n">
-        <v>234648590</v>
+        <v>239081395</v>
       </c>
       <c r="I135" t="n">
-        <v>3456.509</v>
+        <v>3521.807</v>
       </c>
       <c r="J135" t="n">
-        <v>838631</v>
+        <v>912027</v>
       </c>
       <c r="K135" t="n">
-        <v>12.354</v>
+        <v>13.435</v>
       </c>
       <c r="L135" t="n">
-        <v>739447</v>
+        <v>753062</v>
       </c>
       <c r="M135" t="n">
-        <v>10.892</v>
+        <v>11.093</v>
       </c>
       <c r="N135" t="n">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="O135" t="n">
-        <v>24.2</v>
+        <v>22.4</v>
       </c>
       <c r="P135" t="s">
         <v>786</v>
@@ -10549,7 +10538,7 @@
         <v>790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44427</v>
+        <v>44431</v>
       </c>
       <c r="D136" t="s">
         <v>791</v>
@@ -10559,31 +10548,31 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H136" t="n">
-        <v>511822768</v>
+        <v>518104887</v>
       </c>
       <c r="I136" t="n">
-        <v>1546.28</v>
+        <v>1565.259</v>
       </c>
       <c r="J136" t="n">
-        <v>645687</v>
+        <v>361423</v>
       </c>
       <c r="K136" t="n">
-        <v>1.951</v>
+        <v>1.092</v>
       </c>
       <c r="L136" t="n">
-        <v>877581</v>
+        <v>1088567</v>
       </c>
       <c r="M136" t="n">
-        <v>2.651</v>
+        <v>3.289</v>
       </c>
       <c r="N136" t="n">
-        <v>0.161</v>
+        <v>0.138</v>
       </c>
       <c r="O136" t="n">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="P136" t="s">
         <v>792</v>
@@ -10606,7 +10595,7 @@
         <v>797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="D137" t="s">
         <v>798</v>
@@ -10616,27 +10605,31 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H137" t="n">
-        <v>3270618</v>
+        <v>3277102</v>
       </c>
       <c r="I137" t="n">
-        <v>941.53</v>
-      </c>
-      <c r="J137"/>
-      <c r="K137"/>
+        <v>943.397</v>
+      </c>
+      <c r="J137" t="n">
+        <v>6484</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1.867</v>
+      </c>
       <c r="L137" t="n">
-        <v>8605</v>
+        <v>9051</v>
       </c>
       <c r="M137" t="n">
-        <v>2.477</v>
+        <v>2.606</v>
       </c>
       <c r="N137" t="n">
         <v>0.013</v>
       </c>
       <c r="O137" t="n">
-        <v>75.1</v>
+        <v>79.8</v>
       </c>
       <c r="P137" t="s">
         <v>191</v>
@@ -10659,7 +10652,7 @@
         <v>802</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44425</v>
+        <v>44432</v>
       </c>
       <c r="D138" t="s">
         <v>803</v>
@@ -10669,31 +10662,31 @@
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H138" t="n">
-        <v>10939961</v>
+        <v>13016830</v>
       </c>
       <c r="I138" t="n">
-        <v>112.391</v>
+        <v>133.727</v>
       </c>
       <c r="J138" t="n">
-        <v>209518</v>
+        <v>1014412</v>
       </c>
       <c r="K138" t="n">
-        <v>2.152</v>
+        <v>10.421</v>
       </c>
       <c r="L138" t="n">
-        <v>159996</v>
+        <v>296696</v>
       </c>
       <c r="M138" t="n">
-        <v>1.644</v>
+        <v>3.048</v>
       </c>
       <c r="N138" t="n">
-        <v>0.054</v>
+        <v>0.037</v>
       </c>
       <c r="O138" t="n">
-        <v>18.6</v>
+        <v>27.3</v>
       </c>
       <c r="P138" t="s">
         <v>805</v>
@@ -10773,7 +10766,7 @@
         <v>815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44426</v>
+        <v>44429</v>
       </c>
       <c r="D140" t="s">
         <v>816</v>
@@ -10783,31 +10776,31 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H140" t="n">
-        <v>1075390</v>
+        <v>1092557</v>
       </c>
       <c r="I140" t="n">
-        <v>72.354</v>
+        <v>73.509</v>
       </c>
       <c r="J140" t="n">
-        <v>5314</v>
+        <v>3957</v>
       </c>
       <c r="K140" t="n">
-        <v>0.358</v>
+        <v>0.266</v>
       </c>
       <c r="L140" t="n">
-        <v>6297</v>
+        <v>5952</v>
       </c>
       <c r="M140" t="n">
-        <v>0.424</v>
+        <v>0.4</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08</v>
+        <v>0.063</v>
       </c>
       <c r="O140" t="n">
-        <v>12.4</v>
+        <v>15.8</v>
       </c>
       <c r="P140" t="s">
         <v>817</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="819">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -715,7 +715,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-26082021-fs80</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-27082021-jk0v</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -1168,7 +1168,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/368885</t>
+    <t xml:space="preserve">http://irangov.ir/detail/368960</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1706,10 +1706,7 @@
     <t xml:space="preserve">Mongolia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-07-%D0%B4%D1%83%D0%B3%D0%B0%D0%B0%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-11-%D0%BD%D1%8B-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1274/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://covid19.mohs.mn/p/cat/post/57/</t>
+    <t xml:space="preserve">https://www1.e-mongolia.mn/covid-19</t>
   </si>
   <si>
     <t xml:space="preserve">The Ministry of Health of Mongolia publishes daily reports on its website dedicated to the COVID-19 situation. They include the daily and cumulative number of samples tested with RT-PCR. Our current time series starts on 11 November 2020, which is the date of the first locally transmitted case in the country.</t>
@@ -2777,8 +2774,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -2815,7 +2814,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3102,10 +3101,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -3192,19 +3191,19 @@
         <v>737014</v>
       </c>
       <c r="I2" t="n">
-        <v>256.103</v>
+        <v>256.537</v>
       </c>
       <c r="J2" t="n">
         <v>2224</v>
       </c>
       <c r="K2" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="L2" t="n">
         <v>2643</v>
       </c>
       <c r="M2" t="n">
-        <v>0.918</v>
+        <v>0.92</v>
       </c>
       <c r="N2" t="n">
         <v>0.004</v>
@@ -3249,7 +3248,7 @@
         <v>208619</v>
       </c>
       <c r="I3" t="n">
-        <v>2700.045</v>
+        <v>2696.939</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
@@ -3257,7 +3256,7 @@
         <v>168</v>
       </c>
       <c r="M3" t="n">
-        <v>2.174</v>
+        <v>2.172</v>
       </c>
       <c r="N3" t="n">
         <v>0.041</v>
@@ -3302,7 +3301,7 @@
         <v>16700</v>
       </c>
       <c r="I4" t="n">
-        <v>170.533</v>
+        <v>169.152</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -3347,19 +3346,19 @@
         <v>13001932</v>
       </c>
       <c r="I5" t="n">
-        <v>287.68</v>
+        <v>285.094</v>
       </c>
       <c r="J5" t="n">
         <v>30076</v>
       </c>
       <c r="K5" t="n">
-        <v>0.665</v>
+        <v>0.659</v>
       </c>
       <c r="L5" t="n">
         <v>31793</v>
       </c>
       <c r="M5" t="n">
-        <v>0.703</v>
+        <v>0.697</v>
       </c>
       <c r="N5" t="n">
         <v>0.072</v>
@@ -3404,19 +3403,19 @@
         <v>1511103</v>
       </c>
       <c r="I6" t="n">
-        <v>509.951</v>
+        <v>509.11</v>
       </c>
       <c r="J6" t="n">
         <v>6918</v>
       </c>
       <c r="K6" t="n">
-        <v>2.335</v>
+        <v>2.331</v>
       </c>
       <c r="L6" t="n">
         <v>7091</v>
       </c>
       <c r="M6" t="n">
-        <v>2.393</v>
+        <v>2.389</v>
       </c>
       <c r="N6" t="n">
         <v>0.071</v>
@@ -3461,19 +3460,19 @@
         <v>30541835</v>
       </c>
       <c r="I7" t="n">
-        <v>1197.725</v>
+        <v>1184.333</v>
       </c>
       <c r="J7" t="n">
         <v>258583</v>
       </c>
       <c r="K7" t="n">
-        <v>10.141</v>
+        <v>10.027</v>
       </c>
       <c r="L7" t="n">
         <v>252134</v>
       </c>
       <c r="M7" t="n">
-        <v>9.888</v>
+        <v>9.777</v>
       </c>
       <c r="N7" t="n">
         <v>0.004</v>
@@ -3502,7 +3501,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3512,31 +3511,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H8" t="n">
-        <v>74676120</v>
+        <v>75098854</v>
       </c>
       <c r="I8" t="n">
-        <v>8291.451</v>
+        <v>8304.573</v>
       </c>
       <c r="J8" t="n">
-        <v>281445</v>
+        <v>422734</v>
       </c>
       <c r="K8" t="n">
-        <v>31.249</v>
+        <v>46.747</v>
       </c>
       <c r="L8" t="n">
-        <v>321605</v>
+        <v>318730</v>
       </c>
       <c r="M8" t="n">
-        <v>35.708</v>
+        <v>35.246</v>
       </c>
       <c r="N8" t="n">
         <v>0.004</v>
       </c>
       <c r="O8" t="n">
-        <v>262.2</v>
+        <v>253.6</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3575,7 +3574,7 @@
         <v>4379510</v>
       </c>
       <c r="I9" t="n">
-        <v>431.939</v>
+        <v>428.383</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
@@ -3583,7 +3582,7 @@
         <v>16962</v>
       </c>
       <c r="M9" t="n">
-        <v>1.673</v>
+        <v>1.659</v>
       </c>
       <c r="N9" t="n">
         <v>0.207</v>
@@ -3628,19 +3627,19 @@
         <v>5850590</v>
       </c>
       <c r="I10" t="n">
-        <v>3438.322</v>
+        <v>3346.455</v>
       </c>
       <c r="J10" t="n">
         <v>18377</v>
       </c>
       <c r="K10" t="n">
-        <v>10.8</v>
+        <v>10.511</v>
       </c>
       <c r="L10" t="n">
         <v>17340</v>
       </c>
       <c r="M10" t="n">
-        <v>10.191</v>
+        <v>9.918</v>
       </c>
       <c r="N10" t="n">
         <v>0.006</v>
@@ -3685,19 +3684,19 @@
         <v>8770585</v>
       </c>
       <c r="I11" t="n">
-        <v>53.255</v>
+        <v>52.738</v>
       </c>
       <c r="J11" t="n">
         <v>34111</v>
       </c>
       <c r="K11" t="n">
-        <v>0.207</v>
+        <v>0.205</v>
       </c>
       <c r="L11" t="n">
         <v>36138</v>
       </c>
       <c r="M11" t="n">
-        <v>0.219</v>
+        <v>0.217</v>
       </c>
       <c r="N11" t="n">
         <v>0.14</v>
@@ -3742,19 +3741,19 @@
         <v>7720145</v>
       </c>
       <c r="I12" t="n">
-        <v>817.005</v>
+        <v>817.564</v>
       </c>
       <c r="J12" t="n">
         <v>19773</v>
       </c>
       <c r="K12" t="n">
-        <v>2.093</v>
+        <v>2.094</v>
       </c>
       <c r="L12" t="n">
         <v>16730</v>
       </c>
       <c r="M12" t="n">
-        <v>1.77</v>
+        <v>1.772</v>
       </c>
       <c r="N12" t="n">
         <v>0.078</v>
@@ -3799,19 +3798,19 @@
         <v>18488837</v>
       </c>
       <c r="I13" t="n">
-        <v>1595.293</v>
+        <v>1589.435</v>
       </c>
       <c r="J13" t="n">
         <v>40666</v>
       </c>
       <c r="K13" t="n">
-        <v>3.509</v>
+        <v>3.496</v>
       </c>
       <c r="L13" t="n">
         <v>42061</v>
       </c>
       <c r="M13" t="n">
-        <v>3.629</v>
+        <v>3.616</v>
       </c>
       <c r="N13" t="n">
         <v>0.052</v>
@@ -3856,7 +3855,7 @@
         <v>211942</v>
       </c>
       <c r="I14" t="n">
-        <v>533.025</v>
+        <v>523.423</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
@@ -3864,7 +3863,7 @@
         <v>1418</v>
       </c>
       <c r="M14" t="n">
-        <v>3.566</v>
+        <v>3.502</v>
       </c>
       <c r="N14" t="n">
         <v>0.062</v>
@@ -3909,7 +3908,7 @@
         <v>640586</v>
       </c>
       <c r="I15" t="n">
-        <v>52.84</v>
+        <v>51.448</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
@@ -3954,7 +3953,7 @@
         <v>798573</v>
       </c>
       <c r="I16" t="n">
-        <v>1034.941</v>
+        <v>1023.943</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -3962,7 +3961,7 @@
         <v>5777</v>
       </c>
       <c r="M16" t="n">
-        <v>7.487</v>
+        <v>7.407</v>
       </c>
       <c r="N16" t="n">
         <v>0.004</v>
@@ -4007,19 +4006,19 @@
         <v>2253463</v>
       </c>
       <c r="I17" t="n">
-        <v>193.049</v>
+        <v>190.44</v>
       </c>
       <c r="J17" t="n">
         <v>8598</v>
       </c>
       <c r="K17" t="n">
-        <v>0.737</v>
+        <v>0.727</v>
       </c>
       <c r="L17" t="n">
         <v>6605</v>
       </c>
       <c r="M17" t="n">
-        <v>0.566</v>
+        <v>0.558</v>
       </c>
       <c r="N17" t="n">
         <v>0.086</v>
@@ -4064,19 +4063,19 @@
         <v>1129226</v>
       </c>
       <c r="I18" t="n">
-        <v>344.191</v>
+        <v>346.021</v>
       </c>
       <c r="J18" t="n">
         <v>3259</v>
       </c>
       <c r="K18" t="n">
-        <v>0.993</v>
+        <v>0.999</v>
       </c>
       <c r="L18" t="n">
         <v>2576</v>
       </c>
       <c r="M18" t="n">
-        <v>0.785</v>
+        <v>0.789</v>
       </c>
       <c r="N18" t="n">
         <v>0.169</v>
@@ -4121,7 +4120,7 @@
         <v>31716527</v>
       </c>
       <c r="I19" t="n">
-        <v>149.213</v>
+        <v>148.213</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
@@ -4166,7 +4165,7 @@
         <v>4114130</v>
       </c>
       <c r="I20" t="n">
-        <v>592.094</v>
+        <v>596.54</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -4174,7 +4173,7 @@
         <v>24094</v>
       </c>
       <c r="M20" t="n">
-        <v>3.468</v>
+        <v>3.494</v>
       </c>
       <c r="N20" t="n">
         <v>0.058</v>
@@ -4219,19 +4218,19 @@
         <v>1579750</v>
       </c>
       <c r="I21" t="n">
-        <v>94.488</v>
+        <v>93.22</v>
       </c>
       <c r="J21" t="n">
         <v>7274</v>
       </c>
       <c r="K21" t="n">
-        <v>0.435</v>
+        <v>0.429</v>
       </c>
       <c r="L21" t="n">
         <v>26918</v>
       </c>
       <c r="M21" t="n">
-        <v>1.61</v>
+        <v>1.588</v>
       </c>
       <c r="N21" t="n">
         <v>0.035</v>
@@ -4276,19 +4275,19 @@
         <v>17483364</v>
       </c>
       <c r="I22" t="n">
-        <v>463.232</v>
+        <v>459.268</v>
       </c>
       <c r="J22" t="n">
         <v>50138</v>
       </c>
       <c r="K22" t="n">
-        <v>1.328</v>
+        <v>1.317</v>
       </c>
       <c r="L22" t="n">
         <v>61832</v>
       </c>
       <c r="M22" t="n">
-        <v>1.638</v>
+        <v>1.624</v>
       </c>
       <c r="N22" t="n">
         <v>0.072</v>
@@ -4333,19 +4332,19 @@
         <v>40150588</v>
       </c>
       <c r="I23" t="n">
-        <v>1063.813</v>
+        <v>1054.709</v>
       </c>
       <c r="J23" t="n">
         <v>83484</v>
       </c>
       <c r="K23" t="n">
-        <v>2.212</v>
+        <v>2.193</v>
       </c>
       <c r="L23" t="n">
         <v>70988</v>
       </c>
       <c r="M23" t="n">
-        <v>1.881</v>
+        <v>1.865</v>
       </c>
       <c r="N23" t="n">
         <v>0.04</v>
@@ -4392,7 +4391,7 @@
         <v>1477</v>
       </c>
       <c r="K24" t="n">
-        <v>2.657</v>
+        <v>2.629</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4435,19 +4434,19 @@
         <v>19785781</v>
       </c>
       <c r="I25" t="n">
-        <v>1035.026</v>
+        <v>1029.846</v>
       </c>
       <c r="J25" t="n">
         <v>63985</v>
       </c>
       <c r="K25" t="n">
-        <v>3.347</v>
+        <v>3.33</v>
       </c>
       <c r="L25" t="n">
         <v>52044</v>
       </c>
       <c r="M25" t="n">
-        <v>2.723</v>
+        <v>2.709</v>
       </c>
       <c r="N25" t="n">
         <v>0.012</v>
@@ -4492,7 +4491,7 @@
         <v>160000000</v>
       </c>
       <c r="I26" t="n">
-        <v>111.163</v>
+        <v>110.787</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -4537,19 +4536,19 @@
         <v>23881781</v>
       </c>
       <c r="I27" t="n">
-        <v>469.348</v>
+        <v>465.842</v>
       </c>
       <c r="J27" t="n">
         <v>53070</v>
       </c>
       <c r="K27" t="n">
-        <v>1.043</v>
+        <v>1.035</v>
       </c>
       <c r="L27" t="n">
         <v>49903</v>
       </c>
       <c r="M27" t="n">
-        <v>0.981</v>
+        <v>0.973</v>
       </c>
       <c r="N27" t="n">
         <v>0.067</v>
@@ -4594,19 +4593,19 @@
         <v>1632278</v>
       </c>
       <c r="I28" t="n">
-        <v>320.424</v>
+        <v>317.622</v>
       </c>
       <c r="J28" t="n">
         <v>4363</v>
       </c>
       <c r="K28" t="n">
-        <v>0.856</v>
+        <v>0.849</v>
       </c>
       <c r="L28" t="n">
         <v>7787</v>
       </c>
       <c r="M28" t="n">
-        <v>1.529</v>
+        <v>1.515</v>
       </c>
       <c r="N28" t="n">
         <v>0.2</v>
@@ -4651,19 +4650,19 @@
         <v>880168</v>
       </c>
       <c r="I29" t="n">
-        <v>33.367</v>
+        <v>32.534</v>
       </c>
       <c r="J29" t="n">
         <v>4628</v>
       </c>
       <c r="K29" t="n">
-        <v>0.175</v>
+        <v>0.171</v>
       </c>
       <c r="L29" t="n">
         <v>4001</v>
       </c>
       <c r="M29" t="n">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
       <c r="N29" t="n">
         <v>0.049</v>
@@ -4708,7 +4707,7 @@
         <v>2510859</v>
       </c>
       <c r="I30" t="n">
-        <v>611.619</v>
+        <v>615.157</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -4716,7 +4715,7 @@
         <v>9097</v>
       </c>
       <c r="M30" t="n">
-        <v>2.216</v>
+        <v>2.229</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -4759,19 +4758,19 @@
         <v>5296762</v>
       </c>
       <c r="I31" t="n">
-        <v>467.639</v>
+        <v>468.015</v>
       </c>
       <c r="J31" t="n">
         <v>38826</v>
       </c>
       <c r="K31" t="n">
-        <v>3.428</v>
+        <v>3.431</v>
       </c>
       <c r="L31" t="n">
         <v>35601</v>
       </c>
       <c r="M31" t="n">
-        <v>3.143</v>
+        <v>3.146</v>
       </c>
       <c r="N31" t="n">
         <v>0.088</v>
@@ -4875,13 +4874,13 @@
         <v>83563</v>
       </c>
       <c r="K33" t="n">
-        <v>7.803</v>
+        <v>7.792</v>
       </c>
       <c r="L33" t="n">
         <v>88093</v>
       </c>
       <c r="M33" t="n">
-        <v>8.226</v>
+        <v>8.214</v>
       </c>
       <c r="N33" t="n">
         <v>0.002</v>
@@ -4963,7 +4962,7 @@
         <v>210</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -4973,31 +4972,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H35" t="n">
-        <v>39464855</v>
+        <v>39539587</v>
       </c>
       <c r="I35" t="n">
-        <v>6813.445</v>
+        <v>6801.571</v>
       </c>
       <c r="J35" t="n">
-        <v>49934</v>
+        <v>44147</v>
       </c>
       <c r="K35" t="n">
-        <v>8.621</v>
+        <v>7.594</v>
       </c>
       <c r="L35" t="n">
-        <v>67322</v>
+        <v>66050</v>
       </c>
       <c r="M35" t="n">
-        <v>11.623</v>
+        <v>11.362</v>
       </c>
       <c r="N35" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="O35" t="n">
-        <v>69.3</v>
+        <v>68.1</v>
       </c>
       <c r="P35" t="s">
         <v>212</v>
@@ -5036,7 +5035,7 @@
         <v>1938279</v>
       </c>
       <c r="I36" t="n">
-        <v>178.678</v>
+        <v>176.952</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
@@ -5044,7 +5043,7 @@
         <v>3531</v>
       </c>
       <c r="M36" t="n">
-        <v>0.326</v>
+        <v>0.322</v>
       </c>
       <c r="N36" t="n">
         <v>0.07</v>
@@ -5091,19 +5090,19 @@
         <v>1662510</v>
       </c>
       <c r="I37" t="n">
-        <v>94.23</v>
+        <v>92.937</v>
       </c>
       <c r="J37" t="n">
         <v>2897</v>
       </c>
       <c r="K37" t="n">
-        <v>0.164</v>
+        <v>0.162</v>
       </c>
       <c r="L37" t="n">
         <v>2514</v>
       </c>
       <c r="M37" t="n">
-        <v>0.142</v>
+        <v>0.141</v>
       </c>
       <c r="N37" t="n">
         <v>0.333</v>
@@ -5148,19 +5147,19 @@
         <v>892564</v>
       </c>
       <c r="I38" t="n">
-        <v>137.61</v>
+        <v>136.928</v>
       </c>
       <c r="J38" t="n">
         <v>2487</v>
       </c>
       <c r="K38" t="n">
-        <v>0.383</v>
+        <v>0.382</v>
       </c>
       <c r="L38" t="n">
         <v>2308</v>
       </c>
       <c r="M38" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="N38" t="n">
         <v>0.066</v>
@@ -5205,7 +5204,7 @@
         <v>192584</v>
       </c>
       <c r="I39" t="n">
-        <v>137.267</v>
+        <v>132.827</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
@@ -5213,7 +5212,7 @@
         <v>724</v>
       </c>
       <c r="M39" t="n">
-        <v>0.516</v>
+        <v>0.499</v>
       </c>
       <c r="N39" t="n">
         <v>0.032</v>
@@ -5258,19 +5257,19 @@
         <v>1742729</v>
       </c>
       <c r="I40" t="n">
-        <v>1313.741</v>
+        <v>1315.081</v>
       </c>
       <c r="J40" t="n">
         <v>4440</v>
       </c>
       <c r="K40" t="n">
-        <v>3.347</v>
+        <v>3.35</v>
       </c>
       <c r="L40" t="n">
         <v>4105</v>
       </c>
       <c r="M40" t="n">
-        <v>3.095</v>
+        <v>3.098</v>
       </c>
       <c r="N40" t="n">
         <v>0.076</v>
@@ -5315,19 +5314,19 @@
         <v>3200770</v>
       </c>
       <c r="I41" t="n">
-        <v>27.842</v>
+        <v>27.154</v>
       </c>
       <c r="J41" t="n">
         <v>10620</v>
       </c>
       <c r="K41" t="n">
-        <v>0.092</v>
+        <v>0.09</v>
       </c>
       <c r="L41" t="n">
         <v>8379</v>
       </c>
       <c r="M41" t="n">
-        <v>0.073</v>
+        <v>0.071</v>
       </c>
       <c r="N41" t="n">
         <v>0.153</v>
@@ -5372,19 +5371,19 @@
         <v>299637</v>
       </c>
       <c r="I42" t="n">
-        <v>334.251</v>
+        <v>331.861</v>
       </c>
       <c r="J42" t="n">
         <v>2831</v>
       </c>
       <c r="K42" t="n">
-        <v>3.158</v>
+        <v>3.135</v>
       </c>
       <c r="L42" t="n">
         <v>3401</v>
       </c>
       <c r="M42" t="n">
-        <v>3.794</v>
+        <v>3.767</v>
       </c>
       <c r="N42" t="n">
         <v>0.236</v>
@@ -5429,19 +5428,19 @@
         <v>6471878</v>
       </c>
       <c r="I43" t="n">
-        <v>1168.058</v>
+        <v>1166.449</v>
       </c>
       <c r="J43" t="n">
         <v>29034</v>
       </c>
       <c r="K43" t="n">
-        <v>5.24</v>
+        <v>5.233</v>
       </c>
       <c r="L43" t="n">
         <v>23019</v>
       </c>
       <c r="M43" t="n">
-        <v>4.155</v>
+        <v>4.149</v>
       </c>
       <c r="N43" t="n">
         <v>0.027</v>
@@ -5539,7 +5538,7 @@
         <v>1061767</v>
       </c>
       <c r="I45" t="n">
-        <v>477.043</v>
+        <v>465.927</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
@@ -5547,7 +5546,7 @@
         <v>3172</v>
       </c>
       <c r="M45" t="n">
-        <v>1.425</v>
+        <v>1.392</v>
       </c>
       <c r="N45" t="n">
         <v>0.006</v>
@@ -5592,7 +5591,7 @@
         <v>99342</v>
       </c>
       <c r="I46" t="n">
-        <v>41.107</v>
+        <v>39.946</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -5600,7 +5599,7 @@
         <v>328</v>
       </c>
       <c r="M46" t="n">
-        <v>0.136</v>
+        <v>0.132</v>
       </c>
       <c r="N46" t="n">
         <v>0.12</v>
@@ -5645,19 +5644,19 @@
         <v>7860000</v>
       </c>
       <c r="I47" t="n">
-        <v>1970.332</v>
+        <v>1974.987</v>
       </c>
       <c r="J47" t="n">
         <v>44000</v>
       </c>
       <c r="K47" t="n">
-        <v>11.03</v>
+        <v>11.056</v>
       </c>
       <c r="L47" t="n">
         <v>42143</v>
       </c>
       <c r="M47" t="n">
-        <v>10.564</v>
+        <v>10.589</v>
       </c>
       <c r="N47" t="n">
         <v>0.105</v>
@@ -5702,7 +5701,7 @@
         <v>69471706</v>
       </c>
       <c r="I48" t="n">
-        <v>829.177</v>
+        <v>828.025</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -5710,7 +5709,7 @@
         <v>97209</v>
       </c>
       <c r="M48" t="n">
-        <v>1.16</v>
+        <v>1.159</v>
       </c>
       <c r="N48" t="n">
         <v>0.079</v>
@@ -5755,19 +5754,19 @@
         <v>1379016</v>
       </c>
       <c r="I49" t="n">
-        <v>44.38</v>
+        <v>43.458</v>
       </c>
       <c r="J49" t="n">
         <v>4237</v>
       </c>
       <c r="K49" t="n">
-        <v>0.136</v>
+        <v>0.134</v>
       </c>
       <c r="L49" t="n">
         <v>5292</v>
       </c>
       <c r="M49" t="n">
-        <v>0.17</v>
+        <v>0.167</v>
       </c>
       <c r="N49" t="n">
         <v>0.033</v>
@@ -5812,19 +5811,19 @@
         <v>15096664</v>
       </c>
       <c r="I50" t="n">
-        <v>1448.391</v>
+        <v>1455.697</v>
       </c>
       <c r="J50" t="n">
         <v>103260</v>
       </c>
       <c r="K50" t="n">
-        <v>9.907</v>
+        <v>9.957</v>
       </c>
       <c r="L50" t="n">
         <v>92129</v>
       </c>
       <c r="M50" t="n">
-        <v>8.839</v>
+        <v>8.884</v>
       </c>
       <c r="N50" t="n">
         <v>0.036</v>
@@ -5869,19 +5868,19 @@
         <v>2141913</v>
       </c>
       <c r="I51" t="n">
-        <v>119.556</v>
+        <v>117.366</v>
       </c>
       <c r="J51" t="n">
         <v>16658</v>
       </c>
       <c r="K51" t="n">
-        <v>0.93</v>
+        <v>0.913</v>
       </c>
       <c r="L51" t="n">
         <v>11738</v>
       </c>
       <c r="M51" t="n">
-        <v>0.655</v>
+        <v>0.643</v>
       </c>
       <c r="N51" t="n">
         <v>0.339</v>
@@ -5926,7 +5925,7 @@
         <v>22744169</v>
       </c>
       <c r="I52" t="n">
-        <v>3033.774</v>
+        <v>3011.356</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -5934,7 +5933,7 @@
         <v>61811</v>
       </c>
       <c r="M52" t="n">
-        <v>8.245</v>
+        <v>8.184</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -5963,7 +5962,7 @@
         <v>320</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="D53" t="s">
         <v>321</v>
@@ -5975,32 +5974,28 @@
         <v>323</v>
       </c>
       <c r="G53" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H53" t="n">
-        <v>6081089</v>
+        <v>6091206</v>
       </c>
       <c r="I53" t="n">
-        <v>629.49</v>
+        <v>632.251</v>
       </c>
       <c r="J53" t="n">
-        <v>18410</v>
+        <v>10117</v>
       </c>
       <c r="K53" t="n">
-        <v>1.906</v>
+        <v>1.05</v>
       </c>
       <c r="L53" t="n">
-        <v>9177</v>
+        <v>9738</v>
       </c>
       <c r="M53" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="O53" t="n">
-        <v>87.3</v>
-      </c>
+        <v>1.011</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
       <c r="P53" t="s">
         <v>322</v>
       </c>
@@ -6022,7 +6017,7 @@
         <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -6032,25 +6027,25 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H54" t="n">
-        <v>570204</v>
+        <v>572842</v>
       </c>
       <c r="I54" t="n">
-        <v>1670.927</v>
+        <v>1668.342</v>
       </c>
       <c r="J54" t="n">
-        <v>2749</v>
+        <v>2638</v>
       </c>
       <c r="K54" t="n">
-        <v>8.056</v>
+        <v>7.683</v>
       </c>
       <c r="L54" t="n">
-        <v>2670</v>
+        <v>2601</v>
       </c>
       <c r="M54" t="n">
-        <v>7.824</v>
+        <v>7.575</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -6093,19 +6088,19 @@
         <v>514954309</v>
       </c>
       <c r="I55" t="n">
-        <v>373.154</v>
+        <v>369.564</v>
       </c>
       <c r="J55" t="n">
         <v>1824931</v>
       </c>
       <c r="K55" t="n">
-        <v>1.322</v>
+        <v>1.31</v>
       </c>
       <c r="L55" t="n">
         <v>1750658</v>
       </c>
       <c r="M55" t="n">
-        <v>1.269</v>
+        <v>1.256</v>
       </c>
       <c r="N55"/>
       <c r="O55"/>
@@ -6146,7 +6141,7 @@
         <v>20974752</v>
       </c>
       <c r="I56" t="n">
-        <v>76.684</v>
+        <v>75.896</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
@@ -6154,7 +6149,7 @@
         <v>112797</v>
       </c>
       <c r="M56" t="n">
-        <v>0.412</v>
+        <v>0.408</v>
       </c>
       <c r="N56" t="n">
         <v>0.144</v>
@@ -6183,7 +6178,7 @@
         <v>344</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="D57" t="s">
         <v>345</v>
@@ -6193,32 +6188,28 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H57" t="n">
-        <v>28330070</v>
+        <v>28438161</v>
       </c>
       <c r="I57" t="n">
-        <v>337.291</v>
+        <v>334.453</v>
       </c>
       <c r="J57" t="n">
-        <v>116841</v>
+        <v>108091</v>
       </c>
       <c r="K57" t="n">
-        <v>1.391</v>
+        <v>1.271</v>
       </c>
       <c r="L57" t="n">
-        <v>107202</v>
+        <v>110297</v>
       </c>
       <c r="M57" t="n">
-        <v>1.276</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="O57" t="n">
-        <v>3.1</v>
-      </c>
+        <v>1.297</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
       <c r="P57" t="s">
         <v>346</v>
       </c>
@@ -6256,19 +6247,19 @@
         <v>14168599</v>
       </c>
       <c r="I58" t="n">
-        <v>352.256</v>
+        <v>344.07</v>
       </c>
       <c r="J58" t="n">
         <v>44512</v>
       </c>
       <c r="K58" t="n">
-        <v>1.107</v>
+        <v>1.081</v>
       </c>
       <c r="L58" t="n">
         <v>36534</v>
       </c>
       <c r="M58" t="n">
-        <v>0.908</v>
+        <v>0.887</v>
       </c>
       <c r="N58" t="n">
         <v>0.181</v>
@@ -6313,19 +6304,19 @@
         <v>6599859</v>
       </c>
       <c r="I59" t="n">
-        <v>1336.6</v>
+        <v>1324.501</v>
       </c>
       <c r="J59" t="n">
         <v>22426</v>
       </c>
       <c r="K59" t="n">
-        <v>4.542</v>
+        <v>4.501</v>
       </c>
       <c r="L59" t="n">
         <v>19786</v>
       </c>
       <c r="M59" t="n">
-        <v>4.007</v>
+        <v>3.971</v>
       </c>
       <c r="N59" t="n">
         <v>0.094</v>
@@ -6370,19 +6361,19 @@
         <v>22710194</v>
       </c>
       <c r="I60" t="n">
-        <v>2623.775</v>
+        <v>2583.706</v>
       </c>
       <c r="J60" t="n">
         <v>147184</v>
       </c>
       <c r="K60" t="n">
-        <v>17.005</v>
+        <v>16.745</v>
       </c>
       <c r="L60" t="n">
         <v>139117</v>
       </c>
       <c r="M60" t="n">
-        <v>16.073</v>
+        <v>15.827</v>
       </c>
       <c r="N60" t="n">
         <v>0.059</v>
@@ -6429,19 +6420,19 @@
         <v>32268573</v>
       </c>
       <c r="I61" t="n">
-        <v>533.702</v>
+        <v>534.536</v>
       </c>
       <c r="J61" t="n">
         <v>54003</v>
       </c>
       <c r="K61" t="n">
-        <v>0.893</v>
+        <v>0.895</v>
       </c>
       <c r="L61" t="n">
         <v>50601</v>
       </c>
       <c r="M61" t="n">
-        <v>0.837</v>
+        <v>0.838</v>
       </c>
       <c r="N61" t="n">
         <v>0.129</v>
@@ -6488,19 +6479,19 @@
         <v>82836243</v>
       </c>
       <c r="I62" t="n">
-        <v>1370.059</v>
+        <v>1372.2</v>
       </c>
       <c r="J62" t="n">
         <v>220872</v>
       </c>
       <c r="K62" t="n">
-        <v>3.653</v>
+        <v>3.659</v>
       </c>
       <c r="L62" t="n">
         <v>212042</v>
       </c>
       <c r="M62" t="n">
-        <v>3.507</v>
+        <v>3.513</v>
       </c>
       <c r="N62" t="n">
         <v>0.031</v>
@@ -6545,19 +6536,19 @@
         <v>538347</v>
       </c>
       <c r="I63" t="n">
-        <v>181.803</v>
+        <v>181.051</v>
       </c>
       <c r="J63" t="n">
         <v>1723</v>
       </c>
       <c r="K63" t="n">
-        <v>0.582</v>
+        <v>0.579</v>
       </c>
       <c r="L63" t="n">
         <v>1753</v>
       </c>
       <c r="M63" t="n">
-        <v>0.592</v>
+        <v>0.59</v>
       </c>
       <c r="N63" t="n">
         <v>0.363</v>
@@ -6602,19 +6593,19 @@
         <v>20265016</v>
       </c>
       <c r="I64" t="n">
-        <v>160.228</v>
+        <v>160.769</v>
       </c>
       <c r="J64" t="n">
         <v>145404</v>
       </c>
       <c r="K64" t="n">
-        <v>1.15</v>
+        <v>1.154</v>
       </c>
       <c r="L64" t="n">
         <v>111820</v>
       </c>
       <c r="M64" t="n">
-        <v>0.884</v>
+        <v>0.887</v>
       </c>
       <c r="N64" t="n">
         <v>0.206</v>
@@ -6659,19 +6650,19 @@
         <v>9123785</v>
       </c>
       <c r="I65" t="n">
-        <v>894.213</v>
+        <v>888.477</v>
       </c>
       <c r="J65" t="n">
         <v>31726</v>
       </c>
       <c r="K65" t="n">
-        <v>3.109</v>
+        <v>3.089</v>
       </c>
       <c r="L65" t="n">
         <v>28477</v>
       </c>
       <c r="M65" t="n">
-        <v>2.791</v>
+        <v>2.773</v>
       </c>
       <c r="N65" t="n">
         <v>0.029</v>
@@ -6716,19 +6707,19 @@
         <v>11965068</v>
       </c>
       <c r="I66" t="n">
-        <v>637.229</v>
+        <v>629.908</v>
       </c>
       <c r="J66" t="n">
         <v>52729</v>
       </c>
       <c r="K66" t="n">
-        <v>2.808</v>
+        <v>2.776</v>
       </c>
       <c r="L66" t="n">
         <v>39955</v>
       </c>
       <c r="M66" t="n">
-        <v>2.128</v>
+        <v>2.103</v>
       </c>
       <c r="N66" t="n">
         <v>0.03</v>
@@ -6773,7 +6764,7 @@
         <v>1675310</v>
       </c>
       <c r="I67" t="n">
-        <v>31.156</v>
+        <v>30.468</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
@@ -6781,7 +6772,7 @@
         <v>4046</v>
       </c>
       <c r="M67" t="n">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
       <c r="N67" t="n">
         <v>0.12</v>
@@ -6883,19 +6874,19 @@
         <v>3724132</v>
       </c>
       <c r="I69" t="n">
-        <v>872.047</v>
+        <v>860.364</v>
       </c>
       <c r="J69" t="n">
         <v>13264</v>
       </c>
       <c r="K69" t="n">
-        <v>3.106</v>
+        <v>3.064</v>
       </c>
       <c r="L69" t="n">
         <v>11576</v>
       </c>
       <c r="M69" t="n">
-        <v>2.711</v>
+        <v>2.674</v>
       </c>
       <c r="N69" t="n">
         <v>0.017</v>
@@ -6940,13 +6931,13 @@
         <v>413500</v>
       </c>
       <c r="I70" t="n">
-        <v>56.834</v>
+        <v>56.035</v>
       </c>
       <c r="J70" t="n">
         <v>8710</v>
       </c>
       <c r="K70" t="n">
-        <v>1.197</v>
+        <v>1.18</v>
       </c>
       <c r="L70"/>
       <c r="M70"/>
@@ -6973,7 +6964,7 @@
         <v>425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44430</v>
+        <v>44435</v>
       </c>
       <c r="D71" t="s">
         <v>426</v>
@@ -6985,32 +6976,28 @@
         <v>428</v>
       </c>
       <c r="G71" t="n">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="H71" t="n">
-        <v>3256328</v>
+        <v>3339462</v>
       </c>
       <c r="I71" t="n">
-        <v>1726.394</v>
+        <v>1788.741</v>
       </c>
       <c r="J71" t="n">
-        <v>7712</v>
+        <v>33416</v>
       </c>
       <c r="K71" t="n">
-        <v>4.089</v>
+        <v>17.899</v>
       </c>
       <c r="L71" t="n">
-        <v>8389</v>
+        <v>14518</v>
       </c>
       <c r="M71" t="n">
-        <v>4.448</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="O71" t="n">
-        <v>63.6</v>
-      </c>
+        <v>7.776</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71"/>
       <c r="P71" t="s">
         <v>427</v>
       </c>
@@ -7048,7 +7035,7 @@
         <v>4731376</v>
       </c>
       <c r="I72" t="n">
-        <v>693.197</v>
+        <v>698.962</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
@@ -7056,7 +7043,7 @@
         <v>14688</v>
       </c>
       <c r="M72" t="n">
-        <v>2.152</v>
+        <v>2.17</v>
       </c>
       <c r="N72"/>
       <c r="O72"/>
@@ -7099,7 +7086,7 @@
         <v>7548</v>
       </c>
       <c r="K73" t="n">
-        <v>1.098</v>
+        <v>1.085</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7126,7 +7113,7 @@
         <v>442</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="D74" t="s">
         <v>443</v>
@@ -7136,31 +7123,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H74" t="n">
-        <v>60670</v>
+        <v>60855</v>
       </c>
       <c r="I74" t="n">
-        <v>1590.844</v>
+        <v>1590.814</v>
       </c>
       <c r="J74" t="n">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="K74" t="n">
-        <v>3.12</v>
+        <v>4.836</v>
       </c>
       <c r="L74" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M74" t="n">
-        <v>3.75</v>
+        <v>3.764</v>
       </c>
       <c r="N74" t="n">
-        <v>0.061</v>
+        <v>0.056</v>
       </c>
       <c r="O74" t="n">
-        <v>16.4</v>
+        <v>17.9</v>
       </c>
       <c r="P74" t="s">
         <v>444</v>
@@ -7183,7 +7170,7 @@
         <v>448</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44424</v>
+        <v>44434</v>
       </c>
       <c r="D75" t="s">
         <v>449</v>
@@ -7193,31 +7180,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="H75" t="n">
-        <v>4414399</v>
+        <v>4557655</v>
       </c>
       <c r="I75" t="n">
-        <v>1621.575</v>
+        <v>1694.382</v>
       </c>
       <c r="J75" t="n">
-        <v>13674</v>
+        <v>14492</v>
       </c>
       <c r="K75" t="n">
-        <v>5.023</v>
+        <v>5.388</v>
       </c>
       <c r="L75" t="n">
-        <v>13788</v>
+        <v>13160</v>
       </c>
       <c r="M75" t="n">
-        <v>5.065</v>
+        <v>4.892</v>
       </c>
       <c r="N75" t="n">
-        <v>0.043</v>
+        <v>0.048</v>
       </c>
       <c r="O75" t="n">
-        <v>23.3</v>
+        <v>20.8</v>
       </c>
       <c r="P75" t="s">
         <v>450</v>
@@ -7256,19 +7243,19 @@
         <v>3398895</v>
       </c>
       <c r="I76" t="n">
-        <v>5429.753</v>
+        <v>5354.159</v>
       </c>
       <c r="J76" t="n">
         <v>3954</v>
       </c>
       <c r="K76" t="n">
-        <v>6.317</v>
+        <v>6.229</v>
       </c>
       <c r="L76" t="n">
         <v>3922</v>
       </c>
       <c r="M76" t="n">
-        <v>6.265</v>
+        <v>6.178</v>
       </c>
       <c r="N76" t="n">
         <v>0.017</v>
@@ -7313,7 +7300,7 @@
         <v>237617</v>
       </c>
       <c r="I77" t="n">
-        <v>8.581</v>
+        <v>8.359</v>
       </c>
       <c r="J77" t="n">
         <v>219</v>
@@ -7370,7 +7357,7 @@
         <v>309766</v>
       </c>
       <c r="I78" t="n">
-        <v>16.193</v>
+        <v>15.766</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -7378,7 +7365,7 @@
         <v>2247</v>
       </c>
       <c r="M78" t="n">
-        <v>0.117</v>
+        <v>0.114</v>
       </c>
       <c r="N78" t="n">
         <v>0.319</v>
@@ -7407,7 +7394,7 @@
         <v>470</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="D79" t="s">
         <v>471</v>
@@ -7419,31 +7406,31 @@
         <v>473</v>
       </c>
       <c r="G79" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H79" t="n">
-        <v>25291332</v>
+        <v>25530515</v>
       </c>
       <c r="I79" t="n">
-        <v>781.417</v>
+        <v>778.935</v>
       </c>
       <c r="J79" t="n">
-        <v>172457</v>
+        <v>161322</v>
       </c>
       <c r="K79" t="n">
-        <v>5.328</v>
+        <v>4.922</v>
       </c>
       <c r="L79" t="n">
-        <v>152513</v>
+        <v>156118</v>
       </c>
       <c r="M79" t="n">
-        <v>4.712</v>
+        <v>4.763</v>
       </c>
       <c r="N79" t="n">
-        <v>0.14</v>
+        <v>0.137</v>
       </c>
       <c r="O79" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="P79" t="s">
         <v>36</v>
@@ -7482,19 +7469,19 @@
         <v>1350321</v>
       </c>
       <c r="I80" t="n">
-        <v>2498.087</v>
+        <v>2483.943</v>
       </c>
       <c r="J80" t="n">
         <v>5681</v>
       </c>
       <c r="K80" t="n">
-        <v>10.51</v>
+        <v>10.45</v>
       </c>
       <c r="L80" t="n">
         <v>5743</v>
       </c>
       <c r="M80" t="n">
-        <v>10.625</v>
+        <v>10.564</v>
       </c>
       <c r="N80" t="n">
         <v>0.019</v>
@@ -7596,7 +7583,7 @@
         <v>254282</v>
       </c>
       <c r="I82" t="n">
-        <v>54.688</v>
+        <v>53.252</v>
       </c>
       <c r="J82"/>
       <c r="K82"/>
@@ -7604,7 +7591,7 @@
         <v>1204</v>
       </c>
       <c r="M82" t="n">
-        <v>0.259</v>
+        <v>0.252</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
@@ -7645,19 +7632,19 @@
         <v>9106750</v>
       </c>
       <c r="I83" t="n">
-        <v>70.632</v>
+        <v>69.911</v>
       </c>
       <c r="J83" t="n">
         <v>15740</v>
       </c>
       <c r="K83" t="n">
-        <v>0.122</v>
+        <v>0.121</v>
       </c>
       <c r="L83" t="n">
         <v>27043</v>
       </c>
       <c r="M83" t="n">
-        <v>0.21</v>
+        <v>0.208</v>
       </c>
       <c r="N83" t="n">
         <v>0.404</v>
@@ -7702,7 +7689,7 @@
         <v>1551934</v>
       </c>
       <c r="I84" t="n">
-        <v>384.717</v>
+        <v>385.667</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
@@ -7710,7 +7697,7 @@
         <v>6607</v>
       </c>
       <c r="M84" t="n">
-        <v>1.638</v>
+        <v>1.642</v>
       </c>
       <c r="N84" t="n">
         <v>0.061</v>
@@ -7739,7 +7726,7 @@
         <v>506</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44388</v>
+        <v>44435</v>
       </c>
       <c r="D85" t="s">
         <v>507</v>
@@ -7749,60 +7736,48 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H85" t="n">
-        <v>3364669</v>
+        <v>3690466</v>
       </c>
       <c r="I85" t="n">
-        <v>1026.348</v>
-      </c>
-      <c r="J85" t="n">
-        <v>10469</v>
-      </c>
-      <c r="K85" t="n">
-        <v>3.193</v>
-      </c>
-      <c r="L85" t="n">
-        <v>10049</v>
-      </c>
-      <c r="M85" t="n">
-        <v>3.065</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.156</v>
-      </c>
-      <c r="O85" t="n">
-        <v>6.4</v>
-      </c>
+        <v>1108.487</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
       <c r="P85" t="s">
         <v>36</v>
       </c>
       <c r="Q85" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R85" t="s">
         <v>108</v>
       </c>
       <c r="S85" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>509</v>
+      </c>
+      <c r="B86" t="s">
         <v>510</v>
-      </c>
-      <c r="B86" t="s">
-        <v>511</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D86" t="s">
+        <v>511</v>
+      </c>
+      <c r="E86" t="s">
         <v>512</v>
-      </c>
-      <c r="E86" t="s">
-        <v>513</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
@@ -7812,19 +7787,19 @@
         <v>7964719</v>
       </c>
       <c r="I86" t="n">
-        <v>215.784</v>
+        <v>213.275</v>
       </c>
       <c r="J86" t="n">
         <v>37875</v>
       </c>
       <c r="K86" t="n">
-        <v>1.026</v>
+        <v>1.014</v>
       </c>
       <c r="L86" t="n">
         <v>32735</v>
       </c>
       <c r="M86" t="n">
-        <v>0.887</v>
+        <v>0.877</v>
       </c>
       <c r="N86" t="n">
         <v>0.196</v>
@@ -7833,33 +7808,33 @@
         <v>5.1</v>
       </c>
       <c r="P86" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q86" t="s">
         <v>513</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>514</v>
       </c>
       <c r="R86" t="s">
         <v>31</v>
       </c>
       <c r="S86" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>515</v>
+      </c>
+      <c r="B87" t="s">
         <v>516</v>
-      </c>
-      <c r="B87" t="s">
-        <v>517</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D87" t="s">
+        <v>517</v>
+      </c>
+      <c r="E87" t="s">
         <v>518</v>
-      </c>
-      <c r="E87" t="s">
-        <v>519</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
@@ -7869,19 +7844,19 @@
         <v>815154</v>
       </c>
       <c r="I87" t="n">
-        <v>26.08</v>
+        <v>25.344</v>
       </c>
       <c r="J87" t="n">
         <v>4022</v>
       </c>
       <c r="K87" t="n">
-        <v>0.129</v>
+        <v>0.125</v>
       </c>
       <c r="L87" t="n">
         <v>3626</v>
       </c>
       <c r="M87" t="n">
-        <v>0.116</v>
+        <v>0.113</v>
       </c>
       <c r="N87" t="n">
         <v>0.206</v>
@@ -7890,33 +7865,33 @@
         <v>4.8</v>
       </c>
       <c r="P87" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q87" t="s">
         <v>519</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>520</v>
       </c>
       <c r="R87" t="s">
         <v>72</v>
       </c>
       <c r="S87" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>521</v>
+      </c>
+      <c r="B88" t="s">
         <v>522</v>
-      </c>
-      <c r="B88" t="s">
-        <v>523</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D88" t="s">
+        <v>523</v>
+      </c>
+      <c r="E88" t="s">
         <v>524</v>
-      </c>
-      <c r="E88" t="s">
-        <v>525</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
@@ -7926,19 +7901,19 @@
         <v>3471394</v>
       </c>
       <c r="I88" t="n">
-        <v>63.801</v>
+        <v>63.34</v>
       </c>
       <c r="J88" t="n">
         <v>12249</v>
       </c>
       <c r="K88" t="n">
-        <v>0.225</v>
+        <v>0.223</v>
       </c>
       <c r="L88" t="n">
         <v>10918</v>
       </c>
       <c r="M88" t="n">
-        <v>0.201</v>
+        <v>0.199</v>
       </c>
       <c r="N88" t="n">
         <v>0.232</v>
@@ -7947,33 +7922,33 @@
         <v>4.3</v>
       </c>
       <c r="P88" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q88" t="s">
         <v>525</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>526</v>
       </c>
       <c r="R88" t="s">
         <v>108</v>
       </c>
       <c r="S88" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>527</v>
+      </c>
+      <c r="B89" t="s">
         <v>528</v>
-      </c>
-      <c r="B89" t="s">
-        <v>529</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>44433</v>
       </c>
       <c r="D89" t="s">
+        <v>529</v>
+      </c>
+      <c r="E89" t="s">
         <v>530</v>
-      </c>
-      <c r="E89" t="s">
-        <v>531</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
@@ -7983,19 +7958,19 @@
         <v>652869</v>
       </c>
       <c r="I89" t="n">
-        <v>256.942</v>
+        <v>252.332</v>
       </c>
       <c r="J89" t="n">
         <v>1820</v>
       </c>
       <c r="K89" t="n">
-        <v>0.716</v>
+        <v>0.703</v>
       </c>
       <c r="L89" t="n">
         <v>1585</v>
       </c>
       <c r="M89" t="n">
-        <v>0.624</v>
+        <v>0.613</v>
       </c>
       <c r="N89" t="n">
         <v>0.108</v>
@@ -8004,33 +7979,33 @@
         <v>9.3</v>
       </c>
       <c r="P89" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q89" t="s">
         <v>532</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>533</v>
       </c>
       <c r="R89" t="s">
         <v>108</v>
       </c>
       <c r="S89" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>534</v>
+      </c>
+      <c r="B90" t="s">
         <v>535</v>
-      </c>
-      <c r="B90" t="s">
-        <v>536</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D90" t="s">
+        <v>536</v>
+      </c>
+      <c r="E90" t="s">
         <v>537</v>
-      </c>
-      <c r="E90" t="s">
-        <v>538</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
@@ -8040,19 +8015,19 @@
         <v>3868717</v>
       </c>
       <c r="I90" t="n">
-        <v>132.778</v>
+        <v>130.37</v>
       </c>
       <c r="J90" t="n">
         <v>9702</v>
       </c>
       <c r="K90" t="n">
-        <v>0.333</v>
+        <v>0.327</v>
       </c>
       <c r="L90" t="n">
         <v>9386</v>
       </c>
       <c r="M90" t="n">
-        <v>0.322</v>
+        <v>0.316</v>
       </c>
       <c r="N90" t="n">
         <v>0.193</v>
@@ -8061,33 +8036,33 @@
         <v>5.2</v>
       </c>
       <c r="P90" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q90" t="s">
         <v>538</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>539</v>
       </c>
       <c r="R90" t="s">
         <v>44</v>
       </c>
       <c r="S90" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>540</v>
+      </c>
+      <c r="B91" t="s">
         <v>541</v>
-      </c>
-      <c r="B91" t="s">
-        <v>542</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D91" t="s">
+        <v>542</v>
+      </c>
+      <c r="E91" t="s">
         <v>543</v>
-      </c>
-      <c r="E91" t="s">
-        <v>544</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
@@ -8097,7 +8072,7 @@
         <v>12493403</v>
       </c>
       <c r="I91" t="n">
-        <v>729.121</v>
+        <v>727.499</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -8105,7 +8080,7 @@
         <v>17158</v>
       </c>
       <c r="M91" t="n">
-        <v>1.001</v>
+        <v>0.999</v>
       </c>
       <c r="N91" t="n">
         <v>0.08</v>
@@ -8114,30 +8089,30 @@
         <v>12.5</v>
       </c>
       <c r="P91" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q91" t="s">
         <v>545</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>546</v>
       </c>
       <c r="R91" t="s">
         <v>31</v>
       </c>
       <c r="S91" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>547</v>
+      </c>
+      <c r="B92" t="s">
         <v>548</v>
-      </c>
-      <c r="B92" t="s">
-        <v>549</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>44435</v>
       </c>
       <c r="D92" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
@@ -8150,50 +8125,50 @@
         <v>2891738</v>
       </c>
       <c r="I92" t="n">
-        <v>599.668</v>
+        <v>594.929</v>
       </c>
       <c r="J92" t="n">
         <v>37021</v>
       </c>
       <c r="K92" t="n">
-        <v>7.677</v>
+        <v>7.616</v>
       </c>
       <c r="L92" t="n">
         <v>39929</v>
       </c>
       <c r="M92" t="n">
-        <v>8.28</v>
+        <v>8.215</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q92" t="s">
         <v>551</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>552</v>
       </c>
       <c r="R92" t="s">
         <v>44</v>
       </c>
       <c r="S92" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>553</v>
+      </c>
+      <c r="B93" t="s">
         <v>554</v>
-      </c>
-      <c r="B93" t="s">
-        <v>555</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D93" t="s">
+        <v>555</v>
+      </c>
+      <c r="E93" t="s">
         <v>556</v>
-      </c>
-      <c r="E93" t="s">
-        <v>557</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
@@ -8203,7 +8178,7 @@
         <v>2727834</v>
       </c>
       <c r="I93" t="n">
-        <v>13.233</v>
+        <v>12.904</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
@@ -8211,7 +8186,7 @@
         <v>12371</v>
       </c>
       <c r="M93" t="n">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="N93" t="n">
         <v>0.052</v>
@@ -8220,30 +8195,30 @@
         <v>19.2</v>
       </c>
       <c r="P93" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Q93" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="R93" t="s">
         <v>108</v>
       </c>
       <c r="S93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>558</v>
+      </c>
+      <c r="B94" t="s">
         <v>559</v>
-      </c>
-      <c r="B94" t="s">
-        <v>560</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D94" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E94" t="s">
         <v>36</v>
@@ -8256,7 +8231,7 @@
         <v>1124382</v>
       </c>
       <c r="I94" t="n">
-        <v>539.691</v>
+        <v>539.878</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
@@ -8264,7 +8239,7 @@
         <v>8062</v>
       </c>
       <c r="M94" t="n">
-        <v>3.87</v>
+        <v>3.871</v>
       </c>
       <c r="N94" t="n">
         <v>0.124</v>
@@ -8276,87 +8251,87 @@
         <v>36</v>
       </c>
       <c r="Q94" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="R94" t="s">
         <v>44</v>
       </c>
       <c r="S94" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>563</v>
+      </c>
+      <c r="B95" t="s">
         <v>564</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" s="1" t="n">
+        <v>44433</v>
+      </c>
+      <c r="D95" t="s">
         <v>565</v>
       </c>
-      <c r="C95" s="1" t="n">
-        <v>44432</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>566</v>
-      </c>
-      <c r="E95" t="s">
-        <v>567</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H95" t="n">
-        <v>6967268</v>
+        <v>6998134</v>
       </c>
       <c r="I95" t="n">
-        <v>1285.179</v>
+        <v>1280.39</v>
       </c>
       <c r="J95" t="n">
-        <v>28861</v>
+        <v>29702</v>
       </c>
       <c r="K95" t="n">
-        <v>5.324</v>
+        <v>5.434</v>
       </c>
       <c r="L95" t="n">
-        <v>20754</v>
+        <v>22296</v>
       </c>
       <c r="M95" t="n">
-        <v>3.828</v>
+        <v>4.079</v>
       </c>
       <c r="N95" t="n">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
       <c r="O95" t="n">
-        <v>28.7</v>
+        <v>27.2</v>
       </c>
       <c r="P95" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Q95" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R95" t="s">
         <v>31</v>
       </c>
       <c r="S95" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>568</v>
+      </c>
+      <c r="B96" t="s">
         <v>569</v>
-      </c>
-      <c r="B96" t="s">
-        <v>570</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="D96" t="s">
+        <v>570</v>
+      </c>
+      <c r="E96" t="s">
         <v>571</v>
-      </c>
-      <c r="E96" t="s">
-        <v>572</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
@@ -8368,40 +8343,40 @@
         <v>2682</v>
       </c>
       <c r="K96" t="n">
-        <v>0.525</v>
+        <v>0.513</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q96" t="s">
         <v>572</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>573</v>
       </c>
       <c r="R96" t="s">
         <v>72</v>
       </c>
       <c r="S96" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>574</v>
+      </c>
+      <c r="B97" t="s">
         <v>575</v>
-      </c>
-      <c r="B97" t="s">
-        <v>576</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>44435</v>
       </c>
       <c r="D97" t="s">
+        <v>576</v>
+      </c>
+      <c r="E97" t="s">
         <v>577</v>
-      </c>
-      <c r="E97" t="s">
-        <v>578</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
@@ -8411,47 +8386,47 @@
         <v>17520285</v>
       </c>
       <c r="I97" t="n">
-        <v>79.316</v>
+        <v>77.799</v>
       </c>
       <c r="J97" t="n">
         <v>61036</v>
       </c>
       <c r="K97" t="n">
-        <v>0.276</v>
+        <v>0.271</v>
       </c>
       <c r="L97" t="n">
         <v>57859</v>
       </c>
       <c r="M97" t="n">
-        <v>0.262</v>
+        <v>0.257</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q97" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="R97" t="s">
         <v>44</v>
       </c>
       <c r="S97" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>579</v>
+      </c>
+      <c r="B98" t="s">
         <v>580</v>
-      </c>
-      <c r="B98" t="s">
-        <v>581</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D98" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E98"/>
       <c r="F98"/>
@@ -8464,13 +8439,13 @@
         <v>9709</v>
       </c>
       <c r="K98" t="n">
-        <v>1.903</v>
+        <v>1.859</v>
       </c>
       <c r="L98" t="n">
         <v>7468</v>
       </c>
       <c r="M98" t="n">
-        <v>1.464</v>
+        <v>1.43</v>
       </c>
       <c r="N98" t="n">
         <v>0.173</v>
@@ -8479,33 +8454,33 @@
         <v>5.8</v>
       </c>
       <c r="P98" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q98" t="s">
         <v>583</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>584</v>
       </c>
       <c r="R98" t="s">
         <v>44</v>
       </c>
       <c r="S98" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>585</v>
+      </c>
+      <c r="B99" t="s">
         <v>586</v>
-      </c>
-      <c r="B99" t="s">
-        <v>587</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D99" t="s">
+        <v>587</v>
+      </c>
+      <c r="E99" t="s">
         <v>588</v>
-      </c>
-      <c r="E99" t="s">
-        <v>589</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
@@ -8515,43 +8490,43 @@
         <v>3620041</v>
       </c>
       <c r="I99" t="n">
-        <v>838.989</v>
+        <v>826.195</v>
       </c>
       <c r="J99" t="n">
         <v>10247</v>
       </c>
       <c r="K99" t="n">
-        <v>2.375</v>
+        <v>2.339</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q99" t="s">
         <v>589</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>590</v>
       </c>
       <c r="R99" t="s">
         <v>44</v>
       </c>
       <c r="S99" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>591</v>
+      </c>
+      <c r="B100" t="s">
         <v>592</v>
-      </c>
-      <c r="B100" t="s">
-        <v>593</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>44304</v>
       </c>
       <c r="D100" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E100" t="s">
         <v>315</v>
@@ -8564,7 +8539,7 @@
         <v>82516</v>
       </c>
       <c r="I100" t="n">
-        <v>9.223</v>
+        <v>9.049</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
@@ -8572,7 +8547,7 @@
         <v>943</v>
       </c>
       <c r="M100" t="n">
-        <v>0.105</v>
+        <v>0.103</v>
       </c>
       <c r="N100" t="n">
         <v>0.196</v>
@@ -8584,30 +8559,30 @@
         <v>315</v>
       </c>
       <c r="Q100" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R100" t="s">
         <v>24</v>
       </c>
       <c r="S100" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>596</v>
+      </c>
+      <c r="B101" t="s">
         <v>597</v>
-      </c>
-      <c r="B101" t="s">
-        <v>598</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D101" t="s">
+        <v>598</v>
+      </c>
+      <c r="E101" t="s">
         <v>599</v>
-      </c>
-      <c r="E101" t="s">
-        <v>600</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
@@ -8617,19 +8592,19 @@
         <v>1761311</v>
       </c>
       <c r="I101" t="n">
-        <v>246.941</v>
+        <v>243.961</v>
       </c>
       <c r="J101" t="n">
         <v>3096</v>
       </c>
       <c r="K101" t="n">
-        <v>0.434</v>
+        <v>0.429</v>
       </c>
       <c r="L101" t="n">
         <v>3113</v>
       </c>
       <c r="M101" t="n">
-        <v>0.436</v>
+        <v>0.431</v>
       </c>
       <c r="N101" t="n">
         <v>0.039</v>
@@ -8638,30 +8613,30 @@
         <v>25.4</v>
       </c>
       <c r="P101" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q101" t="s">
         <v>600</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>601</v>
       </c>
       <c r="R101" t="s">
         <v>44</v>
       </c>
       <c r="S101" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>602</v>
+      </c>
+      <c r="B102" t="s">
         <v>603</v>
-      </c>
-      <c r="B102" t="s">
-        <v>604</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>44426</v>
       </c>
       <c r="D102" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E102" t="s">
         <v>168</v>
@@ -8674,19 +8649,19 @@
         <v>5037992</v>
       </c>
       <c r="I102" t="n">
-        <v>152.797</v>
+        <v>151.022</v>
       </c>
       <c r="J102" t="n">
         <v>4658</v>
       </c>
       <c r="K102" t="n">
-        <v>0.141</v>
+        <v>0.14</v>
       </c>
       <c r="L102" t="n">
         <v>9406</v>
       </c>
       <c r="M102" t="n">
-        <v>0.285</v>
+        <v>0.282</v>
       </c>
       <c r="N102" t="n">
         <v>0.048</v>
@@ -8698,30 +8673,30 @@
         <v>168</v>
       </c>
       <c r="Q102" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="R102" t="s">
         <v>44</v>
       </c>
       <c r="S102" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>607</v>
+      </c>
+      <c r="B103" t="s">
         <v>608</v>
-      </c>
-      <c r="B103" t="s">
-        <v>609</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>44433</v>
       </c>
       <c r="D103" t="s">
+        <v>609</v>
+      </c>
+      <c r="E103" t="s">
         <v>610</v>
-      </c>
-      <c r="E103" t="s">
-        <v>611</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
@@ -8731,19 +8706,19 @@
         <v>17279168</v>
       </c>
       <c r="I103" t="n">
-        <v>157.684</v>
+        <v>155.602</v>
       </c>
       <c r="J103" t="n">
         <v>67378</v>
       </c>
       <c r="K103" t="n">
-        <v>0.615</v>
+        <v>0.607</v>
       </c>
       <c r="L103" t="n">
         <v>62781</v>
       </c>
       <c r="M103" t="n">
-        <v>0.573</v>
+        <v>0.565</v>
       </c>
       <c r="N103" t="n">
         <v>0.243</v>
@@ -8755,30 +8730,30 @@
         <v>315</v>
       </c>
       <c r="Q103" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="R103" t="s">
         <v>31</v>
       </c>
       <c r="S103" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>613</v>
+      </c>
+      <c r="B104" t="s">
         <v>614</v>
-      </c>
-      <c r="B104" t="s">
-        <v>615</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D104" t="s">
+        <v>615</v>
+      </c>
+      <c r="E104" t="s">
         <v>616</v>
-      </c>
-      <c r="E104" t="s">
-        <v>617</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
@@ -8788,19 +8763,19 @@
         <v>19193365</v>
       </c>
       <c r="I104" t="n">
-        <v>507.136</v>
+        <v>507.801</v>
       </c>
       <c r="J104" t="n">
         <v>37477</v>
       </c>
       <c r="K104" t="n">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
       <c r="L104" t="n">
         <v>37199</v>
       </c>
       <c r="M104" t="n">
-        <v>0.983</v>
+        <v>0.984</v>
       </c>
       <c r="N104" t="n">
         <v>0.005</v>
@@ -8809,33 +8784,33 @@
         <v>185.2</v>
       </c>
       <c r="P104" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q104" t="s">
         <v>617</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>618</v>
       </c>
       <c r="R104" t="s">
         <v>31</v>
       </c>
       <c r="S104" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B105" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>44433</v>
       </c>
       <c r="D105" t="s">
+        <v>615</v>
+      </c>
+      <c r="E105" t="s">
         <v>616</v>
-      </c>
-      <c r="E105" t="s">
-        <v>617</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
@@ -8845,19 +8820,19 @@
         <v>19599018</v>
       </c>
       <c r="I105" t="n">
-        <v>517.854</v>
+        <v>518.534</v>
       </c>
       <c r="J105" t="n">
         <v>37768</v>
       </c>
       <c r="K105" t="n">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="L105" t="n">
         <v>37552</v>
       </c>
       <c r="M105" t="n">
-        <v>0.992</v>
+        <v>0.994</v>
       </c>
       <c r="N105" t="n">
         <v>0.005</v>
@@ -8866,30 +8841,30 @@
         <v>189.5</v>
       </c>
       <c r="P105" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q105" t="s">
         <v>617</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>618</v>
       </c>
       <c r="R105" t="s">
         <v>108</v>
       </c>
       <c r="S105" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>620</v>
+      </c>
+      <c r="B106" t="s">
         <v>621</v>
-      </c>
-      <c r="B106" t="s">
-        <v>622</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>44433</v>
       </c>
       <c r="D106" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E106" t="s">
         <v>36</v>
@@ -8902,19 +8877,19 @@
         <v>16743692</v>
       </c>
       <c r="I106" t="n">
-        <v>1642.069</v>
+        <v>1646.717</v>
       </c>
       <c r="J106" t="n">
         <v>50690</v>
       </c>
       <c r="K106" t="n">
-        <v>4.971</v>
+        <v>4.985</v>
       </c>
       <c r="L106" t="n">
         <v>52083</v>
       </c>
       <c r="M106" t="n">
-        <v>5.108</v>
+        <v>5.122</v>
       </c>
       <c r="N106" t="n">
         <v>0.045</v>
@@ -8923,33 +8898,33 @@
         <v>22.4</v>
       </c>
       <c r="P106" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q106" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="R106" t="s">
         <v>44</v>
       </c>
       <c r="S106" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>625</v>
+      </c>
+      <c r="B107" t="s">
         <v>626</v>
-      </c>
-      <c r="B107" t="s">
-        <v>627</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D107" t="s">
+        <v>627</v>
+      </c>
+      <c r="E107" t="s">
         <v>628</v>
-      </c>
-      <c r="E107" t="s">
-        <v>629</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
@@ -8959,19 +8934,19 @@
         <v>2475733</v>
       </c>
       <c r="I107" t="n">
-        <v>859.313</v>
+        <v>844.809</v>
       </c>
       <c r="J107" t="n">
         <v>5762</v>
       </c>
       <c r="K107" t="n">
-        <v>2</v>
+        <v>1.966</v>
       </c>
       <c r="L107" t="n">
         <v>5349</v>
       </c>
       <c r="M107" t="n">
-        <v>1.857</v>
+        <v>1.825</v>
       </c>
       <c r="N107" t="n">
         <v>0.042</v>
@@ -8980,33 +8955,33 @@
         <v>23.8</v>
       </c>
       <c r="P107" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q107" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R107" t="s">
         <v>31</v>
       </c>
       <c r="S107" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>631</v>
+      </c>
+      <c r="B108" t="s">
         <v>632</v>
-      </c>
-      <c r="B108" t="s">
-        <v>633</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>44435</v>
       </c>
       <c r="D108" t="s">
+        <v>633</v>
+      </c>
+      <c r="E108" t="s">
         <v>634</v>
-      </c>
-      <c r="E108" t="s">
-        <v>635</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
@@ -9016,7 +8991,7 @@
         <v>9041399</v>
       </c>
       <c r="I108" t="n">
-        <v>469.984</v>
+        <v>472.684</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
@@ -9024,38 +8999,38 @@
         <v>13148</v>
       </c>
       <c r="M108" t="n">
-        <v>0.683</v>
+        <v>0.687</v>
       </c>
       <c r="N108"/>
       <c r="O108"/>
       <c r="P108" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q108" t="s">
         <v>636</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>637</v>
       </c>
       <c r="R108" t="s">
         <v>44</v>
       </c>
       <c r="S108" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>638</v>
+      </c>
+      <c r="B109" t="s">
         <v>639</v>
-      </c>
-      <c r="B109" t="s">
-        <v>640</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D109" t="s">
+        <v>640</v>
+      </c>
+      <c r="E109" t="s">
         <v>641</v>
-      </c>
-      <c r="E109" t="s">
-        <v>642</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
@@ -9065,7 +9040,7 @@
         <v>177197247</v>
       </c>
       <c r="I109" t="n">
-        <v>1214.225</v>
+        <v>1214.412</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
@@ -9082,33 +9057,33 @@
         <v>22.2</v>
       </c>
       <c r="P109" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q109" t="s">
         <v>642</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>643</v>
       </c>
       <c r="R109" t="s">
         <v>44</v>
       </c>
       <c r="S109" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>644</v>
+      </c>
+      <c r="B110" t="s">
         <v>645</v>
-      </c>
-      <c r="B110" t="s">
-        <v>646</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>44435</v>
       </c>
       <c r="D110" t="s">
+        <v>646</v>
+      </c>
+      <c r="E110" t="s">
         <v>647</v>
-      </c>
-      <c r="E110" t="s">
-        <v>648</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
@@ -9118,7 +9093,7 @@
         <v>2358929</v>
       </c>
       <c r="I110" t="n">
-        <v>182.126</v>
+        <v>177.677</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
@@ -9126,35 +9101,35 @@
         <v>12365</v>
       </c>
       <c r="M110" t="n">
-        <v>0.955</v>
+        <v>0.931</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
       <c r="P110" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q110" t="s">
         <v>648</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>649</v>
       </c>
       <c r="R110" t="s">
         <v>108</v>
       </c>
       <c r="S110" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>650</v>
+      </c>
+      <c r="B111" t="s">
         <v>651</v>
-      </c>
-      <c r="B111" t="s">
-        <v>652</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>44435</v>
       </c>
       <c r="D111" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E111" t="s">
         <v>36</v>
@@ -9167,7 +9142,7 @@
         <v>30204</v>
       </c>
       <c r="I111" t="n">
-        <v>567.83</v>
+        <v>564.076</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
@@ -9175,7 +9150,7 @@
         <v>271</v>
       </c>
       <c r="M111" t="n">
-        <v>5.095</v>
+        <v>5.061</v>
       </c>
       <c r="N111"/>
       <c r="O111"/>
@@ -9183,27 +9158,27 @@
         <v>36</v>
       </c>
       <c r="Q111" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="R111" t="s">
         <v>422</v>
       </c>
       <c r="S111" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>655</v>
+      </c>
+      <c r="B112" t="s">
         <v>656</v>
-      </c>
-      <c r="B112" t="s">
-        <v>657</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>44433</v>
       </c>
       <c r="D112" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E112" t="s">
         <v>36</v>
@@ -9216,19 +9191,19 @@
         <v>27163038</v>
       </c>
       <c r="I112" t="n">
-        <v>780.236</v>
+        <v>768.605</v>
       </c>
       <c r="J112" t="n">
         <v>65815</v>
       </c>
       <c r="K112" t="n">
-        <v>1.89</v>
+        <v>1.862</v>
       </c>
       <c r="L112" t="n">
         <v>64914</v>
       </c>
       <c r="M112" t="n">
-        <v>1.865</v>
+        <v>1.837</v>
       </c>
       <c r="N112" t="n">
         <v>0.006</v>
@@ -9240,30 +9215,30 @@
         <v>36</v>
       </c>
       <c r="Q112" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R112" t="s">
         <v>44</v>
       </c>
       <c r="S112" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>659</v>
+      </c>
+      <c r="B113" t="s">
         <v>660</v>
-      </c>
-      <c r="B113" t="s">
-        <v>661</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D113" t="s">
+        <v>661</v>
+      </c>
+      <c r="E113" t="s">
         <v>662</v>
-      </c>
-      <c r="E113" t="s">
-        <v>663</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
@@ -9273,19 +9248,19 @@
         <v>739290</v>
       </c>
       <c r="I113" t="n">
-        <v>44.153</v>
+        <v>42.991</v>
       </c>
       <c r="J113" t="n">
         <v>2241</v>
       </c>
       <c r="K113" t="n">
-        <v>0.134</v>
+        <v>0.13</v>
       </c>
       <c r="L113" t="n">
         <v>2689</v>
       </c>
       <c r="M113" t="n">
-        <v>0.161</v>
+        <v>0.156</v>
       </c>
       <c r="N113" t="n">
         <v>0.046</v>
@@ -9294,36 +9269,36 @@
         <v>21.5</v>
       </c>
       <c r="P113" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Q113" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="R113" t="s">
         <v>44</v>
       </c>
       <c r="S113" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>664</v>
+      </c>
+      <c r="B114" t="s">
         <v>665</v>
-      </c>
-      <c r="B114" t="s">
-        <v>666</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D114" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E114" t="s">
         <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G114" t="n">
         <v>547</v>
@@ -9356,80 +9331,80 @@
         <v>36</v>
       </c>
       <c r="Q114" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="R114" t="s">
         <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>670</v>
+      </c>
+      <c r="B115" t="s">
         <v>671</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" s="1" t="n">
+        <v>44431</v>
+      </c>
+      <c r="D115" t="s">
         <v>672</v>
-      </c>
-      <c r="C115" s="1" t="n">
-        <v>44424</v>
-      </c>
-      <c r="D115" t="s">
-        <v>673</v>
       </c>
       <c r="E115" t="s">
         <v>36</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H115" t="n">
-        <v>16926698</v>
+        <v>17338504</v>
       </c>
       <c r="I115" t="n">
-        <v>2893.283</v>
+        <v>2940.382</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115" t="n">
-        <v>44556</v>
+        <v>58829</v>
       </c>
       <c r="M115" t="n">
-        <v>7.616</v>
+        <v>9.977</v>
       </c>
       <c r="N115" t="n">
         <v>0.001</v>
       </c>
       <c r="O115" t="n">
-        <v>801.8</v>
+        <v>1173.2</v>
       </c>
       <c r="P115" t="s">
         <v>36</v>
       </c>
       <c r="Q115" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="R115" t="s">
         <v>108</v>
       </c>
       <c r="S115" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>675</v>
+      </c>
+      <c r="B116" t="s">
         <v>676</v>
-      </c>
-      <c r="B116" t="s">
-        <v>677</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>44433</v>
       </c>
       <c r="D116" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E116" t="s">
         <v>36</v>
@@ -9442,7 +9417,7 @@
         <v>41027308</v>
       </c>
       <c r="I116" t="n">
-        <v>7514.65</v>
+        <v>7513.16</v>
       </c>
       <c r="J116" t="n">
         <v>13426</v>
@@ -9454,7 +9429,7 @@
         <v>16340</v>
       </c>
       <c r="M116" t="n">
-        <v>2.993</v>
+        <v>2.992</v>
       </c>
       <c r="N116" t="n">
         <v>0.008</v>
@@ -9466,30 +9441,30 @@
         <v>36</v>
       </c>
       <c r="Q116" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="R116" t="s">
         <v>44</v>
       </c>
       <c r="S116" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>679</v>
+      </c>
+      <c r="B117" t="s">
         <v>680</v>
-      </c>
-      <c r="B117" t="s">
-        <v>681</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D117" t="s">
+        <v>681</v>
+      </c>
+      <c r="E117" t="s">
         <v>682</v>
-      </c>
-      <c r="E117" t="s">
-        <v>683</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
@@ -9499,13 +9474,13 @@
         <v>1438812</v>
       </c>
       <c r="I117" t="n">
-        <v>692.092</v>
+        <v>692.161</v>
       </c>
       <c r="J117" t="n">
         <v>2953</v>
       </c>
       <c r="K117" t="n">
-        <v>1.42</v>
+        <v>1.421</v>
       </c>
       <c r="L117" t="n">
         <v>2208</v>
@@ -9520,33 +9495,33 @@
         <v>5.6</v>
       </c>
       <c r="P117" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q117" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R117" t="s">
         <v>44</v>
       </c>
       <c r="S117" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>684</v>
+      </c>
+      <c r="B118" t="s">
         <v>685</v>
-      </c>
-      <c r="B118" t="s">
-        <v>686</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>44433</v>
       </c>
       <c r="D118" t="s">
+        <v>686</v>
+      </c>
+      <c r="E118" t="s">
         <v>687</v>
-      </c>
-      <c r="E118" t="s">
-        <v>688</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
@@ -9556,19 +9531,19 @@
         <v>16228941</v>
       </c>
       <c r="I118" t="n">
-        <v>273.635</v>
+        <v>270.293</v>
       </c>
       <c r="J118" t="n">
         <v>132360</v>
       </c>
       <c r="K118" t="n">
-        <v>2.232</v>
+        <v>2.204</v>
       </c>
       <c r="L118" t="n">
         <v>68058</v>
       </c>
       <c r="M118" t="n">
-        <v>1.148</v>
+        <v>1.134</v>
       </c>
       <c r="N118" t="n">
         <v>0.175</v>
@@ -9577,33 +9552,33 @@
         <v>5.7</v>
       </c>
       <c r="P118" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q118" t="s">
         <v>688</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>689</v>
       </c>
       <c r="R118" t="s">
         <v>31</v>
       </c>
       <c r="S118" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>690</v>
+      </c>
+      <c r="B119" t="s">
         <v>691</v>
-      </c>
-      <c r="B119" t="s">
-        <v>692</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>44435</v>
       </c>
       <c r="D119" t="s">
+        <v>692</v>
+      </c>
+      <c r="E119" t="s">
         <v>693</v>
-      </c>
-      <c r="E119" t="s">
-        <v>694</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
@@ -9613,13 +9588,13 @@
         <v>12209316</v>
       </c>
       <c r="I119" t="n">
-        <v>238.141</v>
+        <v>237.974</v>
       </c>
       <c r="J119" t="n">
         <v>53113</v>
       </c>
       <c r="K119" t="n">
-        <v>1.036</v>
+        <v>1.035</v>
       </c>
       <c r="L119" t="n">
         <v>43128</v>
@@ -9630,30 +9605,30 @@
       <c r="N119"/>
       <c r="O119"/>
       <c r="P119" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="Q119" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="R119" t="s">
         <v>31</v>
       </c>
       <c r="S119" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>695</v>
+      </c>
+      <c r="B120" t="s">
         <v>696</v>
-      </c>
-      <c r="B120" t="s">
-        <v>697</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>44342</v>
       </c>
       <c r="D120" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E120" t="s">
         <v>36</v>
@@ -9666,7 +9641,7 @@
         <v>164472</v>
       </c>
       <c r="I120" t="n">
-        <v>14.693</v>
+        <v>14.451</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
@@ -9674,7 +9649,7 @@
         <v>456</v>
       </c>
       <c r="M120" t="n">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="N120" t="n">
         <v>0.008</v>
@@ -9686,30 +9661,30 @@
         <v>36</v>
       </c>
       <c r="Q120" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R120" t="s">
         <v>44</v>
       </c>
       <c r="S120" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>700</v>
+      </c>
+      <c r="B121" t="s">
         <v>701</v>
-      </c>
-      <c r="B121" t="s">
-        <v>702</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>44427</v>
       </c>
       <c r="D121" t="s">
+        <v>702</v>
+      </c>
+      <c r="E121" t="s">
         <v>703</v>
-      </c>
-      <c r="E121" t="s">
-        <v>704</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
@@ -9719,7 +9694,7 @@
         <v>54719110</v>
       </c>
       <c r="I121" t="n">
-        <v>1170.343</v>
+        <v>1170.582</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
@@ -9727,7 +9702,7 @@
         <v>114479</v>
       </c>
       <c r="M121" t="n">
-        <v>2.448</v>
+        <v>2.449</v>
       </c>
       <c r="N121" t="n">
         <v>0.1</v>
@@ -9736,90 +9711,86 @@
         <v>10</v>
       </c>
       <c r="P121" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q121" t="s">
         <v>705</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>706</v>
       </c>
       <c r="R121" t="s">
         <v>44</v>
       </c>
       <c r="S121" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>707</v>
+      </c>
+      <c r="B122" t="s">
         <v>708</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" s="1" t="n">
+        <v>44435</v>
+      </c>
+      <c r="D122" t="s">
         <v>709</v>
       </c>
-      <c r="C122" s="1" t="n">
-        <v>44434</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>710</v>
-      </c>
-      <c r="E122" t="s">
-        <v>711</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H122" t="n">
-        <v>4900346</v>
+        <v>4918701</v>
       </c>
       <c r="I122" t="n">
-        <v>228.846</v>
+        <v>228.805</v>
       </c>
       <c r="J122" t="n">
-        <v>16189</v>
+        <v>18355</v>
       </c>
       <c r="K122" t="n">
-        <v>0.756</v>
+        <v>0.854</v>
       </c>
       <c r="L122" t="n">
-        <v>17519</v>
+        <v>17245</v>
       </c>
       <c r="M122" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="O122" t="n">
-        <v>3.1</v>
-      </c>
+        <v>0.802</v>
+      </c>
+      <c r="N122"/>
+      <c r="O122"/>
       <c r="P122" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q122" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="R122" t="s">
         <v>44</v>
       </c>
       <c r="S122" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>712</v>
+      </c>
+      <c r="B123" t="s">
         <v>713</v>
-      </c>
-      <c r="B123" t="s">
-        <v>714</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>44430</v>
       </c>
       <c r="D123" t="s">
+        <v>714</v>
+      </c>
+      <c r="E123" t="s">
         <v>715</v>
-      </c>
-      <c r="E123" t="s">
-        <v>716</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
@@ -9831,13 +9802,13 @@
         <v>17533</v>
       </c>
       <c r="K123" t="n">
-        <v>1.736</v>
+        <v>1.726</v>
       </c>
       <c r="L123" t="n">
         <v>17533</v>
       </c>
       <c r="M123" t="n">
-        <v>1.736</v>
+        <v>1.726</v>
       </c>
       <c r="N123" t="n">
         <v>0.052</v>
@@ -9846,27 +9817,27 @@
         <v>19.1</v>
       </c>
       <c r="P123" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q123" t="s">
         <v>717</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>718</v>
       </c>
       <c r="R123" t="s">
         <v>44</v>
       </c>
       <c r="S123" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>719</v>
+      </c>
+      <c r="B124" t="s">
         <v>720</v>
       </c>
-      <c r="B124" t="s">
-        <v>721</v>
-      </c>
       <c r="C124" s="1" t="n">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="D124" t="s">
         <v>443</v>
@@ -9876,31 +9847,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H124" t="n">
-        <v>9198104</v>
+        <v>9229606</v>
       </c>
       <c r="I124" t="n">
-        <v>1062.797</v>
+        <v>1058.988</v>
       </c>
       <c r="J124" t="n">
-        <v>22174</v>
+        <v>26009</v>
       </c>
       <c r="K124" t="n">
-        <v>2.562</v>
+        <v>2.984</v>
       </c>
       <c r="L124" t="n">
-        <v>23951</v>
+        <v>24582</v>
       </c>
       <c r="M124" t="n">
-        <v>2.767</v>
+        <v>2.82</v>
       </c>
       <c r="N124" t="n">
-        <v>0.119</v>
+        <v>0.117</v>
       </c>
       <c r="O124" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="P124" t="s">
         <v>444</v>
@@ -9912,24 +9883,24 @@
         <v>44</v>
       </c>
       <c r="S124" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>722</v>
+      </c>
+      <c r="B125" t="s">
         <v>723</v>
-      </c>
-      <c r="B125" t="s">
-        <v>724</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D125" t="s">
+        <v>724</v>
+      </c>
+      <c r="E125" t="s">
         <v>725</v>
-      </c>
-      <c r="E125" t="s">
-        <v>726</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
@@ -9939,19 +9910,19 @@
         <v>2596704</v>
       </c>
       <c r="I125" t="n">
-        <v>109.028</v>
+        <v>108.854</v>
       </c>
       <c r="J125" t="n">
         <v>13498</v>
       </c>
       <c r="K125" t="n">
-        <v>0.567</v>
+        <v>0.566</v>
       </c>
       <c r="L125" t="n">
         <v>19397</v>
       </c>
       <c r="M125" t="n">
-        <v>0.814</v>
+        <v>0.813</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
@@ -9960,33 +9931,33 @@
         <v>2715.5</v>
       </c>
       <c r="P125" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="Q125" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="R125" t="s">
         <v>31</v>
       </c>
       <c r="S125" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>727</v>
+      </c>
+      <c r="B126" t="s">
         <v>728</v>
-      </c>
-      <c r="B126" t="s">
-        <v>729</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D126" t="s">
+        <v>729</v>
+      </c>
+      <c r="E126" t="s">
         <v>730</v>
-      </c>
-      <c r="E126" t="s">
-        <v>731</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
@@ -9996,47 +9967,47 @@
         <v>11830518</v>
       </c>
       <c r="I126" t="n">
-        <v>169.492</v>
+        <v>169.126</v>
       </c>
       <c r="J126" t="n">
         <v>46129</v>
       </c>
       <c r="K126" t="n">
-        <v>0.661</v>
+        <v>0.659</v>
       </c>
       <c r="L126" t="n">
         <v>59982</v>
       </c>
       <c r="M126" t="n">
-        <v>0.859</v>
+        <v>0.857</v>
       </c>
       <c r="N126"/>
       <c r="O126"/>
       <c r="P126" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q126" t="s">
         <v>732</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>733</v>
       </c>
       <c r="R126" t="s">
         <v>44</v>
       </c>
       <c r="S126" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>734</v>
+      </c>
+      <c r="B127" t="s">
         <v>735</v>
-      </c>
-      <c r="B127" t="s">
-        <v>736</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>44433</v>
       </c>
       <c r="D127" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E127" t="s">
         <v>36</v>
@@ -10049,7 +10020,7 @@
         <v>177411</v>
       </c>
       <c r="I127" t="n">
-        <v>134.561</v>
+        <v>132.015</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
@@ -10057,7 +10028,7 @@
         <v>782</v>
       </c>
       <c r="M127" t="n">
-        <v>0.593</v>
+        <v>0.582</v>
       </c>
       <c r="N127" t="n">
         <v>0.391</v>
@@ -10069,31 +10040,31 @@
         <v>36</v>
       </c>
       <c r="Q127" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="R127" t="s">
         <v>24</v>
       </c>
       <c r="S127" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>738</v>
+      </c>
+      <c r="B128" t="s">
         <v>739</v>
-      </c>
-      <c r="B128" t="s">
-        <v>740</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
+        <v>740</v>
+      </c>
+      <c r="F128" t="s">
         <v>741</v>
-      </c>
-      <c r="F128" t="s">
-        <v>742</v>
       </c>
       <c r="G128" t="n">
         <v>535</v>
@@ -10102,19 +10073,19 @@
         <v>453355</v>
       </c>
       <c r="I128" t="n">
-        <v>54.761</v>
+        <v>53.473</v>
       </c>
       <c r="J128" t="n">
         <v>2007</v>
       </c>
       <c r="K128" t="n">
-        <v>0.242</v>
+        <v>0.237</v>
       </c>
       <c r="L128" t="n">
         <v>1919</v>
       </c>
       <c r="M128" t="n">
-        <v>0.232</v>
+        <v>0.226</v>
       </c>
       <c r="N128" t="n">
         <v>0.142</v>
@@ -10123,30 +10094,30 @@
         <v>7</v>
       </c>
       <c r="P128" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Q128" t="s">
+        <v>742</v>
+      </c>
+      <c r="R128" t="s">
         <v>743</v>
       </c>
-      <c r="R128" t="s">
+      <c r="S128" t="s">
         <v>744</v>
-      </c>
-      <c r="S128" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>745</v>
+      </c>
+      <c r="B129" t="s">
         <v>746</v>
-      </c>
-      <c r="B129" t="s">
-        <v>747</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D129" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E129"/>
       <c r="F129"/>
@@ -10157,19 +10128,19 @@
         <v>304866</v>
       </c>
       <c r="I129" t="n">
-        <v>217.841</v>
+        <v>217.238</v>
       </c>
       <c r="J129" t="n">
         <v>856</v>
       </c>
       <c r="K129" t="n">
-        <v>0.612</v>
+        <v>0.61</v>
       </c>
       <c r="L129" t="n">
         <v>34751</v>
       </c>
       <c r="M129" t="n">
-        <v>24.831</v>
+        <v>24.762</v>
       </c>
       <c r="N129" t="n">
         <v>0.005</v>
@@ -10181,30 +10152,30 @@
         <v>36</v>
       </c>
       <c r="Q129" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="R129" t="s">
         <v>31</v>
       </c>
       <c r="S129" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>750</v>
+      </c>
+      <c r="B130" t="s">
         <v>751</v>
-      </c>
-      <c r="B130" t="s">
-        <v>752</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="D130" t="s">
+        <v>752</v>
+      </c>
+      <c r="E130" t="s">
         <v>753</v>
-      </c>
-      <c r="E130" t="s">
-        <v>754</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
@@ -10214,19 +10185,19 @@
         <v>2514986</v>
       </c>
       <c r="I130" t="n">
-        <v>212.799</v>
+        <v>210.71</v>
       </c>
       <c r="J130" t="n">
         <v>14970</v>
       </c>
       <c r="K130" t="n">
-        <v>1.267</v>
+        <v>1.254</v>
       </c>
       <c r="L130" t="n">
         <v>12339</v>
       </c>
       <c r="M130" t="n">
-        <v>1.044</v>
+        <v>1.034</v>
       </c>
       <c r="N130" t="n">
         <v>0.217</v>
@@ -10235,90 +10206,90 @@
         <v>4.6</v>
       </c>
       <c r="P130" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q130" t="s">
         <v>755</v>
-      </c>
-      <c r="Q130" t="s">
-        <v>756</v>
       </c>
       <c r="R130" t="s">
         <v>31</v>
       </c>
       <c r="S130" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>757</v>
+      </c>
+      <c r="B131" t="s">
         <v>758</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" s="1" t="n">
+        <v>44434</v>
+      </c>
+      <c r="D131" t="s">
         <v>759</v>
       </c>
-      <c r="C131" s="1" t="n">
-        <v>44431</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>760</v>
-      </c>
-      <c r="E131" t="s">
-        <v>761</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H131" t="n">
-        <v>74057684</v>
+        <v>74944500</v>
       </c>
       <c r="I131" t="n">
-        <v>878.095</v>
+        <v>881.257</v>
       </c>
       <c r="J131" t="n">
-        <v>282528</v>
+        <v>297068</v>
       </c>
       <c r="K131" t="n">
-        <v>3.35</v>
+        <v>3.493</v>
       </c>
       <c r="L131" t="n">
-        <v>286591</v>
+        <v>287236</v>
       </c>
       <c r="M131" t="n">
-        <v>3.398</v>
+        <v>3.378</v>
       </c>
       <c r="N131" t="n">
-        <v>0.069</v>
+        <v>0.067</v>
       </c>
       <c r="O131" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="P131" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q131" t="s">
         <v>761</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>762</v>
       </c>
       <c r="R131" t="s">
         <v>44</v>
       </c>
       <c r="S131" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>763</v>
+      </c>
+      <c r="B132" t="s">
         <v>764</v>
-      </c>
-      <c r="B132" t="s">
-        <v>765</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>44432</v>
       </c>
       <c r="D132" t="s">
+        <v>765</v>
+      </c>
+      <c r="E132" t="s">
         <v>766</v>
-      </c>
-      <c r="E132" t="s">
-        <v>767</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
@@ -10328,19 +10299,19 @@
         <v>1561437</v>
       </c>
       <c r="I132" t="n">
-        <v>34.136</v>
+        <v>33.135</v>
       </c>
       <c r="J132" t="n">
         <v>2721</v>
       </c>
       <c r="K132" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="L132" t="n">
         <v>3573</v>
       </c>
       <c r="M132" t="n">
-        <v>0.078</v>
+        <v>0.076</v>
       </c>
       <c r="N132" t="n">
         <v>0.868</v>
@@ -10349,33 +10320,33 @@
         <v>1.2</v>
       </c>
       <c r="P132" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q132" t="s">
         <v>767</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>768</v>
       </c>
       <c r="R132" t="s">
         <v>108</v>
       </c>
       <c r="S132" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>769</v>
+      </c>
+      <c r="B133" t="s">
         <v>770</v>
-      </c>
-      <c r="B133" t="s">
-        <v>771</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>44435</v>
       </c>
       <c r="D133" t="s">
+        <v>771</v>
+      </c>
+      <c r="E133" t="s">
         <v>772</v>
-      </c>
-      <c r="E133" t="s">
-        <v>773</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
@@ -10385,110 +10356,106 @@
         <v>11903521</v>
       </c>
       <c r="I133" t="n">
-        <v>272.182</v>
+        <v>273.853</v>
       </c>
       <c r="J133" t="n">
         <v>23049</v>
       </c>
       <c r="K133" t="n">
-        <v>0.527</v>
+        <v>0.53</v>
       </c>
       <c r="L133" t="n">
         <v>18599</v>
       </c>
       <c r="M133" t="n">
-        <v>0.425</v>
+        <v>0.428</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
       <c r="P133" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q133" t="s">
         <v>773</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>774</v>
       </c>
       <c r="R133" t="s">
         <v>44</v>
       </c>
       <c r="S133" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>775</v>
+      </c>
+      <c r="B134" t="s">
         <v>776</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" s="1" t="n">
+        <v>44435</v>
+      </c>
+      <c r="D134" t="s">
         <v>777</v>
       </c>
-      <c r="C134" s="1" t="n">
-        <v>44434</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>778</v>
-      </c>
-      <c r="E134" t="s">
-        <v>779</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H134" t="n">
-        <v>73166834</v>
+        <v>73467662</v>
       </c>
       <c r="I134" t="n">
-        <v>7397.763</v>
+        <v>7353.323</v>
       </c>
       <c r="J134" t="n">
-        <v>306873</v>
+        <v>300828</v>
       </c>
       <c r="K134" t="n">
-        <v>31.027</v>
+        <v>30.11</v>
       </c>
       <c r="L134" t="n">
-        <v>311324</v>
+        <v>309829</v>
       </c>
       <c r="M134" t="n">
-        <v>31.477</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="O134" t="n">
-        <v>301.2</v>
-      </c>
+        <v>31.011</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134"/>
       <c r="P134" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="Q134" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="R134" t="s">
         <v>44</v>
       </c>
       <c r="S134" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>780</v>
+      </c>
+      <c r="B135" t="s">
         <v>781</v>
-      </c>
-      <c r="B135" t="s">
-        <v>782</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>44433</v>
       </c>
       <c r="D135" t="s">
+        <v>782</v>
+      </c>
+      <c r="E135" t="s">
         <v>783</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>784</v>
-      </c>
-      <c r="F135" t="s">
-        <v>785</v>
       </c>
       <c r="G135" t="n">
         <v>513</v>
@@ -10497,19 +10464,19 @@
         <v>239081395</v>
       </c>
       <c r="I135" t="n">
-        <v>3521.807</v>
+        <v>3505.227</v>
       </c>
       <c r="J135" t="n">
         <v>912027</v>
       </c>
       <c r="K135" t="n">
-        <v>13.435</v>
+        <v>13.371</v>
       </c>
       <c r="L135" t="n">
         <v>753062</v>
       </c>
       <c r="M135" t="n">
-        <v>11.093</v>
+        <v>11.041</v>
       </c>
       <c r="N135" t="n">
         <v>0.045</v>
@@ -10518,33 +10485,33 @@
         <v>22.4</v>
       </c>
       <c r="P135" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q135" t="s">
         <v>786</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>787</v>
       </c>
       <c r="R135" t="s">
         <v>44</v>
       </c>
       <c r="S135" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>788</v>
+      </c>
+      <c r="B136" t="s">
         <v>789</v>
-      </c>
-      <c r="B136" t="s">
-        <v>790</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>44431</v>
       </c>
       <c r="D136" t="s">
+        <v>790</v>
+      </c>
+      <c r="E136" t="s">
         <v>791</v>
-      </c>
-      <c r="E136" t="s">
-        <v>792</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
@@ -10554,19 +10521,19 @@
         <v>518104887</v>
       </c>
       <c r="I136" t="n">
-        <v>1565.259</v>
+        <v>1556.267</v>
       </c>
       <c r="J136" t="n">
         <v>361423</v>
       </c>
       <c r="K136" t="n">
-        <v>1.092</v>
+        <v>1.086</v>
       </c>
       <c r="L136" t="n">
         <v>1088567</v>
       </c>
       <c r="M136" t="n">
-        <v>3.289</v>
+        <v>3.27</v>
       </c>
       <c r="N136" t="n">
         <v>0.138</v>
@@ -10575,90 +10542,82 @@
         <v>7.3</v>
       </c>
       <c r="P136" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q136" t="s">
         <v>792</v>
       </c>
-      <c r="Q136" t="s">
+      <c r="R136" t="s">
         <v>793</v>
       </c>
-      <c r="R136" t="s">
+      <c r="S136" t="s">
         <v>794</v>
-      </c>
-      <c r="S136" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>795</v>
+      </c>
+      <c r="B137" t="s">
         <v>796</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" s="1" t="n">
+        <v>44435</v>
+      </c>
+      <c r="D137" t="s">
         <v>797</v>
-      </c>
-      <c r="C137" s="1" t="n">
-        <v>44431</v>
-      </c>
-      <c r="D137" t="s">
-        <v>798</v>
       </c>
       <c r="E137" t="s">
         <v>191</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H137" t="n">
-        <v>3277102</v>
+        <v>3298839</v>
       </c>
       <c r="I137" t="n">
-        <v>943.397</v>
-      </c>
-      <c r="J137" t="n">
-        <v>6484</v>
-      </c>
-      <c r="K137" t="n">
-        <v>1.867</v>
-      </c>
+        <v>946.541</v>
+      </c>
+      <c r="J137"/>
+      <c r="K137"/>
       <c r="L137" t="n">
-        <v>9051</v>
+        <v>7449</v>
       </c>
       <c r="M137" t="n">
-        <v>2.606</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="O137" t="n">
-        <v>79.8</v>
-      </c>
+        <v>2.137</v>
+      </c>
+      <c r="N137"/>
+      <c r="O137"/>
       <c r="P137" t="s">
         <v>191</v>
       </c>
       <c r="Q137" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R137" t="s">
         <v>44</v>
       </c>
       <c r="S137" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>800</v>
+      </c>
+      <c r="B138" t="s">
         <v>801</v>
-      </c>
-      <c r="B138" t="s">
-        <v>802</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>44432</v>
       </c>
       <c r="D138" t="s">
+        <v>802</v>
+      </c>
+      <c r="E138" t="s">
         <v>803</v>
-      </c>
-      <c r="E138" t="s">
-        <v>804</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
@@ -10668,19 +10627,19 @@
         <v>13016830</v>
       </c>
       <c r="I138" t="n">
-        <v>133.727</v>
+        <v>132.596</v>
       </c>
       <c r="J138" t="n">
         <v>1014412</v>
       </c>
       <c r="K138" t="n">
-        <v>10.421</v>
+        <v>10.333</v>
       </c>
       <c r="L138" t="n">
         <v>296696</v>
       </c>
       <c r="M138" t="n">
-        <v>3.048</v>
+        <v>3.022</v>
       </c>
       <c r="N138" t="n">
         <v>0.037</v>
@@ -10689,33 +10648,33 @@
         <v>27.3</v>
       </c>
       <c r="P138" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q138" t="s">
         <v>805</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>806</v>
       </c>
       <c r="R138" t="s">
         <v>108</v>
       </c>
       <c r="S138" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>807</v>
+      </c>
+      <c r="B139" t="s">
         <v>808</v>
-      </c>
-      <c r="B139" t="s">
-        <v>809</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D139" t="s">
+        <v>809</v>
+      </c>
+      <c r="E139" t="s">
         <v>810</v>
-      </c>
-      <c r="E139" t="s">
-        <v>811</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
@@ -10725,19 +10684,19 @@
         <v>2216799</v>
       </c>
       <c r="I139" t="n">
-        <v>120.583</v>
+        <v>117.163</v>
       </c>
       <c r="J139" t="n">
         <v>7086</v>
       </c>
       <c r="K139" t="n">
-        <v>0.385</v>
+        <v>0.375</v>
       </c>
       <c r="L139" t="n">
         <v>6098</v>
       </c>
       <c r="M139" t="n">
-        <v>0.332</v>
+        <v>0.322</v>
       </c>
       <c r="N139" t="n">
         <v>0.053</v>
@@ -10746,33 +10705,33 @@
         <v>18.9</v>
       </c>
       <c r="P139" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="Q139" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="R139" t="s">
         <v>44</v>
       </c>
       <c r="S139" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>813</v>
+      </c>
+      <c r="B140" t="s">
         <v>814</v>
-      </c>
-      <c r="B140" t="s">
-        <v>815</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>44429</v>
       </c>
       <c r="D140" t="s">
+        <v>815</v>
+      </c>
+      <c r="E140" t="s">
         <v>816</v>
-      </c>
-      <c r="E140" t="s">
-        <v>817</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
@@ -10782,19 +10741,19 @@
         <v>1092557</v>
       </c>
       <c r="I140" t="n">
-        <v>73.509</v>
+        <v>72.392</v>
       </c>
       <c r="J140" t="n">
         <v>3957</v>
       </c>
       <c r="K140" t="n">
-        <v>0.266</v>
+        <v>0.262</v>
       </c>
       <c r="L140" t="n">
         <v>5952</v>
       </c>
       <c r="M140" t="n">
-        <v>0.4</v>
+        <v>0.394</v>
       </c>
       <c r="N140" t="n">
         <v>0.063</v>
@@ -10803,16 +10762,16 @@
         <v>15.8</v>
       </c>
       <c r="P140" t="s">
+        <v>816</v>
+      </c>
+      <c r="Q140" t="s">
         <v>817</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>818</v>
       </c>
       <c r="R140" t="s">
         <v>44</v>
       </c>
       <c r="S140" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/08/coronavirus-covid-19-at-a-glance-26-august-2021_0.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/08/coronavirus-covid-19-at-a-glance-30-august-2021_0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1551-new-cases-1504-recoveries_i_0000133819.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1405-new-cases-1487-recoveries_i_0000133907.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-25-de-agosto-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-30-de-agosto-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -715,7 +715,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-27082021-jk0v</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-30082021-mu6l</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -733,7 +733,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/08/Boletin-COVID-19-no.524.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/08/Boletin-COVID-19-no.528.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -1168,7 +1168,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/368960</t>
+    <t xml:space="preserve">http://irangov.ir/detail/369138</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1291,7 +1291,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-august-25-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-august-29-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -2049,7 +2049,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1rlY2r9SyQVHFI9fQ_1T0IHbtt-opS8y5</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1wCYWiHYn9Be_IVQ608NdlzZPDX4LdYmf</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2133,7 +2133,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/27-08_BULETIN_DE_PRESA_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_31_august_2021,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18791</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18823</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -3330,7 +3330,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44429</v>
+        <v>44433</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3340,31 +3340,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="H5" t="n">
-        <v>13001932</v>
+        <v>13143085</v>
       </c>
       <c r="I5" t="n">
-        <v>285.094</v>
+        <v>288.189</v>
       </c>
       <c r="J5" t="n">
-        <v>30076</v>
+        <v>38301</v>
       </c>
       <c r="K5" t="n">
-        <v>0.659</v>
+        <v>0.84</v>
       </c>
       <c r="L5" t="n">
-        <v>31793</v>
+        <v>34443</v>
       </c>
       <c r="M5" t="n">
-        <v>0.697</v>
+        <v>0.755</v>
       </c>
       <c r="N5" t="n">
-        <v>0.072</v>
+        <v>0.062</v>
       </c>
       <c r="O5" t="n">
-        <v>13.9</v>
+        <v>16.1</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3444,7 +3444,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3454,31 +3454,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H7" t="n">
-        <v>30541835</v>
+        <v>31350695</v>
       </c>
       <c r="I7" t="n">
-        <v>1184.333</v>
+        <v>1215.698</v>
       </c>
       <c r="J7" t="n">
-        <v>258583</v>
+        <v>227561</v>
       </c>
       <c r="K7" t="n">
-        <v>10.027</v>
+        <v>8.824</v>
       </c>
       <c r="L7" t="n">
-        <v>252134</v>
+        <v>226807</v>
       </c>
       <c r="M7" t="n">
-        <v>9.777</v>
+        <v>8.795</v>
       </c>
       <c r="N7" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="O7" t="n">
-        <v>267.9</v>
+        <v>195.7</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3501,7 +3501,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44434</v>
+        <v>44437</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3511,31 +3511,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H8" t="n">
-        <v>75098854</v>
+        <v>76013008</v>
       </c>
       <c r="I8" t="n">
-        <v>8304.573</v>
+        <v>8405.662</v>
       </c>
       <c r="J8" t="n">
-        <v>422734</v>
+        <v>332283</v>
       </c>
       <c r="K8" t="n">
-        <v>46.747</v>
+        <v>36.744</v>
       </c>
       <c r="L8" t="n">
-        <v>318730</v>
+        <v>311482</v>
       </c>
       <c r="M8" t="n">
-        <v>35.246</v>
+        <v>34.444</v>
       </c>
       <c r="N8" t="n">
         <v>0.004</v>
       </c>
       <c r="O8" t="n">
-        <v>253.6</v>
+        <v>231.2</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3558,7 +3558,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3568,27 +3568,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H9" t="n">
-        <v>4379510</v>
+        <v>4442244</v>
       </c>
       <c r="I9" t="n">
-        <v>428.383</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9"/>
+        <v>434.52</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11191</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.095</v>
+      </c>
       <c r="L9" t="n">
-        <v>16962</v>
+        <v>17486</v>
       </c>
       <c r="M9" t="n">
-        <v>1.659</v>
+        <v>1.71</v>
       </c>
       <c r="N9" t="n">
-        <v>0.207</v>
+        <v>0.218</v>
       </c>
       <c r="O9" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3611,7 +3615,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3621,31 +3625,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H10" t="n">
-        <v>5850590</v>
+        <v>5916779</v>
       </c>
       <c r="I10" t="n">
-        <v>3346.455</v>
+        <v>3384.314</v>
       </c>
       <c r="J10" t="n">
-        <v>18377</v>
+        <v>15853</v>
       </c>
       <c r="K10" t="n">
-        <v>10.511</v>
+        <v>9.068</v>
       </c>
       <c r="L10" t="n">
-        <v>17340</v>
+        <v>19339</v>
       </c>
       <c r="M10" t="n">
-        <v>9.918</v>
+        <v>11.062</v>
       </c>
       <c r="N10" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="O10" t="n">
-        <v>176.2</v>
+        <v>183.4</v>
       </c>
       <c r="P10" t="s">
         <v>70</v>
@@ -3668,7 +3672,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3678,31 +3682,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H11" t="n">
-        <v>8770585</v>
+        <v>8885667</v>
       </c>
       <c r="I11" t="n">
-        <v>52.738</v>
+        <v>53.43</v>
       </c>
       <c r="J11" t="n">
-        <v>34111</v>
+        <v>27921</v>
       </c>
       <c r="K11" t="n">
-        <v>0.205</v>
+        <v>0.168</v>
       </c>
       <c r="L11" t="n">
-        <v>36138</v>
+        <v>31077</v>
       </c>
       <c r="M11" t="n">
-        <v>0.217</v>
+        <v>0.187</v>
       </c>
       <c r="N11" t="n">
-        <v>0.14</v>
+        <v>0.136</v>
       </c>
       <c r="O11" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3725,7 +3729,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3735,31 +3739,27 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H12" t="n">
-        <v>7720145</v>
+        <v>7777175</v>
       </c>
       <c r="I12" t="n">
-        <v>817.564</v>
-      </c>
-      <c r="J12" t="n">
-        <v>19773</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.094</v>
-      </c>
+        <v>823.603</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
       <c r="L12" t="n">
-        <v>16730</v>
+        <v>16649</v>
       </c>
       <c r="M12" t="n">
-        <v>1.772</v>
+        <v>1.763</v>
       </c>
       <c r="N12" t="n">
-        <v>0.078</v>
+        <v>0.083</v>
       </c>
       <c r="O12" t="n">
-        <v>12.7</v>
+        <v>12</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3782,7 +3782,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44433</v>
+        <v>44437</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3792,31 +3792,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H13" t="n">
-        <v>18488837</v>
+        <v>18646220</v>
       </c>
       <c r="I13" t="n">
-        <v>1589.435</v>
+        <v>1602.965</v>
       </c>
       <c r="J13" t="n">
-        <v>40666</v>
+        <v>20959</v>
       </c>
       <c r="K13" t="n">
-        <v>3.496</v>
+        <v>1.802</v>
       </c>
       <c r="L13" t="n">
-        <v>42061</v>
+        <v>40803</v>
       </c>
       <c r="M13" t="n">
-        <v>3.616</v>
+        <v>3.508</v>
       </c>
       <c r="N13" t="n">
-        <v>0.052</v>
+        <v>0.054</v>
       </c>
       <c r="O13" t="n">
-        <v>19.2</v>
+        <v>18.5</v>
       </c>
       <c r="P13" t="s">
         <v>90</v>
@@ -4047,7 +4047,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4057,31 +4057,27 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H18" t="n">
-        <v>1129226</v>
+        <v>1138215</v>
       </c>
       <c r="I18" t="n">
-        <v>346.021</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3259</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.999</v>
-      </c>
+        <v>348.776</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
       <c r="L18" t="n">
-        <v>2576</v>
+        <v>145494</v>
       </c>
       <c r="M18" t="n">
-        <v>0.789</v>
+        <v>44.583</v>
       </c>
       <c r="N18" t="n">
-        <v>0.169</v>
+        <v>0.003</v>
       </c>
       <c r="O18" t="n">
-        <v>5.9</v>
+        <v>293.5</v>
       </c>
       <c r="P18" t="s">
         <v>118</v>
@@ -4149,7 +4145,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4159,27 +4155,27 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H20" t="n">
-        <v>4114130</v>
+        <v>4199250</v>
       </c>
       <c r="I20" t="n">
-        <v>596.54</v>
+        <v>608.882</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>24094</v>
+        <v>22127</v>
       </c>
       <c r="M20" t="n">
-        <v>3.494</v>
+        <v>3.208</v>
       </c>
       <c r="N20" t="n">
-        <v>0.058</v>
+        <v>0.068</v>
       </c>
       <c r="O20" t="n">
-        <v>17.3</v>
+        <v>14.7</v>
       </c>
       <c r="P20" t="s">
         <v>130</v>
@@ -4316,7 +4312,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D23" t="s">
         <v>140</v>
@@ -4326,31 +4322,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H23" t="n">
-        <v>40150588</v>
+        <v>40476190</v>
       </c>
       <c r="I23" t="n">
-        <v>1054.709</v>
+        <v>1063.263</v>
       </c>
       <c r="J23" t="n">
-        <v>83484</v>
+        <v>70390</v>
       </c>
       <c r="K23" t="n">
-        <v>2.193</v>
+        <v>1.849</v>
       </c>
       <c r="L23" t="n">
-        <v>70988</v>
+        <v>77660</v>
       </c>
       <c r="M23" t="n">
-        <v>1.865</v>
+        <v>2.04</v>
       </c>
       <c r="N23" t="n">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="O23" t="n">
-        <v>25.1</v>
+        <v>23.9</v>
       </c>
       <c r="P23" t="s">
         <v>141</v>
@@ -4373,7 +4369,7 @@
         <v>147</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="D24" t="s">
         <v>148</v>
@@ -4383,15 +4379,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>1477</v>
+        <v>1292</v>
       </c>
       <c r="K24" t="n">
-        <v>2.629</v>
+        <v>2.299</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4418,7 +4414,7 @@
         <v>153</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D25" t="s">
         <v>154</v>
@@ -4428,31 +4424,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="H25" t="n">
-        <v>19785781</v>
+        <v>20009412</v>
       </c>
       <c r="I25" t="n">
-        <v>1029.846</v>
+        <v>1041.486</v>
       </c>
       <c r="J25" t="n">
-        <v>63985</v>
+        <v>48875</v>
       </c>
       <c r="K25" t="n">
-        <v>3.33</v>
+        <v>2.544</v>
       </c>
       <c r="L25" t="n">
-        <v>52044</v>
+        <v>50692</v>
       </c>
       <c r="M25" t="n">
-        <v>2.709</v>
+        <v>2.639</v>
       </c>
       <c r="N25" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="O25" t="n">
-        <v>85.3</v>
+        <v>90.2</v>
       </c>
       <c r="P25" t="s">
         <v>156</v>
@@ -4520,7 +4516,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D27" t="s">
         <v>167</v>
@@ -4530,31 +4526,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H27" t="n">
-        <v>23881781</v>
+        <v>24066701</v>
       </c>
       <c r="I27" t="n">
-        <v>465.842</v>
+        <v>469.449</v>
       </c>
       <c r="J27" t="n">
-        <v>53070</v>
+        <v>28892</v>
       </c>
       <c r="K27" t="n">
-        <v>1.035</v>
+        <v>0.564</v>
       </c>
       <c r="L27" t="n">
-        <v>49903</v>
+        <v>47553</v>
       </c>
       <c r="M27" t="n">
-        <v>0.973</v>
+        <v>0.928</v>
       </c>
       <c r="N27" t="n">
-        <v>0.067</v>
+        <v>0.056</v>
       </c>
       <c r="O27" t="n">
-        <v>14.9</v>
+        <v>17.9</v>
       </c>
       <c r="P27" t="s">
         <v>168</v>
@@ -4577,7 +4573,7 @@
         <v>172</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44431</v>
+        <v>44435</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
@@ -4587,31 +4583,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="H28" t="n">
-        <v>1632278</v>
+        <v>1652911</v>
       </c>
       <c r="I28" t="n">
-        <v>317.622</v>
+        <v>321.637</v>
       </c>
       <c r="J28" t="n">
-        <v>4363</v>
+        <v>2213</v>
       </c>
       <c r="K28" t="n">
-        <v>0.849</v>
+        <v>0.431</v>
       </c>
       <c r="L28" t="n">
-        <v>7787</v>
+        <v>5883</v>
       </c>
       <c r="M28" t="n">
-        <v>1.515</v>
+        <v>1.145</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O28" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P28" t="s">
         <v>174</v>
@@ -4691,7 +4687,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4701,21 +4697,25 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H30" t="n">
-        <v>2510859</v>
+        <v>2543996</v>
       </c>
       <c r="I30" t="n">
-        <v>615.157</v>
-      </c>
-      <c r="J30"/>
-      <c r="K30"/>
+        <v>623.275</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9610</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.354</v>
+      </c>
       <c r="L30" t="n">
-        <v>9097</v>
+        <v>9079</v>
       </c>
       <c r="M30" t="n">
-        <v>2.229</v>
+        <v>2.224</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -4799,7 +4799,7 @@
         <v>196</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D32" t="s">
         <v>197</v>
@@ -4809,31 +4809,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H32" t="n">
-        <v>11434585</v>
+        <v>11600398</v>
       </c>
       <c r="I32" t="n">
-        <v>12876.712</v>
+        <v>13063.438</v>
       </c>
       <c r="J32" t="n">
-        <v>45382</v>
+        <v>53577</v>
       </c>
       <c r="K32" t="n">
-        <v>51.106</v>
+        <v>60.334</v>
       </c>
       <c r="L32" t="n">
-        <v>45866</v>
+        <v>43318</v>
       </c>
       <c r="M32" t="n">
-        <v>51.651</v>
+        <v>48.781</v>
       </c>
       <c r="N32" t="n">
         <v>0.006</v>
       </c>
       <c r="O32" t="n">
-        <v>159.4</v>
+        <v>157.8</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4856,7 +4856,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D33" t="s">
         <v>201</v>
@@ -4866,27 +4866,27 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>83563</v>
+        <v>73367</v>
       </c>
       <c r="K33" t="n">
-        <v>7.792</v>
+        <v>6.841</v>
       </c>
       <c r="L33" t="n">
-        <v>88093</v>
+        <v>75090</v>
       </c>
       <c r="M33" t="n">
-        <v>8.214</v>
+        <v>7.002</v>
       </c>
       <c r="N33" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="O33" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="P33" t="s">
         <v>36</v>
@@ -4962,7 +4962,7 @@
         <v>210</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44434</v>
+        <v>44437</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -4972,31 +4972,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H35" t="n">
-        <v>39539587</v>
+        <v>39745289</v>
       </c>
       <c r="I35" t="n">
-        <v>6801.571</v>
+        <v>6836.956</v>
       </c>
       <c r="J35" t="n">
-        <v>44147</v>
+        <v>36962</v>
       </c>
       <c r="K35" t="n">
-        <v>7.594</v>
+        <v>6.358</v>
       </c>
       <c r="L35" t="n">
-        <v>66050</v>
+        <v>69040</v>
       </c>
       <c r="M35" t="n">
-        <v>11.362</v>
+        <v>11.876</v>
       </c>
       <c r="N35" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="O35" t="n">
-        <v>68.1</v>
+        <v>72.5</v>
       </c>
       <c r="P35" t="s">
         <v>212</v>
@@ -5019,7 +5019,7 @@
         <v>216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44432</v>
+        <v>44436</v>
       </c>
       <c r="D36" t="s">
         <v>217</v>
@@ -5029,27 +5029,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H36" t="n">
-        <v>1938279</v>
+        <v>1950593</v>
       </c>
       <c r="I36" t="n">
-        <v>176.952</v>
+        <v>178.076</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>3531</v>
+        <v>3115</v>
       </c>
       <c r="M36" t="n">
-        <v>0.322</v>
+        <v>0.284</v>
       </c>
       <c r="N36" t="n">
-        <v>0.07</v>
+        <v>0.091</v>
       </c>
       <c r="O36" t="n">
-        <v>14.2</v>
+        <v>11</v>
       </c>
       <c r="P36" t="s">
         <v>218</v>
@@ -5188,7 +5188,7 @@
         <v>236</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44433</v>
+        <v>44437</v>
       </c>
       <c r="D39" t="s">
         <v>237</v>
@@ -5198,27 +5198,27 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H39" t="n">
-        <v>192584</v>
+        <v>195087</v>
       </c>
       <c r="I39" t="n">
-        <v>132.827</v>
+        <v>134.553</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39" t="n">
-        <v>724</v>
+        <v>649</v>
       </c>
       <c r="M39" t="n">
-        <v>0.499</v>
+        <v>0.448</v>
       </c>
       <c r="N39" t="n">
-        <v>0.032</v>
+        <v>0.061</v>
       </c>
       <c r="O39" t="n">
-        <v>31.1</v>
+        <v>16.4</v>
       </c>
       <c r="P39" t="s">
         <v>239</v>
@@ -5241,7 +5241,7 @@
         <v>242</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D40" t="s">
         <v>243</v>
@@ -5251,31 +5251,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H40" t="n">
-        <v>1742729</v>
+        <v>1759902</v>
       </c>
       <c r="I40" t="n">
-        <v>1315.081</v>
+        <v>1328.039</v>
       </c>
       <c r="J40" t="n">
-        <v>4440</v>
+        <v>5375</v>
       </c>
       <c r="K40" t="n">
-        <v>3.35</v>
+        <v>4.056</v>
       </c>
       <c r="L40" t="n">
-        <v>4105</v>
+        <v>4545</v>
       </c>
       <c r="M40" t="n">
-        <v>3.098</v>
+        <v>3.43</v>
       </c>
       <c r="N40" t="n">
-        <v>0.076</v>
+        <v>0.078</v>
       </c>
       <c r="O40" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="P40" t="s">
         <v>244</v>
@@ -5298,7 +5298,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D41" t="s">
         <v>248</v>
@@ -5308,31 +5308,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H41" t="n">
-        <v>3200770</v>
+        <v>3230986</v>
       </c>
       <c r="I41" t="n">
-        <v>27.154</v>
+        <v>27.41</v>
       </c>
       <c r="J41" t="n">
-        <v>10620</v>
+        <v>5345</v>
       </c>
       <c r="K41" t="n">
-        <v>0.09</v>
+        <v>0.045</v>
       </c>
       <c r="L41" t="n">
-        <v>8379</v>
+        <v>8654</v>
       </c>
       <c r="M41" t="n">
-        <v>0.071</v>
+        <v>0.073</v>
       </c>
       <c r="N41" t="n">
-        <v>0.153</v>
+        <v>0.166</v>
       </c>
       <c r="O41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P41" t="s">
         <v>249</v>
@@ -5412,7 +5412,7 @@
         <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44433</v>
+        <v>44437</v>
       </c>
       <c r="D43" t="s">
         <v>258</v>
@@ -5422,31 +5422,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H43" t="n">
-        <v>6471878</v>
+        <v>6565392</v>
       </c>
       <c r="I43" t="n">
-        <v>1166.449</v>
+        <v>1183.303</v>
       </c>
       <c r="J43" t="n">
-        <v>29034</v>
+        <v>15020</v>
       </c>
       <c r="K43" t="n">
-        <v>5.233</v>
+        <v>2.707</v>
       </c>
       <c r="L43" t="n">
-        <v>23019</v>
+        <v>22815</v>
       </c>
       <c r="M43" t="n">
-        <v>4.149</v>
+        <v>4.112</v>
       </c>
       <c r="N43" t="n">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="O43" t="n">
-        <v>37.3</v>
+        <v>39.5</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5469,7 +5469,7 @@
         <v>263</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44431</v>
+        <v>44435</v>
       </c>
       <c r="D44" t="s">
         <v>264</v>
@@ -5479,27 +5479,19 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44" t="n">
-        <v>895786</v>
-      </c>
-      <c r="K44" t="n">
-        <v>13.258</v>
-      </c>
-      <c r="L44" t="n">
-        <v>762950</v>
-      </c>
-      <c r="M44" t="n">
-        <v>11.292</v>
-      </c>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
       <c r="N44" t="n">
-        <v>0.03</v>
+        <v>0.028</v>
       </c>
       <c r="O44" t="n">
-        <v>33.3</v>
+        <v>35.7</v>
       </c>
       <c r="P44" t="s">
         <v>265</v>
@@ -5522,7 +5514,7 @@
         <v>268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44433</v>
+        <v>44438</v>
       </c>
       <c r="D45" t="s">
         <v>269</v>
@@ -5532,27 +5524,31 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H45" t="n">
-        <v>1061767</v>
+        <v>1078893</v>
       </c>
       <c r="I45" t="n">
-        <v>465.927</v>
-      </c>
-      <c r="J45"/>
-      <c r="K45"/>
+        <v>473.442</v>
+      </c>
+      <c r="J45" t="n">
+        <v>7259</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.185</v>
+      </c>
       <c r="L45" t="n">
-        <v>3172</v>
+        <v>3452</v>
       </c>
       <c r="M45" t="n">
-        <v>1.392</v>
+        <v>1.515</v>
       </c>
       <c r="N45" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="O45" t="n">
-        <v>163.3</v>
+        <v>236.9</v>
       </c>
       <c r="P45" t="s">
         <v>270</v>
@@ -5852,7 +5848,7 @@
         <v>306</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44433</v>
+        <v>44436</v>
       </c>
       <c r="D51" t="s">
         <v>307</v>
@@ -5862,31 +5858,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H51" t="n">
-        <v>2141913</v>
+        <v>2178407</v>
       </c>
       <c r="I51" t="n">
-        <v>117.366</v>
+        <v>119.366</v>
       </c>
       <c r="J51" t="n">
-        <v>16658</v>
+        <v>6484</v>
       </c>
       <c r="K51" t="n">
-        <v>0.913</v>
+        <v>0.355</v>
       </c>
       <c r="L51" t="n">
-        <v>11738</v>
+        <v>12099</v>
       </c>
       <c r="M51" t="n">
-        <v>0.643</v>
+        <v>0.663</v>
       </c>
       <c r="N51" t="n">
-        <v>0.339</v>
+        <v>0.305</v>
       </c>
       <c r="O51" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P51" t="s">
         <v>309</v>
@@ -5909,7 +5905,7 @@
         <v>313</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44418</v>
+        <v>44432</v>
       </c>
       <c r="D52" t="s">
         <v>314</v>
@@ -5922,18 +5918,18 @@
         <v>22</v>
       </c>
       <c r="H52" t="n">
-        <v>22744169</v>
+        <v>23570776</v>
       </c>
       <c r="I52" t="n">
-        <v>3011.356</v>
+        <v>3120.8</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52" t="n">
-        <v>61811</v>
+        <v>60019</v>
       </c>
       <c r="M52" t="n">
-        <v>8.184</v>
+        <v>7.947</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -5962,7 +5958,7 @@
         <v>320</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
       <c r="D53" t="s">
         <v>321</v>
@@ -5974,28 +5970,32 @@
         <v>323</v>
       </c>
       <c r="G53" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H53" t="n">
-        <v>6091206</v>
+        <v>6118069</v>
       </c>
       <c r="I53" t="n">
-        <v>632.251</v>
+        <v>635.039</v>
       </c>
       <c r="J53" t="n">
-        <v>10117</v>
+        <v>26863</v>
       </c>
       <c r="K53" t="n">
-        <v>1.05</v>
+        <v>2.788</v>
       </c>
       <c r="L53" t="n">
-        <v>9738</v>
+        <v>10923</v>
       </c>
       <c r="M53" t="n">
-        <v>1.011</v>
-      </c>
-      <c r="N53"/>
-      <c r="O53"/>
+        <v>1.134</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O53" t="n">
+        <v>69.1</v>
+      </c>
       <c r="P53" t="s">
         <v>322</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44434</v>
+        <v>44437</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -6027,25 +6027,25 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H54" t="n">
-        <v>572842</v>
+        <v>579129</v>
       </c>
       <c r="I54" t="n">
-        <v>1668.342</v>
+        <v>1686.652</v>
       </c>
       <c r="J54" t="n">
-        <v>2638</v>
+        <v>1847</v>
       </c>
       <c r="K54" t="n">
-        <v>7.683</v>
+        <v>5.379</v>
       </c>
       <c r="L54" t="n">
-        <v>2601</v>
+        <v>2551</v>
       </c>
       <c r="M54" t="n">
-        <v>7.575</v>
+        <v>7.43</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -6070,7 +6070,7 @@
         <v>332</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="D55" t="s">
         <v>333</v>
@@ -6082,25 +6082,25 @@
         <v>335</v>
       </c>
       <c r="G55" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H55" t="n">
-        <v>514954309</v>
+        <v>521541098</v>
       </c>
       <c r="I55" t="n">
-        <v>369.564</v>
+        <v>374.291</v>
       </c>
       <c r="J55" t="n">
-        <v>1824931</v>
+        <v>1394573</v>
       </c>
       <c r="K55" t="n">
-        <v>1.31</v>
+        <v>1.001</v>
       </c>
       <c r="L55" t="n">
-        <v>1750658</v>
+        <v>1735615</v>
       </c>
       <c r="M55" t="n">
-        <v>1.256</v>
+        <v>1.246</v>
       </c>
       <c r="N55"/>
       <c r="O55"/>
@@ -6125,7 +6125,7 @@
         <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
@@ -6135,27 +6135,31 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H56" t="n">
-        <v>20974752</v>
+        <v>21357173</v>
       </c>
       <c r="I56" t="n">
-        <v>75.896</v>
-      </c>
-      <c r="J56"/>
-      <c r="K56"/>
+        <v>77.28</v>
+      </c>
+      <c r="J56" t="n">
+        <v>78055</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.282</v>
+      </c>
       <c r="L56" t="n">
-        <v>112797</v>
+        <v>108131</v>
       </c>
       <c r="M56" t="n">
-        <v>0.408</v>
+        <v>0.391</v>
       </c>
       <c r="N56" t="n">
-        <v>0.144</v>
+        <v>0.119</v>
       </c>
       <c r="O56" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="P56" t="s">
         <v>340</v>
@@ -6178,7 +6182,7 @@
         <v>344</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="D57" t="s">
         <v>345</v>
@@ -6188,25 +6192,21 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H57" t="n">
-        <v>28438161</v>
+        <v>28892685</v>
       </c>
       <c r="I57" t="n">
-        <v>334.453</v>
-      </c>
-      <c r="J57" t="n">
-        <v>108091</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1.271</v>
-      </c>
+        <v>339.799</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57"/>
       <c r="L57" t="n">
-        <v>110297</v>
+        <v>114157</v>
       </c>
       <c r="M57" t="n">
-        <v>1.297</v>
+        <v>1.343</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
@@ -6288,7 +6288,7 @@
         <v>357</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D59" t="s">
         <v>358</v>
@@ -6298,31 +6298,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H59" t="n">
-        <v>6599859</v>
+        <v>6672047</v>
       </c>
       <c r="I59" t="n">
-        <v>1324.501</v>
+        <v>1338.988</v>
       </c>
       <c r="J59" t="n">
-        <v>22426</v>
+        <v>14034</v>
       </c>
       <c r="K59" t="n">
-        <v>4.501</v>
+        <v>2.816</v>
       </c>
       <c r="L59" t="n">
-        <v>19786</v>
+        <v>19405</v>
       </c>
       <c r="M59" t="n">
-        <v>3.971</v>
+        <v>3.894</v>
       </c>
       <c r="N59" t="n">
-        <v>0.094</v>
+        <v>0.091</v>
       </c>
       <c r="O59" t="n">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="P59" t="s">
         <v>359</v>
@@ -6345,7 +6345,7 @@
         <v>363</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D60" t="s">
         <v>364</v>
@@ -6355,31 +6355,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H60" t="n">
-        <v>22710194</v>
+        <v>23202730</v>
       </c>
       <c r="I60" t="n">
-        <v>2583.706</v>
+        <v>2639.741</v>
       </c>
       <c r="J60" t="n">
-        <v>147184</v>
+        <v>151772</v>
       </c>
       <c r="K60" t="n">
-        <v>16.745</v>
+        <v>17.267</v>
       </c>
       <c r="L60" t="n">
-        <v>139117</v>
+        <v>134836</v>
       </c>
       <c r="M60" t="n">
-        <v>15.827</v>
+        <v>15.34</v>
       </c>
       <c r="N60" t="n">
-        <v>0.059</v>
+        <v>0.066</v>
       </c>
       <c r="O60" t="n">
-        <v>16.9</v>
+        <v>15.1</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
@@ -6402,7 +6402,7 @@
         <v>369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D61" t="s">
         <v>370</v>
@@ -6414,31 +6414,31 @@
         <v>372</v>
       </c>
       <c r="G61" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="H61" t="n">
-        <v>32268573</v>
+        <v>32474220</v>
       </c>
       <c r="I61" t="n">
-        <v>534.536</v>
+        <v>537.942</v>
       </c>
       <c r="J61" t="n">
-        <v>54003</v>
+        <v>29376</v>
       </c>
       <c r="K61" t="n">
-        <v>0.895</v>
+        <v>0.487</v>
       </c>
       <c r="L61" t="n">
-        <v>50601</v>
+        <v>53686</v>
       </c>
       <c r="M61" t="n">
-        <v>0.838</v>
+        <v>0.889</v>
       </c>
       <c r="N61" t="n">
-        <v>0.129</v>
+        <v>0.122</v>
       </c>
       <c r="O61" t="n">
-        <v>7.8</v>
+        <v>8.2</v>
       </c>
       <c r="P61" t="s">
         <v>373</v>
@@ -6461,7 +6461,7 @@
         <v>376</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44434</v>
+        <v>44437</v>
       </c>
       <c r="D62" t="s">
         <v>370</v>
@@ -6473,31 +6473,31 @@
         <v>372</v>
       </c>
       <c r="G62" t="n">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H62" t="n">
-        <v>82836243</v>
+        <v>83618273</v>
       </c>
       <c r="I62" t="n">
-        <v>1372.2</v>
+        <v>1385.154</v>
       </c>
       <c r="J62" t="n">
-        <v>220872</v>
+        <v>223086</v>
       </c>
       <c r="K62" t="n">
-        <v>3.659</v>
+        <v>3.695</v>
       </c>
       <c r="L62" t="n">
-        <v>212042</v>
+        <v>230701</v>
       </c>
       <c r="M62" t="n">
-        <v>3.513</v>
+        <v>3.822</v>
       </c>
       <c r="N62" t="n">
-        <v>0.031</v>
+        <v>0.028</v>
       </c>
       <c r="O62" t="n">
-        <v>32.5</v>
+        <v>35.4</v>
       </c>
       <c r="P62" t="s">
         <v>373</v>
@@ -6520,7 +6520,7 @@
         <v>379</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44433</v>
+        <v>44437</v>
       </c>
       <c r="D63" t="s">
         <v>380</v>
@@ -6530,31 +6530,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H63" t="n">
-        <v>538347</v>
+        <v>546596</v>
       </c>
       <c r="I63" t="n">
-        <v>181.051</v>
+        <v>183.825</v>
       </c>
       <c r="J63" t="n">
-        <v>1723</v>
+        <v>1508</v>
       </c>
       <c r="K63" t="n">
-        <v>0.579</v>
+        <v>0.507</v>
       </c>
       <c r="L63" t="n">
-        <v>1753</v>
+        <v>1822</v>
       </c>
       <c r="M63" t="n">
-        <v>0.59</v>
+        <v>0.613</v>
       </c>
       <c r="N63" t="n">
-        <v>0.363</v>
+        <v>0.422</v>
       </c>
       <c r="O63" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="P63" t="s">
         <v>381</v>
@@ -6577,7 +6577,7 @@
         <v>385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D64" t="s">
         <v>386</v>
@@ -6587,31 +6587,31 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="H64" t="n">
-        <v>20265016</v>
+        <v>20759237</v>
       </c>
       <c r="I64" t="n">
-        <v>160.769</v>
+        <v>164.689</v>
       </c>
       <c r="J64" t="n">
-        <v>145404</v>
+        <v>156779</v>
       </c>
       <c r="K64" t="n">
-        <v>1.154</v>
+        <v>1.244</v>
       </c>
       <c r="L64" t="n">
-        <v>111820</v>
+        <v>135173</v>
       </c>
       <c r="M64" t="n">
-        <v>0.887</v>
+        <v>1.072</v>
       </c>
       <c r="N64" t="n">
-        <v>0.206</v>
+        <v>0.159</v>
       </c>
       <c r="O64" t="n">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="P64" t="s">
         <v>387</v>
@@ -6915,7 +6915,7 @@
         <v>419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D70" t="s">
         <v>420</v>
@@ -6925,20 +6925,16 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H70" t="n">
-        <v>413500</v>
+        <v>425260</v>
       </c>
       <c r="I70" t="n">
-        <v>56.035</v>
-      </c>
-      <c r="J70" t="n">
-        <v>8710</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1.18</v>
-      </c>
+        <v>57.628</v>
+      </c>
+      <c r="J70"/>
+      <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
@@ -6996,8 +6992,12 @@
       <c r="M71" t="n">
         <v>7.776</v>
       </c>
-      <c r="N71"/>
-      <c r="O71"/>
+      <c r="N71" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="O71" t="n">
+        <v>93.8</v>
+      </c>
       <c r="P71" t="s">
         <v>427</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44433</v>
+        <v>44437</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -7078,15 +7078,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>7548</v>
+        <v>6895</v>
       </c>
       <c r="K73" t="n">
-        <v>1.085</v>
+        <v>0.991</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7113,7 +7113,7 @@
         <v>442</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44433</v>
+        <v>44436</v>
       </c>
       <c r="D74" t="s">
         <v>443</v>
@@ -7123,31 +7123,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H74" t="n">
-        <v>60855</v>
+        <v>61420</v>
       </c>
       <c r="I74" t="n">
-        <v>1590.814</v>
+        <v>1605.584</v>
       </c>
       <c r="J74" t="n">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="K74" t="n">
-        <v>4.836</v>
+        <v>3.163</v>
       </c>
       <c r="L74" t="n">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="M74" t="n">
-        <v>3.764</v>
+        <v>4.261</v>
       </c>
       <c r="N74" t="n">
-        <v>0.056</v>
+        <v>0.037</v>
       </c>
       <c r="O74" t="n">
-        <v>17.9</v>
+        <v>27</v>
       </c>
       <c r="P74" t="s">
         <v>444</v>
@@ -7170,7 +7170,7 @@
         <v>448</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44434</v>
+        <v>44437</v>
       </c>
       <c r="D75" t="s">
         <v>449</v>
@@ -7180,31 +7180,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H75" t="n">
-        <v>4557655</v>
+        <v>4588314</v>
       </c>
       <c r="I75" t="n">
-        <v>1694.382</v>
+        <v>1705.78</v>
       </c>
       <c r="J75" t="n">
-        <v>14492</v>
+        <v>5495</v>
       </c>
       <c r="K75" t="n">
-        <v>5.388</v>
+        <v>2.043</v>
       </c>
       <c r="L75" t="n">
-        <v>13160</v>
+        <v>12896</v>
       </c>
       <c r="M75" t="n">
-        <v>4.892</v>
+        <v>4.794</v>
       </c>
       <c r="N75" t="n">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
       <c r="O75" t="n">
-        <v>20.8</v>
+        <v>20</v>
       </c>
       <c r="P75" t="s">
         <v>450</v>
@@ -7227,7 +7227,7 @@
         <v>453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44433</v>
+        <v>44436</v>
       </c>
       <c r="D76" t="s">
         <v>454</v>
@@ -7237,31 +7237,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H76" t="n">
-        <v>3398895</v>
+        <v>3412853</v>
       </c>
       <c r="I76" t="n">
-        <v>5354.159</v>
+        <v>5376.146</v>
       </c>
       <c r="J76" t="n">
-        <v>3954</v>
+        <v>3452</v>
       </c>
       <c r="K76" t="n">
-        <v>6.229</v>
+        <v>5.438</v>
       </c>
       <c r="L76" t="n">
-        <v>3922</v>
+        <v>3928</v>
       </c>
       <c r="M76" t="n">
-        <v>6.178</v>
+        <v>6.188</v>
       </c>
       <c r="N76" t="n">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="O76" t="n">
-        <v>60.1</v>
+        <v>51.7</v>
       </c>
       <c r="P76" t="s">
         <v>455</v>
@@ -7616,7 +7616,7 @@
         <v>495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44433</v>
+        <v>44437</v>
       </c>
       <c r="D83" t="s">
         <v>496</v>
@@ -7626,25 +7626,25 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="H83" t="n">
-        <v>9106750</v>
+        <v>9236915</v>
       </c>
       <c r="I83" t="n">
-        <v>69.911</v>
+        <v>70.91</v>
       </c>
       <c r="J83" t="n">
-        <v>15740</v>
+        <v>3161</v>
       </c>
       <c r="K83" t="n">
-        <v>0.121</v>
+        <v>0.024</v>
       </c>
       <c r="L83" t="n">
-        <v>27043</v>
+        <v>26374</v>
       </c>
       <c r="M83" t="n">
-        <v>0.208</v>
+        <v>0.202</v>
       </c>
       <c r="N83" t="n">
         <v>0.404</v>
@@ -7673,7 +7673,7 @@
         <v>501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D84" t="s">
         <v>502</v>
@@ -7683,27 +7683,27 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H84" t="n">
-        <v>1551934</v>
+        <v>1561423</v>
       </c>
       <c r="I84" t="n">
-        <v>385.667</v>
+        <v>388.025</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>6607</v>
+        <v>4666</v>
       </c>
       <c r="M84" t="n">
-        <v>1.642</v>
+        <v>1.16</v>
       </c>
       <c r="N84" t="n">
-        <v>0.061</v>
+        <v>0.075</v>
       </c>
       <c r="O84" t="n">
-        <v>16.4</v>
+        <v>13.3</v>
       </c>
       <c r="P84" t="s">
         <v>503</v>
@@ -7726,7 +7726,7 @@
         <v>506</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="D85" t="s">
         <v>507</v>
@@ -7736,16 +7736,20 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H85" t="n">
-        <v>3690466</v>
+        <v>3715089</v>
       </c>
       <c r="I85" t="n">
-        <v>1108.487</v>
-      </c>
-      <c r="J85"/>
-      <c r="K85"/>
+        <v>1115.883</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5817</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1.747</v>
+      </c>
       <c r="L85"/>
       <c r="M85"/>
       <c r="N85"/>
@@ -8109,7 +8113,7 @@
         <v>548</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="D92" t="s">
         <v>549</v>
@@ -8119,25 +8123,25 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H92" t="n">
-        <v>2891738</v>
+        <v>2984428</v>
       </c>
       <c r="I92" t="n">
-        <v>594.929</v>
+        <v>613.999</v>
       </c>
       <c r="J92" t="n">
-        <v>37021</v>
+        <v>16755</v>
       </c>
       <c r="K92" t="n">
-        <v>7.616</v>
+        <v>3.447</v>
       </c>
       <c r="L92" t="n">
-        <v>39929</v>
+        <v>30573</v>
       </c>
       <c r="M92" t="n">
-        <v>8.215</v>
+        <v>6.29</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -8162,7 +8166,7 @@
         <v>554</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44431</v>
+        <v>44437</v>
       </c>
       <c r="D93" t="s">
         <v>555</v>
@@ -8172,27 +8176,27 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H93" t="n">
-        <v>2727834</v>
+        <v>2779725</v>
       </c>
       <c r="I93" t="n">
-        <v>12.904</v>
+        <v>13.149</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>12371</v>
+        <v>9298</v>
       </c>
       <c r="M93" t="n">
-        <v>0.059</v>
+        <v>0.044</v>
       </c>
       <c r="N93" t="n">
-        <v>0.052</v>
+        <v>0.066</v>
       </c>
       <c r="O93" t="n">
-        <v>19.2</v>
+        <v>15.1</v>
       </c>
       <c r="P93" t="s">
         <v>556</v>
@@ -8215,7 +8219,7 @@
         <v>559</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D94" t="s">
         <v>560</v>
@@ -8225,27 +8229,27 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H94" t="n">
-        <v>1124382</v>
+        <v>1151716</v>
       </c>
       <c r="I94" t="n">
-        <v>539.878</v>
+        <v>553.002</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="n">
-        <v>8062</v>
+        <v>7132</v>
       </c>
       <c r="M94" t="n">
-        <v>3.871</v>
+        <v>3.424</v>
       </c>
       <c r="N94" t="n">
-        <v>0.124</v>
+        <v>0.129</v>
       </c>
       <c r="O94" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="P94" t="s">
         <v>36</v>
@@ -8268,7 +8272,7 @@
         <v>564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44433</v>
+        <v>44436</v>
       </c>
       <c r="D95" t="s">
         <v>565</v>
@@ -8278,31 +8282,31 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="H95" t="n">
-        <v>6998134</v>
+        <v>7071838</v>
       </c>
       <c r="I95" t="n">
-        <v>1280.39</v>
+        <v>1293.875</v>
       </c>
       <c r="J95" t="n">
-        <v>29702</v>
+        <v>13691</v>
       </c>
       <c r="K95" t="n">
-        <v>5.434</v>
+        <v>2.505</v>
       </c>
       <c r="L95" t="n">
-        <v>22296</v>
+        <v>25183</v>
       </c>
       <c r="M95" t="n">
-        <v>4.079</v>
+        <v>4.608</v>
       </c>
       <c r="N95" t="n">
-        <v>0.037</v>
+        <v>0.046</v>
       </c>
       <c r="O95" t="n">
-        <v>27.2</v>
+        <v>21.8</v>
       </c>
       <c r="P95" t="s">
         <v>566</v>
@@ -8370,7 +8374,7 @@
         <v>575</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
       <c r="D97" t="s">
         <v>576</v>
@@ -8380,28 +8384,32 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H97" t="n">
-        <v>17520285</v>
+        <v>17704220</v>
       </c>
       <c r="I97" t="n">
-        <v>77.799</v>
+        <v>78.616</v>
       </c>
       <c r="J97" t="n">
-        <v>61036</v>
+        <v>56279</v>
       </c>
       <c r="K97" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L97" t="n">
+        <v>61110</v>
+      </c>
+      <c r="M97" t="n">
         <v>0.271</v>
       </c>
-      <c r="L97" t="n">
-        <v>57859</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="N97"/>
-      <c r="O97"/>
+      <c r="N97" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="O97" t="n">
+        <v>15</v>
+      </c>
       <c r="P97" t="s">
         <v>577</v>
       </c>
@@ -8690,7 +8698,7 @@
         <v>608</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44433</v>
+        <v>44437</v>
       </c>
       <c r="D103" t="s">
         <v>609</v>
@@ -8700,31 +8708,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H103" t="n">
-        <v>17279168</v>
+        <v>17545425</v>
       </c>
       <c r="I103" t="n">
-        <v>155.602</v>
+        <v>158</v>
       </c>
       <c r="J103" t="n">
-        <v>67378</v>
+        <v>47332</v>
       </c>
       <c r="K103" t="n">
-        <v>0.607</v>
+        <v>0.426</v>
       </c>
       <c r="L103" t="n">
-        <v>62781</v>
+        <v>63883</v>
       </c>
       <c r="M103" t="n">
-        <v>0.565</v>
+        <v>0.575</v>
       </c>
       <c r="N103" t="n">
-        <v>0.243</v>
+        <v>0.256</v>
       </c>
       <c r="O103" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="P103" t="s">
         <v>315</v>
@@ -8861,7 +8869,7 @@
         <v>621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44433</v>
+        <v>44437</v>
       </c>
       <c r="D106" t="s">
         <v>622</v>
@@ -8871,31 +8879,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H106" t="n">
-        <v>16743692</v>
+        <v>16942769</v>
       </c>
       <c r="I106" t="n">
-        <v>1646.717</v>
+        <v>1666.296</v>
       </c>
       <c r="J106" t="n">
-        <v>50690</v>
+        <v>40182</v>
       </c>
       <c r="K106" t="n">
-        <v>4.985</v>
+        <v>3.952</v>
       </c>
       <c r="L106" t="n">
-        <v>52083</v>
+        <v>50326</v>
       </c>
       <c r="M106" t="n">
-        <v>5.122</v>
+        <v>4.949</v>
       </c>
       <c r="N106" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="O106" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="P106" t="s">
         <v>623</v>
@@ -8918,7 +8926,7 @@
         <v>626</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D107" t="s">
         <v>627</v>
@@ -8928,31 +8936,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H107" t="n">
-        <v>2475733</v>
+        <v>2497975</v>
       </c>
       <c r="I107" t="n">
-        <v>844.809</v>
+        <v>852.399</v>
       </c>
       <c r="J107" t="n">
-        <v>5762</v>
+        <v>5790</v>
       </c>
       <c r="K107" t="n">
-        <v>1.966</v>
+        <v>1.976</v>
       </c>
       <c r="L107" t="n">
-        <v>5349</v>
+        <v>5629</v>
       </c>
       <c r="M107" t="n">
-        <v>1.825</v>
+        <v>1.921</v>
       </c>
       <c r="N107" t="n">
-        <v>0.042</v>
+        <v>0.037</v>
       </c>
       <c r="O107" t="n">
-        <v>23.8</v>
+        <v>27.3</v>
       </c>
       <c r="P107" t="s">
         <v>629</v>
@@ -8975,7 +8983,7 @@
         <v>632</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="D108" t="s">
         <v>633</v>
@@ -8985,21 +8993,21 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H108" t="n">
-        <v>9041399</v>
+        <v>9092422</v>
       </c>
       <c r="I108" t="n">
-        <v>472.684</v>
+        <v>475.352</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108" t="n">
-        <v>13148</v>
+        <v>13769</v>
       </c>
       <c r="M108" t="n">
-        <v>0.687</v>
+        <v>0.72</v>
       </c>
       <c r="N108"/>
       <c r="O108"/>
@@ -9024,7 +9032,7 @@
         <v>639</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D109" t="s">
         <v>640</v>
@@ -9034,27 +9042,27 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H109" t="n">
-        <v>177197247</v>
+        <v>178771940</v>
       </c>
       <c r="I109" t="n">
-        <v>1214.412</v>
+        <v>1225.204</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>431634</v>
+        <v>406324</v>
       </c>
       <c r="M109" t="n">
-        <v>2.958</v>
+        <v>2.785</v>
       </c>
       <c r="N109" t="n">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="O109" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="P109" t="s">
         <v>641</v>
@@ -9077,7 +9085,7 @@
         <v>645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
       <c r="D110" t="s">
         <v>646</v>
@@ -9087,24 +9095,32 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H110" t="n">
-        <v>2358929</v>
+        <v>2426222</v>
       </c>
       <c r="I110" t="n">
-        <v>177.677</v>
-      </c>
-      <c r="J110"/>
-      <c r="K110"/>
+        <v>182.745</v>
+      </c>
+      <c r="J110" t="n">
+        <v>23042</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1.736</v>
+      </c>
       <c r="L110" t="n">
-        <v>12365</v>
+        <v>16041</v>
       </c>
       <c r="M110" t="n">
-        <v>0.931</v>
-      </c>
-      <c r="N110"/>
-      <c r="O110"/>
+        <v>1.208</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="O110" t="n">
+        <v>31.1</v>
+      </c>
       <c r="P110" t="s">
         <v>647</v>
       </c>
@@ -9126,7 +9142,7 @@
         <v>651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44435</v>
+        <v>44437</v>
       </c>
       <c r="D111" t="s">
         <v>652</v>
@@ -9136,24 +9152,32 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H111" t="n">
-        <v>30204</v>
+        <v>30689</v>
       </c>
       <c r="I111" t="n">
-        <v>564.076</v>
-      </c>
-      <c r="J111"/>
-      <c r="K111"/>
+        <v>573.133</v>
+      </c>
+      <c r="J111" t="n">
+        <v>251</v>
+      </c>
+      <c r="K111" t="n">
+        <v>4.688</v>
+      </c>
       <c r="L111" t="n">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="M111" t="n">
-        <v>5.061</v>
-      </c>
-      <c r="N111"/>
-      <c r="O111"/>
+        <v>4.818</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="O111" t="n">
+        <v>7.9</v>
+      </c>
       <c r="P111" t="s">
         <v>36</v>
       </c>
@@ -9175,7 +9199,7 @@
         <v>656</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44433</v>
+        <v>44438</v>
       </c>
       <c r="D112" t="s">
         <v>657</v>
@@ -9185,31 +9209,31 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H112" t="n">
-        <v>27163038</v>
+        <v>27445781</v>
       </c>
       <c r="I112" t="n">
-        <v>768.605</v>
+        <v>776.606</v>
       </c>
       <c r="J112" t="n">
-        <v>65815</v>
+        <v>61961</v>
       </c>
       <c r="K112" t="n">
-        <v>1.862</v>
+        <v>1.753</v>
       </c>
       <c r="L112" t="n">
-        <v>64914</v>
+        <v>59498</v>
       </c>
       <c r="M112" t="n">
-        <v>1.837</v>
+        <v>1.684</v>
       </c>
       <c r="N112" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="O112" t="n">
-        <v>158.6</v>
+        <v>314.6</v>
       </c>
       <c r="P112" t="s">
         <v>36</v>
@@ -9232,7 +9256,7 @@
         <v>660</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D113" t="s">
         <v>661</v>
@@ -9242,31 +9266,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H113" t="n">
-        <v>739290</v>
+        <v>750135</v>
       </c>
       <c r="I113" t="n">
-        <v>42.991</v>
+        <v>43.622</v>
       </c>
       <c r="J113" t="n">
-        <v>2241</v>
+        <v>2286</v>
       </c>
       <c r="K113" t="n">
-        <v>0.13</v>
+        <v>0.133</v>
       </c>
       <c r="L113" t="n">
-        <v>2689</v>
+        <v>2563</v>
       </c>
       <c r="M113" t="n">
-        <v>0.156</v>
+        <v>0.149</v>
       </c>
       <c r="N113" t="n">
-        <v>0.046</v>
+        <v>0.041</v>
       </c>
       <c r="O113" t="n">
-        <v>21.5</v>
+        <v>24.3</v>
       </c>
       <c r="P113" t="s">
         <v>662</v>
@@ -9289,7 +9313,7 @@
         <v>665</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D114" t="s">
         <v>666</v>
@@ -9301,31 +9325,31 @@
         <v>667</v>
       </c>
       <c r="G114" t="n">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="H114" t="n">
-        <v>4960665</v>
+        <v>5009861</v>
       </c>
       <c r="I114" t="n">
-        <v>729.017</v>
+        <v>736.247</v>
       </c>
       <c r="J114" t="n">
-        <v>14270</v>
+        <v>12740</v>
       </c>
       <c r="K114" t="n">
-        <v>2.097</v>
+        <v>1.872</v>
       </c>
       <c r="L114" t="n">
-        <v>12818</v>
+        <v>13491</v>
       </c>
       <c r="M114" t="n">
-        <v>1.884</v>
+        <v>1.983</v>
       </c>
       <c r="N114" t="n">
-        <v>0.147</v>
+        <v>0.167</v>
       </c>
       <c r="O114" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="P114" t="s">
         <v>36</v>
@@ -9348,7 +9372,7 @@
         <v>671</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44431</v>
+        <v>44438</v>
       </c>
       <c r="D115" t="s">
         <v>672</v>
@@ -9358,27 +9382,27 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H115" t="n">
-        <v>17338504</v>
+        <v>17773017</v>
       </c>
       <c r="I115" t="n">
-        <v>2940.382</v>
+        <v>3014.07</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115" t="n">
-        <v>58829</v>
+        <v>62073</v>
       </c>
       <c r="M115" t="n">
-        <v>9.977</v>
+        <v>10.527</v>
       </c>
       <c r="N115" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="O115" t="n">
-        <v>1173.2</v>
+        <v>492.1</v>
       </c>
       <c r="P115" t="s">
         <v>36</v>
@@ -9401,7 +9425,7 @@
         <v>676</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44433</v>
+        <v>44436</v>
       </c>
       <c r="D116" t="s">
         <v>677</v>
@@ -9411,31 +9435,31 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H116" t="n">
-        <v>41027308</v>
+        <v>41080691</v>
       </c>
       <c r="I116" t="n">
-        <v>7513.16</v>
+        <v>7522.936</v>
       </c>
       <c r="J116" t="n">
-        <v>13426</v>
+        <v>11454</v>
       </c>
       <c r="K116" t="n">
-        <v>2.459</v>
+        <v>2.098</v>
       </c>
       <c r="L116" t="n">
-        <v>16340</v>
+        <v>15865</v>
       </c>
       <c r="M116" t="n">
-        <v>2.992</v>
+        <v>2.905</v>
       </c>
       <c r="N116" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="O116" t="n">
-        <v>125</v>
+        <v>111.1</v>
       </c>
       <c r="P116" t="s">
         <v>36</v>
@@ -9458,7 +9482,7 @@
         <v>680</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D117" t="s">
         <v>681</v>
@@ -9468,25 +9492,25 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H117" t="n">
-        <v>1438812</v>
+        <v>1447117</v>
       </c>
       <c r="I117" t="n">
-        <v>692.161</v>
+        <v>696.157</v>
       </c>
       <c r="J117" t="n">
-        <v>2953</v>
+        <v>2916</v>
       </c>
       <c r="K117" t="n">
-        <v>1.421</v>
+        <v>1.403</v>
       </c>
       <c r="L117" t="n">
-        <v>2208</v>
+        <v>2428</v>
       </c>
       <c r="M117" t="n">
-        <v>1.062</v>
+        <v>1.168</v>
       </c>
       <c r="N117" t="n">
         <v>0.18</v>
@@ -9572,7 +9596,7 @@
         <v>691</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="D119" t="s">
         <v>692</v>
@@ -9582,25 +9606,25 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H119" t="n">
-        <v>12209316</v>
+        <v>12343477</v>
       </c>
       <c r="I119" t="n">
-        <v>237.974</v>
+        <v>240.589</v>
       </c>
       <c r="J119" t="n">
-        <v>53113</v>
+        <v>60600</v>
       </c>
       <c r="K119" t="n">
-        <v>1.035</v>
+        <v>1.181</v>
       </c>
       <c r="L119" t="n">
-        <v>43128</v>
+        <v>40939</v>
       </c>
       <c r="M119" t="n">
-        <v>0.841</v>
+        <v>0.798</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9731,7 +9755,7 @@
         <v>708</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
       <c r="D122" t="s">
         <v>709</v>
@@ -9741,28 +9765,32 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H122" t="n">
-        <v>4918701</v>
+        <v>4961916</v>
       </c>
       <c r="I122" t="n">
-        <v>228.805</v>
+        <v>230.816</v>
       </c>
       <c r="J122" t="n">
-        <v>18355</v>
+        <v>13696</v>
       </c>
       <c r="K122" t="n">
-        <v>0.854</v>
+        <v>0.637</v>
       </c>
       <c r="L122" t="n">
-        <v>17245</v>
+        <v>15738</v>
       </c>
       <c r="M122" t="n">
-        <v>0.802</v>
-      </c>
-      <c r="N122"/>
-      <c r="O122"/>
+        <v>0.732</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="O122" t="n">
+        <v>2.6</v>
+      </c>
       <c r="P122" t="s">
         <v>710</v>
       </c>
@@ -9837,7 +9865,7 @@
         <v>720</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44434</v>
+        <v>44436</v>
       </c>
       <c r="D124" t="s">
         <v>443</v>
@@ -9847,31 +9875,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H124" t="n">
-        <v>9229606</v>
+        <v>9299595</v>
       </c>
       <c r="I124" t="n">
-        <v>1058.988</v>
+        <v>1067.019</v>
       </c>
       <c r="J124" t="n">
-        <v>26009</v>
+        <v>24404</v>
       </c>
       <c r="K124" t="n">
-        <v>2.984</v>
+        <v>2.8</v>
       </c>
       <c r="L124" t="n">
-        <v>24582</v>
+        <v>26517</v>
       </c>
       <c r="M124" t="n">
-        <v>2.82</v>
+        <v>3.043</v>
       </c>
       <c r="N124" t="n">
-        <v>0.117</v>
+        <v>0.112</v>
       </c>
       <c r="O124" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="P124" t="s">
         <v>444</v>
@@ -9894,7 +9922,7 @@
         <v>723</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D125" t="s">
         <v>724</v>
@@ -9904,31 +9932,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H125" t="n">
-        <v>2596704</v>
+        <v>2677839</v>
       </c>
       <c r="I125" t="n">
-        <v>108.854</v>
+        <v>112.255</v>
       </c>
       <c r="J125" t="n">
-        <v>13498</v>
+        <v>20488</v>
       </c>
       <c r="K125" t="n">
-        <v>0.566</v>
+        <v>0.859</v>
       </c>
       <c r="L125" t="n">
-        <v>19397</v>
+        <v>20152</v>
       </c>
       <c r="M125" t="n">
-        <v>0.813</v>
+        <v>0.845</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>2715.5</v>
+        <v>2390.8</v>
       </c>
       <c r="P125" t="s">
         <v>725</v>
@@ -9951,7 +9979,7 @@
         <v>728</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44429</v>
+        <v>44436</v>
       </c>
       <c r="D126" t="s">
         <v>729</v>
@@ -9961,28 +9989,32 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="H126" t="n">
-        <v>11830518</v>
+        <v>12206117</v>
       </c>
       <c r="I126" t="n">
-        <v>169.126</v>
+        <v>174.496</v>
       </c>
       <c r="J126" t="n">
-        <v>46129</v>
+        <v>42463</v>
       </c>
       <c r="K126" t="n">
-        <v>0.659</v>
+        <v>0.607</v>
       </c>
       <c r="L126" t="n">
-        <v>59982</v>
+        <v>53657</v>
       </c>
       <c r="M126" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="N126"/>
-      <c r="O126"/>
+        <v>0.767</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="O126" t="n">
+        <v>3</v>
+      </c>
       <c r="P126" t="s">
         <v>731</v>
       </c>
@@ -10004,7 +10036,7 @@
         <v>735</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44433</v>
+        <v>44439</v>
       </c>
       <c r="D127" t="s">
         <v>736</v>
@@ -10014,28 +10046,24 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H127" t="n">
-        <v>177411</v>
+        <v>184871</v>
       </c>
       <c r="I127" t="n">
-        <v>132.015</v>
+        <v>137.566</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
       <c r="L127" t="n">
-        <v>782</v>
+        <v>1224</v>
       </c>
       <c r="M127" t="n">
-        <v>0.582</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.391</v>
-      </c>
-      <c r="O127" t="n">
-        <v>2.6</v>
-      </c>
+        <v>0.911</v>
+      </c>
+      <c r="N127"/>
+      <c r="O127"/>
       <c r="P127" t="s">
         <v>36</v>
       </c>
@@ -10169,7 +10197,7 @@
         <v>751</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D130" t="s">
         <v>752</v>
@@ -10179,31 +10207,31 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H130" t="n">
-        <v>2514986</v>
+        <v>2591577</v>
       </c>
       <c r="I130" t="n">
-        <v>210.71</v>
+        <v>217.127</v>
       </c>
       <c r="J130" t="n">
-        <v>14970</v>
+        <v>20127</v>
       </c>
       <c r="K130" t="n">
-        <v>1.254</v>
+        <v>1.686</v>
       </c>
       <c r="L130" t="n">
-        <v>12339</v>
+        <v>17408</v>
       </c>
       <c r="M130" t="n">
-        <v>1.034</v>
+        <v>1.458</v>
       </c>
       <c r="N130" t="n">
-        <v>0.217</v>
+        <v>0.164</v>
       </c>
       <c r="O130" t="n">
-        <v>4.6</v>
+        <v>6.1</v>
       </c>
       <c r="P130" t="s">
         <v>754</v>
@@ -10226,7 +10254,7 @@
         <v>758</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D131" t="s">
         <v>759</v>
@@ -10236,31 +10264,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H131" t="n">
-        <v>74944500</v>
+        <v>76100008</v>
       </c>
       <c r="I131" t="n">
-        <v>881.257</v>
+        <v>894.844</v>
       </c>
       <c r="J131" t="n">
-        <v>297068</v>
+        <v>283250</v>
       </c>
       <c r="K131" t="n">
-        <v>3.493</v>
+        <v>3.331</v>
       </c>
       <c r="L131" t="n">
-        <v>287236</v>
+        <v>291761</v>
       </c>
       <c r="M131" t="n">
-        <v>3.378</v>
+        <v>3.431</v>
       </c>
       <c r="N131" t="n">
-        <v>0.067</v>
+        <v>0.065</v>
       </c>
       <c r="O131" t="n">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="P131" t="s">
         <v>760</v>
@@ -10340,7 +10368,7 @@
         <v>770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="D133" t="s">
         <v>771</v>
@@ -10350,25 +10378,25 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H133" t="n">
-        <v>11903521</v>
+        <v>11980323</v>
       </c>
       <c r="I133" t="n">
-        <v>273.853</v>
+        <v>275.62</v>
       </c>
       <c r="J133" t="n">
-        <v>23049</v>
+        <v>21358</v>
       </c>
       <c r="K133" t="n">
-        <v>0.53</v>
+        <v>0.491</v>
       </c>
       <c r="L133" t="n">
-        <v>18599</v>
+        <v>19717</v>
       </c>
       <c r="M133" t="n">
-        <v>0.428</v>
+        <v>0.454</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
@@ -10393,7 +10421,7 @@
         <v>776</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="D134" t="s">
         <v>777</v>
@@ -10403,25 +10431,25 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H134" t="n">
-        <v>73467662</v>
+        <v>74776361</v>
       </c>
       <c r="I134" t="n">
-        <v>7353.323</v>
+        <v>7484.31</v>
       </c>
       <c r="J134" t="n">
-        <v>300828</v>
+        <v>329146</v>
       </c>
       <c r="K134" t="n">
-        <v>30.11</v>
+        <v>32.944</v>
       </c>
       <c r="L134" t="n">
-        <v>309829</v>
+        <v>321605</v>
       </c>
       <c r="M134" t="n">
-        <v>31.011</v>
+        <v>32.189</v>
       </c>
       <c r="N134"/>
       <c r="O134"/>
@@ -10446,7 +10474,7 @@
         <v>781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="D135" t="s">
         <v>782</v>
@@ -10458,31 +10486,31 @@
         <v>784</v>
       </c>
       <c r="G135" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H135" t="n">
-        <v>239081395</v>
+        <v>240055533</v>
       </c>
       <c r="I135" t="n">
-        <v>3505.227</v>
+        <v>3519.509</v>
       </c>
       <c r="J135" t="n">
-        <v>912027</v>
+        <v>974138</v>
       </c>
       <c r="K135" t="n">
-        <v>13.371</v>
+        <v>14.282</v>
       </c>
       <c r="L135" t="n">
-        <v>753062</v>
+        <v>772420</v>
       </c>
       <c r="M135" t="n">
-        <v>11.041</v>
+        <v>11.325</v>
       </c>
       <c r="N135" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="O135" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="P135" t="s">
         <v>785</v>
@@ -10505,7 +10533,7 @@
         <v>789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44431</v>
+        <v>44434</v>
       </c>
       <c r="D136" t="s">
         <v>790</v>
@@ -10515,31 +10543,31 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="H136" t="n">
-        <v>518104887</v>
+        <v>523153338</v>
       </c>
       <c r="I136" t="n">
-        <v>1556.267</v>
+        <v>1571.432</v>
       </c>
       <c r="J136" t="n">
-        <v>361423</v>
+        <v>909779</v>
       </c>
       <c r="K136" t="n">
-        <v>1.086</v>
+        <v>2.733</v>
       </c>
       <c r="L136" t="n">
-        <v>1088567</v>
+        <v>1104795</v>
       </c>
       <c r="M136" t="n">
-        <v>3.27</v>
+        <v>3.319</v>
       </c>
       <c r="N136" t="n">
-        <v>0.138</v>
+        <v>0.141</v>
       </c>
       <c r="O136" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="P136" t="s">
         <v>791</v>
@@ -10562,7 +10590,7 @@
         <v>796</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
       <c r="D137" t="s">
         <v>797</v>
@@ -10572,24 +10600,28 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H137" t="n">
-        <v>3298839</v>
+        <v>3315862</v>
       </c>
       <c r="I137" t="n">
-        <v>946.541</v>
+        <v>951.425</v>
       </c>
       <c r="J137"/>
       <c r="K137"/>
       <c r="L137" t="n">
-        <v>7449</v>
+        <v>5537</v>
       </c>
       <c r="M137" t="n">
-        <v>2.137</v>
-      </c>
-      <c r="N137"/>
-      <c r="O137"/>
+        <v>1.589</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="O137" t="n">
+        <v>64.9</v>
+      </c>
       <c r="P137" t="s">
         <v>191</v>
       </c>
@@ -10668,7 +10700,7 @@
         <v>808</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44429</v>
+        <v>44436</v>
       </c>
       <c r="D139" t="s">
         <v>809</v>
@@ -10678,31 +10710,31 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="H139" t="n">
-        <v>2216799</v>
+        <v>2258787</v>
       </c>
       <c r="I139" t="n">
-        <v>117.163</v>
+        <v>119.382</v>
       </c>
       <c r="J139" t="n">
-        <v>7086</v>
+        <v>6292</v>
       </c>
       <c r="K139" t="n">
-        <v>0.375</v>
+        <v>0.333</v>
       </c>
       <c r="L139" t="n">
-        <v>6098</v>
+        <v>5998</v>
       </c>
       <c r="M139" t="n">
-        <v>0.322</v>
+        <v>0.317</v>
       </c>
       <c r="N139" t="n">
-        <v>0.053</v>
+        <v>0.037</v>
       </c>
       <c r="O139" t="n">
-        <v>18.9</v>
+        <v>27</v>
       </c>
       <c r="P139" t="s">
         <v>811</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4238</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4259</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/08/coronavirus-covid-19-at-a-glance-30-august-2021_0.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-2-september-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1405-new-cases-1487-recoveries_i_0000133907.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1836-new-cases-1784-recoveries_i_0000134095.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5956-salud-en-su-reporte-528-informa-que-hasta-la-fecha-se-aplicaron-5-574-927-vacunas-y-856-pacientes-fueron-dados-de-alta</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5982-el-ministerio-de-salud-informa-que-se-inmunizo-hasta-hoy-a-6-057-656-personas-con-primeras-y-segundas-dosis</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-30-de-agosto-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-02-de-setembro-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -601,7 +601,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1985146321651052</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1989954931170191</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -715,7 +715,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-30082021-mu6l</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-02092021-jx25</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -733,7 +733,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/08/Boletin-COVID-19-no.528.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/09/Boletin-COVID-19-no.531.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/08/covid-25.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/09/01-09-2021-MSP_ecu_cvd19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">Gambia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/08/GMB-COVID-19-Situational-Report_2021_21st_23rd_August_No-360.pdf</t>
+    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/09/GMB-COVID-19-Situational-Report_2021_29th_August_No-363.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, The Gambia</t>
@@ -951,7 +951,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/2432</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/2476</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/08/covid-gr-daily-report-20210826.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/09/covid-gr-daily-report-20210901.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1168,7 +1168,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/369138</t>
+    <t xml:space="preserve">http://irangov.ir/detail/369222</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1188,7 +1188,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1430879998387359748</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1433423752306458628</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1291,7 +1291,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-august-29-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-september-1-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1430960760189071362</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1433505057744510984</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1545,7 +1545,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4431504933580723/4431496296914920/</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4446927785371771/4446920208705862/</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1609,7 +1609,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1430937855606591500</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1433474569747111949</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1630,7 +1630,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/406376767747539/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/410841803967702/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1430936831462453252</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1433465389887918080</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1740,7 +1740,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1114:boletim-diario-covid-19-n-519</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1130:boletim-diario-covid-19-n-533</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1761,7 +1761,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FAug_2021%20(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(26-8-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FSep_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(2-9-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.804663896873282/804663740206631</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.808906266449045/808906129782392</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1803,7 +1803,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/12e7FrknRFrstaHcOi-ukZNClPMzX3ZYV</t>
+    <t xml:space="preserve">https://drive.google.com/file/d/1gy9U6RinDY9t8PlJUM709GNa9YNTsGnb/view?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1824,7 +1824,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-08/COVID-19_WebSite_rapport_wekelijks_20210824_1215_final.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-08/COVID-19_WebSite_rapport_wekelijks_20210831_1259_correct.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1956,7 +1956,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4100698613389319</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4122288237897023</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1978,7 +1978,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1431029241429299204</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1433268640971886595</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1431065725398048768</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1433231446328627203</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2049,7 +2049,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1wCYWiHYn9Be_IVQ608NdlzZPDX4LdYmf</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1EjsUxqE8udmCJgDsJfHd9oMB8QTFpZZP</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2070,7 +2070,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1430813516634542085</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1433350231777812480</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2133,7 +2133,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_31_august_2021,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/2-09_BULETIN_DE_PRESA_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18823</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18857</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2313,7 +2313,7 @@
     <t xml:space="preserve">South Africa - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://sacoronavirus.co.za/2021/08/26/update-on-covid-19-thursday-26-august-2021/</t>
+    <t xml:space="preserve">https://sacoronavirus.co.za/2021/09/01/update-on-covid-19-wednesday-01-september/</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Communicable Diseases (NICD)</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_19_08_2021.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_26_08_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-828/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-833/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2581,7 +2581,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1430817081117876225</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1433368091380101123</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2710,7 +2710,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1263-bc-byt-2021-ve-tinh-hinh-dich-covid-19-va-ket-qua-phong-chong-dich-208280-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/cong-van-1301-bc-byt-bo-y-te-208642-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam Ministry of Health</t>
@@ -2756,7 +2756,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1429176031592734726</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1433210206947774464</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3232,7 +3232,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44431</v>
+        <v>44437</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3242,27 +3242,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" t="n">
-        <v>208619</v>
+        <v>209623</v>
       </c>
       <c r="I3" t="n">
-        <v>2696.939</v>
+        <v>2709.918</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M3" t="n">
-        <v>2.172</v>
+        <v>2.159</v>
       </c>
       <c r="N3" t="n">
-        <v>0.041</v>
+        <v>0.032</v>
       </c>
       <c r="O3" t="n">
-        <v>24.5</v>
+        <v>31.6</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3330,7 +3330,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44433</v>
+        <v>44436</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3340,31 +3340,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H5" t="n">
-        <v>13143085</v>
+        <v>13261005</v>
       </c>
       <c r="I5" t="n">
-        <v>288.189</v>
+        <v>290.774</v>
       </c>
       <c r="J5" t="n">
-        <v>38301</v>
+        <v>29114</v>
       </c>
       <c r="K5" t="n">
-        <v>0.84</v>
+        <v>0.638</v>
       </c>
       <c r="L5" t="n">
-        <v>34443</v>
+        <v>34503</v>
       </c>
       <c r="M5" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="N5" t="n">
-        <v>0.062</v>
+        <v>0.051</v>
       </c>
       <c r="O5" t="n">
-        <v>16.1</v>
+        <v>19.6</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3387,7 +3387,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44434</v>
+        <v>44441</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3397,31 +3397,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H6" t="n">
-        <v>1511103</v>
+        <v>1554292</v>
       </c>
       <c r="I6" t="n">
-        <v>509.11</v>
+        <v>523.661</v>
       </c>
       <c r="J6" t="n">
-        <v>6918</v>
+        <v>6394</v>
       </c>
       <c r="K6" t="n">
-        <v>2.331</v>
+        <v>2.154</v>
       </c>
       <c r="L6" t="n">
-        <v>7091</v>
+        <v>6170</v>
       </c>
       <c r="M6" t="n">
-        <v>2.389</v>
+        <v>2.079</v>
       </c>
       <c r="N6" t="n">
-        <v>0.071</v>
+        <v>0.084</v>
       </c>
       <c r="O6" t="n">
-        <v>14.2</v>
+        <v>11.8</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3444,7 +3444,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3454,31 +3454,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H7" t="n">
-        <v>31350695</v>
+        <v>32024250</v>
       </c>
       <c r="I7" t="n">
-        <v>1215.698</v>
+        <v>1241.817</v>
       </c>
       <c r="J7" t="n">
-        <v>227561</v>
+        <v>203243</v>
       </c>
       <c r="K7" t="n">
-        <v>8.824</v>
+        <v>7.881</v>
       </c>
       <c r="L7" t="n">
-        <v>226807</v>
+        <v>211774</v>
       </c>
       <c r="M7" t="n">
-        <v>8.795</v>
+        <v>8.212</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="O7" t="n">
-        <v>195.7</v>
+        <v>157.8</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3501,7 +3501,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3511,31 +3511,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H8" t="n">
-        <v>76013008</v>
+        <v>76859312</v>
       </c>
       <c r="I8" t="n">
-        <v>8405.662</v>
+        <v>8499.248</v>
       </c>
       <c r="J8" t="n">
-        <v>332283</v>
+        <v>283464</v>
       </c>
       <c r="K8" t="n">
-        <v>36.744</v>
+        <v>31.346</v>
       </c>
       <c r="L8" t="n">
-        <v>311482</v>
+        <v>311885</v>
       </c>
       <c r="M8" t="n">
-        <v>34.444</v>
+        <v>34.489</v>
       </c>
       <c r="N8" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="O8" t="n">
-        <v>231.2</v>
+        <v>218.9</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3558,7 +3558,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3568,31 +3568,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H9" t="n">
-        <v>4442244</v>
+        <v>4498717</v>
       </c>
       <c r="I9" t="n">
-        <v>434.52</v>
+        <v>440.044</v>
       </c>
       <c r="J9" t="n">
-        <v>11191</v>
+        <v>17678</v>
       </c>
       <c r="K9" t="n">
-        <v>1.095</v>
+        <v>1.729</v>
       </c>
       <c r="L9" t="n">
-        <v>17486</v>
+        <v>17030</v>
       </c>
       <c r="M9" t="n">
-        <v>1.71</v>
+        <v>1.666</v>
       </c>
       <c r="N9" t="n">
-        <v>0.218</v>
+        <v>0.226</v>
       </c>
       <c r="O9" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3615,7 +3615,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3625,31 +3625,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H10" t="n">
-        <v>5916779</v>
+        <v>5967724</v>
       </c>
       <c r="I10" t="n">
-        <v>3384.314</v>
+        <v>3413.454</v>
       </c>
       <c r="J10" t="n">
-        <v>15853</v>
+        <v>16287</v>
       </c>
       <c r="K10" t="n">
-        <v>9.068</v>
+        <v>9.316</v>
       </c>
       <c r="L10" t="n">
-        <v>19339</v>
+        <v>16733</v>
       </c>
       <c r="M10" t="n">
-        <v>11.062</v>
+        <v>9.571</v>
       </c>
       <c r="N10" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="O10" t="n">
-        <v>183.4</v>
+        <v>175.6</v>
       </c>
       <c r="P10" t="s">
         <v>70</v>
@@ -3672,7 +3672,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3682,31 +3682,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H11" t="n">
-        <v>8885667</v>
+        <v>8977083</v>
       </c>
       <c r="I11" t="n">
-        <v>53.43</v>
+        <v>53.98</v>
       </c>
       <c r="J11" t="n">
-        <v>27921</v>
+        <v>33025</v>
       </c>
       <c r="K11" t="n">
-        <v>0.168</v>
+        <v>0.199</v>
       </c>
       <c r="L11" t="n">
-        <v>31077</v>
+        <v>29500</v>
       </c>
       <c r="M11" t="n">
-        <v>0.187</v>
+        <v>0.177</v>
       </c>
       <c r="N11" t="n">
-        <v>0.136</v>
+        <v>0.119</v>
       </c>
       <c r="O11" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3729,7 +3729,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3739,27 +3739,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H12" t="n">
-        <v>7777175</v>
+        <v>7839164</v>
       </c>
       <c r="I12" t="n">
-        <v>823.603</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12"/>
+        <v>830.168</v>
+      </c>
+      <c r="J12" t="n">
+        <v>21522</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.279</v>
+      </c>
       <c r="L12" t="n">
-        <v>16649</v>
+        <v>17003</v>
       </c>
       <c r="M12" t="n">
-        <v>1.763</v>
+        <v>1.801</v>
       </c>
       <c r="N12" t="n">
-        <v>0.083</v>
+        <v>0.09</v>
       </c>
       <c r="O12" t="n">
-        <v>12</v>
+        <v>11.2</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3782,7 +3786,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3792,25 +3796,25 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H13" t="n">
-        <v>18646220</v>
+        <v>18778557</v>
       </c>
       <c r="I13" t="n">
-        <v>1602.965</v>
+        <v>1614.341</v>
       </c>
       <c r="J13" t="n">
-        <v>20959</v>
+        <v>39131</v>
       </c>
       <c r="K13" t="n">
-        <v>1.802</v>
+        <v>3.364</v>
       </c>
       <c r="L13" t="n">
-        <v>40803</v>
+        <v>41157</v>
       </c>
       <c r="M13" t="n">
-        <v>3.508</v>
+        <v>3.538</v>
       </c>
       <c r="N13" t="n">
         <v>0.054</v>
@@ -3990,7 +3994,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -4000,31 +4004,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="H17" t="n">
-        <v>2253463</v>
+        <v>2295783</v>
       </c>
       <c r="I17" t="n">
-        <v>190.44</v>
+        <v>194.016</v>
       </c>
       <c r="J17" t="n">
-        <v>8598</v>
+        <v>7003</v>
       </c>
       <c r="K17" t="n">
-        <v>0.727</v>
+        <v>0.592</v>
       </c>
       <c r="L17" t="n">
-        <v>6605</v>
+        <v>6046</v>
       </c>
       <c r="M17" t="n">
-        <v>0.558</v>
+        <v>0.511</v>
       </c>
       <c r="N17" t="n">
-        <v>0.086</v>
+        <v>0.069</v>
       </c>
       <c r="O17" t="n">
-        <v>11.7</v>
+        <v>14.4</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4047,7 +4051,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4057,27 +4061,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H18" t="n">
-        <v>1138215</v>
+        <v>1146897</v>
       </c>
       <c r="I18" t="n">
-        <v>348.776</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18"/>
+        <v>351.436</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2327</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.713</v>
+      </c>
       <c r="L18" t="n">
-        <v>145494</v>
+        <v>2524</v>
       </c>
       <c r="M18" t="n">
-        <v>44.583</v>
+        <v>0.773</v>
       </c>
       <c r="N18" t="n">
-        <v>0.003</v>
+        <v>0.205</v>
       </c>
       <c r="O18" t="n">
-        <v>293.5</v>
+        <v>4.9</v>
       </c>
       <c r="P18" t="s">
         <v>118</v>
@@ -4145,7 +4153,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4155,27 +4163,27 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H20" t="n">
-        <v>4199250</v>
+        <v>4276501</v>
       </c>
       <c r="I20" t="n">
-        <v>608.882</v>
+        <v>620.083</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>22127</v>
+        <v>23196</v>
       </c>
       <c r="M20" t="n">
-        <v>3.208</v>
+        <v>3.363</v>
       </c>
       <c r="N20" t="n">
-        <v>0.068</v>
+        <v>0.065</v>
       </c>
       <c r="O20" t="n">
-        <v>14.7</v>
+        <v>15.3</v>
       </c>
       <c r="P20" t="s">
         <v>130</v>
@@ -4312,7 +4320,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D23" t="s">
         <v>140</v>
@@ -4322,31 +4330,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H23" t="n">
-        <v>40476190</v>
+        <v>40693199</v>
       </c>
       <c r="I23" t="n">
-        <v>1063.263</v>
+        <v>1068.963</v>
       </c>
       <c r="J23" t="n">
-        <v>70390</v>
+        <v>87567</v>
       </c>
       <c r="K23" t="n">
-        <v>1.849</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>77660</v>
+        <v>77516</v>
       </c>
       <c r="M23" t="n">
-        <v>2.04</v>
+        <v>2.036</v>
       </c>
       <c r="N23" t="n">
-        <v>0.042</v>
+        <v>0.045</v>
       </c>
       <c r="O23" t="n">
-        <v>23.9</v>
+        <v>22.2</v>
       </c>
       <c r="P23" t="s">
         <v>141</v>
@@ -4369,7 +4377,7 @@
         <v>147</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="D24" t="s">
         <v>148</v>
@@ -4379,15 +4387,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>1292</v>
+        <v>1461</v>
       </c>
       <c r="K24" t="n">
-        <v>2.299</v>
+        <v>2.6</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4414,7 +4422,7 @@
         <v>153</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D25" t="s">
         <v>154</v>
@@ -4424,31 +4432,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H25" t="n">
-        <v>20009412</v>
+        <v>20141795</v>
       </c>
       <c r="I25" t="n">
-        <v>1041.486</v>
+        <v>1048.377</v>
       </c>
       <c r="J25" t="n">
-        <v>48875</v>
+        <v>64301</v>
       </c>
       <c r="K25" t="n">
-        <v>2.544</v>
+        <v>3.347</v>
       </c>
       <c r="L25" t="n">
-        <v>50692</v>
+        <v>50859</v>
       </c>
       <c r="M25" t="n">
-        <v>2.639</v>
+        <v>2.647</v>
       </c>
       <c r="N25" t="n">
         <v>0.011</v>
       </c>
       <c r="O25" t="n">
-        <v>90.2</v>
+        <v>95.2</v>
       </c>
       <c r="P25" t="s">
         <v>156</v>
@@ -4516,7 +4524,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D27" t="s">
         <v>167</v>
@@ -4526,31 +4534,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H27" t="n">
-        <v>24066701</v>
+        <v>24213647</v>
       </c>
       <c r="I27" t="n">
-        <v>469.449</v>
+        <v>472.315</v>
       </c>
       <c r="J27" t="n">
-        <v>28892</v>
+        <v>51175</v>
       </c>
       <c r="K27" t="n">
-        <v>0.564</v>
+        <v>0.998</v>
       </c>
       <c r="L27" t="n">
-        <v>47553</v>
+        <v>47409</v>
       </c>
       <c r="M27" t="n">
-        <v>0.928</v>
+        <v>0.925</v>
       </c>
       <c r="N27" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
       <c r="O27" t="n">
-        <v>17.9</v>
+        <v>19.2</v>
       </c>
       <c r="P27" t="s">
         <v>168</v>
@@ -4573,7 +4581,7 @@
         <v>172</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
@@ -4583,31 +4591,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H28" t="n">
-        <v>1652911</v>
+        <v>1688911</v>
       </c>
       <c r="I28" t="n">
-        <v>321.637</v>
+        <v>328.642</v>
       </c>
       <c r="J28" t="n">
-        <v>2213</v>
+        <v>4519</v>
       </c>
       <c r="K28" t="n">
-        <v>0.431</v>
+        <v>0.879</v>
       </c>
       <c r="L28" t="n">
-        <v>5883</v>
+        <v>8090</v>
       </c>
       <c r="M28" t="n">
-        <v>1.145</v>
+        <v>1.574</v>
       </c>
       <c r="N28" t="n">
-        <v>0.3</v>
+        <v>0.227</v>
       </c>
       <c r="O28" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="P28" t="s">
         <v>174</v>
@@ -4630,7 +4638,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44434</v>
+        <v>44440</v>
       </c>
       <c r="D29" t="s">
         <v>178</v>
@@ -4640,31 +4648,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="H29" t="n">
-        <v>880168</v>
+        <v>905599</v>
       </c>
       <c r="I29" t="n">
-        <v>32.534</v>
+        <v>33.474</v>
       </c>
       <c r="J29" t="n">
-        <v>4628</v>
+        <v>3976</v>
       </c>
       <c r="K29" t="n">
-        <v>0.171</v>
+        <v>0.147</v>
       </c>
       <c r="L29" t="n">
-        <v>4001</v>
+        <v>4294</v>
       </c>
       <c r="M29" t="n">
-        <v>0.148</v>
+        <v>0.159</v>
       </c>
       <c r="N29" t="n">
-        <v>0.049</v>
+        <v>0.07</v>
       </c>
       <c r="O29" t="n">
-        <v>20.5</v>
+        <v>14.2</v>
       </c>
       <c r="P29" t="s">
         <v>179</v>
@@ -4687,7 +4695,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44439</v>
+        <v>44442</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4697,25 +4705,21 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H30" t="n">
-        <v>2543996</v>
+        <v>2573737</v>
       </c>
       <c r="I30" t="n">
-        <v>623.275</v>
-      </c>
-      <c r="J30" t="n">
-        <v>9610</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.354</v>
-      </c>
+        <v>630.562</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
       <c r="L30" t="n">
-        <v>9079</v>
+        <v>8983</v>
       </c>
       <c r="M30" t="n">
-        <v>2.224</v>
+        <v>2.201</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -4799,7 +4803,7 @@
         <v>196</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D32" t="s">
         <v>197</v>
@@ -4809,31 +4813,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H32" t="n">
-        <v>11600398</v>
+        <v>11748417</v>
       </c>
       <c r="I32" t="n">
-        <v>13063.438</v>
+        <v>13230.125</v>
       </c>
       <c r="J32" t="n">
-        <v>53577</v>
+        <v>52758</v>
       </c>
       <c r="K32" t="n">
-        <v>60.334</v>
+        <v>59.412</v>
       </c>
       <c r="L32" t="n">
-        <v>43318</v>
+        <v>44833</v>
       </c>
       <c r="M32" t="n">
-        <v>48.781</v>
+        <v>50.487</v>
       </c>
       <c r="N32" t="n">
         <v>0.006</v>
       </c>
       <c r="O32" t="n">
-        <v>157.8</v>
+        <v>171.1</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4856,7 +4860,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D33" t="s">
         <v>201</v>
@@ -4866,27 +4870,27 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>73367</v>
+        <v>99654</v>
       </c>
       <c r="K33" t="n">
-        <v>6.841</v>
+        <v>9.292</v>
       </c>
       <c r="L33" t="n">
-        <v>75090</v>
+        <v>82542</v>
       </c>
       <c r="M33" t="n">
-        <v>7.002</v>
+        <v>7.697</v>
       </c>
       <c r="N33" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="O33" t="n">
-        <v>1000</v>
+        <v>333.3</v>
       </c>
       <c r="P33" t="s">
         <v>36</v>
@@ -4962,7 +4966,7 @@
         <v>210</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -4972,31 +4976,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H35" t="n">
-        <v>39745289</v>
+        <v>39900648</v>
       </c>
       <c r="I35" t="n">
-        <v>6836.956</v>
+        <v>6863.681</v>
       </c>
       <c r="J35" t="n">
-        <v>36962</v>
+        <v>64847</v>
       </c>
       <c r="K35" t="n">
-        <v>6.358</v>
+        <v>11.155</v>
       </c>
       <c r="L35" t="n">
-        <v>69040</v>
+        <v>69379</v>
       </c>
       <c r="M35" t="n">
-        <v>11.876</v>
+        <v>11.935</v>
       </c>
       <c r="N35" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="O35" t="n">
-        <v>72.5</v>
+        <v>79.1</v>
       </c>
       <c r="P35" t="s">
         <v>212</v>
@@ -5019,7 +5023,7 @@
         <v>216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44436</v>
+        <v>44439</v>
       </c>
       <c r="D36" t="s">
         <v>217</v>
@@ -5029,27 +5033,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H36" t="n">
-        <v>1950593</v>
+        <v>1958308</v>
       </c>
       <c r="I36" t="n">
-        <v>178.076</v>
+        <v>178.78</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>3115</v>
+        <v>2861</v>
       </c>
       <c r="M36" t="n">
-        <v>0.284</v>
+        <v>0.261</v>
       </c>
       <c r="N36" t="n">
-        <v>0.091</v>
+        <v>0.096</v>
       </c>
       <c r="O36" t="n">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="P36" t="s">
         <v>218</v>
@@ -5072,7 +5076,7 @@
         <v>222</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="D37" t="s">
         <v>223</v>
@@ -5084,31 +5088,31 @@
         <v>225</v>
       </c>
       <c r="G37" t="n">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="H37" t="n">
-        <v>1662510</v>
+        <v>1679015</v>
       </c>
       <c r="I37" t="n">
-        <v>92.937</v>
+        <v>93.86</v>
       </c>
       <c r="J37" t="n">
-        <v>2897</v>
+        <v>3273</v>
       </c>
       <c r="K37" t="n">
-        <v>0.162</v>
+        <v>0.183</v>
       </c>
       <c r="L37" t="n">
-        <v>2514</v>
+        <v>2358</v>
       </c>
       <c r="M37" t="n">
-        <v>0.141</v>
+        <v>0.132</v>
       </c>
       <c r="N37" t="n">
-        <v>0.333</v>
+        <v>0.095</v>
       </c>
       <c r="O37" t="n">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="P37" t="s">
         <v>226</v>
@@ -5188,7 +5192,7 @@
         <v>236</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="D39" t="s">
         <v>237</v>
@@ -5198,27 +5202,27 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H39" t="n">
-        <v>195087</v>
+        <v>196464</v>
       </c>
       <c r="I39" t="n">
-        <v>134.553</v>
+        <v>135.503</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39" t="n">
-        <v>649</v>
+        <v>554</v>
       </c>
       <c r="M39" t="n">
-        <v>0.448</v>
+        <v>0.382</v>
       </c>
       <c r="N39" t="n">
-        <v>0.061</v>
+        <v>0.078</v>
       </c>
       <c r="O39" t="n">
-        <v>16.4</v>
+        <v>12.8</v>
       </c>
       <c r="P39" t="s">
         <v>239</v>
@@ -5241,7 +5245,7 @@
         <v>242</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D40" t="s">
         <v>243</v>
@@ -5251,31 +5255,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H40" t="n">
-        <v>1759902</v>
+        <v>1774420</v>
       </c>
       <c r="I40" t="n">
-        <v>1328.039</v>
+        <v>1338.995</v>
       </c>
       <c r="J40" t="n">
-        <v>5375</v>
+        <v>5065</v>
       </c>
       <c r="K40" t="n">
-        <v>4.056</v>
+        <v>3.822</v>
       </c>
       <c r="L40" t="n">
-        <v>4545</v>
+        <v>4531</v>
       </c>
       <c r="M40" t="n">
-        <v>3.43</v>
+        <v>3.419</v>
       </c>
       <c r="N40" t="n">
-        <v>0.078</v>
+        <v>0.079</v>
       </c>
       <c r="O40" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="P40" t="s">
         <v>244</v>
@@ -5298,7 +5302,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44438</v>
+        <v>44440</v>
       </c>
       <c r="D41" t="s">
         <v>248</v>
@@ -5308,31 +5312,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H41" t="n">
-        <v>3230986</v>
+        <v>3246694</v>
       </c>
       <c r="I41" t="n">
-        <v>27.41</v>
+        <v>27.543</v>
       </c>
       <c r="J41" t="n">
-        <v>5345</v>
+        <v>7278</v>
       </c>
       <c r="K41" t="n">
-        <v>0.045</v>
+        <v>0.062</v>
       </c>
       <c r="L41" t="n">
-        <v>8654</v>
+        <v>8078</v>
       </c>
       <c r="M41" t="n">
-        <v>0.073</v>
+        <v>0.069</v>
       </c>
       <c r="N41" t="n">
-        <v>0.166</v>
+        <v>0.164</v>
       </c>
       <c r="O41" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="P41" t="s">
         <v>249</v>
@@ -5412,7 +5416,7 @@
         <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="D43" t="s">
         <v>258</v>
@@ -5422,31 +5426,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H43" t="n">
-        <v>6565392</v>
+        <v>6653060</v>
       </c>
       <c r="I43" t="n">
-        <v>1183.303</v>
+        <v>1199.104</v>
       </c>
       <c r="J43" t="n">
-        <v>15020</v>
+        <v>27685</v>
       </c>
       <c r="K43" t="n">
-        <v>2.707</v>
+        <v>4.99</v>
       </c>
       <c r="L43" t="n">
-        <v>22815</v>
+        <v>23696</v>
       </c>
       <c r="M43" t="n">
-        <v>4.112</v>
+        <v>4.271</v>
       </c>
       <c r="N43" t="n">
         <v>0.025</v>
       </c>
       <c r="O43" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5469,7 +5473,7 @@
         <v>263</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44435</v>
+        <v>44438</v>
       </c>
       <c r="D44" t="s">
         <v>264</v>
@@ -5479,19 +5483,27 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
+      <c r="J44" t="n">
+        <v>821976</v>
+      </c>
+      <c r="K44" t="n">
+        <v>12.166</v>
+      </c>
+      <c r="L44" t="n">
+        <v>694131</v>
+      </c>
+      <c r="M44" t="n">
+        <v>10.274</v>
+      </c>
       <c r="N44" t="n">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="O44" t="n">
-        <v>35.7</v>
+        <v>38.5</v>
       </c>
       <c r="P44" t="s">
         <v>265</v>
@@ -5514,7 +5526,7 @@
         <v>268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D45" t="s">
         <v>269</v>
@@ -5524,31 +5536,27 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="n">
-        <v>1078893</v>
+        <v>1087337</v>
       </c>
       <c r="I45" t="n">
-        <v>473.442</v>
-      </c>
-      <c r="J45" t="n">
-        <v>7259</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.185</v>
-      </c>
+        <v>477.147</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45"/>
       <c r="L45" t="n">
-        <v>3452</v>
+        <v>3300</v>
       </c>
       <c r="M45" t="n">
-        <v>1.515</v>
+        <v>1.448</v>
       </c>
       <c r="N45" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="O45" t="n">
-        <v>236.9</v>
+        <v>183.3</v>
       </c>
       <c r="P45" t="s">
         <v>270</v>
@@ -5571,7 +5579,7 @@
         <v>275</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44431</v>
+        <v>44437</v>
       </c>
       <c r="D46" t="s">
         <v>276</v>
@@ -5581,27 +5589,27 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H46" t="n">
-        <v>99342</v>
+        <v>101390</v>
       </c>
       <c r="I46" t="n">
-        <v>39.946</v>
+        <v>40.769</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="M46" t="n">
-        <v>0.132</v>
+        <v>0.135</v>
       </c>
       <c r="N46" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="O46" t="n">
-        <v>8.3</v>
+        <v>12.6</v>
       </c>
       <c r="P46" t="s">
         <v>277</v>
@@ -5624,7 +5632,7 @@
         <v>281</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44434</v>
+        <v>44439</v>
       </c>
       <c r="D47" t="s">
         <v>282</v>
@@ -5634,31 +5642,27 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H47" t="n">
-        <v>7860000</v>
+        <v>8000000</v>
       </c>
       <c r="I47" t="n">
-        <v>1974.987</v>
-      </c>
-      <c r="J47" t="n">
-        <v>44000</v>
-      </c>
-      <c r="K47" t="n">
-        <v>11.056</v>
-      </c>
+        <v>2010.165</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47"/>
       <c r="L47" t="n">
-        <v>42143</v>
+        <v>34000</v>
       </c>
       <c r="M47" t="n">
-        <v>10.589</v>
+        <v>8.543</v>
       </c>
       <c r="N47" t="n">
-        <v>0.105</v>
+        <v>0.113</v>
       </c>
       <c r="O47" t="n">
-        <v>9.6</v>
+        <v>8.9</v>
       </c>
       <c r="P47" t="s">
         <v>283</v>
@@ -5681,7 +5685,7 @@
         <v>287</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44430</v>
+        <v>44437</v>
       </c>
       <c r="D48" t="s">
         <v>288</v>
@@ -5691,27 +5695,27 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H48" t="n">
-        <v>69471706</v>
+        <v>70309744</v>
       </c>
       <c r="I48" t="n">
-        <v>828.025</v>
+        <v>838.014</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>97209</v>
+        <v>119048</v>
       </c>
       <c r="M48" t="n">
-        <v>1.159</v>
+        <v>1.419</v>
       </c>
       <c r="N48" t="n">
-        <v>0.079</v>
+        <v>0.084</v>
       </c>
       <c r="O48" t="n">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="P48" t="s">
         <v>289</v>
@@ -5734,7 +5738,7 @@
         <v>293</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44395</v>
+        <v>44403</v>
       </c>
       <c r="D49" t="s">
         <v>294</v>
@@ -5744,31 +5748,31 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H49" t="n">
-        <v>1379016</v>
+        <v>1422916</v>
       </c>
       <c r="I49" t="n">
-        <v>43.458</v>
+        <v>44.841</v>
       </c>
       <c r="J49" t="n">
-        <v>4237</v>
+        <v>5964</v>
       </c>
       <c r="K49" t="n">
-        <v>0.134</v>
+        <v>0.188</v>
       </c>
       <c r="L49" t="n">
-        <v>5292</v>
+        <v>5491</v>
       </c>
       <c r="M49" t="n">
-        <v>0.167</v>
+        <v>0.173</v>
       </c>
       <c r="N49" t="n">
-        <v>0.033</v>
+        <v>0.085</v>
       </c>
       <c r="O49" t="n">
-        <v>30.1</v>
+        <v>11.7</v>
       </c>
       <c r="P49" t="s">
         <v>296</v>
@@ -5791,7 +5795,7 @@
         <v>299</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44434</v>
+        <v>44440</v>
       </c>
       <c r="D50" t="s">
         <v>300</v>
@@ -5801,31 +5805,31 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="H50" t="n">
-        <v>15096664</v>
+        <v>15628356</v>
       </c>
       <c r="I50" t="n">
-        <v>1455.697</v>
+        <v>1506.965</v>
       </c>
       <c r="J50" t="n">
-        <v>103260</v>
+        <v>108219</v>
       </c>
       <c r="K50" t="n">
-        <v>9.957</v>
+        <v>10.435</v>
       </c>
       <c r="L50" t="n">
-        <v>92129</v>
+        <v>90707</v>
       </c>
       <c r="M50" t="n">
-        <v>8.884</v>
+        <v>8.746</v>
       </c>
       <c r="N50" t="n">
-        <v>0.036</v>
+        <v>0.033</v>
       </c>
       <c r="O50" t="n">
-        <v>27.9</v>
+        <v>30.6</v>
       </c>
       <c r="P50" t="s">
         <v>302</v>
@@ -5848,7 +5852,7 @@
         <v>306</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44436</v>
+        <v>44440</v>
       </c>
       <c r="D51" t="s">
         <v>307</v>
@@ -5858,28 +5862,28 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H51" t="n">
-        <v>2178407</v>
+        <v>2226033</v>
       </c>
       <c r="I51" t="n">
-        <v>119.366</v>
+        <v>121.975</v>
       </c>
       <c r="J51" t="n">
-        <v>6484</v>
+        <v>15036</v>
       </c>
       <c r="K51" t="n">
-        <v>0.355</v>
+        <v>0.824</v>
       </c>
       <c r="L51" t="n">
-        <v>12099</v>
+        <v>12017</v>
       </c>
       <c r="M51" t="n">
-        <v>0.663</v>
+        <v>0.658</v>
       </c>
       <c r="N51" t="n">
-        <v>0.305</v>
+        <v>0.302</v>
       </c>
       <c r="O51" t="n">
         <v>3.3</v>
@@ -5958,7 +5962,7 @@
         <v>320</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44438</v>
+        <v>44442</v>
       </c>
       <c r="D53" t="s">
         <v>321</v>
@@ -5970,32 +5974,28 @@
         <v>323</v>
       </c>
       <c r="G53" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H53" t="n">
-        <v>6118069</v>
+        <v>6155215</v>
       </c>
       <c r="I53" t="n">
-        <v>635.039</v>
+        <v>638.895</v>
       </c>
       <c r="J53" t="n">
-        <v>26863</v>
+        <v>10882</v>
       </c>
       <c r="K53" t="n">
-        <v>2.788</v>
+        <v>1.13</v>
       </c>
       <c r="L53" t="n">
-        <v>10923</v>
+        <v>9144</v>
       </c>
       <c r="M53" t="n">
-        <v>1.134</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="O53" t="n">
-        <v>69.1</v>
-      </c>
+        <v>0.949</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
       <c r="P53" t="s">
         <v>322</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -6027,25 +6027,25 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H54" t="n">
-        <v>579129</v>
+        <v>589200</v>
       </c>
       <c r="I54" t="n">
-        <v>1686.652</v>
+        <v>1715.983</v>
       </c>
       <c r="J54" t="n">
-        <v>1847</v>
+        <v>3101</v>
       </c>
       <c r="K54" t="n">
-        <v>5.379</v>
+        <v>9.031</v>
       </c>
       <c r="L54" t="n">
-        <v>2551</v>
+        <v>2714</v>
       </c>
       <c r="M54" t="n">
-        <v>7.43</v>
+        <v>7.904</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -6070,7 +6070,7 @@
         <v>332</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="D55" t="s">
         <v>333</v>
@@ -6082,28 +6082,32 @@
         <v>335</v>
       </c>
       <c r="G55" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H55" t="n">
-        <v>521541098</v>
+        <v>523184293</v>
       </c>
       <c r="I55" t="n">
-        <v>374.291</v>
+        <v>375.471</v>
       </c>
       <c r="J55" t="n">
-        <v>1394573</v>
+        <v>1643195</v>
       </c>
       <c r="K55" t="n">
-        <v>1.001</v>
+        <v>1.179</v>
       </c>
       <c r="L55" t="n">
-        <v>1735615</v>
+        <v>1714249</v>
       </c>
       <c r="M55" t="n">
-        <v>1.246</v>
-      </c>
-      <c r="N55"/>
-      <c r="O55"/>
+        <v>1.23</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="O55" t="n">
+        <v>40.1</v>
+      </c>
       <c r="P55" t="s">
         <v>334</v>
       </c>
@@ -6125,7 +6129,7 @@
         <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44438</v>
+        <v>44440</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
@@ -6135,31 +6139,27 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H56" t="n">
-        <v>21357173</v>
+        <v>21621776</v>
       </c>
       <c r="I56" t="n">
-        <v>77.28</v>
-      </c>
-      <c r="J56" t="n">
-        <v>78055</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.282</v>
-      </c>
+        <v>78.237</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56"/>
       <c r="L56" t="n">
-        <v>108131</v>
+        <v>112104</v>
       </c>
       <c r="M56" t="n">
-        <v>0.391</v>
+        <v>0.406</v>
       </c>
       <c r="N56" t="n">
-        <v>0.119</v>
+        <v>0.093</v>
       </c>
       <c r="O56" t="n">
-        <v>8.4</v>
+        <v>10.7</v>
       </c>
       <c r="P56" t="s">
         <v>340</v>
@@ -6182,7 +6182,7 @@
         <v>344</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="D57" t="s">
         <v>345</v>
@@ -6192,24 +6192,32 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H57" t="n">
-        <v>28892685</v>
+        <v>29119568</v>
       </c>
       <c r="I57" t="n">
-        <v>339.799</v>
-      </c>
-      <c r="J57"/>
-      <c r="K57"/>
+        <v>342.467</v>
+      </c>
+      <c r="J57" t="n">
+        <v>113279</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.332</v>
+      </c>
       <c r="L57" t="n">
-        <v>114157</v>
+        <v>112785</v>
       </c>
       <c r="M57" t="n">
-        <v>1.343</v>
-      </c>
-      <c r="N57"/>
-      <c r="O57"/>
+        <v>1.326</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3.6</v>
+      </c>
       <c r="P57" t="s">
         <v>346</v>
       </c>
@@ -6231,7 +6239,7 @@
         <v>350</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44434</v>
+        <v>44441</v>
       </c>
       <c r="D58" t="s">
         <v>351</v>
@@ -6241,31 +6249,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="H58" t="n">
-        <v>14168599</v>
+        <v>14432571</v>
       </c>
       <c r="I58" t="n">
-        <v>344.07</v>
+        <v>350.481</v>
       </c>
       <c r="J58" t="n">
-        <v>44512</v>
+        <v>38974</v>
       </c>
       <c r="K58" t="n">
-        <v>1.081</v>
+        <v>0.946</v>
       </c>
       <c r="L58" t="n">
-        <v>36534</v>
+        <v>37710</v>
       </c>
       <c r="M58" t="n">
-        <v>0.887</v>
+        <v>0.916</v>
       </c>
       <c r="N58" t="n">
-        <v>0.181</v>
+        <v>0.177</v>
       </c>
       <c r="O58" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="P58" t="s">
         <v>353</v>
@@ -6288,7 +6296,7 @@
         <v>357</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D59" t="s">
         <v>358</v>
@@ -6298,31 +6306,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H59" t="n">
-        <v>6672047</v>
+        <v>6736791</v>
       </c>
       <c r="I59" t="n">
-        <v>1338.988</v>
+        <v>1351.981</v>
       </c>
       <c r="J59" t="n">
-        <v>14034</v>
+        <v>20386</v>
       </c>
       <c r="K59" t="n">
-        <v>2.816</v>
+        <v>4.091</v>
       </c>
       <c r="L59" t="n">
-        <v>19405</v>
+        <v>19430</v>
       </c>
       <c r="M59" t="n">
-        <v>3.894</v>
+        <v>3.899</v>
       </c>
       <c r="N59" t="n">
-        <v>0.091</v>
+        <v>0.061</v>
       </c>
       <c r="O59" t="n">
-        <v>11</v>
+        <v>16.3</v>
       </c>
       <c r="P59" t="s">
         <v>359</v>
@@ -6345,7 +6353,7 @@
         <v>363</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D60" t="s">
         <v>364</v>
@@ -6355,31 +6363,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="H60" t="n">
-        <v>23202730</v>
+        <v>23656010</v>
       </c>
       <c r="I60" t="n">
-        <v>2639.741</v>
+        <v>2691.31</v>
       </c>
       <c r="J60" t="n">
-        <v>151772</v>
+        <v>140967</v>
       </c>
       <c r="K60" t="n">
-        <v>17.267</v>
+        <v>16.038</v>
       </c>
       <c r="L60" t="n">
-        <v>134836</v>
+        <v>134792</v>
       </c>
       <c r="M60" t="n">
-        <v>15.34</v>
+        <v>15.335</v>
       </c>
       <c r="N60" t="n">
-        <v>0.066</v>
+        <v>0.073</v>
       </c>
       <c r="O60" t="n">
-        <v>15.1</v>
+        <v>13.8</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
@@ -6402,7 +6410,7 @@
         <v>369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D61" t="s">
         <v>370</v>
@@ -6414,31 +6422,31 @@
         <v>372</v>
       </c>
       <c r="G61" t="n">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H61" t="n">
-        <v>32474220</v>
+        <v>32673083</v>
       </c>
       <c r="I61" t="n">
-        <v>537.942</v>
+        <v>541.237</v>
       </c>
       <c r="J61" t="n">
-        <v>29376</v>
+        <v>67426</v>
       </c>
       <c r="K61" t="n">
-        <v>0.487</v>
+        <v>1.117</v>
       </c>
       <c r="L61" t="n">
-        <v>53686</v>
+        <v>57787</v>
       </c>
       <c r="M61" t="n">
-        <v>0.889</v>
+        <v>0.957</v>
       </c>
       <c r="N61" t="n">
-        <v>0.122</v>
+        <v>0.108</v>
       </c>
       <c r="O61" t="n">
-        <v>8.2</v>
+        <v>9.3</v>
       </c>
       <c r="P61" t="s">
         <v>373</v>
@@ -6461,7 +6469,7 @@
         <v>376</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44437</v>
+        <v>44441</v>
       </c>
       <c r="D62" t="s">
         <v>370</v>
@@ -6473,31 +6481,31 @@
         <v>372</v>
       </c>
       <c r="G62" t="n">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H62" t="n">
-        <v>83618273</v>
+        <v>84632503</v>
       </c>
       <c r="I62" t="n">
-        <v>1385.154</v>
+        <v>1401.955</v>
       </c>
       <c r="J62" t="n">
-        <v>223086</v>
+        <v>293067</v>
       </c>
       <c r="K62" t="n">
-        <v>3.695</v>
+        <v>4.855</v>
       </c>
       <c r="L62" t="n">
-        <v>230701</v>
+        <v>256609</v>
       </c>
       <c r="M62" t="n">
-        <v>3.822</v>
+        <v>4.251</v>
       </c>
       <c r="N62" t="n">
-        <v>0.028</v>
+        <v>0.024</v>
       </c>
       <c r="O62" t="n">
-        <v>35.4</v>
+        <v>41.2</v>
       </c>
       <c r="P62" t="s">
         <v>373</v>
@@ -6520,7 +6528,7 @@
         <v>379</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="D63" t="s">
         <v>380</v>
@@ -6530,31 +6538,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H63" t="n">
-        <v>546596</v>
+        <v>550980</v>
       </c>
       <c r="I63" t="n">
-        <v>183.825</v>
+        <v>185.299</v>
       </c>
       <c r="J63" t="n">
-        <v>1508</v>
+        <v>1685</v>
       </c>
       <c r="K63" t="n">
-        <v>0.507</v>
+        <v>0.567</v>
       </c>
       <c r="L63" t="n">
-        <v>1822</v>
+        <v>1805</v>
       </c>
       <c r="M63" t="n">
-        <v>0.613</v>
+        <v>0.607</v>
       </c>
       <c r="N63" t="n">
-        <v>0.422</v>
+        <v>0.368</v>
       </c>
       <c r="O63" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="P63" t="s">
         <v>381</v>
@@ -6577,7 +6585,7 @@
         <v>385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D64" t="s">
         <v>386</v>
@@ -6587,31 +6595,31 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H64" t="n">
-        <v>20759237</v>
+        <v>21144934</v>
       </c>
       <c r="I64" t="n">
-        <v>164.689</v>
+        <v>167.749</v>
       </c>
       <c r="J64" t="n">
-        <v>156779</v>
+        <v>121059</v>
       </c>
       <c r="K64" t="n">
-        <v>1.244</v>
+        <v>0.96</v>
       </c>
       <c r="L64" t="n">
-        <v>135173</v>
+        <v>125703</v>
       </c>
       <c r="M64" t="n">
-        <v>1.072</v>
+        <v>0.997</v>
       </c>
       <c r="N64" t="n">
-        <v>0.159</v>
+        <v>0.154</v>
       </c>
       <c r="O64" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="P64" t="s">
         <v>387</v>
@@ -6634,7 +6642,7 @@
         <v>391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44434</v>
+        <v>44441</v>
       </c>
       <c r="D65" t="s">
         <v>392</v>
@@ -6644,31 +6652,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H65" t="n">
-        <v>9123785</v>
+        <v>9316366</v>
       </c>
       <c r="I65" t="n">
-        <v>888.477</v>
+        <v>907.23</v>
       </c>
       <c r="J65" t="n">
-        <v>31726</v>
+        <v>29326</v>
       </c>
       <c r="K65" t="n">
-        <v>3.089</v>
+        <v>2.856</v>
       </c>
       <c r="L65" t="n">
-        <v>28477</v>
+        <v>27512</v>
       </c>
       <c r="M65" t="n">
-        <v>2.773</v>
+        <v>2.679</v>
       </c>
       <c r="N65" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="O65" t="n">
-        <v>34.3</v>
+        <v>33.2</v>
       </c>
       <c r="P65" t="s">
         <v>393</v>
@@ -6801,7 +6809,7 @@
         <v>407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44434</v>
+        <v>44441</v>
       </c>
       <c r="D68" t="s">
         <v>408</v>
@@ -6811,31 +6819,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H68" t="n">
-        <v>925052</v>
+        <v>1008846</v>
       </c>
       <c r="I68" t="n">
-        <v>478.614</v>
+        <v>521.968</v>
       </c>
       <c r="J68" t="n">
-        <v>12406</v>
+        <v>13953</v>
       </c>
       <c r="K68" t="n">
-        <v>6.419</v>
+        <v>7.219</v>
       </c>
       <c r="L68" t="n">
-        <v>11287</v>
+        <v>11971</v>
       </c>
       <c r="M68" t="n">
-        <v>5.84</v>
+        <v>6.194</v>
       </c>
       <c r="N68" t="n">
-        <v>0.177</v>
+        <v>0.137</v>
       </c>
       <c r="O68" t="n">
-        <v>5.7</v>
+        <v>7.3</v>
       </c>
       <c r="P68" t="s">
         <v>410</v>
@@ -6858,7 +6866,7 @@
         <v>413</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44434</v>
+        <v>44441</v>
       </c>
       <c r="D69" t="s">
         <v>414</v>
@@ -6868,31 +6876,31 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="H69" t="n">
-        <v>3724132</v>
+        <v>3811460</v>
       </c>
       <c r="I69" t="n">
-        <v>860.364</v>
+        <v>880.539</v>
       </c>
       <c r="J69" t="n">
-        <v>13264</v>
+        <v>12336</v>
       </c>
       <c r="K69" t="n">
-        <v>3.064</v>
+        <v>2.85</v>
       </c>
       <c r="L69" t="n">
-        <v>11576</v>
+        <v>12475</v>
       </c>
       <c r="M69" t="n">
-        <v>2.674</v>
+        <v>2.882</v>
       </c>
       <c r="N69" t="n">
-        <v>0.017</v>
+        <v>0.012</v>
       </c>
       <c r="O69" t="n">
-        <v>59.7</v>
+        <v>82.1</v>
       </c>
       <c r="P69" t="s">
         <v>415</v>
@@ -7068,7 +7076,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44437</v>
+        <v>44441</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -7078,15 +7086,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>6895</v>
+        <v>6466</v>
       </c>
       <c r="K73" t="n">
-        <v>0.991</v>
+        <v>0.929</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7113,7 +7121,7 @@
         <v>442</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44436</v>
+        <v>44439</v>
       </c>
       <c r="D74" t="s">
         <v>443</v>
@@ -7123,31 +7131,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H74" t="n">
-        <v>61420</v>
+        <v>61906</v>
       </c>
       <c r="I74" t="n">
-        <v>1605.584</v>
+        <v>1618.288</v>
       </c>
       <c r="J74" t="n">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="K74" t="n">
-        <v>3.163</v>
+        <v>5.254</v>
       </c>
       <c r="L74" t="n">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M74" t="n">
-        <v>4.261</v>
+        <v>4.601</v>
       </c>
       <c r="N74" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="O74" t="n">
-        <v>27</v>
+        <v>28.6</v>
       </c>
       <c r="P74" t="s">
         <v>444</v>
@@ -7170,7 +7178,7 @@
         <v>448</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="D75" t="s">
         <v>449</v>
@@ -7180,25 +7188,25 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H75" t="n">
-        <v>4588314</v>
+        <v>4604966</v>
       </c>
       <c r="I75" t="n">
-        <v>1705.78</v>
+        <v>1711.971</v>
       </c>
       <c r="J75" t="n">
-        <v>5495</v>
+        <v>15605</v>
       </c>
       <c r="K75" t="n">
-        <v>2.043</v>
+        <v>5.801</v>
       </c>
       <c r="L75" t="n">
-        <v>12896</v>
+        <v>12930</v>
       </c>
       <c r="M75" t="n">
-        <v>4.794</v>
+        <v>4.807</v>
       </c>
       <c r="N75" t="n">
         <v>0.05</v>
@@ -7227,7 +7235,7 @@
         <v>453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44436</v>
+        <v>44440</v>
       </c>
       <c r="D76" t="s">
         <v>454</v>
@@ -7237,31 +7245,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H76" t="n">
-        <v>3412853</v>
+        <v>3428094</v>
       </c>
       <c r="I76" t="n">
-        <v>5376.146</v>
+        <v>5400.155</v>
       </c>
       <c r="J76" t="n">
-        <v>3452</v>
+        <v>4648</v>
       </c>
       <c r="K76" t="n">
-        <v>5.438</v>
+        <v>7.322</v>
       </c>
       <c r="L76" t="n">
-        <v>3928</v>
+        <v>4171</v>
       </c>
       <c r="M76" t="n">
-        <v>6.188</v>
+        <v>6.57</v>
       </c>
       <c r="N76" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="O76" t="n">
-        <v>51.7</v>
+        <v>49.3</v>
       </c>
       <c r="P76" t="s">
         <v>455</v>
@@ -7284,7 +7292,7 @@
         <v>458</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44430</v>
+        <v>44435</v>
       </c>
       <c r="D77" t="s">
         <v>459</v>
@@ -7294,31 +7302,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H77" t="n">
-        <v>237617</v>
+        <v>241052</v>
       </c>
       <c r="I77" t="n">
-        <v>8.359</v>
+        <v>8.48</v>
       </c>
       <c r="J77" t="n">
-        <v>219</v>
+        <v>578</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="L77" t="n">
-        <v>500</v>
+        <v>572</v>
       </c>
       <c r="M77" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="O77" t="n">
-        <v>102.9</v>
+        <v>210.8</v>
       </c>
       <c r="P77" t="s">
         <v>460</v>
@@ -7453,7 +7461,7 @@
         <v>477</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44434</v>
+        <v>44441</v>
       </c>
       <c r="D80" t="s">
         <v>478</v>
@@ -7463,31 +7471,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="H80" t="n">
-        <v>1350321</v>
+        <v>1387521</v>
       </c>
       <c r="I80" t="n">
-        <v>2483.943</v>
+        <v>2552.373</v>
       </c>
       <c r="J80" t="n">
-        <v>5681</v>
+        <v>6418</v>
       </c>
       <c r="K80" t="n">
-        <v>10.45</v>
+        <v>11.806</v>
       </c>
       <c r="L80" t="n">
-        <v>5743</v>
+        <v>5314</v>
       </c>
       <c r="M80" t="n">
-        <v>10.564</v>
+        <v>9.775</v>
       </c>
       <c r="N80" t="n">
-        <v>0.019</v>
+        <v>0.028</v>
       </c>
       <c r="O80" t="n">
-        <v>51.7</v>
+        <v>35.8</v>
       </c>
       <c r="P80" t="s">
         <v>479</v>
@@ -7510,7 +7518,7 @@
         <v>483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44434</v>
+        <v>44441</v>
       </c>
       <c r="D81" t="s">
         <v>484</v>
@@ -7520,31 +7528,31 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="H81" t="n">
-        <v>1174898</v>
+        <v>1198067</v>
       </c>
       <c r="I81" t="n">
-        <v>2283.288</v>
+        <v>2328.315</v>
       </c>
       <c r="J81" t="n">
-        <v>3264</v>
+        <v>3709</v>
       </c>
       <c r="K81" t="n">
-        <v>6.343</v>
+        <v>7.208</v>
       </c>
       <c r="L81" t="n">
-        <v>3143</v>
+        <v>3310</v>
       </c>
       <c r="M81" t="n">
-        <v>6.108</v>
+        <v>6.433</v>
       </c>
       <c r="N81" t="n">
         <v>0.016</v>
       </c>
       <c r="O81" t="n">
-        <v>63.2</v>
+        <v>62.3</v>
       </c>
       <c r="P81" t="s">
         <v>485</v>
@@ -7616,7 +7624,7 @@
         <v>495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="D83" t="s">
         <v>496</v>
@@ -7626,28 +7634,28 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="H83" t="n">
-        <v>9236915</v>
+        <v>9357491</v>
       </c>
       <c r="I83" t="n">
-        <v>70.91</v>
+        <v>71.836</v>
       </c>
       <c r="J83" t="n">
-        <v>3161</v>
+        <v>13406</v>
       </c>
       <c r="K83" t="n">
-        <v>0.024</v>
+        <v>0.103</v>
       </c>
       <c r="L83" t="n">
-        <v>26374</v>
+        <v>22776</v>
       </c>
       <c r="M83" t="n">
-        <v>0.202</v>
+        <v>0.175</v>
       </c>
       <c r="N83" t="n">
-        <v>0.404</v>
+        <v>0.401</v>
       </c>
       <c r="O83" t="n">
         <v>2.5</v>
@@ -7673,7 +7681,7 @@
         <v>501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D84" t="s">
         <v>502</v>
@@ -7683,27 +7691,27 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H84" t="n">
-        <v>1561423</v>
+        <v>1583945</v>
       </c>
       <c r="I84" t="n">
-        <v>388.025</v>
+        <v>393.622</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>4666</v>
+        <v>4573</v>
       </c>
       <c r="M84" t="n">
-        <v>1.16</v>
+        <v>1.136</v>
       </c>
       <c r="N84" t="n">
-        <v>0.075</v>
+        <v>0.081</v>
       </c>
       <c r="O84" t="n">
-        <v>13.3</v>
+        <v>12.4</v>
       </c>
       <c r="P84" t="s">
         <v>503</v>
@@ -7726,7 +7734,7 @@
         <v>506</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44439</v>
+        <v>44442</v>
       </c>
       <c r="D85" t="s">
         <v>507</v>
@@ -7736,22 +7744,26 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H85" t="n">
-        <v>3715089</v>
+        <v>4697153</v>
       </c>
       <c r="I85" t="n">
-        <v>1115.883</v>
+        <v>1410.861</v>
       </c>
       <c r="J85" t="n">
-        <v>5817</v>
+        <v>21465</v>
       </c>
       <c r="K85" t="n">
-        <v>1.747</v>
-      </c>
-      <c r="L85"/>
-      <c r="M85"/>
+        <v>6.447</v>
+      </c>
+      <c r="L85" t="n">
+        <v>143812</v>
+      </c>
+      <c r="M85" t="n">
+        <v>43.196</v>
+      </c>
       <c r="N85"/>
       <c r="O85"/>
       <c r="P85" t="s">
@@ -7775,7 +7787,7 @@
         <v>510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44434</v>
+        <v>44441</v>
       </c>
       <c r="D86" t="s">
         <v>511</v>
@@ -7785,31 +7797,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="H86" t="n">
-        <v>7964719</v>
+        <v>8188219</v>
       </c>
       <c r="I86" t="n">
-        <v>213.275</v>
+        <v>219.26</v>
       </c>
       <c r="J86" t="n">
-        <v>37875</v>
+        <v>35540</v>
       </c>
       <c r="K86" t="n">
-        <v>1.014</v>
+        <v>0.952</v>
       </c>
       <c r="L86" t="n">
-        <v>32735</v>
+        <v>31929</v>
       </c>
       <c r="M86" t="n">
-        <v>0.877</v>
+        <v>0.855</v>
       </c>
       <c r="N86" t="n">
-        <v>0.196</v>
+        <v>0.16</v>
       </c>
       <c r="O86" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="P86" t="s">
         <v>512</v>
@@ -7832,7 +7844,7 @@
         <v>516</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44426</v>
+        <v>44440</v>
       </c>
       <c r="D87" t="s">
         <v>517</v>
@@ -7842,31 +7854,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="H87" t="n">
-        <v>815154</v>
+        <v>853959</v>
       </c>
       <c r="I87" t="n">
-        <v>25.344</v>
+        <v>26.551</v>
       </c>
       <c r="J87" t="n">
-        <v>4022</v>
+        <v>3332</v>
       </c>
       <c r="K87" t="n">
-        <v>0.125</v>
+        <v>0.104</v>
       </c>
       <c r="L87" t="n">
-        <v>3626</v>
+        <v>2577</v>
       </c>
       <c r="M87" t="n">
-        <v>0.113</v>
+        <v>0.08</v>
       </c>
       <c r="N87" t="n">
-        <v>0.206</v>
+        <v>0.151</v>
       </c>
       <c r="O87" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="P87" t="s">
         <v>518</v>
@@ -7889,7 +7901,7 @@
         <v>522</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44434</v>
+        <v>44441</v>
       </c>
       <c r="D88" t="s">
         <v>523</v>
@@ -7899,31 +7911,31 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H88" t="n">
-        <v>3471394</v>
+        <v>3688810</v>
       </c>
       <c r="I88" t="n">
-        <v>63.34</v>
+        <v>67.307</v>
       </c>
       <c r="J88" t="n">
-        <v>12249</v>
+        <v>35248</v>
       </c>
       <c r="K88" t="n">
-        <v>0.223</v>
+        <v>0.643</v>
       </c>
       <c r="L88" t="n">
-        <v>10918</v>
+        <v>31059</v>
       </c>
       <c r="M88" t="n">
-        <v>0.199</v>
+        <v>0.567</v>
       </c>
       <c r="N88" t="n">
-        <v>0.232</v>
+        <v>0.104</v>
       </c>
       <c r="O88" t="n">
-        <v>4.3</v>
+        <v>9.6</v>
       </c>
       <c r="P88" t="s">
         <v>524</v>
@@ -7946,7 +7958,7 @@
         <v>528</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="D89" t="s">
         <v>529</v>
@@ -7956,31 +7968,31 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H89" t="n">
-        <v>652869</v>
+        <v>662505</v>
       </c>
       <c r="I89" t="n">
-        <v>252.332</v>
+        <v>256.056</v>
       </c>
       <c r="J89" t="n">
-        <v>1820</v>
+        <v>1176</v>
       </c>
       <c r="K89" t="n">
-        <v>0.703</v>
+        <v>0.455</v>
       </c>
       <c r="L89" t="n">
-        <v>1585</v>
+        <v>1377</v>
       </c>
       <c r="M89" t="n">
-        <v>0.613</v>
+        <v>0.532</v>
       </c>
       <c r="N89" t="n">
-        <v>0.108</v>
+        <v>0.109</v>
       </c>
       <c r="O89" t="n">
-        <v>9.3</v>
+        <v>9.2</v>
       </c>
       <c r="P89" t="s">
         <v>531</v>
@@ -8003,7 +8015,7 @@
         <v>535</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44434</v>
+        <v>44441</v>
       </c>
       <c r="D90" t="s">
         <v>536</v>
@@ -8013,31 +8025,31 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="H90" t="n">
-        <v>3868717</v>
+        <v>3936416</v>
       </c>
       <c r="I90" t="n">
-        <v>130.37</v>
+        <v>132.651</v>
       </c>
       <c r="J90" t="n">
-        <v>9702</v>
+        <v>10658</v>
       </c>
       <c r="K90" t="n">
-        <v>0.327</v>
+        <v>0.359</v>
       </c>
       <c r="L90" t="n">
-        <v>9386</v>
+        <v>9671</v>
       </c>
       <c r="M90" t="n">
-        <v>0.316</v>
+        <v>0.326</v>
       </c>
       <c r="N90" t="n">
-        <v>0.193</v>
+        <v>0.162</v>
       </c>
       <c r="O90" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="P90" t="s">
         <v>537</v>
@@ -8060,7 +8072,7 @@
         <v>541</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44430</v>
+        <v>44437</v>
       </c>
       <c r="D91" t="s">
         <v>542</v>
@@ -8070,27 +8082,27 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H91" t="n">
-        <v>12493403</v>
+        <v>12641794</v>
       </c>
       <c r="I91" t="n">
-        <v>727.499</v>
+        <v>736.14</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>17158</v>
+        <v>17685</v>
       </c>
       <c r="M91" t="n">
-        <v>0.999</v>
+        <v>1.03</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08</v>
+        <v>0.091</v>
       </c>
       <c r="O91" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="P91" t="s">
         <v>544</v>
@@ -8113,7 +8125,7 @@
         <v>548</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44439</v>
+        <v>44442</v>
       </c>
       <c r="D92" t="s">
         <v>549</v>
@@ -8123,25 +8135,25 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H92" t="n">
-        <v>2984428</v>
+        <v>3037064</v>
       </c>
       <c r="I92" t="n">
-        <v>613.999</v>
+        <v>624.828</v>
       </c>
       <c r="J92" t="n">
-        <v>16755</v>
+        <v>12796</v>
       </c>
       <c r="K92" t="n">
-        <v>3.447</v>
+        <v>2.633</v>
       </c>
       <c r="L92" t="n">
-        <v>30573</v>
+        <v>20761</v>
       </c>
       <c r="M92" t="n">
-        <v>6.29</v>
+        <v>4.271</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -8272,7 +8284,7 @@
         <v>564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44436</v>
+        <v>44439</v>
       </c>
       <c r="D95" t="s">
         <v>565</v>
@@ -8282,31 +8294,31 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H95" t="n">
-        <v>7071838</v>
+        <v>7164820</v>
       </c>
       <c r="I95" t="n">
-        <v>1293.875</v>
+        <v>1310.887</v>
       </c>
       <c r="J95" t="n">
-        <v>13691</v>
+        <v>31863</v>
       </c>
       <c r="K95" t="n">
-        <v>2.505</v>
+        <v>5.83</v>
       </c>
       <c r="L95" t="n">
-        <v>25183</v>
+        <v>28039</v>
       </c>
       <c r="M95" t="n">
-        <v>4.608</v>
+        <v>5.13</v>
       </c>
       <c r="N95" t="n">
-        <v>0.046</v>
+        <v>0.048</v>
       </c>
       <c r="O95" t="n">
-        <v>21.8</v>
+        <v>21</v>
       </c>
       <c r="P95" t="s">
         <v>566</v>
@@ -8374,7 +8386,7 @@
         <v>575</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44438</v>
+        <v>44442</v>
       </c>
       <c r="D97" t="s">
         <v>576</v>
@@ -8384,32 +8396,28 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="H97" t="n">
-        <v>17704220</v>
+        <v>17931365</v>
       </c>
       <c r="I97" t="n">
-        <v>78.616</v>
+        <v>79.624</v>
       </c>
       <c r="J97" t="n">
-        <v>56279</v>
+        <v>59745</v>
       </c>
       <c r="K97" t="n">
-        <v>0.25</v>
+        <v>0.265</v>
       </c>
       <c r="L97" t="n">
-        <v>61110</v>
+        <v>58726</v>
       </c>
       <c r="M97" t="n">
-        <v>0.271</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="O97" t="n">
-        <v>15</v>
-      </c>
+        <v>0.261</v>
+      </c>
+      <c r="N97"/>
+      <c r="O97"/>
       <c r="P97" t="s">
         <v>577</v>
       </c>
@@ -8431,7 +8439,7 @@
         <v>580</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44434</v>
+        <v>44441</v>
       </c>
       <c r="D98" t="s">
         <v>581</v>
@@ -8439,27 +8447,27 @@
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>9709</v>
+        <v>11848</v>
       </c>
       <c r="K98" t="n">
-        <v>1.859</v>
+        <v>2.269</v>
       </c>
       <c r="L98" t="n">
-        <v>7468</v>
+        <v>10606</v>
       </c>
       <c r="M98" t="n">
-        <v>1.43</v>
+        <v>2.031</v>
       </c>
       <c r="N98" t="n">
-        <v>0.173</v>
+        <v>0.204</v>
       </c>
       <c r="O98" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="P98" t="s">
         <v>582</v>
@@ -8482,7 +8490,7 @@
         <v>586</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44434</v>
+        <v>44440</v>
       </c>
       <c r="D99" t="s">
         <v>587</v>
@@ -8492,24 +8500,32 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H99" t="n">
-        <v>3620041</v>
+        <v>3673799</v>
       </c>
       <c r="I99" t="n">
-        <v>826.195</v>
+        <v>838.464</v>
       </c>
       <c r="J99" t="n">
-        <v>10247</v>
+        <v>10203</v>
       </c>
       <c r="K99" t="n">
-        <v>2.339</v>
-      </c>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
-      <c r="O99"/>
+        <v>2.329</v>
+      </c>
+      <c r="L99" t="n">
+        <v>9144</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O99" t="n">
+        <v>16.7</v>
+      </c>
       <c r="P99" t="s">
         <v>588</v>
       </c>
@@ -8584,7 +8600,7 @@
         <v>597</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44434</v>
+        <v>44440</v>
       </c>
       <c r="D101" t="s">
         <v>598</v>
@@ -8594,31 +8610,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="H101" t="n">
-        <v>1761311</v>
+        <v>1775656</v>
       </c>
       <c r="I101" t="n">
-        <v>243.961</v>
+        <v>245.948</v>
       </c>
       <c r="J101" t="n">
-        <v>3096</v>
+        <v>2247</v>
       </c>
       <c r="K101" t="n">
-        <v>0.429</v>
+        <v>0.311</v>
       </c>
       <c r="L101" t="n">
-        <v>3113</v>
+        <v>2492</v>
       </c>
       <c r="M101" t="n">
-        <v>0.431</v>
+        <v>0.345</v>
       </c>
       <c r="N101" t="n">
-        <v>0.039</v>
+        <v>0.029</v>
       </c>
       <c r="O101" t="n">
-        <v>25.4</v>
+        <v>35</v>
       </c>
       <c r="P101" t="s">
         <v>599</v>
@@ -8698,7 +8714,7 @@
         <v>608</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="D103" t="s">
         <v>609</v>
@@ -8708,31 +8724,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H103" t="n">
-        <v>17545425</v>
+        <v>17740702</v>
       </c>
       <c r="I103" t="n">
-        <v>158</v>
+        <v>159.759</v>
       </c>
       <c r="J103" t="n">
-        <v>47332</v>
+        <v>64724</v>
       </c>
       <c r="K103" t="n">
-        <v>0.426</v>
+        <v>0.583</v>
       </c>
       <c r="L103" t="n">
-        <v>63883</v>
+        <v>63748</v>
       </c>
       <c r="M103" t="n">
-        <v>0.575</v>
+        <v>0.574</v>
       </c>
       <c r="N103" t="n">
-        <v>0.256</v>
+        <v>0.271</v>
       </c>
       <c r="O103" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="P103" t="s">
         <v>315</v>
@@ -8755,7 +8771,7 @@
         <v>614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44434</v>
+        <v>44441</v>
       </c>
       <c r="D104" t="s">
         <v>615</v>
@@ -8765,31 +8781,31 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="H104" t="n">
-        <v>19193365</v>
+        <v>19450274</v>
       </c>
       <c r="I104" t="n">
-        <v>507.801</v>
+        <v>514.598</v>
       </c>
       <c r="J104" t="n">
-        <v>37477</v>
+        <v>38954</v>
       </c>
       <c r="K104" t="n">
-        <v>0.992</v>
+        <v>1.031</v>
       </c>
       <c r="L104" t="n">
-        <v>37199</v>
+        <v>36701</v>
       </c>
       <c r="M104" t="n">
-        <v>0.984</v>
+        <v>0.971</v>
       </c>
       <c r="N104" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="O104" t="n">
-        <v>185.2</v>
+        <v>133.3</v>
       </c>
       <c r="P104" t="s">
         <v>616</v>
@@ -8812,7 +8828,7 @@
         <v>619</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="D105" t="s">
         <v>615</v>
@@ -8822,31 +8838,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="H105" t="n">
-        <v>19599018</v>
+        <v>19858508</v>
       </c>
       <c r="I105" t="n">
-        <v>518.534</v>
+        <v>525.399</v>
       </c>
       <c r="J105" t="n">
-        <v>37768</v>
+        <v>39273</v>
       </c>
       <c r="K105" t="n">
-        <v>0.999</v>
+        <v>1.039</v>
       </c>
       <c r="L105" t="n">
-        <v>37552</v>
+        <v>37070</v>
       </c>
       <c r="M105" t="n">
-        <v>0.994</v>
+        <v>0.981</v>
       </c>
       <c r="N105" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="O105" t="n">
-        <v>189.5</v>
+        <v>146.9</v>
       </c>
       <c r="P105" t="s">
         <v>616</v>
@@ -8869,7 +8885,7 @@
         <v>621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="D106" t="s">
         <v>622</v>
@@ -8879,31 +8895,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H106" t="n">
-        <v>16942769</v>
+        <v>17102741</v>
       </c>
       <c r="I106" t="n">
-        <v>1666.296</v>
+        <v>1682.029</v>
       </c>
       <c r="J106" t="n">
-        <v>40182</v>
+        <v>47597</v>
       </c>
       <c r="K106" t="n">
-        <v>3.952</v>
+        <v>4.681</v>
       </c>
       <c r="L106" t="n">
-        <v>50326</v>
+        <v>50234</v>
       </c>
       <c r="M106" t="n">
-        <v>4.949</v>
+        <v>4.94</v>
       </c>
       <c r="N106" t="n">
-        <v>0.044</v>
+        <v>0.039</v>
       </c>
       <c r="O106" t="n">
-        <v>22.7</v>
+        <v>25.8</v>
       </c>
       <c r="P106" t="s">
         <v>623</v>
@@ -8926,7 +8942,7 @@
         <v>626</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44438</v>
+        <v>44440</v>
       </c>
       <c r="D107" t="s">
         <v>627</v>
@@ -8936,31 +8952,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H107" t="n">
-        <v>2497975</v>
+        <v>2509828</v>
       </c>
       <c r="I107" t="n">
-        <v>852.399</v>
+        <v>856.443</v>
       </c>
       <c r="J107" t="n">
-        <v>5790</v>
+        <v>5184</v>
       </c>
       <c r="K107" t="n">
-        <v>1.976</v>
+        <v>1.769</v>
       </c>
       <c r="L107" t="n">
-        <v>5629</v>
+        <v>5694</v>
       </c>
       <c r="M107" t="n">
-        <v>1.921</v>
+        <v>1.943</v>
       </c>
       <c r="N107" t="n">
-        <v>0.037</v>
+        <v>0.034</v>
       </c>
       <c r="O107" t="n">
-        <v>27.3</v>
+        <v>29.5</v>
       </c>
       <c r="P107" t="s">
         <v>629</v>
@@ -8983,7 +8999,7 @@
         <v>632</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="D108" t="s">
         <v>633</v>
@@ -8993,24 +9009,28 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H108" t="n">
-        <v>9092422</v>
+        <v>9126913</v>
       </c>
       <c r="I108" t="n">
-        <v>475.352</v>
+        <v>477.155</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108" t="n">
-        <v>13769</v>
+        <v>14376</v>
       </c>
       <c r="M108" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="N108"/>
-      <c r="O108"/>
+        <v>0.752</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="O108" t="n">
+        <v>13</v>
+      </c>
       <c r="P108" t="s">
         <v>635</v>
       </c>
@@ -9032,7 +9052,7 @@
         <v>639</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D109" t="s">
         <v>640</v>
@@ -9042,27 +9062,27 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H109" t="n">
-        <v>178771940</v>
+        <v>180037362</v>
       </c>
       <c r="I109" t="n">
-        <v>1225.204</v>
+        <v>1233.876</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>406324</v>
+        <v>405731</v>
       </c>
       <c r="M109" t="n">
-        <v>2.785</v>
+        <v>2.781</v>
       </c>
       <c r="N109" t="n">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="O109" t="n">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="P109" t="s">
         <v>641</v>
@@ -9085,7 +9105,7 @@
         <v>645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44438</v>
+        <v>44442</v>
       </c>
       <c r="D110" t="s">
         <v>646</v>
@@ -9095,32 +9115,28 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H110" t="n">
-        <v>2426222</v>
+        <v>2473190</v>
       </c>
       <c r="I110" t="n">
-        <v>182.745</v>
+        <v>186.283</v>
       </c>
       <c r="J110" t="n">
-        <v>23042</v>
+        <v>11604</v>
       </c>
       <c r="K110" t="n">
-        <v>1.736</v>
+        <v>0.874</v>
       </c>
       <c r="L110" t="n">
-        <v>16041</v>
+        <v>16323</v>
       </c>
       <c r="M110" t="n">
-        <v>1.208</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="O110" t="n">
-        <v>31.1</v>
-      </c>
+        <v>1.229</v>
+      </c>
+      <c r="N110"/>
+      <c r="O110"/>
       <c r="P110" t="s">
         <v>647</v>
       </c>
@@ -9142,7 +9158,7 @@
         <v>651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="D111" t="s">
         <v>652</v>
@@ -9152,31 +9168,31 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H111" t="n">
-        <v>30689</v>
+        <v>31677</v>
       </c>
       <c r="I111" t="n">
-        <v>573.133</v>
+        <v>591.585</v>
       </c>
       <c r="J111" t="n">
-        <v>251</v>
+        <v>336</v>
       </c>
       <c r="K111" t="n">
-        <v>4.688</v>
+        <v>6.275</v>
       </c>
       <c r="L111" t="n">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="M111" t="n">
-        <v>4.818</v>
+        <v>4.519</v>
       </c>
       <c r="N111" t="n">
-        <v>0.127</v>
+        <v>0.113</v>
       </c>
       <c r="O111" t="n">
-        <v>7.9</v>
+        <v>8.8</v>
       </c>
       <c r="P111" t="s">
         <v>36</v>
@@ -9199,7 +9215,7 @@
         <v>656</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44438</v>
+        <v>44440</v>
       </c>
       <c r="D112" t="s">
         <v>657</v>
@@ -9209,31 +9225,31 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H112" t="n">
-        <v>27445781</v>
+        <v>27561054</v>
       </c>
       <c r="I112" t="n">
-        <v>776.606</v>
+        <v>779.868</v>
       </c>
       <c r="J112" t="n">
-        <v>61961</v>
+        <v>55742</v>
       </c>
       <c r="K112" t="n">
-        <v>1.753</v>
+        <v>1.577</v>
       </c>
       <c r="L112" t="n">
-        <v>59498</v>
+        <v>56859</v>
       </c>
       <c r="M112" t="n">
-        <v>1.684</v>
+        <v>1.609</v>
       </c>
       <c r="N112" t="n">
         <v>0.003</v>
       </c>
       <c r="O112" t="n">
-        <v>314.6</v>
+        <v>300.6</v>
       </c>
       <c r="P112" t="s">
         <v>36</v>
@@ -9256,7 +9272,7 @@
         <v>660</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D113" t="s">
         <v>661</v>
@@ -9266,31 +9282,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H113" t="n">
-        <v>750135</v>
+        <v>756795</v>
       </c>
       <c r="I113" t="n">
-        <v>43.622</v>
+        <v>44.009</v>
       </c>
       <c r="J113" t="n">
-        <v>2286</v>
+        <v>2175</v>
       </c>
       <c r="K113" t="n">
-        <v>0.133</v>
+        <v>0.126</v>
       </c>
       <c r="L113" t="n">
-        <v>2563</v>
+        <v>2501</v>
       </c>
       <c r="M113" t="n">
-        <v>0.149</v>
+        <v>0.145</v>
       </c>
       <c r="N113" t="n">
-        <v>0.041</v>
+        <v>0.038</v>
       </c>
       <c r="O113" t="n">
-        <v>24.3</v>
+        <v>26.4</v>
       </c>
       <c r="P113" t="s">
         <v>662</v>
@@ -9313,7 +9329,7 @@
         <v>665</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D114" t="s">
         <v>666</v>
@@ -9325,31 +9341,31 @@
         <v>667</v>
       </c>
       <c r="G114" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H114" t="n">
-        <v>5009861</v>
+        <v>5058559</v>
       </c>
       <c r="I114" t="n">
-        <v>736.247</v>
+        <v>743.403</v>
       </c>
       <c r="J114" t="n">
-        <v>12740</v>
+        <v>16134</v>
       </c>
       <c r="K114" t="n">
-        <v>1.872</v>
+        <v>2.371</v>
       </c>
       <c r="L114" t="n">
-        <v>13491</v>
+        <v>13985</v>
       </c>
       <c r="M114" t="n">
-        <v>1.983</v>
+        <v>2.055</v>
       </c>
       <c r="N114" t="n">
-        <v>0.167</v>
+        <v>0.191</v>
       </c>
       <c r="O114" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="P114" t="s">
         <v>36</v>
@@ -9482,7 +9498,7 @@
         <v>680</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D117" t="s">
         <v>681</v>
@@ -9492,31 +9508,31 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="H117" t="n">
-        <v>1447117</v>
+        <v>1457824</v>
       </c>
       <c r="I117" t="n">
-        <v>696.157</v>
+        <v>701.307</v>
       </c>
       <c r="J117" t="n">
-        <v>2916</v>
+        <v>3303</v>
       </c>
       <c r="K117" t="n">
-        <v>1.403</v>
+        <v>1.589</v>
       </c>
       <c r="L117" t="n">
-        <v>2428</v>
+        <v>2716</v>
       </c>
       <c r="M117" t="n">
-        <v>1.168</v>
+        <v>1.307</v>
       </c>
       <c r="N117" t="n">
-        <v>0.18</v>
+        <v>0.186</v>
       </c>
       <c r="O117" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="P117" t="s">
         <v>682</v>
@@ -9539,7 +9555,7 @@
         <v>685</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44433</v>
+        <v>44440</v>
       </c>
       <c r="D118" t="s">
         <v>686</v>
@@ -9549,31 +9565,31 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="H118" t="n">
-        <v>16228941</v>
+        <v>16536206</v>
       </c>
       <c r="I118" t="n">
-        <v>270.293</v>
+        <v>275.411</v>
       </c>
       <c r="J118" t="n">
-        <v>132360</v>
+        <v>61027</v>
       </c>
       <c r="K118" t="n">
-        <v>2.204</v>
+        <v>1.016</v>
       </c>
       <c r="L118" t="n">
-        <v>68058</v>
+        <v>43895</v>
       </c>
       <c r="M118" t="n">
-        <v>1.134</v>
+        <v>0.731</v>
       </c>
       <c r="N118" t="n">
-        <v>0.175</v>
+        <v>0.212</v>
       </c>
       <c r="O118" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="P118" t="s">
         <v>687</v>
@@ -9596,7 +9612,7 @@
         <v>691</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44439</v>
+        <v>44442</v>
       </c>
       <c r="D119" t="s">
         <v>692</v>
@@ -9606,25 +9622,25 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H119" t="n">
-        <v>12343477</v>
+        <v>12461484</v>
       </c>
       <c r="I119" t="n">
-        <v>240.589</v>
+        <v>242.889</v>
       </c>
       <c r="J119" t="n">
-        <v>60600</v>
+        <v>57908</v>
       </c>
       <c r="K119" t="n">
-        <v>1.181</v>
+        <v>1.129</v>
       </c>
       <c r="L119" t="n">
-        <v>40939</v>
+        <v>36024</v>
       </c>
       <c r="M119" t="n">
-        <v>0.798</v>
+        <v>0.702</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9702,7 +9718,7 @@
         <v>701</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44427</v>
+        <v>44434</v>
       </c>
       <c r="D121" t="s">
         <v>702</v>
@@ -9712,27 +9728,27 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H121" t="n">
-        <v>54719110</v>
+        <v>55478210</v>
       </c>
       <c r="I121" t="n">
-        <v>1170.582</v>
+        <v>1186.821</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>114479</v>
+        <v>105898</v>
       </c>
       <c r="M121" t="n">
-        <v>2.449</v>
+        <v>2.265</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1</v>
+        <v>0.087</v>
       </c>
       <c r="O121" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="P121" t="s">
         <v>704</v>
@@ -9755,7 +9771,7 @@
         <v>708</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D122" t="s">
         <v>709</v>
@@ -9765,31 +9781,31 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H122" t="n">
-        <v>4961916</v>
+        <v>5003197</v>
       </c>
       <c r="I122" t="n">
-        <v>230.816</v>
+        <v>232.736</v>
       </c>
       <c r="J122" t="n">
-        <v>13696</v>
+        <v>14009</v>
       </c>
       <c r="K122" t="n">
-        <v>0.637</v>
+        <v>0.652</v>
       </c>
       <c r="L122" t="n">
-        <v>15738</v>
+        <v>14693</v>
       </c>
       <c r="M122" t="n">
-        <v>0.732</v>
+        <v>0.683</v>
       </c>
       <c r="N122" t="n">
-        <v>0.379</v>
+        <v>0.344</v>
       </c>
       <c r="O122" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="P122" t="s">
         <v>710</v>
@@ -9812,7 +9828,7 @@
         <v>713</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44430</v>
+        <v>44437</v>
       </c>
       <c r="D123" t="s">
         <v>714</v>
@@ -9822,27 +9838,27 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="n">
-        <v>17533</v>
+        <v>26075</v>
       </c>
       <c r="K123" t="n">
-        <v>1.726</v>
+        <v>2.566</v>
       </c>
       <c r="L123" t="n">
-        <v>17533</v>
+        <v>26075</v>
       </c>
       <c r="M123" t="n">
-        <v>1.726</v>
+        <v>2.566</v>
       </c>
       <c r="N123" t="n">
-        <v>0.052</v>
+        <v>0.037</v>
       </c>
       <c r="O123" t="n">
-        <v>19.1</v>
+        <v>26.7</v>
       </c>
       <c r="P123" t="s">
         <v>716</v>
@@ -9865,7 +9881,7 @@
         <v>720</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44436</v>
+        <v>44440</v>
       </c>
       <c r="D124" t="s">
         <v>443</v>
@@ -9875,31 +9891,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H124" t="n">
-        <v>9299595</v>
+        <v>9399734</v>
       </c>
       <c r="I124" t="n">
-        <v>1067.019</v>
+        <v>1078.508</v>
       </c>
       <c r="J124" t="n">
-        <v>24404</v>
+        <v>24772</v>
       </c>
       <c r="K124" t="n">
-        <v>2.8</v>
+        <v>2.842</v>
       </c>
       <c r="L124" t="n">
-        <v>26517</v>
+        <v>28053</v>
       </c>
       <c r="M124" t="n">
-        <v>3.043</v>
+        <v>3.219</v>
       </c>
       <c r="N124" t="n">
-        <v>0.112</v>
+        <v>0.1</v>
       </c>
       <c r="O124" t="n">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="P124" t="s">
         <v>444</v>
@@ -9922,7 +9938,7 @@
         <v>723</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D125" t="s">
         <v>724</v>
@@ -9932,31 +9948,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="H125" t="n">
-        <v>2677839</v>
+        <v>2756726</v>
       </c>
       <c r="I125" t="n">
-        <v>112.255</v>
+        <v>115.562</v>
       </c>
       <c r="J125" t="n">
-        <v>20488</v>
+        <v>13860</v>
       </c>
       <c r="K125" t="n">
-        <v>0.859</v>
+        <v>0.581</v>
       </c>
       <c r="L125" t="n">
-        <v>20152</v>
+        <v>21730</v>
       </c>
       <c r="M125" t="n">
-        <v>0.845</v>
+        <v>0.911</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>2390.8</v>
+        <v>2578</v>
       </c>
       <c r="P125" t="s">
         <v>725</v>
@@ -10036,7 +10052,7 @@
         <v>735</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44439</v>
+        <v>44442</v>
       </c>
       <c r="D127" t="s">
         <v>736</v>
@@ -10046,21 +10062,25 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H127" t="n">
-        <v>184871</v>
+        <v>188702</v>
       </c>
       <c r="I127" t="n">
-        <v>137.566</v>
-      </c>
-      <c r="J127"/>
-      <c r="K127"/>
+        <v>140.416</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1332</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.991</v>
+      </c>
       <c r="L127" t="n">
-        <v>1224</v>
+        <v>1043</v>
       </c>
       <c r="M127" t="n">
-        <v>0.911</v>
+        <v>0.776</v>
       </c>
       <c r="N127"/>
       <c r="O127"/>
@@ -10085,7 +10105,7 @@
         <v>739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44434</v>
+        <v>44441</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
@@ -10095,31 +10115,31 @@
         <v>741</v>
       </c>
       <c r="G128" t="n">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="H128" t="n">
-        <v>453355</v>
+        <v>468182</v>
       </c>
       <c r="I128" t="n">
-        <v>53.473</v>
+        <v>55.222</v>
       </c>
       <c r="J128" t="n">
-        <v>2007</v>
+        <v>2122</v>
       </c>
       <c r="K128" t="n">
-        <v>0.237</v>
+        <v>0.25</v>
       </c>
       <c r="L128" t="n">
-        <v>1919</v>
+        <v>2118</v>
       </c>
       <c r="M128" t="n">
-        <v>0.226</v>
+        <v>0.25</v>
       </c>
       <c r="N128" t="n">
-        <v>0.142</v>
+        <v>0.086</v>
       </c>
       <c r="O128" t="n">
-        <v>7</v>
+        <v>11.7</v>
       </c>
       <c r="P128" t="s">
         <v>740</v>
@@ -10142,39 +10162,41 @@
         <v>746</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44434</v>
+        <v>44439</v>
       </c>
       <c r="D129" t="s">
         <v>747</v>
       </c>
-      <c r="E129"/>
+      <c r="E129" t="s">
+        <v>36</v>
+      </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H129" t="n">
-        <v>304866</v>
+        <v>308402</v>
       </c>
       <c r="I129" t="n">
-        <v>217.238</v>
+        <v>219.758</v>
       </c>
       <c r="J129" t="n">
-        <v>856</v>
+        <v>735</v>
       </c>
       <c r="K129" t="n">
-        <v>0.61</v>
+        <v>0.524</v>
       </c>
       <c r="L129" t="n">
-        <v>34751</v>
+        <v>755</v>
       </c>
       <c r="M129" t="n">
-        <v>24.762</v>
+        <v>0.538</v>
       </c>
       <c r="N129" t="n">
-        <v>0.005</v>
+        <v>0.284</v>
       </c>
       <c r="O129" t="n">
-        <v>208.3</v>
+        <v>3.5</v>
       </c>
       <c r="P129" t="s">
         <v>36</v>
@@ -10197,7 +10219,7 @@
         <v>751</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44438</v>
+        <v>44440</v>
       </c>
       <c r="D130" t="s">
         <v>752</v>
@@ -10207,31 +10229,31 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H130" t="n">
-        <v>2591577</v>
+        <v>2616244</v>
       </c>
       <c r="I130" t="n">
-        <v>217.127</v>
+        <v>219.194</v>
       </c>
       <c r="J130" t="n">
-        <v>20127</v>
+        <v>10976</v>
       </c>
       <c r="K130" t="n">
-        <v>1.686</v>
+        <v>0.92</v>
       </c>
       <c r="L130" t="n">
-        <v>17408</v>
+        <v>16604</v>
       </c>
       <c r="M130" t="n">
-        <v>1.458</v>
+        <v>1.391</v>
       </c>
       <c r="N130" t="n">
-        <v>0.164</v>
+        <v>0.161</v>
       </c>
       <c r="O130" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="P130" t="s">
         <v>754</v>
@@ -10254,7 +10276,7 @@
         <v>758</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D131" t="s">
         <v>759</v>
@@ -10264,31 +10286,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H131" t="n">
-        <v>76100008</v>
+        <v>77005091</v>
       </c>
       <c r="I131" t="n">
-        <v>894.844</v>
+        <v>905.487</v>
       </c>
       <c r="J131" t="n">
-        <v>283250</v>
+        <v>305047</v>
       </c>
       <c r="K131" t="n">
-        <v>3.331</v>
+        <v>3.587</v>
       </c>
       <c r="L131" t="n">
-        <v>291761</v>
+        <v>294370</v>
       </c>
       <c r="M131" t="n">
-        <v>3.431</v>
+        <v>3.461</v>
       </c>
       <c r="N131" t="n">
-        <v>0.065</v>
+        <v>0.058</v>
       </c>
       <c r="O131" t="n">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
       <c r="P131" t="s">
         <v>760</v>
@@ -10311,7 +10333,7 @@
         <v>764</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44432</v>
+        <v>44439</v>
       </c>
       <c r="D132" t="s">
         <v>765</v>
@@ -10321,31 +10343,31 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H132" t="n">
-        <v>1561437</v>
+        <v>1586275</v>
       </c>
       <c r="I132" t="n">
-        <v>33.135</v>
+        <v>33.662</v>
       </c>
       <c r="J132" t="n">
-        <v>2721</v>
+        <v>2977</v>
       </c>
       <c r="K132" t="n">
-        <v>0.058</v>
+        <v>0.063</v>
       </c>
       <c r="L132" t="n">
-        <v>3573</v>
+        <v>3548</v>
       </c>
       <c r="M132" t="n">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
       <c r="N132" t="n">
-        <v>0.868</v>
+        <v>0.041</v>
       </c>
       <c r="O132" t="n">
-        <v>1.2</v>
+        <v>24.5</v>
       </c>
       <c r="P132" t="s">
         <v>766</v>
@@ -10368,7 +10390,7 @@
         <v>770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44439</v>
+        <v>44442</v>
       </c>
       <c r="D133" t="s">
         <v>771</v>
@@ -10378,25 +10400,25 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H133" t="n">
-        <v>11980323</v>
+        <v>12055523</v>
       </c>
       <c r="I133" t="n">
-        <v>275.62</v>
+        <v>277.35</v>
       </c>
       <c r="J133" t="n">
-        <v>21358</v>
+        <v>23538</v>
       </c>
       <c r="K133" t="n">
-        <v>0.491</v>
+        <v>0.542</v>
       </c>
       <c r="L133" t="n">
-        <v>19717</v>
+        <v>21715</v>
       </c>
       <c r="M133" t="n">
-        <v>0.454</v>
+        <v>0.5</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
@@ -10421,7 +10443,7 @@
         <v>776</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="D134" t="s">
         <v>777</v>
@@ -10431,28 +10453,32 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H134" t="n">
-        <v>74776361</v>
+        <v>75286170</v>
       </c>
       <c r="I134" t="n">
-        <v>7484.31</v>
+        <v>7535.336</v>
       </c>
       <c r="J134" t="n">
-        <v>329146</v>
+        <v>250240</v>
       </c>
       <c r="K134" t="n">
-        <v>32.944</v>
+        <v>25.046</v>
       </c>
       <c r="L134" t="n">
-        <v>321605</v>
+        <v>302762</v>
       </c>
       <c r="M134" t="n">
-        <v>32.189</v>
-      </c>
-      <c r="N134"/>
-      <c r="O134"/>
+        <v>30.303</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O134" t="n">
+        <v>305.9</v>
+      </c>
       <c r="P134" t="s">
         <v>778</v>
       </c>
@@ -10474,7 +10500,7 @@
         <v>781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44434</v>
+        <v>44440</v>
       </c>
       <c r="D135" t="s">
         <v>782</v>
@@ -10486,31 +10512,31 @@
         <v>784</v>
       </c>
       <c r="G135" t="n">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="H135" t="n">
-        <v>240055533</v>
+        <v>244928717</v>
       </c>
       <c r="I135" t="n">
-        <v>3519.509</v>
+        <v>3590.956</v>
       </c>
       <c r="J135" t="n">
-        <v>974138</v>
+        <v>1018868</v>
       </c>
       <c r="K135" t="n">
-        <v>14.282</v>
+        <v>14.938</v>
       </c>
       <c r="L135" t="n">
-        <v>772420</v>
+        <v>835332</v>
       </c>
       <c r="M135" t="n">
-        <v>11.325</v>
+        <v>12.247</v>
       </c>
       <c r="N135" t="n">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="O135" t="n">
-        <v>22.8</v>
+        <v>24.9</v>
       </c>
       <c r="P135" t="s">
         <v>785</v>
@@ -10533,7 +10559,7 @@
         <v>789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44434</v>
+        <v>44438</v>
       </c>
       <c r="D136" t="s">
         <v>790</v>
@@ -10543,31 +10569,31 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H136" t="n">
-        <v>523153338</v>
+        <v>527968852</v>
       </c>
       <c r="I136" t="n">
-        <v>1571.432</v>
+        <v>1585.897</v>
       </c>
       <c r="J136" t="n">
-        <v>909779</v>
+        <v>333933</v>
       </c>
       <c r="K136" t="n">
-        <v>2.733</v>
+        <v>1.003</v>
       </c>
       <c r="L136" t="n">
-        <v>1104795</v>
+        <v>1165241</v>
       </c>
       <c r="M136" t="n">
-        <v>3.319</v>
+        <v>3.5</v>
       </c>
       <c r="N136" t="n">
-        <v>0.141</v>
+        <v>0.137</v>
       </c>
       <c r="O136" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="P136" t="s">
         <v>791</v>
@@ -10590,7 +10616,7 @@
         <v>796</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D137" t="s">
         <v>797</v>
@@ -10600,27 +10626,31 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H137" t="n">
-        <v>3315862</v>
+        <v>3353058</v>
       </c>
       <c r="I137" t="n">
-        <v>951.425</v>
-      </c>
-      <c r="J137"/>
-      <c r="K137"/>
+        <v>962.098</v>
+      </c>
+      <c r="J137" t="n">
+        <v>10764</v>
+      </c>
+      <c r="K137" t="n">
+        <v>3.089</v>
+      </c>
       <c r="L137" t="n">
-        <v>5537</v>
+        <v>8522</v>
       </c>
       <c r="M137" t="n">
-        <v>1.589</v>
+        <v>2.445</v>
       </c>
       <c r="N137" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="O137" t="n">
-        <v>64.9</v>
+        <v>74</v>
       </c>
       <c r="P137" t="s">
         <v>191</v>
@@ -10643,7 +10673,7 @@
         <v>801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44432</v>
+        <v>44439</v>
       </c>
       <c r="D138" t="s">
         <v>802</v>
@@ -10653,31 +10683,27 @@
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H138" t="n">
-        <v>13016830</v>
+        <v>14332918</v>
       </c>
       <c r="I138" t="n">
-        <v>132.596</v>
-      </c>
-      <c r="J138" t="n">
-        <v>1014412</v>
-      </c>
-      <c r="K138" t="n">
-        <v>10.333</v>
-      </c>
+        <v>146.003</v>
+      </c>
+      <c r="J138"/>
+      <c r="K138"/>
       <c r="L138" t="n">
-        <v>296696</v>
+        <v>188013</v>
       </c>
       <c r="M138" t="n">
-        <v>3.022</v>
+        <v>1.915</v>
       </c>
       <c r="N138" t="n">
-        <v>0.037</v>
+        <v>0.071</v>
       </c>
       <c r="O138" t="n">
-        <v>27.3</v>
+        <v>14.2</v>
       </c>
       <c r="P138" t="s">
         <v>804</v>
@@ -10700,7 +10726,7 @@
         <v>808</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44436</v>
+        <v>44439</v>
       </c>
       <c r="D139" t="s">
         <v>809</v>
@@ -10710,31 +10736,31 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H139" t="n">
-        <v>2258787</v>
+        <v>2275267</v>
       </c>
       <c r="I139" t="n">
-        <v>119.382</v>
+        <v>120.253</v>
       </c>
       <c r="J139" t="n">
-        <v>6292</v>
+        <v>7154</v>
       </c>
       <c r="K139" t="n">
-        <v>0.333</v>
+        <v>0.378</v>
       </c>
       <c r="L139" t="n">
-        <v>5998</v>
+        <v>5957</v>
       </c>
       <c r="M139" t="n">
-        <v>0.317</v>
+        <v>0.315</v>
       </c>
       <c r="N139" t="n">
-        <v>0.037</v>
+        <v>0.032</v>
       </c>
       <c r="O139" t="n">
-        <v>27</v>
+        <v>30.9</v>
       </c>
       <c r="P139" t="s">
         <v>811</v>
@@ -10757,7 +10783,7 @@
         <v>814</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44429</v>
+        <v>44440</v>
       </c>
       <c r="D140" t="s">
         <v>815</v>
@@ -10767,31 +10793,31 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="H140" t="n">
-        <v>1092557</v>
+        <v>1142911</v>
       </c>
       <c r="I140" t="n">
-        <v>72.392</v>
+        <v>75.729</v>
       </c>
       <c r="J140" t="n">
-        <v>3957</v>
+        <v>4828</v>
       </c>
       <c r="K140" t="n">
-        <v>0.262</v>
+        <v>0.32</v>
       </c>
       <c r="L140" t="n">
-        <v>5952</v>
+        <v>4282</v>
       </c>
       <c r="M140" t="n">
-        <v>0.394</v>
+        <v>0.284</v>
       </c>
       <c r="N140" t="n">
-        <v>0.063</v>
+        <v>0.042</v>
       </c>
       <c r="O140" t="n">
-        <v>15.8</v>
+        <v>24</v>
       </c>
       <c r="P140" t="s">
         <v>816</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-2-september-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-8-september-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1836-new-cases-1784-recoveries_i_0000134095.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1760-new-cases-1486-recoveries_i_0000134299.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-02-de-setembro-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-07-de-setembro-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -715,7 +715,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-02092021-jx25</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-08092021-a18e</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -733,7 +733,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/09/Boletin-COVID-19-no.531.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-admin/admin-ajax.php?juwpfisadmin=false&amp;action=wpfd&amp;task=file.download&amp;wpfd_category_id=59&amp;wpfd_file_id=13083</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -1168,7 +1168,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/369222</t>
+    <t xml:space="preserve">http://irangov.ir/detail/369580</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1291,7 +1291,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-september-1-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-tuesday-september-7-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -2049,7 +2049,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1EjsUxqE8udmCJgDsJfHd9oMB8QTFpZZP</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1ySmua8ROg-sOenAm8mut3l2_Fb3mwTZX</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2133,7 +2133,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/2-09_BULETIN_DE_PRESA_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/08-09_BULETIN_DE_PRESA_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18857</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18911</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2710,7 +2710,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/cong-van-1301-bc-byt-bo-y-te-208642-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1308-bc-byt-2021-tinh-hinh-dich-covid-19-va-ket-qua-cong-tac-phong-chong-dich-208708-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam Ministry of Health</t>
@@ -3232,7 +3232,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44437</v>
+        <v>44445</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3242,27 +3242,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" t="n">
-        <v>209623</v>
+        <v>210856</v>
       </c>
       <c r="I3" t="n">
-        <v>2709.918</v>
+        <v>2725.858</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M3" t="n">
-        <v>2.159</v>
+        <v>1.991</v>
       </c>
       <c r="N3" t="n">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="O3" t="n">
-        <v>31.6</v>
+        <v>29.1</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3330,7 +3330,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44436</v>
+        <v>44442</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3340,31 +3340,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="H5" t="n">
-        <v>13261005</v>
+        <v>13467809</v>
       </c>
       <c r="I5" t="n">
-        <v>290.774</v>
+        <v>295.309</v>
       </c>
       <c r="J5" t="n">
-        <v>29114</v>
+        <v>30571</v>
       </c>
       <c r="K5" t="n">
-        <v>0.638</v>
+        <v>0.67</v>
       </c>
       <c r="L5" t="n">
-        <v>34503</v>
+        <v>31627</v>
       </c>
       <c r="M5" t="n">
-        <v>0.757</v>
+        <v>0.693</v>
       </c>
       <c r="N5" t="n">
-        <v>0.051</v>
+        <v>0.042</v>
       </c>
       <c r="O5" t="n">
-        <v>19.6</v>
+        <v>23.8</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3444,7 +3444,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3454,31 +3454,27 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H7" t="n">
-        <v>32024250</v>
+        <v>33227789</v>
       </c>
       <c r="I7" t="n">
-        <v>1241.817</v>
-      </c>
-      <c r="J7" t="n">
-        <v>203243</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7.881</v>
-      </c>
+        <v>1288.487</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7" t="n">
-        <v>211774</v>
+        <v>200969</v>
       </c>
       <c r="M7" t="n">
-        <v>8.212</v>
+        <v>7.793</v>
       </c>
       <c r="N7" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="O7" t="n">
-        <v>157.8</v>
+        <v>122.5</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3501,7 +3497,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3511,31 +3507,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H8" t="n">
-        <v>76859312</v>
+        <v>78870408</v>
       </c>
       <c r="I8" t="n">
-        <v>8499.248</v>
+        <v>8721.639</v>
       </c>
       <c r="J8" t="n">
-        <v>283464</v>
+        <v>338557</v>
       </c>
       <c r="K8" t="n">
-        <v>31.346</v>
+        <v>37.438</v>
       </c>
       <c r="L8" t="n">
-        <v>311885</v>
+        <v>336043</v>
       </c>
       <c r="M8" t="n">
-        <v>34.489</v>
+        <v>37.16</v>
       </c>
       <c r="N8" t="n">
         <v>0.005</v>
       </c>
       <c r="O8" t="n">
-        <v>218.9</v>
+        <v>221</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3558,7 +3554,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3568,31 +3564,27 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H9" t="n">
-        <v>4498717</v>
+        <v>4578600</v>
       </c>
       <c r="I9" t="n">
-        <v>440.044</v>
-      </c>
-      <c r="J9" t="n">
-        <v>17678</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.729</v>
-      </c>
+        <v>447.857</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
       <c r="L9" t="n">
-        <v>17030</v>
+        <v>13937</v>
       </c>
       <c r="M9" t="n">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="N9" t="n">
-        <v>0.226</v>
+        <v>0.195</v>
       </c>
       <c r="O9" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3615,7 +3607,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3625,31 +3617,27 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="H10" t="n">
-        <v>5967724</v>
+        <v>6077573</v>
       </c>
       <c r="I10" t="n">
-        <v>3413.454</v>
-      </c>
-      <c r="J10" t="n">
-        <v>16287</v>
-      </c>
-      <c r="K10" t="n">
-        <v>9.316</v>
-      </c>
+        <v>3476.286</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
       <c r="L10" t="n">
-        <v>16733</v>
+        <v>18019</v>
       </c>
       <c r="M10" t="n">
-        <v>9.571</v>
+        <v>10.307</v>
       </c>
       <c r="N10" t="n">
         <v>0.006</v>
       </c>
       <c r="O10" t="n">
-        <v>175.6</v>
+        <v>172.5</v>
       </c>
       <c r="P10" t="s">
         <v>70</v>
@@ -3672,7 +3660,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3682,31 +3670,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="H11" t="n">
-        <v>8977083</v>
+        <v>9113745</v>
       </c>
       <c r="I11" t="n">
-        <v>53.98</v>
+        <v>54.802</v>
       </c>
       <c r="J11" t="n">
-        <v>33025</v>
+        <v>27233</v>
       </c>
       <c r="K11" t="n">
-        <v>0.199</v>
+        <v>0.164</v>
       </c>
       <c r="L11" t="n">
-        <v>29500</v>
+        <v>24241</v>
       </c>
       <c r="M11" t="n">
-        <v>0.177</v>
+        <v>0.146</v>
       </c>
       <c r="N11" t="n">
-        <v>0.119</v>
+        <v>0.11</v>
       </c>
       <c r="O11" t="n">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3729,7 +3717,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3739,31 +3727,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H12" t="n">
-        <v>7839164</v>
+        <v>7943649</v>
       </c>
       <c r="I12" t="n">
-        <v>830.168</v>
+        <v>841.233</v>
       </c>
       <c r="J12" t="n">
-        <v>21522</v>
+        <v>21970</v>
       </c>
       <c r="K12" t="n">
-        <v>2.279</v>
+        <v>2.327</v>
       </c>
       <c r="L12" t="n">
-        <v>17003</v>
+        <v>18001</v>
       </c>
       <c r="M12" t="n">
-        <v>1.801</v>
+        <v>1.906</v>
       </c>
       <c r="N12" t="n">
-        <v>0.09</v>
+        <v>0.098</v>
       </c>
       <c r="O12" t="n">
-        <v>11.2</v>
+        <v>10.2</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3786,7 +3774,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3796,25 +3784,25 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H13" t="n">
-        <v>18778557</v>
+        <v>19015424</v>
       </c>
       <c r="I13" t="n">
-        <v>1614.341</v>
+        <v>1634.704</v>
       </c>
       <c r="J13" t="n">
-        <v>39131</v>
+        <v>46725</v>
       </c>
       <c r="K13" t="n">
-        <v>3.364</v>
+        <v>4.017</v>
       </c>
       <c r="L13" t="n">
-        <v>41157</v>
+        <v>39387</v>
       </c>
       <c r="M13" t="n">
-        <v>3.538</v>
+        <v>3.386</v>
       </c>
       <c r="N13" t="n">
         <v>0.054</v>
@@ -4051,7 +4039,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4061,31 +4049,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>405</v>
+        <v>106</v>
       </c>
       <c r="H18" t="n">
-        <v>1146897</v>
+        <v>1162083</v>
       </c>
       <c r="I18" t="n">
-        <v>351.436</v>
+        <v>356.089</v>
       </c>
       <c r="J18" t="n">
-        <v>2327</v>
+        <v>3119</v>
       </c>
       <c r="K18" t="n">
-        <v>0.713</v>
+        <v>0.956</v>
       </c>
       <c r="L18" t="n">
-        <v>2524</v>
+        <v>2502</v>
       </c>
       <c r="M18" t="n">
-        <v>0.773</v>
+        <v>0.767</v>
       </c>
       <c r="N18" t="n">
-        <v>0.205</v>
+        <v>0.243</v>
       </c>
       <c r="O18" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="P18" t="s">
         <v>118</v>
@@ -4153,7 +4141,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4163,27 +4151,27 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H20" t="n">
-        <v>4276501</v>
+        <v>4395834</v>
       </c>
       <c r="I20" t="n">
-        <v>620.083</v>
+        <v>637.386</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>23196</v>
+        <v>20726</v>
       </c>
       <c r="M20" t="n">
-        <v>3.363</v>
+        <v>3.005</v>
       </c>
       <c r="N20" t="n">
-        <v>0.065</v>
+        <v>0.063</v>
       </c>
       <c r="O20" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="P20" t="s">
         <v>130</v>
@@ -4320,7 +4308,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D23" t="s">
         <v>140</v>
@@ -4330,31 +4318,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="H23" t="n">
-        <v>40693199</v>
+        <v>41151117</v>
       </c>
       <c r="I23" t="n">
-        <v>1068.963</v>
+        <v>1080.992</v>
       </c>
       <c r="J23" t="n">
-        <v>87567</v>
+        <v>66077</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>1.736</v>
       </c>
       <c r="L23" t="n">
-        <v>77516</v>
+        <v>77926</v>
       </c>
       <c r="M23" t="n">
-        <v>2.036</v>
+        <v>2.047</v>
       </c>
       <c r="N23" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="O23" t="n">
-        <v>22.2</v>
+        <v>20.8</v>
       </c>
       <c r="P23" t="s">
         <v>141</v>
@@ -4377,7 +4365,7 @@
         <v>147</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="D24" t="s">
         <v>148</v>
@@ -4387,15 +4375,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>1461</v>
+        <v>1446</v>
       </c>
       <c r="K24" t="n">
-        <v>2.6</v>
+        <v>2.573</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4422,7 +4410,7 @@
         <v>153</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D25" t="s">
         <v>154</v>
@@ -4432,31 +4420,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="H25" t="n">
-        <v>20141795</v>
+        <v>20435163</v>
       </c>
       <c r="I25" t="n">
-        <v>1048.377</v>
+        <v>1063.647</v>
       </c>
       <c r="J25" t="n">
-        <v>64301</v>
+        <v>43498</v>
       </c>
       <c r="K25" t="n">
-        <v>3.347</v>
+        <v>2.264</v>
       </c>
       <c r="L25" t="n">
-        <v>50859</v>
+        <v>51096</v>
       </c>
       <c r="M25" t="n">
-        <v>2.647</v>
+        <v>2.66</v>
       </c>
       <c r="N25" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="O25" t="n">
-        <v>95.2</v>
+        <v>118.3</v>
       </c>
       <c r="P25" t="s">
         <v>156</v>
@@ -4524,7 +4512,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D27" t="s">
         <v>167</v>
@@ -4534,31 +4522,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="H27" t="n">
-        <v>24213647</v>
+        <v>24491154</v>
       </c>
       <c r="I27" t="n">
-        <v>472.315</v>
+        <v>477.729</v>
       </c>
       <c r="J27" t="n">
-        <v>51175</v>
+        <v>53075</v>
       </c>
       <c r="K27" t="n">
-        <v>0.998</v>
+        <v>1.035</v>
       </c>
       <c r="L27" t="n">
-        <v>47409</v>
+        <v>46955</v>
       </c>
       <c r="M27" t="n">
-        <v>0.925</v>
+        <v>0.916</v>
       </c>
       <c r="N27" t="n">
-        <v>0.052</v>
+        <v>0.047</v>
       </c>
       <c r="O27" t="n">
-        <v>19.2</v>
+        <v>21.3</v>
       </c>
       <c r="P27" t="s">
         <v>168</v>
@@ -4581,7 +4569,7 @@
         <v>172</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44438</v>
+        <v>44442</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
@@ -4591,31 +4579,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H28" t="n">
-        <v>1688911</v>
+        <v>1731355</v>
       </c>
       <c r="I28" t="n">
-        <v>328.642</v>
+        <v>336.902</v>
       </c>
       <c r="J28" t="n">
-        <v>4519</v>
+        <v>10434</v>
       </c>
       <c r="K28" t="n">
-        <v>0.879</v>
+        <v>2.03</v>
       </c>
       <c r="L28" t="n">
-        <v>8090</v>
+        <v>8122</v>
       </c>
       <c r="M28" t="n">
-        <v>1.574</v>
+        <v>1.58</v>
       </c>
       <c r="N28" t="n">
-        <v>0.227</v>
+        <v>0.241</v>
       </c>
       <c r="O28" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="P28" t="s">
         <v>174</v>
@@ -4695,7 +4683,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44442</v>
+        <v>44447</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4705,24 +4693,32 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="H30" t="n">
-        <v>2573737</v>
+        <v>2618129</v>
       </c>
       <c r="I30" t="n">
-        <v>630.562</v>
-      </c>
-      <c r="J30"/>
-      <c r="K30"/>
+        <v>641.438</v>
+      </c>
+      <c r="J30" t="n">
+        <v>10928</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.677</v>
+      </c>
       <c r="L30" t="n">
-        <v>8983</v>
+        <v>9174</v>
       </c>
       <c r="M30" t="n">
-        <v>2.201</v>
-      </c>
-      <c r="N30"/>
-      <c r="O30"/>
+        <v>2.248</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O30" t="n">
+        <v>12.4</v>
+      </c>
       <c r="P30" t="s">
         <v>185</v>
       </c>
@@ -4803,7 +4799,7 @@
         <v>196</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D32" t="s">
         <v>197</v>
@@ -4813,31 +4809,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="H32" t="n">
-        <v>11748417</v>
+        <v>12062103</v>
       </c>
       <c r="I32" t="n">
-        <v>13230.125</v>
+        <v>13583.373</v>
       </c>
       <c r="J32" t="n">
-        <v>52758</v>
+        <v>48588</v>
       </c>
       <c r="K32" t="n">
-        <v>59.412</v>
+        <v>54.716</v>
       </c>
       <c r="L32" t="n">
-        <v>44833</v>
+        <v>52349</v>
       </c>
       <c r="M32" t="n">
-        <v>50.487</v>
+        <v>58.951</v>
       </c>
       <c r="N32" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="O32" t="n">
-        <v>171.1</v>
+        <v>240.1</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4860,7 +4856,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D33" t="s">
         <v>201</v>
@@ -4870,21 +4866,21 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>99654</v>
+        <v>60414</v>
       </c>
       <c r="K33" t="n">
-        <v>9.292</v>
+        <v>5.633</v>
       </c>
       <c r="L33" t="n">
-        <v>82542</v>
+        <v>73965</v>
       </c>
       <c r="M33" t="n">
-        <v>7.697</v>
+        <v>6.897</v>
       </c>
       <c r="N33" t="n">
         <v>0.003</v>
@@ -4966,7 +4962,7 @@
         <v>210</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44439</v>
+        <v>44445</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -4976,31 +4972,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H35" t="n">
-        <v>39900648</v>
+        <v>40222979</v>
       </c>
       <c r="I35" t="n">
-        <v>6863.681</v>
+        <v>6919.128</v>
       </c>
       <c r="J35" t="n">
-        <v>64847</v>
+        <v>59159</v>
       </c>
       <c r="K35" t="n">
-        <v>11.155</v>
+        <v>10.176</v>
       </c>
       <c r="L35" t="n">
-        <v>69379</v>
+        <v>55309</v>
       </c>
       <c r="M35" t="n">
-        <v>11.935</v>
+        <v>9.514</v>
       </c>
       <c r="N35" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="O35" t="n">
-        <v>79.1</v>
+        <v>83.6</v>
       </c>
       <c r="P35" t="s">
         <v>212</v>
@@ -5023,7 +5019,7 @@
         <v>216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44439</v>
+        <v>44444</v>
       </c>
       <c r="D36" t="s">
         <v>217</v>
@@ -5036,24 +5032,24 @@
         <v>410</v>
       </c>
       <c r="H36" t="n">
-        <v>1958308</v>
+        <v>1975055</v>
       </c>
       <c r="I36" t="n">
-        <v>178.78</v>
+        <v>180.309</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>2861</v>
+        <v>3201</v>
       </c>
       <c r="M36" t="n">
-        <v>0.261</v>
+        <v>0.292</v>
       </c>
       <c r="N36" t="n">
-        <v>0.096</v>
+        <v>0.084</v>
       </c>
       <c r="O36" t="n">
-        <v>10.4</v>
+        <v>11.9</v>
       </c>
       <c r="P36" t="s">
         <v>218</v>
@@ -5088,7 +5084,7 @@
         <v>225</v>
       </c>
       <c r="G37" t="n">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H37" t="n">
         <v>1679015</v>
@@ -5192,7 +5188,7 @@
         <v>236</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="D39" t="s">
         <v>237</v>
@@ -5202,27 +5198,27 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H39" t="n">
-        <v>196464</v>
+        <v>201124</v>
       </c>
       <c r="I39" t="n">
-        <v>135.503</v>
+        <v>138.717</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39" t="n">
-        <v>554</v>
+        <v>731</v>
       </c>
       <c r="M39" t="n">
-        <v>0.382</v>
+        <v>0.504</v>
       </c>
       <c r="N39" t="n">
-        <v>0.078</v>
+        <v>0.09</v>
       </c>
       <c r="O39" t="n">
-        <v>12.8</v>
+        <v>11.1</v>
       </c>
       <c r="P39" t="s">
         <v>239</v>
@@ -5245,7 +5241,7 @@
         <v>242</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D40" t="s">
         <v>243</v>
@@ -5255,31 +5251,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="H40" t="n">
-        <v>1774420</v>
+        <v>1802713</v>
       </c>
       <c r="I40" t="n">
-        <v>1338.995</v>
+        <v>1360.345</v>
       </c>
       <c r="J40" t="n">
-        <v>5065</v>
+        <v>5415</v>
       </c>
       <c r="K40" t="n">
-        <v>3.822</v>
+        <v>4.086</v>
       </c>
       <c r="L40" t="n">
-        <v>4531</v>
+        <v>4766</v>
       </c>
       <c r="M40" t="n">
-        <v>3.419</v>
+        <v>3.596</v>
       </c>
       <c r="N40" t="n">
-        <v>0.079</v>
+        <v>0.075</v>
       </c>
       <c r="O40" t="n">
-        <v>12.7</v>
+        <v>13.3</v>
       </c>
       <c r="P40" t="s">
         <v>244</v>
@@ -5302,7 +5298,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="D41" t="s">
         <v>248</v>
@@ -5312,31 +5308,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="H41" t="n">
-        <v>3246694</v>
+        <v>3301802</v>
       </c>
       <c r="I41" t="n">
-        <v>27.543</v>
+        <v>28.011</v>
       </c>
       <c r="J41" t="n">
-        <v>7278</v>
+        <v>8353</v>
       </c>
       <c r="K41" t="n">
-        <v>0.062</v>
+        <v>0.071</v>
       </c>
       <c r="L41" t="n">
-        <v>8078</v>
+        <v>7873</v>
       </c>
       <c r="M41" t="n">
-        <v>0.069</v>
+        <v>0.067</v>
       </c>
       <c r="N41" t="n">
-        <v>0.164</v>
+        <v>0.177</v>
       </c>
       <c r="O41" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="P41" t="s">
         <v>249</v>
@@ -5369,7 +5365,7 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="H42" t="n">
         <v>299637</v>
@@ -5416,7 +5412,7 @@
         <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="D43" t="s">
         <v>258</v>
@@ -5426,31 +5422,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="H43" t="n">
-        <v>6653060</v>
+        <v>6792239</v>
       </c>
       <c r="I43" t="n">
-        <v>1199.104</v>
+        <v>1224.188</v>
       </c>
       <c r="J43" t="n">
-        <v>27685</v>
+        <v>20138</v>
       </c>
       <c r="K43" t="n">
-        <v>4.99</v>
+        <v>3.63</v>
       </c>
       <c r="L43" t="n">
-        <v>23696</v>
+        <v>22690</v>
       </c>
       <c r="M43" t="n">
-        <v>4.271</v>
+        <v>4.089</v>
       </c>
       <c r="N43" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="O43" t="n">
-        <v>39.3</v>
+        <v>41</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5473,7 +5469,7 @@
         <v>263</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44438</v>
+        <v>44443</v>
       </c>
       <c r="D44" t="s">
         <v>264</v>
@@ -5483,27 +5479,27 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="n">
-        <v>821976</v>
+        <v>657672</v>
       </c>
       <c r="K44" t="n">
-        <v>12.166</v>
+        <v>9.734</v>
       </c>
       <c r="L44" t="n">
-        <v>694131</v>
+        <v>618084</v>
       </c>
       <c r="M44" t="n">
-        <v>10.274</v>
+        <v>9.148</v>
       </c>
       <c r="N44" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="O44" t="n">
-        <v>38.5</v>
+        <v>41.7</v>
       </c>
       <c r="P44" t="s">
         <v>265</v>
@@ -5526,7 +5522,7 @@
         <v>268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44441</v>
+        <v>44446</v>
       </c>
       <c r="D45" t="s">
         <v>269</v>
@@ -5536,27 +5532,27 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H45" t="n">
-        <v>1087337</v>
+        <v>1108619</v>
       </c>
       <c r="I45" t="n">
-        <v>477.147</v>
+        <v>486.486</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="n">
-        <v>3300</v>
+        <v>3350</v>
       </c>
       <c r="M45" t="n">
-        <v>1.448</v>
+        <v>1.47</v>
       </c>
       <c r="N45" t="n">
-        <v>0.005</v>
+        <v>0.012</v>
       </c>
       <c r="O45" t="n">
-        <v>183.3</v>
+        <v>81.1</v>
       </c>
       <c r="P45" t="s">
         <v>270</v>
@@ -5642,7 +5638,7 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H47" t="n">
         <v>8000000</v>
@@ -5748,7 +5744,7 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H49" t="n">
         <v>1422916</v>
@@ -5805,7 +5801,7 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H50" t="n">
         <v>15628356</v>
@@ -5852,7 +5848,7 @@
         <v>306</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="D51" t="s">
         <v>307</v>
@@ -5862,31 +5858,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="H51" t="n">
-        <v>2226033</v>
+        <v>2279707</v>
       </c>
       <c r="I51" t="n">
-        <v>121.975</v>
+        <v>124.916</v>
       </c>
       <c r="J51" t="n">
-        <v>15036</v>
+        <v>14256</v>
       </c>
       <c r="K51" t="n">
-        <v>0.824</v>
+        <v>0.781</v>
       </c>
       <c r="L51" t="n">
-        <v>12017</v>
+        <v>9816</v>
       </c>
       <c r="M51" t="n">
-        <v>0.658</v>
+        <v>0.538</v>
       </c>
       <c r="N51" t="n">
-        <v>0.302</v>
+        <v>0.324</v>
       </c>
       <c r="O51" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P51" t="s">
         <v>309</v>
@@ -5909,7 +5905,7 @@
         <v>313</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44432</v>
+        <v>44439</v>
       </c>
       <c r="D52" t="s">
         <v>314</v>
@@ -5922,24 +5918,24 @@
         <v>22</v>
       </c>
       <c r="H52" t="n">
-        <v>23570776</v>
+        <v>24014928</v>
       </c>
       <c r="I52" t="n">
-        <v>3120.8</v>
+        <v>3179.606</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52" t="n">
-        <v>60019</v>
+        <v>60760</v>
       </c>
       <c r="M52" t="n">
-        <v>7.947</v>
+        <v>8.045</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>16666.7</v>
+        <v>14285.7</v>
       </c>
       <c r="P52" t="s">
         <v>316</v>
@@ -5962,7 +5958,7 @@
         <v>320</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44442</v>
+        <v>44447</v>
       </c>
       <c r="D53" t="s">
         <v>321</v>
@@ -5974,28 +5970,32 @@
         <v>323</v>
       </c>
       <c r="G53" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H53" t="n">
-        <v>6155215</v>
+        <v>6200848</v>
       </c>
       <c r="I53" t="n">
-        <v>638.895</v>
+        <v>643.631</v>
       </c>
       <c r="J53" t="n">
-        <v>10882</v>
+        <v>10794</v>
       </c>
       <c r="K53" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="L53" t="n">
-        <v>9144</v>
+        <v>9638</v>
       </c>
       <c r="M53" t="n">
-        <v>0.949</v>
-      </c>
-      <c r="N53"/>
-      <c r="O53"/>
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O53" t="n">
+        <v>44</v>
+      </c>
       <c r="P53" t="s">
         <v>322</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -6027,25 +6027,25 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="H54" t="n">
-        <v>589200</v>
+        <v>602822</v>
       </c>
       <c r="I54" t="n">
-        <v>1715.983</v>
+        <v>1755.656</v>
       </c>
       <c r="J54" t="n">
-        <v>3101</v>
+        <v>2350</v>
       </c>
       <c r="K54" t="n">
-        <v>9.031</v>
+        <v>6.844</v>
       </c>
       <c r="L54" t="n">
-        <v>2714</v>
+        <v>2389</v>
       </c>
       <c r="M54" t="n">
-        <v>7.904</v>
+        <v>6.958</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -6070,7 +6070,7 @@
         <v>332</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="D55" t="s">
         <v>333</v>
@@ -6082,31 +6082,31 @@
         <v>335</v>
       </c>
       <c r="G55" t="n">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="H55" t="n">
-        <v>523184293</v>
+        <v>534943093</v>
       </c>
       <c r="I55" t="n">
-        <v>375.471</v>
+        <v>383.91</v>
       </c>
       <c r="J55" t="n">
-        <v>1643195</v>
+        <v>1753745</v>
       </c>
       <c r="K55" t="n">
-        <v>1.179</v>
+        <v>1.259</v>
       </c>
       <c r="L55" t="n">
-        <v>1714249</v>
+        <v>1679829</v>
       </c>
       <c r="M55" t="n">
-        <v>1.23</v>
+        <v>1.206</v>
       </c>
       <c r="N55" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="O55" t="n">
-        <v>40.1</v>
+        <v>41.7</v>
       </c>
       <c r="P55" t="s">
         <v>334</v>
@@ -6129,7 +6129,7 @@
         <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
@@ -6139,27 +6139,31 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H56" t="n">
-        <v>21621776</v>
+        <v>22208725</v>
       </c>
       <c r="I56" t="n">
-        <v>78.237</v>
-      </c>
-      <c r="J56"/>
-      <c r="K56"/>
+        <v>80.361</v>
+      </c>
+      <c r="J56" t="n">
+        <v>96507</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.349</v>
+      </c>
       <c r="L56" t="n">
-        <v>112104</v>
+        <v>121650</v>
       </c>
       <c r="M56" t="n">
-        <v>0.406</v>
+        <v>0.44</v>
       </c>
       <c r="N56" t="n">
-        <v>0.093</v>
+        <v>0.064</v>
       </c>
       <c r="O56" t="n">
-        <v>10.7</v>
+        <v>15.7</v>
       </c>
       <c r="P56" t="s">
         <v>340</v>
@@ -6182,7 +6186,7 @@
         <v>344</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D57" t="s">
         <v>345</v>
@@ -6192,31 +6196,31 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H57" t="n">
-        <v>29119568</v>
+        <v>29791562</v>
       </c>
       <c r="I57" t="n">
-        <v>342.467</v>
+        <v>350.37</v>
       </c>
       <c r="J57" t="n">
-        <v>113279</v>
+        <v>113682</v>
       </c>
       <c r="K57" t="n">
-        <v>1.332</v>
+        <v>1.337</v>
       </c>
       <c r="L57" t="n">
-        <v>112785</v>
+        <v>112182</v>
       </c>
       <c r="M57" t="n">
-        <v>1.326</v>
+        <v>1.319</v>
       </c>
       <c r="N57" t="n">
-        <v>0.282</v>
+        <v>0.237</v>
       </c>
       <c r="O57" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P57" t="s">
         <v>346</v>
@@ -6296,7 +6300,7 @@
         <v>357</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D59" t="s">
         <v>358</v>
@@ -6306,31 +6310,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H59" t="n">
-        <v>6736791</v>
+        <v>6864431</v>
       </c>
       <c r="I59" t="n">
-        <v>1351.981</v>
+        <v>1377.596</v>
       </c>
       <c r="J59" t="n">
-        <v>20386</v>
+        <v>25776</v>
       </c>
       <c r="K59" t="n">
-        <v>4.091</v>
+        <v>5.173</v>
       </c>
       <c r="L59" t="n">
-        <v>19430</v>
+        <v>20812</v>
       </c>
       <c r="M59" t="n">
-        <v>3.899</v>
+        <v>4.177</v>
       </c>
       <c r="N59" t="n">
-        <v>0.061</v>
+        <v>0.046</v>
       </c>
       <c r="O59" t="n">
-        <v>16.3</v>
+        <v>21.7</v>
       </c>
       <c r="P59" t="s">
         <v>359</v>
@@ -6353,7 +6357,7 @@
         <v>363</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="D60" t="s">
         <v>364</v>
@@ -6363,32 +6367,28 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="H60" t="n">
-        <v>23656010</v>
+        <v>24393911</v>
       </c>
       <c r="I60" t="n">
-        <v>2691.31</v>
+        <v>2775.26</v>
       </c>
       <c r="J60" t="n">
-        <v>140967</v>
+        <v>37206</v>
       </c>
       <c r="K60" t="n">
-        <v>16.038</v>
+        <v>4.233</v>
       </c>
       <c r="L60" t="n">
-        <v>134792</v>
+        <v>105396</v>
       </c>
       <c r="M60" t="n">
-        <v>15.335</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="O60" t="n">
-        <v>13.8</v>
-      </c>
+        <v>11.991</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60"/>
       <c r="P60" t="s">
         <v>36</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D61" t="s">
         <v>370</v>
@@ -6422,31 +6422,31 @@
         <v>372</v>
       </c>
       <c r="G61" t="n">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H61" t="n">
-        <v>32673083</v>
+        <v>33029381</v>
       </c>
       <c r="I61" t="n">
-        <v>541.237</v>
+        <v>547.139</v>
       </c>
       <c r="J61" t="n">
-        <v>67426</v>
+        <v>65634</v>
       </c>
       <c r="K61" t="n">
-        <v>1.117</v>
+        <v>1.087</v>
       </c>
       <c r="L61" t="n">
-        <v>57787</v>
+        <v>60532</v>
       </c>
       <c r="M61" t="n">
-        <v>0.957</v>
+        <v>1.003</v>
       </c>
       <c r="N61" t="n">
-        <v>0.108</v>
+        <v>0.092</v>
       </c>
       <c r="O61" t="n">
-        <v>9.3</v>
+        <v>10.9</v>
       </c>
       <c r="P61" t="s">
         <v>373</v>
@@ -6469,7 +6469,7 @@
         <v>376</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D62" t="s">
         <v>370</v>
@@ -6481,31 +6481,31 @@
         <v>372</v>
       </c>
       <c r="G62" t="n">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="H62" t="n">
-        <v>84632503</v>
+        <v>86275241</v>
       </c>
       <c r="I62" t="n">
-        <v>1401.955</v>
+        <v>1429.168</v>
       </c>
       <c r="J62" t="n">
-        <v>293067</v>
+        <v>301980</v>
       </c>
       <c r="K62" t="n">
-        <v>4.855</v>
+        <v>5.002</v>
       </c>
       <c r="L62" t="n">
-        <v>256609</v>
+        <v>276544</v>
       </c>
       <c r="M62" t="n">
-        <v>4.251</v>
+        <v>4.581</v>
       </c>
       <c r="N62" t="n">
-        <v>0.024</v>
+        <v>0.02</v>
       </c>
       <c r="O62" t="n">
-        <v>41.2</v>
+        <v>49.7</v>
       </c>
       <c r="P62" t="s">
         <v>373</v>
@@ -6528,7 +6528,7 @@
         <v>379</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="D63" t="s">
         <v>380</v>
@@ -6538,31 +6538,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H63" t="n">
-        <v>550980</v>
+        <v>564564</v>
       </c>
       <c r="I63" t="n">
-        <v>185.299</v>
+        <v>189.868</v>
       </c>
       <c r="J63" t="n">
-        <v>1685</v>
+        <v>2129</v>
       </c>
       <c r="K63" t="n">
-        <v>0.567</v>
+        <v>0.716</v>
       </c>
       <c r="L63" t="n">
-        <v>1805</v>
+        <v>2181</v>
       </c>
       <c r="M63" t="n">
-        <v>0.607</v>
+        <v>0.733</v>
       </c>
       <c r="N63" t="n">
-        <v>0.368</v>
+        <v>0.307</v>
       </c>
       <c r="O63" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="P63" t="s">
         <v>381</v>
@@ -6585,7 +6585,7 @@
         <v>385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D64" t="s">
         <v>386</v>
@@ -6595,31 +6595,31 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="H64" t="n">
-        <v>21144934</v>
+        <v>21876633</v>
       </c>
       <c r="I64" t="n">
-        <v>167.749</v>
+        <v>173.554</v>
       </c>
       <c r="J64" t="n">
-        <v>121059</v>
+        <v>133893</v>
       </c>
       <c r="K64" t="n">
-        <v>0.96</v>
+        <v>1.062</v>
       </c>
       <c r="L64" t="n">
-        <v>125703</v>
+        <v>121823</v>
       </c>
       <c r="M64" t="n">
-        <v>0.997</v>
+        <v>0.966</v>
       </c>
       <c r="N64" t="n">
-        <v>0.154</v>
+        <v>0.112</v>
       </c>
       <c r="O64" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="P64" t="s">
         <v>387</v>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="H65" t="n">
         <v>9316366</v>
@@ -6923,7 +6923,7 @@
         <v>419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44438</v>
+        <v>44447</v>
       </c>
       <c r="D70" t="s">
         <v>420</v>
@@ -6933,20 +6933,28 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H70" t="n">
-        <v>425260</v>
+        <v>452030</v>
       </c>
       <c r="I70" t="n">
-        <v>57.628</v>
+        <v>61.256</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
+      <c r="L70" t="n">
+        <v>2865</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="O70" t="n">
+        <v>15.6</v>
+      </c>
       <c r="P70" t="s">
         <v>421</v>
       </c>
@@ -7076,7 +7084,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44441</v>
+        <v>44446</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -7086,15 +7094,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>6466</v>
+        <v>6459</v>
       </c>
       <c r="K73" t="n">
-        <v>0.929</v>
+        <v>0.928</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7121,7 +7129,7 @@
         <v>442</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44439</v>
+        <v>44445</v>
       </c>
       <c r="D74" t="s">
         <v>443</v>
@@ -7131,31 +7139,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="H74" t="n">
-        <v>61906</v>
+        <v>63094</v>
       </c>
       <c r="I74" t="n">
-        <v>1618.288</v>
+        <v>1649.344</v>
       </c>
       <c r="J74" t="n">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="K74" t="n">
-        <v>5.254</v>
+        <v>5.803</v>
       </c>
       <c r="L74" t="n">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="M74" t="n">
-        <v>4.601</v>
+        <v>5.176</v>
       </c>
       <c r="N74" t="n">
-        <v>0.035</v>
+        <v>0.058</v>
       </c>
       <c r="O74" t="n">
-        <v>28.6</v>
+        <v>17.2</v>
       </c>
       <c r="P74" t="s">
         <v>444</v>
@@ -7178,7 +7186,7 @@
         <v>448</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44438</v>
+        <v>44441</v>
       </c>
       <c r="D75" t="s">
         <v>449</v>
@@ -7188,31 +7196,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H75" t="n">
-        <v>4604966</v>
+        <v>4649268</v>
       </c>
       <c r="I75" t="n">
-        <v>1711.971</v>
+        <v>1728.441</v>
       </c>
       <c r="J75" t="n">
-        <v>15605</v>
+        <v>13780</v>
       </c>
       <c r="K75" t="n">
-        <v>5.801</v>
+        <v>5.123</v>
       </c>
       <c r="L75" t="n">
-        <v>12930</v>
+        <v>12942</v>
       </c>
       <c r="M75" t="n">
-        <v>4.807</v>
+        <v>4.811</v>
       </c>
       <c r="N75" t="n">
-        <v>0.05</v>
+        <v>0.053</v>
       </c>
       <c r="O75" t="n">
-        <v>20</v>
+        <v>18.9</v>
       </c>
       <c r="P75" t="s">
         <v>450</v>
@@ -7235,7 +7243,7 @@
         <v>453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="D76" t="s">
         <v>454</v>
@@ -7245,31 +7253,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="H76" t="n">
-        <v>3428094</v>
+        <v>3452442</v>
       </c>
       <c r="I76" t="n">
-        <v>5400.155</v>
+        <v>5438.51</v>
       </c>
       <c r="J76" t="n">
-        <v>4648</v>
+        <v>4310</v>
       </c>
       <c r="K76" t="n">
-        <v>7.322</v>
+        <v>6.789</v>
       </c>
       <c r="L76" t="n">
-        <v>4171</v>
+        <v>4142</v>
       </c>
       <c r="M76" t="n">
-        <v>6.57</v>
+        <v>6.525</v>
       </c>
       <c r="N76" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="O76" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="P76" t="s">
         <v>455</v>
@@ -7624,7 +7632,7 @@
         <v>495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="D83" t="s">
         <v>496</v>
@@ -7634,31 +7642,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="H83" t="n">
-        <v>9357491</v>
+        <v>9562247</v>
       </c>
       <c r="I83" t="n">
-        <v>71.836</v>
+        <v>73.408</v>
       </c>
       <c r="J83" t="n">
-        <v>13406</v>
+        <v>13833</v>
       </c>
       <c r="K83" t="n">
-        <v>0.103</v>
+        <v>0.106</v>
       </c>
       <c r="L83" t="n">
-        <v>22776</v>
+        <v>21853</v>
       </c>
       <c r="M83" t="n">
-        <v>0.175</v>
+        <v>0.168</v>
       </c>
       <c r="N83" t="n">
-        <v>0.401</v>
+        <v>0.385</v>
       </c>
       <c r="O83" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P83" t="s">
         <v>498</v>
@@ -7681,7 +7689,7 @@
         <v>501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D84" t="s">
         <v>502</v>
@@ -7691,27 +7699,27 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H84" t="n">
-        <v>1583945</v>
+        <v>1613427</v>
       </c>
       <c r="I84" t="n">
-        <v>393.622</v>
+        <v>400.949</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>4573</v>
+        <v>5284</v>
       </c>
       <c r="M84" t="n">
-        <v>1.136</v>
+        <v>1.313</v>
       </c>
       <c r="N84" t="n">
-        <v>0.081</v>
+        <v>0.114</v>
       </c>
       <c r="O84" t="n">
-        <v>12.4</v>
+        <v>8.8</v>
       </c>
       <c r="P84" t="s">
         <v>503</v>
@@ -7734,7 +7742,7 @@
         <v>506</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44442</v>
+        <v>44448</v>
       </c>
       <c r="D85" t="s">
         <v>507</v>
@@ -7744,25 +7752,21 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H85" t="n">
-        <v>4697153</v>
+        <v>4813675</v>
       </c>
       <c r="I85" t="n">
-        <v>1410.861</v>
-      </c>
-      <c r="J85" t="n">
-        <v>21465</v>
-      </c>
-      <c r="K85" t="n">
-        <v>6.447</v>
-      </c>
+        <v>1445.86</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85"/>
       <c r="L85" t="n">
-        <v>143812</v>
+        <v>19712</v>
       </c>
       <c r="M85" t="n">
-        <v>43.196</v>
+        <v>5.921</v>
       </c>
       <c r="N85"/>
       <c r="O85"/>
@@ -7854,7 +7858,7 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H87" t="n">
         <v>853959</v>
@@ -7911,7 +7915,7 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H88" t="n">
         <v>3688810</v>
@@ -8125,7 +8129,7 @@
         <v>548</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44442</v>
+        <v>44448</v>
       </c>
       <c r="D92" t="s">
         <v>549</v>
@@ -8135,25 +8139,21 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="H92" t="n">
-        <v>3037064</v>
+        <v>3100261</v>
       </c>
       <c r="I92" t="n">
-        <v>624.828</v>
-      </c>
-      <c r="J92" t="n">
-        <v>12796</v>
-      </c>
-      <c r="K92" t="n">
-        <v>2.633</v>
-      </c>
+        <v>637.83</v>
+      </c>
+      <c r="J92"/>
+      <c r="K92"/>
       <c r="L92" t="n">
-        <v>20761</v>
+        <v>10856</v>
       </c>
       <c r="M92" t="n">
-        <v>4.271</v>
+        <v>2.233</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -8178,7 +8178,7 @@
         <v>554</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44437</v>
+        <v>44445</v>
       </c>
       <c r="D93" t="s">
         <v>555</v>
@@ -8188,27 +8188,27 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H93" t="n">
-        <v>2779725</v>
+        <v>2884034</v>
       </c>
       <c r="I93" t="n">
-        <v>13.149</v>
+        <v>13.642</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>9298</v>
+        <v>13039</v>
       </c>
       <c r="M93" t="n">
-        <v>0.044</v>
+        <v>0.062</v>
       </c>
       <c r="N93" t="n">
-        <v>0.066</v>
+        <v>0.045</v>
       </c>
       <c r="O93" t="n">
-        <v>15.1</v>
+        <v>22.3</v>
       </c>
       <c r="P93" t="s">
         <v>556</v>
@@ -8231,7 +8231,7 @@
         <v>559</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44438</v>
+        <v>44447</v>
       </c>
       <c r="D94" t="s">
         <v>560</v>
@@ -8241,27 +8241,27 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H94" t="n">
-        <v>1151716</v>
+        <v>1187745</v>
       </c>
       <c r="I94" t="n">
-        <v>553.002</v>
+        <v>570.302</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="n">
-        <v>7132</v>
+        <v>4003</v>
       </c>
       <c r="M94" t="n">
-        <v>3.424</v>
+        <v>1.922</v>
       </c>
       <c r="N94" t="n">
-        <v>0.129</v>
+        <v>0.151</v>
       </c>
       <c r="O94" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="P94" t="s">
         <v>36</v>
@@ -8284,7 +8284,7 @@
         <v>564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44439</v>
+        <v>44445</v>
       </c>
       <c r="D95" t="s">
         <v>565</v>
@@ -8294,31 +8294,31 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="H95" t="n">
-        <v>7164820</v>
+        <v>7341931</v>
       </c>
       <c r="I95" t="n">
-        <v>1310.887</v>
+        <v>1343.291</v>
       </c>
       <c r="J95" t="n">
-        <v>31863</v>
+        <v>37321</v>
       </c>
       <c r="K95" t="n">
-        <v>5.83</v>
+        <v>6.828</v>
       </c>
       <c r="L95" t="n">
-        <v>28039</v>
+        <v>29819</v>
       </c>
       <c r="M95" t="n">
-        <v>5.13</v>
+        <v>5.456</v>
       </c>
       <c r="N95" t="n">
         <v>0.048</v>
       </c>
       <c r="O95" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="P95" t="s">
         <v>566</v>
@@ -8386,7 +8386,7 @@
         <v>575</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44442</v>
+        <v>44448</v>
       </c>
       <c r="D97" t="s">
         <v>576</v>
@@ -8396,25 +8396,21 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="H97" t="n">
-        <v>17931365</v>
+        <v>18286469</v>
       </c>
       <c r="I97" t="n">
-        <v>79.624</v>
-      </c>
-      <c r="J97" t="n">
-        <v>59745</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.265</v>
-      </c>
+        <v>81.201</v>
+      </c>
+      <c r="J97"/>
+      <c r="K97"/>
       <c r="L97" t="n">
-        <v>58726</v>
+        <v>59264</v>
       </c>
       <c r="M97" t="n">
-        <v>0.261</v>
+        <v>0.263</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8500,7 +8496,7 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H99" t="n">
         <v>3673799</v>
@@ -8714,7 +8710,7 @@
         <v>608</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="D103" t="s">
         <v>609</v>
@@ -8724,31 +8720,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="H103" t="n">
-        <v>17740702</v>
+        <v>18230377</v>
       </c>
       <c r="I103" t="n">
-        <v>159.759</v>
+        <v>164.168</v>
       </c>
       <c r="J103" t="n">
-        <v>64724</v>
+        <v>74654</v>
       </c>
       <c r="K103" t="n">
-        <v>0.583</v>
+        <v>0.672</v>
       </c>
       <c r="L103" t="n">
-        <v>63748</v>
+        <v>74327</v>
       </c>
       <c r="M103" t="n">
-        <v>0.574</v>
+        <v>0.669</v>
       </c>
       <c r="N103" t="n">
-        <v>0.271</v>
+        <v>0.253</v>
       </c>
       <c r="O103" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="P103" t="s">
         <v>315</v>
@@ -8781,7 +8777,7 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H104" t="n">
         <v>19450274</v>
@@ -8838,7 +8834,7 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="H105" t="n">
         <v>19858508</v>
@@ -8853,16 +8849,16 @@
         <v>1.039</v>
       </c>
       <c r="L105" t="n">
-        <v>37070</v>
+        <v>89973</v>
       </c>
       <c r="M105" t="n">
-        <v>0.981</v>
+        <v>2.38</v>
       </c>
       <c r="N105" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="O105" t="n">
-        <v>146.9</v>
+        <v>356.6</v>
       </c>
       <c r="P105" t="s">
         <v>616</v>
@@ -8885,7 +8881,7 @@
         <v>621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="D106" t="s">
         <v>622</v>
@@ -8895,31 +8891,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H106" t="n">
-        <v>17102741</v>
+        <v>17367647</v>
       </c>
       <c r="I106" t="n">
-        <v>1682.029</v>
+        <v>1708.082</v>
       </c>
       <c r="J106" t="n">
-        <v>47597</v>
+        <v>43408</v>
       </c>
       <c r="K106" t="n">
-        <v>4.681</v>
+        <v>4.269</v>
       </c>
       <c r="L106" t="n">
-        <v>50234</v>
+        <v>44597</v>
       </c>
       <c r="M106" t="n">
-        <v>4.94</v>
+        <v>4.386</v>
       </c>
       <c r="N106" t="n">
-        <v>0.039</v>
+        <v>0.035</v>
       </c>
       <c r="O106" t="n">
-        <v>25.8</v>
+        <v>28.3</v>
       </c>
       <c r="P106" t="s">
         <v>623</v>
@@ -8942,7 +8938,7 @@
         <v>626</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44440</v>
+        <v>44445</v>
       </c>
       <c r="D107" t="s">
         <v>627</v>
@@ -8952,31 +8948,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H107" t="n">
-        <v>2509828</v>
+        <v>2537634</v>
       </c>
       <c r="I107" t="n">
-        <v>856.443</v>
+        <v>865.932</v>
       </c>
       <c r="J107" t="n">
-        <v>5184</v>
+        <v>5988</v>
       </c>
       <c r="K107" t="n">
-        <v>1.769</v>
+        <v>2.043</v>
       </c>
       <c r="L107" t="n">
-        <v>5694</v>
+        <v>5666</v>
       </c>
       <c r="M107" t="n">
-        <v>1.943</v>
+        <v>1.933</v>
       </c>
       <c r="N107" t="n">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="O107" t="n">
-        <v>29.5</v>
+        <v>33.5</v>
       </c>
       <c r="P107" t="s">
         <v>629</v>
@@ -8999,7 +8995,7 @@
         <v>632</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D108" t="s">
         <v>633</v>
@@ -9009,27 +9005,27 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H108" t="n">
-        <v>9126913</v>
+        <v>9212486</v>
       </c>
       <c r="I108" t="n">
-        <v>477.155</v>
+        <v>481.629</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108" t="n">
-        <v>14376</v>
+        <v>14688</v>
       </c>
       <c r="M108" t="n">
-        <v>0.752</v>
+        <v>0.768</v>
       </c>
       <c r="N108" t="n">
-        <v>0.077</v>
+        <v>0.106</v>
       </c>
       <c r="O108" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="P108" t="s">
         <v>635</v>
@@ -9052,7 +9048,7 @@
         <v>639</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D109" t="s">
         <v>640</v>
@@ -9062,27 +9058,27 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H109" t="n">
-        <v>180037362</v>
+        <v>182305630</v>
       </c>
       <c r="I109" t="n">
-        <v>1233.876</v>
+        <v>1249.422</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>405731</v>
+        <v>384296</v>
       </c>
       <c r="M109" t="n">
-        <v>2.781</v>
+        <v>2.634</v>
       </c>
       <c r="N109" t="n">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="O109" t="n">
-        <v>22.1</v>
+        <v>21.4</v>
       </c>
       <c r="P109" t="s">
         <v>641</v>
@@ -9105,7 +9101,7 @@
         <v>645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44442</v>
+        <v>44448</v>
       </c>
       <c r="D110" t="s">
         <v>646</v>
@@ -9115,25 +9111,21 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H110" t="n">
-        <v>2473190</v>
+        <v>2546682</v>
       </c>
       <c r="I110" t="n">
-        <v>186.283</v>
-      </c>
-      <c r="J110" t="n">
-        <v>11604</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.874</v>
-      </c>
+        <v>191.819</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110"/>
       <c r="L110" t="n">
-        <v>16323</v>
+        <v>12157</v>
       </c>
       <c r="M110" t="n">
-        <v>1.229</v>
+        <v>0.916</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
@@ -9158,7 +9150,7 @@
         <v>651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44440</v>
+        <v>44448</v>
       </c>
       <c r="D111" t="s">
         <v>652</v>
@@ -9168,32 +9160,24 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H111" t="n">
-        <v>31677</v>
+        <v>33088</v>
       </c>
       <c r="I111" t="n">
-        <v>591.585</v>
-      </c>
-      <c r="J111" t="n">
-        <v>336</v>
-      </c>
-      <c r="K111" t="n">
-        <v>6.275</v>
-      </c>
+        <v>617.936</v>
+      </c>
+      <c r="J111"/>
+      <c r="K111"/>
       <c r="L111" t="n">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="M111" t="n">
-        <v>4.519</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="O111" t="n">
-        <v>8.8</v>
-      </c>
+        <v>3.343</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111"/>
       <c r="P111" t="s">
         <v>36</v>
       </c>
@@ -9215,7 +9199,7 @@
         <v>656</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="D112" t="s">
         <v>657</v>
@@ -9225,31 +9209,31 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="H112" t="n">
-        <v>27561054</v>
+        <v>27865314</v>
       </c>
       <c r="I112" t="n">
-        <v>779.868</v>
+        <v>788.477</v>
       </c>
       <c r="J112" t="n">
-        <v>55742</v>
+        <v>49348</v>
       </c>
       <c r="K112" t="n">
-        <v>1.577</v>
+        <v>1.396</v>
       </c>
       <c r="L112" t="n">
-        <v>56859</v>
+        <v>51429</v>
       </c>
       <c r="M112" t="n">
-        <v>1.609</v>
+        <v>1.455</v>
       </c>
       <c r="N112" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="O112" t="n">
-        <v>300.6</v>
+        <v>164.6</v>
       </c>
       <c r="P112" t="s">
         <v>36</v>
@@ -9272,7 +9256,7 @@
         <v>660</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D113" t="s">
         <v>661</v>
@@ -9282,31 +9266,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="H113" t="n">
-        <v>756795</v>
+        <v>770535</v>
       </c>
       <c r="I113" t="n">
-        <v>44.009</v>
+        <v>44.808</v>
       </c>
       <c r="J113" t="n">
-        <v>2175</v>
+        <v>2399</v>
       </c>
       <c r="K113" t="n">
-        <v>0.126</v>
+        <v>0.14</v>
       </c>
       <c r="L113" t="n">
-        <v>2501</v>
+        <v>2274</v>
       </c>
       <c r="M113" t="n">
-        <v>0.145</v>
+        <v>0.132</v>
       </c>
       <c r="N113" t="n">
-        <v>0.038</v>
+        <v>0.025</v>
       </c>
       <c r="O113" t="n">
-        <v>26.4</v>
+        <v>40.8</v>
       </c>
       <c r="P113" t="s">
         <v>662</v>
@@ -9329,7 +9313,7 @@
         <v>665</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D114" t="s">
         <v>666</v>
@@ -9341,31 +9325,31 @@
         <v>667</v>
       </c>
       <c r="G114" t="n">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="H114" t="n">
-        <v>5058559</v>
+        <v>5159888</v>
       </c>
       <c r="I114" t="n">
-        <v>743.403</v>
+        <v>758.295</v>
       </c>
       <c r="J114" t="n">
-        <v>16134</v>
+        <v>21757</v>
       </c>
       <c r="K114" t="n">
-        <v>2.371</v>
+        <v>3.197</v>
       </c>
       <c r="L114" t="n">
-        <v>13985</v>
+        <v>16780</v>
       </c>
       <c r="M114" t="n">
-        <v>2.055</v>
+        <v>2.466</v>
       </c>
       <c r="N114" t="n">
-        <v>0.191</v>
+        <v>0.24</v>
       </c>
       <c r="O114" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="P114" t="s">
         <v>36</v>
@@ -9388,7 +9372,7 @@
         <v>671</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44438</v>
+        <v>44445</v>
       </c>
       <c r="D115" t="s">
         <v>672</v>
@@ -9398,27 +9382,27 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H115" t="n">
-        <v>17773017</v>
+        <v>18197667</v>
       </c>
       <c r="I115" t="n">
-        <v>3014.07</v>
+        <v>3086.085</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115" t="n">
-        <v>62073</v>
+        <v>60664</v>
       </c>
       <c r="M115" t="n">
-        <v>10.527</v>
+        <v>10.288</v>
       </c>
       <c r="N115" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="O115" t="n">
-        <v>492.1</v>
+        <v>294.5</v>
       </c>
       <c r="P115" t="s">
         <v>36</v>
@@ -9441,7 +9425,7 @@
         <v>676</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44436</v>
+        <v>44444</v>
       </c>
       <c r="D116" t="s">
         <v>677</v>
@@ -9451,31 +9435,31 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="H116" t="n">
-        <v>41080691</v>
+        <v>41202098</v>
       </c>
       <c r="I116" t="n">
-        <v>7522.936</v>
+        <v>7545.169</v>
       </c>
       <c r="J116" t="n">
-        <v>11454</v>
+        <v>18771</v>
       </c>
       <c r="K116" t="n">
-        <v>2.098</v>
+        <v>3.437</v>
       </c>
       <c r="L116" t="n">
-        <v>15865</v>
+        <v>20936</v>
       </c>
       <c r="M116" t="n">
-        <v>2.905</v>
+        <v>3.834</v>
       </c>
       <c r="N116" t="n">
-        <v>0.009</v>
+        <v>0.014</v>
       </c>
       <c r="O116" t="n">
-        <v>111.1</v>
+        <v>71.4</v>
       </c>
       <c r="P116" t="s">
         <v>36</v>
@@ -9498,7 +9482,7 @@
         <v>680</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D117" t="s">
         <v>681</v>
@@ -9508,31 +9492,31 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H117" t="n">
-        <v>1457824</v>
+        <v>1478737</v>
       </c>
       <c r="I117" t="n">
-        <v>701.307</v>
+        <v>711.368</v>
       </c>
       <c r="J117" t="n">
-        <v>3303</v>
+        <v>4912</v>
       </c>
       <c r="K117" t="n">
-        <v>1.589</v>
+        <v>2.363</v>
       </c>
       <c r="L117" t="n">
-        <v>2716</v>
+        <v>3459</v>
       </c>
       <c r="M117" t="n">
-        <v>1.307</v>
+        <v>1.664</v>
       </c>
       <c r="N117" t="n">
-        <v>0.186</v>
+        <v>0.202</v>
       </c>
       <c r="O117" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="P117" t="s">
         <v>682</v>
@@ -9612,7 +9596,7 @@
         <v>691</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44442</v>
+        <v>44448</v>
       </c>
       <c r="D119" t="s">
         <v>692</v>
@@ -9622,25 +9606,21 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="H119" t="n">
-        <v>12461484</v>
+        <v>12670949</v>
       </c>
       <c r="I119" t="n">
-        <v>242.889</v>
-      </c>
-      <c r="J119" t="n">
-        <v>57908</v>
-      </c>
-      <c r="K119" t="n">
-        <v>1.129</v>
-      </c>
+        <v>246.972</v>
+      </c>
+      <c r="J119"/>
+      <c r="K119"/>
       <c r="L119" t="n">
-        <v>36024</v>
+        <v>38196</v>
       </c>
       <c r="M119" t="n">
-        <v>0.702</v>
+        <v>0.744</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9771,7 +9751,7 @@
         <v>708</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D122" t="s">
         <v>709</v>
@@ -9781,31 +9761,31 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="H122" t="n">
-        <v>5003197</v>
+        <v>5075154</v>
       </c>
       <c r="I122" t="n">
-        <v>232.736</v>
+        <v>236.083</v>
       </c>
       <c r="J122" t="n">
-        <v>14009</v>
+        <v>10395</v>
       </c>
       <c r="K122" t="n">
-        <v>0.652</v>
+        <v>0.484</v>
       </c>
       <c r="L122" t="n">
-        <v>14693</v>
+        <v>12281</v>
       </c>
       <c r="M122" t="n">
-        <v>0.683</v>
+        <v>0.571</v>
       </c>
       <c r="N122" t="n">
-        <v>0.344</v>
+        <v>0.357</v>
       </c>
       <c r="O122" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P122" t="s">
         <v>710</v>
@@ -9828,7 +9808,7 @@
         <v>713</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44437</v>
+        <v>44444</v>
       </c>
       <c r="D123" t="s">
         <v>714</v>
@@ -9838,27 +9818,27 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="n">
-        <v>26075</v>
+        <v>33806</v>
       </c>
       <c r="K123" t="n">
-        <v>2.566</v>
+        <v>3.327</v>
       </c>
       <c r="L123" t="n">
-        <v>26075</v>
+        <v>33806</v>
       </c>
       <c r="M123" t="n">
-        <v>2.566</v>
+        <v>3.327</v>
       </c>
       <c r="N123" t="n">
-        <v>0.037</v>
+        <v>0.03</v>
       </c>
       <c r="O123" t="n">
-        <v>26.7</v>
+        <v>33.3</v>
       </c>
       <c r="P123" t="s">
         <v>716</v>
@@ -9881,7 +9861,7 @@
         <v>720</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="D124" t="s">
         <v>443</v>
@@ -9891,31 +9871,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="H124" t="n">
-        <v>9399734</v>
+        <v>9598024</v>
       </c>
       <c r="I124" t="n">
-        <v>1078.508</v>
+        <v>1101.26</v>
       </c>
       <c r="J124" t="n">
-        <v>24772</v>
+        <v>26834</v>
       </c>
       <c r="K124" t="n">
-        <v>2.842</v>
+        <v>3.079</v>
       </c>
       <c r="L124" t="n">
-        <v>28053</v>
+        <v>31842</v>
       </c>
       <c r="M124" t="n">
-        <v>3.219</v>
+        <v>3.653</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1</v>
+        <v>0.094</v>
       </c>
       <c r="O124" t="n">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="P124" t="s">
         <v>444</v>
@@ -9938,7 +9918,7 @@
         <v>723</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D125" t="s">
         <v>724</v>
@@ -9948,31 +9928,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="H125" t="n">
-        <v>2756726</v>
+        <v>2911463</v>
       </c>
       <c r="I125" t="n">
-        <v>115.562</v>
+        <v>122.048</v>
       </c>
       <c r="J125" t="n">
-        <v>13860</v>
+        <v>17340</v>
       </c>
       <c r="K125" t="n">
-        <v>0.581</v>
+        <v>0.727</v>
       </c>
       <c r="L125" t="n">
-        <v>21730</v>
+        <v>23677</v>
       </c>
       <c r="M125" t="n">
-        <v>0.911</v>
+        <v>0.993</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>2578</v>
+        <v>3013.5</v>
       </c>
       <c r="P125" t="s">
         <v>725</v>
@@ -9995,7 +9975,7 @@
         <v>728</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44436</v>
+        <v>44443</v>
       </c>
       <c r="D126" t="s">
         <v>729</v>
@@ -10005,31 +9985,31 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="H126" t="n">
-        <v>12206117</v>
+        <v>12543130</v>
       </c>
       <c r="I126" t="n">
-        <v>174.496</v>
+        <v>179.313</v>
       </c>
       <c r="J126" t="n">
-        <v>42463</v>
+        <v>40007</v>
       </c>
       <c r="K126" t="n">
-        <v>0.607</v>
+        <v>0.572</v>
       </c>
       <c r="L126" t="n">
-        <v>53657</v>
+        <v>48145</v>
       </c>
       <c r="M126" t="n">
-        <v>0.767</v>
+        <v>0.688</v>
       </c>
       <c r="N126" t="n">
-        <v>0.339</v>
+        <v>0.319</v>
       </c>
       <c r="O126" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P126" t="s">
         <v>731</v>
@@ -10052,7 +10032,7 @@
         <v>735</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="D127" t="s">
         <v>736</v>
@@ -10062,28 +10042,28 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H127" t="n">
-        <v>188702</v>
+        <v>191346</v>
       </c>
       <c r="I127" t="n">
-        <v>140.416</v>
-      </c>
-      <c r="J127" t="n">
-        <v>1332</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.991</v>
-      </c>
+        <v>142.384</v>
+      </c>
+      <c r="J127"/>
+      <c r="K127"/>
       <c r="L127" t="n">
-        <v>1043</v>
+        <v>925</v>
       </c>
       <c r="M127" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="N127"/>
-      <c r="O127"/>
+        <v>0.688</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="O127" t="n">
+        <v>5.4</v>
+      </c>
       <c r="P127" t="s">
         <v>36</v>
       </c>
@@ -10219,7 +10199,7 @@
         <v>751</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="D130" t="s">
         <v>752</v>
@@ -10229,31 +10209,27 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H130" t="n">
-        <v>2616244</v>
+        <v>2679159</v>
       </c>
       <c r="I130" t="n">
-        <v>219.194</v>
-      </c>
-      <c r="J130" t="n">
-        <v>10976</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.92</v>
-      </c>
+        <v>224.465</v>
+      </c>
+      <c r="J130"/>
+      <c r="K130"/>
       <c r="L130" t="n">
-        <v>16604</v>
+        <v>8988</v>
       </c>
       <c r="M130" t="n">
-        <v>1.391</v>
+        <v>0.753</v>
       </c>
       <c r="N130" t="n">
-        <v>0.161</v>
+        <v>0.221</v>
       </c>
       <c r="O130" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="P130" t="s">
         <v>754</v>
@@ -10276,7 +10252,7 @@
         <v>758</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D131" t="s">
         <v>759</v>
@@ -10286,31 +10262,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="H131" t="n">
-        <v>77005091</v>
+        <v>78786534</v>
       </c>
       <c r="I131" t="n">
-        <v>905.487</v>
+        <v>926.435</v>
       </c>
       <c r="J131" t="n">
-        <v>305047</v>
+        <v>308437</v>
       </c>
       <c r="K131" t="n">
-        <v>3.587</v>
+        <v>3.627</v>
       </c>
       <c r="L131" t="n">
-        <v>294370</v>
+        <v>298070</v>
       </c>
       <c r="M131" t="n">
-        <v>3.461</v>
+        <v>3.505</v>
       </c>
       <c r="N131" t="n">
-        <v>0.058</v>
+        <v>0.074</v>
       </c>
       <c r="O131" t="n">
-        <v>17.3</v>
+        <v>13.5</v>
       </c>
       <c r="P131" t="s">
         <v>760</v>
@@ -10390,7 +10366,7 @@
         <v>770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44442</v>
+        <v>44448</v>
       </c>
       <c r="D133" t="s">
         <v>771</v>
@@ -10400,25 +10376,21 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="H133" t="n">
-        <v>12055523</v>
+        <v>12188070</v>
       </c>
       <c r="I133" t="n">
-        <v>277.35</v>
-      </c>
-      <c r="J133" t="n">
-        <v>23538</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.542</v>
-      </c>
+        <v>280.399</v>
+      </c>
+      <c r="J133"/>
+      <c r="K133"/>
       <c r="L133" t="n">
-        <v>21715</v>
+        <v>22298</v>
       </c>
       <c r="M133" t="n">
-        <v>0.5</v>
+        <v>0.513</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
@@ -10500,7 +10472,7 @@
         <v>781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="D135" t="s">
         <v>782</v>
@@ -10512,31 +10484,31 @@
         <v>784</v>
       </c>
       <c r="G135" t="n">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="H135" t="n">
-        <v>244928717</v>
+        <v>251552821</v>
       </c>
       <c r="I135" t="n">
-        <v>3590.956</v>
+        <v>3688.073</v>
       </c>
       <c r="J135" t="n">
-        <v>1018868</v>
+        <v>1143885</v>
       </c>
       <c r="K135" t="n">
-        <v>14.938</v>
+        <v>16.771</v>
       </c>
       <c r="L135" t="n">
-        <v>835332</v>
+        <v>1091853</v>
       </c>
       <c r="M135" t="n">
-        <v>12.247</v>
+        <v>16.008</v>
       </c>
       <c r="N135" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="O135" t="n">
-        <v>24.9</v>
+        <v>28.6</v>
       </c>
       <c r="P135" t="s">
         <v>785</v>
@@ -10559,7 +10531,7 @@
         <v>789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44438</v>
+        <v>44443</v>
       </c>
       <c r="D136" t="s">
         <v>790</v>
@@ -10569,31 +10541,31 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="H136" t="n">
-        <v>527968852</v>
+        <v>536925419</v>
       </c>
       <c r="I136" t="n">
-        <v>1585.897</v>
+        <v>1612.8</v>
       </c>
       <c r="J136" t="n">
-        <v>333933</v>
+        <v>593135</v>
       </c>
       <c r="K136" t="n">
-        <v>1.003</v>
+        <v>1.782</v>
       </c>
       <c r="L136" t="n">
-        <v>1165241</v>
+        <v>1170826</v>
       </c>
       <c r="M136" t="n">
-        <v>3.5</v>
+        <v>3.517</v>
       </c>
       <c r="N136" t="n">
-        <v>0.137</v>
+        <v>0.14</v>
       </c>
       <c r="O136" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="P136" t="s">
         <v>791</v>
@@ -10616,7 +10588,7 @@
         <v>796</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D137" t="s">
         <v>797</v>
@@ -10626,31 +10598,31 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H137" t="n">
-        <v>3353058</v>
+        <v>3404196</v>
       </c>
       <c r="I137" t="n">
-        <v>962.098</v>
+        <v>976.771</v>
       </c>
       <c r="J137" t="n">
-        <v>10764</v>
+        <v>10327</v>
       </c>
       <c r="K137" t="n">
-        <v>3.089</v>
+        <v>2.963</v>
       </c>
       <c r="L137" t="n">
-        <v>8522</v>
+        <v>8843</v>
       </c>
       <c r="M137" t="n">
-        <v>2.445</v>
+        <v>2.537</v>
       </c>
       <c r="N137" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="O137" t="n">
-        <v>74</v>
+        <v>61.7</v>
       </c>
       <c r="P137" t="s">
         <v>191</v>
@@ -10673,7 +10645,7 @@
         <v>801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="D138" t="s">
         <v>802</v>
@@ -10683,27 +10655,31 @@
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="H138" t="n">
-        <v>14332918</v>
+        <v>15201879</v>
       </c>
       <c r="I138" t="n">
-        <v>146.003</v>
-      </c>
-      <c r="J138"/>
-      <c r="K138"/>
+        <v>154.854</v>
+      </c>
+      <c r="J138" t="n">
+        <v>868961</v>
+      </c>
+      <c r="K138" t="n">
+        <v>8.852</v>
+      </c>
       <c r="L138" t="n">
-        <v>188013</v>
+        <v>274024</v>
       </c>
       <c r="M138" t="n">
-        <v>1.915</v>
+        <v>2.791</v>
       </c>
       <c r="N138" t="n">
-        <v>0.071</v>
+        <v>0.048</v>
       </c>
       <c r="O138" t="n">
-        <v>14.2</v>
+        <v>20.8</v>
       </c>
       <c r="P138" t="s">
         <v>804</v>
@@ -10726,7 +10702,7 @@
         <v>808</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44439</v>
+        <v>44447</v>
       </c>
       <c r="D139" t="s">
         <v>809</v>
@@ -10736,31 +10712,31 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="H139" t="n">
-        <v>2275267</v>
+        <v>2326129</v>
       </c>
       <c r="I139" t="n">
-        <v>120.253</v>
+        <v>122.941</v>
       </c>
       <c r="J139" t="n">
-        <v>7154</v>
+        <v>7105</v>
       </c>
       <c r="K139" t="n">
-        <v>0.378</v>
+        <v>0.376</v>
       </c>
       <c r="L139" t="n">
-        <v>5957</v>
+        <v>6160</v>
       </c>
       <c r="M139" t="n">
-        <v>0.315</v>
+        <v>0.326</v>
       </c>
       <c r="N139" t="n">
-        <v>0.032</v>
+        <v>0.021</v>
       </c>
       <c r="O139" t="n">
-        <v>30.9</v>
+        <v>46.9</v>
       </c>
       <c r="P139" t="s">
         <v>811</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4259</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4275</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-8-september-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-12-september-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1760-new-cases-1486-recoveries_i_0000134299.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1907-new-cases-1643-recoveries_i_0000134432.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5982-el-ministerio-de-salud-informa-que-se-inmunizo-hasta-hoy-a-6-057-656-personas-con-primeras-y-segundas-dosis</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/6000-el-ministerio-de-salud-informa-que-se-inmunizo-hasta-hoy-a-6-216-576-personas-con-primeras-y-segundas-dosis</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-07-de-setembro-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-08-de-setembro-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -601,7 +601,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1989954931170191</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1995267213972296</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -733,7 +733,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-admin/admin-ajax.php?juwpfisadmin=false&amp;action=wpfd&amp;task=file.download&amp;wpfd_category_id=59&amp;wpfd_file_id=13083</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-admin/admin-ajax.php?juwpfisadmin=false&amp;action=wpfd&amp;task=file.download&amp;wpfd_category_id=59&amp;wpfd_file_id=13209</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/09/01-09-2021-MSP_ecu_cvd19.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/09/INFOGRAFIA-MEDIOS-08_Septiembre_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">Gambia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/09/GMB-COVID-19-Situational-Report_2021_29th_August_No-363.pdf</t>
+    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/09/GMB-COVID-19-Situational-Report_2021_4th_7th_September_No-366.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, The Gambia</t>
@@ -951,7 +951,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/2476</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/2571</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/09/covid-gr-daily-report-20210901.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/09/covid-gr-daily-report-20210909.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1168,7 +1168,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/369580</t>
+    <t xml:space="preserve">http://irangov.ir/detail/369799</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1188,7 +1188,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1433423752306458628</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1435992760629309440</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1291,7 +1291,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-tuesday-september-7-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-september-11-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1433505057744510984</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1436034188004806656</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1429,7 +1429,7 @@
     <t xml:space="preserve">The number of people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">The Government of Laos maintains a [dashboard](https://app.powerbi.com/view?r=eyJrIjoiM2JkZWRhNTQtNDY5YS00YWM3LWI4ZjUtNmExM2VmZDM4YjU5IiwidCI6ImNkOWNiOGVjLWU2MjEtNDcyYS05NzlhLTU0OWFiNWJhMjQ3MCIsImMiOjF9) reporting the number of people tested</t>
+    <t xml:space="preserve">The Government of Laos maintains a [dashboard](https://app.powerbi.com/view?r=eyJrIjoiM2JkZWRhNTQtNDY5YS00YWM3LWI4ZjUtNmExM2VmZDM4YjU5IiwidCI6ImNkOWNiOGVjLWU2MjEtNDcyYS05NzlhLTU0OWFiNWJhMjQ3MCIsImMiOjF9) reporting the number of people tested.</t>
   </si>
   <si>
     <t xml:space="preserve">LVA</t>
@@ -1545,7 +1545,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4446927785371771/4446920208705862/</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4465474373517112/4465455703518979/</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1609,7 +1609,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1433474569747111949</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1436011299360546817</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1630,7 +1630,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/410841803967702/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/413355057049710/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1433465389887918080</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1435997189197680641</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1761,7 +1761,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FSep_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(2-9-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FSep_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(9-9-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.808906266449045/808906129782392</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.813068359366169/813068212699517</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1803,7 +1803,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1gy9U6RinDY9t8PlJUM709GNa9YNTsGnb/view?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1RdEZRPUf-6tfOKPLnTR5Mt80YEzD5qMp</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1824,7 +1824,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-08/COVID-19_WebSite_rapport_wekelijks_20210831_1259_correct.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-09/COVID-19_WebSite_rapport_wekelijks_20210907_1122_final.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1956,7 +1956,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4122288237897023</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4142942162498297</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1978,7 +1978,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1433268640971886595</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1436145771775250433</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1433231446328627203</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1436093455747403776</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2070,7 +2070,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1433350231777812480</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1435886946581164037</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2313,7 +2313,7 @@
     <t xml:space="preserve">South Africa - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://sacoronavirus.co.za/2021/09/01/update-on-covid-19-wednesday-01-september/</t>
+    <t xml:space="preserve">https://sacoronavirus.co.za/2021/09/09/update-on-covid-19-thursday-09-september/</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Communicable Diseases (NICD)</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_26_08_2021.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_02_09_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-833/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-839/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2581,7 +2581,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1433368091380101123</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1435903497921310720</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2710,7 +2710,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1308-bc-byt-2021-tinh-hinh-dich-covid-19-va-ket-qua-cong-tac-phong-chong-dich-208708-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1342-bc-byt-bo-y-te-208908-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam Ministry of Health</t>
@@ -2756,7 +2756,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1433210206947774464</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1436104450909822977</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2768,7 +2768,8 @@
     <t xml:space="preserve">The Zimbabwe Ministry of Health and Child Care provides daily press releases on its website and Twitter account ([@MoHCCZim](https://twitter.com/MoHCCZim)) that report the cumulative number of tests performed to date. The reported figures include positive, negative, and pending test results.
 The press release for 6 May 2020 reported that 7,808 PCR and 8,244 "rapid screening" tests had been conducted to date. We exclude rapid screening tests from the daily time series that we construct, since we assume that these are antibody tests.
 Prior to 6 May 2020, the press releases either: (a) reported a combined cumulative total of PCR and rapid screening tests without providing a breakdown between the two types of tests; or (b) did not clearly specify whether the reported cumulative total was in reference to PCR tests, antibody tests, or both. For this reason, the daily time series we construct begins on 6 May 2020, at which point the press releases began to clearly indicate that the reported cumulative totals only include PCR tests.
-Since [19 Jan 2021](https://twitter.com/MoHCCZim/status/1351632194033360903/photo/1), the press releases report a combined cumualtive total of PCR and rapid antigen tests. According to a [United Nations report](https://zimbabwe.un.org/en/111012-capacitating-rural-health-facilities-rapid-covid-19-testing), published on 27 January 2021, antigen tests can be used to diagnose cases of COVID-19.</t>
+Since [19 Jan 2021](https://twitter.com/MoHCCZim/status/1351632194033360903/photo/1), the press releases report a combined cumualtive total of PCR and rapid antigen tests. According to a [United Nations report](https://zimbabwe.un.org/en/111012-capacitating-rural-health-facilities-rapid-covid-19-testing), published on 27 January 2021, antigen tests can be used to diagnose cases of COVID-19 in Zimbabwe.
+According to footnotes in the [infographics](https://twitter.com/MoHCCZim/status/1436104450909822977) cases can be confirmed without any reported tests in some provinces; this is because not all labs report test results in Zimbabwe: "provinces with new cases but zero PCR tests conducted respectively received results from NMRL, NTBRL &amp; Pvt Labs".</t>
   </si>
 </sst>
 </file>
@@ -3330,7 +3331,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3340,31 +3341,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="H5" t="n">
-        <v>13467809</v>
+        <v>13566184</v>
       </c>
       <c r="I5" t="n">
-        <v>295.309</v>
+        <v>297.466</v>
       </c>
       <c r="J5" t="n">
-        <v>30571</v>
+        <v>30012</v>
       </c>
       <c r="K5" t="n">
-        <v>0.67</v>
+        <v>0.658</v>
       </c>
       <c r="L5" t="n">
-        <v>31627</v>
+        <v>28580</v>
       </c>
       <c r="M5" t="n">
-        <v>0.693</v>
+        <v>0.627</v>
       </c>
       <c r="N5" t="n">
-        <v>0.042</v>
+        <v>0.039</v>
       </c>
       <c r="O5" t="n">
-        <v>23.8</v>
+        <v>25.6</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3387,7 +3388,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3397,31 +3398,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H6" t="n">
-        <v>1554292</v>
+        <v>1588480</v>
       </c>
       <c r="I6" t="n">
-        <v>523.661</v>
+        <v>535.179</v>
       </c>
       <c r="J6" t="n">
-        <v>6394</v>
+        <v>6659</v>
       </c>
       <c r="K6" t="n">
-        <v>2.154</v>
+        <v>2.244</v>
       </c>
       <c r="L6" t="n">
-        <v>6170</v>
+        <v>5797</v>
       </c>
       <c r="M6" t="n">
-        <v>2.079</v>
+        <v>1.953</v>
       </c>
       <c r="N6" t="n">
-        <v>0.084</v>
+        <v>0.09</v>
       </c>
       <c r="O6" t="n">
-        <v>11.8</v>
+        <v>11.1</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3444,7 +3445,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44447</v>
+        <v>44451</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3454,27 +3455,27 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H7" t="n">
-        <v>33227789</v>
+        <v>34054958</v>
       </c>
       <c r="I7" t="n">
-        <v>1288.487</v>
+        <v>1320.563</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="n">
-        <v>200969</v>
+        <v>201730</v>
       </c>
       <c r="M7" t="n">
-        <v>7.793</v>
+        <v>7.823</v>
       </c>
       <c r="N7" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="O7" t="n">
-        <v>122.5</v>
+        <v>116.1</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3554,7 +3555,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44447</v>
+        <v>44451</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3564,27 +3565,27 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H9" t="n">
-        <v>4578600</v>
+        <v>4652996</v>
       </c>
       <c r="I9" t="n">
-        <v>447.857</v>
+        <v>455.134</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>13937</v>
+        <v>13672</v>
       </c>
       <c r="M9" t="n">
-        <v>1.363</v>
+        <v>1.337</v>
       </c>
       <c r="N9" t="n">
-        <v>0.195</v>
+        <v>0.127</v>
       </c>
       <c r="O9" t="n">
-        <v>5.1</v>
+        <v>7.9</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3607,7 +3608,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44447</v>
+        <v>44451</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3617,27 +3618,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H10" t="n">
-        <v>6077573</v>
+        <v>6152114</v>
       </c>
       <c r="I10" t="n">
-        <v>3476.286</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10"/>
+        <v>3518.922</v>
+      </c>
+      <c r="J10" t="n">
+        <v>18793</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10.749</v>
+      </c>
       <c r="L10" t="n">
-        <v>18019</v>
+        <v>17034</v>
       </c>
       <c r="M10" t="n">
-        <v>10.307</v>
+        <v>9.743</v>
       </c>
       <c r="N10" t="n">
         <v>0.006</v>
       </c>
       <c r="O10" t="n">
-        <v>172.5</v>
+        <v>162.2</v>
       </c>
       <c r="P10" t="s">
         <v>70</v>
@@ -3717,7 +3722,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3727,32 +3732,24 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H12" t="n">
-        <v>7943649</v>
+        <v>8038526</v>
       </c>
       <c r="I12" t="n">
-        <v>841.233</v>
-      </c>
-      <c r="J12" t="n">
-        <v>21970</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.327</v>
-      </c>
+        <v>851.28</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
       <c r="L12" t="n">
-        <v>18001</v>
+        <v>19817</v>
       </c>
       <c r="M12" t="n">
-        <v>1.906</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="O12" t="n">
-        <v>10.2</v>
-      </c>
+        <v>2.099</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
       <c r="P12" t="s">
         <v>83</v>
       </c>
@@ -3982,7 +3979,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3992,31 +3989,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="H17" t="n">
-        <v>2295783</v>
+        <v>2335336</v>
       </c>
       <c r="I17" t="n">
-        <v>194.016</v>
+        <v>197.359</v>
       </c>
       <c r="J17" t="n">
-        <v>7003</v>
+        <v>6744</v>
       </c>
       <c r="K17" t="n">
-        <v>0.592</v>
+        <v>0.57</v>
       </c>
       <c r="L17" t="n">
-        <v>6046</v>
+        <v>5650</v>
       </c>
       <c r="M17" t="n">
-        <v>0.511</v>
+        <v>0.477</v>
       </c>
       <c r="N17" t="n">
-        <v>0.069</v>
+        <v>0.055</v>
       </c>
       <c r="O17" t="n">
-        <v>14.4</v>
+        <v>18.2</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4039,7 +4036,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4049,32 +4046,24 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>106</v>
+        <v>408</v>
       </c>
       <c r="H18" t="n">
-        <v>1162083</v>
+        <v>1174665</v>
       </c>
       <c r="I18" t="n">
-        <v>356.089</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3119</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.956</v>
-      </c>
+        <v>359.945</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
       <c r="L18" t="n">
-        <v>2502</v>
+        <v>2710</v>
       </c>
       <c r="M18" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.243</v>
-      </c>
-      <c r="O18" t="n">
-        <v>4.1</v>
-      </c>
+        <v>0.83</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
       <c r="P18" t="s">
         <v>118</v>
       </c>
@@ -4194,7 +4183,7 @@
         <v>134</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44389</v>
+        <v>44449</v>
       </c>
       <c r="D21" t="s">
         <v>135</v>
@@ -4204,32 +4193,20 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="n">
-        <v>1579750</v>
+        <v>2289480</v>
       </c>
       <c r="I21" t="n">
-        <v>93.22</v>
-      </c>
-      <c r="J21" t="n">
-        <v>7274</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="L21" t="n">
-        <v>26918</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.588</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="O21" t="n">
-        <v>28.2</v>
-      </c>
+        <v>135.101</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
       <c r="P21" t="s">
         <v>136</v>
       </c>
@@ -4365,7 +4342,7 @@
         <v>147</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="D24" t="s">
         <v>148</v>
@@ -4375,15 +4352,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>1446</v>
+        <v>1350</v>
       </c>
       <c r="K24" t="n">
-        <v>2.573</v>
+        <v>2.403</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4626,7 +4603,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="D29" t="s">
         <v>178</v>
@@ -4636,31 +4613,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="H29" t="n">
-        <v>905599</v>
+        <v>935841</v>
       </c>
       <c r="I29" t="n">
-        <v>33.474</v>
+        <v>34.592</v>
       </c>
       <c r="J29" t="n">
-        <v>3976</v>
+        <v>4921</v>
       </c>
       <c r="K29" t="n">
-        <v>0.147</v>
+        <v>0.182</v>
       </c>
       <c r="L29" t="n">
-        <v>4294</v>
+        <v>4320</v>
       </c>
       <c r="M29" t="n">
-        <v>0.159</v>
+        <v>0.16</v>
       </c>
       <c r="N29" t="n">
-        <v>0.07</v>
+        <v>0.038</v>
       </c>
       <c r="O29" t="n">
-        <v>14.2</v>
+        <v>26.4</v>
       </c>
       <c r="P29" t="s">
         <v>179</v>
@@ -4683,7 +4660,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44447</v>
+        <v>44451</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4693,31 +4670,27 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H30" t="n">
-        <v>2618129</v>
+        <v>2658977</v>
       </c>
       <c r="I30" t="n">
-        <v>641.438</v>
-      </c>
-      <c r="J30" t="n">
-        <v>10928</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.677</v>
-      </c>
+        <v>651.445</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
       <c r="L30" t="n">
-        <v>9174</v>
+        <v>9399</v>
       </c>
       <c r="M30" t="n">
-        <v>2.248</v>
+        <v>2.303</v>
       </c>
       <c r="N30" t="n">
-        <v>0.08</v>
+        <v>0.092</v>
       </c>
       <c r="O30" t="n">
-        <v>12.4</v>
+        <v>10.8</v>
       </c>
       <c r="P30" t="s">
         <v>185</v>
@@ -5019,7 +4992,7 @@
         <v>216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44444</v>
+        <v>44449</v>
       </c>
       <c r="D36" t="s">
         <v>217</v>
@@ -5029,27 +5002,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H36" t="n">
-        <v>1975055</v>
+        <v>1991308</v>
       </c>
       <c r="I36" t="n">
-        <v>180.309</v>
+        <v>181.793</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>3201</v>
+        <v>3279</v>
       </c>
       <c r="M36" t="n">
-        <v>0.292</v>
+        <v>0.299</v>
       </c>
       <c r="N36" t="n">
-        <v>0.084</v>
+        <v>0.068</v>
       </c>
       <c r="O36" t="n">
-        <v>11.9</v>
+        <v>14.7</v>
       </c>
       <c r="P36" t="s">
         <v>218</v>
@@ -5072,7 +5045,7 @@
         <v>222</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="D37" t="s">
         <v>223</v>
@@ -5084,31 +5057,31 @@
         <v>225</v>
       </c>
       <c r="G37" t="n">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="H37" t="n">
-        <v>1679015</v>
+        <v>1697349</v>
       </c>
       <c r="I37" t="n">
-        <v>93.86</v>
+        <v>94.885</v>
       </c>
       <c r="J37" t="n">
-        <v>3273</v>
+        <v>4435</v>
       </c>
       <c r="K37" t="n">
-        <v>0.183</v>
+        <v>0.248</v>
       </c>
       <c r="L37" t="n">
-        <v>2358</v>
+        <v>2619</v>
       </c>
       <c r="M37" t="n">
-        <v>0.132</v>
+        <v>0.146</v>
       </c>
       <c r="N37" t="n">
-        <v>0.095</v>
+        <v>0.167</v>
       </c>
       <c r="O37" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="P37" t="s">
         <v>226</v>
@@ -5188,7 +5161,7 @@
         <v>236</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44446</v>
+        <v>44451</v>
       </c>
       <c r="D39" t="s">
         <v>237</v>
@@ -5198,27 +5171,27 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H39" t="n">
-        <v>201124</v>
+        <v>206274</v>
       </c>
       <c r="I39" t="n">
-        <v>138.717</v>
+        <v>142.269</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39" t="n">
-        <v>731</v>
+        <v>846</v>
       </c>
       <c r="M39" t="n">
-        <v>0.504</v>
+        <v>0.583</v>
       </c>
       <c r="N39" t="n">
-        <v>0.09</v>
+        <v>0.125</v>
       </c>
       <c r="O39" t="n">
-        <v>11.1</v>
+        <v>8</v>
       </c>
       <c r="P39" t="s">
         <v>239</v>
@@ -5522,7 +5495,7 @@
         <v>268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44446</v>
+        <v>44451</v>
       </c>
       <c r="D45" t="s">
         <v>269</v>
@@ -5532,27 +5505,27 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H45" t="n">
-        <v>1108619</v>
+        <v>1122977</v>
       </c>
       <c r="I45" t="n">
-        <v>486.486</v>
+        <v>492.787</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="n">
-        <v>3350</v>
+        <v>2508</v>
       </c>
       <c r="M45" t="n">
-        <v>1.47</v>
+        <v>1.101</v>
       </c>
       <c r="N45" t="n">
-        <v>0.012</v>
+        <v>0.032</v>
       </c>
       <c r="O45" t="n">
-        <v>81.1</v>
+        <v>31.4</v>
       </c>
       <c r="P45" t="s">
         <v>270</v>
@@ -5575,7 +5548,7 @@
         <v>275</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44437</v>
+        <v>44446</v>
       </c>
       <c r="D46" t="s">
         <v>276</v>
@@ -5585,27 +5558,27 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H46" t="n">
-        <v>101390</v>
+        <v>104349</v>
       </c>
       <c r="I46" t="n">
-        <v>40.769</v>
+        <v>41.959</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="M46" t="n">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="N46" t="n">
-        <v>0.08</v>
+        <v>0.037</v>
       </c>
       <c r="O46" t="n">
-        <v>12.6</v>
+        <v>26.8</v>
       </c>
       <c r="P46" t="s">
         <v>277</v>
@@ -5628,7 +5601,7 @@
         <v>281</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44439</v>
+        <v>44446</v>
       </c>
       <c r="D47" t="s">
         <v>282</v>
@@ -5638,27 +5611,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H47" t="n">
-        <v>8000000</v>
+        <v>8303000</v>
       </c>
       <c r="I47" t="n">
-        <v>2010.165</v>
-      </c>
-      <c r="J47"/>
-      <c r="K47"/>
+        <v>2086.3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>53000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>13.317</v>
+      </c>
       <c r="L47" t="n">
-        <v>34000</v>
+        <v>43286</v>
       </c>
       <c r="M47" t="n">
-        <v>8.543</v>
+        <v>10.876</v>
       </c>
       <c r="N47" t="n">
-        <v>0.113</v>
+        <v>0.06</v>
       </c>
       <c r="O47" t="n">
-        <v>8.9</v>
+        <v>16.7</v>
       </c>
       <c r="P47" t="s">
         <v>283</v>
@@ -5791,7 +5768,7 @@
         <v>299</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44440</v>
+        <v>44448</v>
       </c>
       <c r="D50" t="s">
         <v>300</v>
@@ -5801,31 +5778,31 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H50" t="n">
-        <v>15628356</v>
+        <v>16334635</v>
       </c>
       <c r="I50" t="n">
-        <v>1506.965</v>
+        <v>1575.068</v>
       </c>
       <c r="J50" t="n">
-        <v>108219</v>
+        <v>91875</v>
       </c>
       <c r="K50" t="n">
-        <v>10.435</v>
+        <v>8.859</v>
       </c>
       <c r="L50" t="n">
-        <v>90707</v>
+        <v>85707</v>
       </c>
       <c r="M50" t="n">
-        <v>8.746</v>
+        <v>8.264</v>
       </c>
       <c r="N50" t="n">
-        <v>0.033</v>
+        <v>0.026</v>
       </c>
       <c r="O50" t="n">
-        <v>30.6</v>
+        <v>37.8</v>
       </c>
       <c r="P50" t="s">
         <v>302</v>
@@ -6129,7 +6106,7 @@
         <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44445</v>
+        <v>44450</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
@@ -6139,31 +6116,31 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H56" t="n">
-        <v>22208725</v>
+        <v>22954723</v>
       </c>
       <c r="I56" t="n">
-        <v>80.361</v>
+        <v>83.06</v>
       </c>
       <c r="J56" t="n">
-        <v>96507</v>
+        <v>143135</v>
       </c>
       <c r="K56" t="n">
-        <v>0.349</v>
+        <v>0.518</v>
       </c>
       <c r="L56" t="n">
-        <v>121650</v>
+        <v>137018</v>
       </c>
       <c r="M56" t="n">
-        <v>0.44</v>
+        <v>0.496</v>
       </c>
       <c r="N56" t="n">
-        <v>0.064</v>
+        <v>0.042</v>
       </c>
       <c r="O56" t="n">
-        <v>15.7</v>
+        <v>23.9</v>
       </c>
       <c r="P56" t="s">
         <v>340</v>
@@ -6186,7 +6163,7 @@
         <v>344</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44447</v>
+        <v>44451</v>
       </c>
       <c r="D57" t="s">
         <v>345</v>
@@ -6196,31 +6173,27 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H57" t="n">
-        <v>29791562</v>
+        <v>30227916</v>
       </c>
       <c r="I57" t="n">
-        <v>350.37</v>
-      </c>
-      <c r="J57" t="n">
-        <v>113682</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1.337</v>
-      </c>
+        <v>355.502</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57"/>
       <c r="L57" t="n">
-        <v>112182</v>
+        <v>110799</v>
       </c>
       <c r="M57" t="n">
-        <v>1.319</v>
+        <v>1.303</v>
       </c>
       <c r="N57" t="n">
-        <v>0.237</v>
+        <v>0.215</v>
       </c>
       <c r="O57" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="P57" t="s">
         <v>346</v>
@@ -6243,7 +6216,7 @@
         <v>350</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="D58" t="s">
         <v>351</v>
@@ -6253,31 +6226,27 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="H58" t="n">
-        <v>14432571</v>
+        <v>14676410</v>
       </c>
       <c r="I58" t="n">
-        <v>350.481</v>
-      </c>
-      <c r="J58" t="n">
-        <v>38974</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.946</v>
-      </c>
+        <v>356.402</v>
+      </c>
+      <c r="J58"/>
+      <c r="K58"/>
       <c r="L58" t="n">
-        <v>37710</v>
+        <v>34834</v>
       </c>
       <c r="M58" t="n">
-        <v>0.916</v>
+        <v>0.846</v>
       </c>
       <c r="N58" t="n">
-        <v>0.177</v>
+        <v>0.152</v>
       </c>
       <c r="O58" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="P58" t="s">
         <v>353</v>
@@ -6387,8 +6356,12 @@
       <c r="M60" t="n">
         <v>11.991</v>
       </c>
-      <c r="N60"/>
-      <c r="O60"/>
+      <c r="N60" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="O60" t="n">
+        <v>15</v>
+      </c>
       <c r="P60" t="s">
         <v>36</v>
       </c>
@@ -6528,7 +6501,7 @@
         <v>379</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44446</v>
+        <v>44450</v>
       </c>
       <c r="D63" t="s">
         <v>380</v>
@@ -6538,31 +6511,27 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H63" t="n">
-        <v>564564</v>
+        <v>571403</v>
       </c>
       <c r="I63" t="n">
-        <v>189.868</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2129</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.716</v>
-      </c>
+        <v>192.168</v>
+      </c>
+      <c r="J63"/>
+      <c r="K63"/>
       <c r="L63" t="n">
-        <v>2181</v>
+        <v>2052</v>
       </c>
       <c r="M63" t="n">
-        <v>0.733</v>
+        <v>0.69</v>
       </c>
       <c r="N63" t="n">
-        <v>0.307</v>
+        <v>0.323</v>
       </c>
       <c r="O63" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P63" t="s">
         <v>381</v>
@@ -6642,7 +6611,7 @@
         <v>391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="D65" t="s">
         <v>392</v>
@@ -6652,31 +6621,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H65" t="n">
-        <v>9316366</v>
+        <v>9474730</v>
       </c>
       <c r="I65" t="n">
-        <v>907.23</v>
+        <v>922.652</v>
       </c>
       <c r="J65" t="n">
-        <v>29326</v>
+        <v>30596</v>
       </c>
       <c r="K65" t="n">
-        <v>2.856</v>
+        <v>2.979</v>
       </c>
       <c r="L65" t="n">
-        <v>27512</v>
+        <v>22623</v>
       </c>
       <c r="M65" t="n">
-        <v>2.679</v>
+        <v>2.203</v>
       </c>
       <c r="N65" t="n">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="O65" t="n">
-        <v>33.2</v>
+        <v>29.6</v>
       </c>
       <c r="P65" t="s">
         <v>393</v>
@@ -6809,7 +6778,7 @@
         <v>407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="D68" t="s">
         <v>408</v>
@@ -6819,31 +6788,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H68" t="n">
-        <v>1008846</v>
+        <v>1083193</v>
       </c>
       <c r="I68" t="n">
-        <v>521.968</v>
+        <v>560.434</v>
       </c>
       <c r="J68" t="n">
-        <v>13953</v>
+        <v>10851</v>
       </c>
       <c r="K68" t="n">
-        <v>7.219</v>
+        <v>5.614</v>
       </c>
       <c r="L68" t="n">
-        <v>11971</v>
+        <v>10621</v>
       </c>
       <c r="M68" t="n">
-        <v>6.194</v>
+        <v>5.495</v>
       </c>
       <c r="N68" t="n">
-        <v>0.137</v>
+        <v>0.092</v>
       </c>
       <c r="O68" t="n">
-        <v>7.3</v>
+        <v>10.9</v>
       </c>
       <c r="P68" t="s">
         <v>410</v>
@@ -6866,7 +6835,7 @@
         <v>413</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="D69" t="s">
         <v>414</v>
@@ -6876,31 +6845,31 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="H69" t="n">
-        <v>3811460</v>
+        <v>3902549</v>
       </c>
       <c r="I69" t="n">
-        <v>880.539</v>
+        <v>901.583</v>
       </c>
       <c r="J69" t="n">
-        <v>12336</v>
+        <v>13780</v>
       </c>
       <c r="K69" t="n">
-        <v>2.85</v>
+        <v>3.184</v>
       </c>
       <c r="L69" t="n">
-        <v>12475</v>
+        <v>13013</v>
       </c>
       <c r="M69" t="n">
-        <v>2.882</v>
+        <v>3.006</v>
       </c>
       <c r="N69" t="n">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
       <c r="O69" t="n">
-        <v>82.1</v>
+        <v>163</v>
       </c>
       <c r="P69" t="s">
         <v>415</v>
@@ -6923,7 +6892,7 @@
         <v>419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44447</v>
+        <v>44451</v>
       </c>
       <c r="D70" t="s">
         <v>420</v>
@@ -6933,27 +6902,27 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H70" t="n">
-        <v>452030</v>
+        <v>474640</v>
       </c>
       <c r="I70" t="n">
-        <v>61.256</v>
+        <v>64.32</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70" t="n">
-        <v>2865</v>
+        <v>4177</v>
       </c>
       <c r="M70" t="n">
-        <v>0.388</v>
+        <v>0.566</v>
       </c>
       <c r="N70" t="n">
-        <v>0.064</v>
+        <v>0.049</v>
       </c>
       <c r="O70" t="n">
-        <v>15.6</v>
+        <v>20.5</v>
       </c>
       <c r="P70" t="s">
         <v>421</v>
@@ -7084,7 +7053,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44446</v>
+        <v>44450</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -7094,15 +7063,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>6459</v>
+        <v>6759</v>
       </c>
       <c r="K73" t="n">
-        <v>0.928</v>
+        <v>0.971</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7300,7 +7269,7 @@
         <v>458</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44435</v>
+        <v>44441</v>
       </c>
       <c r="D77" t="s">
         <v>459</v>
@@ -7310,31 +7279,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H77" t="n">
-        <v>241052</v>
+        <v>245396</v>
       </c>
       <c r="I77" t="n">
-        <v>8.48</v>
+        <v>8.632</v>
       </c>
       <c r="J77" t="n">
-        <v>578</v>
+        <v>693</v>
       </c>
       <c r="K77" t="n">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
       <c r="L77" t="n">
-        <v>572</v>
+        <v>703</v>
       </c>
       <c r="M77" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="N77" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="O77" t="n">
-        <v>210.8</v>
+        <v>259</v>
       </c>
       <c r="P77" t="s">
         <v>460</v>
@@ -7469,7 +7438,7 @@
         <v>477</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="D80" t="s">
         <v>478</v>
@@ -7479,31 +7448,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="H80" t="n">
-        <v>1387521</v>
+        <v>1424449</v>
       </c>
       <c r="I80" t="n">
-        <v>2552.373</v>
+        <v>2620.303</v>
       </c>
       <c r="J80" t="n">
-        <v>6418</v>
+        <v>5526</v>
       </c>
       <c r="K80" t="n">
-        <v>11.806</v>
+        <v>10.165</v>
       </c>
       <c r="L80" t="n">
-        <v>5314</v>
+        <v>5275</v>
       </c>
       <c r="M80" t="n">
-        <v>9.775</v>
+        <v>9.703</v>
       </c>
       <c r="N80" t="n">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="O80" t="n">
-        <v>35.8</v>
+        <v>36.9</v>
       </c>
       <c r="P80" t="s">
         <v>479</v>
@@ -7526,7 +7495,7 @@
         <v>483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44441</v>
+        <v>44445</v>
       </c>
       <c r="D81" t="s">
         <v>484</v>
@@ -7536,31 +7505,31 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H81" t="n">
-        <v>1198067</v>
+        <v>1211456</v>
       </c>
       <c r="I81" t="n">
-        <v>2328.315</v>
+        <v>2354.335</v>
       </c>
       <c r="J81" t="n">
-        <v>3709</v>
+        <v>2601</v>
       </c>
       <c r="K81" t="n">
-        <v>7.208</v>
+        <v>5.055</v>
       </c>
       <c r="L81" t="n">
-        <v>3310</v>
+        <v>3465</v>
       </c>
       <c r="M81" t="n">
-        <v>6.433</v>
+        <v>6.734</v>
       </c>
       <c r="N81" t="n">
         <v>0.016</v>
       </c>
       <c r="O81" t="n">
-        <v>62.3</v>
+        <v>62.4</v>
       </c>
       <c r="P81" t="s">
         <v>485</v>
@@ -7742,7 +7711,7 @@
         <v>506</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44448</v>
+        <v>44450</v>
       </c>
       <c r="D85" t="s">
         <v>507</v>
@@ -7752,24 +7721,32 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H85" t="n">
-        <v>4813675</v>
+        <v>4842712</v>
       </c>
       <c r="I85" t="n">
-        <v>1445.86</v>
-      </c>
-      <c r="J85"/>
-      <c r="K85"/>
+        <v>1454.581</v>
+      </c>
+      <c r="J85" t="n">
+        <v>12879</v>
+      </c>
+      <c r="K85" t="n">
+        <v>3.868</v>
+      </c>
       <c r="L85" t="n">
-        <v>19712</v>
+        <v>17537</v>
       </c>
       <c r="M85" t="n">
-        <v>5.921</v>
-      </c>
-      <c r="N85"/>
-      <c r="O85"/>
+        <v>5.268</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="O85" t="n">
+        <v>5.1</v>
+      </c>
       <c r="P85" t="s">
         <v>36</v>
       </c>
@@ -7791,7 +7768,7 @@
         <v>510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="D86" t="s">
         <v>511</v>
@@ -7801,31 +7778,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H86" t="n">
-        <v>8188219</v>
+        <v>8378637</v>
       </c>
       <c r="I86" t="n">
-        <v>219.26</v>
+        <v>224.359</v>
       </c>
       <c r="J86" t="n">
-        <v>35540</v>
+        <v>26494</v>
       </c>
       <c r="K86" t="n">
-        <v>0.952</v>
+        <v>0.709</v>
       </c>
       <c r="L86" t="n">
-        <v>31929</v>
+        <v>27203</v>
       </c>
       <c r="M86" t="n">
-        <v>0.855</v>
+        <v>0.728</v>
       </c>
       <c r="N86" t="n">
-        <v>0.16</v>
+        <v>0.129</v>
       </c>
       <c r="O86" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="P86" t="s">
         <v>512</v>
@@ -7905,7 +7882,7 @@
         <v>522</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="D88" t="s">
         <v>523</v>
@@ -7915,31 +7892,31 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="H88" t="n">
-        <v>3688810</v>
+        <v>3882356</v>
       </c>
       <c r="I88" t="n">
-        <v>67.307</v>
+        <v>70.838</v>
       </c>
       <c r="J88" t="n">
-        <v>35248</v>
+        <v>25622</v>
       </c>
       <c r="K88" t="n">
-        <v>0.643</v>
+        <v>0.468</v>
       </c>
       <c r="L88" t="n">
-        <v>31059</v>
+        <v>27649</v>
       </c>
       <c r="M88" t="n">
-        <v>0.567</v>
+        <v>0.504</v>
       </c>
       <c r="N88" t="n">
-        <v>0.104</v>
+        <v>0.1</v>
       </c>
       <c r="O88" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="P88" t="s">
         <v>524</v>
@@ -7962,7 +7939,7 @@
         <v>528</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="D89" t="s">
         <v>529</v>
@@ -7972,31 +7949,31 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="H89" t="n">
-        <v>662505</v>
+        <v>672778</v>
       </c>
       <c r="I89" t="n">
-        <v>256.056</v>
+        <v>260.026</v>
       </c>
       <c r="J89" t="n">
-        <v>1176</v>
+        <v>1476</v>
       </c>
       <c r="K89" t="n">
-        <v>0.455</v>
+        <v>0.57</v>
       </c>
       <c r="L89" t="n">
-        <v>1377</v>
+        <v>1468</v>
       </c>
       <c r="M89" t="n">
-        <v>0.532</v>
+        <v>0.567</v>
       </c>
       <c r="N89" t="n">
-        <v>0.109</v>
+        <v>0.074</v>
       </c>
       <c r="O89" t="n">
-        <v>9.2</v>
+        <v>13.5</v>
       </c>
       <c r="P89" t="s">
         <v>531</v>
@@ -8019,7 +7996,7 @@
         <v>535</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="D90" t="s">
         <v>536</v>
@@ -8029,31 +8006,31 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="H90" t="n">
-        <v>3936416</v>
+        <v>3999497</v>
       </c>
       <c r="I90" t="n">
-        <v>132.651</v>
+        <v>134.777</v>
       </c>
       <c r="J90" t="n">
-        <v>10658</v>
+        <v>8898</v>
       </c>
       <c r="K90" t="n">
-        <v>0.359</v>
+        <v>0.3</v>
       </c>
       <c r="L90" t="n">
-        <v>9671</v>
+        <v>9012</v>
       </c>
       <c r="M90" t="n">
-        <v>0.326</v>
+        <v>0.304</v>
       </c>
       <c r="N90" t="n">
-        <v>0.162</v>
+        <v>0.137</v>
       </c>
       <c r="O90" t="n">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="P90" t="s">
         <v>537</v>
@@ -8076,7 +8053,7 @@
         <v>541</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44437</v>
+        <v>44444</v>
       </c>
       <c r="D91" t="s">
         <v>542</v>
@@ -8086,27 +8063,27 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H91" t="n">
-        <v>12641794</v>
+        <v>12761678</v>
       </c>
       <c r="I91" t="n">
-        <v>736.14</v>
+        <v>743.12</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>17685</v>
+        <v>12172</v>
       </c>
       <c r="M91" t="n">
-        <v>1.03</v>
+        <v>0.709</v>
       </c>
       <c r="N91" t="n">
-        <v>0.091</v>
+        <v>0.076</v>
       </c>
       <c r="O91" t="n">
-        <v>11</v>
+        <v>13.2</v>
       </c>
       <c r="P91" t="s">
         <v>544</v>
@@ -8129,7 +8106,7 @@
         <v>548</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D92" t="s">
         <v>549</v>
@@ -8139,21 +8116,25 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H92" t="n">
-        <v>3100261</v>
+        <v>3148945</v>
       </c>
       <c r="I92" t="n">
-        <v>637.83</v>
-      </c>
-      <c r="J92"/>
-      <c r="K92"/>
+        <v>647.845</v>
+      </c>
+      <c r="J92" t="n">
+        <v>8657</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.781</v>
+      </c>
       <c r="L92" t="n">
-        <v>10856</v>
+        <v>12407</v>
       </c>
       <c r="M92" t="n">
-        <v>2.233</v>
+        <v>2.553</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -8386,7 +8367,7 @@
         <v>575</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D97" t="s">
         <v>576</v>
@@ -8396,21 +8377,25 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="H97" t="n">
-        <v>18286469</v>
+        <v>18521728</v>
       </c>
       <c r="I97" t="n">
-        <v>81.201</v>
-      </c>
-      <c r="J97"/>
-      <c r="K97"/>
+        <v>82.246</v>
+      </c>
+      <c r="J97" t="n">
+        <v>53158</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.236</v>
+      </c>
       <c r="L97" t="n">
-        <v>59264</v>
+        <v>58753</v>
       </c>
       <c r="M97" t="n">
-        <v>0.263</v>
+        <v>0.261</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8435,7 +8420,7 @@
         <v>580</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="D98" t="s">
         <v>581</v>
@@ -8443,27 +8428,27 @@
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>11848</v>
+        <v>11737</v>
       </c>
       <c r="K98" t="n">
-        <v>2.269</v>
+        <v>2.247</v>
       </c>
       <c r="L98" t="n">
-        <v>10606</v>
+        <v>11354</v>
       </c>
       <c r="M98" t="n">
-        <v>2.031</v>
+        <v>2.174</v>
       </c>
       <c r="N98" t="n">
-        <v>0.204</v>
+        <v>0.209</v>
       </c>
       <c r="O98" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="P98" t="s">
         <v>582</v>
@@ -8486,7 +8471,7 @@
         <v>586</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44440</v>
+        <v>44448</v>
       </c>
       <c r="D99" t="s">
         <v>587</v>
@@ -8496,31 +8481,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="H99" t="n">
-        <v>3673799</v>
+        <v>3732084</v>
       </c>
       <c r="I99" t="n">
-        <v>838.464</v>
+        <v>851.766</v>
       </c>
       <c r="J99" t="n">
-        <v>10203</v>
+        <v>7304</v>
       </c>
       <c r="K99" t="n">
-        <v>2.329</v>
+        <v>1.667</v>
       </c>
       <c r="L99" t="n">
-        <v>9144</v>
+        <v>7100</v>
       </c>
       <c r="M99" t="n">
-        <v>2.087</v>
+        <v>1.62</v>
       </c>
       <c r="N99" t="n">
-        <v>0.06</v>
+        <v>0.052</v>
       </c>
       <c r="O99" t="n">
-        <v>16.7</v>
+        <v>19.2</v>
       </c>
       <c r="P99" t="s">
         <v>588</v>
@@ -8596,7 +8581,7 @@
         <v>597</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44440</v>
+        <v>44448</v>
       </c>
       <c r="D101" t="s">
         <v>598</v>
@@ -8606,31 +8591,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="H101" t="n">
-        <v>1775656</v>
+        <v>1793949</v>
       </c>
       <c r="I101" t="n">
-        <v>245.948</v>
+        <v>248.482</v>
       </c>
       <c r="J101" t="n">
-        <v>2247</v>
+        <v>2288</v>
       </c>
       <c r="K101" t="n">
-        <v>0.311</v>
+        <v>0.317</v>
       </c>
       <c r="L101" t="n">
-        <v>2492</v>
+        <v>2279</v>
       </c>
       <c r="M101" t="n">
-        <v>0.345</v>
+        <v>0.316</v>
       </c>
       <c r="N101" t="n">
-        <v>0.029</v>
+        <v>0.026</v>
       </c>
       <c r="O101" t="n">
-        <v>35</v>
+        <v>38.3</v>
       </c>
       <c r="P101" t="s">
         <v>599</v>
@@ -8767,7 +8752,7 @@
         <v>614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="D104" t="s">
         <v>615</v>
@@ -8777,31 +8762,31 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H104" t="n">
-        <v>19450274</v>
+        <v>19699264</v>
       </c>
       <c r="I104" t="n">
-        <v>514.598</v>
+        <v>521.186</v>
       </c>
       <c r="J104" t="n">
-        <v>38954</v>
+        <v>37457</v>
       </c>
       <c r="K104" t="n">
-        <v>1.031</v>
+        <v>0.991</v>
       </c>
       <c r="L104" t="n">
-        <v>36701</v>
+        <v>35570</v>
       </c>
       <c r="M104" t="n">
-        <v>0.971</v>
+        <v>0.941</v>
       </c>
       <c r="N104" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="O104" t="n">
-        <v>133.3</v>
+        <v>92.2</v>
       </c>
       <c r="P104" t="s">
         <v>616</v>
@@ -8824,7 +8809,7 @@
         <v>619</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="D105" t="s">
         <v>615</v>
@@ -8834,31 +8819,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="H105" t="n">
-        <v>19858508</v>
+        <v>20109569</v>
       </c>
       <c r="I105" t="n">
-        <v>525.399</v>
+        <v>532.041</v>
       </c>
       <c r="J105" t="n">
-        <v>39273</v>
+        <v>37704</v>
       </c>
       <c r="K105" t="n">
-        <v>1.039</v>
+        <v>0.998</v>
       </c>
       <c r="L105" t="n">
-        <v>89973</v>
+        <v>35866</v>
       </c>
       <c r="M105" t="n">
-        <v>2.38</v>
+        <v>0.949</v>
       </c>
       <c r="N105" t="n">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="O105" t="n">
-        <v>356.6</v>
+        <v>97.8</v>
       </c>
       <c r="P105" t="s">
         <v>616</v>
@@ -9101,7 +9086,7 @@
         <v>645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D110" t="s">
         <v>646</v>
@@ -9111,21 +9096,25 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H110" t="n">
-        <v>2546682</v>
+        <v>2593862</v>
       </c>
       <c r="I110" t="n">
-        <v>191.819</v>
-      </c>
-      <c r="J110"/>
-      <c r="K110"/>
+        <v>195.372</v>
+      </c>
+      <c r="J110" t="n">
+        <v>11795</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.888</v>
+      </c>
       <c r="L110" t="n">
-        <v>12157</v>
+        <v>11931</v>
       </c>
       <c r="M110" t="n">
-        <v>0.916</v>
+        <v>0.899</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
@@ -9150,7 +9139,7 @@
         <v>651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="D111" t="s">
         <v>652</v>
@@ -9160,24 +9149,32 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H111" t="n">
-        <v>33088</v>
+        <v>34519</v>
       </c>
       <c r="I111" t="n">
-        <v>617.936</v>
-      </c>
-      <c r="J111"/>
-      <c r="K111"/>
+        <v>644.661</v>
+      </c>
+      <c r="J111" t="n">
+        <v>431</v>
+      </c>
+      <c r="K111" t="n">
+        <v>8.049</v>
+      </c>
       <c r="L111" t="n">
-        <v>179</v>
+        <v>321</v>
       </c>
       <c r="M111" t="n">
-        <v>3.343</v>
-      </c>
-      <c r="N111"/>
-      <c r="O111"/>
+        <v>5.995</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="O111" t="n">
+        <v>7.1</v>
+      </c>
       <c r="P111" t="s">
         <v>36</v>
       </c>
@@ -9539,7 +9536,7 @@
         <v>685</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44440</v>
+        <v>44448</v>
       </c>
       <c r="D118" t="s">
         <v>686</v>
@@ -9549,31 +9546,31 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="H118" t="n">
-        <v>16536206</v>
+        <v>16930469</v>
       </c>
       <c r="I118" t="n">
-        <v>275.411</v>
+        <v>281.977</v>
       </c>
       <c r="J118" t="n">
-        <v>61027</v>
+        <v>52408</v>
       </c>
       <c r="K118" t="n">
-        <v>1.016</v>
+        <v>0.873</v>
       </c>
       <c r="L118" t="n">
-        <v>43895</v>
+        <v>48143</v>
       </c>
       <c r="M118" t="n">
-        <v>0.731</v>
+        <v>0.802</v>
       </c>
       <c r="N118" t="n">
-        <v>0.212</v>
+        <v>0.138</v>
       </c>
       <c r="O118" t="n">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="P118" t="s">
         <v>687</v>
@@ -9596,7 +9593,7 @@
         <v>691</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D119" t="s">
         <v>692</v>
@@ -9606,21 +9603,25 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H119" t="n">
-        <v>12670949</v>
+        <v>12810004</v>
       </c>
       <c r="I119" t="n">
-        <v>246.972</v>
-      </c>
-      <c r="J119"/>
-      <c r="K119"/>
+        <v>249.682</v>
+      </c>
+      <c r="J119" t="n">
+        <v>16247</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.317</v>
+      </c>
       <c r="L119" t="n">
-        <v>38196</v>
+        <v>40653</v>
       </c>
       <c r="M119" t="n">
-        <v>0.744</v>
+        <v>0.792</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9698,7 +9699,7 @@
         <v>701</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44434</v>
+        <v>44441</v>
       </c>
       <c r="D121" t="s">
         <v>702</v>
@@ -9708,27 +9709,27 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H121" t="n">
-        <v>55478210</v>
+        <v>56254831</v>
       </c>
       <c r="I121" t="n">
-        <v>1186.821</v>
+        <v>1203.435</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>105898</v>
+        <v>100123</v>
       </c>
       <c r="M121" t="n">
-        <v>2.265</v>
+        <v>2.142</v>
       </c>
       <c r="N121" t="n">
-        <v>0.087</v>
+        <v>0.07</v>
       </c>
       <c r="O121" t="n">
-        <v>11.5</v>
+        <v>14.3</v>
       </c>
       <c r="P121" t="s">
         <v>704</v>
@@ -10032,7 +10033,7 @@
         <v>735</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="D127" t="s">
         <v>736</v>
@@ -10042,27 +10043,27 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H127" t="n">
-        <v>191346</v>
+        <v>194367</v>
       </c>
       <c r="I127" t="n">
-        <v>142.384</v>
+        <v>144.632</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
       <c r="L127" t="n">
-        <v>925</v>
+        <v>809</v>
       </c>
       <c r="M127" t="n">
-        <v>0.688</v>
+        <v>0.602</v>
       </c>
       <c r="N127" t="n">
-        <v>0.186</v>
+        <v>0.164</v>
       </c>
       <c r="O127" t="n">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="P127" t="s">
         <v>36</v>
@@ -10085,7 +10086,7 @@
         <v>739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
@@ -10095,31 +10096,31 @@
         <v>741</v>
       </c>
       <c r="G128" t="n">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="H128" t="n">
-        <v>468182</v>
+        <v>481264</v>
       </c>
       <c r="I128" t="n">
-        <v>55.222</v>
+        <v>56.765</v>
       </c>
       <c r="J128" t="n">
-        <v>2122</v>
+        <v>2225</v>
       </c>
       <c r="K128" t="n">
-        <v>0.25</v>
+        <v>0.262</v>
       </c>
       <c r="L128" t="n">
-        <v>2118</v>
+        <v>1869</v>
       </c>
       <c r="M128" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="N128" t="n">
-        <v>0.086</v>
+        <v>0.113</v>
       </c>
       <c r="O128" t="n">
-        <v>11.7</v>
+        <v>8.8</v>
       </c>
       <c r="P128" t="s">
         <v>740</v>
@@ -10142,7 +10143,7 @@
         <v>746</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44439</v>
+        <v>44445</v>
       </c>
       <c r="D129" t="s">
         <v>747</v>
@@ -10152,31 +10153,27 @@
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="H129" t="n">
-        <v>308402</v>
+        <v>316078</v>
       </c>
       <c r="I129" t="n">
-        <v>219.758</v>
-      </c>
-      <c r="J129" t="n">
-        <v>735</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.524</v>
-      </c>
+        <v>225.227</v>
+      </c>
+      <c r="J129"/>
+      <c r="K129"/>
       <c r="L129" t="n">
-        <v>755</v>
+        <v>1202</v>
       </c>
       <c r="M129" t="n">
-        <v>0.538</v>
+        <v>0.857</v>
       </c>
       <c r="N129" t="n">
-        <v>0.284</v>
+        <v>0.145</v>
       </c>
       <c r="O129" t="n">
-        <v>3.5</v>
+        <v>6.9</v>
       </c>
       <c r="P129" t="s">
         <v>36</v>
@@ -10199,7 +10196,7 @@
         <v>751</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="D130" t="s">
         <v>752</v>
@@ -10209,27 +10206,31 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H130" t="n">
-        <v>2679159</v>
+        <v>2708754</v>
       </c>
       <c r="I130" t="n">
-        <v>224.465</v>
-      </c>
-      <c r="J130"/>
-      <c r="K130"/>
+        <v>226.944</v>
+      </c>
+      <c r="J130" t="n">
+        <v>29595</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2.48</v>
+      </c>
       <c r="L130" t="n">
-        <v>8988</v>
+        <v>11962</v>
       </c>
       <c r="M130" t="n">
-        <v>0.753</v>
+        <v>1.002</v>
       </c>
       <c r="N130" t="n">
-        <v>0.221</v>
+        <v>0.144</v>
       </c>
       <c r="O130" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P130" t="s">
         <v>754</v>
@@ -10309,7 +10310,7 @@
         <v>764</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44439</v>
+        <v>44446</v>
       </c>
       <c r="D132" t="s">
         <v>765</v>
@@ -10319,31 +10320,31 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="H132" t="n">
-        <v>1586275</v>
+        <v>1610131</v>
       </c>
       <c r="I132" t="n">
-        <v>33.662</v>
+        <v>34.168</v>
       </c>
       <c r="J132" t="n">
-        <v>2977</v>
+        <v>3921</v>
       </c>
       <c r="K132" t="n">
-        <v>0.063</v>
+        <v>0.083</v>
       </c>
       <c r="L132" t="n">
-        <v>3548</v>
+        <v>3408</v>
       </c>
       <c r="M132" t="n">
-        <v>0.075</v>
+        <v>0.072</v>
       </c>
       <c r="N132" t="n">
-        <v>0.041</v>
+        <v>0.033</v>
       </c>
       <c r="O132" t="n">
-        <v>24.5</v>
+        <v>29.9</v>
       </c>
       <c r="P132" t="s">
         <v>766</v>
@@ -10366,7 +10367,7 @@
         <v>770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D133" t="s">
         <v>771</v>
@@ -10376,21 +10377,25 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H133" t="n">
-        <v>12188070</v>
+        <v>12279748</v>
       </c>
       <c r="I133" t="n">
-        <v>280.399</v>
-      </c>
-      <c r="J133"/>
-      <c r="K133"/>
+        <v>282.509</v>
+      </c>
+      <c r="J133" t="n">
+        <v>10668</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.245</v>
+      </c>
       <c r="L133" t="n">
-        <v>22298</v>
+        <v>24451</v>
       </c>
       <c r="M133" t="n">
-        <v>0.513</v>
+        <v>0.563</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
@@ -10588,7 +10593,7 @@
         <v>796</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44447</v>
+        <v>44449</v>
       </c>
       <c r="D137" t="s">
         <v>797</v>
@@ -10598,31 +10603,31 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H137" t="n">
-        <v>3404196</v>
+        <v>3424238</v>
       </c>
       <c r="I137" t="n">
-        <v>976.771</v>
+        <v>982.522</v>
       </c>
       <c r="J137" t="n">
-        <v>10327</v>
+        <v>9716</v>
       </c>
       <c r="K137" t="n">
-        <v>2.963</v>
+        <v>2.788</v>
       </c>
       <c r="L137" t="n">
-        <v>8843</v>
+        <v>8729</v>
       </c>
       <c r="M137" t="n">
-        <v>2.537</v>
+        <v>2.505</v>
       </c>
       <c r="N137" t="n">
         <v>0.016</v>
       </c>
       <c r="O137" t="n">
-        <v>61.7</v>
+        <v>61.9</v>
       </c>
       <c r="P137" t="s">
         <v>191</v>
@@ -10645,7 +10650,7 @@
         <v>801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="D138" t="s">
         <v>802</v>
@@ -10655,31 +10660,31 @@
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H138" t="n">
-        <v>15201879</v>
+        <v>18111288</v>
       </c>
       <c r="I138" t="n">
-        <v>154.854</v>
+        <v>184.491</v>
       </c>
       <c r="J138" t="n">
-        <v>868961</v>
+        <v>1927759</v>
       </c>
       <c r="K138" t="n">
-        <v>8.852</v>
+        <v>19.637</v>
       </c>
       <c r="L138" t="n">
-        <v>274024</v>
+        <v>539767</v>
       </c>
       <c r="M138" t="n">
-        <v>2.791</v>
+        <v>5.498</v>
       </c>
       <c r="N138" t="n">
-        <v>0.048</v>
+        <v>0.024</v>
       </c>
       <c r="O138" t="n">
-        <v>20.8</v>
+        <v>42.5</v>
       </c>
       <c r="P138" t="s">
         <v>804</v>
@@ -10759,7 +10764,7 @@
         <v>814</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44440</v>
+        <v>44448</v>
       </c>
       <c r="D140" t="s">
         <v>815</v>
@@ -10769,31 +10774,31 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="H140" t="n">
-        <v>1142911</v>
+        <v>1177874</v>
       </c>
       <c r="I140" t="n">
-        <v>75.729</v>
+        <v>78.045</v>
       </c>
       <c r="J140" t="n">
-        <v>4828</v>
+        <v>4709</v>
       </c>
       <c r="K140" t="n">
-        <v>0.32</v>
+        <v>0.312</v>
       </c>
       <c r="L140" t="n">
-        <v>4282</v>
+        <v>4352</v>
       </c>
       <c r="M140" t="n">
-        <v>0.284</v>
+        <v>0.288</v>
       </c>
       <c r="N140" t="n">
-        <v>0.042</v>
+        <v>0.031</v>
       </c>
       <c r="O140" t="n">
-        <v>24</v>
+        <v>32.5</v>
       </c>
       <c r="P140" t="s">
         <v>816</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4275</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4291</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-12-september-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-13-september-2021-coronavirus-covid-19-at-a-glance-13-september-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1907-new-cases-1643-recoveries_i_0000134432.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-update-1888-new-cases-1393-recoveries_i_0000134470.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -363,7 +363,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4203792293015688/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4523635797698001/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/6000-el-ministerio-de-salud-informa-que-se-inmunizo-hasta-hoy-a-6-216-576-personas-con-primeras-y-segundas-dosis</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/6014-el-ministerio-de-salud-informa-que-se-inmunizo-hasta-hoy-a-6-277-737-personas-con-primeras-y-segundas-dosis</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-08-de-setembro-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-13-de-setembro-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -601,7 +601,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1995267213972296</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/photos/a.270240923141609/1998871206945230/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -715,7 +715,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-08092021-a18e</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-14092021-jrhb</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/09/INFOGRAFIA-MEDIOS-08_Septiembre_2021.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/09/INFOGRAFIA-MEDIOS-12_Septiembre_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">Gambia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/09/GMB-COVID-19-Situational-Report_2021_4th_7th_September_No-366.pdf</t>
+    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/09/GMB-COVID-19-Situational-Report_2021_8th_9th_September_No-367.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, The Gambia</t>
@@ -951,7 +951,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/2571</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/2625</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/09/covid-gr-daily-report-20210909.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/09/covid-gr-daily-report-20210913.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1168,7 +1168,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/369799</t>
+    <t xml:space="preserve">http://irangov.ir/detail/369918</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1188,7 +1188,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1435992760629309440</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1437093378152357893</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1291,7 +1291,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-saturday-september-11-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-september-12-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1436034188004806656</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1437446198055641099</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1609,7 +1609,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1436011299360546817</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1437461123561783296</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1435997189197680641</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1437443201808408586</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1740,7 +1740,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1130:boletim-diario-covid-19-n-533</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1135:boletim-diario-covid-19-n-535&amp;start=10</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1761,7 +1761,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FSep_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(9-9-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FSep_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(12-9-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.813068359366169/813068212699517</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.815465622459776/815465512459787</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1803,7 +1803,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1RdEZRPUf-6tfOKPLnTR5Mt80YEzD5qMp</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/17EIbefqBgxhq6Q6OxCeQoPredc-8i_1i</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1956,7 +1956,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4142942162498297</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4155337174592129</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1978,7 +1978,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1436145771775250433</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1437262301388812288</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1436093455747403776</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1437182614989901824</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2070,7 +2070,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1435886946581164037</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1437336498072784905</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2133,7 +2133,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/08-09_BULETIN_DE_PRESA_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_14_septembrie_2021,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18911</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18969</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2313,7 +2313,7 @@
     <t xml:space="preserve">South Africa - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://sacoronavirus.co.za/2021/09/09/update-on-covid-19-thursday-09-september/</t>
+    <t xml:space="preserve">https://sacoronavirus.co.za/2021/09/12/update-on-covid-19-sunday-12-september/</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Communicable Diseases (NICD)</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_02_09_2021.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_09_09_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-839/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-842/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2581,7 +2581,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1435903497921310720</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1437331631463874561</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2710,7 +2710,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1342-bc-byt-bo-y-te-208908-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1376-bc-byt-2021-tinh-hinh-va-cong-tac-phong-chong-dich-covid-19-209228-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam Ministry of Health</t>
@@ -2756,7 +2756,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1436104450909822977</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1437164962426855436</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3331,7 +3331,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3341,31 +3341,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H5" t="n">
-        <v>13566184</v>
+        <v>13614095</v>
       </c>
       <c r="I5" t="n">
-        <v>297.466</v>
+        <v>298.517</v>
       </c>
       <c r="J5" t="n">
-        <v>30012</v>
+        <v>30770</v>
       </c>
       <c r="K5" t="n">
-        <v>0.658</v>
+        <v>0.675</v>
       </c>
       <c r="L5" t="n">
-        <v>28580</v>
+        <v>28941</v>
       </c>
       <c r="M5" t="n">
-        <v>0.627</v>
+        <v>0.635</v>
       </c>
       <c r="N5" t="n">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
       <c r="O5" t="n">
-        <v>25.6</v>
+        <v>27</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3388,7 +3388,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3398,31 +3398,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H6" t="n">
-        <v>1588480</v>
+        <v>1616849</v>
       </c>
       <c r="I6" t="n">
-        <v>535.179</v>
+        <v>544.737</v>
       </c>
       <c r="J6" t="n">
-        <v>6659</v>
+        <v>4178</v>
       </c>
       <c r="K6" t="n">
-        <v>2.244</v>
+        <v>1.408</v>
       </c>
       <c r="L6" t="n">
-        <v>5797</v>
+        <v>5670</v>
       </c>
       <c r="M6" t="n">
-        <v>1.953</v>
+        <v>1.91</v>
       </c>
       <c r="N6" t="n">
-        <v>0.09</v>
+        <v>0.098</v>
       </c>
       <c r="O6" t="n">
-        <v>11.1</v>
+        <v>10.2</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3445,7 +3445,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44451</v>
+        <v>44452</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3455,21 +3455,25 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H7" t="n">
-        <v>34054958</v>
+        <v>34277304</v>
       </c>
       <c r="I7" t="n">
-        <v>1320.563</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
+        <v>1329.185</v>
+      </c>
+      <c r="J7" t="n">
+        <v>222346</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.622</v>
+      </c>
       <c r="L7" t="n">
-        <v>201730</v>
+        <v>203721</v>
       </c>
       <c r="M7" t="n">
-        <v>7.823</v>
+        <v>7.9</v>
       </c>
       <c r="N7" t="n">
         <v>0.009</v>
@@ -3498,7 +3502,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44446</v>
+        <v>44452</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3508,31 +3512,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="H8" t="n">
-        <v>78870408</v>
+        <v>81012773</v>
       </c>
       <c r="I8" t="n">
-        <v>8721.639</v>
+        <v>8958.546</v>
       </c>
       <c r="J8" t="n">
-        <v>338557</v>
+        <v>309931</v>
       </c>
       <c r="K8" t="n">
-        <v>37.438</v>
+        <v>34.273</v>
       </c>
       <c r="L8" t="n">
-        <v>336043</v>
+        <v>354417</v>
       </c>
       <c r="M8" t="n">
-        <v>37.16</v>
+        <v>39.192</v>
       </c>
       <c r="N8" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="O8" t="n">
-        <v>221</v>
+        <v>176.4</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3555,7 +3559,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44451</v>
+        <v>44452</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3565,27 +3569,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H9" t="n">
-        <v>4652996</v>
+        <v>4661119</v>
       </c>
       <c r="I9" t="n">
-        <v>455.134</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9"/>
+        <v>455.929</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8123</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.795</v>
+      </c>
       <c r="L9" t="n">
-        <v>13672</v>
+        <v>14007</v>
       </c>
       <c r="M9" t="n">
-        <v>1.337</v>
+        <v>1.37</v>
       </c>
       <c r="N9" t="n">
-        <v>0.127</v>
+        <v>0.163</v>
       </c>
       <c r="O9" t="n">
-        <v>7.9</v>
+        <v>6.1</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3608,7 +3616,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44451</v>
+        <v>44452</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3618,31 +3626,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H10" t="n">
-        <v>6152114</v>
+        <v>6168885</v>
       </c>
       <c r="I10" t="n">
-        <v>3518.922</v>
+        <v>3528.515</v>
       </c>
       <c r="J10" t="n">
-        <v>18793</v>
+        <v>16771</v>
       </c>
       <c r="K10" t="n">
-        <v>10.749</v>
+        <v>9.593</v>
       </c>
       <c r="L10" t="n">
-        <v>17034</v>
+        <v>18121</v>
       </c>
       <c r="M10" t="n">
-        <v>9.743</v>
+        <v>10.365</v>
       </c>
       <c r="N10" t="n">
         <v>0.006</v>
       </c>
       <c r="O10" t="n">
-        <v>162.2</v>
+        <v>175.7</v>
       </c>
       <c r="P10" t="s">
         <v>70</v>
@@ -3665,7 +3673,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44447</v>
+        <v>44453</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3675,32 +3683,28 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="H11" t="n">
-        <v>9113745</v>
+        <v>9281891</v>
       </c>
       <c r="I11" t="n">
-        <v>54.802</v>
+        <v>55.813</v>
       </c>
       <c r="J11" t="n">
-        <v>27233</v>
+        <v>31724</v>
       </c>
       <c r="K11" t="n">
-        <v>0.164</v>
+        <v>0.191</v>
       </c>
       <c r="L11" t="n">
-        <v>24241</v>
+        <v>27911</v>
       </c>
       <c r="M11" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>9.1</v>
-      </c>
+        <v>0.168</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
       <c r="P11" t="s">
         <v>77</v>
       </c>
@@ -3722,7 +3726,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3732,21 +3736,25 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H12" t="n">
-        <v>8038526</v>
+        <v>8056855</v>
       </c>
       <c r="I12" t="n">
-        <v>851.28</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12"/>
+        <v>853.221</v>
+      </c>
+      <c r="J12" t="n">
+        <v>18329</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.941</v>
+      </c>
       <c r="L12" t="n">
-        <v>19817</v>
+        <v>19311</v>
       </c>
       <c r="M12" t="n">
-        <v>2.099</v>
+        <v>2.045</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -3771,7 +3779,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44446</v>
+        <v>44451</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3781,31 +3789,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="H13" t="n">
-        <v>19015424</v>
+        <v>19228987</v>
       </c>
       <c r="I13" t="n">
-        <v>1634.704</v>
+        <v>1653.064</v>
       </c>
       <c r="J13" t="n">
-        <v>46725</v>
+        <v>22128</v>
       </c>
       <c r="K13" t="n">
-        <v>4.017</v>
+        <v>1.902</v>
       </c>
       <c r="L13" t="n">
-        <v>39387</v>
+        <v>42638</v>
       </c>
       <c r="M13" t="n">
-        <v>3.386</v>
+        <v>3.665</v>
       </c>
       <c r="N13" t="n">
-        <v>0.054</v>
+        <v>0.051</v>
       </c>
       <c r="O13" t="n">
-        <v>18.5</v>
+        <v>19.6</v>
       </c>
       <c r="P13" t="s">
         <v>90</v>
@@ -3828,7 +3836,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44433</v>
+        <v>44448</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3838,27 +3846,27 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" t="n">
-        <v>211942</v>
+        <v>235725</v>
       </c>
       <c r="I14" t="n">
-        <v>523.423</v>
+        <v>582.159</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>1418</v>
+        <v>1586</v>
       </c>
       <c r="M14" t="n">
-        <v>3.502</v>
+        <v>3.917</v>
       </c>
       <c r="N14" t="n">
-        <v>0.062</v>
+        <v>0.071</v>
       </c>
       <c r="O14" t="n">
-        <v>16.2</v>
+        <v>14</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -3926,7 +3934,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44343</v>
+        <v>44453</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -3936,28 +3944,24 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="H16" t="n">
-        <v>798573</v>
+        <v>1122556</v>
       </c>
       <c r="I16" t="n">
-        <v>1023.943</v>
+        <v>1439.359</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16" t="n">
-        <v>5777</v>
+        <v>2321</v>
       </c>
       <c r="M16" t="n">
-        <v>7.407</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="O16" t="n">
-        <v>264.3</v>
-      </c>
+        <v>2.976</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16"/>
       <c r="P16" t="s">
         <v>36</v>
       </c>
@@ -3979,7 +3983,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44447</v>
+        <v>44451</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3989,31 +3993,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H17" t="n">
-        <v>2335336</v>
+        <v>2354869</v>
       </c>
       <c r="I17" t="n">
-        <v>197.359</v>
+        <v>199.01</v>
       </c>
       <c r="J17" t="n">
-        <v>6744</v>
+        <v>2358</v>
       </c>
       <c r="K17" t="n">
-        <v>0.57</v>
+        <v>0.199</v>
       </c>
       <c r="L17" t="n">
-        <v>5650</v>
+        <v>5411</v>
       </c>
       <c r="M17" t="n">
-        <v>0.477</v>
+        <v>0.457</v>
       </c>
       <c r="N17" t="n">
-        <v>0.055</v>
+        <v>0.062</v>
       </c>
       <c r="O17" t="n">
-        <v>18.2</v>
+        <v>16.1</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4036,7 +4040,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4046,21 +4050,25 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H18" t="n">
-        <v>1174665</v>
+        <v>1178217</v>
       </c>
       <c r="I18" t="n">
-        <v>359.945</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18"/>
+        <v>361.033</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3552</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.088</v>
+      </c>
       <c r="L18" t="n">
-        <v>2710</v>
+        <v>2750</v>
       </c>
       <c r="M18" t="n">
-        <v>0.83</v>
+        <v>0.843</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
@@ -4130,7 +4138,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4140,27 +4148,27 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H20" t="n">
-        <v>4395834</v>
+        <v>4492720</v>
       </c>
       <c r="I20" t="n">
-        <v>637.386</v>
+        <v>651.435</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>20726</v>
+        <v>19523</v>
       </c>
       <c r="M20" t="n">
-        <v>3.005</v>
+        <v>2.831</v>
       </c>
       <c r="N20" t="n">
-        <v>0.063</v>
+        <v>0.077</v>
       </c>
       <c r="O20" t="n">
-        <v>15.8</v>
+        <v>12.9</v>
       </c>
       <c r="P20" t="s">
         <v>130</v>
@@ -4285,7 +4293,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D23" t="s">
         <v>140</v>
@@ -4295,31 +4303,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="H23" t="n">
-        <v>41151117</v>
+        <v>41593358</v>
       </c>
       <c r="I23" t="n">
-        <v>1080.992</v>
+        <v>1092.609</v>
       </c>
       <c r="J23" t="n">
-        <v>66077</v>
+        <v>80018</v>
       </c>
       <c r="K23" t="n">
-        <v>1.736</v>
+        <v>2.102</v>
       </c>
       <c r="L23" t="n">
-        <v>77926</v>
+        <v>81434</v>
       </c>
       <c r="M23" t="n">
-        <v>2.047</v>
+        <v>2.139</v>
       </c>
       <c r="N23" t="n">
-        <v>0.048</v>
+        <v>0.062</v>
       </c>
       <c r="O23" t="n">
-        <v>20.8</v>
+        <v>16.1</v>
       </c>
       <c r="P23" t="s">
         <v>141</v>
@@ -4342,7 +4350,7 @@
         <v>147</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44446</v>
+        <v>44451</v>
       </c>
       <c r="D24" t="s">
         <v>148</v>
@@ -4352,15 +4360,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>1350</v>
+        <v>904</v>
       </c>
       <c r="K24" t="n">
-        <v>2.403</v>
+        <v>1.609</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4387,7 +4395,7 @@
         <v>153</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44447</v>
+        <v>44453</v>
       </c>
       <c r="D25" t="s">
         <v>154</v>
@@ -4397,32 +4405,28 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="H25" t="n">
-        <v>20435163</v>
+        <v>20741439</v>
       </c>
       <c r="I25" t="n">
-        <v>1063.647</v>
+        <v>1079.588</v>
       </c>
       <c r="J25" t="n">
-        <v>43498</v>
+        <v>28613</v>
       </c>
       <c r="K25" t="n">
-        <v>2.264</v>
+        <v>1.489</v>
       </c>
       <c r="L25" t="n">
-        <v>51096</v>
+        <v>49968</v>
       </c>
       <c r="M25" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="O25" t="n">
-        <v>118.3</v>
-      </c>
+        <v>2.601</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25"/>
       <c r="P25" t="s">
         <v>156</v>
       </c>
@@ -4489,7 +4493,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D27" t="s">
         <v>167</v>
@@ -4499,31 +4503,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="H27" t="n">
-        <v>24491154</v>
+        <v>24713540</v>
       </c>
       <c r="I27" t="n">
-        <v>477.729</v>
+        <v>482.066</v>
       </c>
       <c r="J27" t="n">
-        <v>53075</v>
+        <v>28787</v>
       </c>
       <c r="K27" t="n">
-        <v>1.035</v>
+        <v>0.562</v>
       </c>
       <c r="L27" t="n">
-        <v>46955</v>
+        <v>46722</v>
       </c>
       <c r="M27" t="n">
-        <v>0.916</v>
+        <v>0.911</v>
       </c>
       <c r="N27" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="O27" t="n">
-        <v>21.3</v>
+        <v>22.2</v>
       </c>
       <c r="P27" t="s">
         <v>168</v>
@@ -4546,7 +4550,7 @@
         <v>172</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44442</v>
+        <v>44448</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
@@ -4556,31 +4560,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="H28" t="n">
-        <v>1731355</v>
+        <v>1763461</v>
       </c>
       <c r="I28" t="n">
-        <v>336.902</v>
+        <v>343.149</v>
       </c>
       <c r="J28" t="n">
-        <v>10434</v>
+        <v>6153</v>
       </c>
       <c r="K28" t="n">
-        <v>2.03</v>
+        <v>1.197</v>
       </c>
       <c r="L28" t="n">
-        <v>8122</v>
+        <v>6601</v>
       </c>
       <c r="M28" t="n">
-        <v>1.58</v>
+        <v>1.284</v>
       </c>
       <c r="N28" t="n">
-        <v>0.241</v>
+        <v>0.308</v>
       </c>
       <c r="O28" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="P28" t="s">
         <v>174</v>
@@ -4603,7 +4607,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44447</v>
+        <v>44451</v>
       </c>
       <c r="D29" t="s">
         <v>178</v>
@@ -4613,31 +4617,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="H29" t="n">
-        <v>935841</v>
+        <v>952906</v>
       </c>
       <c r="I29" t="n">
-        <v>34.592</v>
+        <v>35.223</v>
       </c>
       <c r="J29" t="n">
-        <v>4921</v>
+        <v>4817</v>
       </c>
       <c r="K29" t="n">
-        <v>0.182</v>
+        <v>0.178</v>
       </c>
       <c r="L29" t="n">
-        <v>4320</v>
+        <v>4231</v>
       </c>
       <c r="M29" t="n">
-        <v>0.16</v>
+        <v>0.156</v>
       </c>
       <c r="N29" t="n">
-        <v>0.038</v>
+        <v>0.039</v>
       </c>
       <c r="O29" t="n">
-        <v>26.4</v>
+        <v>25.7</v>
       </c>
       <c r="P29" t="s">
         <v>179</v>
@@ -4660,7 +4664,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4670,28 +4674,28 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H30" t="n">
-        <v>2658977</v>
+        <v>2673076</v>
       </c>
       <c r="I30" t="n">
-        <v>651.445</v>
-      </c>
-      <c r="J30"/>
-      <c r="K30"/>
+        <v>654.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>10228</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.506</v>
+      </c>
       <c r="L30" t="n">
-        <v>9399</v>
+        <v>9411</v>
       </c>
       <c r="M30" t="n">
-        <v>2.303</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="O30" t="n">
-        <v>10.8</v>
-      </c>
+        <v>2.306</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30"/>
       <c r="P30" t="s">
         <v>185</v>
       </c>
@@ -4772,7 +4776,7 @@
         <v>196</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D32" t="s">
         <v>197</v>
@@ -4782,31 +4786,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="H32" t="n">
-        <v>12062103</v>
+        <v>12366746</v>
       </c>
       <c r="I32" t="n">
-        <v>13583.373</v>
+        <v>13926.437</v>
       </c>
       <c r="J32" t="n">
-        <v>48588</v>
+        <v>76913</v>
       </c>
       <c r="K32" t="n">
-        <v>54.716</v>
+        <v>86.613</v>
       </c>
       <c r="L32" t="n">
-        <v>52349</v>
+        <v>56992</v>
       </c>
       <c r="M32" t="n">
-        <v>58.951</v>
+        <v>64.18</v>
       </c>
       <c r="N32" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O32" t="n">
-        <v>240.1</v>
+        <v>363</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4829,7 +4833,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D33" t="s">
         <v>201</v>
@@ -4839,27 +4843,27 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>60414</v>
+        <v>64968</v>
       </c>
       <c r="K33" t="n">
-        <v>5.633</v>
+        <v>6.058</v>
       </c>
       <c r="L33" t="n">
-        <v>73965</v>
+        <v>68398</v>
       </c>
       <c r="M33" t="n">
-        <v>6.897</v>
+        <v>6.378</v>
       </c>
       <c r="N33" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="O33" t="n">
-        <v>333.3</v>
+        <v>166.7</v>
       </c>
       <c r="P33" t="s">
         <v>36</v>
@@ -4935,7 +4939,7 @@
         <v>210</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44445</v>
+        <v>44452</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -4945,31 +4949,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="H35" t="n">
-        <v>40222979</v>
+        <v>40518411</v>
       </c>
       <c r="I35" t="n">
-        <v>6919.128</v>
+        <v>6969.948</v>
       </c>
       <c r="J35" t="n">
-        <v>59159</v>
+        <v>30606</v>
       </c>
       <c r="K35" t="n">
-        <v>10.176</v>
+        <v>5.265</v>
       </c>
       <c r="L35" t="n">
-        <v>55309</v>
+        <v>42181</v>
       </c>
       <c r="M35" t="n">
-        <v>9.514</v>
+        <v>7.256</v>
       </c>
       <c r="N35" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="O35" t="n">
-        <v>83.6</v>
+        <v>90.7</v>
       </c>
       <c r="P35" t="s">
         <v>212</v>
@@ -5045,7 +5049,7 @@
         <v>222</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44447</v>
+        <v>44451</v>
       </c>
       <c r="D37" t="s">
         <v>223</v>
@@ -5057,31 +5061,31 @@
         <v>225</v>
       </c>
       <c r="G37" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H37" t="n">
-        <v>1697349</v>
+        <v>1703645</v>
       </c>
       <c r="I37" t="n">
-        <v>94.885</v>
+        <v>95.237</v>
       </c>
       <c r="J37" t="n">
-        <v>4435</v>
+        <v>2400</v>
       </c>
       <c r="K37" t="n">
-        <v>0.248</v>
+        <v>0.134</v>
       </c>
       <c r="L37" t="n">
-        <v>2619</v>
+        <v>1964</v>
       </c>
       <c r="M37" t="n">
-        <v>0.146</v>
+        <v>0.11</v>
       </c>
       <c r="N37" t="n">
-        <v>0.167</v>
+        <v>0.11</v>
       </c>
       <c r="O37" t="n">
-        <v>6</v>
+        <v>9.1</v>
       </c>
       <c r="P37" t="s">
         <v>226</v>
@@ -5214,7 +5218,7 @@
         <v>242</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D40" t="s">
         <v>243</v>
@@ -5224,31 +5228,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="H40" t="n">
-        <v>1802713</v>
+        <v>1828330</v>
       </c>
       <c r="I40" t="n">
-        <v>1360.345</v>
+        <v>1379.676</v>
       </c>
       <c r="J40" t="n">
-        <v>5415</v>
+        <v>6118</v>
       </c>
       <c r="K40" t="n">
-        <v>4.086</v>
+        <v>4.617</v>
       </c>
       <c r="L40" t="n">
-        <v>4766</v>
+        <v>5571</v>
       </c>
       <c r="M40" t="n">
-        <v>3.596</v>
+        <v>4.204</v>
       </c>
       <c r="N40" t="n">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
       <c r="O40" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="P40" t="s">
         <v>244</v>
@@ -5271,7 +5275,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D41" t="s">
         <v>248</v>
@@ -5281,31 +5285,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H41" t="n">
-        <v>3301802</v>
+        <v>3330057</v>
       </c>
       <c r="I41" t="n">
-        <v>28.011</v>
+        <v>28.25</v>
       </c>
       <c r="J41" t="n">
-        <v>8353</v>
+        <v>4681</v>
       </c>
       <c r="K41" t="n">
-        <v>0.071</v>
+        <v>0.04</v>
       </c>
       <c r="L41" t="n">
-        <v>7873</v>
+        <v>6492</v>
       </c>
       <c r="M41" t="n">
-        <v>0.067</v>
+        <v>0.055</v>
       </c>
       <c r="N41" t="n">
-        <v>0.177</v>
+        <v>0.166</v>
       </c>
       <c r="O41" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="P41" t="s">
         <v>249</v>
@@ -5385,7 +5389,7 @@
         <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44446</v>
+        <v>44451</v>
       </c>
       <c r="D43" t="s">
         <v>258</v>
@@ -5395,31 +5399,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="H43" t="n">
-        <v>6792239</v>
+        <v>6871547</v>
       </c>
       <c r="I43" t="n">
-        <v>1224.188</v>
+        <v>1238.482</v>
       </c>
       <c r="J43" t="n">
-        <v>20138</v>
+        <v>6479</v>
       </c>
       <c r="K43" t="n">
-        <v>3.63</v>
+        <v>1.168</v>
       </c>
       <c r="L43" t="n">
-        <v>22690</v>
+        <v>16795</v>
       </c>
       <c r="M43" t="n">
-        <v>4.089</v>
+        <v>3.027</v>
       </c>
       <c r="N43" t="n">
-        <v>0.024</v>
+        <v>0.03</v>
       </c>
       <c r="O43" t="n">
-        <v>41</v>
+        <v>33.2</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5442,7 +5446,7 @@
         <v>263</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44443</v>
+        <v>44450</v>
       </c>
       <c r="D44" t="s">
         <v>264</v>
@@ -5452,27 +5456,19 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44" t="n">
-        <v>657672</v>
-      </c>
-      <c r="K44" t="n">
-        <v>9.734</v>
-      </c>
-      <c r="L44" t="n">
-        <v>618084</v>
-      </c>
-      <c r="M44" t="n">
-        <v>9.148</v>
-      </c>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
       <c r="N44" t="n">
-        <v>0.024</v>
+        <v>0.019</v>
       </c>
       <c r="O44" t="n">
-        <v>41.7</v>
+        <v>52.6</v>
       </c>
       <c r="P44" t="s">
         <v>265</v>
@@ -5495,7 +5491,7 @@
         <v>268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="D45" t="s">
         <v>269</v>
@@ -5505,28 +5501,24 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H45" t="n">
-        <v>1122977</v>
+        <v>1127524</v>
       </c>
       <c r="I45" t="n">
-        <v>492.787</v>
+        <v>494.782</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="n">
-        <v>2508</v>
+        <v>2701</v>
       </c>
       <c r="M45" t="n">
-        <v>1.101</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="O45" t="n">
-        <v>31.4</v>
-      </c>
+        <v>1.185</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
       <c r="P45" t="s">
         <v>270</v>
       </c>
@@ -5548,7 +5540,7 @@
         <v>275</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44446</v>
+        <v>44448</v>
       </c>
       <c r="D46" t="s">
         <v>276</v>
@@ -5558,27 +5550,27 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H46" t="n">
-        <v>104349</v>
+        <v>105026</v>
       </c>
       <c r="I46" t="n">
-        <v>41.959</v>
+        <v>42.231</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M46" t="n">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="N46" t="n">
-        <v>0.037</v>
+        <v>0.044</v>
       </c>
       <c r="O46" t="n">
-        <v>26.8</v>
+        <v>22.8</v>
       </c>
       <c r="P46" t="s">
         <v>277</v>
@@ -5601,7 +5593,7 @@
         <v>281</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44446</v>
+        <v>44452</v>
       </c>
       <c r="D47" t="s">
         <v>282</v>
@@ -5611,31 +5603,27 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H47" t="n">
-        <v>8303000</v>
+        <v>8450000</v>
       </c>
       <c r="I47" t="n">
-        <v>2086.3</v>
-      </c>
-      <c r="J47" t="n">
-        <v>53000</v>
-      </c>
-      <c r="K47" t="n">
-        <v>13.317</v>
-      </c>
+        <v>2123.237</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47"/>
       <c r="L47" t="n">
-        <v>43286</v>
+        <v>28571</v>
       </c>
       <c r="M47" t="n">
-        <v>10.876</v>
+        <v>7.179</v>
       </c>
       <c r="N47" t="n">
-        <v>0.06</v>
+        <v>0.079</v>
       </c>
       <c r="O47" t="n">
-        <v>16.7</v>
+        <v>12.6</v>
       </c>
       <c r="P47" t="s">
         <v>283</v>
@@ -5658,7 +5646,7 @@
         <v>287</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44437</v>
+        <v>44444</v>
       </c>
       <c r="D48" t="s">
         <v>288</v>
@@ -5668,27 +5656,27 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H48" t="n">
-        <v>70309744</v>
+        <v>71279817</v>
       </c>
       <c r="I48" t="n">
-        <v>838.014</v>
+        <v>849.576</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>119048</v>
+        <v>133426</v>
       </c>
       <c r="M48" t="n">
-        <v>1.419</v>
+        <v>1.59</v>
       </c>
       <c r="N48" t="n">
-        <v>0.084</v>
+        <v>0.087</v>
       </c>
       <c r="O48" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="P48" t="s">
         <v>289</v>
@@ -5768,7 +5756,7 @@
         <v>299</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D50" t="s">
         <v>300</v>
@@ -5778,31 +5766,31 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H50" t="n">
-        <v>16334635</v>
+        <v>16720566</v>
       </c>
       <c r="I50" t="n">
-        <v>1575.068</v>
+        <v>1612.282</v>
       </c>
       <c r="J50" t="n">
-        <v>91875</v>
+        <v>78169</v>
       </c>
       <c r="K50" t="n">
-        <v>8.859</v>
+        <v>7.537</v>
       </c>
       <c r="L50" t="n">
-        <v>85707</v>
+        <v>98102</v>
       </c>
       <c r="M50" t="n">
-        <v>8.264</v>
+        <v>9.459</v>
       </c>
       <c r="N50" t="n">
-        <v>0.026</v>
+        <v>0.022</v>
       </c>
       <c r="O50" t="n">
-        <v>37.8</v>
+        <v>45.6</v>
       </c>
       <c r="P50" t="s">
         <v>302</v>
@@ -5825,7 +5813,7 @@
         <v>306</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44446</v>
+        <v>44450</v>
       </c>
       <c r="D51" t="s">
         <v>307</v>
@@ -5835,31 +5823,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H51" t="n">
-        <v>2279707</v>
+        <v>2145502</v>
       </c>
       <c r="I51" t="n">
-        <v>124.916</v>
+        <v>117.563</v>
       </c>
       <c r="J51" t="n">
-        <v>14256</v>
+        <v>6773</v>
       </c>
       <c r="K51" t="n">
-        <v>0.781</v>
+        <v>0.371</v>
       </c>
       <c r="L51" t="n">
-        <v>9816</v>
+        <v>10442</v>
       </c>
       <c r="M51" t="n">
-        <v>0.538</v>
+        <v>0.572</v>
       </c>
       <c r="N51" t="n">
-        <v>0.324</v>
+        <v>0.312</v>
       </c>
       <c r="O51" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P51" t="s">
         <v>309</v>
@@ -5935,7 +5923,7 @@
         <v>320</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D53" t="s">
         <v>321</v>
@@ -5947,31 +5935,31 @@
         <v>323</v>
       </c>
       <c r="G53" t="n">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H53" t="n">
-        <v>6200848</v>
+        <v>6265022</v>
       </c>
       <c r="I53" t="n">
-        <v>643.631</v>
+        <v>650.292</v>
       </c>
       <c r="J53" t="n">
-        <v>10794</v>
+        <v>36631</v>
       </c>
       <c r="K53" t="n">
-        <v>1.12</v>
+        <v>3.802</v>
       </c>
       <c r="L53" t="n">
-        <v>9638</v>
+        <v>11681</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>1.212</v>
       </c>
       <c r="N53" t="n">
         <v>0.023</v>
       </c>
       <c r="O53" t="n">
-        <v>44</v>
+        <v>42.7</v>
       </c>
       <c r="P53" t="s">
         <v>322</v>
@@ -5994,7 +5982,7 @@
         <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44446</v>
+        <v>44452</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -6004,25 +5992,25 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="H54" t="n">
-        <v>602822</v>
+        <v>612349</v>
       </c>
       <c r="I54" t="n">
-        <v>1755.656</v>
+        <v>1783.402</v>
       </c>
       <c r="J54" t="n">
-        <v>2350</v>
+        <v>1858</v>
       </c>
       <c r="K54" t="n">
-        <v>6.844</v>
+        <v>5.411</v>
       </c>
       <c r="L54" t="n">
-        <v>2389</v>
+        <v>1697</v>
       </c>
       <c r="M54" t="n">
-        <v>6.958</v>
+        <v>4.942</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -6047,7 +6035,7 @@
         <v>332</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44447</v>
+        <v>44453</v>
       </c>
       <c r="D55" t="s">
         <v>333</v>
@@ -6059,32 +6047,28 @@
         <v>335</v>
       </c>
       <c r="G55" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H55" t="n">
-        <v>534943093</v>
+        <v>544444967</v>
       </c>
       <c r="I55" t="n">
-        <v>383.91</v>
+        <v>390.729</v>
       </c>
       <c r="J55" t="n">
-        <v>1753745</v>
+        <v>1430891</v>
       </c>
       <c r="K55" t="n">
-        <v>1.259</v>
+        <v>1.027</v>
       </c>
       <c r="L55" t="n">
-        <v>1679829</v>
+        <v>1607946</v>
       </c>
       <c r="M55" t="n">
-        <v>1.206</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="O55" t="n">
-        <v>41.7</v>
-      </c>
+        <v>1.154</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
       <c r="P55" t="s">
         <v>334</v>
       </c>
@@ -6106,7 +6090,7 @@
         <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44450</v>
+        <v>44452</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
@@ -6116,31 +6100,27 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H56" t="n">
-        <v>22954723</v>
+        <v>23199268</v>
       </c>
       <c r="I56" t="n">
-        <v>83.06</v>
-      </c>
-      <c r="J56" t="n">
-        <v>143135</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.518</v>
-      </c>
+        <v>83.945</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56"/>
       <c r="L56" t="n">
-        <v>137018</v>
+        <v>141506</v>
       </c>
       <c r="M56" t="n">
-        <v>0.496</v>
+        <v>0.512</v>
       </c>
       <c r="N56" t="n">
-        <v>0.042</v>
+        <v>0.037</v>
       </c>
       <c r="O56" t="n">
-        <v>23.9</v>
+        <v>27</v>
       </c>
       <c r="P56" t="s">
         <v>340</v>
@@ -6163,7 +6143,7 @@
         <v>344</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="D57" t="s">
         <v>345</v>
@@ -6173,28 +6153,28 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H57" t="n">
-        <v>30227916</v>
+        <v>30445641</v>
       </c>
       <c r="I57" t="n">
-        <v>355.502</v>
-      </c>
-      <c r="J57"/>
-      <c r="K57"/>
+        <v>358.063</v>
+      </c>
+      <c r="J57" t="n">
+        <v>108312</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.274</v>
+      </c>
       <c r="L57" t="n">
-        <v>110799</v>
+        <v>109680</v>
       </c>
       <c r="M57" t="n">
-        <v>1.303</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="O57" t="n">
-        <v>4.7</v>
-      </c>
+        <v>1.29</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
       <c r="P57" t="s">
         <v>346</v>
       </c>
@@ -6216,7 +6196,7 @@
         <v>350</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="D58" t="s">
         <v>351</v>
@@ -6226,27 +6206,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H58" t="n">
-        <v>14676410</v>
+        <v>14763329</v>
       </c>
       <c r="I58" t="n">
-        <v>356.402</v>
-      </c>
-      <c r="J58"/>
-      <c r="K58"/>
+        <v>358.513</v>
+      </c>
+      <c r="J58" t="n">
+        <v>28104</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.682</v>
+      </c>
       <c r="L58" t="n">
-        <v>34834</v>
+        <v>33268</v>
       </c>
       <c r="M58" t="n">
-        <v>0.846</v>
+        <v>0.808</v>
       </c>
       <c r="N58" t="n">
-        <v>0.152</v>
+        <v>0.144</v>
       </c>
       <c r="O58" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="P58" t="s">
         <v>353</v>
@@ -6269,7 +6253,7 @@
         <v>357</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44447</v>
+        <v>44453</v>
       </c>
       <c r="D59" t="s">
         <v>358</v>
@@ -6279,32 +6263,28 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H59" t="n">
-        <v>6864431</v>
+        <v>7009105</v>
       </c>
       <c r="I59" t="n">
-        <v>1377.596</v>
+        <v>1406.631</v>
       </c>
       <c r="J59" t="n">
-        <v>25776</v>
+        <v>21902</v>
       </c>
       <c r="K59" t="n">
-        <v>5.173</v>
+        <v>4.395</v>
       </c>
       <c r="L59" t="n">
-        <v>20812</v>
+        <v>23762</v>
       </c>
       <c r="M59" t="n">
-        <v>4.177</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="O59" t="n">
-        <v>21.7</v>
-      </c>
+        <v>4.769</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59"/>
       <c r="P59" t="s">
         <v>359</v>
       </c>
@@ -6326,7 +6306,7 @@
         <v>363</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D60" t="s">
         <v>364</v>
@@ -6336,31 +6316,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="H60" t="n">
-        <v>24393911</v>
+        <v>25190947</v>
       </c>
       <c r="I60" t="n">
-        <v>2775.26</v>
+        <v>2865.937</v>
       </c>
       <c r="J60" t="n">
-        <v>37206</v>
+        <v>189148</v>
       </c>
       <c r="K60" t="n">
-        <v>4.233</v>
+        <v>21.519</v>
       </c>
       <c r="L60" t="n">
-        <v>105396</v>
+        <v>141837</v>
       </c>
       <c r="M60" t="n">
-        <v>11.991</v>
+        <v>16.137</v>
       </c>
       <c r="N60" t="n">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
       <c r="O60" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
@@ -6383,7 +6363,7 @@
         <v>369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44447</v>
+        <v>44453</v>
       </c>
       <c r="D61" t="s">
         <v>370</v>
@@ -6395,32 +6375,28 @@
         <v>372</v>
       </c>
       <c r="G61" t="n">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="H61" t="n">
-        <v>33029381</v>
+        <v>33365842</v>
       </c>
       <c r="I61" t="n">
-        <v>547.139</v>
+        <v>552.712</v>
       </c>
       <c r="J61" t="n">
-        <v>65634</v>
+        <v>64973</v>
       </c>
       <c r="K61" t="n">
-        <v>1.087</v>
+        <v>1.076</v>
       </c>
       <c r="L61" t="n">
-        <v>60532</v>
+        <v>57442</v>
       </c>
       <c r="M61" t="n">
-        <v>1.003</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="O61" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0.952</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61"/>
       <c r="P61" t="s">
         <v>373</v>
       </c>
@@ -6442,7 +6418,7 @@
         <v>376</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44447</v>
+        <v>44453</v>
       </c>
       <c r="D62" t="s">
         <v>370</v>
@@ -6454,32 +6430,28 @@
         <v>372</v>
       </c>
       <c r="G62" t="n">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="H62" t="n">
-        <v>86275241</v>
+        <v>87892474</v>
       </c>
       <c r="I62" t="n">
-        <v>1429.168</v>
+        <v>1455.958</v>
       </c>
       <c r="J62" t="n">
-        <v>301980</v>
+        <v>318593</v>
       </c>
       <c r="K62" t="n">
-        <v>5.002</v>
+        <v>5.278</v>
       </c>
       <c r="L62" t="n">
-        <v>276544</v>
+        <v>274173</v>
       </c>
       <c r="M62" t="n">
-        <v>4.581</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O62" t="n">
-        <v>49.7</v>
-      </c>
+        <v>4.542</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62"/>
       <c r="P62" t="s">
         <v>373</v>
       </c>
@@ -6501,7 +6473,7 @@
         <v>379</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44450</v>
+        <v>44451</v>
       </c>
       <c r="D63" t="s">
         <v>380</v>
@@ -6511,27 +6483,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H63" t="n">
-        <v>571403</v>
+        <v>573539</v>
       </c>
       <c r="I63" t="n">
-        <v>192.168</v>
-      </c>
-      <c r="J63"/>
-      <c r="K63"/>
+        <v>192.886</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2136</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.718</v>
+      </c>
       <c r="L63" t="n">
-        <v>2052</v>
+        <v>2143</v>
       </c>
       <c r="M63" t="n">
-        <v>0.69</v>
+        <v>0.721</v>
       </c>
       <c r="N63" t="n">
-        <v>0.323</v>
+        <v>0.301</v>
       </c>
       <c r="O63" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P63" t="s">
         <v>381</v>
@@ -6554,7 +6530,7 @@
         <v>385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D64" t="s">
         <v>386</v>
@@ -6564,31 +6540,31 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="H64" t="n">
-        <v>21876633</v>
+        <v>22383150</v>
       </c>
       <c r="I64" t="n">
-        <v>173.554</v>
+        <v>177.572</v>
       </c>
       <c r="J64" t="n">
-        <v>133893</v>
+        <v>118563</v>
       </c>
       <c r="K64" t="n">
-        <v>1.062</v>
+        <v>0.941</v>
       </c>
       <c r="L64" t="n">
-        <v>121823</v>
+        <v>108131</v>
       </c>
       <c r="M64" t="n">
-        <v>0.966</v>
+        <v>0.858</v>
       </c>
       <c r="N64" t="n">
-        <v>0.112</v>
+        <v>0.083</v>
       </c>
       <c r="O64" t="n">
-        <v>9</v>
+        <v>12.1</v>
       </c>
       <c r="P64" t="s">
         <v>387</v>
@@ -6611,7 +6587,7 @@
         <v>391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D65" t="s">
         <v>392</v>
@@ -6621,31 +6597,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H65" t="n">
-        <v>9474730</v>
+        <v>9581308</v>
       </c>
       <c r="I65" t="n">
-        <v>922.652</v>
+        <v>933.03</v>
       </c>
       <c r="J65" t="n">
-        <v>30596</v>
+        <v>29050</v>
       </c>
       <c r="K65" t="n">
-        <v>2.979</v>
+        <v>2.829</v>
       </c>
       <c r="L65" t="n">
-        <v>22623</v>
+        <v>25680</v>
       </c>
       <c r="M65" t="n">
-        <v>2.203</v>
+        <v>2.501</v>
       </c>
       <c r="N65" t="n">
-        <v>0.034</v>
+        <v>0.028</v>
       </c>
       <c r="O65" t="n">
-        <v>29.6</v>
+        <v>35.7</v>
       </c>
       <c r="P65" t="s">
         <v>393</v>
@@ -6778,7 +6754,7 @@
         <v>407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D68" t="s">
         <v>408</v>
@@ -6788,31 +6764,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H68" t="n">
-        <v>1083193</v>
+        <v>1116017</v>
       </c>
       <c r="I68" t="n">
-        <v>560.434</v>
+        <v>577.417</v>
       </c>
       <c r="J68" t="n">
-        <v>10851</v>
+        <v>5505</v>
       </c>
       <c r="K68" t="n">
-        <v>5.614</v>
+        <v>2.848</v>
       </c>
       <c r="L68" t="n">
-        <v>10621</v>
+        <v>9263</v>
       </c>
       <c r="M68" t="n">
-        <v>5.495</v>
+        <v>4.793</v>
       </c>
       <c r="N68" t="n">
-        <v>0.092</v>
+        <v>0.071</v>
       </c>
       <c r="O68" t="n">
-        <v>10.9</v>
+        <v>14.1</v>
       </c>
       <c r="P68" t="s">
         <v>410</v>
@@ -6835,7 +6811,7 @@
         <v>413</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D69" t="s">
         <v>414</v>
@@ -6845,31 +6821,31 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H69" t="n">
-        <v>3902549</v>
+        <v>3959053</v>
       </c>
       <c r="I69" t="n">
-        <v>901.583</v>
+        <v>914.637</v>
       </c>
       <c r="J69" t="n">
-        <v>13780</v>
+        <v>14661</v>
       </c>
       <c r="K69" t="n">
-        <v>3.184</v>
+        <v>3.387</v>
       </c>
       <c r="L69" t="n">
-        <v>13013</v>
+        <v>13884</v>
       </c>
       <c r="M69" t="n">
-        <v>3.006</v>
+        <v>3.208</v>
       </c>
       <c r="N69" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="O69" t="n">
-        <v>163</v>
+        <v>226.5</v>
       </c>
       <c r="P69" t="s">
         <v>415</v>
@@ -6892,7 +6868,7 @@
         <v>419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44451</v>
+        <v>44452</v>
       </c>
       <c r="D70" t="s">
         <v>420</v>
@@ -6902,27 +6878,31 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="n">
-        <v>474640</v>
+        <v>478070</v>
       </c>
       <c r="I70" t="n">
-        <v>64.32</v>
-      </c>
-      <c r="J70"/>
-      <c r="K70"/>
+        <v>64.785</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3430</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.465</v>
+      </c>
       <c r="L70" t="n">
-        <v>4177</v>
+        <v>4314</v>
       </c>
       <c r="M70" t="n">
-        <v>0.566</v>
+        <v>0.585</v>
       </c>
       <c r="N70" t="n">
-        <v>0.049</v>
+        <v>0.05</v>
       </c>
       <c r="O70" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="P70" t="s">
         <v>421</v>
@@ -7053,7 +7033,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44450</v>
+        <v>44452</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -7063,15 +7043,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>6759</v>
+        <v>4918</v>
       </c>
       <c r="K73" t="n">
-        <v>0.971</v>
+        <v>0.707</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7098,7 +7078,7 @@
         <v>442</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44445</v>
+        <v>44451</v>
       </c>
       <c r="D74" t="s">
         <v>443</v>
@@ -7108,19 +7088,19 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="H74" t="n">
-        <v>63094</v>
+        <v>64259</v>
       </c>
       <c r="I74" t="n">
-        <v>1649.344</v>
+        <v>1679.798</v>
       </c>
       <c r="J74" t="n">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c r="K74" t="n">
-        <v>5.803</v>
+        <v>2.693</v>
       </c>
       <c r="L74" t="n">
         <v>198</v>
@@ -7129,10 +7109,10 @@
         <v>5.176</v>
       </c>
       <c r="N74" t="n">
-        <v>0.058</v>
+        <v>0.033</v>
       </c>
       <c r="O74" t="n">
-        <v>17.2</v>
+        <v>30.3</v>
       </c>
       <c r="P74" t="s">
         <v>444</v>
@@ -7155,7 +7135,7 @@
         <v>448</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="D75" t="s">
         <v>449</v>
@@ -7165,31 +7145,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="H75" t="n">
-        <v>4649268</v>
+        <v>4728834</v>
       </c>
       <c r="I75" t="n">
-        <v>1728.441</v>
+        <v>1758.021</v>
       </c>
       <c r="J75" t="n">
-        <v>13780</v>
+        <v>15383</v>
       </c>
       <c r="K75" t="n">
-        <v>5.123</v>
+        <v>5.719</v>
       </c>
       <c r="L75" t="n">
-        <v>12942</v>
+        <v>13315</v>
       </c>
       <c r="M75" t="n">
-        <v>4.811</v>
+        <v>4.95</v>
       </c>
       <c r="N75" t="n">
-        <v>0.053</v>
+        <v>0.063</v>
       </c>
       <c r="O75" t="n">
-        <v>18.9</v>
+        <v>15.9</v>
       </c>
       <c r="P75" t="s">
         <v>450</v>
@@ -7212,7 +7192,7 @@
         <v>453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44446</v>
+        <v>44452</v>
       </c>
       <c r="D76" t="s">
         <v>454</v>
@@ -7222,31 +7202,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="H76" t="n">
-        <v>3452442</v>
+        <v>3479349</v>
       </c>
       <c r="I76" t="n">
-        <v>5438.51</v>
+        <v>5480.895</v>
       </c>
       <c r="J76" t="n">
-        <v>4310</v>
+        <v>7605</v>
       </c>
       <c r="K76" t="n">
-        <v>6.789</v>
+        <v>11.98</v>
       </c>
       <c r="L76" t="n">
-        <v>4142</v>
+        <v>4460</v>
       </c>
       <c r="M76" t="n">
-        <v>6.525</v>
+        <v>7.026</v>
       </c>
       <c r="N76" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="O76" t="n">
-        <v>48.5</v>
+        <v>56.5</v>
       </c>
       <c r="P76" t="s">
         <v>455</v>
@@ -7438,7 +7418,7 @@
         <v>477</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D80" t="s">
         <v>478</v>
@@ -7448,31 +7428,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H80" t="n">
-        <v>1424449</v>
+        <v>1444772</v>
       </c>
       <c r="I80" t="n">
-        <v>2620.303</v>
+        <v>2657.687</v>
       </c>
       <c r="J80" t="n">
-        <v>5526</v>
+        <v>5317</v>
       </c>
       <c r="K80" t="n">
-        <v>10.165</v>
+        <v>9.781</v>
       </c>
       <c r="L80" t="n">
-        <v>5275</v>
+        <v>5228</v>
       </c>
       <c r="M80" t="n">
-        <v>9.703</v>
+        <v>9.617</v>
       </c>
       <c r="N80" t="n">
-        <v>0.027</v>
+        <v>0.023</v>
       </c>
       <c r="O80" t="n">
-        <v>36.9</v>
+        <v>43</v>
       </c>
       <c r="P80" t="s">
         <v>479</v>
@@ -7601,7 +7581,7 @@
         <v>495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44446</v>
+        <v>44451</v>
       </c>
       <c r="D83" t="s">
         <v>496</v>
@@ -7611,31 +7591,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="H83" t="n">
-        <v>9562247</v>
+        <v>9702480</v>
       </c>
       <c r="I83" t="n">
-        <v>73.408</v>
+        <v>74.484</v>
       </c>
       <c r="J83" t="n">
-        <v>13833</v>
+        <v>2682</v>
       </c>
       <c r="K83" t="n">
-        <v>0.106</v>
+        <v>0.021</v>
       </c>
       <c r="L83" t="n">
-        <v>21853</v>
+        <v>21323</v>
       </c>
       <c r="M83" t="n">
-        <v>0.168</v>
+        <v>0.164</v>
       </c>
       <c r="N83" t="n">
-        <v>0.385</v>
+        <v>0.368</v>
       </c>
       <c r="O83" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P83" t="s">
         <v>498</v>
@@ -7658,7 +7638,7 @@
         <v>501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D84" t="s">
         <v>502</v>
@@ -7668,27 +7648,27 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H84" t="n">
-        <v>1613427</v>
+        <v>1644052</v>
       </c>
       <c r="I84" t="n">
-        <v>400.949</v>
+        <v>408.559</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>5284</v>
+        <v>5779</v>
       </c>
       <c r="M84" t="n">
-        <v>1.313</v>
+        <v>1.436</v>
       </c>
       <c r="N84" t="n">
-        <v>0.114</v>
+        <v>0.12</v>
       </c>
       <c r="O84" t="n">
-        <v>8.8</v>
+        <v>8.3</v>
       </c>
       <c r="P84" t="s">
         <v>503</v>
@@ -7711,7 +7691,7 @@
         <v>506</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="D85" t="s">
         <v>507</v>
@@ -7721,32 +7701,24 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H85" t="n">
-        <v>4842712</v>
+        <v>3842463</v>
       </c>
       <c r="I85" t="n">
-        <v>1454.581</v>
-      </c>
-      <c r="J85" t="n">
-        <v>12879</v>
-      </c>
-      <c r="K85" t="n">
-        <v>3.868</v>
-      </c>
+        <v>1154.142</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85"/>
       <c r="L85" t="n">
-        <v>17537</v>
+        <v>9098</v>
       </c>
       <c r="M85" t="n">
-        <v>5.268</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="O85" t="n">
-        <v>5.1</v>
-      </c>
+        <v>2.733</v>
+      </c>
+      <c r="N85"/>
+      <c r="O85"/>
       <c r="P85" t="s">
         <v>36</v>
       </c>
@@ -7768,7 +7740,7 @@
         <v>510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D86" t="s">
         <v>511</v>
@@ -7778,31 +7750,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H86" t="n">
-        <v>8378637</v>
+        <v>8459324</v>
       </c>
       <c r="I86" t="n">
-        <v>224.359</v>
+        <v>226.52</v>
       </c>
       <c r="J86" t="n">
-        <v>26494</v>
+        <v>9962</v>
       </c>
       <c r="K86" t="n">
-        <v>0.709</v>
+        <v>0.267</v>
       </c>
       <c r="L86" t="n">
-        <v>27203</v>
+        <v>24010</v>
       </c>
       <c r="M86" t="n">
-        <v>0.728</v>
+        <v>0.643</v>
       </c>
       <c r="N86" t="n">
-        <v>0.129</v>
+        <v>0.116</v>
       </c>
       <c r="O86" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="P86" t="s">
         <v>512</v>
@@ -7825,7 +7797,7 @@
         <v>516</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44440</v>
+        <v>44442</v>
       </c>
       <c r="D87" t="s">
         <v>517</v>
@@ -7835,31 +7807,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H87" t="n">
-        <v>853959</v>
+        <v>859547</v>
       </c>
       <c r="I87" t="n">
-        <v>26.551</v>
+        <v>26.725</v>
       </c>
       <c r="J87" t="n">
-        <v>3332</v>
+        <v>3241</v>
       </c>
       <c r="K87" t="n">
-        <v>0.104</v>
+        <v>0.101</v>
       </c>
       <c r="L87" t="n">
-        <v>2577</v>
+        <v>2442</v>
       </c>
       <c r="M87" t="n">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="N87" t="n">
-        <v>0.151</v>
+        <v>0.131</v>
       </c>
       <c r="O87" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="P87" t="s">
         <v>518</v>
@@ -7882,7 +7854,7 @@
         <v>522</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="D88" t="s">
         <v>523</v>
@@ -7892,31 +7864,31 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H88" t="n">
-        <v>3882356</v>
+        <v>3954600</v>
       </c>
       <c r="I88" t="n">
-        <v>70.838</v>
+        <v>72.156</v>
       </c>
       <c r="J88" t="n">
-        <v>25622</v>
+        <v>21230</v>
       </c>
       <c r="K88" t="n">
-        <v>0.468</v>
+        <v>0.387</v>
       </c>
       <c r="L88" t="n">
-        <v>27649</v>
+        <v>24773</v>
       </c>
       <c r="M88" t="n">
-        <v>0.504</v>
+        <v>0.452</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="O88" t="n">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="P88" t="s">
         <v>524</v>
@@ -7939,7 +7911,7 @@
         <v>528</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44447</v>
+        <v>44451</v>
       </c>
       <c r="D89" t="s">
         <v>529</v>
@@ -7949,31 +7921,31 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H89" t="n">
-        <v>672778</v>
+        <v>678222</v>
       </c>
       <c r="I89" t="n">
-        <v>260.026</v>
+        <v>262.131</v>
       </c>
       <c r="J89" t="n">
-        <v>1476</v>
+        <v>996</v>
       </c>
       <c r="K89" t="n">
-        <v>0.57</v>
+        <v>0.385</v>
       </c>
       <c r="L89" t="n">
-        <v>1468</v>
+        <v>1364</v>
       </c>
       <c r="M89" t="n">
-        <v>0.567</v>
+        <v>0.527</v>
       </c>
       <c r="N89" t="n">
-        <v>0.074</v>
+        <v>0.071</v>
       </c>
       <c r="O89" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="P89" t="s">
         <v>531</v>
@@ -7996,7 +7968,7 @@
         <v>535</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D90" t="s">
         <v>536</v>
@@ -8006,31 +7978,31 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="H90" t="n">
-        <v>3999497</v>
+        <v>4034593</v>
       </c>
       <c r="I90" t="n">
-        <v>134.777</v>
+        <v>135.96</v>
       </c>
       <c r="J90" t="n">
-        <v>8898</v>
+        <v>12532</v>
       </c>
       <c r="K90" t="n">
-        <v>0.3</v>
+        <v>0.422</v>
       </c>
       <c r="L90" t="n">
-        <v>9012</v>
+        <v>9267</v>
       </c>
       <c r="M90" t="n">
-        <v>0.304</v>
+        <v>0.312</v>
       </c>
       <c r="N90" t="n">
-        <v>0.137</v>
+        <v>0.116</v>
       </c>
       <c r="O90" t="n">
-        <v>7.3</v>
+        <v>8.6</v>
       </c>
       <c r="P90" t="s">
         <v>537</v>
@@ -8106,7 +8078,7 @@
         <v>548</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="D92" t="s">
         <v>549</v>
@@ -8116,25 +8088,25 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H92" t="n">
-        <v>3148945</v>
+        <v>3158224</v>
       </c>
       <c r="I92" t="n">
-        <v>647.845</v>
+        <v>649.754</v>
       </c>
       <c r="J92" t="n">
-        <v>8657</v>
+        <v>9279</v>
       </c>
       <c r="K92" t="n">
-        <v>1.781</v>
+        <v>1.909</v>
       </c>
       <c r="L92" t="n">
-        <v>12407</v>
+        <v>12697</v>
       </c>
       <c r="M92" t="n">
-        <v>2.553</v>
+        <v>2.612</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -8159,7 +8131,7 @@
         <v>554</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44445</v>
+        <v>44451</v>
       </c>
       <c r="D93" t="s">
         <v>555</v>
@@ -8169,27 +8141,27 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H93" t="n">
-        <v>2884034</v>
+        <v>2942578</v>
       </c>
       <c r="I93" t="n">
-        <v>13.642</v>
+        <v>13.919</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>13039</v>
+        <v>10226</v>
       </c>
       <c r="M93" t="n">
-        <v>0.062</v>
+        <v>0.048</v>
       </c>
       <c r="N93" t="n">
-        <v>0.045</v>
+        <v>0.051</v>
       </c>
       <c r="O93" t="n">
-        <v>22.3</v>
+        <v>19.7</v>
       </c>
       <c r="P93" t="s">
         <v>556</v>
@@ -8212,7 +8184,7 @@
         <v>559</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D94" t="s">
         <v>560</v>
@@ -8222,27 +8194,27 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H94" t="n">
-        <v>1187745</v>
+        <v>1222443</v>
       </c>
       <c r="I94" t="n">
-        <v>570.302</v>
+        <v>586.962</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="n">
-        <v>4003</v>
+        <v>6101</v>
       </c>
       <c r="M94" t="n">
-        <v>1.922</v>
+        <v>2.929</v>
       </c>
       <c r="N94" t="n">
-        <v>0.151</v>
+        <v>0.081</v>
       </c>
       <c r="O94" t="n">
-        <v>6.6</v>
+        <v>12.3</v>
       </c>
       <c r="P94" t="s">
         <v>36</v>
@@ -8265,7 +8237,7 @@
         <v>564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44445</v>
+        <v>44452</v>
       </c>
       <c r="D95" t="s">
         <v>565</v>
@@ -8275,31 +8247,31 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="H95" t="n">
-        <v>7341931</v>
+        <v>7491921</v>
       </c>
       <c r="I95" t="n">
-        <v>1343.291</v>
+        <v>1370.734</v>
       </c>
       <c r="J95" t="n">
-        <v>37321</v>
+        <v>9555</v>
       </c>
       <c r="K95" t="n">
-        <v>6.828</v>
+        <v>1.748</v>
       </c>
       <c r="L95" t="n">
-        <v>29819</v>
+        <v>20884</v>
       </c>
       <c r="M95" t="n">
-        <v>5.456</v>
+        <v>3.821</v>
       </c>
       <c r="N95" t="n">
-        <v>0.048</v>
+        <v>0.06</v>
       </c>
       <c r="O95" t="n">
-        <v>20.7</v>
+        <v>16.6</v>
       </c>
       <c r="P95" t="s">
         <v>566</v>
@@ -8367,7 +8339,7 @@
         <v>575</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="D97" t="s">
         <v>576</v>
@@ -8377,25 +8349,25 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H97" t="n">
-        <v>18521728</v>
+        <v>18568658</v>
       </c>
       <c r="I97" t="n">
-        <v>82.246</v>
+        <v>82.454</v>
       </c>
       <c r="J97" t="n">
-        <v>53158</v>
+        <v>46930</v>
       </c>
       <c r="K97" t="n">
-        <v>0.236</v>
+        <v>0.208</v>
       </c>
       <c r="L97" t="n">
-        <v>58753</v>
+        <v>57984</v>
       </c>
       <c r="M97" t="n">
-        <v>0.261</v>
+        <v>0.257</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8420,7 +8392,7 @@
         <v>580</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D98" t="s">
         <v>581</v>
@@ -8428,27 +8400,27 @@
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>11737</v>
+        <v>11493</v>
       </c>
       <c r="K98" t="n">
-        <v>2.247</v>
+        <v>2.201</v>
       </c>
       <c r="L98" t="n">
-        <v>11354</v>
+        <v>10531</v>
       </c>
       <c r="M98" t="n">
-        <v>2.174</v>
+        <v>2.016</v>
       </c>
       <c r="N98" t="n">
-        <v>0.209</v>
+        <v>0.212</v>
       </c>
       <c r="O98" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="P98" t="s">
         <v>582</v>
@@ -8471,7 +8443,7 @@
         <v>586</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="D99" t="s">
         <v>587</v>
@@ -8481,31 +8453,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H99" t="n">
-        <v>3732084</v>
+        <v>3752298</v>
       </c>
       <c r="I99" t="n">
-        <v>851.766</v>
+        <v>856.38</v>
       </c>
       <c r="J99" t="n">
-        <v>7304</v>
+        <v>5046</v>
       </c>
       <c r="K99" t="n">
-        <v>1.667</v>
+        <v>1.152</v>
       </c>
       <c r="L99" t="n">
-        <v>7100</v>
+        <v>6702</v>
       </c>
       <c r="M99" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="N99" t="n">
-        <v>0.052</v>
+        <v>0.046</v>
       </c>
       <c r="O99" t="n">
-        <v>19.2</v>
+        <v>21.7</v>
       </c>
       <c r="P99" t="s">
         <v>588</v>
@@ -8581,7 +8553,7 @@
         <v>597</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="D101" t="s">
         <v>598</v>
@@ -8591,31 +8563,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H101" t="n">
-        <v>1793949</v>
+        <v>1800608</v>
       </c>
       <c r="I101" t="n">
-        <v>248.482</v>
+        <v>249.404</v>
       </c>
       <c r="J101" t="n">
-        <v>2288</v>
+        <v>2166</v>
       </c>
       <c r="K101" t="n">
-        <v>0.317</v>
+        <v>0.3</v>
       </c>
       <c r="L101" t="n">
-        <v>2279</v>
+        <v>2246</v>
       </c>
       <c r="M101" t="n">
-        <v>0.316</v>
+        <v>0.311</v>
       </c>
       <c r="N101" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="O101" t="n">
-        <v>38.3</v>
+        <v>42.1</v>
       </c>
       <c r="P101" t="s">
         <v>599</v>
@@ -8752,7 +8724,7 @@
         <v>614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D104" t="s">
         <v>615</v>
@@ -8762,31 +8734,31 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H104" t="n">
-        <v>19699264</v>
+        <v>19833034</v>
       </c>
       <c r="I104" t="n">
-        <v>521.186</v>
+        <v>524.725</v>
       </c>
       <c r="J104" t="n">
-        <v>37457</v>
+        <v>22343</v>
       </c>
       <c r="K104" t="n">
-        <v>0.991</v>
+        <v>0.591</v>
       </c>
       <c r="L104" t="n">
-        <v>35570</v>
+        <v>36385</v>
       </c>
       <c r="M104" t="n">
-        <v>0.941</v>
+        <v>0.963</v>
       </c>
       <c r="N104" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="O104" t="n">
-        <v>92.2</v>
+        <v>78.3</v>
       </c>
       <c r="P104" t="s">
         <v>616</v>
@@ -8809,7 +8781,7 @@
         <v>619</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44447</v>
+        <v>44451</v>
       </c>
       <c r="D105" t="s">
         <v>615</v>
@@ -8819,31 +8791,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H105" t="n">
-        <v>20109569</v>
+        <v>20244202</v>
       </c>
       <c r="I105" t="n">
-        <v>532.041</v>
+        <v>535.603</v>
       </c>
       <c r="J105" t="n">
-        <v>37704</v>
+        <v>22440</v>
       </c>
       <c r="K105" t="n">
-        <v>0.998</v>
+        <v>0.594</v>
       </c>
       <c r="L105" t="n">
-        <v>35866</v>
+        <v>36653</v>
       </c>
       <c r="M105" t="n">
-        <v>0.949</v>
+        <v>0.97</v>
       </c>
       <c r="N105" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="O105" t="n">
-        <v>97.8</v>
+        <v>81.1</v>
       </c>
       <c r="P105" t="s">
         <v>616</v>
@@ -8866,7 +8838,7 @@
         <v>621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44446</v>
+        <v>44450</v>
       </c>
       <c r="D106" t="s">
         <v>622</v>
@@ -8876,31 +8848,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H106" t="n">
-        <v>17367647</v>
+        <v>17597594</v>
       </c>
       <c r="I106" t="n">
-        <v>1708.082</v>
+        <v>1730.697</v>
       </c>
       <c r="J106" t="n">
-        <v>43408</v>
+        <v>40887</v>
       </c>
       <c r="K106" t="n">
-        <v>4.269</v>
+        <v>4.021</v>
       </c>
       <c r="L106" t="n">
-        <v>44597</v>
+        <v>48264</v>
       </c>
       <c r="M106" t="n">
-        <v>4.386</v>
+        <v>4.747</v>
       </c>
       <c r="N106" t="n">
-        <v>0.035</v>
+        <v>0.026</v>
       </c>
       <c r="O106" t="n">
-        <v>28.3</v>
+        <v>38.3</v>
       </c>
       <c r="P106" t="s">
         <v>623</v>
@@ -8923,7 +8895,7 @@
         <v>626</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44445</v>
+        <v>44453</v>
       </c>
       <c r="D107" t="s">
         <v>627</v>
@@ -8933,32 +8905,28 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="H107" t="n">
-        <v>2537634</v>
+        <v>2578844</v>
       </c>
       <c r="I107" t="n">
-        <v>865.932</v>
+        <v>879.994</v>
       </c>
       <c r="J107" t="n">
-        <v>5988</v>
+        <v>5332</v>
       </c>
       <c r="K107" t="n">
-        <v>2.043</v>
+        <v>1.819</v>
       </c>
       <c r="L107" t="n">
-        <v>5666</v>
+        <v>5135</v>
       </c>
       <c r="M107" t="n">
-        <v>1.933</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O107" t="n">
-        <v>33.5</v>
-      </c>
+        <v>1.752</v>
+      </c>
+      <c r="N107"/>
+      <c r="O107"/>
       <c r="P107" t="s">
         <v>629</v>
       </c>
@@ -8980,7 +8948,7 @@
         <v>632</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44447</v>
+        <v>44453</v>
       </c>
       <c r="D108" t="s">
         <v>633</v>
@@ -8990,28 +8958,24 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H108" t="n">
-        <v>9212486</v>
+        <v>9296903</v>
       </c>
       <c r="I108" t="n">
-        <v>481.629</v>
+        <v>486.042</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108" t="n">
-        <v>14688</v>
+        <v>14097</v>
       </c>
       <c r="M108" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="O108" t="n">
-        <v>9.4</v>
-      </c>
+        <v>0.737</v>
+      </c>
+      <c r="N108"/>
+      <c r="O108"/>
       <c r="P108" t="s">
         <v>635</v>
       </c>
@@ -9033,7 +8997,7 @@
         <v>639</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D109" t="s">
         <v>640</v>
@@ -9043,27 +9007,27 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H109" t="n">
-        <v>182305630</v>
+        <v>184315467</v>
       </c>
       <c r="I109" t="n">
-        <v>1249.422</v>
+        <v>1263.196</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>384296</v>
+        <v>395132</v>
       </c>
       <c r="M109" t="n">
-        <v>2.634</v>
+        <v>2.708</v>
       </c>
       <c r="N109" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="O109" t="n">
-        <v>21.4</v>
+        <v>22.1</v>
       </c>
       <c r="P109" t="s">
         <v>641</v>
@@ -9086,7 +9050,7 @@
         <v>645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="D110" t="s">
         <v>646</v>
@@ -9096,25 +9060,25 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H110" t="n">
-        <v>2593862</v>
+        <v>2603889</v>
       </c>
       <c r="I110" t="n">
-        <v>195.372</v>
+        <v>196.127</v>
       </c>
       <c r="J110" t="n">
-        <v>11795</v>
+        <v>10027</v>
       </c>
       <c r="K110" t="n">
-        <v>0.888</v>
+        <v>0.755</v>
       </c>
       <c r="L110" t="n">
-        <v>11931</v>
+        <v>11623</v>
       </c>
       <c r="M110" t="n">
-        <v>0.899</v>
+        <v>0.875</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
@@ -9139,7 +9103,7 @@
         <v>651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="D111" t="s">
         <v>652</v>
@@ -9149,32 +9113,28 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H111" t="n">
-        <v>34519</v>
+        <v>34861</v>
       </c>
       <c r="I111" t="n">
-        <v>644.661</v>
+        <v>651.048</v>
       </c>
       <c r="J111" t="n">
-        <v>431</v>
+        <v>129</v>
       </c>
       <c r="K111" t="n">
-        <v>8.049</v>
+        <v>2.409</v>
       </c>
       <c r="L111" t="n">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="M111" t="n">
-        <v>5.995</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="O111" t="n">
-        <v>7.1</v>
-      </c>
+        <v>6.219</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111"/>
       <c r="P111" t="s">
         <v>36</v>
       </c>
@@ -9196,7 +9156,7 @@
         <v>656</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44446</v>
+        <v>44452</v>
       </c>
       <c r="D112" t="s">
         <v>657</v>
@@ -9206,31 +9166,31 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="H112" t="n">
-        <v>27865314</v>
+        <v>28148578</v>
       </c>
       <c r="I112" t="n">
-        <v>788.477</v>
+        <v>796.492</v>
       </c>
       <c r="J112" t="n">
-        <v>49348</v>
+        <v>51681</v>
       </c>
       <c r="K112" t="n">
-        <v>1.396</v>
+        <v>1.462</v>
       </c>
       <c r="L112" t="n">
-        <v>51429</v>
+        <v>47516</v>
       </c>
       <c r="M112" t="n">
-        <v>1.455</v>
+        <v>1.345</v>
       </c>
       <c r="N112" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="O112" t="n">
-        <v>164.6</v>
+        <v>567.6</v>
       </c>
       <c r="P112" t="s">
         <v>36</v>
@@ -9253,7 +9213,7 @@
         <v>660</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44447</v>
+        <v>44453</v>
       </c>
       <c r="D113" t="s">
         <v>661</v>
@@ -9263,32 +9223,28 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="H113" t="n">
-        <v>770535</v>
+        <v>782770</v>
       </c>
       <c r="I113" t="n">
-        <v>44.808</v>
+        <v>45.52</v>
       </c>
       <c r="J113" t="n">
-        <v>2399</v>
+        <v>1443</v>
       </c>
       <c r="K113" t="n">
-        <v>0.14</v>
+        <v>0.084</v>
       </c>
       <c r="L113" t="n">
-        <v>2274</v>
+        <v>2091</v>
       </c>
       <c r="M113" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="O113" t="n">
-        <v>40.8</v>
-      </c>
+        <v>0.122</v>
+      </c>
+      <c r="N113"/>
+      <c r="O113"/>
       <c r="P113" t="s">
         <v>662</v>
       </c>
@@ -9310,7 +9266,7 @@
         <v>665</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44447</v>
+        <v>44453</v>
       </c>
       <c r="D114" t="s">
         <v>666</v>
@@ -9322,32 +9278,28 @@
         <v>667</v>
       </c>
       <c r="G114" t="n">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="H114" t="n">
-        <v>5159888</v>
+        <v>5290374</v>
       </c>
       <c r="I114" t="n">
-        <v>758.295</v>
+        <v>777.471</v>
       </c>
       <c r="J114" t="n">
-        <v>21757</v>
+        <v>27927</v>
       </c>
       <c r="K114" t="n">
-        <v>3.197</v>
+        <v>4.104</v>
       </c>
       <c r="L114" t="n">
-        <v>16780</v>
+        <v>21749</v>
       </c>
       <c r="M114" t="n">
-        <v>2.466</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O114" t="n">
-        <v>4.2</v>
-      </c>
+        <v>3.196</v>
+      </c>
+      <c r="N114"/>
+      <c r="O114"/>
       <c r="P114" t="s">
         <v>36</v>
       </c>
@@ -9369,7 +9321,7 @@
         <v>671</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44445</v>
+        <v>44452</v>
       </c>
       <c r="D115" t="s">
         <v>672</v>
@@ -9379,27 +9331,27 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H115" t="n">
-        <v>18197667</v>
+        <v>18638817</v>
       </c>
       <c r="I115" t="n">
-        <v>3086.085</v>
+        <v>3160.898</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115" t="n">
-        <v>60664</v>
+        <v>63021</v>
       </c>
       <c r="M115" t="n">
-        <v>10.288</v>
+        <v>10.688</v>
       </c>
       <c r="N115" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="O115" t="n">
-        <v>294.5</v>
+        <v>130</v>
       </c>
       <c r="P115" t="s">
         <v>36</v>
@@ -9422,7 +9374,7 @@
         <v>676</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44444</v>
+        <v>44451</v>
       </c>
       <c r="D116" t="s">
         <v>677</v>
@@ -9432,31 +9384,31 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H116" t="n">
-        <v>41202098</v>
+        <v>41388452</v>
       </c>
       <c r="I116" t="n">
-        <v>7545.169</v>
+        <v>7579.295</v>
       </c>
       <c r="J116" t="n">
-        <v>18771</v>
+        <v>8316</v>
       </c>
       <c r="K116" t="n">
-        <v>3.437</v>
+        <v>1.523</v>
       </c>
       <c r="L116" t="n">
-        <v>20936</v>
+        <v>24599</v>
       </c>
       <c r="M116" t="n">
-        <v>3.834</v>
+        <v>4.505</v>
       </c>
       <c r="N116" t="n">
-        <v>0.014</v>
+        <v>0.021</v>
       </c>
       <c r="O116" t="n">
-        <v>71.4</v>
+        <v>47.6</v>
       </c>
       <c r="P116" t="s">
         <v>36</v>
@@ -9479,7 +9431,7 @@
         <v>680</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D117" t="s">
         <v>681</v>
@@ -9489,31 +9441,31 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="H117" t="n">
-        <v>1478737</v>
+        <v>1499463</v>
       </c>
       <c r="I117" t="n">
-        <v>711.368</v>
+        <v>721.339</v>
       </c>
       <c r="J117" t="n">
-        <v>4912</v>
+        <v>5665</v>
       </c>
       <c r="K117" t="n">
-        <v>2.363</v>
+        <v>2.725</v>
       </c>
       <c r="L117" t="n">
-        <v>3459</v>
+        <v>4400</v>
       </c>
       <c r="M117" t="n">
-        <v>1.664</v>
+        <v>2.117</v>
       </c>
       <c r="N117" t="n">
-        <v>0.202</v>
+        <v>0.209</v>
       </c>
       <c r="O117" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="P117" t="s">
         <v>682</v>
@@ -9536,7 +9488,7 @@
         <v>685</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="D118" t="s">
         <v>686</v>
@@ -9546,31 +9498,31 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H118" t="n">
-        <v>16930469</v>
+        <v>17073236</v>
       </c>
       <c r="I118" t="n">
-        <v>281.977</v>
+        <v>284.355</v>
       </c>
       <c r="J118" t="n">
-        <v>52408</v>
+        <v>35965</v>
       </c>
       <c r="K118" t="n">
-        <v>0.873</v>
+        <v>0.599</v>
       </c>
       <c r="L118" t="n">
-        <v>48143</v>
+        <v>46218</v>
       </c>
       <c r="M118" t="n">
-        <v>0.802</v>
+        <v>0.77</v>
       </c>
       <c r="N118" t="n">
-        <v>0.138</v>
+        <v>0.118</v>
       </c>
       <c r="O118" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="P118" t="s">
         <v>687</v>
@@ -9593,7 +9545,7 @@
         <v>691</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="D119" t="s">
         <v>692</v>
@@ -9603,25 +9555,25 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H119" t="n">
-        <v>12810004</v>
+        <v>12875829</v>
       </c>
       <c r="I119" t="n">
-        <v>249.682</v>
+        <v>250.965</v>
       </c>
       <c r="J119" t="n">
-        <v>16247</v>
+        <v>65825</v>
       </c>
       <c r="K119" t="n">
-        <v>0.317</v>
+        <v>1.283</v>
       </c>
       <c r="L119" t="n">
-        <v>40653</v>
+        <v>42057</v>
       </c>
       <c r="M119" t="n">
-        <v>0.792</v>
+        <v>0.82</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9699,7 +9651,7 @@
         <v>701</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44441</v>
+        <v>44448</v>
       </c>
       <c r="D121" t="s">
         <v>702</v>
@@ -9709,27 +9661,27 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H121" t="n">
-        <v>56254831</v>
+        <v>56889626</v>
       </c>
       <c r="I121" t="n">
-        <v>1203.435</v>
+        <v>1217.015</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>100123</v>
+        <v>90685</v>
       </c>
       <c r="M121" t="n">
-        <v>2.142</v>
+        <v>1.94</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="O121" t="n">
-        <v>14.3</v>
+        <v>20.1</v>
       </c>
       <c r="P121" t="s">
         <v>704</v>
@@ -9752,7 +9704,7 @@
         <v>708</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44447</v>
+        <v>44453</v>
       </c>
       <c r="D122" t="s">
         <v>709</v>
@@ -9762,32 +9714,28 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="H122" t="n">
-        <v>5075154</v>
+        <v>5143269</v>
       </c>
       <c r="I122" t="n">
-        <v>236.083</v>
+        <v>239.252</v>
       </c>
       <c r="J122" t="n">
-        <v>10395</v>
+        <v>9957</v>
       </c>
       <c r="K122" t="n">
-        <v>0.484</v>
+        <v>0.463</v>
       </c>
       <c r="L122" t="n">
-        <v>12281</v>
+        <v>11216</v>
       </c>
       <c r="M122" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="O122" t="n">
-        <v>2.8</v>
-      </c>
+        <v>0.522</v>
+      </c>
+      <c r="N122"/>
+      <c r="O122"/>
       <c r="P122" t="s">
         <v>710</v>
       </c>
@@ -9862,7 +9810,7 @@
         <v>720</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44446</v>
+        <v>44452</v>
       </c>
       <c r="D124" t="s">
         <v>443</v>
@@ -9872,31 +9820,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="H124" t="n">
-        <v>9598024</v>
+        <v>9801915</v>
       </c>
       <c r="I124" t="n">
-        <v>1101.26</v>
+        <v>1124.654</v>
       </c>
       <c r="J124" t="n">
-        <v>26834</v>
+        <v>29053</v>
       </c>
       <c r="K124" t="n">
-        <v>3.079</v>
+        <v>3.333</v>
       </c>
       <c r="L124" t="n">
-        <v>31842</v>
+        <v>32817</v>
       </c>
       <c r="M124" t="n">
-        <v>3.653</v>
+        <v>3.765</v>
       </c>
       <c r="N124" t="n">
-        <v>0.094</v>
+        <v>0.083</v>
       </c>
       <c r="O124" t="n">
-        <v>10.6</v>
+        <v>12</v>
       </c>
       <c r="P124" t="s">
         <v>444</v>
@@ -9919,7 +9867,7 @@
         <v>723</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D125" t="s">
         <v>724</v>
@@ -9929,31 +9877,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="H125" t="n">
-        <v>2911463</v>
+        <v>3028468</v>
       </c>
       <c r="I125" t="n">
-        <v>122.048</v>
+        <v>126.953</v>
       </c>
       <c r="J125" t="n">
-        <v>17340</v>
+        <v>18473</v>
       </c>
       <c r="K125" t="n">
-        <v>0.727</v>
+        <v>0.774</v>
       </c>
       <c r="L125" t="n">
-        <v>23677</v>
+        <v>23395</v>
       </c>
       <c r="M125" t="n">
-        <v>0.993</v>
+        <v>0.981</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>3013.5</v>
+        <v>2823.4</v>
       </c>
       <c r="P125" t="s">
         <v>725</v>
@@ -9976,7 +9924,7 @@
         <v>728</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44443</v>
+        <v>44450</v>
       </c>
       <c r="D126" t="s">
         <v>729</v>
@@ -9986,31 +9934,31 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="H126" t="n">
-        <v>12543130</v>
+        <v>12894770</v>
       </c>
       <c r="I126" t="n">
-        <v>179.313</v>
+        <v>184.34</v>
       </c>
       <c r="J126" t="n">
-        <v>40007</v>
+        <v>41354</v>
       </c>
       <c r="K126" t="n">
-        <v>0.572</v>
+        <v>0.591</v>
       </c>
       <c r="L126" t="n">
-        <v>48145</v>
+        <v>50234</v>
       </c>
       <c r="M126" t="n">
-        <v>0.688</v>
+        <v>0.718</v>
       </c>
       <c r="N126" t="n">
-        <v>0.319</v>
+        <v>0.293</v>
       </c>
       <c r="O126" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P126" t="s">
         <v>731</v>
@@ -10086,7 +10034,7 @@
         <v>739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
@@ -10096,31 +10044,31 @@
         <v>741</v>
       </c>
       <c r="G128" t="n">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H128" t="n">
-        <v>481264</v>
+        <v>487766</v>
       </c>
       <c r="I128" t="n">
-        <v>56.765</v>
+        <v>57.532</v>
       </c>
       <c r="J128" t="n">
-        <v>2225</v>
+        <v>869</v>
       </c>
       <c r="K128" t="n">
-        <v>0.262</v>
+        <v>0.102</v>
       </c>
       <c r="L128" t="n">
-        <v>1869</v>
+        <v>1834</v>
       </c>
       <c r="M128" t="n">
-        <v>0.22</v>
+        <v>0.216</v>
       </c>
       <c r="N128" t="n">
-        <v>0.113</v>
+        <v>0.09</v>
       </c>
       <c r="O128" t="n">
-        <v>8.8</v>
+        <v>11.1</v>
       </c>
       <c r="P128" t="s">
         <v>740</v>
@@ -10143,7 +10091,7 @@
         <v>746</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44445</v>
+        <v>44448</v>
       </c>
       <c r="D129" t="s">
         <v>747</v>
@@ -10153,27 +10101,31 @@
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H129" t="n">
-        <v>316078</v>
+        <v>323157</v>
       </c>
       <c r="I129" t="n">
-        <v>225.227</v>
-      </c>
-      <c r="J129"/>
-      <c r="K129"/>
+        <v>230.271</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1055</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.752</v>
+      </c>
       <c r="L129" t="n">
-        <v>1202</v>
+        <v>1431</v>
       </c>
       <c r="M129" t="n">
-        <v>0.857</v>
+        <v>1.02</v>
       </c>
       <c r="N129" t="n">
-        <v>0.145</v>
+        <v>0.149</v>
       </c>
       <c r="O129" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="P129" t="s">
         <v>36</v>
@@ -10196,7 +10148,7 @@
         <v>751</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D130" t="s">
         <v>752</v>
@@ -10206,31 +10158,31 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H130" t="n">
-        <v>2708754</v>
+        <v>2812338</v>
       </c>
       <c r="I130" t="n">
-        <v>226.944</v>
+        <v>235.623</v>
       </c>
       <c r="J130" t="n">
-        <v>29595</v>
+        <v>74333</v>
       </c>
       <c r="K130" t="n">
-        <v>2.48</v>
+        <v>6.228</v>
       </c>
       <c r="L130" t="n">
-        <v>11962</v>
+        <v>21746</v>
       </c>
       <c r="M130" t="n">
-        <v>1.002</v>
+        <v>1.822</v>
       </c>
       <c r="N130" t="n">
-        <v>0.144</v>
+        <v>0.07</v>
       </c>
       <c r="O130" t="n">
-        <v>7</v>
+        <v>14.3</v>
       </c>
       <c r="P130" t="s">
         <v>754</v>
@@ -10253,7 +10205,7 @@
         <v>758</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D131" t="s">
         <v>759</v>
@@ -10263,31 +10215,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="H131" t="n">
-        <v>78786534</v>
+        <v>80363864</v>
       </c>
       <c r="I131" t="n">
-        <v>926.435</v>
+        <v>944.982</v>
       </c>
       <c r="J131" t="n">
-        <v>308437</v>
+        <v>319110</v>
       </c>
       <c r="K131" t="n">
-        <v>3.627</v>
+        <v>3.752</v>
       </c>
       <c r="L131" t="n">
-        <v>298070</v>
+        <v>312947</v>
       </c>
       <c r="M131" t="n">
-        <v>3.505</v>
+        <v>3.68</v>
       </c>
       <c r="N131" t="n">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
       <c r="O131" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="P131" t="s">
         <v>760</v>
@@ -10310,7 +10262,7 @@
         <v>764</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44446</v>
+        <v>44450</v>
       </c>
       <c r="D132" t="s">
         <v>765</v>
@@ -10320,31 +10272,31 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H132" t="n">
-        <v>1610131</v>
+        <v>1626546</v>
       </c>
       <c r="I132" t="n">
-        <v>34.168</v>
+        <v>34.517</v>
       </c>
       <c r="J132" t="n">
-        <v>3921</v>
+        <v>4051</v>
       </c>
       <c r="K132" t="n">
-        <v>0.083</v>
+        <v>0.086</v>
       </c>
       <c r="L132" t="n">
-        <v>3408</v>
+        <v>3747</v>
       </c>
       <c r="M132" t="n">
-        <v>0.072</v>
+        <v>0.08</v>
       </c>
       <c r="N132" t="n">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="O132" t="n">
-        <v>29.9</v>
+        <v>31.6</v>
       </c>
       <c r="P132" t="s">
         <v>766</v>
@@ -10367,7 +10319,7 @@
         <v>770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="D133" t="s">
         <v>771</v>
@@ -10377,25 +10329,25 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H133" t="n">
-        <v>12279748</v>
+        <v>12309029</v>
       </c>
       <c r="I133" t="n">
-        <v>282.509</v>
+        <v>283.182</v>
       </c>
       <c r="J133" t="n">
-        <v>10668</v>
+        <v>29281</v>
       </c>
       <c r="K133" t="n">
-        <v>0.245</v>
+        <v>0.674</v>
       </c>
       <c r="L133" t="n">
-        <v>24451</v>
+        <v>25406</v>
       </c>
       <c r="M133" t="n">
-        <v>0.563</v>
+        <v>0.584</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
@@ -10477,7 +10429,7 @@
         <v>781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44446</v>
+        <v>44452</v>
       </c>
       <c r="D135" t="s">
         <v>782</v>
@@ -10489,31 +10441,31 @@
         <v>784</v>
       </c>
       <c r="G135" t="n">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H135" t="n">
-        <v>251552821</v>
+        <v>257937152</v>
       </c>
       <c r="I135" t="n">
-        <v>3688.073</v>
+        <v>3781.675</v>
       </c>
       <c r="J135" t="n">
-        <v>1143885</v>
+        <v>1028298</v>
       </c>
       <c r="K135" t="n">
-        <v>16.771</v>
+        <v>15.076</v>
       </c>
       <c r="L135" t="n">
-        <v>1091853</v>
+        <v>1075459</v>
       </c>
       <c r="M135" t="n">
-        <v>16.008</v>
+        <v>15.768</v>
       </c>
       <c r="N135" t="n">
-        <v>0.035</v>
+        <v>0.032</v>
       </c>
       <c r="O135" t="n">
-        <v>28.6</v>
+        <v>31.5</v>
       </c>
       <c r="P135" t="s">
         <v>785</v>
@@ -10536,7 +10488,7 @@
         <v>789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44443</v>
+        <v>44449</v>
       </c>
       <c r="D136" t="s">
         <v>790</v>
@@ -10546,31 +10498,31 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="H136" t="n">
-        <v>536925419</v>
+        <v>547281120</v>
       </c>
       <c r="I136" t="n">
-        <v>1612.8</v>
+        <v>1643.906</v>
       </c>
       <c r="J136" t="n">
-        <v>593135</v>
+        <v>915237</v>
       </c>
       <c r="K136" t="n">
-        <v>1.782</v>
+        <v>2.749</v>
       </c>
       <c r="L136" t="n">
-        <v>1170826</v>
+        <v>1125088</v>
       </c>
       <c r="M136" t="n">
-        <v>3.517</v>
+        <v>3.38</v>
       </c>
       <c r="N136" t="n">
-        <v>0.14</v>
+        <v>0.129</v>
       </c>
       <c r="O136" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="P136" t="s">
         <v>791</v>
@@ -10593,7 +10545,7 @@
         <v>796</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44449</v>
+        <v>44453</v>
       </c>
       <c r="D137" t="s">
         <v>797</v>
@@ -10603,32 +10555,28 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H137" t="n">
-        <v>3424238</v>
+        <v>3452954</v>
       </c>
       <c r="I137" t="n">
-        <v>982.522</v>
+        <v>990.761</v>
       </c>
       <c r="J137" t="n">
-        <v>9716</v>
+        <v>6923</v>
       </c>
       <c r="K137" t="n">
-        <v>2.788</v>
+        <v>1.986</v>
       </c>
       <c r="L137" t="n">
-        <v>8729</v>
+        <v>8441</v>
       </c>
       <c r="M137" t="n">
-        <v>2.505</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="O137" t="n">
-        <v>61.9</v>
-      </c>
+        <v>2.422</v>
+      </c>
+      <c r="N137"/>
+      <c r="O137"/>
       <c r="P137" t="s">
         <v>191</v>
       </c>
@@ -10650,7 +10598,7 @@
         <v>801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="D138" t="s">
         <v>802</v>
@@ -10660,31 +10608,31 @@
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H138" t="n">
-        <v>18111288</v>
+        <v>17344175</v>
       </c>
       <c r="I138" t="n">
-        <v>184.491</v>
+        <v>176.677</v>
       </c>
       <c r="J138" t="n">
-        <v>1927759</v>
+        <v>219310</v>
       </c>
       <c r="K138" t="n">
-        <v>19.637</v>
+        <v>2.234</v>
       </c>
       <c r="L138" t="n">
-        <v>539767</v>
+        <v>182997</v>
       </c>
       <c r="M138" t="n">
-        <v>5.498</v>
+        <v>1.864</v>
       </c>
       <c r="N138" t="n">
-        <v>0.024</v>
+        <v>0.069</v>
       </c>
       <c r="O138" t="n">
-        <v>42.5</v>
+        <v>14.6</v>
       </c>
       <c r="P138" t="s">
         <v>804</v>
@@ -10707,7 +10655,7 @@
         <v>808</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D139" t="s">
         <v>809</v>
@@ -10717,31 +10665,31 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="H139" t="n">
-        <v>2326129</v>
+        <v>2355773</v>
       </c>
       <c r="I139" t="n">
-        <v>122.941</v>
+        <v>124.508</v>
       </c>
       <c r="J139" t="n">
-        <v>7105</v>
+        <v>3231</v>
       </c>
       <c r="K139" t="n">
-        <v>0.376</v>
+        <v>0.171</v>
       </c>
       <c r="L139" t="n">
-        <v>6160</v>
+        <v>6151</v>
       </c>
       <c r="M139" t="n">
-        <v>0.326</v>
+        <v>0.325</v>
       </c>
       <c r="N139" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="O139" t="n">
-        <v>46.9</v>
+        <v>54.3</v>
       </c>
       <c r="P139" t="s">
         <v>811</v>
@@ -10764,7 +10712,7 @@
         <v>814</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="D140" t="s">
         <v>815</v>
@@ -10774,31 +10722,31 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="H140" t="n">
-        <v>1177874</v>
+        <v>1184486</v>
       </c>
       <c r="I140" t="n">
-        <v>78.045</v>
+        <v>78.483</v>
       </c>
       <c r="J140" t="n">
-        <v>4709</v>
+        <v>2035</v>
       </c>
       <c r="K140" t="n">
-        <v>0.312</v>
+        <v>0.135</v>
       </c>
       <c r="L140" t="n">
-        <v>4352</v>
+        <v>3978</v>
       </c>
       <c r="M140" t="n">
-        <v>0.288</v>
+        <v>0.264</v>
       </c>
       <c r="N140" t="n">
-        <v>0.031</v>
+        <v>0.026</v>
       </c>
       <c r="O140" t="n">
-        <v>32.5</v>
+        <v>38.7</v>
       </c>
       <c r="P140" t="s">
         <v>816</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4291</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4300</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-13-september-2021-coronavirus-covid-19-at-a-glance-13-september-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-16-september-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-update-1888-new-cases-1393-recoveries_i_0000134470.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-update-1967-new-cases-1589-recoveries_i_0000134580.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -363,7 +363,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4523635797698001/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4530009573727290/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/6014-el-ministerio-de-salud-informa-que-se-inmunizo-hasta-hoy-a-6-277-737-personas-con-primeras-y-segundas-dosis</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/6026-el-ministerio-de-salud-informa-que-se-inmunizo-hasta-hoy-a-6-347-661-personas-con-primeras-segundas-y-dosis-unica</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-13-de-setembro-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-15-de-setembro-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -601,7 +601,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/photos/a.270240923141609/1998871206945230/</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/2001496403349377</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -715,7 +715,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-14092021-jrhb</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-16092021-ywne</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -733,7 +733,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-admin/admin-ajax.php?juwpfisadmin=false&amp;action=wpfd&amp;task=file.download&amp;wpfd_category_id=59&amp;wpfd_file_id=13209</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-admin/admin-ajax.php?juwpfisadmin=false&amp;action=wpfd&amp;task=file.download&amp;wpfd_category_id=59&amp;wpfd_file_id=13254</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/09/INFOGRAFIA-MEDIOS-12_Septiembre_2021.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/09/INFOGRAFIA-MEDIOS-15_Septiembre_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">Gambia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/09/GMB-COVID-19-Situational-Report_2021_8th_9th_September_No-367.pdf</t>
+    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/09/GMB-COVID-19-Situational-Report_2021_10th_12th_September_No-368.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, The Gambia</t>
@@ -951,7 +951,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/2625</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/2674</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/09/covid-gr-daily-report-20210913.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/09/covid-gr-daily-report-20210916.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1168,7 +1168,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/369918</t>
+    <t xml:space="preserve">http://irangov.ir/detail/370024</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1188,7 +1188,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1437093378152357893</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1438580605046951943</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1291,7 +1291,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-september-12-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-september-15-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1437446198055641099</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1438533309831827458</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1609,7 +1609,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1437461123561783296</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1438548250307403802</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1437443201808408586</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1438527674792570890</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1740,7 +1740,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1135:boletim-diario-covid-19-n-535&amp;start=10</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1146:boletim-diario-covid-19-n-545</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1761,7 +1761,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FSep_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(12-9-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FSep_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(14-9-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.815465622459776/815465512459787</t>
+    <t xml:space="preserve">https://www.facebook.com/photo/?fbid=148491350808540&amp;set=pcb.148491470808528</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1803,7 +1803,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/17EIbefqBgxhq6Q6OxCeQoPredc-8i_1i</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1-EW_QKfAKo5GWidV3nxhwHTPeRFHeDgu</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1824,7 +1824,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-09/COVID-19_WebSite_rapport_wekelijks_20210907_1122_final.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-09/COVID-19_WebSite_rapport_wekelijks_20210914_1259_Final.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1956,7 +1956,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4155337174592129</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4164854296973750</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1978,7 +1978,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1437262301388812288</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1438273037095276550</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1437182614989901824</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1438625752447135747</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2049,7 +2049,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1ySmua8ROg-sOenAm8mut3l2_Fb3mwTZX</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1TpukIhUy3Amjhz2bBqvK6DlM3hxExJdq</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2070,7 +2070,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1437336498072784905</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1438423661850120198</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2133,7 +2133,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_14_septembrie_2021,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_16_septembrie_2021,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18969</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=19010</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2313,7 +2313,7 @@
     <t xml:space="preserve">South Africa - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://sacoronavirus.co.za/2021/09/12/update-on-covid-19-sunday-12-september/</t>
+    <t xml:space="preserve">https://sacoronavirus.co.za/2021/09/16/update-on-covid-19-thursday-16-september/</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Communicable Diseases (NICD)</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-842/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-848/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2581,7 +2581,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1437331631463874561</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1438424844685676544</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2710,7 +2710,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1376-bc-byt-2021-tinh-hinh-va-cong-tac-phong-chong-dich-covid-19-209228-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1411-bc-byt-2021-tinh-hinh-dich-covid-19-va-cong-tac-phong-chong-dich-ngay-15-9-2021-209480-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam Ministry of Health</t>
@@ -2756,7 +2756,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1437164962426855436</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1438234582760017921</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3331,7 +3331,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44447</v>
+        <v>44450</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3341,31 +3341,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="H5" t="n">
-        <v>13614095</v>
+        <v>13699212</v>
       </c>
       <c r="I5" t="n">
-        <v>298.517</v>
+        <v>300.383</v>
       </c>
       <c r="J5" t="n">
-        <v>30770</v>
+        <v>22861</v>
       </c>
       <c r="K5" t="n">
-        <v>0.675</v>
+        <v>0.501</v>
       </c>
       <c r="L5" t="n">
-        <v>28941</v>
+        <v>27663</v>
       </c>
       <c r="M5" t="n">
-        <v>0.635</v>
+        <v>0.607</v>
       </c>
       <c r="N5" t="n">
-        <v>0.037</v>
+        <v>0.032</v>
       </c>
       <c r="O5" t="n">
-        <v>27</v>
+        <v>31.2</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3388,7 +3388,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3398,31 +3398,27 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H6" t="n">
-        <v>1616849</v>
+        <v>1633587</v>
       </c>
       <c r="I6" t="n">
-        <v>544.737</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4178</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.408</v>
-      </c>
+        <v>550.376</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
       <c r="L6" t="n">
-        <v>5670</v>
+        <v>5541</v>
       </c>
       <c r="M6" t="n">
-        <v>1.91</v>
+        <v>1.867</v>
       </c>
       <c r="N6" t="n">
-        <v>0.098</v>
+        <v>0.112</v>
       </c>
       <c r="O6" t="n">
-        <v>10.2</v>
+        <v>9</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3445,7 +3441,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3455,31 +3451,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H7" t="n">
-        <v>34277304</v>
+        <v>34911907</v>
       </c>
       <c r="I7" t="n">
-        <v>1329.185</v>
+        <v>1353.793</v>
       </c>
       <c r="J7" t="n">
-        <v>222346</v>
+        <v>223818</v>
       </c>
       <c r="K7" t="n">
-        <v>8.622</v>
+        <v>8.679</v>
       </c>
       <c r="L7" t="n">
-        <v>203721</v>
+        <v>206264</v>
       </c>
       <c r="M7" t="n">
-        <v>7.9</v>
+        <v>7.998</v>
       </c>
       <c r="N7" t="n">
         <v>0.009</v>
       </c>
       <c r="O7" t="n">
-        <v>116.1</v>
+        <v>117.5</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3502,7 +3498,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3512,31 +3508,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H8" t="n">
-        <v>81012773</v>
+        <v>81737713</v>
       </c>
       <c r="I8" t="n">
-        <v>8958.546</v>
+        <v>9038.711</v>
       </c>
       <c r="J8" t="n">
-        <v>309931</v>
+        <v>353847</v>
       </c>
       <c r="K8" t="n">
-        <v>34.273</v>
+        <v>39.129</v>
       </c>
       <c r="L8" t="n">
-        <v>354417</v>
+        <v>346790</v>
       </c>
       <c r="M8" t="n">
-        <v>39.192</v>
+        <v>38.349</v>
       </c>
       <c r="N8" t="n">
         <v>0.006</v>
       </c>
       <c r="O8" t="n">
-        <v>176.4</v>
+        <v>165.4</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3559,7 +3555,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3569,31 +3565,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H9" t="n">
-        <v>4661119</v>
+        <v>4702934</v>
       </c>
       <c r="I9" t="n">
-        <v>455.929</v>
+        <v>460.019</v>
       </c>
       <c r="J9" t="n">
-        <v>8123</v>
+        <v>12852</v>
       </c>
       <c r="K9" t="n">
-        <v>0.795</v>
+        <v>1.257</v>
       </c>
       <c r="L9" t="n">
-        <v>14007</v>
+        <v>13480</v>
       </c>
       <c r="M9" t="n">
-        <v>1.37</v>
+        <v>1.319</v>
       </c>
       <c r="N9" t="n">
-        <v>0.163</v>
+        <v>0.206</v>
       </c>
       <c r="O9" t="n">
-        <v>6.1</v>
+        <v>4.9</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3616,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3626,31 +3622,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H10" t="n">
-        <v>6168885</v>
+        <v>6219122</v>
       </c>
       <c r="I10" t="n">
-        <v>3528.515</v>
+        <v>3557.25</v>
       </c>
       <c r="J10" t="n">
-        <v>16771</v>
+        <v>16656</v>
       </c>
       <c r="K10" t="n">
-        <v>9.593</v>
+        <v>9.527</v>
       </c>
       <c r="L10" t="n">
-        <v>18121</v>
+        <v>17460</v>
       </c>
       <c r="M10" t="n">
-        <v>10.365</v>
+        <v>9.987</v>
       </c>
       <c r="N10" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="O10" t="n">
-        <v>175.7</v>
+        <v>208.2</v>
       </c>
       <c r="P10" t="s">
         <v>70</v>
@@ -3673,7 +3669,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3683,28 +3679,32 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H11" t="n">
-        <v>9281891</v>
+        <v>9339121</v>
       </c>
       <c r="I11" t="n">
-        <v>55.813</v>
+        <v>56.157</v>
       </c>
       <c r="J11" t="n">
-        <v>31724</v>
+        <v>28615</v>
       </c>
       <c r="K11" t="n">
-        <v>0.191</v>
+        <v>0.172</v>
       </c>
       <c r="L11" t="n">
-        <v>27911</v>
+        <v>27976</v>
       </c>
       <c r="M11" t="n">
         <v>0.168</v>
       </c>
-      <c r="N11"/>
-      <c r="O11"/>
+      <c r="N11" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="O11" t="n">
+        <v>14.7</v>
+      </c>
       <c r="P11" t="s">
         <v>77</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3736,28 +3736,28 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H12" t="n">
-        <v>8056855</v>
+        <v>8118970</v>
       </c>
       <c r="I12" t="n">
-        <v>853.221</v>
-      </c>
-      <c r="J12" t="n">
-        <v>18329</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.941</v>
-      </c>
+        <v>859.799</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
       <c r="L12" t="n">
-        <v>19311</v>
+        <v>21962</v>
       </c>
       <c r="M12" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="N12"/>
-      <c r="O12"/>
+        <v>2.326</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="O12" t="n">
+        <v>11.8</v>
+      </c>
       <c r="P12" t="s">
         <v>83</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44451</v>
+        <v>44454</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3789,31 +3789,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H13" t="n">
-        <v>19228987</v>
+        <v>19384396</v>
       </c>
       <c r="I13" t="n">
-        <v>1653.064</v>
+        <v>1666.424</v>
       </c>
       <c r="J13" t="n">
-        <v>22128</v>
+        <v>53640</v>
       </c>
       <c r="K13" t="n">
-        <v>1.902</v>
+        <v>4.611</v>
       </c>
       <c r="L13" t="n">
-        <v>42638</v>
+        <v>46076</v>
       </c>
       <c r="M13" t="n">
-        <v>3.665</v>
+        <v>3.961</v>
       </c>
       <c r="N13" t="n">
-        <v>0.051</v>
+        <v>0.048</v>
       </c>
       <c r="O13" t="n">
-        <v>19.6</v>
+        <v>20.8</v>
       </c>
       <c r="P13" t="s">
         <v>90</v>
@@ -3836,7 +3836,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44448</v>
+        <v>44454</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3846,27 +3846,27 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14" t="n">
-        <v>235725</v>
+        <v>241828</v>
       </c>
       <c r="I14" t="n">
-        <v>582.159</v>
+        <v>597.232</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>1586</v>
+        <v>1098</v>
       </c>
       <c r="M14" t="n">
-        <v>3.917</v>
+        <v>2.712</v>
       </c>
       <c r="N14" t="n">
-        <v>0.071</v>
+        <v>0.116</v>
       </c>
       <c r="O14" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -3934,7 +3934,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -3944,23 +3944,29 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H16" t="n">
-        <v>1122556</v>
+        <v>1125970</v>
       </c>
       <c r="I16" t="n">
-        <v>1439.359</v>
-      </c>
-      <c r="J16"/>
-      <c r="K16"/>
+        <v>1443.736</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1874</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.403</v>
+      </c>
       <c r="L16" t="n">
-        <v>2321</v>
+        <v>2192</v>
       </c>
       <c r="M16" t="n">
-        <v>2.976</v>
-      </c>
-      <c r="N16"/>
+        <v>2.811</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
       <c r="O16"/>
       <c r="P16" t="s">
         <v>36</v>
@@ -3983,7 +3989,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44451</v>
+        <v>44454</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3993,31 +3999,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="H17" t="n">
-        <v>2354869</v>
+        <v>2371896</v>
       </c>
       <c r="I17" t="n">
-        <v>199.01</v>
+        <v>200.449</v>
       </c>
       <c r="J17" t="n">
-        <v>2358</v>
+        <v>6790</v>
       </c>
       <c r="K17" t="n">
-        <v>0.199</v>
+        <v>0.574</v>
       </c>
       <c r="L17" t="n">
-        <v>5411</v>
+        <v>5223</v>
       </c>
       <c r="M17" t="n">
-        <v>0.457</v>
+        <v>0.441</v>
       </c>
       <c r="N17" t="n">
-        <v>0.062</v>
+        <v>0.069</v>
       </c>
       <c r="O17" t="n">
-        <v>16.1</v>
+        <v>14.5</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4040,7 +4046,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4050,28 +4056,32 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H18" t="n">
-        <v>1178217</v>
+        <v>1185467</v>
       </c>
       <c r="I18" t="n">
-        <v>361.033</v>
+        <v>363.255</v>
       </c>
       <c r="J18" t="n">
-        <v>3552</v>
+        <v>3222</v>
       </c>
       <c r="K18" t="n">
-        <v>1.088</v>
+        <v>0.987</v>
       </c>
       <c r="L18" t="n">
-        <v>2750</v>
+        <v>2901</v>
       </c>
       <c r="M18" t="n">
-        <v>0.843</v>
-      </c>
-      <c r="N18"/>
-      <c r="O18"/>
+        <v>0.889</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4</v>
+      </c>
       <c r="P18" t="s">
         <v>118</v>
       </c>
@@ -4138,7 +4148,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4148,27 +4158,27 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H20" t="n">
-        <v>4492720</v>
+        <v>4560069</v>
       </c>
       <c r="I20" t="n">
-        <v>651.435</v>
+        <v>661.2</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>19523</v>
+        <v>20694</v>
       </c>
       <c r="M20" t="n">
-        <v>2.831</v>
+        <v>3.001</v>
       </c>
       <c r="N20" t="n">
-        <v>0.077</v>
+        <v>0.073</v>
       </c>
       <c r="O20" t="n">
-        <v>12.9</v>
+        <v>13.7</v>
       </c>
       <c r="P20" t="s">
         <v>130</v>
@@ -4293,7 +4303,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D23" t="s">
         <v>140</v>
@@ -4303,31 +4313,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H23" t="n">
-        <v>41593358</v>
+        <v>41861477</v>
       </c>
       <c r="I23" t="n">
-        <v>1092.609</v>
+        <v>1099.653</v>
       </c>
       <c r="J23" t="n">
-        <v>80018</v>
+        <v>108965</v>
       </c>
       <c r="K23" t="n">
-        <v>2.102</v>
+        <v>2.862</v>
       </c>
       <c r="L23" t="n">
-        <v>81434</v>
+        <v>90454</v>
       </c>
       <c r="M23" t="n">
-        <v>2.139</v>
+        <v>2.376</v>
       </c>
       <c r="N23" t="n">
-        <v>0.062</v>
+        <v>0.048</v>
       </c>
       <c r="O23" t="n">
-        <v>16.1</v>
+        <v>20.6</v>
       </c>
       <c r="P23" t="s">
         <v>141</v>
@@ -4350,7 +4360,7 @@
         <v>147</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="D24" t="s">
         <v>148</v>
@@ -4360,15 +4370,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>904</v>
+        <v>1130</v>
       </c>
       <c r="K24" t="n">
-        <v>1.609</v>
+        <v>2.011</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4395,7 +4405,7 @@
         <v>153</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="D25" t="s">
         <v>154</v>
@@ -4405,28 +4415,32 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H25" t="n">
-        <v>20741439</v>
+        <v>20840102</v>
       </c>
       <c r="I25" t="n">
-        <v>1079.588</v>
+        <v>1084.724</v>
       </c>
       <c r="J25" t="n">
-        <v>28613</v>
+        <v>61697</v>
       </c>
       <c r="K25" t="n">
-        <v>1.489</v>
+        <v>3.211</v>
       </c>
       <c r="L25" t="n">
-        <v>49968</v>
+        <v>49265</v>
       </c>
       <c r="M25" t="n">
-        <v>2.601</v>
-      </c>
-      <c r="N25"/>
-      <c r="O25"/>
+        <v>2.564</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="O25" t="n">
+        <v>108.6</v>
+      </c>
       <c r="P25" t="s">
         <v>156</v>
       </c>
@@ -4493,7 +4507,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D27" t="s">
         <v>167</v>
@@ -4503,31 +4517,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H27" t="n">
-        <v>24713540</v>
+        <v>24864554</v>
       </c>
       <c r="I27" t="n">
-        <v>482.066</v>
+        <v>485.012</v>
       </c>
       <c r="J27" t="n">
-        <v>28787</v>
+        <v>55581</v>
       </c>
       <c r="K27" t="n">
-        <v>0.562</v>
+        <v>1.084</v>
       </c>
       <c r="L27" t="n">
-        <v>46722</v>
+        <v>45978</v>
       </c>
       <c r="M27" t="n">
-        <v>0.911</v>
+        <v>0.897</v>
       </c>
       <c r="N27" t="n">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="O27" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="P27" t="s">
         <v>168</v>
@@ -4550,7 +4564,7 @@
         <v>172</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44448</v>
+        <v>44452</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
@@ -4560,31 +4574,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H28" t="n">
-        <v>1763461</v>
+        <v>1794154</v>
       </c>
       <c r="I28" t="n">
-        <v>343.149</v>
+        <v>349.122</v>
       </c>
       <c r="J28" t="n">
-        <v>6153</v>
+        <v>3678</v>
       </c>
       <c r="K28" t="n">
-        <v>1.197</v>
+        <v>0.716</v>
       </c>
       <c r="L28" t="n">
-        <v>6601</v>
+        <v>6832</v>
       </c>
       <c r="M28" t="n">
-        <v>1.284</v>
+        <v>1.329</v>
       </c>
       <c r="N28" t="n">
-        <v>0.308</v>
+        <v>0.296</v>
       </c>
       <c r="O28" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P28" t="s">
         <v>174</v>
@@ -4607,7 +4621,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44451</v>
+        <v>44455</v>
       </c>
       <c r="D29" t="s">
         <v>178</v>
@@ -4617,31 +4631,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H29" t="n">
-        <v>952906</v>
+        <v>964928</v>
       </c>
       <c r="I29" t="n">
-        <v>35.223</v>
+        <v>35.667</v>
       </c>
       <c r="J29" t="n">
-        <v>4817</v>
+        <v>3669</v>
       </c>
       <c r="K29" t="n">
-        <v>0.178</v>
+        <v>0.136</v>
       </c>
       <c r="L29" t="n">
-        <v>4231</v>
+        <v>3567</v>
       </c>
       <c r="M29" t="n">
-        <v>0.156</v>
+        <v>0.132</v>
       </c>
       <c r="N29" t="n">
-        <v>0.039</v>
+        <v>0.044</v>
       </c>
       <c r="O29" t="n">
-        <v>25.7</v>
+        <v>22.6</v>
       </c>
       <c r="P29" t="s">
         <v>179</v>
@@ -4664,7 +4678,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4674,28 +4688,32 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H30" t="n">
-        <v>2673076</v>
+        <v>2695369</v>
       </c>
       <c r="I30" t="n">
-        <v>654.9</v>
+        <v>660.361</v>
       </c>
       <c r="J30" t="n">
-        <v>10228</v>
+        <v>10743</v>
       </c>
       <c r="K30" t="n">
-        <v>2.506</v>
+        <v>2.632</v>
       </c>
       <c r="L30" t="n">
-        <v>9411</v>
+        <v>9608</v>
       </c>
       <c r="M30" t="n">
-        <v>2.306</v>
-      </c>
-      <c r="N30"/>
-      <c r="O30"/>
+        <v>2.354</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="O30" t="n">
+        <v>9.1</v>
+      </c>
       <c r="P30" t="s">
         <v>185</v>
       </c>
@@ -4776,7 +4794,7 @@
         <v>196</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D32" t="s">
         <v>197</v>
@@ -4786,31 +4804,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H32" t="n">
-        <v>12366746</v>
+        <v>12522182</v>
       </c>
       <c r="I32" t="n">
-        <v>13926.437</v>
+        <v>14101.477</v>
       </c>
       <c r="J32" t="n">
-        <v>76913</v>
+        <v>51255</v>
       </c>
       <c r="K32" t="n">
-        <v>86.613</v>
+        <v>57.719</v>
       </c>
       <c r="L32" t="n">
-        <v>56992</v>
+        <v>57589</v>
       </c>
       <c r="M32" t="n">
-        <v>64.18</v>
+        <v>64.852</v>
       </c>
       <c r="N32" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="O32" t="n">
-        <v>363</v>
+        <v>608</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4833,7 +4851,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D33" t="s">
         <v>201</v>
@@ -4843,21 +4861,21 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>64968</v>
+        <v>76326</v>
       </c>
       <c r="K33" t="n">
-        <v>6.058</v>
+        <v>7.117</v>
       </c>
       <c r="L33" t="n">
-        <v>68398</v>
+        <v>65838</v>
       </c>
       <c r="M33" t="n">
-        <v>6.378</v>
+        <v>6.139</v>
       </c>
       <c r="N33" t="n">
         <v>0.006</v>
@@ -4939,7 +4957,7 @@
         <v>210</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -4949,31 +4967,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H35" t="n">
-        <v>40518411</v>
+        <v>40601051</v>
       </c>
       <c r="I35" t="n">
-        <v>6969.948</v>
+        <v>6984.163</v>
       </c>
       <c r="J35" t="n">
-        <v>30606</v>
+        <v>25726</v>
       </c>
       <c r="K35" t="n">
-        <v>5.265</v>
+        <v>4.425</v>
       </c>
       <c r="L35" t="n">
-        <v>42181</v>
+        <v>39588</v>
       </c>
       <c r="M35" t="n">
-        <v>7.256</v>
+        <v>6.81</v>
       </c>
       <c r="N35" t="n">
         <v>0.011</v>
       </c>
       <c r="O35" t="n">
-        <v>90.7</v>
+        <v>89.2</v>
       </c>
       <c r="P35" t="s">
         <v>212</v>
@@ -4996,7 +5014,7 @@
         <v>216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44449</v>
+        <v>44454</v>
       </c>
       <c r="D36" t="s">
         <v>217</v>
@@ -5006,27 +5024,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H36" t="n">
-        <v>1991308</v>
+        <v>2010899</v>
       </c>
       <c r="I36" t="n">
-        <v>181.793</v>
+        <v>183.581</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>3279</v>
+        <v>3873</v>
       </c>
       <c r="M36" t="n">
-        <v>0.299</v>
+        <v>0.354</v>
       </c>
       <c r="N36" t="n">
-        <v>0.068</v>
+        <v>0.073</v>
       </c>
       <c r="O36" t="n">
-        <v>14.7</v>
+        <v>13.8</v>
       </c>
       <c r="P36" t="s">
         <v>218</v>
@@ -5049,7 +5067,7 @@
         <v>222</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44451</v>
+        <v>44454</v>
       </c>
       <c r="D37" t="s">
         <v>223</v>
@@ -5061,31 +5079,31 @@
         <v>225</v>
       </c>
       <c r="G37" t="n">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H37" t="n">
-        <v>1703645</v>
+        <v>1710032</v>
       </c>
       <c r="I37" t="n">
-        <v>95.237</v>
+        <v>95.594</v>
       </c>
       <c r="J37" t="n">
-        <v>2400</v>
+        <v>2884</v>
       </c>
       <c r="K37" t="n">
-        <v>0.134</v>
+        <v>0.161</v>
       </c>
       <c r="L37" t="n">
-        <v>1964</v>
+        <v>1812</v>
       </c>
       <c r="M37" t="n">
-        <v>0.11</v>
+        <v>0.101</v>
       </c>
       <c r="N37" t="n">
-        <v>0.11</v>
+        <v>0.108</v>
       </c>
       <c r="O37" t="n">
-        <v>9.1</v>
+        <v>9.3</v>
       </c>
       <c r="P37" t="s">
         <v>226</v>
@@ -5165,7 +5183,7 @@
         <v>236</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44451</v>
+        <v>44456</v>
       </c>
       <c r="D39" t="s">
         <v>237</v>
@@ -5175,28 +5193,28 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H39" t="n">
-        <v>206274</v>
+        <v>210877</v>
       </c>
       <c r="I39" t="n">
-        <v>142.269</v>
-      </c>
-      <c r="J39"/>
-      <c r="K39"/>
+        <v>145.443</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2175</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.5</v>
+      </c>
       <c r="L39" t="n">
-        <v>846</v>
+        <v>1012</v>
       </c>
       <c r="M39" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="O39" t="n">
-        <v>8</v>
-      </c>
+        <v>0.698</v>
+      </c>
+      <c r="N39"/>
+      <c r="O39"/>
       <c r="P39" t="s">
         <v>239</v>
       </c>
@@ -5218,7 +5236,7 @@
         <v>242</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D40" t="s">
         <v>243</v>
@@ -5228,31 +5246,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H40" t="n">
-        <v>1828330</v>
+        <v>1848009</v>
       </c>
       <c r="I40" t="n">
-        <v>1379.676</v>
+        <v>1394.526</v>
       </c>
       <c r="J40" t="n">
-        <v>6118</v>
+        <v>6453</v>
       </c>
       <c r="K40" t="n">
-        <v>4.617</v>
+        <v>4.869</v>
       </c>
       <c r="L40" t="n">
-        <v>5571</v>
+        <v>5831</v>
       </c>
       <c r="M40" t="n">
-        <v>4.204</v>
+        <v>4.4</v>
       </c>
       <c r="N40" t="n">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
       <c r="O40" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="P40" t="s">
         <v>244</v>
@@ -5275,7 +5293,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D41" t="s">
         <v>248</v>
@@ -5285,31 +5303,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H41" t="n">
-        <v>3330057</v>
+        <v>3358285</v>
       </c>
       <c r="I41" t="n">
-        <v>28.25</v>
+        <v>28.49</v>
       </c>
       <c r="J41" t="n">
-        <v>4681</v>
+        <v>9725</v>
       </c>
       <c r="K41" t="n">
-        <v>0.04</v>
+        <v>0.083</v>
       </c>
       <c r="L41" t="n">
-        <v>6492</v>
+        <v>6961</v>
       </c>
       <c r="M41" t="n">
-        <v>0.055</v>
+        <v>0.059</v>
       </c>
       <c r="N41" t="n">
-        <v>0.166</v>
+        <v>0.17</v>
       </c>
       <c r="O41" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="P41" t="s">
         <v>249</v>
@@ -5389,7 +5407,7 @@
         <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44451</v>
+        <v>44454</v>
       </c>
       <c r="D43" t="s">
         <v>258</v>
@@ -5399,31 +5417,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="H43" t="n">
-        <v>6871547</v>
+        <v>6933023</v>
       </c>
       <c r="I43" t="n">
-        <v>1238.482</v>
+        <v>1249.562</v>
       </c>
       <c r="J43" t="n">
-        <v>6479</v>
+        <v>16118</v>
       </c>
       <c r="K43" t="n">
-        <v>1.168</v>
+        <v>2.905</v>
       </c>
       <c r="L43" t="n">
-        <v>16795</v>
+        <v>15396</v>
       </c>
       <c r="M43" t="n">
-        <v>3.027</v>
+        <v>2.775</v>
       </c>
       <c r="N43" t="n">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="O43" t="n">
-        <v>33.2</v>
+        <v>34.3</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5446,7 +5464,7 @@
         <v>263</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44450</v>
+        <v>44452</v>
       </c>
       <c r="D44" t="s">
         <v>264</v>
@@ -5456,19 +5474,27 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
+      <c r="J44" t="n">
+        <v>663977</v>
+      </c>
+      <c r="K44" t="n">
+        <v>9.827</v>
+      </c>
+      <c r="L44" t="n">
+        <v>565113</v>
+      </c>
+      <c r="M44" t="n">
+        <v>8.364</v>
+      </c>
       <c r="N44" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="O44" t="n">
-        <v>52.6</v>
+        <v>55.6</v>
       </c>
       <c r="P44" t="s">
         <v>265</v>
@@ -5517,8 +5543,12 @@
       <c r="M45" t="n">
         <v>1.185</v>
       </c>
-      <c r="N45"/>
-      <c r="O45"/>
+      <c r="N45" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="O45" t="n">
+        <v>26</v>
+      </c>
       <c r="P45" t="s">
         <v>270</v>
       </c>
@@ -5540,7 +5570,7 @@
         <v>275</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44448</v>
+        <v>44451</v>
       </c>
       <c r="D46" t="s">
         <v>276</v>
@@ -5550,27 +5580,27 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H46" t="n">
-        <v>105026</v>
+        <v>106259</v>
       </c>
       <c r="I46" t="n">
-        <v>42.231</v>
+        <v>42.727</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="M46" t="n">
-        <v>0.138</v>
+        <v>0.149</v>
       </c>
       <c r="N46" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="O46" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="P46" t="s">
         <v>277</v>
@@ -5593,7 +5623,7 @@
         <v>281</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="D47" t="s">
         <v>282</v>
@@ -5603,27 +5633,31 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H47" t="n">
-        <v>8450000</v>
+        <v>8500000</v>
       </c>
       <c r="I47" t="n">
-        <v>2123.237</v>
-      </c>
-      <c r="J47"/>
-      <c r="K47"/>
+        <v>2135.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>50000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>12.564</v>
+      </c>
       <c r="L47" t="n">
-        <v>28571</v>
+        <v>28143</v>
       </c>
       <c r="M47" t="n">
-        <v>7.179</v>
+        <v>7.072</v>
       </c>
       <c r="N47" t="n">
-        <v>0.079</v>
+        <v>0.087</v>
       </c>
       <c r="O47" t="n">
-        <v>12.6</v>
+        <v>11.5</v>
       </c>
       <c r="P47" t="s">
         <v>283</v>
@@ -5646,7 +5680,7 @@
         <v>287</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44444</v>
+        <v>44451</v>
       </c>
       <c r="D48" t="s">
         <v>288</v>
@@ -5656,27 +5690,27 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H48" t="n">
-        <v>71279817</v>
+        <v>72301440</v>
       </c>
       <c r="I48" t="n">
-        <v>849.576</v>
+        <v>861.752</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>133426</v>
+        <v>141624</v>
       </c>
       <c r="M48" t="n">
-        <v>1.59</v>
+        <v>1.688</v>
       </c>
       <c r="N48" t="n">
-        <v>0.087</v>
+        <v>0.08</v>
       </c>
       <c r="O48" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="P48" t="s">
         <v>289</v>
@@ -5756,7 +5790,7 @@
         <v>299</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D50" t="s">
         <v>300</v>
@@ -5766,31 +5800,31 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H50" t="n">
-        <v>16720566</v>
+        <v>17406729</v>
       </c>
       <c r="I50" t="n">
-        <v>1612.282</v>
+        <v>1678.445</v>
       </c>
       <c r="J50" t="n">
-        <v>78169</v>
+        <v>155295</v>
       </c>
       <c r="K50" t="n">
-        <v>7.537</v>
+        <v>14.974</v>
       </c>
       <c r="L50" t="n">
-        <v>98102</v>
+        <v>153156</v>
       </c>
       <c r="M50" t="n">
-        <v>9.459</v>
+        <v>14.768</v>
       </c>
       <c r="N50" t="n">
-        <v>0.022</v>
+        <v>0.015</v>
       </c>
       <c r="O50" t="n">
-        <v>45.6</v>
+        <v>68.9</v>
       </c>
       <c r="P50" t="s">
         <v>302</v>
@@ -5923,7 +5957,7 @@
         <v>320</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D53" t="s">
         <v>321</v>
@@ -5935,31 +5969,31 @@
         <v>323</v>
       </c>
       <c r="G53" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H53" t="n">
-        <v>6265022</v>
+        <v>6302559</v>
       </c>
       <c r="I53" t="n">
-        <v>650.292</v>
+        <v>654.189</v>
       </c>
       <c r="J53" t="n">
-        <v>36631</v>
+        <v>15682</v>
       </c>
       <c r="K53" t="n">
-        <v>3.802</v>
+        <v>1.628</v>
       </c>
       <c r="L53" t="n">
-        <v>11681</v>
+        <v>12642</v>
       </c>
       <c r="M53" t="n">
-        <v>1.212</v>
+        <v>1.312</v>
       </c>
       <c r="N53" t="n">
-        <v>0.023</v>
+        <v>0.026</v>
       </c>
       <c r="O53" t="n">
-        <v>42.7</v>
+        <v>39</v>
       </c>
       <c r="P53" t="s">
         <v>322</v>
@@ -5982,7 +6016,7 @@
         <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -5992,25 +6026,25 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H54" t="n">
-        <v>612349</v>
+        <v>615816</v>
       </c>
       <c r="I54" t="n">
-        <v>1783.402</v>
+        <v>1793.5</v>
       </c>
       <c r="J54" t="n">
-        <v>1858</v>
+        <v>1762</v>
       </c>
       <c r="K54" t="n">
-        <v>5.411</v>
+        <v>5.132</v>
       </c>
       <c r="L54" t="n">
-        <v>1697</v>
+        <v>1569</v>
       </c>
       <c r="M54" t="n">
-        <v>4.942</v>
+        <v>4.57</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -6067,8 +6101,12 @@
       <c r="M55" t="n">
         <v>1.154</v>
       </c>
-      <c r="N55"/>
-      <c r="O55"/>
+      <c r="N55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O55" t="n">
+        <v>51.2</v>
+      </c>
       <c r="P55" t="s">
         <v>334</v>
       </c>
@@ -6143,7 +6181,7 @@
         <v>344</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="D57" t="s">
         <v>345</v>
@@ -6153,28 +6191,32 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H57" t="n">
-        <v>30445641</v>
+        <v>30672916</v>
       </c>
       <c r="I57" t="n">
-        <v>358.063</v>
+        <v>360.736</v>
       </c>
       <c r="J57" t="n">
-        <v>108312</v>
+        <v>115179</v>
       </c>
       <c r="K57" t="n">
-        <v>1.274</v>
+        <v>1.355</v>
       </c>
       <c r="L57" t="n">
-        <v>109680</v>
+        <v>109829</v>
       </c>
       <c r="M57" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N57"/>
-      <c r="O57"/>
+        <v>1.292</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="O57" t="n">
+        <v>5.5</v>
+      </c>
       <c r="P57" t="s">
         <v>346</v>
       </c>
@@ -6196,7 +6238,7 @@
         <v>350</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44451</v>
+        <v>44455</v>
       </c>
       <c r="D58" t="s">
         <v>351</v>
@@ -6206,31 +6248,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H58" t="n">
-        <v>14763329</v>
+        <v>14895398</v>
       </c>
       <c r="I58" t="n">
-        <v>358.513</v>
+        <v>361.72</v>
       </c>
       <c r="J58" t="n">
-        <v>28104</v>
+        <v>32036</v>
       </c>
       <c r="K58" t="n">
-        <v>0.682</v>
+        <v>0.778</v>
       </c>
       <c r="L58" t="n">
-        <v>33268</v>
+        <v>31284</v>
       </c>
       <c r="M58" t="n">
-        <v>0.808</v>
+        <v>0.76</v>
       </c>
       <c r="N58" t="n">
-        <v>0.144</v>
+        <v>0.127</v>
       </c>
       <c r="O58" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="P58" t="s">
         <v>353</v>
@@ -6253,7 +6295,7 @@
         <v>357</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="D59" t="s">
         <v>358</v>
@@ -6263,28 +6305,32 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H59" t="n">
-        <v>7009105</v>
+        <v>7079448</v>
       </c>
       <c r="I59" t="n">
-        <v>1406.631</v>
+        <v>1420.747</v>
       </c>
       <c r="J59" t="n">
-        <v>21902</v>
+        <v>28135</v>
       </c>
       <c r="K59" t="n">
-        <v>4.395</v>
+        <v>5.646</v>
       </c>
       <c r="L59" t="n">
-        <v>23762</v>
+        <v>24731</v>
       </c>
       <c r="M59" t="n">
-        <v>4.769</v>
-      </c>
-      <c r="N59"/>
-      <c r="O59"/>
+        <v>4.963</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="O59" t="n">
+        <v>19.1</v>
+      </c>
       <c r="P59" t="s">
         <v>359</v>
       </c>
@@ -6306,7 +6352,7 @@
         <v>363</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D60" t="s">
         <v>364</v>
@@ -6316,31 +6362,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H60" t="n">
-        <v>25190947</v>
+        <v>25581567</v>
       </c>
       <c r="I60" t="n">
-        <v>2865.937</v>
+        <v>2910.378</v>
       </c>
       <c r="J60" t="n">
-        <v>189148</v>
+        <v>54984</v>
       </c>
       <c r="K60" t="n">
-        <v>21.519</v>
+        <v>6.255</v>
       </c>
       <c r="L60" t="n">
-        <v>141837</v>
+        <v>155106</v>
       </c>
       <c r="M60" t="n">
-        <v>16.137</v>
+        <v>17.646</v>
       </c>
       <c r="N60" t="n">
-        <v>0.067</v>
+        <v>0.058</v>
       </c>
       <c r="O60" t="n">
-        <v>14.9</v>
+        <v>17.4</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
@@ -6363,7 +6409,7 @@
         <v>369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="D61" t="s">
         <v>370</v>
@@ -6375,28 +6421,32 @@
         <v>372</v>
       </c>
       <c r="G61" t="n">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H61" t="n">
-        <v>33365842</v>
+        <v>33481704</v>
       </c>
       <c r="I61" t="n">
-        <v>552.712</v>
+        <v>554.632</v>
       </c>
       <c r="J61" t="n">
-        <v>64973</v>
+        <v>58222</v>
       </c>
       <c r="K61" t="n">
-        <v>1.076</v>
+        <v>0.964</v>
       </c>
       <c r="L61" t="n">
-        <v>57442</v>
+        <v>55970</v>
       </c>
       <c r="M61" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="N61"/>
-      <c r="O61"/>
+        <v>0.927</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="O61" t="n">
+        <v>12.2</v>
+      </c>
       <c r="P61" t="s">
         <v>373</v>
       </c>
@@ -6418,7 +6468,7 @@
         <v>376</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="D62" t="s">
         <v>370</v>
@@ -6430,28 +6480,32 @@
         <v>372</v>
       </c>
       <c r="G62" t="n">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H62" t="n">
-        <v>87892474</v>
+        <v>88516407</v>
       </c>
       <c r="I62" t="n">
-        <v>1455.958</v>
+        <v>1466.293</v>
       </c>
       <c r="J62" t="n">
-        <v>318593</v>
+        <v>306267</v>
       </c>
       <c r="K62" t="n">
-        <v>5.278</v>
+        <v>5.073</v>
       </c>
       <c r="L62" t="n">
-        <v>274173</v>
+        <v>278528</v>
       </c>
       <c r="M62" t="n">
-        <v>4.542</v>
-      </c>
-      <c r="N62"/>
-      <c r="O62"/>
+        <v>4.614</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="O62" t="n">
+        <v>60.5</v>
+      </c>
       <c r="P62" t="s">
         <v>373</v>
       </c>
@@ -6473,7 +6527,7 @@
         <v>379</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44451</v>
+        <v>44454</v>
       </c>
       <c r="D63" t="s">
         <v>380</v>
@@ -6483,31 +6537,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H63" t="n">
-        <v>573539</v>
+        <v>578267</v>
       </c>
       <c r="I63" t="n">
-        <v>192.886</v>
+        <v>194.476</v>
       </c>
       <c r="J63" t="n">
-        <v>2136</v>
+        <v>1564</v>
       </c>
       <c r="K63" t="n">
-        <v>0.718</v>
+        <v>0.526</v>
       </c>
       <c r="L63" t="n">
-        <v>2143</v>
+        <v>1714</v>
       </c>
       <c r="M63" t="n">
-        <v>0.721</v>
+        <v>0.576</v>
       </c>
       <c r="N63" t="n">
-        <v>0.301</v>
+        <v>0.333</v>
       </c>
       <c r="O63" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P63" t="s">
         <v>381</v>
@@ -6530,7 +6584,7 @@
         <v>385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="D64" t="s">
         <v>386</v>
@@ -6540,31 +6594,31 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H64" t="n">
-        <v>22383150</v>
+        <v>22590267</v>
       </c>
       <c r="I64" t="n">
-        <v>177.572</v>
+        <v>179.216</v>
       </c>
       <c r="J64" t="n">
-        <v>118563</v>
+        <v>107105</v>
       </c>
       <c r="K64" t="n">
-        <v>0.941</v>
+        <v>0.85</v>
       </c>
       <c r="L64" t="n">
-        <v>108131</v>
+        <v>101948</v>
       </c>
       <c r="M64" t="n">
-        <v>0.858</v>
+        <v>0.809</v>
       </c>
       <c r="N64" t="n">
-        <v>0.083</v>
+        <v>0.074</v>
       </c>
       <c r="O64" t="n">
-        <v>12.1</v>
+        <v>13.6</v>
       </c>
       <c r="P64" t="s">
         <v>387</v>
@@ -6587,7 +6641,7 @@
         <v>391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D65" t="s">
         <v>392</v>
@@ -6597,31 +6651,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H65" t="n">
-        <v>9581308</v>
+        <v>9706117</v>
       </c>
       <c r="I65" t="n">
-        <v>933.03</v>
+        <v>945.184</v>
       </c>
       <c r="J65" t="n">
-        <v>29050</v>
+        <v>28071</v>
       </c>
       <c r="K65" t="n">
-        <v>2.829</v>
+        <v>2.734</v>
       </c>
       <c r="L65" t="n">
-        <v>25680</v>
+        <v>33055</v>
       </c>
       <c r="M65" t="n">
-        <v>2.501</v>
+        <v>3.219</v>
       </c>
       <c r="N65" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="O65" t="n">
-        <v>35.7</v>
+        <v>32.4</v>
       </c>
       <c r="P65" t="s">
         <v>393</v>
@@ -6754,7 +6808,7 @@
         <v>407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D68" t="s">
         <v>408</v>
@@ -6764,31 +6818,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H68" t="n">
-        <v>1116017</v>
+        <v>1138715</v>
       </c>
       <c r="I68" t="n">
-        <v>577.417</v>
+        <v>589.161</v>
       </c>
       <c r="J68" t="n">
-        <v>5505</v>
+        <v>6882</v>
       </c>
       <c r="K68" t="n">
-        <v>2.848</v>
+        <v>3.561</v>
       </c>
       <c r="L68" t="n">
-        <v>9263</v>
+        <v>7932</v>
       </c>
       <c r="M68" t="n">
-        <v>4.793</v>
+        <v>4.104</v>
       </c>
       <c r="N68" t="n">
-        <v>0.071</v>
+        <v>0.056</v>
       </c>
       <c r="O68" t="n">
-        <v>14.1</v>
+        <v>18</v>
       </c>
       <c r="P68" t="s">
         <v>410</v>
@@ -6811,7 +6865,7 @@
         <v>413</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D69" t="s">
         <v>414</v>
@@ -6821,31 +6875,31 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H69" t="n">
-        <v>3959053</v>
+        <v>4003280</v>
       </c>
       <c r="I69" t="n">
-        <v>914.637</v>
+        <v>924.854</v>
       </c>
       <c r="J69" t="n">
-        <v>14661</v>
+        <v>14694</v>
       </c>
       <c r="K69" t="n">
-        <v>3.387</v>
+        <v>3.395</v>
       </c>
       <c r="L69" t="n">
-        <v>13884</v>
+        <v>14390</v>
       </c>
       <c r="M69" t="n">
-        <v>3.208</v>
+        <v>3.324</v>
       </c>
       <c r="N69" t="n">
         <v>0.004</v>
       </c>
       <c r="O69" t="n">
-        <v>226.5</v>
+        <v>260.3</v>
       </c>
       <c r="P69" t="s">
         <v>415</v>
@@ -6868,7 +6922,7 @@
         <v>419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D70" t="s">
         <v>420</v>
@@ -6878,31 +6932,27 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="n">
-        <v>478070</v>
+        <v>487290</v>
       </c>
       <c r="I70" t="n">
-        <v>64.785</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3430</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.465</v>
-      </c>
+        <v>66.034</v>
+      </c>
+      <c r="J70"/>
+      <c r="K70"/>
       <c r="L70" t="n">
-        <v>4314</v>
+        <v>3650</v>
       </c>
       <c r="M70" t="n">
-        <v>0.585</v>
+        <v>0.495</v>
       </c>
       <c r="N70" t="n">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="O70" t="n">
-        <v>20.2</v>
+        <v>19.4</v>
       </c>
       <c r="P70" t="s">
         <v>421</v>
@@ -7033,7 +7083,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -7043,15 +7093,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>4918</v>
+        <v>5039</v>
       </c>
       <c r="K73" t="n">
-        <v>0.707</v>
+        <v>0.724</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7078,7 +7128,7 @@
         <v>442</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="D74" t="s">
         <v>443</v>
@@ -7088,31 +7138,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H74" t="n">
-        <v>64259</v>
+        <v>64615</v>
       </c>
       <c r="I74" t="n">
-        <v>1679.798</v>
+        <v>1689.104</v>
       </c>
       <c r="J74" t="n">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="K74" t="n">
-        <v>2.693</v>
+        <v>4.287</v>
       </c>
       <c r="L74" t="n">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="M74" t="n">
-        <v>5.176</v>
+        <v>4.941</v>
       </c>
       <c r="N74" t="n">
-        <v>0.033</v>
+        <v>0.026</v>
       </c>
       <c r="O74" t="n">
-        <v>30.3</v>
+        <v>38.5</v>
       </c>
       <c r="P74" t="s">
         <v>444</v>
@@ -7135,7 +7185,7 @@
         <v>448</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44447</v>
+        <v>44452</v>
       </c>
       <c r="D75" t="s">
         <v>449</v>
@@ -7145,31 +7195,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="H75" t="n">
-        <v>4728834</v>
+        <v>4812417</v>
       </c>
       <c r="I75" t="n">
-        <v>1758.021</v>
+        <v>1789.094</v>
       </c>
       <c r="J75" t="n">
-        <v>15383</v>
+        <v>22720</v>
       </c>
       <c r="K75" t="n">
-        <v>5.719</v>
+        <v>8.447</v>
       </c>
       <c r="L75" t="n">
-        <v>13315</v>
+        <v>16061</v>
       </c>
       <c r="M75" t="n">
-        <v>4.95</v>
+        <v>5.971</v>
       </c>
       <c r="N75" t="n">
-        <v>0.063</v>
+        <v>0.061</v>
       </c>
       <c r="O75" t="n">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="P75" t="s">
         <v>450</v>
@@ -7192,7 +7242,7 @@
         <v>453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="D76" t="s">
         <v>454</v>
@@ -7202,31 +7252,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H76" t="n">
-        <v>3479349</v>
+        <v>3493106</v>
       </c>
       <c r="I76" t="n">
-        <v>5480.895</v>
+        <v>5502.566</v>
       </c>
       <c r="J76" t="n">
-        <v>7605</v>
+        <v>6400</v>
       </c>
       <c r="K76" t="n">
-        <v>11.98</v>
+        <v>10.082</v>
       </c>
       <c r="L76" t="n">
-        <v>4460</v>
+        <v>5294</v>
       </c>
       <c r="M76" t="n">
-        <v>7.026</v>
+        <v>8.339</v>
       </c>
       <c r="N76" t="n">
-        <v>0.018</v>
+        <v>0.015</v>
       </c>
       <c r="O76" t="n">
-        <v>56.5</v>
+        <v>68.5</v>
       </c>
       <c r="P76" t="s">
         <v>455</v>
@@ -7418,7 +7468,7 @@
         <v>477</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D80" t="s">
         <v>478</v>
@@ -7428,31 +7478,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H80" t="n">
-        <v>1444772</v>
+        <v>1460154</v>
       </c>
       <c r="I80" t="n">
-        <v>2657.687</v>
+        <v>2685.983</v>
       </c>
       <c r="J80" t="n">
-        <v>5317</v>
+        <v>5127</v>
       </c>
       <c r="K80" t="n">
-        <v>9.781</v>
+        <v>9.431</v>
       </c>
       <c r="L80" t="n">
-        <v>5228</v>
+        <v>5101</v>
       </c>
       <c r="M80" t="n">
-        <v>9.617</v>
+        <v>9.383</v>
       </c>
       <c r="N80" t="n">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="O80" t="n">
-        <v>43</v>
+        <v>46.2</v>
       </c>
       <c r="P80" t="s">
         <v>479</v>
@@ -7581,7 +7631,7 @@
         <v>495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44451</v>
+        <v>44454</v>
       </c>
       <c r="D83" t="s">
         <v>496</v>
@@ -7591,31 +7641,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="H83" t="n">
-        <v>9702480</v>
+        <v>9795982</v>
       </c>
       <c r="I83" t="n">
-        <v>74.484</v>
+        <v>75.202</v>
       </c>
       <c r="J83" t="n">
-        <v>2682</v>
+        <v>7450</v>
       </c>
       <c r="K83" t="n">
-        <v>0.021</v>
+        <v>0.057</v>
       </c>
       <c r="L83" t="n">
-        <v>21323</v>
+        <v>18285</v>
       </c>
       <c r="M83" t="n">
-        <v>0.164</v>
+        <v>0.14</v>
       </c>
       <c r="N83" t="n">
-        <v>0.368</v>
+        <v>0.358</v>
       </c>
       <c r="O83" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P83" t="s">
         <v>498</v>
@@ -7638,7 +7688,7 @@
         <v>501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D84" t="s">
         <v>502</v>
@@ -7648,27 +7698,27 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H84" t="n">
-        <v>1644052</v>
+        <v>1673626</v>
       </c>
       <c r="I84" t="n">
-        <v>408.559</v>
+        <v>415.908</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>5779</v>
+        <v>7725</v>
       </c>
       <c r="M84" t="n">
-        <v>1.436</v>
+        <v>1.92</v>
       </c>
       <c r="N84" t="n">
-        <v>0.12</v>
+        <v>0.113</v>
       </c>
       <c r="O84" t="n">
-        <v>8.3</v>
+        <v>8.9</v>
       </c>
       <c r="P84" t="s">
         <v>503</v>
@@ -7691,7 +7741,7 @@
         <v>506</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44453</v>
+        <v>44456</v>
       </c>
       <c r="D85" t="s">
         <v>507</v>
@@ -7701,21 +7751,25 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H85" t="n">
-        <v>3842463</v>
+        <v>4973007</v>
       </c>
       <c r="I85" t="n">
-        <v>1154.142</v>
-      </c>
-      <c r="J85"/>
-      <c r="K85"/>
+        <v>1493.718</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1106416</v>
+      </c>
+      <c r="K85" t="n">
+        <v>332.329</v>
+      </c>
       <c r="L85" t="n">
-        <v>9098</v>
+        <v>166705</v>
       </c>
       <c r="M85" t="n">
-        <v>2.733</v>
+        <v>50.072</v>
       </c>
       <c r="N85"/>
       <c r="O85"/>
@@ -7740,7 +7794,7 @@
         <v>510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D86" t="s">
         <v>511</v>
@@ -7750,31 +7804,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="H86" t="n">
-        <v>8459324</v>
+        <v>8533903</v>
       </c>
       <c r="I86" t="n">
-        <v>226.52</v>
+        <v>228.517</v>
       </c>
       <c r="J86" t="n">
-        <v>9962</v>
+        <v>23052</v>
       </c>
       <c r="K86" t="n">
-        <v>0.267</v>
+        <v>0.617</v>
       </c>
       <c r="L86" t="n">
-        <v>24010</v>
+        <v>22181</v>
       </c>
       <c r="M86" t="n">
-        <v>0.643</v>
+        <v>0.594</v>
       </c>
       <c r="N86" t="n">
-        <v>0.116</v>
+        <v>0.106</v>
       </c>
       <c r="O86" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="P86" t="s">
         <v>512</v>
@@ -7797,7 +7851,7 @@
         <v>516</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44442</v>
+        <v>44452</v>
       </c>
       <c r="D87" t="s">
         <v>517</v>
@@ -7807,31 +7861,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="H87" t="n">
-        <v>859547</v>
+        <v>878110</v>
       </c>
       <c r="I87" t="n">
-        <v>26.725</v>
+        <v>27.302</v>
       </c>
       <c r="J87" t="n">
-        <v>3241</v>
+        <v>705</v>
       </c>
       <c r="K87" t="n">
-        <v>0.101</v>
+        <v>0.022</v>
       </c>
       <c r="L87" t="n">
-        <v>2442</v>
+        <v>1844</v>
       </c>
       <c r="M87" t="n">
-        <v>0.076</v>
+        <v>0.057</v>
       </c>
       <c r="N87" t="n">
-        <v>0.131</v>
+        <v>0.093</v>
       </c>
       <c r="O87" t="n">
-        <v>7.7</v>
+        <v>10.7</v>
       </c>
       <c r="P87" t="s">
         <v>518</v>
@@ -7854,7 +7908,7 @@
         <v>522</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="D88" t="s">
         <v>523</v>
@@ -7864,28 +7918,28 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H88" t="n">
-        <v>3954600</v>
+        <v>4002846</v>
       </c>
       <c r="I88" t="n">
-        <v>72.156</v>
+        <v>73.037</v>
       </c>
       <c r="J88" t="n">
-        <v>21230</v>
+        <v>24822</v>
       </c>
       <c r="K88" t="n">
-        <v>0.387</v>
+        <v>0.453</v>
       </c>
       <c r="L88" t="n">
-        <v>24773</v>
+        <v>24501</v>
       </c>
       <c r="M88" t="n">
-        <v>0.452</v>
+        <v>0.447</v>
       </c>
       <c r="N88" t="n">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
       <c r="O88" t="n">
         <v>10.6</v>
@@ -7911,7 +7965,7 @@
         <v>528</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44451</v>
+        <v>44454</v>
       </c>
       <c r="D89" t="s">
         <v>529</v>
@@ -7921,31 +7975,27 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H89" t="n">
-        <v>678222</v>
+        <v>681868</v>
       </c>
       <c r="I89" t="n">
-        <v>262.131</v>
-      </c>
-      <c r="J89" t="n">
-        <v>996</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.385</v>
-      </c>
+        <v>263.54</v>
+      </c>
+      <c r="J89"/>
+      <c r="K89"/>
       <c r="L89" t="n">
-        <v>1364</v>
+        <v>1299</v>
       </c>
       <c r="M89" t="n">
-        <v>0.527</v>
+        <v>0.502</v>
       </c>
       <c r="N89" t="n">
-        <v>0.071</v>
+        <v>0.059</v>
       </c>
       <c r="O89" t="n">
-        <v>14</v>
+        <v>17.1</v>
       </c>
       <c r="P89" t="s">
         <v>531</v>
@@ -7968,7 +8018,7 @@
         <v>535</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D90" t="s">
         <v>536</v>
@@ -7978,31 +8028,31 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H90" t="n">
-        <v>4034593</v>
+        <v>4068591</v>
       </c>
       <c r="I90" t="n">
-        <v>135.96</v>
+        <v>137.105</v>
       </c>
       <c r="J90" t="n">
-        <v>12532</v>
+        <v>11208</v>
       </c>
       <c r="K90" t="n">
-        <v>0.422</v>
+        <v>0.378</v>
       </c>
       <c r="L90" t="n">
-        <v>9267</v>
+        <v>9871</v>
       </c>
       <c r="M90" t="n">
-        <v>0.312</v>
+        <v>0.333</v>
       </c>
       <c r="N90" t="n">
-        <v>0.116</v>
+        <v>0.107</v>
       </c>
       <c r="O90" t="n">
-        <v>8.6</v>
+        <v>9.3</v>
       </c>
       <c r="P90" t="s">
         <v>537</v>
@@ -8038,24 +8088,24 @@
         <v>78</v>
       </c>
       <c r="H91" t="n">
-        <v>12761678</v>
+        <v>12823298</v>
       </c>
       <c r="I91" t="n">
-        <v>743.12</v>
+        <v>746.709</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>12172</v>
+        <v>20975</v>
       </c>
       <c r="M91" t="n">
-        <v>0.709</v>
+        <v>1.221</v>
       </c>
       <c r="N91" t="n">
-        <v>0.076</v>
+        <v>0.085</v>
       </c>
       <c r="O91" t="n">
-        <v>13.2</v>
+        <v>11.8</v>
       </c>
       <c r="P91" t="s">
         <v>544</v>
@@ -8078,7 +8128,7 @@
         <v>548</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44453</v>
+        <v>44456</v>
       </c>
       <c r="D92" t="s">
         <v>549</v>
@@ -8088,25 +8138,25 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H92" t="n">
-        <v>3158224</v>
+        <v>3206325</v>
       </c>
       <c r="I92" t="n">
-        <v>649.754</v>
+        <v>659.651</v>
       </c>
       <c r="J92" t="n">
-        <v>9279</v>
+        <v>15418</v>
       </c>
       <c r="K92" t="n">
-        <v>1.909</v>
+        <v>3.172</v>
       </c>
       <c r="L92" t="n">
-        <v>12697</v>
+        <v>13177</v>
       </c>
       <c r="M92" t="n">
-        <v>2.612</v>
+        <v>2.711</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -8237,7 +8287,7 @@
         <v>564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="D95" t="s">
         <v>565</v>
@@ -8247,31 +8297,31 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H95" t="n">
-        <v>7491921</v>
+        <v>7537286</v>
       </c>
       <c r="I95" t="n">
-        <v>1370.734</v>
+        <v>1379.034</v>
       </c>
       <c r="J95" t="n">
-        <v>9555</v>
+        <v>24735</v>
       </c>
       <c r="K95" t="n">
-        <v>1.748</v>
+        <v>4.526</v>
       </c>
       <c r="L95" t="n">
-        <v>20884</v>
+        <v>22658</v>
       </c>
       <c r="M95" t="n">
-        <v>3.821</v>
+        <v>4.146</v>
       </c>
       <c r="N95" t="n">
-        <v>0.06</v>
+        <v>0.052</v>
       </c>
       <c r="O95" t="n">
-        <v>16.6</v>
+        <v>19.1</v>
       </c>
       <c r="P95" t="s">
         <v>566</v>
@@ -8339,7 +8389,7 @@
         <v>575</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44453</v>
+        <v>44456</v>
       </c>
       <c r="D97" t="s">
         <v>576</v>
@@ -8349,25 +8399,25 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H97" t="n">
-        <v>18568658</v>
+        <v>18740356</v>
       </c>
       <c r="I97" t="n">
-        <v>82.454</v>
+        <v>83.217</v>
       </c>
       <c r="J97" t="n">
-        <v>46930</v>
+        <v>57626</v>
       </c>
       <c r="K97" t="n">
-        <v>0.208</v>
+        <v>0.256</v>
       </c>
       <c r="L97" t="n">
-        <v>57984</v>
+        <v>56108</v>
       </c>
       <c r="M97" t="n">
-        <v>0.257</v>
+        <v>0.249</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8392,7 +8442,7 @@
         <v>580</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D98" t="s">
         <v>581</v>
@@ -8400,24 +8450,24 @@
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>11493</v>
+        <v>11228</v>
       </c>
       <c r="K98" t="n">
-        <v>2.201</v>
+        <v>2.15</v>
       </c>
       <c r="L98" t="n">
-        <v>10531</v>
+        <v>10163</v>
       </c>
       <c r="M98" t="n">
-        <v>2.016</v>
+        <v>1.946</v>
       </c>
       <c r="N98" t="n">
-        <v>0.212</v>
+        <v>0.215</v>
       </c>
       <c r="O98" t="n">
         <v>4.7</v>
@@ -8443,7 +8493,7 @@
         <v>586</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44451</v>
+        <v>44454</v>
       </c>
       <c r="D99" t="s">
         <v>587</v>
@@ -8453,31 +8503,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H99" t="n">
-        <v>3752298</v>
+        <v>3772110</v>
       </c>
       <c r="I99" t="n">
-        <v>856.38</v>
+        <v>860.901</v>
       </c>
       <c r="J99" t="n">
-        <v>5046</v>
+        <v>8191</v>
       </c>
       <c r="K99" t="n">
-        <v>1.152</v>
+        <v>1.869</v>
       </c>
       <c r="L99" t="n">
-        <v>6702</v>
+        <v>6761</v>
       </c>
       <c r="M99" t="n">
-        <v>1.53</v>
+        <v>1.543</v>
       </c>
       <c r="N99" t="n">
-        <v>0.046</v>
+        <v>0.048</v>
       </c>
       <c r="O99" t="n">
-        <v>21.7</v>
+        <v>21</v>
       </c>
       <c r="P99" t="s">
         <v>588</v>
@@ -8553,7 +8603,7 @@
         <v>597</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44451</v>
+        <v>44455</v>
       </c>
       <c r="D101" t="s">
         <v>598</v>
@@ -8563,31 +8613,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H101" t="n">
-        <v>1800608</v>
+        <v>1809486</v>
       </c>
       <c r="I101" t="n">
-        <v>249.404</v>
+        <v>250.634</v>
       </c>
       <c r="J101" t="n">
-        <v>2166</v>
+        <v>2232</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3</v>
+        <v>0.309</v>
       </c>
       <c r="L101" t="n">
-        <v>2246</v>
+        <v>2220</v>
       </c>
       <c r="M101" t="n">
-        <v>0.311</v>
+        <v>0.307</v>
       </c>
       <c r="N101" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="O101" t="n">
-        <v>42.1</v>
+        <v>39.7</v>
       </c>
       <c r="P101" t="s">
         <v>599</v>
@@ -8667,7 +8717,7 @@
         <v>608</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44446</v>
+        <v>44454</v>
       </c>
       <c r="D103" t="s">
         <v>609</v>
@@ -8677,31 +8727,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="H103" t="n">
-        <v>18230377</v>
+        <v>18837782</v>
       </c>
       <c r="I103" t="n">
-        <v>164.168</v>
+        <v>169.638</v>
       </c>
       <c r="J103" t="n">
-        <v>74654</v>
+        <v>69289</v>
       </c>
       <c r="K103" t="n">
-        <v>0.672</v>
+        <v>0.624</v>
       </c>
       <c r="L103" t="n">
-        <v>74327</v>
+        <v>71702</v>
       </c>
       <c r="M103" t="n">
-        <v>0.669</v>
+        <v>0.646</v>
       </c>
       <c r="N103" t="n">
-        <v>0.253</v>
+        <v>0.297</v>
       </c>
       <c r="O103" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P103" t="s">
         <v>315</v>
@@ -8724,7 +8774,7 @@
         <v>614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D104" t="s">
         <v>615</v>
@@ -8734,31 +8784,31 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H104" t="n">
-        <v>19833034</v>
+        <v>19961353</v>
       </c>
       <c r="I104" t="n">
-        <v>524.725</v>
+        <v>528.12</v>
       </c>
       <c r="J104" t="n">
-        <v>22343</v>
+        <v>40596</v>
       </c>
       <c r="K104" t="n">
-        <v>0.591</v>
+        <v>1.074</v>
       </c>
       <c r="L104" t="n">
-        <v>36385</v>
+        <v>37441</v>
       </c>
       <c r="M104" t="n">
-        <v>0.963</v>
+        <v>0.991</v>
       </c>
       <c r="N104" t="n">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="O104" t="n">
-        <v>78.3</v>
+        <v>68.4</v>
       </c>
       <c r="P104" t="s">
         <v>616</v>
@@ -8781,7 +8831,7 @@
         <v>619</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44451</v>
+        <v>44454</v>
       </c>
       <c r="D105" t="s">
         <v>615</v>
@@ -8791,31 +8841,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H105" t="n">
-        <v>20244202</v>
+        <v>20373472</v>
       </c>
       <c r="I105" t="n">
-        <v>535.603</v>
+        <v>539.024</v>
       </c>
       <c r="J105" t="n">
-        <v>22440</v>
+        <v>40873</v>
       </c>
       <c r="K105" t="n">
-        <v>0.594</v>
+        <v>1.081</v>
       </c>
       <c r="L105" t="n">
-        <v>36653</v>
+        <v>37700</v>
       </c>
       <c r="M105" t="n">
-        <v>0.97</v>
+        <v>0.997</v>
       </c>
       <c r="N105" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="O105" t="n">
-        <v>81.1</v>
+        <v>72.9</v>
       </c>
       <c r="P105" t="s">
         <v>616</v>
@@ -8838,7 +8888,7 @@
         <v>621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44450</v>
+        <v>44454</v>
       </c>
       <c r="D106" t="s">
         <v>622</v>
@@ -8848,31 +8898,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H106" t="n">
-        <v>17597594</v>
+        <v>17806549</v>
       </c>
       <c r="I106" t="n">
-        <v>1730.697</v>
+        <v>1751.247</v>
       </c>
       <c r="J106" t="n">
-        <v>40887</v>
+        <v>61620</v>
       </c>
       <c r="K106" t="n">
-        <v>4.021</v>
+        <v>6.06</v>
       </c>
       <c r="L106" t="n">
-        <v>48264</v>
+        <v>54623</v>
       </c>
       <c r="M106" t="n">
-        <v>4.747</v>
+        <v>5.372</v>
       </c>
       <c r="N106" t="n">
-        <v>0.026</v>
+        <v>0.02</v>
       </c>
       <c r="O106" t="n">
-        <v>38.3</v>
+        <v>50.1</v>
       </c>
       <c r="P106" t="s">
         <v>623</v>
@@ -8895,7 +8945,7 @@
         <v>626</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="D107" t="s">
         <v>627</v>
@@ -8905,28 +8955,32 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H107" t="n">
-        <v>2578844</v>
+        <v>2584515</v>
       </c>
       <c r="I107" t="n">
-        <v>879.994</v>
+        <v>881.929</v>
       </c>
       <c r="J107" t="n">
-        <v>5332</v>
+        <v>5671</v>
       </c>
       <c r="K107" t="n">
-        <v>1.819</v>
+        <v>1.935</v>
       </c>
       <c r="L107" t="n">
-        <v>5135</v>
+        <v>5246</v>
       </c>
       <c r="M107" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="N107"/>
-      <c r="O107"/>
+        <v>1.79</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="O107" t="n">
+        <v>38.2</v>
+      </c>
       <c r="P107" t="s">
         <v>629</v>
       </c>
@@ -8948,7 +9002,7 @@
         <v>632</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44453</v>
+        <v>44456</v>
       </c>
       <c r="D108" t="s">
         <v>633</v>
@@ -8958,21 +9012,21 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H108" t="n">
-        <v>9296903</v>
+        <v>9335522</v>
       </c>
       <c r="I108" t="n">
-        <v>486.042</v>
+        <v>488.061</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108" t="n">
-        <v>14097</v>
+        <v>13557</v>
       </c>
       <c r="M108" t="n">
-        <v>0.737</v>
+        <v>0.709</v>
       </c>
       <c r="N108"/>
       <c r="O108"/>
@@ -8997,7 +9051,7 @@
         <v>639</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D109" t="s">
         <v>640</v>
@@ -9007,27 +9061,27 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H109" t="n">
-        <v>184315467</v>
+        <v>185649676</v>
       </c>
       <c r="I109" t="n">
-        <v>1263.196</v>
+        <v>1272.34</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>395132</v>
+        <v>420297</v>
       </c>
       <c r="M109" t="n">
-        <v>2.708</v>
+        <v>2.88</v>
       </c>
       <c r="N109" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="O109" t="n">
-        <v>22.1</v>
+        <v>23</v>
       </c>
       <c r="P109" t="s">
         <v>641</v>
@@ -9050,7 +9104,7 @@
         <v>645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44453</v>
+        <v>44456</v>
       </c>
       <c r="D110" t="s">
         <v>646</v>
@@ -9060,25 +9114,25 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H110" t="n">
-        <v>2603889</v>
+        <v>2644414</v>
       </c>
       <c r="I110" t="n">
-        <v>196.127</v>
+        <v>199.18</v>
       </c>
       <c r="J110" t="n">
-        <v>10027</v>
+        <v>14495</v>
       </c>
       <c r="K110" t="n">
-        <v>0.755</v>
+        <v>1.092</v>
       </c>
       <c r="L110" t="n">
-        <v>11623</v>
+        <v>12229</v>
       </c>
       <c r="M110" t="n">
-        <v>0.875</v>
+        <v>0.921</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
@@ -9103,7 +9157,7 @@
         <v>651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44453</v>
+        <v>44456</v>
       </c>
       <c r="D111" t="s">
         <v>652</v>
@@ -9113,25 +9167,25 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H111" t="n">
-        <v>34861</v>
+        <v>35529</v>
       </c>
       <c r="I111" t="n">
-        <v>651.048</v>
+        <v>663.523</v>
       </c>
       <c r="J111" t="n">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="K111" t="n">
-        <v>2.409</v>
+        <v>4.8</v>
       </c>
       <c r="L111" t="n">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="M111" t="n">
-        <v>6.219</v>
+        <v>5.21</v>
       </c>
       <c r="N111"/>
       <c r="O111"/>
@@ -9156,7 +9210,7 @@
         <v>656</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="D112" t="s">
         <v>657</v>
@@ -9166,31 +9220,31 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H112" t="n">
-        <v>28148578</v>
+        <v>28248324</v>
       </c>
       <c r="I112" t="n">
-        <v>796.492</v>
+        <v>799.315</v>
       </c>
       <c r="J112" t="n">
-        <v>51681</v>
+        <v>49548</v>
       </c>
       <c r="K112" t="n">
-        <v>1.462</v>
+        <v>1.402</v>
       </c>
       <c r="L112" t="n">
-        <v>47516</v>
+        <v>47578</v>
       </c>
       <c r="M112" t="n">
-        <v>1.345</v>
+        <v>1.346</v>
       </c>
       <c r="N112" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="O112" t="n">
-        <v>567.6</v>
+        <v>1027.9</v>
       </c>
       <c r="P112" t="s">
         <v>36</v>
@@ -9213,7 +9267,7 @@
         <v>660</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="D113" t="s">
         <v>661</v>
@@ -9223,28 +9277,32 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H113" t="n">
-        <v>782770</v>
+        <v>787408</v>
       </c>
       <c r="I113" t="n">
-        <v>45.52</v>
+        <v>45.789</v>
       </c>
       <c r="J113" t="n">
-        <v>1443</v>
+        <v>2564</v>
       </c>
       <c r="K113" t="n">
-        <v>0.084</v>
+        <v>0.149</v>
       </c>
       <c r="L113" t="n">
-        <v>2091</v>
+        <v>2150</v>
       </c>
       <c r="M113" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="N113"/>
-      <c r="O113"/>
+        <v>0.125</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O113" t="n">
+        <v>72</v>
+      </c>
       <c r="P113" t="s">
         <v>662</v>
       </c>
@@ -9266,7 +9324,7 @@
         <v>665</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="D114" t="s">
         <v>666</v>
@@ -9278,28 +9336,32 @@
         <v>667</v>
       </c>
       <c r="G114" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H114" t="n">
-        <v>5290374</v>
+        <v>5342565</v>
       </c>
       <c r="I114" t="n">
-        <v>777.471</v>
+        <v>785.141</v>
       </c>
       <c r="J114" t="n">
-        <v>27927</v>
+        <v>26183</v>
       </c>
       <c r="K114" t="n">
-        <v>4.104</v>
+        <v>3.848</v>
       </c>
       <c r="L114" t="n">
-        <v>21749</v>
+        <v>22864</v>
       </c>
       <c r="M114" t="n">
-        <v>3.196</v>
-      </c>
-      <c r="N114"/>
-      <c r="O114"/>
+        <v>3.36</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="O114" t="n">
+        <v>3.5</v>
+      </c>
       <c r="P114" t="s">
         <v>36</v>
       </c>
@@ -9374,7 +9436,7 @@
         <v>676</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="D116" t="s">
         <v>677</v>
@@ -9384,31 +9446,31 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H116" t="n">
-        <v>41388452</v>
+        <v>41455749</v>
       </c>
       <c r="I116" t="n">
-        <v>7579.295</v>
+        <v>7591.619</v>
       </c>
       <c r="J116" t="n">
-        <v>8316</v>
+        <v>27933</v>
       </c>
       <c r="K116" t="n">
-        <v>1.523</v>
+        <v>5.115</v>
       </c>
       <c r="L116" t="n">
-        <v>24599</v>
+        <v>26970</v>
       </c>
       <c r="M116" t="n">
-        <v>4.505</v>
+        <v>4.939</v>
       </c>
       <c r="N116" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="O116" t="n">
-        <v>47.6</v>
+        <v>43.5</v>
       </c>
       <c r="P116" t="s">
         <v>36</v>
@@ -9431,7 +9493,7 @@
         <v>680</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D117" t="s">
         <v>681</v>
@@ -9441,31 +9503,31 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H117" t="n">
-        <v>1499463</v>
+        <v>1519459</v>
       </c>
       <c r="I117" t="n">
-        <v>721.339</v>
+        <v>730.958</v>
       </c>
       <c r="J117" t="n">
-        <v>5665</v>
+        <v>6528</v>
       </c>
       <c r="K117" t="n">
-        <v>2.725</v>
+        <v>3.14</v>
       </c>
       <c r="L117" t="n">
-        <v>4400</v>
+        <v>5074</v>
       </c>
       <c r="M117" t="n">
-        <v>2.117</v>
+        <v>2.441</v>
       </c>
       <c r="N117" t="n">
-        <v>0.209</v>
+        <v>0.201</v>
       </c>
       <c r="O117" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="P117" t="s">
         <v>682</v>
@@ -9488,7 +9550,7 @@
         <v>685</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44451</v>
+        <v>44455</v>
       </c>
       <c r="D118" t="s">
         <v>686</v>
@@ -9498,31 +9560,31 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H118" t="n">
-        <v>17073236</v>
+        <v>17236691</v>
       </c>
       <c r="I118" t="n">
-        <v>284.355</v>
+        <v>287.077</v>
       </c>
       <c r="J118" t="n">
-        <v>35965</v>
+        <v>45342</v>
       </c>
       <c r="K118" t="n">
-        <v>0.599</v>
+        <v>0.755</v>
       </c>
       <c r="L118" t="n">
-        <v>46218</v>
+        <v>43746</v>
       </c>
       <c r="M118" t="n">
-        <v>0.77</v>
+        <v>0.729</v>
       </c>
       <c r="N118" t="n">
-        <v>0.118</v>
+        <v>0.099</v>
       </c>
       <c r="O118" t="n">
-        <v>8.5</v>
+        <v>10.1</v>
       </c>
       <c r="P118" t="s">
         <v>687</v>
@@ -9545,7 +9607,7 @@
         <v>691</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44453</v>
+        <v>44456</v>
       </c>
       <c r="D119" t="s">
         <v>692</v>
@@ -9555,25 +9617,25 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H119" t="n">
-        <v>12875829</v>
+        <v>13017726</v>
       </c>
       <c r="I119" t="n">
-        <v>250.965</v>
+        <v>253.731</v>
       </c>
       <c r="J119" t="n">
-        <v>65825</v>
+        <v>47324</v>
       </c>
       <c r="K119" t="n">
-        <v>1.283</v>
+        <v>0.922</v>
       </c>
       <c r="L119" t="n">
-        <v>42057</v>
+        <v>41620</v>
       </c>
       <c r="M119" t="n">
-        <v>0.82</v>
+        <v>0.811</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9704,7 +9766,7 @@
         <v>708</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="D122" t="s">
         <v>709</v>
@@ -9714,28 +9776,32 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H122" t="n">
-        <v>5143269</v>
+        <v>5163974</v>
       </c>
       <c r="I122" t="n">
-        <v>239.252</v>
+        <v>240.215</v>
       </c>
       <c r="J122" t="n">
-        <v>9957</v>
+        <v>9672</v>
       </c>
       <c r="K122" t="n">
-        <v>0.463</v>
+        <v>0.45</v>
       </c>
       <c r="L122" t="n">
-        <v>11216</v>
+        <v>10899</v>
       </c>
       <c r="M122" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="N122"/>
-      <c r="O122"/>
+        <v>0.507</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="O122" t="n">
+        <v>3.6</v>
+      </c>
       <c r="P122" t="s">
         <v>710</v>
       </c>
@@ -9757,7 +9823,7 @@
         <v>713</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44444</v>
+        <v>44451</v>
       </c>
       <c r="D123" t="s">
         <v>714</v>
@@ -9767,27 +9833,27 @@
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="n">
-        <v>33806</v>
+        <v>37493</v>
       </c>
       <c r="K123" t="n">
-        <v>3.327</v>
+        <v>3.69</v>
       </c>
       <c r="L123" t="n">
-        <v>33806</v>
+        <v>37493</v>
       </c>
       <c r="M123" t="n">
-        <v>3.327</v>
+        <v>3.69</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="O123" t="n">
-        <v>33.3</v>
+        <v>35</v>
       </c>
       <c r="P123" t="s">
         <v>716</v>
@@ -9810,7 +9876,7 @@
         <v>720</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="D124" t="s">
         <v>443</v>
@@ -9820,31 +9886,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H124" t="n">
-        <v>9801915</v>
+        <v>9882439</v>
       </c>
       <c r="I124" t="n">
-        <v>1124.654</v>
+        <v>1133.893</v>
       </c>
       <c r="J124" t="n">
-        <v>29053</v>
+        <v>32826</v>
       </c>
       <c r="K124" t="n">
-        <v>3.333</v>
+        <v>3.766</v>
       </c>
       <c r="L124" t="n">
-        <v>32817</v>
+        <v>34348</v>
       </c>
       <c r="M124" t="n">
-        <v>3.765</v>
+        <v>3.941</v>
       </c>
       <c r="N124" t="n">
-        <v>0.083</v>
+        <v>0.073</v>
       </c>
       <c r="O124" t="n">
-        <v>12</v>
+        <v>13.7</v>
       </c>
       <c r="P124" t="s">
         <v>444</v>
@@ -9867,7 +9933,7 @@
         <v>723</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="D125" t="s">
         <v>724</v>
@@ -9877,31 +9943,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H125" t="n">
-        <v>3028468</v>
+        <v>3092342</v>
       </c>
       <c r="I125" t="n">
-        <v>126.953</v>
+        <v>129.631</v>
       </c>
       <c r="J125" t="n">
-        <v>18473</v>
+        <v>24536</v>
       </c>
       <c r="K125" t="n">
-        <v>0.774</v>
+        <v>1.029</v>
       </c>
       <c r="L125" t="n">
-        <v>23395</v>
+        <v>23858</v>
       </c>
       <c r="M125" t="n">
-        <v>0.981</v>
+        <v>1</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>2823.4</v>
+        <v>3553.5</v>
       </c>
       <c r="P125" t="s">
         <v>725</v>
@@ -10034,7 +10100,7 @@
         <v>739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
@@ -10044,31 +10110,31 @@
         <v>741</v>
       </c>
       <c r="G128" t="n">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H128" t="n">
-        <v>487766</v>
+        <v>491349</v>
       </c>
       <c r="I128" t="n">
-        <v>57.532</v>
+        <v>57.954</v>
       </c>
       <c r="J128" t="n">
-        <v>869</v>
+        <v>1836</v>
       </c>
       <c r="K128" t="n">
-        <v>0.102</v>
+        <v>0.217</v>
       </c>
       <c r="L128" t="n">
-        <v>1834</v>
+        <v>1759</v>
       </c>
       <c r="M128" t="n">
-        <v>0.216</v>
+        <v>0.207</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09</v>
+        <v>0.087</v>
       </c>
       <c r="O128" t="n">
-        <v>11.1</v>
+        <v>11.5</v>
       </c>
       <c r="P128" t="s">
         <v>740</v>
@@ -10091,7 +10157,7 @@
         <v>746</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44448</v>
+        <v>44454</v>
       </c>
       <c r="D129" t="s">
         <v>747</v>
@@ -10101,31 +10167,31 @@
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="H129" t="n">
-        <v>323157</v>
+        <v>331651</v>
       </c>
       <c r="I129" t="n">
-        <v>230.271</v>
+        <v>236.324</v>
       </c>
       <c r="J129" t="n">
-        <v>1055</v>
+        <v>5319</v>
       </c>
       <c r="K129" t="n">
-        <v>0.752</v>
+        <v>3.79</v>
       </c>
       <c r="L129" t="n">
-        <v>1431</v>
+        <v>1364</v>
       </c>
       <c r="M129" t="n">
-        <v>1.02</v>
+        <v>0.972</v>
       </c>
       <c r="N129" t="n">
-        <v>0.149</v>
+        <v>0.143</v>
       </c>
       <c r="O129" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="P129" t="s">
         <v>36</v>
@@ -10148,7 +10214,7 @@
         <v>751</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D130" t="s">
         <v>752</v>
@@ -10158,31 +10224,31 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H130" t="n">
-        <v>2812338</v>
+        <v>2830291</v>
       </c>
       <c r="I130" t="n">
-        <v>235.623</v>
+        <v>237.127</v>
       </c>
       <c r="J130" t="n">
-        <v>74333</v>
+        <v>9547</v>
       </c>
       <c r="K130" t="n">
-        <v>6.228</v>
+        <v>0.8</v>
       </c>
       <c r="L130" t="n">
-        <v>21746</v>
+        <v>17362</v>
       </c>
       <c r="M130" t="n">
-        <v>1.822</v>
+        <v>1.455</v>
       </c>
       <c r="N130" t="n">
-        <v>0.07</v>
+        <v>0.143</v>
       </c>
       <c r="O130" t="n">
-        <v>14.3</v>
+        <v>7</v>
       </c>
       <c r="P130" t="s">
         <v>754</v>
@@ -10205,7 +10271,7 @@
         <v>758</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D131" t="s">
         <v>759</v>
@@ -10215,31 +10281,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H131" t="n">
-        <v>80363864</v>
+        <v>81382545</v>
       </c>
       <c r="I131" t="n">
-        <v>944.982</v>
+        <v>956.961</v>
       </c>
       <c r="J131" t="n">
-        <v>319110</v>
+        <v>343142</v>
       </c>
       <c r="K131" t="n">
-        <v>3.752</v>
+        <v>4.035</v>
       </c>
       <c r="L131" t="n">
-        <v>312947</v>
+        <v>325888</v>
       </c>
       <c r="M131" t="n">
-        <v>3.68</v>
+        <v>3.832</v>
       </c>
       <c r="N131" t="n">
-        <v>0.075</v>
+        <v>0.077</v>
       </c>
       <c r="O131" t="n">
-        <v>13.4</v>
+        <v>12.9</v>
       </c>
       <c r="P131" t="s">
         <v>760</v>
@@ -10262,7 +10328,7 @@
         <v>764</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44450</v>
+        <v>44453</v>
       </c>
       <c r="D132" t="s">
         <v>765</v>
@@ -10272,31 +10338,31 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H132" t="n">
-        <v>1626546</v>
+        <v>1635630</v>
       </c>
       <c r="I132" t="n">
-        <v>34.517</v>
+        <v>34.709</v>
       </c>
       <c r="J132" t="n">
-        <v>4051</v>
+        <v>3374</v>
       </c>
       <c r="K132" t="n">
-        <v>0.086</v>
+        <v>0.072</v>
       </c>
       <c r="L132" t="n">
-        <v>3747</v>
+        <v>3643</v>
       </c>
       <c r="M132" t="n">
-        <v>0.08</v>
+        <v>0.077</v>
       </c>
       <c r="N132" t="n">
-        <v>0.032</v>
+        <v>0.035</v>
       </c>
       <c r="O132" t="n">
-        <v>31.6</v>
+        <v>28.2</v>
       </c>
       <c r="P132" t="s">
         <v>766</v>
@@ -10319,7 +10385,7 @@
         <v>770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44453</v>
+        <v>44456</v>
       </c>
       <c r="D133" t="s">
         <v>771</v>
@@ -10329,25 +10395,25 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H133" t="n">
-        <v>12309029</v>
+        <v>12412498</v>
       </c>
       <c r="I133" t="n">
-        <v>283.182</v>
+        <v>285.563</v>
       </c>
       <c r="J133" t="n">
-        <v>29281</v>
+        <v>35171</v>
       </c>
       <c r="K133" t="n">
-        <v>0.674</v>
+        <v>0.809</v>
       </c>
       <c r="L133" t="n">
-        <v>25406</v>
+        <v>27924</v>
       </c>
       <c r="M133" t="n">
-        <v>0.584</v>
+        <v>0.642</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
@@ -10372,7 +10438,7 @@
         <v>776</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44441</v>
+        <v>44455</v>
       </c>
       <c r="D134" t="s">
         <v>777</v>
@@ -10382,31 +10448,31 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="H134" t="n">
-        <v>75286170</v>
+        <v>79589959</v>
       </c>
       <c r="I134" t="n">
-        <v>7535.336</v>
+        <v>7966.099</v>
       </c>
       <c r="J134" t="n">
-        <v>250240</v>
+        <v>275823</v>
       </c>
       <c r="K134" t="n">
-        <v>25.046</v>
+        <v>27.607</v>
       </c>
       <c r="L134" t="n">
-        <v>302762</v>
+        <v>313989</v>
       </c>
       <c r="M134" t="n">
-        <v>30.303</v>
+        <v>31.427</v>
       </c>
       <c r="N134" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="O134" t="n">
-        <v>305.9</v>
+        <v>487.3</v>
       </c>
       <c r="P134" t="s">
         <v>778</v>
@@ -10429,7 +10495,7 @@
         <v>781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44452</v>
+        <v>44454</v>
       </c>
       <c r="D135" t="s">
         <v>782</v>
@@ -10441,31 +10507,31 @@
         <v>784</v>
       </c>
       <c r="G135" t="n">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H135" t="n">
-        <v>257937152</v>
+        <v>259880899</v>
       </c>
       <c r="I135" t="n">
-        <v>3781.675</v>
+        <v>3810.173</v>
       </c>
       <c r="J135" t="n">
-        <v>1028298</v>
+        <v>1063453</v>
       </c>
       <c r="K135" t="n">
-        <v>15.076</v>
+        <v>15.592</v>
       </c>
       <c r="L135" t="n">
-        <v>1075459</v>
+        <v>1012527</v>
       </c>
       <c r="M135" t="n">
-        <v>15.768</v>
+        <v>14.845</v>
       </c>
       <c r="N135" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="O135" t="n">
-        <v>31.5</v>
+        <v>32.3</v>
       </c>
       <c r="P135" t="s">
         <v>785</v>
@@ -10488,7 +10554,7 @@
         <v>789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44449</v>
+        <v>44452</v>
       </c>
       <c r="D136" t="s">
         <v>790</v>
@@ -10498,31 +10564,31 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H136" t="n">
-        <v>547281120</v>
+        <v>551079079</v>
       </c>
       <c r="I136" t="n">
-        <v>1643.906</v>
+        <v>1655.314</v>
       </c>
       <c r="J136" t="n">
-        <v>915237</v>
+        <v>382262</v>
       </c>
       <c r="K136" t="n">
-        <v>2.749</v>
+        <v>1.148</v>
       </c>
       <c r="L136" t="n">
-        <v>1125088</v>
+        <v>1210978</v>
       </c>
       <c r="M136" t="n">
-        <v>3.38</v>
+        <v>3.637</v>
       </c>
       <c r="N136" t="n">
-        <v>0.129</v>
+        <v>0.142</v>
       </c>
       <c r="O136" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="P136" t="s">
         <v>791</v>
@@ -10545,7 +10611,7 @@
         <v>796</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44453</v>
+        <v>44455</v>
       </c>
       <c r="D137" t="s">
         <v>797</v>
@@ -10555,28 +10621,32 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H137" t="n">
-        <v>3452954</v>
+        <v>3472637</v>
       </c>
       <c r="I137" t="n">
-        <v>990.761</v>
+        <v>996.409</v>
       </c>
       <c r="J137" t="n">
-        <v>6923</v>
+        <v>10352</v>
       </c>
       <c r="K137" t="n">
-        <v>1.986</v>
+        <v>2.97</v>
       </c>
       <c r="L137" t="n">
-        <v>8441</v>
+        <v>8302</v>
       </c>
       <c r="M137" t="n">
-        <v>2.422</v>
-      </c>
-      <c r="N137"/>
-      <c r="O137"/>
+        <v>2.382</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="O137" t="n">
+        <v>55.8</v>
+      </c>
       <c r="P137" t="s">
         <v>191</v>
       </c>
@@ -10598,7 +10668,7 @@
         <v>801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44449</v>
+        <v>44453</v>
       </c>
       <c r="D138" t="s">
         <v>802</v>
@@ -10608,31 +10678,31 @@
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H138" t="n">
-        <v>17344175</v>
+        <v>18407857</v>
       </c>
       <c r="I138" t="n">
-        <v>176.677</v>
+        <v>187.512</v>
       </c>
       <c r="J138" t="n">
-        <v>219310</v>
+        <v>209988</v>
       </c>
       <c r="K138" t="n">
-        <v>2.234</v>
+        <v>2.139</v>
       </c>
       <c r="L138" t="n">
-        <v>182997</v>
+        <v>259000</v>
       </c>
       <c r="M138" t="n">
-        <v>1.864</v>
+        <v>2.638</v>
       </c>
       <c r="N138" t="n">
-        <v>0.069</v>
+        <v>0.046</v>
       </c>
       <c r="O138" t="n">
-        <v>14.6</v>
+        <v>21.6</v>
       </c>
       <c r="P138" t="s">
         <v>804</v>
@@ -10655,7 +10725,7 @@
         <v>808</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D139" t="s">
         <v>809</v>
@@ -10665,31 +10735,31 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H139" t="n">
-        <v>2355773</v>
+        <v>2375797</v>
       </c>
       <c r="I139" t="n">
-        <v>124.508</v>
+        <v>125.566</v>
       </c>
       <c r="J139" t="n">
-        <v>3231</v>
+        <v>6888</v>
       </c>
       <c r="K139" t="n">
-        <v>0.171</v>
+        <v>0.364</v>
       </c>
       <c r="L139" t="n">
-        <v>6151</v>
+        <v>6122</v>
       </c>
       <c r="M139" t="n">
-        <v>0.325</v>
+        <v>0.324</v>
       </c>
       <c r="N139" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="O139" t="n">
-        <v>54.3</v>
+        <v>60.6</v>
       </c>
       <c r="P139" t="s">
         <v>811</v>
@@ -10712,7 +10782,7 @@
         <v>814</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44451</v>
+        <v>44454</v>
       </c>
       <c r="D140" t="s">
         <v>815</v>
@@ -10722,31 +10792,31 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H140" t="n">
-        <v>1184486</v>
+        <v>1200458</v>
       </c>
       <c r="I140" t="n">
-        <v>78.483</v>
+        <v>79.542</v>
       </c>
       <c r="J140" t="n">
-        <v>2035</v>
+        <v>6482</v>
       </c>
       <c r="K140" t="n">
-        <v>0.135</v>
+        <v>0.429</v>
       </c>
       <c r="L140" t="n">
-        <v>3978</v>
+        <v>3899</v>
       </c>
       <c r="M140" t="n">
-        <v>0.264</v>
+        <v>0.258</v>
       </c>
       <c r="N140" t="n">
-        <v>0.026</v>
+        <v>0.042</v>
       </c>
       <c r="O140" t="n">
-        <v>38.7</v>
+        <v>23.7</v>
       </c>
       <c r="P140" t="s">
         <v>816</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4300</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4311</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-16-september-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-20-september-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -363,7 +363,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4530009573727290/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4543153269079587/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/6026-el-ministerio-de-salud-informa-que-se-inmunizo-hasta-hoy-a-6-347-661-personas-con-primeras-segundas-y-dosis-unica</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/6034-el-ministerio-de-salud-informa-que-se-inmunizo-hasta-hoy-a-6-388-703-personas-con-primeras-segundas-y-dosis-unica</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-15-de-setembro-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-19-de-setembro-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -601,7 +601,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/2001496403349377</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/2003840123115005</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -715,7 +715,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-16092021-ywne</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-20092021-9pm7</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -733,7 +733,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-admin/admin-ajax.php?juwpfisadmin=false&amp;action=wpfd&amp;task=file.download&amp;wpfd_category_id=59&amp;wpfd_file_id=13254</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-admin/admin-ajax.php?juwpfisadmin=false&amp;action=wpfd&amp;task=file.download&amp;wpfd_category_id=59&amp;wpfd_file_id=13262</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/09/INFOGRAFIA-MEDIOS-15_Septiembre_2021.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/09/INFOGRAFIA-MEDIOS-18_Septiembre_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">Gambia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/09/GMB-COVID-19-Situational-Report_2021_10th_12th_September_No-368.pdf</t>
+    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/09/GMB-COVID-19-Situational-Report_2021_16th_September_No-371.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, The Gambia</t>
@@ -951,7 +951,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/2674</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/2721</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/09/covid-gr-daily-report-20210916.pdf</t>
+    <t xml:space="preserve">https://covid19.gov.gr/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1168,7 +1168,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/370024</t>
+    <t xml:space="preserve">http://irangov.ir/detail/370306</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1188,7 +1188,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1438580605046951943</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1439937906626502657</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1291,7 +1291,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-september-15-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-september-19-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1438533309831827458</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1439982914461184000</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1609,7 +1609,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1438548250307403802</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1439635399228280836</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1438527674792570890</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1439982885780561924</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1761,7 +1761,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FSep_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(14-9-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FSep_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(17-9-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/photo/?fbid=148491350808540&amp;set=pcb.148491470808528</t>
+    <t xml:space="preserve">https://www.facebook.com/photo?fbid=151087520548923&amp;set=pcb.151087623882246</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1803,7 +1803,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1-EW_QKfAKo5GWidV3nxhwHTPeRFHeDgu</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/15VN03VqYSqm12BIQLeKxxflo7297fq2e</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1956,7 +1956,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4164854296973750</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4177361672389679</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1978,7 +1978,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1438273037095276550</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1439771278060163082</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1438625752447135747</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1439731130027192324</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2049,7 +2049,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1TpukIhUy3Amjhz2bBqvK6DlM3hxExJdq</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1MBs-EetqK5j4wPZJIlWVZ22cxwboKZa0</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2070,7 +2070,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1438423661850120198</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1439873213165670402</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2133,7 +2133,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_16_septembrie_2021,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/20-09_BULETIN_DE_PRESA_-_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=19010</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=19043</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2313,7 +2313,7 @@
     <t xml:space="preserve">South Africa - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://sacoronavirus.co.za/2021/09/16/update-on-covid-19-thursday-16-september/</t>
+    <t xml:space="preserve">https://sacoronavirus.co.za/2021/09/19/update-on-covid-19-sunday-19-september/</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Communicable Diseases (NICD)</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_09_09_2021.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_16_09_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-848/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-850/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2581,7 +2581,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1438424844685676544</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1439910435021545473</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2756,7 +2756,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1438234582760017921</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1439677854564880385</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3233,7 +3233,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44445</v>
+        <v>44452</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3243,27 +3243,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>210856</v>
+        <v>211883</v>
       </c>
       <c r="I3" t="n">
-        <v>2725.858</v>
+        <v>2739.134</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M3" t="n">
-        <v>1.991</v>
+        <v>1.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.034</v>
+        <v>0.026</v>
       </c>
       <c r="O3" t="n">
-        <v>29.1</v>
+        <v>38.1</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3331,7 +3331,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44450</v>
+        <v>44454</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3341,31 +3341,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H5" t="n">
-        <v>13699212</v>
+        <v>13804541</v>
       </c>
       <c r="I5" t="n">
-        <v>300.383</v>
+        <v>302.693</v>
       </c>
       <c r="J5" t="n">
-        <v>22861</v>
+        <v>28728</v>
       </c>
       <c r="K5" t="n">
-        <v>0.501</v>
+        <v>0.63</v>
       </c>
       <c r="L5" t="n">
-        <v>27663</v>
+        <v>25737</v>
       </c>
       <c r="M5" t="n">
-        <v>0.607</v>
+        <v>0.564</v>
       </c>
       <c r="N5" t="n">
-        <v>0.032</v>
+        <v>0.028</v>
       </c>
       <c r="O5" t="n">
-        <v>31.2</v>
+        <v>35.7</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3388,7 +3388,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3398,27 +3398,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H6" t="n">
-        <v>1633587</v>
+        <v>1655479</v>
       </c>
       <c r="I6" t="n">
-        <v>550.376</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
+        <v>557.752</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4025</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.356</v>
+      </c>
       <c r="L6" t="n">
-        <v>5541</v>
+        <v>5519</v>
       </c>
       <c r="M6" t="n">
-        <v>1.867</v>
+        <v>1.859</v>
       </c>
       <c r="N6" t="n">
-        <v>0.112</v>
+        <v>0.124</v>
       </c>
       <c r="O6" t="n">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3441,7 +3445,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3451,31 +3455,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H7" t="n">
-        <v>34911907</v>
+        <v>35829079</v>
       </c>
       <c r="I7" t="n">
-        <v>1353.793</v>
+        <v>1389.359</v>
       </c>
       <c r="J7" t="n">
-        <v>223818</v>
+        <v>204939</v>
       </c>
       <c r="K7" t="n">
-        <v>8.679</v>
+        <v>7.947</v>
       </c>
       <c r="L7" t="n">
-        <v>206264</v>
+        <v>221682</v>
       </c>
       <c r="M7" t="n">
-        <v>7.998</v>
+        <v>8.596</v>
       </c>
       <c r="N7" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="O7" t="n">
-        <v>117.5</v>
+        <v>131.4</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3498,7 +3502,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3508,31 +3512,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H8" t="n">
-        <v>81737713</v>
+        <v>83242754</v>
       </c>
       <c r="I8" t="n">
-        <v>9038.711</v>
+        <v>9205.141</v>
       </c>
       <c r="J8" t="n">
-        <v>353847</v>
+        <v>374322</v>
       </c>
       <c r="K8" t="n">
-        <v>39.129</v>
+        <v>41.393</v>
       </c>
       <c r="L8" t="n">
-        <v>346790</v>
+        <v>362845</v>
       </c>
       <c r="M8" t="n">
-        <v>38.349</v>
+        <v>40.124</v>
       </c>
       <c r="N8" t="n">
         <v>0.006</v>
       </c>
       <c r="O8" t="n">
-        <v>165.4</v>
+        <v>181.4</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3555,7 +3559,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3565,31 +3569,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H9" t="n">
-        <v>4702934</v>
+        <v>4751264</v>
       </c>
       <c r="I9" t="n">
-        <v>460.019</v>
+        <v>464.747</v>
       </c>
       <c r="J9" t="n">
-        <v>12852</v>
+        <v>7103</v>
       </c>
       <c r="K9" t="n">
-        <v>1.257</v>
+        <v>0.695</v>
       </c>
       <c r="L9" t="n">
-        <v>13480</v>
+        <v>12878</v>
       </c>
       <c r="M9" t="n">
-        <v>1.319</v>
+        <v>1.26</v>
       </c>
       <c r="N9" t="n">
-        <v>0.206</v>
+        <v>0.135</v>
       </c>
       <c r="O9" t="n">
-        <v>4.9</v>
+        <v>7.4</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3612,7 +3616,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3622,31 +3626,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H10" t="n">
-        <v>6219122</v>
+        <v>6283910</v>
       </c>
       <c r="I10" t="n">
-        <v>3557.25</v>
+        <v>3594.308</v>
       </c>
       <c r="J10" t="n">
-        <v>16656</v>
+        <v>15752</v>
       </c>
       <c r="K10" t="n">
-        <v>9.527</v>
+        <v>9.01</v>
       </c>
       <c r="L10" t="n">
-        <v>17460</v>
+        <v>16432</v>
       </c>
       <c r="M10" t="n">
-        <v>9.987</v>
+        <v>9.399</v>
       </c>
       <c r="N10" t="n">
         <v>0.005</v>
       </c>
       <c r="O10" t="n">
-        <v>208.2</v>
+        <v>209.9</v>
       </c>
       <c r="P10" t="s">
         <v>70</v>
@@ -3669,7 +3673,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3679,31 +3683,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H11" t="n">
-        <v>9339121</v>
+        <v>9437037</v>
       </c>
       <c r="I11" t="n">
-        <v>56.157</v>
+        <v>56.746</v>
       </c>
       <c r="J11" t="n">
-        <v>28615</v>
+        <v>27431</v>
       </c>
       <c r="K11" t="n">
-        <v>0.172</v>
+        <v>0.165</v>
       </c>
       <c r="L11" t="n">
-        <v>27976</v>
+        <v>26696</v>
       </c>
       <c r="M11" t="n">
-        <v>0.168</v>
+        <v>0.161</v>
       </c>
       <c r="N11" t="n">
-        <v>0.068</v>
+        <v>0.064</v>
       </c>
       <c r="O11" t="n">
-        <v>14.7</v>
+        <v>15.7</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3779,7 +3783,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3789,25 +3793,25 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="H13" t="n">
-        <v>19384396</v>
+        <v>19559262</v>
       </c>
       <c r="I13" t="n">
-        <v>1666.424</v>
+        <v>1681.456</v>
       </c>
       <c r="J13" t="n">
-        <v>53640</v>
+        <v>22043</v>
       </c>
       <c r="K13" t="n">
-        <v>4.611</v>
+        <v>1.895</v>
       </c>
       <c r="L13" t="n">
-        <v>46076</v>
+        <v>47104</v>
       </c>
       <c r="M13" t="n">
-        <v>3.961</v>
+        <v>4.049</v>
       </c>
       <c r="N13" t="n">
         <v>0.048</v>
@@ -3934,7 +3938,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -3944,30 +3948,32 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H16" t="n">
-        <v>1125970</v>
+        <v>1132065</v>
       </c>
       <c r="I16" t="n">
-        <v>1443.736</v>
+        <v>1451.551</v>
       </c>
       <c r="J16" t="n">
-        <v>1874</v>
+        <v>655</v>
       </c>
       <c r="K16" t="n">
-        <v>2.403</v>
+        <v>0.84</v>
       </c>
       <c r="L16" t="n">
-        <v>2192</v>
+        <v>1571</v>
       </c>
       <c r="M16" t="n">
-        <v>2.811</v>
+        <v>2.014</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
-      <c r="O16"/>
+      <c r="O16" t="n">
+        <v>10986</v>
+      </c>
       <c r="P16" t="s">
         <v>36</v>
       </c>
@@ -3989,7 +3995,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3999,31 +4005,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H17" t="n">
-        <v>2371896</v>
+        <v>2387128</v>
       </c>
       <c r="I17" t="n">
-        <v>200.449</v>
+        <v>201.736</v>
       </c>
       <c r="J17" t="n">
-        <v>6790</v>
+        <v>4317</v>
       </c>
       <c r="K17" t="n">
-        <v>0.574</v>
+        <v>0.365</v>
       </c>
       <c r="L17" t="n">
-        <v>5223</v>
+        <v>4945</v>
       </c>
       <c r="M17" t="n">
-        <v>0.441</v>
+        <v>0.418</v>
       </c>
       <c r="N17" t="n">
-        <v>0.069</v>
+        <v>0.066</v>
       </c>
       <c r="O17" t="n">
-        <v>14.5</v>
+        <v>15.1</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4046,7 +4052,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4056,31 +4062,27 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H18" t="n">
-        <v>1185467</v>
+        <v>1196043</v>
       </c>
       <c r="I18" t="n">
-        <v>363.255</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3222</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.987</v>
-      </c>
+        <v>366.495</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
       <c r="L18" t="n">
-        <v>2901</v>
+        <v>3054</v>
       </c>
       <c r="M18" t="n">
-        <v>0.889</v>
+        <v>0.936</v>
       </c>
       <c r="N18" t="n">
-        <v>0.249</v>
+        <v>0.253</v>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="P18" t="s">
         <v>118</v>
@@ -4148,7 +4150,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4158,27 +4160,27 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H20" t="n">
-        <v>4560069</v>
+        <v>4627161</v>
       </c>
       <c r="I20" t="n">
-        <v>661.2</v>
+        <v>670.928</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>20694</v>
+        <v>19206</v>
       </c>
       <c r="M20" t="n">
-        <v>3.001</v>
+        <v>2.785</v>
       </c>
       <c r="N20" t="n">
-        <v>0.073</v>
+        <v>0.084</v>
       </c>
       <c r="O20" t="n">
-        <v>13.7</v>
+        <v>11.9</v>
       </c>
       <c r="P20" t="s">
         <v>130</v>
@@ -4303,7 +4305,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D23" t="s">
         <v>140</v>
@@ -4313,31 +4315,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H23" t="n">
-        <v>41861477</v>
+        <v>42287266</v>
       </c>
       <c r="I23" t="n">
-        <v>1099.653</v>
+        <v>1110.838</v>
       </c>
       <c r="J23" t="n">
-        <v>108965</v>
+        <v>96459</v>
       </c>
       <c r="K23" t="n">
-        <v>2.862</v>
+        <v>2.534</v>
       </c>
       <c r="L23" t="n">
-        <v>90454</v>
+        <v>99130</v>
       </c>
       <c r="M23" t="n">
-        <v>2.376</v>
+        <v>2.604</v>
       </c>
       <c r="N23" t="n">
-        <v>0.048</v>
+        <v>0.044</v>
       </c>
       <c r="O23" t="n">
-        <v>20.6</v>
+        <v>22.5</v>
       </c>
       <c r="P23" t="s">
         <v>141</v>
@@ -4360,7 +4362,7 @@
         <v>147</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44453</v>
+        <v>44457</v>
       </c>
       <c r="D24" t="s">
         <v>148</v>
@@ -4370,15 +4372,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>1130</v>
+        <v>829</v>
       </c>
       <c r="K24" t="n">
-        <v>2.011</v>
+        <v>1.475</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4405,7 +4407,7 @@
         <v>153</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D25" t="s">
         <v>154</v>
@@ -4415,31 +4417,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H25" t="n">
-        <v>20840102</v>
+        <v>21012184</v>
       </c>
       <c r="I25" t="n">
-        <v>1084.724</v>
+        <v>1093.68</v>
       </c>
       <c r="J25" t="n">
-        <v>61697</v>
+        <v>22863</v>
       </c>
       <c r="K25" t="n">
-        <v>3.211</v>
+        <v>1.19</v>
       </c>
       <c r="L25" t="n">
-        <v>49265</v>
+        <v>42765</v>
       </c>
       <c r="M25" t="n">
-        <v>2.564</v>
+        <v>2.226</v>
       </c>
       <c r="N25" t="n">
-        <v>0.009</v>
+        <v>0.011</v>
       </c>
       <c r="O25" t="n">
-        <v>108.6</v>
+        <v>93.4</v>
       </c>
       <c r="P25" t="s">
         <v>156</v>
@@ -4507,7 +4509,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D27" t="s">
         <v>167</v>
@@ -4517,31 +4519,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="H27" t="n">
-        <v>24864554</v>
+        <v>25029645</v>
       </c>
       <c r="I27" t="n">
-        <v>485.012</v>
+        <v>488.232</v>
       </c>
       <c r="J27" t="n">
-        <v>55581</v>
+        <v>29488</v>
       </c>
       <c r="K27" t="n">
-        <v>1.084</v>
+        <v>0.575</v>
       </c>
       <c r="L27" t="n">
-        <v>45978</v>
+        <v>45158</v>
       </c>
       <c r="M27" t="n">
-        <v>0.897</v>
+        <v>0.881</v>
       </c>
       <c r="N27" t="n">
-        <v>0.046</v>
+        <v>0.043</v>
       </c>
       <c r="O27" t="n">
-        <v>21.7</v>
+        <v>23.3</v>
       </c>
       <c r="P27" t="s">
         <v>168</v>
@@ -4564,7 +4566,7 @@
         <v>172</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
@@ -4574,31 +4576,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H28" t="n">
-        <v>1794154</v>
+        <v>1812767</v>
       </c>
       <c r="I28" t="n">
-        <v>349.122</v>
+        <v>352.743</v>
       </c>
       <c r="J28" t="n">
-        <v>3678</v>
+        <v>7322</v>
       </c>
       <c r="K28" t="n">
-        <v>0.716</v>
+        <v>1.425</v>
       </c>
       <c r="L28" t="n">
-        <v>6832</v>
+        <v>7044</v>
       </c>
       <c r="M28" t="n">
-        <v>1.329</v>
+        <v>1.371</v>
       </c>
       <c r="N28" t="n">
-        <v>0.296</v>
+        <v>0.262</v>
       </c>
       <c r="O28" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P28" t="s">
         <v>174</v>
@@ -4621,7 +4623,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44455</v>
+        <v>44458</v>
       </c>
       <c r="D29" t="s">
         <v>178</v>
@@ -4631,31 +4633,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H29" t="n">
-        <v>964928</v>
+        <v>977401</v>
       </c>
       <c r="I29" t="n">
-        <v>35.667</v>
+        <v>36.128</v>
       </c>
       <c r="J29" t="n">
-        <v>3669</v>
+        <v>4558</v>
       </c>
       <c r="K29" t="n">
-        <v>0.136</v>
+        <v>0.168</v>
       </c>
       <c r="L29" t="n">
-        <v>3567</v>
+        <v>3499</v>
       </c>
       <c r="M29" t="n">
-        <v>0.132</v>
+        <v>0.129</v>
       </c>
       <c r="N29" t="n">
-        <v>0.044</v>
+        <v>0.041</v>
       </c>
       <c r="O29" t="n">
-        <v>22.6</v>
+        <v>24.2</v>
       </c>
       <c r="P29" t="s">
         <v>179</v>
@@ -4678,7 +4680,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44455</v>
+        <v>44458</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4688,31 +4690,31 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H30" t="n">
-        <v>2695369</v>
+        <v>2727130</v>
       </c>
       <c r="I30" t="n">
-        <v>660.361</v>
+        <v>668.143</v>
       </c>
       <c r="J30" t="n">
-        <v>10743</v>
+        <v>9621</v>
       </c>
       <c r="K30" t="n">
-        <v>2.632</v>
+        <v>2.357</v>
       </c>
       <c r="L30" t="n">
-        <v>9608</v>
+        <v>9736</v>
       </c>
       <c r="M30" t="n">
-        <v>2.354</v>
+        <v>2.385</v>
       </c>
       <c r="N30" t="n">
-        <v>0.109</v>
+        <v>0.118</v>
       </c>
       <c r="O30" t="n">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="P30" t="s">
         <v>185</v>
@@ -4794,7 +4796,7 @@
         <v>196</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D32" t="s">
         <v>197</v>
@@ -4804,31 +4806,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H32" t="n">
-        <v>12522182</v>
+        <v>12745004</v>
       </c>
       <c r="I32" t="n">
-        <v>14101.477</v>
+        <v>14352.401</v>
       </c>
       <c r="J32" t="n">
-        <v>51255</v>
+        <v>64474</v>
       </c>
       <c r="K32" t="n">
-        <v>57.719</v>
+        <v>72.605</v>
       </c>
       <c r="L32" t="n">
-        <v>57589</v>
+        <v>54037</v>
       </c>
       <c r="M32" t="n">
-        <v>64.852</v>
+        <v>60.852</v>
       </c>
       <c r="N32" t="n">
         <v>0.002</v>
       </c>
       <c r="O32" t="n">
-        <v>608</v>
+        <v>436.3</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4851,7 +4853,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D33" t="s">
         <v>201</v>
@@ -4861,21 +4863,21 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>76326</v>
+        <v>67010</v>
       </c>
       <c r="K33" t="n">
-        <v>7.117</v>
+        <v>6.248</v>
       </c>
       <c r="L33" t="n">
-        <v>65838</v>
+        <v>69431</v>
       </c>
       <c r="M33" t="n">
-        <v>6.139</v>
+        <v>6.474</v>
       </c>
       <c r="N33" t="n">
         <v>0.006</v>
@@ -4957,7 +4959,7 @@
         <v>210</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -4967,31 +4969,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H35" t="n">
-        <v>40601051</v>
+        <v>40743061</v>
       </c>
       <c r="I35" t="n">
-        <v>6984.163</v>
+        <v>7008.592</v>
       </c>
       <c r="J35" t="n">
-        <v>25726</v>
+        <v>20296</v>
       </c>
       <c r="K35" t="n">
-        <v>4.425</v>
+        <v>3.491</v>
       </c>
       <c r="L35" t="n">
-        <v>39588</v>
+        <v>36450</v>
       </c>
       <c r="M35" t="n">
-        <v>6.81</v>
+        <v>6.27</v>
       </c>
       <c r="N35" t="n">
-        <v>0.011</v>
+        <v>0.009</v>
       </c>
       <c r="O35" t="n">
-        <v>89.2</v>
+        <v>107.5</v>
       </c>
       <c r="P35" t="s">
         <v>212</v>
@@ -5014,7 +5016,7 @@
         <v>216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44454</v>
+        <v>44456</v>
       </c>
       <c r="D36" t="s">
         <v>217</v>
@@ -5024,27 +5026,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H36" t="n">
-        <v>2010899</v>
+        <v>2019733</v>
       </c>
       <c r="I36" t="n">
-        <v>183.581</v>
+        <v>184.388</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>3873</v>
+        <v>4061</v>
       </c>
       <c r="M36" t="n">
-        <v>0.354</v>
+        <v>0.371</v>
       </c>
       <c r="N36" t="n">
-        <v>0.073</v>
+        <v>0.069</v>
       </c>
       <c r="O36" t="n">
-        <v>13.8</v>
+        <v>14.5</v>
       </c>
       <c r="P36" t="s">
         <v>218</v>
@@ -5067,7 +5069,7 @@
         <v>222</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="D37" t="s">
         <v>223</v>
@@ -5079,31 +5081,31 @@
         <v>225</v>
       </c>
       <c r="G37" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H37" t="n">
-        <v>1710032</v>
+        <v>1716831</v>
       </c>
       <c r="I37" t="n">
-        <v>95.594</v>
+        <v>95.974</v>
       </c>
       <c r="J37" t="n">
-        <v>2884</v>
+        <v>2158</v>
       </c>
       <c r="K37" t="n">
-        <v>0.161</v>
+        <v>0.121</v>
       </c>
       <c r="L37" t="n">
-        <v>1812</v>
+        <v>2227</v>
       </c>
       <c r="M37" t="n">
-        <v>0.101</v>
+        <v>0.124</v>
       </c>
       <c r="N37" t="n">
-        <v>0.108</v>
+        <v>0.038</v>
       </c>
       <c r="O37" t="n">
-        <v>9.3</v>
+        <v>26.1</v>
       </c>
       <c r="P37" t="s">
         <v>226</v>
@@ -5213,8 +5215,12 @@
       <c r="M39" t="n">
         <v>0.698</v>
       </c>
-      <c r="N39"/>
-      <c r="O39"/>
+      <c r="N39" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O39" t="n">
+        <v>9.1</v>
+      </c>
       <c r="P39" t="s">
         <v>239</v>
       </c>
@@ -5236,7 +5242,7 @@
         <v>242</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D40" t="s">
         <v>243</v>
@@ -5246,25 +5252,25 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H40" t="n">
-        <v>1848009</v>
+        <v>1871926</v>
       </c>
       <c r="I40" t="n">
-        <v>1394.526</v>
+        <v>1412.574</v>
       </c>
       <c r="J40" t="n">
-        <v>6453</v>
+        <v>6579</v>
       </c>
       <c r="K40" t="n">
-        <v>4.869</v>
+        <v>4.965</v>
       </c>
       <c r="L40" t="n">
-        <v>5831</v>
+        <v>6231</v>
       </c>
       <c r="M40" t="n">
-        <v>4.4</v>
+        <v>4.702</v>
       </c>
       <c r="N40" t="n">
         <v>0.075</v>
@@ -5293,7 +5299,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D41" t="s">
         <v>248</v>
@@ -5303,31 +5309,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H41" t="n">
-        <v>3358285</v>
+        <v>3389665</v>
       </c>
       <c r="I41" t="n">
-        <v>28.49</v>
+        <v>28.756</v>
       </c>
       <c r="J41" t="n">
-        <v>9725</v>
+        <v>5351</v>
       </c>
       <c r="K41" t="n">
-        <v>0.083</v>
+        <v>0.045</v>
       </c>
       <c r="L41" t="n">
-        <v>6961</v>
+        <v>8515</v>
       </c>
       <c r="M41" t="n">
-        <v>0.059</v>
+        <v>0.072</v>
       </c>
       <c r="N41" t="n">
-        <v>0.17</v>
+        <v>0.167</v>
       </c>
       <c r="O41" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="P41" t="s">
         <v>249</v>
@@ -5407,7 +5413,7 @@
         <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44454</v>
+        <v>44456</v>
       </c>
       <c r="D43" t="s">
         <v>258</v>
@@ -5417,31 +5423,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H43" t="n">
-        <v>6933023</v>
+        <v>6951623</v>
       </c>
       <c r="I43" t="n">
-        <v>1249.562</v>
+        <v>1252.915</v>
       </c>
       <c r="J43" t="n">
-        <v>16118</v>
+        <v>2338</v>
       </c>
       <c r="K43" t="n">
-        <v>2.905</v>
+        <v>0.421</v>
       </c>
       <c r="L43" t="n">
-        <v>15396</v>
+        <v>12166</v>
       </c>
       <c r="M43" t="n">
-        <v>2.775</v>
+        <v>2.193</v>
       </c>
       <c r="N43" t="n">
-        <v>0.029</v>
+        <v>0.037</v>
       </c>
       <c r="O43" t="n">
-        <v>34.3</v>
+        <v>27</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5464,7 +5470,7 @@
         <v>263</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44452</v>
+        <v>44456</v>
       </c>
       <c r="D44" t="s">
         <v>264</v>
@@ -5474,27 +5480,27 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="n">
-        <v>663977</v>
+        <v>790437</v>
       </c>
       <c r="K44" t="n">
-        <v>9.827</v>
+        <v>11.699</v>
       </c>
       <c r="L44" t="n">
-        <v>565113</v>
+        <v>548529</v>
       </c>
       <c r="M44" t="n">
-        <v>8.364</v>
+        <v>8.119</v>
       </c>
       <c r="N44" t="n">
-        <v>0.018</v>
+        <v>0.015</v>
       </c>
       <c r="O44" t="n">
-        <v>55.6</v>
+        <v>66.7</v>
       </c>
       <c r="P44" t="s">
         <v>265</v>
@@ -5570,7 +5576,7 @@
         <v>275</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44451</v>
+        <v>44455</v>
       </c>
       <c r="D46" t="s">
         <v>276</v>
@@ -5580,27 +5586,27 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H46" t="n">
-        <v>106259</v>
+        <v>107328</v>
       </c>
       <c r="I46" t="n">
-        <v>42.727</v>
+        <v>43.157</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="M46" t="n">
-        <v>0.149</v>
+        <v>0.132</v>
       </c>
       <c r="N46" t="n">
-        <v>0.043</v>
+        <v>0.02</v>
       </c>
       <c r="O46" t="n">
-        <v>23.1</v>
+        <v>49</v>
       </c>
       <c r="P46" t="s">
         <v>277</v>
@@ -5623,7 +5629,7 @@
         <v>281</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44453</v>
+        <v>44459</v>
       </c>
       <c r="D47" t="s">
         <v>282</v>
@@ -5633,31 +5639,27 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H47" t="n">
-        <v>8500000</v>
+        <v>8600000</v>
       </c>
       <c r="I47" t="n">
-        <v>2135.8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>50000</v>
-      </c>
-      <c r="K47" t="n">
-        <v>12.564</v>
-      </c>
+        <v>2160.927</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47"/>
       <c r="L47" t="n">
-        <v>28143</v>
+        <v>21429</v>
       </c>
       <c r="M47" t="n">
-        <v>7.072</v>
+        <v>5.384</v>
       </c>
       <c r="N47" t="n">
-        <v>0.087</v>
+        <v>0.094</v>
       </c>
       <c r="O47" t="n">
-        <v>11.5</v>
+        <v>10.6</v>
       </c>
       <c r="P47" t="s">
         <v>283</v>
@@ -5790,7 +5792,7 @@
         <v>299</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D50" t="s">
         <v>300</v>
@@ -5800,31 +5802,27 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H50" t="n">
-        <v>17406729</v>
+        <v>18018525</v>
       </c>
       <c r="I50" t="n">
-        <v>1678.445</v>
-      </c>
-      <c r="J50" t="n">
-        <v>155295</v>
-      </c>
-      <c r="K50" t="n">
-        <v>14.974</v>
-      </c>
+        <v>1737.438</v>
+      </c>
+      <c r="J50"/>
+      <c r="K50"/>
       <c r="L50" t="n">
-        <v>153156</v>
+        <v>185423</v>
       </c>
       <c r="M50" t="n">
-        <v>14.768</v>
+        <v>17.879</v>
       </c>
       <c r="N50" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="O50" t="n">
-        <v>68.9</v>
+        <v>80.4</v>
       </c>
       <c r="P50" t="s">
         <v>302</v>
@@ -5847,7 +5845,7 @@
         <v>306</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44450</v>
+        <v>44458</v>
       </c>
       <c r="D51" t="s">
         <v>307</v>
@@ -5857,31 +5855,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="H51" t="n">
-        <v>2145502</v>
+        <v>2414918</v>
       </c>
       <c r="I51" t="n">
-        <v>117.563</v>
+        <v>132.325</v>
       </c>
       <c r="J51" t="n">
-        <v>6773</v>
+        <v>3999</v>
       </c>
       <c r="K51" t="n">
-        <v>0.371</v>
+        <v>0.219</v>
       </c>
       <c r="L51" t="n">
-        <v>10442</v>
+        <v>11675</v>
       </c>
       <c r="M51" t="n">
-        <v>0.572</v>
+        <v>0.64</v>
       </c>
       <c r="N51" t="n">
-        <v>0.312</v>
+        <v>0.229</v>
       </c>
       <c r="O51" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="P51" t="s">
         <v>309</v>
@@ -5957,7 +5955,7 @@
         <v>320</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D53" t="s">
         <v>321</v>
@@ -5969,31 +5967,31 @@
         <v>323</v>
       </c>
       <c r="G53" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H53" t="n">
-        <v>6302559</v>
+        <v>6355050</v>
       </c>
       <c r="I53" t="n">
-        <v>654.189</v>
+        <v>659.637</v>
       </c>
       <c r="J53" t="n">
-        <v>15682</v>
+        <v>36911</v>
       </c>
       <c r="K53" t="n">
-        <v>1.628</v>
+        <v>3.831</v>
       </c>
       <c r="L53" t="n">
-        <v>12642</v>
+        <v>12861</v>
       </c>
       <c r="M53" t="n">
-        <v>1.312</v>
+        <v>1.335</v>
       </c>
       <c r="N53" t="n">
-        <v>0.026</v>
+        <v>0.029</v>
       </c>
       <c r="O53" t="n">
-        <v>39</v>
+        <v>34.3</v>
       </c>
       <c r="P53" t="s">
         <v>322</v>
@@ -6016,7 +6014,7 @@
         <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -6026,25 +6024,25 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H54" t="n">
-        <v>615816</v>
+        <v>620997</v>
       </c>
       <c r="I54" t="n">
-        <v>1793.5</v>
+        <v>1808.589</v>
       </c>
       <c r="J54" t="n">
-        <v>1762</v>
+        <v>860</v>
       </c>
       <c r="K54" t="n">
-        <v>5.132</v>
+        <v>2.505</v>
       </c>
       <c r="L54" t="n">
-        <v>1569</v>
+        <v>1501</v>
       </c>
       <c r="M54" t="n">
-        <v>4.57</v>
+        <v>4.372</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -6069,7 +6067,7 @@
         <v>332</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44453</v>
+        <v>44459</v>
       </c>
       <c r="D55" t="s">
         <v>333</v>
@@ -6081,31 +6079,31 @@
         <v>335</v>
       </c>
       <c r="G55" t="n">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H55" t="n">
-        <v>544444967</v>
+        <v>553621766</v>
       </c>
       <c r="I55" t="n">
-        <v>390.729</v>
+        <v>397.315</v>
       </c>
       <c r="J55" t="n">
-        <v>1430891</v>
+        <v>1281598</v>
       </c>
       <c r="K55" t="n">
-        <v>1.027</v>
+        <v>0.92</v>
       </c>
       <c r="L55" t="n">
-        <v>1607946</v>
+        <v>1515384</v>
       </c>
       <c r="M55" t="n">
-        <v>1.154</v>
+        <v>1.088</v>
       </c>
       <c r="N55" t="n">
         <v>0.02</v>
       </c>
       <c r="O55" t="n">
-        <v>51.2</v>
+        <v>49.3</v>
       </c>
       <c r="P55" t="s">
         <v>334</v>
@@ -6128,7 +6126,7 @@
         <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44452</v>
+        <v>44459</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
@@ -6138,27 +6136,27 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H56" t="n">
-        <v>23199268</v>
+        <v>24372320</v>
       </c>
       <c r="I56" t="n">
-        <v>83.945</v>
+        <v>88.19</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56" t="n">
-        <v>141506</v>
+        <v>167579</v>
       </c>
       <c r="M56" t="n">
-        <v>0.512</v>
+        <v>0.606</v>
       </c>
       <c r="N56" t="n">
-        <v>0.037</v>
+        <v>0.019</v>
       </c>
       <c r="O56" t="n">
-        <v>27</v>
+        <v>51.9</v>
       </c>
       <c r="P56" t="s">
         <v>340</v>
@@ -6181,7 +6179,7 @@
         <v>344</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D57" t="s">
         <v>345</v>
@@ -6191,31 +6189,31 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H57" t="n">
-        <v>30672916</v>
+        <v>31113929</v>
       </c>
       <c r="I57" t="n">
-        <v>360.736</v>
+        <v>365.922</v>
       </c>
       <c r="J57" t="n">
-        <v>115179</v>
+        <v>106795</v>
       </c>
       <c r="K57" t="n">
-        <v>1.355</v>
+        <v>1.256</v>
       </c>
       <c r="L57" t="n">
-        <v>109829</v>
+        <v>110943</v>
       </c>
       <c r="M57" t="n">
-        <v>1.292</v>
+        <v>1.305</v>
       </c>
       <c r="N57" t="n">
-        <v>0.183</v>
+        <v>0.16</v>
       </c>
       <c r="O57" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="P57" t="s">
         <v>346</v>
@@ -6238,7 +6236,7 @@
         <v>350</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D58" t="s">
         <v>351</v>
@@ -6248,31 +6246,27 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H58" t="n">
-        <v>14895398</v>
+        <v>14996224</v>
       </c>
       <c r="I58" t="n">
-        <v>361.72</v>
-      </c>
-      <c r="J58" t="n">
-        <v>32036</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.778</v>
-      </c>
+        <v>364.169</v>
+      </c>
+      <c r="J58"/>
+      <c r="K58"/>
       <c r="L58" t="n">
-        <v>31284</v>
+        <v>28496</v>
       </c>
       <c r="M58" t="n">
-        <v>0.76</v>
+        <v>0.692</v>
       </c>
       <c r="N58" t="n">
-        <v>0.127</v>
+        <v>0.118</v>
       </c>
       <c r="O58" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="P58" t="s">
         <v>353</v>
@@ -6295,7 +6289,7 @@
         <v>357</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D59" t="s">
         <v>358</v>
@@ -6305,31 +6299,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H59" t="n">
-        <v>7079448</v>
+        <v>7187263</v>
       </c>
       <c r="I59" t="n">
-        <v>1420.747</v>
+        <v>1442.384</v>
       </c>
       <c r="J59" t="n">
-        <v>28135</v>
+        <v>19186</v>
       </c>
       <c r="K59" t="n">
-        <v>5.646</v>
+        <v>3.85</v>
       </c>
       <c r="L59" t="n">
-        <v>24731</v>
+        <v>25222</v>
       </c>
       <c r="M59" t="n">
-        <v>4.963</v>
+        <v>5.062</v>
       </c>
       <c r="N59" t="n">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="O59" t="n">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="P59" t="s">
         <v>359</v>
@@ -6352,7 +6346,7 @@
         <v>363</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D60" t="s">
         <v>364</v>
@@ -6362,31 +6356,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H60" t="n">
-        <v>25581567</v>
+        <v>26064794</v>
       </c>
       <c r="I60" t="n">
-        <v>2910.378</v>
+        <v>2965.354</v>
       </c>
       <c r="J60" t="n">
-        <v>54984</v>
+        <v>111305</v>
       </c>
       <c r="K60" t="n">
-        <v>6.255</v>
+        <v>12.663</v>
       </c>
       <c r="L60" t="n">
-        <v>155106</v>
+        <v>124824</v>
       </c>
       <c r="M60" t="n">
-        <v>17.646</v>
+        <v>14.201</v>
       </c>
       <c r="N60" t="n">
         <v>0.058</v>
       </c>
       <c r="O60" t="n">
-        <v>17.4</v>
+        <v>17.1</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
@@ -6409,7 +6403,7 @@
         <v>369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D61" t="s">
         <v>370</v>
@@ -6421,31 +6415,31 @@
         <v>372</v>
       </c>
       <c r="G61" t="n">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="H61" t="n">
-        <v>33481704</v>
+        <v>33686794</v>
       </c>
       <c r="I61" t="n">
-        <v>554.632</v>
+        <v>558.029</v>
       </c>
       <c r="J61" t="n">
-        <v>58222</v>
+        <v>27399</v>
       </c>
       <c r="K61" t="n">
-        <v>0.964</v>
+        <v>0.454</v>
       </c>
       <c r="L61" t="n">
-        <v>55970</v>
+        <v>55132</v>
       </c>
       <c r="M61" t="n">
-        <v>0.927</v>
+        <v>0.913</v>
       </c>
       <c r="N61" t="n">
-        <v>0.082</v>
+        <v>0.076</v>
       </c>
       <c r="O61" t="n">
-        <v>12.2</v>
+        <v>13.2</v>
       </c>
       <c r="P61" t="s">
         <v>373</v>
@@ -6468,7 +6462,7 @@
         <v>376</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44455</v>
+        <v>44458</v>
       </c>
       <c r="D62" t="s">
         <v>370</v>
@@ -6480,31 +6474,31 @@
         <v>372</v>
       </c>
       <c r="G62" t="n">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H62" t="n">
-        <v>88516407</v>
+        <v>89420490</v>
       </c>
       <c r="I62" t="n">
-        <v>1466.293</v>
+        <v>1481.269</v>
       </c>
       <c r="J62" t="n">
-        <v>306267</v>
+        <v>263571</v>
       </c>
       <c r="K62" t="n">
-        <v>5.073</v>
+        <v>4.366</v>
       </c>
       <c r="L62" t="n">
-        <v>278528</v>
+        <v>280951</v>
       </c>
       <c r="M62" t="n">
-        <v>4.614</v>
+        <v>4.654</v>
       </c>
       <c r="N62" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="O62" t="n">
-        <v>60.5</v>
+        <v>66.2</v>
       </c>
       <c r="P62" t="s">
         <v>373</v>
@@ -6527,7 +6521,7 @@
         <v>379</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="D63" t="s">
         <v>380</v>
@@ -6537,31 +6531,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H63" t="n">
-        <v>578267</v>
+        <v>586326</v>
       </c>
       <c r="I63" t="n">
-        <v>194.476</v>
+        <v>197.186</v>
       </c>
       <c r="J63" t="n">
-        <v>1564</v>
+        <v>1921</v>
       </c>
       <c r="K63" t="n">
-        <v>0.526</v>
+        <v>0.646</v>
       </c>
       <c r="L63" t="n">
-        <v>1714</v>
+        <v>1827</v>
       </c>
       <c r="M63" t="n">
-        <v>0.576</v>
+        <v>0.614</v>
       </c>
       <c r="N63" t="n">
-        <v>0.333</v>
+        <v>0.298</v>
       </c>
       <c r="O63" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P63" t="s">
         <v>381</v>
@@ -6584,7 +6578,7 @@
         <v>385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44454</v>
+        <v>44459</v>
       </c>
       <c r="D64" t="s">
         <v>386</v>
@@ -6594,31 +6588,31 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="H64" t="n">
-        <v>22590267</v>
+        <v>22979541</v>
       </c>
       <c r="I64" t="n">
-        <v>179.216</v>
+        <v>182.304</v>
       </c>
       <c r="J64" t="n">
-        <v>107105</v>
+        <v>25151</v>
       </c>
       <c r="K64" t="n">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
       <c r="L64" t="n">
-        <v>101948</v>
+        <v>85199</v>
       </c>
       <c r="M64" t="n">
-        <v>0.809</v>
+        <v>0.676</v>
       </c>
       <c r="N64" t="n">
-        <v>0.074</v>
+        <v>0.057</v>
       </c>
       <c r="O64" t="n">
-        <v>13.6</v>
+        <v>17.4</v>
       </c>
       <c r="P64" t="s">
         <v>387</v>
@@ -6641,7 +6635,7 @@
         <v>391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D65" t="s">
         <v>392</v>
@@ -6651,31 +6645,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H65" t="n">
-        <v>9706117</v>
+        <v>9775341</v>
       </c>
       <c r="I65" t="n">
-        <v>945.184</v>
+        <v>951.925</v>
       </c>
       <c r="J65" t="n">
-        <v>28071</v>
+        <v>27178</v>
       </c>
       <c r="K65" t="n">
-        <v>2.734</v>
+        <v>2.647</v>
       </c>
       <c r="L65" t="n">
-        <v>33055</v>
+        <v>27719</v>
       </c>
       <c r="M65" t="n">
-        <v>3.219</v>
+        <v>2.699</v>
       </c>
       <c r="N65" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="O65" t="n">
-        <v>32.4</v>
+        <v>31.2</v>
       </c>
       <c r="P65" t="s">
         <v>393</v>
@@ -6808,7 +6802,7 @@
         <v>407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D68" t="s">
         <v>408</v>
@@ -6818,31 +6812,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H68" t="n">
-        <v>1138715</v>
+        <v>1159541</v>
       </c>
       <c r="I68" t="n">
-        <v>589.161</v>
+        <v>599.936</v>
       </c>
       <c r="J68" t="n">
-        <v>6882</v>
+        <v>2319</v>
       </c>
       <c r="K68" t="n">
-        <v>3.561</v>
+        <v>1.2</v>
       </c>
       <c r="L68" t="n">
-        <v>7932</v>
+        <v>6218</v>
       </c>
       <c r="M68" t="n">
-        <v>4.104</v>
+        <v>3.217</v>
       </c>
       <c r="N68" t="n">
-        <v>0.056</v>
+        <v>0.044</v>
       </c>
       <c r="O68" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P68" t="s">
         <v>410</v>
@@ -6865,7 +6859,7 @@
         <v>413</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D69" t="s">
         <v>414</v>
@@ -6875,31 +6869,31 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H69" t="n">
-        <v>4003280</v>
+        <v>4070660</v>
       </c>
       <c r="I69" t="n">
-        <v>924.854</v>
+        <v>940.421</v>
       </c>
       <c r="J69" t="n">
-        <v>14694</v>
+        <v>20509</v>
       </c>
       <c r="K69" t="n">
-        <v>3.395</v>
+        <v>4.738</v>
       </c>
       <c r="L69" t="n">
-        <v>14390</v>
+        <v>15944</v>
       </c>
       <c r="M69" t="n">
-        <v>3.324</v>
+        <v>3.683</v>
       </c>
       <c r="N69" t="n">
         <v>0.004</v>
       </c>
       <c r="O69" t="n">
-        <v>260.3</v>
+        <v>285.4</v>
       </c>
       <c r="P69" t="s">
         <v>415</v>
@@ -6922,7 +6916,7 @@
         <v>419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44455</v>
+        <v>44458</v>
       </c>
       <c r="D70" t="s">
         <v>420</v>
@@ -6932,27 +6926,27 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H70" t="n">
-        <v>487290</v>
+        <v>509070</v>
       </c>
       <c r="I70" t="n">
-        <v>66.034</v>
+        <v>68.986</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70" t="n">
-        <v>3650</v>
+        <v>4919</v>
       </c>
       <c r="M70" t="n">
-        <v>0.495</v>
+        <v>0.667</v>
       </c>
       <c r="N70" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="O70" t="n">
-        <v>19.4</v>
+        <v>18.8</v>
       </c>
       <c r="P70" t="s">
         <v>421</v>
@@ -7083,7 +7077,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -7093,15 +7087,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>5039</v>
+        <v>5639</v>
       </c>
       <c r="K73" t="n">
-        <v>0.724</v>
+        <v>0.81</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7128,7 +7122,7 @@
         <v>442</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44453</v>
+        <v>44457</v>
       </c>
       <c r="D74" t="s">
         <v>443</v>
@@ -7138,31 +7132,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H74" t="n">
-        <v>64615</v>
+        <v>65694</v>
       </c>
       <c r="I74" t="n">
-        <v>1689.104</v>
+        <v>1717.311</v>
       </c>
       <c r="J74" t="n">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="K74" t="n">
-        <v>4.287</v>
+        <v>3.268</v>
       </c>
       <c r="L74" t="n">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="M74" t="n">
-        <v>4.941</v>
+        <v>5.751</v>
       </c>
       <c r="N74" t="n">
-        <v>0.026</v>
+        <v>0.022</v>
       </c>
       <c r="O74" t="n">
-        <v>38.5</v>
+        <v>45.5</v>
       </c>
       <c r="P74" t="s">
         <v>444</v>
@@ -7185,7 +7179,7 @@
         <v>448</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D75" t="s">
         <v>449</v>
@@ -7195,31 +7189,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H75" t="n">
-        <v>4812417</v>
+        <v>4887751</v>
       </c>
       <c r="I75" t="n">
-        <v>1789.094</v>
+        <v>1817.101</v>
       </c>
       <c r="J75" t="n">
-        <v>22720</v>
+        <v>23801</v>
       </c>
       <c r="K75" t="n">
-        <v>8.447</v>
+        <v>8.848</v>
       </c>
       <c r="L75" t="n">
-        <v>16061</v>
+        <v>19986</v>
       </c>
       <c r="M75" t="n">
-        <v>5.971</v>
+        <v>7.43</v>
       </c>
       <c r="N75" t="n">
-        <v>0.061</v>
+        <v>0.058</v>
       </c>
       <c r="O75" t="n">
-        <v>16.4</v>
+        <v>17.2</v>
       </c>
       <c r="P75" t="s">
         <v>450</v>
@@ -7242,7 +7236,7 @@
         <v>453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="D76" t="s">
         <v>454</v>
@@ -7252,31 +7246,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H76" t="n">
-        <v>3493106</v>
+        <v>3500471</v>
       </c>
       <c r="I76" t="n">
-        <v>5502.566</v>
+        <v>5514.168</v>
       </c>
       <c r="J76" t="n">
-        <v>6400</v>
+        <v>1484</v>
       </c>
       <c r="K76" t="n">
-        <v>10.082</v>
+        <v>2.338</v>
       </c>
       <c r="L76" t="n">
-        <v>5294</v>
+        <v>4189</v>
       </c>
       <c r="M76" t="n">
-        <v>8.339</v>
+        <v>6.599</v>
       </c>
       <c r="N76" t="n">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
       <c r="O76" t="n">
-        <v>68.5</v>
+        <v>52.6</v>
       </c>
       <c r="P76" t="s">
         <v>455</v>
@@ -7468,7 +7462,7 @@
         <v>477</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44455</v>
+        <v>44458</v>
       </c>
       <c r="D80" t="s">
         <v>478</v>
@@ -7478,31 +7472,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H80" t="n">
-        <v>1460154</v>
+        <v>1473156</v>
       </c>
       <c r="I80" t="n">
-        <v>2685.983</v>
+        <v>2709.9</v>
       </c>
       <c r="J80" t="n">
-        <v>5127</v>
+        <v>4698</v>
       </c>
       <c r="K80" t="n">
-        <v>9.431</v>
+        <v>8.642</v>
       </c>
       <c r="L80" t="n">
-        <v>5101</v>
+        <v>4814</v>
       </c>
       <c r="M80" t="n">
-        <v>9.383</v>
+        <v>8.855</v>
       </c>
       <c r="N80" t="n">
         <v>0.022</v>
       </c>
       <c r="O80" t="n">
-        <v>46.2</v>
+        <v>44.7</v>
       </c>
       <c r="P80" t="s">
         <v>479</v>
@@ -7631,7 +7625,7 @@
         <v>495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="D83" t="s">
         <v>496</v>
@@ -7641,28 +7635,28 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="H83" t="n">
-        <v>9795982</v>
+        <v>9864382</v>
       </c>
       <c r="I83" t="n">
-        <v>75.202</v>
+        <v>75.727</v>
       </c>
       <c r="J83" t="n">
-        <v>7450</v>
+        <v>2325</v>
       </c>
       <c r="K83" t="n">
-        <v>0.057</v>
+        <v>0.018</v>
       </c>
       <c r="L83" t="n">
-        <v>18285</v>
+        <v>15337</v>
       </c>
       <c r="M83" t="n">
-        <v>0.14</v>
+        <v>0.118</v>
       </c>
       <c r="N83" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O83" t="n">
         <v>2.8</v>
@@ -7688,7 +7682,7 @@
         <v>501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D84" t="s">
         <v>502</v>
@@ -7698,27 +7692,27 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H84" t="n">
-        <v>1673626</v>
+        <v>1702715</v>
       </c>
       <c r="I84" t="n">
-        <v>415.908</v>
+        <v>423.137</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>7725</v>
+        <v>8380</v>
       </c>
       <c r="M84" t="n">
-        <v>1.92</v>
+        <v>2.082</v>
       </c>
       <c r="N84" t="n">
-        <v>0.113</v>
+        <v>0.121</v>
       </c>
       <c r="O84" t="n">
-        <v>8.9</v>
+        <v>8.3</v>
       </c>
       <c r="P84" t="s">
         <v>503</v>
@@ -7741,7 +7735,7 @@
         <v>506</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44456</v>
+        <v>44460</v>
       </c>
       <c r="D85" t="s">
         <v>507</v>
@@ -7751,25 +7745,25 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H85" t="n">
-        <v>4973007</v>
+        <v>5061603</v>
       </c>
       <c r="I85" t="n">
-        <v>1493.718</v>
+        <v>1520.329</v>
       </c>
       <c r="J85" t="n">
-        <v>1106416</v>
+        <v>31044</v>
       </c>
       <c r="K85" t="n">
-        <v>332.329</v>
+        <v>9.325</v>
       </c>
       <c r="L85" t="n">
-        <v>166705</v>
+        <v>174163</v>
       </c>
       <c r="M85" t="n">
-        <v>50.072</v>
+        <v>52.312</v>
       </c>
       <c r="N85"/>
       <c r="O85"/>
@@ -7794,7 +7788,7 @@
         <v>510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D86" t="s">
         <v>511</v>
@@ -7804,31 +7798,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H86" t="n">
-        <v>8533903</v>
+        <v>8603089</v>
       </c>
       <c r="I86" t="n">
-        <v>228.517</v>
+        <v>230.369</v>
       </c>
       <c r="J86" t="n">
-        <v>23052</v>
+        <v>9629</v>
       </c>
       <c r="K86" t="n">
-        <v>0.617</v>
+        <v>0.258</v>
       </c>
       <c r="L86" t="n">
-        <v>22181</v>
+        <v>20538</v>
       </c>
       <c r="M86" t="n">
-        <v>0.594</v>
+        <v>0.55</v>
       </c>
       <c r="N86" t="n">
-        <v>0.106</v>
+        <v>0.103</v>
       </c>
       <c r="O86" t="n">
-        <v>9.4</v>
+        <v>9.7</v>
       </c>
       <c r="P86" t="s">
         <v>512</v>
@@ -7908,7 +7902,7 @@
         <v>522</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44453</v>
+        <v>44456</v>
       </c>
       <c r="D88" t="s">
         <v>523</v>
@@ -7918,25 +7912,25 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H88" t="n">
-        <v>4002846</v>
+        <v>4070480</v>
       </c>
       <c r="I88" t="n">
-        <v>73.037</v>
+        <v>74.271</v>
       </c>
       <c r="J88" t="n">
-        <v>24822</v>
+        <v>22800</v>
       </c>
       <c r="K88" t="n">
-        <v>0.453</v>
+        <v>0.416</v>
       </c>
       <c r="L88" t="n">
-        <v>24501</v>
+        <v>23329</v>
       </c>
       <c r="M88" t="n">
-        <v>0.447</v>
+        <v>0.426</v>
       </c>
       <c r="N88" t="n">
         <v>0.094</v>
@@ -7965,7 +7959,7 @@
         <v>528</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="D89" t="s">
         <v>529</v>
@@ -7975,27 +7969,31 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H89" t="n">
-        <v>681868</v>
+        <v>688760</v>
       </c>
       <c r="I89" t="n">
-        <v>263.54</v>
-      </c>
-      <c r="J89"/>
-      <c r="K89"/>
+        <v>266.203</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1326</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.512</v>
+      </c>
       <c r="L89" t="n">
-        <v>1299</v>
+        <v>1505</v>
       </c>
       <c r="M89" t="n">
-        <v>0.502</v>
+        <v>0.582</v>
       </c>
       <c r="N89" t="n">
-        <v>0.059</v>
+        <v>0.049</v>
       </c>
       <c r="O89" t="n">
-        <v>17.1</v>
+        <v>20.2</v>
       </c>
       <c r="P89" t="s">
         <v>531</v>
@@ -8018,7 +8016,7 @@
         <v>535</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D90" t="s">
         <v>536</v>
@@ -8028,31 +8026,31 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H90" t="n">
-        <v>4068591</v>
+        <v>4103886</v>
       </c>
       <c r="I90" t="n">
-        <v>137.105</v>
+        <v>138.295</v>
       </c>
       <c r="J90" t="n">
-        <v>11208</v>
+        <v>10786</v>
       </c>
       <c r="K90" t="n">
-        <v>0.378</v>
+        <v>0.363</v>
       </c>
       <c r="L90" t="n">
-        <v>9871</v>
+        <v>9899</v>
       </c>
       <c r="M90" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="N90" t="n">
-        <v>0.107</v>
+        <v>0.104</v>
       </c>
       <c r="O90" t="n">
-        <v>9.3</v>
+        <v>9.6</v>
       </c>
       <c r="P90" t="s">
         <v>537</v>
@@ -8075,7 +8073,7 @@
         <v>541</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44444</v>
+        <v>44451</v>
       </c>
       <c r="D91" t="s">
         <v>542</v>
@@ -8085,27 +8083,27 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H91" t="n">
-        <v>12823298</v>
+        <v>12903128</v>
       </c>
       <c r="I91" t="n">
-        <v>746.709</v>
+        <v>751.357</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>20975</v>
+        <v>11404</v>
       </c>
       <c r="M91" t="n">
-        <v>1.221</v>
+        <v>0.664</v>
       </c>
       <c r="N91" t="n">
-        <v>0.085</v>
+        <v>0.066</v>
       </c>
       <c r="O91" t="n">
-        <v>11.8</v>
+        <v>15.2</v>
       </c>
       <c r="P91" t="s">
         <v>544</v>
@@ -8128,7 +8126,7 @@
         <v>548</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44456</v>
+        <v>44460</v>
       </c>
       <c r="D92" t="s">
         <v>549</v>
@@ -8138,25 +8136,25 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H92" t="n">
-        <v>3206325</v>
+        <v>3248982</v>
       </c>
       <c r="I92" t="n">
-        <v>659.651</v>
+        <v>668.427</v>
       </c>
       <c r="J92" t="n">
-        <v>15418</v>
+        <v>8347</v>
       </c>
       <c r="K92" t="n">
-        <v>3.172</v>
+        <v>1.717</v>
       </c>
       <c r="L92" t="n">
-        <v>13177</v>
+        <v>12965</v>
       </c>
       <c r="M92" t="n">
-        <v>2.711</v>
+        <v>2.667</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -8181,7 +8179,7 @@
         <v>554</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44451</v>
+        <v>44458</v>
       </c>
       <c r="D93" t="s">
         <v>555</v>
@@ -8191,27 +8189,27 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H93" t="n">
-        <v>2942578</v>
+        <v>2997060</v>
       </c>
       <c r="I93" t="n">
-        <v>13.919</v>
+        <v>14.177</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>10226</v>
+        <v>7783</v>
       </c>
       <c r="M93" t="n">
-        <v>0.048</v>
+        <v>0.037</v>
       </c>
       <c r="N93" t="n">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
       <c r="O93" t="n">
-        <v>19.7</v>
+        <v>20.6</v>
       </c>
       <c r="P93" t="s">
         <v>556</v>
@@ -8234,7 +8232,7 @@
         <v>559</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44452</v>
+        <v>44459</v>
       </c>
       <c r="D94" t="s">
         <v>560</v>
@@ -8244,27 +8242,27 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H94" t="n">
-        <v>1222443</v>
+        <v>1251483</v>
       </c>
       <c r="I94" t="n">
-        <v>586.962</v>
+        <v>600.906</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="n">
-        <v>6101</v>
+        <v>4149</v>
       </c>
       <c r="M94" t="n">
-        <v>2.929</v>
+        <v>1.992</v>
       </c>
       <c r="N94" t="n">
-        <v>0.081</v>
+        <v>0.116</v>
       </c>
       <c r="O94" t="n">
-        <v>12.3</v>
+        <v>8.6</v>
       </c>
       <c r="P94" t="s">
         <v>36</v>
@@ -8287,7 +8285,7 @@
         <v>564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44453</v>
+        <v>44457</v>
       </c>
       <c r="D95" t="s">
         <v>565</v>
@@ -8297,31 +8295,31 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="H95" t="n">
-        <v>7537286</v>
+        <v>7609645</v>
       </c>
       <c r="I95" t="n">
-        <v>1379.034</v>
+        <v>1392.273</v>
       </c>
       <c r="J95" t="n">
-        <v>24735</v>
+        <v>7898</v>
       </c>
       <c r="K95" t="n">
-        <v>4.526</v>
+        <v>1.445</v>
       </c>
       <c r="L95" t="n">
-        <v>22658</v>
+        <v>19722</v>
       </c>
       <c r="M95" t="n">
-        <v>4.146</v>
+        <v>3.608</v>
       </c>
       <c r="N95" t="n">
-        <v>0.052</v>
+        <v>0.045</v>
       </c>
       <c r="O95" t="n">
-        <v>19.1</v>
+        <v>22</v>
       </c>
       <c r="P95" t="s">
         <v>566</v>
@@ -8389,7 +8387,7 @@
         <v>575</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44456</v>
+        <v>44460</v>
       </c>
       <c r="D97" t="s">
         <v>576</v>
@@ -8399,25 +8397,25 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="H97" t="n">
-        <v>18740356</v>
+        <v>18950039</v>
       </c>
       <c r="I97" t="n">
-        <v>83.217</v>
+        <v>84.148</v>
       </c>
       <c r="J97" t="n">
-        <v>57626</v>
+        <v>46231</v>
       </c>
       <c r="K97" t="n">
-        <v>0.256</v>
+        <v>0.205</v>
       </c>
       <c r="L97" t="n">
-        <v>56108</v>
+        <v>54483</v>
       </c>
       <c r="M97" t="n">
-        <v>0.249</v>
+        <v>0.242</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8442,7 +8440,7 @@
         <v>580</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D98" t="s">
         <v>581</v>
@@ -8450,27 +8448,27 @@
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>11228</v>
+        <v>10057</v>
       </c>
       <c r="K98" t="n">
-        <v>2.15</v>
+        <v>1.926</v>
       </c>
       <c r="L98" t="n">
-        <v>10163</v>
+        <v>10688</v>
       </c>
       <c r="M98" t="n">
-        <v>1.946</v>
+        <v>2.046</v>
       </c>
       <c r="N98" t="n">
-        <v>0.215</v>
+        <v>0.192</v>
       </c>
       <c r="O98" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="P98" t="s">
         <v>582</v>
@@ -8493,7 +8491,7 @@
         <v>586</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="D99" t="s">
         <v>587</v>
@@ -8503,31 +8501,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H99" t="n">
-        <v>3772110</v>
+        <v>3799405</v>
       </c>
       <c r="I99" t="n">
-        <v>860.901</v>
+        <v>867.131</v>
       </c>
       <c r="J99" t="n">
-        <v>8191</v>
+        <v>5195</v>
       </c>
       <c r="K99" t="n">
-        <v>1.869</v>
+        <v>1.186</v>
       </c>
       <c r="L99" t="n">
-        <v>6761</v>
+        <v>6730</v>
       </c>
       <c r="M99" t="n">
-        <v>1.543</v>
+        <v>1.536</v>
       </c>
       <c r="N99" t="n">
         <v>0.048</v>
       </c>
       <c r="O99" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="P99" t="s">
         <v>588</v>
@@ -8603,7 +8601,7 @@
         <v>597</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44455</v>
+        <v>44458</v>
       </c>
       <c r="D101" t="s">
         <v>598</v>
@@ -8613,31 +8611,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H101" t="n">
-        <v>1809486</v>
+        <v>1816025</v>
       </c>
       <c r="I101" t="n">
-        <v>250.634</v>
+        <v>251.54</v>
       </c>
       <c r="J101" t="n">
-        <v>2232</v>
+        <v>2124</v>
       </c>
       <c r="K101" t="n">
-        <v>0.309</v>
+        <v>0.294</v>
       </c>
       <c r="L101" t="n">
-        <v>2220</v>
+        <v>2202</v>
       </c>
       <c r="M101" t="n">
-        <v>0.307</v>
+        <v>0.305</v>
       </c>
       <c r="N101" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="O101" t="n">
-        <v>39.7</v>
+        <v>42.2</v>
       </c>
       <c r="P101" t="s">
         <v>599</v>
@@ -8717,7 +8715,7 @@
         <v>608</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="D103" t="s">
         <v>609</v>
@@ -8727,31 +8725,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="H103" t="n">
-        <v>18837782</v>
+        <v>19133985</v>
       </c>
       <c r="I103" t="n">
-        <v>169.638</v>
+        <v>172.305</v>
       </c>
       <c r="J103" t="n">
-        <v>69289</v>
+        <v>44682</v>
       </c>
       <c r="K103" t="n">
-        <v>0.624</v>
+        <v>0.402</v>
       </c>
       <c r="L103" t="n">
-        <v>71702</v>
+        <v>71019</v>
       </c>
       <c r="M103" t="n">
-        <v>0.646</v>
+        <v>0.64</v>
       </c>
       <c r="N103" t="n">
-        <v>0.297</v>
+        <v>0.28</v>
       </c>
       <c r="O103" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P103" t="s">
         <v>315</v>
@@ -8774,7 +8772,7 @@
         <v>614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D104" t="s">
         <v>615</v>
@@ -8784,31 +8782,31 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H104" t="n">
-        <v>19961353</v>
+        <v>20092593</v>
       </c>
       <c r="I104" t="n">
-        <v>528.12</v>
+        <v>531.592</v>
       </c>
       <c r="J104" t="n">
-        <v>40596</v>
+        <v>22207</v>
       </c>
       <c r="K104" t="n">
-        <v>1.074</v>
+        <v>0.588</v>
       </c>
       <c r="L104" t="n">
-        <v>37441</v>
+        <v>37080</v>
       </c>
       <c r="M104" t="n">
-        <v>0.991</v>
+        <v>0.981</v>
       </c>
       <c r="N104" t="n">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="O104" t="n">
-        <v>68.4</v>
+        <v>59.3</v>
       </c>
       <c r="P104" t="s">
         <v>616</v>
@@ -8831,7 +8829,7 @@
         <v>619</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="D105" t="s">
         <v>615</v>
@@ -8841,31 +8839,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H105" t="n">
-        <v>20373472</v>
+        <v>20505694</v>
       </c>
       <c r="I105" t="n">
-        <v>539.024</v>
+        <v>542.522</v>
       </c>
       <c r="J105" t="n">
-        <v>40873</v>
+        <v>22331</v>
       </c>
       <c r="K105" t="n">
-        <v>1.081</v>
+        <v>0.591</v>
       </c>
       <c r="L105" t="n">
-        <v>37700</v>
+        <v>37356</v>
       </c>
       <c r="M105" t="n">
-        <v>0.997</v>
+        <v>0.988</v>
       </c>
       <c r="N105" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="O105" t="n">
-        <v>72.9</v>
+        <v>61</v>
       </c>
       <c r="P105" t="s">
         <v>616</v>
@@ -8888,7 +8886,7 @@
         <v>621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="D106" t="s">
         <v>622</v>
@@ -8898,31 +8896,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="H106" t="n">
-        <v>17806549</v>
+        <v>18007442</v>
       </c>
       <c r="I106" t="n">
-        <v>1751.247</v>
+        <v>1771.005</v>
       </c>
       <c r="J106" t="n">
-        <v>61620</v>
+        <v>36416</v>
       </c>
       <c r="K106" t="n">
-        <v>6.06</v>
+        <v>3.581</v>
       </c>
       <c r="L106" t="n">
-        <v>54623</v>
+        <v>57176</v>
       </c>
       <c r="M106" t="n">
-        <v>5.372</v>
+        <v>5.623</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="O106" t="n">
-        <v>50.1</v>
+        <v>59.8</v>
       </c>
       <c r="P106" t="s">
         <v>623</v>
@@ -8945,7 +8943,7 @@
         <v>626</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44454</v>
+        <v>44459</v>
       </c>
       <c r="D107" t="s">
         <v>627</v>
@@ -8955,31 +8953,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="H107" t="n">
-        <v>2584515</v>
+        <v>2610510</v>
       </c>
       <c r="I107" t="n">
-        <v>881.929</v>
+        <v>890.8</v>
       </c>
       <c r="J107" t="n">
-        <v>5671</v>
+        <v>5141</v>
       </c>
       <c r="K107" t="n">
-        <v>1.935</v>
+        <v>1.754</v>
       </c>
       <c r="L107" t="n">
-        <v>5246</v>
+        <v>5285</v>
       </c>
       <c r="M107" t="n">
-        <v>1.79</v>
+        <v>1.803</v>
       </c>
       <c r="N107" t="n">
-        <v>0.026</v>
+        <v>0.023</v>
       </c>
       <c r="O107" t="n">
-        <v>38.2</v>
+        <v>43.4</v>
       </c>
       <c r="P107" t="s">
         <v>629</v>
@@ -9002,7 +9000,7 @@
         <v>632</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44456</v>
+        <v>44459</v>
       </c>
       <c r="D108" t="s">
         <v>633</v>
@@ -9012,24 +9010,28 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H108" t="n">
-        <v>9335522</v>
+        <v>9395743</v>
       </c>
       <c r="I108" t="n">
-        <v>488.061</v>
+        <v>491.209</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108" t="n">
-        <v>13557</v>
+        <v>16130</v>
       </c>
       <c r="M108" t="n">
-        <v>0.709</v>
-      </c>
-      <c r="N108"/>
-      <c r="O108"/>
+        <v>0.843</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O108" t="n">
+        <v>3.8</v>
+      </c>
       <c r="P108" t="s">
         <v>635</v>
       </c>
@@ -9051,7 +9053,7 @@
         <v>639</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D109" t="s">
         <v>640</v>
@@ -9061,27 +9063,27 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H109" t="n">
-        <v>185649676</v>
+        <v>187347905</v>
       </c>
       <c r="I109" t="n">
-        <v>1272.34</v>
+        <v>1283.979</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>420297</v>
+        <v>433205</v>
       </c>
       <c r="M109" t="n">
-        <v>2.88</v>
+        <v>2.969</v>
       </c>
       <c r="N109" t="n">
         <v>0.044</v>
       </c>
       <c r="O109" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="P109" t="s">
         <v>641</v>
@@ -9104,7 +9106,7 @@
         <v>645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44456</v>
+        <v>44458</v>
       </c>
       <c r="D110" t="s">
         <v>646</v>
@@ -9114,28 +9116,32 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H110" t="n">
-        <v>2644414</v>
+        <v>2679362</v>
       </c>
       <c r="I110" t="n">
-        <v>199.18</v>
+        <v>201.812</v>
       </c>
       <c r="J110" t="n">
-        <v>14495</v>
+        <v>25704</v>
       </c>
       <c r="K110" t="n">
-        <v>1.092</v>
+        <v>1.936</v>
       </c>
       <c r="L110" t="n">
-        <v>12229</v>
+        <v>13899</v>
       </c>
       <c r="M110" t="n">
-        <v>0.921</v>
-      </c>
-      <c r="N110"/>
-      <c r="O110"/>
+        <v>1.047</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="O110" t="n">
+        <v>36.9</v>
+      </c>
       <c r="P110" t="s">
         <v>647</v>
       </c>
@@ -9157,7 +9163,7 @@
         <v>651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44456</v>
+        <v>44459</v>
       </c>
       <c r="D111" t="s">
         <v>652</v>
@@ -9167,28 +9173,28 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H111" t="n">
-        <v>35529</v>
+        <v>36222</v>
       </c>
       <c r="I111" t="n">
-        <v>663.523</v>
-      </c>
-      <c r="J111" t="n">
-        <v>257</v>
-      </c>
-      <c r="K111" t="n">
-        <v>4.8</v>
-      </c>
+        <v>676.465</v>
+      </c>
+      <c r="J111"/>
+      <c r="K111"/>
       <c r="L111" t="n">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="M111" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="N111"/>
-      <c r="O111"/>
+        <v>3.978</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="O111" t="n">
+        <v>7.3</v>
+      </c>
       <c r="P111" t="s">
         <v>36</v>
       </c>
@@ -9210,7 +9216,7 @@
         <v>656</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="D112" t="s">
         <v>657</v>
@@ -9220,31 +9226,31 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H112" t="n">
-        <v>28248324</v>
+        <v>28433787</v>
       </c>
       <c r="I112" t="n">
-        <v>799.315</v>
+        <v>804.563</v>
       </c>
       <c r="J112" t="n">
-        <v>49548</v>
+        <v>45291</v>
       </c>
       <c r="K112" t="n">
-        <v>1.402</v>
+        <v>1.282</v>
       </c>
       <c r="L112" t="n">
-        <v>47578</v>
+        <v>48127</v>
       </c>
       <c r="M112" t="n">
-        <v>1.346</v>
+        <v>1.362</v>
       </c>
       <c r="N112" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="O112" t="n">
-        <v>1027.9</v>
+        <v>578.8</v>
       </c>
       <c r="P112" t="s">
         <v>36</v>
@@ -9267,7 +9273,7 @@
         <v>660</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D113" t="s">
         <v>661</v>
@@ -9277,31 +9283,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H113" t="n">
-        <v>787408</v>
+        <v>795255</v>
       </c>
       <c r="I113" t="n">
-        <v>45.789</v>
+        <v>46.246</v>
       </c>
       <c r="J113" t="n">
-        <v>2564</v>
+        <v>1479</v>
       </c>
       <c r="K113" t="n">
-        <v>0.149</v>
+        <v>0.086</v>
       </c>
       <c r="L113" t="n">
-        <v>2150</v>
+        <v>1990</v>
       </c>
       <c r="M113" t="n">
-        <v>0.125</v>
+        <v>0.116</v>
       </c>
       <c r="N113" t="n">
-        <v>0.014</v>
+        <v>0.011</v>
       </c>
       <c r="O113" t="n">
-        <v>72</v>
+        <v>90.5</v>
       </c>
       <c r="P113" t="s">
         <v>662</v>
@@ -9324,7 +9330,7 @@
         <v>665</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44455</v>
+        <v>44458</v>
       </c>
       <c r="D114" t="s">
         <v>666</v>
@@ -9336,31 +9342,31 @@
         <v>667</v>
       </c>
       <c r="G114" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H114" t="n">
-        <v>5342565</v>
+        <v>5407881</v>
       </c>
       <c r="I114" t="n">
-        <v>785.141</v>
+        <v>794.739</v>
       </c>
       <c r="J114" t="n">
-        <v>26183</v>
+        <v>16642</v>
       </c>
       <c r="K114" t="n">
-        <v>3.848</v>
+        <v>2.446</v>
       </c>
       <c r="L114" t="n">
-        <v>22864</v>
+        <v>23800</v>
       </c>
       <c r="M114" t="n">
-        <v>3.36</v>
+        <v>3.498</v>
       </c>
       <c r="N114" t="n">
-        <v>0.286</v>
+        <v>0.293</v>
       </c>
       <c r="O114" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P114" t="s">
         <v>36</v>
@@ -9436,7 +9442,7 @@
         <v>676</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44453</v>
+        <v>44458</v>
       </c>
       <c r="D116" t="s">
         <v>677</v>
@@ -9446,31 +9452,31 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="H116" t="n">
-        <v>41455749</v>
+        <v>41565148</v>
       </c>
       <c r="I116" t="n">
-        <v>7591.619</v>
+        <v>7611.652</v>
       </c>
       <c r="J116" t="n">
-        <v>27933</v>
+        <v>12540</v>
       </c>
       <c r="K116" t="n">
-        <v>5.115</v>
+        <v>2.296</v>
       </c>
       <c r="L116" t="n">
-        <v>26970</v>
+        <v>23782</v>
       </c>
       <c r="M116" t="n">
-        <v>4.939</v>
+        <v>4.355</v>
       </c>
       <c r="N116" t="n">
-        <v>0.023</v>
+        <v>0.034</v>
       </c>
       <c r="O116" t="n">
-        <v>43.5</v>
+        <v>29.4</v>
       </c>
       <c r="P116" t="s">
         <v>36</v>
@@ -9493,7 +9499,7 @@
         <v>680</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D117" t="s">
         <v>681</v>
@@ -9503,28 +9509,28 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H117" t="n">
-        <v>1519459</v>
+        <v>1535730</v>
       </c>
       <c r="I117" t="n">
-        <v>730.958</v>
+        <v>738.785</v>
       </c>
       <c r="J117" t="n">
-        <v>6528</v>
+        <v>5728</v>
       </c>
       <c r="K117" t="n">
-        <v>3.14</v>
+        <v>2.756</v>
       </c>
       <c r="L117" t="n">
-        <v>5074</v>
+        <v>5178</v>
       </c>
       <c r="M117" t="n">
-        <v>2.441</v>
+        <v>2.491</v>
       </c>
       <c r="N117" t="n">
-        <v>0.201</v>
+        <v>0.199</v>
       </c>
       <c r="O117" t="n">
         <v>5</v>
@@ -9550,7 +9556,7 @@
         <v>685</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44455</v>
+        <v>44458</v>
       </c>
       <c r="D118" t="s">
         <v>686</v>
@@ -9560,31 +9566,31 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H118" t="n">
-        <v>17236691</v>
+        <v>17352945</v>
       </c>
       <c r="I118" t="n">
-        <v>287.077</v>
+        <v>289.013</v>
       </c>
       <c r="J118" t="n">
-        <v>45342</v>
+        <v>30987</v>
       </c>
       <c r="K118" t="n">
-        <v>0.755</v>
+        <v>0.516</v>
       </c>
       <c r="L118" t="n">
-        <v>43746</v>
+        <v>39958</v>
       </c>
       <c r="M118" t="n">
-        <v>0.729</v>
+        <v>0.666</v>
       </c>
       <c r="N118" t="n">
-        <v>0.099</v>
+        <v>0.087</v>
       </c>
       <c r="O118" t="n">
-        <v>10.1</v>
+        <v>11.4</v>
       </c>
       <c r="P118" t="s">
         <v>687</v>
@@ -9607,7 +9613,7 @@
         <v>691</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44456</v>
+        <v>44460</v>
       </c>
       <c r="D119" t="s">
         <v>692</v>
@@ -9617,25 +9623,25 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H119" t="n">
-        <v>13017726</v>
+        <v>13115409</v>
       </c>
       <c r="I119" t="n">
-        <v>253.731</v>
+        <v>255.635</v>
       </c>
       <c r="J119" t="n">
-        <v>47324</v>
+        <v>17966</v>
       </c>
       <c r="K119" t="n">
-        <v>0.922</v>
+        <v>0.35</v>
       </c>
       <c r="L119" t="n">
-        <v>41620</v>
+        <v>34226</v>
       </c>
       <c r="M119" t="n">
-        <v>0.811</v>
+        <v>0.667</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9713,7 +9719,7 @@
         <v>701</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44448</v>
+        <v>44455</v>
       </c>
       <c r="D121" t="s">
         <v>702</v>
@@ -9723,27 +9729,27 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H121" t="n">
-        <v>56889626</v>
+        <v>56964786</v>
       </c>
       <c r="I121" t="n">
-        <v>1217.015</v>
+        <v>1218.623</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>90685</v>
+        <v>10737</v>
       </c>
       <c r="M121" t="n">
-        <v>1.94</v>
+        <v>0.23</v>
       </c>
       <c r="N121" t="n">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
       <c r="O121" t="n">
-        <v>20.1</v>
+        <v>3.2</v>
       </c>
       <c r="P121" t="s">
         <v>704</v>
@@ -9766,7 +9772,7 @@
         <v>708</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D122" t="s">
         <v>709</v>
@@ -9776,31 +9782,31 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H122" t="n">
-        <v>5163974</v>
+        <v>5201578</v>
       </c>
       <c r="I122" t="n">
-        <v>240.215</v>
+        <v>241.964</v>
       </c>
       <c r="J122" t="n">
-        <v>9672</v>
+        <v>8338</v>
       </c>
       <c r="K122" t="n">
-        <v>0.45</v>
+        <v>0.388</v>
       </c>
       <c r="L122" t="n">
-        <v>10899</v>
+        <v>9752</v>
       </c>
       <c r="M122" t="n">
-        <v>0.507</v>
+        <v>0.454</v>
       </c>
       <c r="N122" t="n">
-        <v>0.276</v>
+        <v>0.257</v>
       </c>
       <c r="O122" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="P122" t="s">
         <v>710</v>
@@ -9876,7 +9882,7 @@
         <v>720</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44454</v>
+        <v>44457</v>
       </c>
       <c r="D124" t="s">
         <v>443</v>
@@ -9886,31 +9892,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="H124" t="n">
-        <v>9882439</v>
+        <v>10021691</v>
       </c>
       <c r="I124" t="n">
-        <v>1133.893</v>
+        <v>1149.871</v>
       </c>
       <c r="J124" t="n">
-        <v>32826</v>
+        <v>31457</v>
       </c>
       <c r="K124" t="n">
-        <v>3.766</v>
+        <v>3.609</v>
       </c>
       <c r="L124" t="n">
-        <v>34348</v>
+        <v>37367</v>
       </c>
       <c r="M124" t="n">
-        <v>3.941</v>
+        <v>4.287</v>
       </c>
       <c r="N124" t="n">
-        <v>0.073</v>
+        <v>0.059</v>
       </c>
       <c r="O124" t="n">
-        <v>13.7</v>
+        <v>16.9</v>
       </c>
       <c r="P124" t="s">
         <v>444</v>
@@ -9933,7 +9939,7 @@
         <v>723</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44454</v>
+        <v>44459</v>
       </c>
       <c r="D125" t="s">
         <v>724</v>
@@ -9943,31 +9949,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="H125" t="n">
-        <v>3092342</v>
+        <v>3173829</v>
       </c>
       <c r="I125" t="n">
-        <v>129.631</v>
+        <v>133.047</v>
       </c>
       <c r="J125" t="n">
-        <v>24536</v>
+        <v>14406</v>
       </c>
       <c r="K125" t="n">
-        <v>1.029</v>
+        <v>0.604</v>
       </c>
       <c r="L125" t="n">
-        <v>23858</v>
+        <v>18860</v>
       </c>
       <c r="M125" t="n">
-        <v>1</v>
+        <v>0.791</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>3553.5</v>
+        <v>2444.9</v>
       </c>
       <c r="P125" t="s">
         <v>725</v>
@@ -10100,7 +10106,7 @@
         <v>739</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
@@ -10110,31 +10116,31 @@
         <v>741</v>
       </c>
       <c r="G128" t="n">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H128" t="n">
-        <v>491349</v>
+        <v>498619</v>
       </c>
       <c r="I128" t="n">
-        <v>57.954</v>
+        <v>58.812</v>
       </c>
       <c r="J128" t="n">
-        <v>1836</v>
+        <v>1634</v>
       </c>
       <c r="K128" t="n">
-        <v>0.217</v>
+        <v>0.193</v>
       </c>
       <c r="L128" t="n">
-        <v>1759</v>
+        <v>1675</v>
       </c>
       <c r="M128" t="n">
-        <v>0.207</v>
+        <v>0.198</v>
       </c>
       <c r="N128" t="n">
-        <v>0.087</v>
+        <v>0.084</v>
       </c>
       <c r="O128" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="P128" t="s">
         <v>740</v>
@@ -10157,7 +10163,7 @@
         <v>746</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44454</v>
+        <v>44456</v>
       </c>
       <c r="D129" t="s">
         <v>747</v>
@@ -10167,31 +10173,31 @@
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H129" t="n">
-        <v>331651</v>
+        <v>333526</v>
       </c>
       <c r="I129" t="n">
-        <v>236.324</v>
+        <v>237.66</v>
       </c>
       <c r="J129" t="n">
-        <v>5319</v>
+        <v>755</v>
       </c>
       <c r="K129" t="n">
-        <v>3.79</v>
+        <v>0.538</v>
       </c>
       <c r="L129" t="n">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="M129" t="n">
-        <v>0.972</v>
+        <v>0.971</v>
       </c>
       <c r="N129" t="n">
-        <v>0.143</v>
+        <v>0.148</v>
       </c>
       <c r="O129" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="P129" t="s">
         <v>36</v>
@@ -10214,7 +10220,7 @@
         <v>751</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44455</v>
+        <v>44457</v>
       </c>
       <c r="D130" t="s">
         <v>752</v>
@@ -10224,31 +10230,31 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H130" t="n">
-        <v>2830291</v>
+        <v>2855364</v>
       </c>
       <c r="I130" t="n">
-        <v>237.127</v>
+        <v>239.228</v>
       </c>
       <c r="J130" t="n">
-        <v>9547</v>
+        <v>14432</v>
       </c>
       <c r="K130" t="n">
-        <v>0.8</v>
+        <v>1.209</v>
       </c>
       <c r="L130" t="n">
-        <v>17362</v>
+        <v>18158</v>
       </c>
       <c r="M130" t="n">
-        <v>1.455</v>
+        <v>1.521</v>
       </c>
       <c r="N130" t="n">
-        <v>0.143</v>
+        <v>0.122</v>
       </c>
       <c r="O130" t="n">
-        <v>7</v>
+        <v>8.2</v>
       </c>
       <c r="P130" t="s">
         <v>754</v>
@@ -10271,7 +10277,7 @@
         <v>758</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D131" t="s">
         <v>759</v>
@@ -10281,31 +10287,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H131" t="n">
-        <v>81382545</v>
+        <v>82744951</v>
       </c>
       <c r="I131" t="n">
-        <v>956.961</v>
+        <v>972.981</v>
       </c>
       <c r="J131" t="n">
-        <v>343142</v>
+        <v>346435</v>
       </c>
       <c r="K131" t="n">
-        <v>4.035</v>
+        <v>4.074</v>
       </c>
       <c r="L131" t="n">
-        <v>325888</v>
+        <v>340155</v>
       </c>
       <c r="M131" t="n">
-        <v>3.832</v>
+        <v>4</v>
       </c>
       <c r="N131" t="n">
-        <v>0.077</v>
+        <v>0.081</v>
       </c>
       <c r="O131" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="P131" t="s">
         <v>760</v>
@@ -10328,7 +10334,7 @@
         <v>764</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44453</v>
+        <v>44457</v>
       </c>
       <c r="D132" t="s">
         <v>765</v>
@@ -10338,31 +10344,31 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H132" t="n">
-        <v>1635630</v>
+        <v>1650421</v>
       </c>
       <c r="I132" t="n">
-        <v>34.709</v>
+        <v>35.023</v>
       </c>
       <c r="J132" t="n">
-        <v>3374</v>
+        <v>3099</v>
       </c>
       <c r="K132" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="L132" t="n">
+        <v>3411</v>
+      </c>
+      <c r="M132" t="n">
         <v>0.072</v>
       </c>
-      <c r="L132" t="n">
-        <v>3643</v>
-      </c>
-      <c r="M132" t="n">
-        <v>0.077</v>
-      </c>
       <c r="N132" t="n">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="O132" t="n">
-        <v>28.2</v>
+        <v>30.3</v>
       </c>
       <c r="P132" t="s">
         <v>766</v>
@@ -10385,7 +10391,7 @@
         <v>770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44456</v>
+        <v>44460</v>
       </c>
       <c r="D133" t="s">
         <v>771</v>
@@ -10395,25 +10401,25 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H133" t="n">
-        <v>12412498</v>
+        <v>12515008</v>
       </c>
       <c r="I133" t="n">
-        <v>285.563</v>
+        <v>287.921</v>
       </c>
       <c r="J133" t="n">
-        <v>35171</v>
+        <v>30563</v>
       </c>
       <c r="K133" t="n">
-        <v>0.809</v>
+        <v>0.703</v>
       </c>
       <c r="L133" t="n">
-        <v>27924</v>
+        <v>29426</v>
       </c>
       <c r="M133" t="n">
-        <v>0.642</v>
+        <v>0.677</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
@@ -10438,7 +10444,7 @@
         <v>776</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D134" t="s">
         <v>777</v>
@@ -10448,31 +10454,31 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="H134" t="n">
-        <v>79589959</v>
+        <v>80875407</v>
       </c>
       <c r="I134" t="n">
-        <v>7966.099</v>
+        <v>8094.759</v>
       </c>
       <c r="J134" t="n">
-        <v>275823</v>
+        <v>227935</v>
       </c>
       <c r="K134" t="n">
-        <v>27.607</v>
+        <v>22.814</v>
       </c>
       <c r="L134" t="n">
-        <v>313989</v>
+        <v>317737</v>
       </c>
       <c r="M134" t="n">
-        <v>31.427</v>
+        <v>31.802</v>
       </c>
       <c r="N134" t="n">
         <v>0.002</v>
       </c>
       <c r="O134" t="n">
-        <v>487.3</v>
+        <v>638.2</v>
       </c>
       <c r="P134" t="s">
         <v>778</v>
@@ -10495,7 +10501,7 @@
         <v>781</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="D135" t="s">
         <v>782</v>
@@ -10507,31 +10513,31 @@
         <v>784</v>
       </c>
       <c r="G135" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H135" t="n">
-        <v>259880899</v>
+        <v>263671147</v>
       </c>
       <c r="I135" t="n">
-        <v>3810.173</v>
+        <v>3865.743</v>
       </c>
       <c r="J135" t="n">
-        <v>1063453</v>
+        <v>1116116</v>
       </c>
       <c r="K135" t="n">
-        <v>15.592</v>
+        <v>16.364</v>
       </c>
       <c r="L135" t="n">
-        <v>1012527</v>
+        <v>966042</v>
       </c>
       <c r="M135" t="n">
-        <v>14.845</v>
+        <v>14.163</v>
       </c>
       <c r="N135" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="O135" t="n">
-        <v>32.3</v>
+        <v>33</v>
       </c>
       <c r="P135" t="s">
         <v>785</v>
@@ -10554,7 +10560,7 @@
         <v>789</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="D136" t="s">
         <v>790</v>
@@ -10564,31 +10570,31 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H136" t="n">
-        <v>551079079</v>
+        <v>558104328</v>
       </c>
       <c r="I136" t="n">
-        <v>1655.314</v>
+        <v>1676.417</v>
       </c>
       <c r="J136" t="n">
-        <v>382262</v>
+        <v>1101828</v>
       </c>
       <c r="K136" t="n">
-        <v>1.148</v>
+        <v>3.31</v>
       </c>
       <c r="L136" t="n">
-        <v>1210978</v>
+        <v>1420333</v>
       </c>
       <c r="M136" t="n">
-        <v>3.637</v>
+        <v>4.266</v>
       </c>
       <c r="N136" t="n">
-        <v>0.142</v>
+        <v>0.106</v>
       </c>
       <c r="O136" t="n">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="P136" t="s">
         <v>791</v>
@@ -10611,7 +10617,7 @@
         <v>796</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="D137" t="s">
         <v>797</v>
@@ -10621,31 +10627,31 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H137" t="n">
-        <v>3472637</v>
+        <v>3480276</v>
       </c>
       <c r="I137" t="n">
-        <v>996.409</v>
+        <v>998.601</v>
       </c>
       <c r="J137" t="n">
-        <v>10352</v>
+        <v>7639</v>
       </c>
       <c r="K137" t="n">
-        <v>2.97</v>
+        <v>2.192</v>
       </c>
       <c r="L137" t="n">
-        <v>8302</v>
+        <v>8005</v>
       </c>
       <c r="M137" t="n">
-        <v>2.382</v>
+        <v>2.297</v>
       </c>
       <c r="N137" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="O137" t="n">
-        <v>55.8</v>
+        <v>53.9</v>
       </c>
       <c r="P137" t="s">
         <v>191</v>
@@ -10725,7 +10731,7 @@
         <v>808</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D139" t="s">
         <v>809</v>
@@ -10735,31 +10741,31 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="H139" t="n">
-        <v>2375797</v>
+        <v>2398197</v>
       </c>
       <c r="I139" t="n">
-        <v>125.566</v>
+        <v>126.75</v>
       </c>
       <c r="J139" t="n">
-        <v>6888</v>
+        <v>3969</v>
       </c>
       <c r="K139" t="n">
-        <v>0.364</v>
+        <v>0.21</v>
       </c>
       <c r="L139" t="n">
-        <v>6122</v>
+        <v>6061</v>
       </c>
       <c r="M139" t="n">
-        <v>0.324</v>
+        <v>0.32</v>
       </c>
       <c r="N139" t="n">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="O139" t="n">
-        <v>60.6</v>
+        <v>78.3</v>
       </c>
       <c r="P139" t="s">
         <v>811</v>
@@ -10782,7 +10788,7 @@
         <v>814</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44454</v>
+        <v>44458</v>
       </c>
       <c r="D140" t="s">
         <v>815</v>
@@ -10792,31 +10798,31 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="H140" t="n">
-        <v>1200458</v>
+        <v>1214437</v>
       </c>
       <c r="I140" t="n">
-        <v>79.542</v>
+        <v>80.468</v>
       </c>
       <c r="J140" t="n">
-        <v>6482</v>
+        <v>2023</v>
       </c>
       <c r="K140" t="n">
-        <v>0.429</v>
+        <v>0.134</v>
       </c>
       <c r="L140" t="n">
-        <v>3899</v>
+        <v>4279</v>
       </c>
       <c r="M140" t="n">
-        <v>0.258</v>
+        <v>0.284</v>
       </c>
       <c r="N140" t="n">
-        <v>0.042</v>
+        <v>0.056</v>
       </c>
       <c r="O140" t="n">
-        <v>23.7</v>
+        <v>17.9</v>
       </c>
       <c r="P140" t="s">
         <v>816</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="818">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-20-september-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-22-september-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-update-1967-new-cases-1589-recoveries_i_0000134580.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1917-new-cases-1362-recoveries_i_0000134785.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-19-de-setembro-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-21-de-setembro-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -733,7 +733,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-admin/admin-ajax.php?juwpfisadmin=false&amp;action=wpfd&amp;task=file.download&amp;wpfd_category_id=59&amp;wpfd_file_id=13262</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-admin/admin-ajax.php?juwpfisadmin=false&amp;action=wpfd&amp;task=file.download&amp;wpfd_category_id=59&amp;wpfd_file_id=13291</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -1168,7 +1168,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/370306</t>
+    <t xml:space="preserve">http://irangov.ir/detail/370484</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1291,7 +1291,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-september-19-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-tuesday-september-21-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -2672,9 +2672,6 @@
   </si>
   <si>
     <t xml:space="preserve">Department of Health &amp; Human Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://healthdata.gov/dataset/covid-19-diagnostic-laboratory-testing-pcr-testing-time-series</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed. The figures are the sum across states, some of which may include serology tests in addition to PCR tests.</t>
@@ -3233,7 +3230,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44452</v>
+        <v>44459</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3243,27 +3240,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" t="n">
-        <v>211883</v>
+        <v>212987</v>
       </c>
       <c r="I3" t="n">
-        <v>2739.134</v>
+        <v>2753.406</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="M3" t="n">
-        <v>1.9</v>
+        <v>2.043</v>
       </c>
       <c r="N3" t="n">
-        <v>0.026</v>
+        <v>0.04</v>
       </c>
       <c r="O3" t="n">
-        <v>38.1</v>
+        <v>25.1</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3331,7 +3328,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44454</v>
+        <v>44456</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3341,31 +3338,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H5" t="n">
-        <v>13804541</v>
+        <v>13858968</v>
       </c>
       <c r="I5" t="n">
-        <v>302.693</v>
+        <v>303.886</v>
       </c>
       <c r="J5" t="n">
-        <v>28728</v>
+        <v>28935</v>
       </c>
       <c r="K5" t="n">
-        <v>0.63</v>
+        <v>0.634</v>
       </c>
       <c r="L5" t="n">
-        <v>25737</v>
+        <v>25423</v>
       </c>
       <c r="M5" t="n">
-        <v>0.564</v>
+        <v>0.557</v>
       </c>
       <c r="N5" t="n">
-        <v>0.028</v>
+        <v>0.025</v>
       </c>
       <c r="O5" t="n">
-        <v>35.7</v>
+        <v>40</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3445,7 +3442,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44459</v>
+        <v>44461</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3455,31 +3452,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H7" t="n">
-        <v>35829079</v>
+        <v>36245879</v>
       </c>
       <c r="I7" t="n">
-        <v>1389.359</v>
+        <v>1405.521</v>
       </c>
       <c r="J7" t="n">
-        <v>204939</v>
+        <v>221985</v>
       </c>
       <c r="K7" t="n">
-        <v>7.947</v>
+        <v>8.608</v>
       </c>
       <c r="L7" t="n">
-        <v>221682</v>
+        <v>222541</v>
       </c>
       <c r="M7" t="n">
-        <v>8.596</v>
+        <v>8.63</v>
       </c>
       <c r="N7" t="n">
         <v>0.008</v>
       </c>
       <c r="O7" t="n">
-        <v>131.4</v>
+        <v>132.3</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3559,7 +3556,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44459</v>
+        <v>44461</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3569,31 +3566,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H9" t="n">
-        <v>4751264</v>
+        <v>4778393</v>
       </c>
       <c r="I9" t="n">
-        <v>464.747</v>
+        <v>467.4</v>
       </c>
       <c r="J9" t="n">
-        <v>7103</v>
+        <v>13546</v>
       </c>
       <c r="K9" t="n">
-        <v>0.695</v>
+        <v>1.325</v>
       </c>
       <c r="L9" t="n">
-        <v>12878</v>
+        <v>12616</v>
       </c>
       <c r="M9" t="n">
-        <v>1.26</v>
+        <v>1.234</v>
       </c>
       <c r="N9" t="n">
-        <v>0.135</v>
+        <v>0.148</v>
       </c>
       <c r="O9" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3616,7 +3613,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44459</v>
+        <v>44461</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3626,31 +3623,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H10" t="n">
-        <v>6283910</v>
+        <v>6315994</v>
       </c>
       <c r="I10" t="n">
-        <v>3594.308</v>
+        <v>3612.659</v>
       </c>
       <c r="J10" t="n">
-        <v>15752</v>
+        <v>15937</v>
       </c>
       <c r="K10" t="n">
-        <v>9.01</v>
+        <v>9.116</v>
       </c>
       <c r="L10" t="n">
-        <v>16432</v>
+        <v>16218</v>
       </c>
       <c r="M10" t="n">
-        <v>9.399</v>
+        <v>9.276</v>
       </c>
       <c r="N10" t="n">
         <v>0.005</v>
       </c>
       <c r="O10" t="n">
-        <v>209.9</v>
+        <v>207.5</v>
       </c>
       <c r="P10" t="s">
         <v>70</v>
@@ -3730,7 +3727,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44455</v>
+        <v>44460</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3740,27 +3737,27 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H12" t="n">
-        <v>8118970</v>
+        <v>8238914</v>
       </c>
       <c r="I12" t="n">
-        <v>859.799</v>
+        <v>872.501</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>21962</v>
+        <v>26008</v>
       </c>
       <c r="M12" t="n">
-        <v>2.326</v>
+        <v>2.754</v>
       </c>
       <c r="N12" t="n">
-        <v>0.085</v>
+        <v>0.075</v>
       </c>
       <c r="O12" t="n">
-        <v>11.8</v>
+        <v>13.3</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -4362,7 +4359,7 @@
         <v>147</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44457</v>
+        <v>44459</v>
       </c>
       <c r="D24" t="s">
         <v>148</v>
@@ -4372,15 +4369,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>829</v>
+        <v>754</v>
       </c>
       <c r="K24" t="n">
-        <v>1.475</v>
+        <v>1.342</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4680,7 +4677,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44458</v>
+        <v>44461</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4690,31 +4687,31 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H30" t="n">
-        <v>2727130</v>
+        <v>2751748</v>
       </c>
       <c r="I30" t="n">
-        <v>668.143</v>
+        <v>674.174</v>
       </c>
       <c r="J30" t="n">
-        <v>9621</v>
+        <v>10978</v>
       </c>
       <c r="K30" t="n">
-        <v>2.357</v>
+        <v>2.69</v>
       </c>
       <c r="L30" t="n">
-        <v>9736</v>
+        <v>9589</v>
       </c>
       <c r="M30" t="n">
-        <v>2.385</v>
+        <v>2.349</v>
       </c>
       <c r="N30" t="n">
-        <v>0.118</v>
+        <v>0.122</v>
       </c>
       <c r="O30" t="n">
-        <v>8.4</v>
+        <v>8.2</v>
       </c>
       <c r="P30" t="s">
         <v>185</v>
@@ -5016,7 +5013,7 @@
         <v>216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44456</v>
+        <v>44459</v>
       </c>
       <c r="D36" t="s">
         <v>217</v>
@@ -5026,27 +5023,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H36" t="n">
-        <v>2019733</v>
+        <v>2027784</v>
       </c>
       <c r="I36" t="n">
-        <v>184.388</v>
+        <v>185.123</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>4061</v>
+        <v>3532</v>
       </c>
       <c r="M36" t="n">
-        <v>0.371</v>
+        <v>0.322</v>
       </c>
       <c r="N36" t="n">
-        <v>0.069</v>
+        <v>0.074</v>
       </c>
       <c r="O36" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="P36" t="s">
         <v>218</v>
@@ -5185,7 +5182,7 @@
         <v>236</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44456</v>
+        <v>44460</v>
       </c>
       <c r="D39" t="s">
         <v>237</v>
@@ -5195,31 +5192,27 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H39" t="n">
-        <v>210877</v>
+        <v>214740</v>
       </c>
       <c r="I39" t="n">
-        <v>145.443</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2175</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1.5</v>
-      </c>
+        <v>148.108</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
       <c r="L39" t="n">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="M39" t="n">
-        <v>0.698</v>
+        <v>0.715</v>
       </c>
       <c r="N39" t="n">
-        <v>0.11</v>
+        <v>0.144</v>
       </c>
       <c r="O39" t="n">
-        <v>9.1</v>
+        <v>6.9</v>
       </c>
       <c r="P39" t="s">
         <v>239</v>
@@ -5523,7 +5516,7 @@
         <v>268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44453</v>
+        <v>44461</v>
       </c>
       <c r="D45" t="s">
         <v>269</v>
@@ -5533,27 +5526,27 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H45" t="n">
-        <v>1127524</v>
+        <v>1130000</v>
       </c>
       <c r="I45" t="n">
-        <v>494.782</v>
+        <v>495.869</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="n">
-        <v>2701</v>
+        <v>310</v>
       </c>
       <c r="M45" t="n">
-        <v>1.185</v>
+        <v>0.136</v>
       </c>
       <c r="N45" t="n">
-        <v>0.038</v>
+        <v>0.661</v>
       </c>
       <c r="O45" t="n">
-        <v>26</v>
+        <v>1.5</v>
       </c>
       <c r="P45" t="s">
         <v>270</v>
@@ -5792,7 +5785,7 @@
         <v>299</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44459</v>
+        <v>44461</v>
       </c>
       <c r="D50" t="s">
         <v>300</v>
@@ -5802,27 +5795,31 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H50" t="n">
-        <v>18018525</v>
+        <v>18615143</v>
       </c>
       <c r="I50" t="n">
-        <v>1737.438</v>
-      </c>
-      <c r="J50"/>
-      <c r="K50"/>
+        <v>1794.966</v>
+      </c>
+      <c r="J50" t="n">
+        <v>199673</v>
+      </c>
+      <c r="K50" t="n">
+        <v>19.253</v>
+      </c>
       <c r="L50" t="n">
-        <v>185423</v>
+        <v>194816</v>
       </c>
       <c r="M50" t="n">
-        <v>17.879</v>
+        <v>18.785</v>
       </c>
       <c r="N50" t="n">
         <v>0.012</v>
       </c>
       <c r="O50" t="n">
-        <v>80.4</v>
+        <v>84.4</v>
       </c>
       <c r="P50" t="s">
         <v>302</v>
@@ -6126,7 +6123,7 @@
         <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44459</v>
+        <v>44460</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
@@ -6136,27 +6133,31 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H56" t="n">
-        <v>24372320</v>
+        <v>24548760</v>
       </c>
       <c r="I56" t="n">
-        <v>88.19</v>
-      </c>
-      <c r="J56"/>
-      <c r="K56"/>
+        <v>88.828</v>
+      </c>
+      <c r="J56" t="n">
+        <v>176440</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.638</v>
+      </c>
       <c r="L56" t="n">
-        <v>167579</v>
+        <v>168233</v>
       </c>
       <c r="M56" t="n">
-        <v>0.606</v>
+        <v>0.609</v>
       </c>
       <c r="N56" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="O56" t="n">
-        <v>51.9</v>
+        <v>54.2</v>
       </c>
       <c r="P56" t="s">
         <v>340</v>
@@ -6179,7 +6180,7 @@
         <v>344</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44459</v>
+        <v>44461</v>
       </c>
       <c r="D57" t="s">
         <v>345</v>
@@ -6189,31 +6190,31 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H57" t="n">
-        <v>31113929</v>
+        <v>31331261</v>
       </c>
       <c r="I57" t="n">
-        <v>365.922</v>
+        <v>368.478</v>
       </c>
       <c r="J57" t="n">
-        <v>106795</v>
+        <v>108213</v>
       </c>
       <c r="K57" t="n">
-        <v>1.256</v>
+        <v>1.273</v>
       </c>
       <c r="L57" t="n">
-        <v>110943</v>
+        <v>110503</v>
       </c>
       <c r="M57" t="n">
-        <v>1.305</v>
+        <v>1.3</v>
       </c>
       <c r="N57" t="n">
-        <v>0.16</v>
+        <v>0.151</v>
       </c>
       <c r="O57" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="P57" t="s">
         <v>346</v>
@@ -6521,7 +6522,7 @@
         <v>379</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44458</v>
+        <v>44460</v>
       </c>
       <c r="D63" t="s">
         <v>380</v>
@@ -6531,31 +6532,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H63" t="n">
-        <v>586326</v>
+        <v>588481</v>
       </c>
       <c r="I63" t="n">
-        <v>197.186</v>
+        <v>197.911</v>
       </c>
       <c r="J63" t="n">
-        <v>1921</v>
+        <v>756</v>
       </c>
       <c r="K63" t="n">
-        <v>0.646</v>
+        <v>0.254</v>
       </c>
       <c r="L63" t="n">
-        <v>1827</v>
+        <v>1683</v>
       </c>
       <c r="M63" t="n">
-        <v>0.614</v>
+        <v>0.566</v>
       </c>
       <c r="N63" t="n">
-        <v>0.298</v>
+        <v>0.322</v>
       </c>
       <c r="O63" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P63" t="s">
         <v>381</v>
@@ -6916,7 +6917,7 @@
         <v>419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44458</v>
+        <v>44460</v>
       </c>
       <c r="D70" t="s">
         <v>420</v>
@@ -6926,27 +6927,27 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H70" t="n">
-        <v>509070</v>
+        <v>515580</v>
       </c>
       <c r="I70" t="n">
-        <v>68.986</v>
+        <v>69.868</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70" t="n">
-        <v>4919</v>
+        <v>4920</v>
       </c>
       <c r="M70" t="n">
         <v>0.667</v>
       </c>
       <c r="N70" t="n">
-        <v>0.053</v>
+        <v>0.059</v>
       </c>
       <c r="O70" t="n">
-        <v>18.8</v>
+        <v>16.8</v>
       </c>
       <c r="P70" t="s">
         <v>421</v>
@@ -7077,7 +7078,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44458</v>
+        <v>44460</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -7087,15 +7088,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>5639</v>
+        <v>5340</v>
       </c>
       <c r="K73" t="n">
-        <v>0.81</v>
+        <v>0.767</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7765,8 +7766,12 @@
       <c r="M85" t="n">
         <v>52.312</v>
       </c>
-      <c r="N85"/>
-      <c r="O85"/>
+      <c r="N85" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="O85" t="n">
+        <v>61.5</v>
+      </c>
       <c r="P85" t="s">
         <v>36</v>
       </c>
@@ -8126,7 +8131,7 @@
         <v>548</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44460</v>
+        <v>44462</v>
       </c>
       <c r="D92" t="s">
         <v>549</v>
@@ -8136,25 +8141,25 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H92" t="n">
-        <v>3248982</v>
+        <v>3287055</v>
       </c>
       <c r="I92" t="n">
-        <v>668.427</v>
+        <v>676.259</v>
       </c>
       <c r="J92" t="n">
-        <v>8347</v>
+        <v>19194</v>
       </c>
       <c r="K92" t="n">
-        <v>1.717</v>
+        <v>3.949</v>
       </c>
       <c r="L92" t="n">
-        <v>12965</v>
+        <v>13735</v>
       </c>
       <c r="M92" t="n">
-        <v>2.667</v>
+        <v>2.826</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -8387,7 +8392,7 @@
         <v>575</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44460</v>
+        <v>44462</v>
       </c>
       <c r="D97" t="s">
         <v>576</v>
@@ -8397,25 +8402,25 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H97" t="n">
-        <v>18950039</v>
+        <v>19049329</v>
       </c>
       <c r="I97" t="n">
-        <v>84.148</v>
+        <v>84.589</v>
       </c>
       <c r="J97" t="n">
-        <v>46231</v>
+        <v>48151</v>
       </c>
       <c r="K97" t="n">
-        <v>0.205</v>
+        <v>0.214</v>
       </c>
       <c r="L97" t="n">
-        <v>54483</v>
+        <v>52371</v>
       </c>
       <c r="M97" t="n">
-        <v>0.242</v>
+        <v>0.233</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -9106,7 +9111,7 @@
         <v>645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44458</v>
+        <v>44461</v>
       </c>
       <c r="D110" t="s">
         <v>646</v>
@@ -9116,31 +9121,31 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H110" t="n">
-        <v>2679362</v>
+        <v>2710633</v>
       </c>
       <c r="I110" t="n">
-        <v>201.812</v>
+        <v>204.167</v>
       </c>
       <c r="J110" t="n">
-        <v>25704</v>
+        <v>10186</v>
       </c>
       <c r="K110" t="n">
-        <v>1.936</v>
+        <v>0.767</v>
       </c>
       <c r="L110" t="n">
-        <v>13899</v>
+        <v>13390</v>
       </c>
       <c r="M110" t="n">
-        <v>1.047</v>
+        <v>1.009</v>
       </c>
       <c r="N110" t="n">
-        <v>0.027</v>
+        <v>0.021</v>
       </c>
       <c r="O110" t="n">
-        <v>36.9</v>
+        <v>47.6</v>
       </c>
       <c r="P110" t="s">
         <v>647</v>
@@ -9163,7 +9168,7 @@
         <v>651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44459</v>
+        <v>44461</v>
       </c>
       <c r="D111" t="s">
         <v>652</v>
@@ -9173,27 +9178,27 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H111" t="n">
-        <v>36222</v>
+        <v>36602</v>
       </c>
       <c r="I111" t="n">
-        <v>676.465</v>
+        <v>683.562</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111" t="n">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M111" t="n">
-        <v>3.978</v>
+        <v>4.09</v>
       </c>
       <c r="N111" t="n">
-        <v>0.137</v>
+        <v>0.106</v>
       </c>
       <c r="O111" t="n">
-        <v>7.3</v>
+        <v>9.5</v>
       </c>
       <c r="P111" t="s">
         <v>36</v>
@@ -9389,7 +9394,7 @@
         <v>671</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44452</v>
+        <v>44459</v>
       </c>
       <c r="D115" t="s">
         <v>672</v>
@@ -9399,27 +9404,27 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H115" t="n">
-        <v>18638817</v>
+        <v>19108195</v>
       </c>
       <c r="I115" t="n">
-        <v>3160.898</v>
+        <v>3240.498</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115" t="n">
-        <v>63021</v>
+        <v>67054</v>
       </c>
       <c r="M115" t="n">
-        <v>10.688</v>
+        <v>11.371</v>
       </c>
       <c r="N115" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="O115" t="n">
-        <v>130</v>
+        <v>85.2</v>
       </c>
       <c r="P115" t="s">
         <v>36</v>
@@ -9613,7 +9618,7 @@
         <v>691</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44460</v>
+        <v>44462</v>
       </c>
       <c r="D119" t="s">
         <v>692</v>
@@ -9623,25 +9628,21 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H119" t="n">
-        <v>13115409</v>
+        <v>13116349</v>
       </c>
       <c r="I119" t="n">
-        <v>255.635</v>
-      </c>
-      <c r="J119" t="n">
-        <v>17966</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.35</v>
-      </c>
+        <v>255.653</v>
+      </c>
+      <c r="J119"/>
+      <c r="K119"/>
       <c r="L119" t="n">
-        <v>34226</v>
+        <v>20850</v>
       </c>
       <c r="M119" t="n">
-        <v>0.667</v>
+        <v>0.406</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9732,24 +9733,24 @@
         <v>75</v>
       </c>
       <c r="H121" t="n">
-        <v>56964786</v>
+        <v>57549938</v>
       </c>
       <c r="I121" t="n">
-        <v>1218.623</v>
+        <v>1231.141</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>10737</v>
+        <v>83593</v>
       </c>
       <c r="M121" t="n">
-        <v>0.23</v>
+        <v>1.788</v>
       </c>
       <c r="N121" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="O121" t="n">
-        <v>3.2</v>
+        <v>25.1</v>
       </c>
       <c r="P121" t="s">
         <v>704</v>
@@ -10220,7 +10221,7 @@
         <v>751</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44457</v>
+        <v>44460</v>
       </c>
       <c r="D130" t="s">
         <v>752</v>
@@ -10230,31 +10231,31 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H130" t="n">
-        <v>2855364</v>
+        <v>2874427</v>
       </c>
       <c r="I130" t="n">
-        <v>239.228</v>
+        <v>240.825</v>
       </c>
       <c r="J130" t="n">
-        <v>14432</v>
+        <v>9302</v>
       </c>
       <c r="K130" t="n">
-        <v>1.209</v>
+        <v>0.779</v>
       </c>
       <c r="L130" t="n">
-        <v>18158</v>
+        <v>8269</v>
       </c>
       <c r="M130" t="n">
-        <v>1.521</v>
+        <v>0.693</v>
       </c>
       <c r="N130" t="n">
-        <v>0.122</v>
+        <v>0.093</v>
       </c>
       <c r="O130" t="n">
-        <v>8.2</v>
+        <v>10.7</v>
       </c>
       <c r="P130" t="s">
         <v>754</v>
@@ -10391,7 +10392,7 @@
         <v>770</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44460</v>
+        <v>44462</v>
       </c>
       <c r="D133" t="s">
         <v>771</v>
@@ -10401,25 +10402,25 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H133" t="n">
-        <v>12515008</v>
+        <v>12593275</v>
       </c>
       <c r="I133" t="n">
-        <v>287.921</v>
+        <v>289.722</v>
       </c>
       <c r="J133" t="n">
-        <v>30563</v>
+        <v>41625</v>
       </c>
       <c r="K133" t="n">
-        <v>0.703</v>
+        <v>0.958</v>
       </c>
       <c r="L133" t="n">
-        <v>29426</v>
+        <v>30850</v>
       </c>
       <c r="M133" t="n">
-        <v>0.677</v>
+        <v>0.71</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
@@ -10600,87 +10601,83 @@
         <v>791</v>
       </c>
       <c r="Q136" t="s">
+        <v>790</v>
+      </c>
+      <c r="R136" t="s">
         <v>792</v>
       </c>
-      <c r="R136" t="s">
+      <c r="S136" t="s">
         <v>793</v>
-      </c>
-      <c r="S136" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>794</v>
+      </c>
+      <c r="B137" t="s">
         <v>795</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" s="1" t="n">
+        <v>44461</v>
+      </c>
+      <c r="D137" t="s">
         <v>796</v>
-      </c>
-      <c r="C137" s="1" t="n">
-        <v>44456</v>
-      </c>
-      <c r="D137" t="s">
-        <v>797</v>
       </c>
       <c r="E137" t="s">
         <v>191</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H137" t="n">
-        <v>3480276</v>
+        <v>3518631</v>
       </c>
       <c r="I137" t="n">
-        <v>998.601</v>
-      </c>
-      <c r="J137" t="n">
-        <v>7639</v>
-      </c>
-      <c r="K137" t="n">
-        <v>2.192</v>
-      </c>
+        <v>1009.606</v>
+      </c>
+      <c r="J137"/>
+      <c r="K137"/>
       <c r="L137" t="n">
-        <v>8005</v>
+        <v>8049</v>
       </c>
       <c r="M137" t="n">
-        <v>2.297</v>
+        <v>2.31</v>
       </c>
       <c r="N137" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="O137" t="n">
-        <v>53.9</v>
+        <v>61.8</v>
       </c>
       <c r="P137" t="s">
         <v>191</v>
       </c>
       <c r="Q137" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="R137" t="s">
         <v>44</v>
       </c>
       <c r="S137" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>799</v>
+      </c>
+      <c r="B138" t="s">
         <v>800</v>
-      </c>
-      <c r="B138" t="s">
-        <v>801</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>44453</v>
       </c>
       <c r="D138" t="s">
+        <v>801</v>
+      </c>
+      <c r="E138" t="s">
         <v>802</v>
-      </c>
-      <c r="E138" t="s">
-        <v>803</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
@@ -10711,33 +10708,33 @@
         <v>21.6</v>
       </c>
       <c r="P138" t="s">
+        <v>803</v>
+      </c>
+      <c r="Q138" t="s">
         <v>804</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>805</v>
       </c>
       <c r="R138" t="s">
         <v>108</v>
       </c>
       <c r="S138" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>806</v>
+      </c>
+      <c r="B139" t="s">
         <v>807</v>
-      </c>
-      <c r="B139" t="s">
-        <v>808</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>44459</v>
       </c>
       <c r="D139" t="s">
+        <v>808</v>
+      </c>
+      <c r="E139" t="s">
         <v>809</v>
-      </c>
-      <c r="E139" t="s">
-        <v>810</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
@@ -10768,33 +10765,33 @@
         <v>78.3</v>
       </c>
       <c r="P139" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="Q139" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="R139" t="s">
         <v>44</v>
       </c>
       <c r="S139" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>812</v>
+      </c>
+      <c r="B140" t="s">
         <v>813</v>
-      </c>
-      <c r="B140" t="s">
-        <v>814</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>44458</v>
       </c>
       <c r="D140" t="s">
+        <v>814</v>
+      </c>
+      <c r="E140" t="s">
         <v>815</v>
-      </c>
-      <c r="E140" t="s">
-        <v>816</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
@@ -10825,16 +10822,16 @@
         <v>17.9</v>
       </c>
       <c r="P140" t="s">
+        <v>815</v>
+      </c>
+      <c r="Q140" t="s">
         <v>816</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>817</v>
       </c>
       <c r="R140" t="s">
         <v>44</v>
       </c>
       <c r="S140" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="819">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4311</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4324</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-22-september-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-23-september-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -363,7 +363,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4543153269079587/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/4553250394736541/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/6034-el-ministerio-de-salud-informa-que-se-inmunizo-hasta-hoy-a-6-388-703-personas-con-primeras-segundas-y-dosis-unica</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/6055-el-ministerio-de-salud-informa-que-se-inmunizo-hasta-hoy-a-6-601-529-personas-con-primeras-segundas-y-dosis-unica</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-21-de-setembro-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-22-de-setembro-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -601,7 +601,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/2003840123115005</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/2006975756134775</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -715,7 +715,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-20092021-9pm7</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-23092021-wqeq</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -1168,7 +1168,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/370484</t>
+    <t xml:space="preserve">http://irangov.ir/detail/370576</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1188,7 +1188,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1439937906626502657</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1441060095341780992</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1291,7 +1291,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-tuesday-september-21-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-september-22-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1439982914461184000</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1441085037101793286</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1609,7 +1609,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1439635399228280836</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1441085023910694925</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1439982885780561924</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1441068532553355269</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1761,7 +1761,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FSep_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(17-9-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FSep_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(23-9-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/photo?fbid=151087520548923&amp;set=pcb.151087623882246</t>
+    <t xml:space="preserve">https://www.facebook.com/photo/?fbid=153441840313491&amp;set=pcb.153441946980147</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1803,7 +1803,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/15VN03VqYSqm12BIQLeKxxflo7297fq2e</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/188FslaSpPfhv9-W8o8LEc4qMHgUxgDpy</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1824,7 +1824,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-09/COVID-19_WebSite_rapport_wekelijks_20210914_1259_Final.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-09/COVID-19_WebSite_rapport_wekelijks_20210921_1135_final.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1956,7 +1956,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4177361672389679</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4187157074743472</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1978,7 +1978,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1439771278060163082</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1441184371273199618</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1439731130027192324</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1441171725052432384</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2049,7 +2049,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1MBs-EetqK5j4wPZJIlWVZ22cxwboKZa0</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1wDB_hV3QcKX8PVPIZqmM9NRabXRg-47p</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2070,7 +2070,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1439873213165670402</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1440960377118855171</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2086,6 +2086,9 @@
   </si>
   <si>
     <t xml:space="preserve">Poland - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1439873213165670402</t>
   </si>
   <si>
     <t xml:space="preserve">PRT</t>
@@ -2133,7 +2136,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/20-09_BULETIN_DE_PRESA_-_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/23-09_BULETIN_DE_PRESA_-_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2156,7 +2159,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=19043</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=19070</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2313,7 +2316,7 @@
     <t xml:space="preserve">South Africa - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://sacoronavirus.co.za/2021/09/19/update-on-covid-19-sunday-19-september/</t>
+    <t xml:space="preserve">https://sacoronavirus.co.za/2021/09/23/update-on-covid-19-thursday-23-september/</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Communicable Diseases (NICD)</t>
@@ -2581,7 +2584,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1439910435021545473</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1440985553642602502</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2707,7 +2710,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1411-bc-byt-2021-tinh-hinh-dich-covid-19-va-cong-tac-phong-chong-dich-ngay-15-9-2021-209480-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1461-bc-byt-2021-tinh-hinh-dich-covid-19-va-cong-tac-phong-chong-dich-ngay-23-9-2021-209888-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam Ministry of Health</t>
@@ -2753,7 +2756,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1439677854564880385</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1441121153053913088</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3328,7 +3331,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44456</v>
+        <v>44457</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3338,31 +3341,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H5" t="n">
-        <v>13858968</v>
+        <v>13888858</v>
       </c>
       <c r="I5" t="n">
-        <v>303.886</v>
+        <v>304.541</v>
       </c>
       <c r="J5" t="n">
-        <v>28935</v>
+        <v>22636</v>
       </c>
       <c r="K5" t="n">
-        <v>0.634</v>
+        <v>0.496</v>
       </c>
       <c r="L5" t="n">
-        <v>25423</v>
+        <v>25688</v>
       </c>
       <c r="M5" t="n">
-        <v>0.557</v>
+        <v>0.563</v>
       </c>
       <c r="N5" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="O5" t="n">
-        <v>40</v>
+        <v>41.7</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3385,7 +3388,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3395,31 +3398,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H6" t="n">
-        <v>1655479</v>
+        <v>1669977</v>
       </c>
       <c r="I6" t="n">
-        <v>557.752</v>
+        <v>562.636</v>
       </c>
       <c r="J6" t="n">
-        <v>4025</v>
+        <v>5823</v>
       </c>
       <c r="K6" t="n">
-        <v>1.356</v>
+        <v>1.962</v>
       </c>
       <c r="L6" t="n">
-        <v>5519</v>
+        <v>5199</v>
       </c>
       <c r="M6" t="n">
-        <v>1.859</v>
+        <v>1.752</v>
       </c>
       <c r="N6" t="n">
-        <v>0.124</v>
+        <v>0.119</v>
       </c>
       <c r="O6" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3442,7 +3445,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3452,31 +3455,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H7" t="n">
-        <v>36245879</v>
+        <v>36475743</v>
       </c>
       <c r="I7" t="n">
-        <v>1405.521</v>
+        <v>1414.434</v>
       </c>
       <c r="J7" t="n">
-        <v>221985</v>
+        <v>229864</v>
       </c>
       <c r="K7" t="n">
-        <v>8.608</v>
+        <v>8.914</v>
       </c>
       <c r="L7" t="n">
-        <v>222541</v>
+        <v>223405</v>
       </c>
       <c r="M7" t="n">
-        <v>8.63</v>
+        <v>8.663</v>
       </c>
       <c r="N7" t="n">
         <v>0.008</v>
       </c>
       <c r="O7" t="n">
-        <v>132.3</v>
+        <v>133.2</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3499,7 +3502,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44458</v>
+        <v>44461</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3509,31 +3512,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H8" t="n">
-        <v>83242754</v>
+        <v>84232566</v>
       </c>
       <c r="I8" t="n">
-        <v>9205.141</v>
+        <v>9314.596</v>
       </c>
       <c r="J8" t="n">
-        <v>374322</v>
+        <v>447985</v>
       </c>
       <c r="K8" t="n">
-        <v>41.393</v>
+        <v>49.539</v>
       </c>
       <c r="L8" t="n">
-        <v>362845</v>
+        <v>356408</v>
       </c>
       <c r="M8" t="n">
-        <v>40.124</v>
+        <v>39.412</v>
       </c>
       <c r="N8" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="O8" t="n">
-        <v>181.4</v>
+        <v>194.9</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3556,7 +3559,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3566,31 +3569,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H9" t="n">
-        <v>4778393</v>
+        <v>4790724</v>
       </c>
       <c r="I9" t="n">
-        <v>467.4</v>
+        <v>468.606</v>
       </c>
       <c r="J9" t="n">
-        <v>13546</v>
+        <v>12331</v>
       </c>
       <c r="K9" t="n">
-        <v>1.325</v>
+        <v>1.206</v>
       </c>
       <c r="L9" t="n">
-        <v>12616</v>
+        <v>12541</v>
       </c>
       <c r="M9" t="n">
-        <v>1.234</v>
+        <v>1.227</v>
       </c>
       <c r="N9" t="n">
-        <v>0.148</v>
+        <v>0.119</v>
       </c>
       <c r="O9" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3613,7 +3616,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3623,31 +3626,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H10" t="n">
-        <v>6315994</v>
+        <v>6333485</v>
       </c>
       <c r="I10" t="n">
-        <v>3612.659</v>
+        <v>3622.664</v>
       </c>
       <c r="J10" t="n">
-        <v>15937</v>
+        <v>17491</v>
       </c>
       <c r="K10" t="n">
-        <v>9.116</v>
+        <v>10.005</v>
       </c>
       <c r="L10" t="n">
-        <v>16218</v>
+        <v>16338</v>
       </c>
       <c r="M10" t="n">
-        <v>9.276</v>
+        <v>9.345</v>
       </c>
       <c r="N10" t="n">
         <v>0.005</v>
       </c>
       <c r="O10" t="n">
-        <v>207.5</v>
+        <v>199.6</v>
       </c>
       <c r="P10" t="s">
         <v>70</v>
@@ -3670,7 +3673,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3680,31 +3683,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="H11" t="n">
-        <v>9437037</v>
+        <v>9523920</v>
       </c>
       <c r="I11" t="n">
-        <v>56.746</v>
+        <v>57.268</v>
       </c>
       <c r="J11" t="n">
-        <v>27431</v>
+        <v>24820</v>
       </c>
       <c r="K11" t="n">
-        <v>0.165</v>
+        <v>0.149</v>
       </c>
       <c r="L11" t="n">
-        <v>26696</v>
+        <v>26400</v>
       </c>
       <c r="M11" t="n">
-        <v>0.161</v>
+        <v>0.159</v>
       </c>
       <c r="N11" t="n">
-        <v>0.064</v>
+        <v>0.055</v>
       </c>
       <c r="O11" t="n">
-        <v>15.7</v>
+        <v>18.3</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3780,7 +3783,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44458</v>
+        <v>44461</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3790,31 +3793,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H13" t="n">
-        <v>19559262</v>
+        <v>19720819</v>
       </c>
       <c r="I13" t="n">
-        <v>1681.456</v>
+        <v>1695.345</v>
       </c>
       <c r="J13" t="n">
-        <v>22043</v>
+        <v>53842</v>
       </c>
       <c r="K13" t="n">
-        <v>1.895</v>
+        <v>4.629</v>
       </c>
       <c r="L13" t="n">
-        <v>47104</v>
+        <v>47957</v>
       </c>
       <c r="M13" t="n">
-        <v>4.049</v>
+        <v>4.123</v>
       </c>
       <c r="N13" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="O13" t="n">
-        <v>20.8</v>
+        <v>21.7</v>
       </c>
       <c r="P13" t="s">
         <v>90</v>
@@ -3935,7 +3938,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -3945,31 +3948,31 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H16" t="n">
-        <v>1132065</v>
+        <v>1138183</v>
       </c>
       <c r="I16" t="n">
-        <v>1451.551</v>
+        <v>1459.396</v>
       </c>
       <c r="J16" t="n">
-        <v>655</v>
+        <v>2967</v>
       </c>
       <c r="K16" t="n">
-        <v>0.84</v>
+        <v>3.804</v>
       </c>
       <c r="L16" t="n">
-        <v>1571</v>
+        <v>1745</v>
       </c>
       <c r="M16" t="n">
-        <v>2.014</v>
+        <v>2.237</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>10986</v>
+        <v>4067.6</v>
       </c>
       <c r="P16" t="s">
         <v>36</v>
@@ -3992,7 +3995,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44457</v>
+        <v>44462</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -4002,31 +4005,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="H17" t="n">
-        <v>2387128</v>
+        <v>2411035</v>
       </c>
       <c r="I17" t="n">
-        <v>201.736</v>
+        <v>203.756</v>
       </c>
       <c r="J17" t="n">
-        <v>4317</v>
+        <v>5960</v>
       </c>
       <c r="K17" t="n">
-        <v>0.365</v>
+        <v>0.504</v>
       </c>
       <c r="L17" t="n">
-        <v>4945</v>
+        <v>4633</v>
       </c>
       <c r="M17" t="n">
-        <v>0.418</v>
+        <v>0.392</v>
       </c>
       <c r="N17" t="n">
-        <v>0.066</v>
+        <v>0.071</v>
       </c>
       <c r="O17" t="n">
-        <v>15.1</v>
+        <v>14.1</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4049,7 +4052,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4059,27 +4062,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H18" t="n">
-        <v>1196043</v>
+        <v>1207337</v>
       </c>
       <c r="I18" t="n">
-        <v>366.495</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18"/>
+        <v>369.956</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3483</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.067</v>
+      </c>
       <c r="L18" t="n">
-        <v>3054</v>
+        <v>3124</v>
       </c>
       <c r="M18" t="n">
-        <v>0.936</v>
+        <v>0.957</v>
       </c>
       <c r="N18" t="n">
-        <v>0.253</v>
+        <v>0.245</v>
       </c>
       <c r="O18" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="P18" t="s">
         <v>118</v>
@@ -4147,7 +4154,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4157,27 +4164,27 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H20" t="n">
-        <v>4627161</v>
+        <v>4679511</v>
       </c>
       <c r="I20" t="n">
-        <v>670.928</v>
+        <v>678.519</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>19206</v>
+        <v>17063</v>
       </c>
       <c r="M20" t="n">
-        <v>2.785</v>
+        <v>2.474</v>
       </c>
       <c r="N20" t="n">
-        <v>0.084</v>
+        <v>0.088</v>
       </c>
       <c r="O20" t="n">
-        <v>11.9</v>
+        <v>11.3</v>
       </c>
       <c r="P20" t="s">
         <v>130</v>
@@ -4302,7 +4309,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D23" t="s">
         <v>140</v>
@@ -4312,31 +4319,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="H23" t="n">
-        <v>42287266</v>
+        <v>42578032</v>
       </c>
       <c r="I23" t="n">
-        <v>1110.838</v>
+        <v>1118.476</v>
       </c>
       <c r="J23" t="n">
-        <v>96459</v>
+        <v>116899</v>
       </c>
       <c r="K23" t="n">
-        <v>2.534</v>
+        <v>3.071</v>
       </c>
       <c r="L23" t="n">
-        <v>99130</v>
+        <v>102365</v>
       </c>
       <c r="M23" t="n">
-        <v>2.604</v>
+        <v>2.689</v>
       </c>
       <c r="N23" t="n">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="O23" t="n">
-        <v>22.5</v>
+        <v>23.7</v>
       </c>
       <c r="P23" t="s">
         <v>141</v>
@@ -4359,7 +4366,7 @@
         <v>147</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44459</v>
+        <v>44460</v>
       </c>
       <c r="D24" t="s">
         <v>148</v>
@@ -4369,15 +4376,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>754</v>
+        <v>834</v>
       </c>
       <c r="K24" t="n">
-        <v>1.342</v>
+        <v>1.484</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4404,7 +4411,7 @@
         <v>153</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D25" t="s">
         <v>154</v>
@@ -4414,31 +4421,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H25" t="n">
-        <v>21012184</v>
+        <v>21145577</v>
       </c>
       <c r="I25" t="n">
-        <v>1093.68</v>
+        <v>1100.623</v>
       </c>
       <c r="J25" t="n">
-        <v>22863</v>
+        <v>69628</v>
       </c>
       <c r="K25" t="n">
-        <v>1.19</v>
+        <v>3.624</v>
       </c>
       <c r="L25" t="n">
-        <v>42765</v>
+        <v>43639</v>
       </c>
       <c r="M25" t="n">
-        <v>2.226</v>
+        <v>2.271</v>
       </c>
       <c r="N25" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="O25" t="n">
-        <v>93.4</v>
+        <v>85.1</v>
       </c>
       <c r="P25" t="s">
         <v>156</v>
@@ -4506,7 +4513,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D27" t="s">
         <v>167</v>
@@ -4516,31 +4523,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H27" t="n">
-        <v>25029645</v>
+        <v>25177071</v>
       </c>
       <c r="I27" t="n">
-        <v>488.232</v>
+        <v>491.108</v>
       </c>
       <c r="J27" t="n">
-        <v>29488</v>
+        <v>49750</v>
       </c>
       <c r="K27" t="n">
-        <v>0.575</v>
+        <v>0.97</v>
       </c>
       <c r="L27" t="n">
-        <v>45158</v>
+        <v>44645</v>
       </c>
       <c r="M27" t="n">
-        <v>0.881</v>
+        <v>0.871</v>
       </c>
       <c r="N27" t="n">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="O27" t="n">
-        <v>23.3</v>
+        <v>24.4</v>
       </c>
       <c r="P27" t="s">
         <v>168</v>
@@ -4563,7 +4570,7 @@
         <v>172</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
@@ -4573,31 +4580,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H28" t="n">
-        <v>1812767</v>
+        <v>1834076</v>
       </c>
       <c r="I28" t="n">
-        <v>352.743</v>
+        <v>356.89</v>
       </c>
       <c r="J28" t="n">
-        <v>7322</v>
+        <v>3380</v>
       </c>
       <c r="K28" t="n">
-        <v>1.425</v>
+        <v>0.658</v>
       </c>
       <c r="L28" t="n">
-        <v>7044</v>
+        <v>5703</v>
       </c>
       <c r="M28" t="n">
-        <v>1.371</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>0.262</v>
+        <v>0.321</v>
       </c>
       <c r="O28" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P28" t="s">
         <v>174</v>
@@ -4620,7 +4627,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44458</v>
+        <v>44462</v>
       </c>
       <c r="D29" t="s">
         <v>178</v>
@@ -4630,31 +4637,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H29" t="n">
-        <v>977401</v>
+        <v>991992</v>
       </c>
       <c r="I29" t="n">
-        <v>36.128</v>
+        <v>36.668</v>
       </c>
       <c r="J29" t="n">
-        <v>4558</v>
+        <v>4469</v>
       </c>
       <c r="K29" t="n">
-        <v>0.168</v>
+        <v>0.165</v>
       </c>
       <c r="L29" t="n">
-        <v>3499</v>
+        <v>3866</v>
       </c>
       <c r="M29" t="n">
-        <v>0.129</v>
+        <v>0.143</v>
       </c>
       <c r="N29" t="n">
-        <v>0.041</v>
+        <v>0.038</v>
       </c>
       <c r="O29" t="n">
-        <v>24.2</v>
+        <v>26.4</v>
       </c>
       <c r="P29" t="s">
         <v>179</v>
@@ -4677,7 +4684,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44461</v>
+        <v>44463</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4687,32 +4694,28 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H30" t="n">
-        <v>2751748</v>
+        <v>2772055</v>
       </c>
       <c r="I30" t="n">
-        <v>674.174</v>
+        <v>679.149</v>
       </c>
       <c r="J30" t="n">
-        <v>10978</v>
+        <v>10201</v>
       </c>
       <c r="K30" t="n">
-        <v>2.69</v>
+        <v>2.499</v>
       </c>
       <c r="L30" t="n">
-        <v>9589</v>
+        <v>9374</v>
       </c>
       <c r="M30" t="n">
-        <v>2.349</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="O30" t="n">
-        <v>8.2</v>
-      </c>
+        <v>2.297</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30"/>
       <c r="P30" t="s">
         <v>185</v>
       </c>
@@ -4793,7 +4796,7 @@
         <v>196</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D32" t="s">
         <v>197</v>
@@ -4803,31 +4806,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H32" t="n">
-        <v>12745004</v>
+        <v>12906842</v>
       </c>
       <c r="I32" t="n">
-        <v>14352.401</v>
+        <v>14534.65</v>
       </c>
       <c r="J32" t="n">
-        <v>64474</v>
+        <v>57324</v>
       </c>
       <c r="K32" t="n">
-        <v>72.605</v>
+        <v>64.554</v>
       </c>
       <c r="L32" t="n">
-        <v>54037</v>
+        <v>54951</v>
       </c>
       <c r="M32" t="n">
-        <v>60.852</v>
+        <v>61.881</v>
       </c>
       <c r="N32" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="O32" t="n">
-        <v>436.3</v>
+        <v>304.1</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4850,7 +4853,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D33" t="s">
         <v>201</v>
@@ -4860,21 +4863,21 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>67010</v>
+        <v>79364</v>
       </c>
       <c r="K33" t="n">
-        <v>6.248</v>
+        <v>7.4</v>
       </c>
       <c r="L33" t="n">
-        <v>69431</v>
+        <v>70604</v>
       </c>
       <c r="M33" t="n">
-        <v>6.474</v>
+        <v>6.583</v>
       </c>
       <c r="N33" t="n">
         <v>0.006</v>
@@ -4956,7 +4959,7 @@
         <v>210</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44458</v>
+        <v>44461</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -4966,31 +4969,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H35" t="n">
-        <v>40743061</v>
+        <v>40854665</v>
       </c>
       <c r="I35" t="n">
-        <v>7008.592</v>
+        <v>7027.79</v>
       </c>
       <c r="J35" t="n">
-        <v>20296</v>
+        <v>24155</v>
       </c>
       <c r="K35" t="n">
-        <v>3.491</v>
+        <v>4.155</v>
       </c>
       <c r="L35" t="n">
-        <v>36450</v>
+        <v>34122</v>
       </c>
       <c r="M35" t="n">
-        <v>6.27</v>
+        <v>5.87</v>
       </c>
       <c r="N35" t="n">
-        <v>0.009</v>
+        <v>0.01</v>
       </c>
       <c r="O35" t="n">
-        <v>107.5</v>
+        <v>103.9</v>
       </c>
       <c r="P35" t="s">
         <v>212</v>
@@ -5182,7 +5185,7 @@
         <v>236</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44460</v>
+        <v>44462</v>
       </c>
       <c r="D39" t="s">
         <v>237</v>
@@ -5192,27 +5195,27 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H39" t="n">
-        <v>214740</v>
+        <v>217029</v>
       </c>
       <c r="I39" t="n">
-        <v>148.108</v>
+        <v>149.686</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39" t="n">
-        <v>1036</v>
+        <v>1190</v>
       </c>
       <c r="M39" t="n">
-        <v>0.715</v>
+        <v>0.821</v>
       </c>
       <c r="N39" t="n">
-        <v>0.144</v>
+        <v>0.089</v>
       </c>
       <c r="O39" t="n">
-        <v>6.9</v>
+        <v>11.2</v>
       </c>
       <c r="P39" t="s">
         <v>239</v>
@@ -5235,7 +5238,7 @@
         <v>242</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D40" t="s">
         <v>243</v>
@@ -5245,31 +5248,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="H40" t="n">
-        <v>1871926</v>
+        <v>1892324</v>
       </c>
       <c r="I40" t="n">
-        <v>1412.574</v>
+        <v>1427.966</v>
       </c>
       <c r="J40" t="n">
-        <v>6579</v>
+        <v>6671</v>
       </c>
       <c r="K40" t="n">
-        <v>4.965</v>
+        <v>5.034</v>
       </c>
       <c r="L40" t="n">
-        <v>6231</v>
+        <v>6337</v>
       </c>
       <c r="M40" t="n">
-        <v>4.702</v>
+        <v>4.782</v>
       </c>
       <c r="N40" t="n">
-        <v>0.075</v>
+        <v>0.079</v>
       </c>
       <c r="O40" t="n">
-        <v>13.4</v>
+        <v>12.7</v>
       </c>
       <c r="P40" t="s">
         <v>244</v>
@@ -5292,7 +5295,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D41" t="s">
         <v>248</v>
@@ -5302,31 +5305,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H41" t="n">
-        <v>3389665</v>
+        <v>3418988</v>
       </c>
       <c r="I41" t="n">
-        <v>28.756</v>
+        <v>29.005</v>
       </c>
       <c r="J41" t="n">
-        <v>5351</v>
+        <v>9481</v>
       </c>
       <c r="K41" t="n">
-        <v>0.045</v>
+        <v>0.08</v>
       </c>
       <c r="L41" t="n">
-        <v>8515</v>
+        <v>8672</v>
       </c>
       <c r="M41" t="n">
-        <v>0.072</v>
+        <v>0.074</v>
       </c>
       <c r="N41" t="n">
-        <v>0.167</v>
+        <v>0.158</v>
       </c>
       <c r="O41" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="P41" t="s">
         <v>249</v>
@@ -5406,7 +5409,7 @@
         <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44456</v>
+        <v>44461</v>
       </c>
       <c r="D43" t="s">
         <v>258</v>
@@ -5416,25 +5419,25 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="H43" t="n">
-        <v>6951623</v>
+        <v>7016119</v>
       </c>
       <c r="I43" t="n">
-        <v>1252.915</v>
+        <v>1264.539</v>
       </c>
       <c r="J43" t="n">
-        <v>2338</v>
+        <v>8564</v>
       </c>
       <c r="K43" t="n">
-        <v>0.421</v>
+        <v>1.544</v>
       </c>
       <c r="L43" t="n">
-        <v>12166</v>
+        <v>10675</v>
       </c>
       <c r="M43" t="n">
-        <v>2.193</v>
+        <v>1.924</v>
       </c>
       <c r="N43" t="n">
         <v>0.037</v>
@@ -5463,7 +5466,7 @@
         <v>263</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44456</v>
+        <v>44459</v>
       </c>
       <c r="D44" t="s">
         <v>264</v>
@@ -5473,27 +5476,27 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="n">
-        <v>790437</v>
+        <v>613097</v>
       </c>
       <c r="K44" t="n">
-        <v>11.699</v>
+        <v>9.074</v>
       </c>
       <c r="L44" t="n">
-        <v>548529</v>
+        <v>530460</v>
       </c>
       <c r="M44" t="n">
-        <v>8.119</v>
+        <v>7.851</v>
       </c>
       <c r="N44" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="O44" t="n">
-        <v>66.7</v>
+        <v>71.4</v>
       </c>
       <c r="P44" t="s">
         <v>265</v>
@@ -5516,7 +5519,7 @@
         <v>268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="D45" t="s">
         <v>269</v>
@@ -5526,27 +5529,31 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H45" t="n">
-        <v>1130000</v>
+        <v>1170115</v>
       </c>
       <c r="I45" t="n">
-        <v>495.869</v>
-      </c>
-      <c r="J45"/>
-      <c r="K45"/>
+        <v>513.472</v>
+      </c>
+      <c r="J45" t="n">
+        <v>40115</v>
+      </c>
+      <c r="K45" t="n">
+        <v>17.603</v>
+      </c>
       <c r="L45" t="n">
-        <v>310</v>
+        <v>5996</v>
       </c>
       <c r="M45" t="n">
-        <v>0.136</v>
+        <v>2.631</v>
       </c>
       <c r="N45" t="n">
-        <v>0.661</v>
+        <v>0.034</v>
       </c>
       <c r="O45" t="n">
-        <v>1.5</v>
+        <v>29.2</v>
       </c>
       <c r="P45" t="s">
         <v>270</v>
@@ -5675,7 +5682,7 @@
         <v>287</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44451</v>
+        <v>44458</v>
       </c>
       <c r="D48" t="s">
         <v>288</v>
@@ -5685,27 +5692,27 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H48" t="n">
-        <v>72301440</v>
+        <v>73279408</v>
       </c>
       <c r="I48" t="n">
-        <v>861.752</v>
+        <v>873.409</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>141624</v>
+        <v>137283</v>
       </c>
       <c r="M48" t="n">
-        <v>1.688</v>
+        <v>1.636</v>
       </c>
       <c r="N48" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="O48" t="n">
-        <v>12.5</v>
+        <v>13.3</v>
       </c>
       <c r="P48" t="s">
         <v>289</v>
@@ -5785,7 +5792,7 @@
         <v>299</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="D50" t="s">
         <v>300</v>
@@ -5795,31 +5802,31 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H50" t="n">
-        <v>18615143</v>
+        <v>18766422</v>
       </c>
       <c r="I50" t="n">
-        <v>1794.966</v>
+        <v>1809.554</v>
       </c>
       <c r="J50" t="n">
-        <v>199673</v>
+        <v>151279</v>
       </c>
       <c r="K50" t="n">
-        <v>19.253</v>
+        <v>14.587</v>
       </c>
       <c r="L50" t="n">
-        <v>194816</v>
+        <v>194242</v>
       </c>
       <c r="M50" t="n">
-        <v>18.785</v>
+        <v>18.73</v>
       </c>
       <c r="N50" t="n">
         <v>0.012</v>
       </c>
       <c r="O50" t="n">
-        <v>84.4</v>
+        <v>85.3</v>
       </c>
       <c r="P50" t="s">
         <v>302</v>
@@ -5842,7 +5849,7 @@
         <v>306</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44458</v>
+        <v>44461</v>
       </c>
       <c r="D51" t="s">
         <v>307</v>
@@ -5852,31 +5859,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H51" t="n">
-        <v>2414918</v>
+        <v>2462778</v>
       </c>
       <c r="I51" t="n">
-        <v>132.325</v>
+        <v>134.948</v>
       </c>
       <c r="J51" t="n">
-        <v>3999</v>
+        <v>16999</v>
       </c>
       <c r="K51" t="n">
-        <v>0.219</v>
+        <v>0.931</v>
       </c>
       <c r="L51" t="n">
-        <v>11675</v>
+        <v>12705</v>
       </c>
       <c r="M51" t="n">
-        <v>0.64</v>
+        <v>0.696</v>
       </c>
       <c r="N51" t="n">
-        <v>0.229</v>
+        <v>0.202</v>
       </c>
       <c r="O51" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="P51" t="s">
         <v>309</v>
@@ -5899,7 +5906,7 @@
         <v>313</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44439</v>
+        <v>44460</v>
       </c>
       <c r="D52" t="s">
         <v>314</v>
@@ -5909,27 +5916,27 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H52" t="n">
-        <v>24014928</v>
+        <v>25235157</v>
       </c>
       <c r="I52" t="n">
-        <v>3179.606</v>
+        <v>3341.166</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52" t="n">
-        <v>60760</v>
+        <v>58029</v>
       </c>
       <c r="M52" t="n">
-        <v>8.045</v>
+        <v>7.683</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>14285.7</v>
+        <v>25000</v>
       </c>
       <c r="P52" t="s">
         <v>316</v>
@@ -5952,7 +5959,7 @@
         <v>320</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44459</v>
+        <v>44463</v>
       </c>
       <c r="D53" t="s">
         <v>321</v>
@@ -5964,32 +5971,28 @@
         <v>323</v>
       </c>
       <c r="G53" t="n">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H53" t="n">
-        <v>6355050</v>
+        <v>6407687</v>
       </c>
       <c r="I53" t="n">
-        <v>659.637</v>
+        <v>665.101</v>
       </c>
       <c r="J53" t="n">
-        <v>36911</v>
+        <v>14435</v>
       </c>
       <c r="K53" t="n">
-        <v>3.831</v>
+        <v>1.498</v>
       </c>
       <c r="L53" t="n">
-        <v>12861</v>
+        <v>12793</v>
       </c>
       <c r="M53" t="n">
-        <v>1.335</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="O53" t="n">
-        <v>34.3</v>
-      </c>
+        <v>1.328</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
       <c r="P53" t="s">
         <v>322</v>
       </c>
@@ -6011,7 +6014,7 @@
         <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44458</v>
+        <v>44461</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -6021,25 +6024,25 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H54" t="n">
-        <v>620997</v>
+        <v>625956</v>
       </c>
       <c r="I54" t="n">
-        <v>1808.589</v>
+        <v>1823.031</v>
       </c>
       <c r="J54" t="n">
-        <v>860</v>
+        <v>1839</v>
       </c>
       <c r="K54" t="n">
-        <v>2.505</v>
+        <v>5.356</v>
       </c>
       <c r="L54" t="n">
-        <v>1501</v>
+        <v>1451</v>
       </c>
       <c r="M54" t="n">
-        <v>4.372</v>
+        <v>4.226</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -6064,7 +6067,7 @@
         <v>332</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44459</v>
+        <v>44463</v>
       </c>
       <c r="D55" t="s">
         <v>333</v>
@@ -6076,32 +6079,28 @@
         <v>335</v>
       </c>
       <c r="G55" t="n">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H55" t="n">
-        <v>553621766</v>
+        <v>559932709</v>
       </c>
       <c r="I55" t="n">
-        <v>397.315</v>
+        <v>401.844</v>
       </c>
       <c r="J55" t="n">
-        <v>1281598</v>
+        <v>1565696</v>
       </c>
       <c r="K55" t="n">
-        <v>0.92</v>
+        <v>1.124</v>
       </c>
       <c r="L55" t="n">
-        <v>1515384</v>
+        <v>1529080</v>
       </c>
       <c r="M55" t="n">
-        <v>1.088</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O55" t="n">
-        <v>49.3</v>
-      </c>
+        <v>1.097</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
       <c r="P55" t="s">
         <v>334</v>
       </c>
@@ -6123,7 +6122,7 @@
         <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44460</v>
+        <v>44462</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
@@ -6133,31 +6132,27 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H56" t="n">
-        <v>24548760</v>
+        <v>24908070</v>
       </c>
       <c r="I56" t="n">
-        <v>88.828</v>
-      </c>
-      <c r="J56" t="n">
-        <v>176440</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.638</v>
-      </c>
+        <v>90.128</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56"/>
       <c r="L56" t="n">
-        <v>168233</v>
+        <v>170461</v>
       </c>
       <c r="M56" t="n">
-        <v>0.609</v>
+        <v>0.617</v>
       </c>
       <c r="N56" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="O56" t="n">
-        <v>54.2</v>
+        <v>58.9</v>
       </c>
       <c r="P56" t="s">
         <v>340</v>
@@ -6180,7 +6175,7 @@
         <v>344</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="D57" t="s">
         <v>345</v>
@@ -6190,25 +6185,25 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H57" t="n">
-        <v>31331261</v>
+        <v>31437588</v>
       </c>
       <c r="I57" t="n">
-        <v>368.478</v>
+        <v>369.729</v>
       </c>
       <c r="J57" t="n">
-        <v>108213</v>
+        <v>106327</v>
       </c>
       <c r="K57" t="n">
-        <v>1.273</v>
+        <v>1.25</v>
       </c>
       <c r="L57" t="n">
-        <v>110503</v>
+        <v>109239</v>
       </c>
       <c r="M57" t="n">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="N57" t="n">
         <v>0.151</v>
@@ -6237,7 +6232,7 @@
         <v>350</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D58" t="s">
         <v>351</v>
@@ -6247,27 +6242,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H58" t="n">
-        <v>14996224</v>
+        <v>15075045</v>
       </c>
       <c r="I58" t="n">
-        <v>364.169</v>
-      </c>
-      <c r="J58"/>
-      <c r="K58"/>
+        <v>366.083</v>
+      </c>
+      <c r="J58" t="n">
+        <v>25195</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.612</v>
+      </c>
       <c r="L58" t="n">
-        <v>28496</v>
+        <v>25664</v>
       </c>
       <c r="M58" t="n">
-        <v>0.692</v>
+        <v>0.623</v>
       </c>
       <c r="N58" t="n">
-        <v>0.118</v>
+        <v>0.112</v>
       </c>
       <c r="O58" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="P58" t="s">
         <v>353</v>
@@ -6290,7 +6289,7 @@
         <v>357</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D59" t="s">
         <v>358</v>
@@ -6300,31 +6299,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H59" t="n">
-        <v>7187263</v>
+        <v>7271205</v>
       </c>
       <c r="I59" t="n">
-        <v>1442.384</v>
+        <v>1459.23</v>
       </c>
       <c r="J59" t="n">
-        <v>19186</v>
+        <v>26571</v>
       </c>
       <c r="K59" t="n">
-        <v>3.85</v>
+        <v>5.332</v>
       </c>
       <c r="L59" t="n">
-        <v>25222</v>
+        <v>24902</v>
       </c>
       <c r="M59" t="n">
-        <v>5.062</v>
+        <v>4.997</v>
       </c>
       <c r="N59" t="n">
-        <v>0.051</v>
+        <v>0.054</v>
       </c>
       <c r="O59" t="n">
-        <v>19.7</v>
+        <v>18.5</v>
       </c>
       <c r="P59" t="s">
         <v>359</v>
@@ -6347,7 +6346,7 @@
         <v>363</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D60" t="s">
         <v>364</v>
@@ -6357,31 +6356,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H60" t="n">
-        <v>26064794</v>
+        <v>26488711</v>
       </c>
       <c r="I60" t="n">
-        <v>2965.354</v>
+        <v>3013.582</v>
       </c>
       <c r="J60" t="n">
-        <v>111305</v>
+        <v>131819</v>
       </c>
       <c r="K60" t="n">
-        <v>12.663</v>
+        <v>14.997</v>
       </c>
       <c r="L60" t="n">
-        <v>124824</v>
+        <v>129541</v>
       </c>
       <c r="M60" t="n">
-        <v>14.201</v>
+        <v>14.738</v>
       </c>
       <c r="N60" t="n">
-        <v>0.058</v>
+        <v>0.051</v>
       </c>
       <c r="O60" t="n">
-        <v>17.1</v>
+        <v>19.7</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
@@ -6404,7 +6403,7 @@
         <v>369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D61" t="s">
         <v>370</v>
@@ -6416,31 +6415,31 @@
         <v>372</v>
       </c>
       <c r="G61" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H61" t="n">
-        <v>33686794</v>
+        <v>33860806</v>
       </c>
       <c r="I61" t="n">
-        <v>558.029</v>
+        <v>560.911</v>
       </c>
       <c r="J61" t="n">
-        <v>27399</v>
+        <v>58183</v>
       </c>
       <c r="K61" t="n">
-        <v>0.454</v>
+        <v>0.964</v>
       </c>
       <c r="L61" t="n">
-        <v>55132</v>
+        <v>54157</v>
       </c>
       <c r="M61" t="n">
-        <v>0.913</v>
+        <v>0.897</v>
       </c>
       <c r="N61" t="n">
-        <v>0.076</v>
+        <v>0.071</v>
       </c>
       <c r="O61" t="n">
-        <v>13.2</v>
+        <v>14.2</v>
       </c>
       <c r="P61" t="s">
         <v>373</v>
@@ -6463,7 +6462,7 @@
         <v>376</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44458</v>
+        <v>44462</v>
       </c>
       <c r="D62" t="s">
         <v>370</v>
@@ -6475,31 +6474,31 @@
         <v>372</v>
       </c>
       <c r="G62" t="n">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="H62" t="n">
-        <v>89420490</v>
+        <v>90487632</v>
       </c>
       <c r="I62" t="n">
-        <v>1481.269</v>
+        <v>1498.947</v>
       </c>
       <c r="J62" t="n">
-        <v>263571</v>
+        <v>321554</v>
       </c>
       <c r="K62" t="n">
-        <v>4.366</v>
+        <v>5.327</v>
       </c>
       <c r="L62" t="n">
-        <v>280951</v>
+        <v>281604</v>
       </c>
       <c r="M62" t="n">
-        <v>4.654</v>
+        <v>4.665</v>
       </c>
       <c r="N62" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="O62" t="n">
-        <v>66.2</v>
+        <v>73.7</v>
       </c>
       <c r="P62" t="s">
         <v>373</v>
@@ -6522,7 +6521,7 @@
         <v>379</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44460</v>
+        <v>44461</v>
       </c>
       <c r="D63" t="s">
         <v>380</v>
@@ -6532,31 +6531,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H63" t="n">
-        <v>588481</v>
+        <v>590447</v>
       </c>
       <c r="I63" t="n">
-        <v>197.911</v>
+        <v>198.572</v>
       </c>
       <c r="J63" t="n">
-        <v>756</v>
+        <v>1966</v>
       </c>
       <c r="K63" t="n">
-        <v>0.254</v>
+        <v>0.661</v>
       </c>
       <c r="L63" t="n">
-        <v>1683</v>
+        <v>1740</v>
       </c>
       <c r="M63" t="n">
-        <v>0.566</v>
+        <v>0.585</v>
       </c>
       <c r="N63" t="n">
-        <v>0.322</v>
+        <v>0.284</v>
       </c>
       <c r="O63" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P63" t="s">
         <v>381</v>
@@ -6579,7 +6578,7 @@
         <v>385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D64" t="s">
         <v>386</v>
@@ -6589,31 +6588,31 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="H64" t="n">
-        <v>22979541</v>
+        <v>23207886</v>
       </c>
       <c r="I64" t="n">
-        <v>182.304</v>
+        <v>184.115</v>
       </c>
       <c r="J64" t="n">
-        <v>25151</v>
+        <v>47873</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="L64" t="n">
-        <v>85199</v>
+        <v>74418</v>
       </c>
       <c r="M64" t="n">
-        <v>0.676</v>
+        <v>0.59</v>
       </c>
       <c r="N64" t="n">
-        <v>0.057</v>
+        <v>0.048</v>
       </c>
       <c r="O64" t="n">
-        <v>17.4</v>
+        <v>20.7</v>
       </c>
       <c r="P64" t="s">
         <v>387</v>
@@ -6636,41 +6635,39 @@
         <v>391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D65" t="s">
         <v>392</v>
       </c>
-      <c r="E65" t="s">
-        <v>393</v>
-      </c>
+      <c r="E65"/>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H65" t="n">
-        <v>9775341</v>
+        <v>9890698</v>
       </c>
       <c r="I65" t="n">
-        <v>951.925</v>
+        <v>963.159</v>
       </c>
       <c r="J65" t="n">
-        <v>27178</v>
+        <v>30650</v>
       </c>
       <c r="K65" t="n">
-        <v>2.647</v>
+        <v>2.985</v>
       </c>
       <c r="L65" t="n">
-        <v>27719</v>
+        <v>26369</v>
       </c>
       <c r="M65" t="n">
-        <v>2.699</v>
+        <v>2.568</v>
       </c>
       <c r="N65" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="O65" t="n">
-        <v>31.2</v>
+        <v>30.6</v>
       </c>
       <c r="P65" t="s">
         <v>393</v>
@@ -6803,7 +6800,7 @@
         <v>407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44459</v>
+        <v>44460</v>
       </c>
       <c r="D68" t="s">
         <v>408</v>
@@ -6813,31 +6810,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H68" t="n">
-        <v>1159541</v>
+        <v>1169540</v>
       </c>
       <c r="I68" t="n">
-        <v>599.936</v>
+        <v>605.11</v>
       </c>
       <c r="J68" t="n">
-        <v>2319</v>
+        <v>9999</v>
       </c>
       <c r="K68" t="n">
-        <v>1.2</v>
+        <v>5.173</v>
       </c>
       <c r="L68" t="n">
-        <v>6218</v>
+        <v>6516</v>
       </c>
       <c r="M68" t="n">
-        <v>3.217</v>
+        <v>3.371</v>
       </c>
       <c r="N68" t="n">
-        <v>0.044</v>
+        <v>0.037</v>
       </c>
       <c r="O68" t="n">
-        <v>23</v>
+        <v>26.7</v>
       </c>
       <c r="P68" t="s">
         <v>410</v>
@@ -6860,7 +6857,7 @@
         <v>413</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D69" t="s">
         <v>414</v>
@@ -6870,31 +6867,31 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H69" t="n">
-        <v>4070660</v>
+        <v>4123606</v>
       </c>
       <c r="I69" t="n">
-        <v>940.421</v>
+        <v>952.652</v>
       </c>
       <c r="J69" t="n">
-        <v>20509</v>
+        <v>16999</v>
       </c>
       <c r="K69" t="n">
-        <v>4.738</v>
+        <v>3.927</v>
       </c>
       <c r="L69" t="n">
-        <v>15944</v>
+        <v>17189</v>
       </c>
       <c r="M69" t="n">
-        <v>3.683</v>
+        <v>3.971</v>
       </c>
       <c r="N69" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O69" t="n">
-        <v>285.4</v>
+        <v>353.9</v>
       </c>
       <c r="P69" t="s">
         <v>415</v>
@@ -6917,7 +6914,7 @@
         <v>419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44460</v>
+        <v>44462</v>
       </c>
       <c r="D70" t="s">
         <v>420</v>
@@ -6927,27 +6924,27 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H70" t="n">
-        <v>515580</v>
+        <v>526350</v>
       </c>
       <c r="I70" t="n">
-        <v>69.868</v>
+        <v>71.327</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70" t="n">
-        <v>4920</v>
+        <v>5580</v>
       </c>
       <c r="M70" t="n">
-        <v>0.667</v>
+        <v>0.756</v>
       </c>
       <c r="N70" t="n">
-        <v>0.059</v>
+        <v>0.066</v>
       </c>
       <c r="O70" t="n">
-        <v>16.8</v>
+        <v>15.1</v>
       </c>
       <c r="P70" t="s">
         <v>421</v>
@@ -7078,7 +7075,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44460</v>
+        <v>44461</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -7088,15 +7085,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>5340</v>
+        <v>5430</v>
       </c>
       <c r="K73" t="n">
-        <v>0.767</v>
+        <v>0.78</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7123,7 +7120,7 @@
         <v>442</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44457</v>
+        <v>44460</v>
       </c>
       <c r="D74" t="s">
         <v>443</v>
@@ -7133,31 +7130,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H74" t="n">
-        <v>65694</v>
+        <v>66189</v>
       </c>
       <c r="I74" t="n">
-        <v>1717.311</v>
+        <v>1730.25</v>
       </c>
       <c r="J74" t="n">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="K74" t="n">
-        <v>3.268</v>
+        <v>4.366</v>
       </c>
       <c r="L74" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M74" t="n">
-        <v>5.751</v>
+        <v>5.882</v>
       </c>
       <c r="N74" t="n">
-        <v>0.022</v>
+        <v>0.025</v>
       </c>
       <c r="O74" t="n">
-        <v>45.5</v>
+        <v>40</v>
       </c>
       <c r="P74" t="s">
         <v>444</v>
@@ -7180,7 +7177,7 @@
         <v>448</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D75" t="s">
         <v>449</v>
@@ -7190,31 +7187,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H75" t="n">
-        <v>4887751</v>
+        <v>4962147</v>
       </c>
       <c r="I75" t="n">
-        <v>1817.101</v>
+        <v>1844.759</v>
       </c>
       <c r="J75" t="n">
-        <v>23801</v>
+        <v>25086</v>
       </c>
       <c r="K75" t="n">
-        <v>8.848</v>
+        <v>9.326</v>
       </c>
       <c r="L75" t="n">
-        <v>19986</v>
+        <v>21165</v>
       </c>
       <c r="M75" t="n">
-        <v>7.43</v>
+        <v>7.868</v>
       </c>
       <c r="N75" t="n">
-        <v>0.058</v>
+        <v>0.061</v>
       </c>
       <c r="O75" t="n">
-        <v>17.2</v>
+        <v>16.4</v>
       </c>
       <c r="P75" t="s">
         <v>450</v>
@@ -7237,7 +7234,7 @@
         <v>453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44457</v>
+        <v>44461</v>
       </c>
       <c r="D76" t="s">
         <v>454</v>
@@ -7247,31 +7244,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H76" t="n">
-        <v>3500471</v>
+        <v>3506815</v>
       </c>
       <c r="I76" t="n">
-        <v>5514.168</v>
+        <v>5524.161</v>
       </c>
       <c r="J76" t="n">
-        <v>1484</v>
+        <v>2298</v>
       </c>
       <c r="K76" t="n">
-        <v>2.338</v>
+        <v>3.62</v>
       </c>
       <c r="L76" t="n">
-        <v>4189</v>
+        <v>1958</v>
       </c>
       <c r="M76" t="n">
-        <v>6.599</v>
+        <v>3.084</v>
       </c>
       <c r="N76" t="n">
-        <v>0.019</v>
+        <v>0.041</v>
       </c>
       <c r="O76" t="n">
-        <v>52.6</v>
+        <v>24.7</v>
       </c>
       <c r="P76" t="s">
         <v>455</v>
@@ -7463,7 +7460,7 @@
         <v>477</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44458</v>
+        <v>44462</v>
       </c>
       <c r="D80" t="s">
         <v>478</v>
@@ -7473,31 +7470,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H80" t="n">
-        <v>1473156</v>
+        <v>1490632</v>
       </c>
       <c r="I80" t="n">
-        <v>2709.9</v>
+        <v>2742.048</v>
       </c>
       <c r="J80" t="n">
-        <v>4698</v>
+        <v>4172</v>
       </c>
       <c r="K80" t="n">
-        <v>8.642</v>
+        <v>7.674</v>
       </c>
       <c r="L80" t="n">
-        <v>4814</v>
+        <v>4354</v>
       </c>
       <c r="M80" t="n">
-        <v>8.855</v>
+        <v>8.009</v>
       </c>
       <c r="N80" t="n">
-        <v>0.022</v>
+        <v>0.028</v>
       </c>
       <c r="O80" t="n">
-        <v>44.7</v>
+        <v>35.6</v>
       </c>
       <c r="P80" t="s">
         <v>479</v>
@@ -7626,7 +7623,7 @@
         <v>495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44458</v>
+        <v>44461</v>
       </c>
       <c r="D83" t="s">
         <v>496</v>
@@ -7636,31 +7633,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H83" t="n">
-        <v>9864382</v>
+        <v>9970552</v>
       </c>
       <c r="I83" t="n">
-        <v>75.727</v>
+        <v>76.542</v>
       </c>
       <c r="J83" t="n">
-        <v>2325</v>
+        <v>11883</v>
       </c>
       <c r="K83" t="n">
-        <v>0.018</v>
+        <v>0.091</v>
       </c>
       <c r="L83" t="n">
-        <v>15337</v>
+        <v>16335</v>
       </c>
       <c r="M83" t="n">
-        <v>0.118</v>
+        <v>0.125</v>
       </c>
       <c r="N83" t="n">
-        <v>0.359</v>
+        <v>0.347</v>
       </c>
       <c r="O83" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P83" t="s">
         <v>498</v>
@@ -7683,7 +7680,7 @@
         <v>501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D84" t="s">
         <v>502</v>
@@ -7693,27 +7690,27 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H84" t="n">
-        <v>1702715</v>
+        <v>1721795</v>
       </c>
       <c r="I84" t="n">
-        <v>423.137</v>
+        <v>427.879</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>8380</v>
+        <v>6881</v>
       </c>
       <c r="M84" t="n">
-        <v>2.082</v>
+        <v>1.71</v>
       </c>
       <c r="N84" t="n">
-        <v>0.121</v>
+        <v>0.153</v>
       </c>
       <c r="O84" t="n">
-        <v>8.3</v>
+        <v>6.5</v>
       </c>
       <c r="P84" t="s">
         <v>503</v>
@@ -7736,7 +7733,7 @@
         <v>506</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="D85" t="s">
         <v>507</v>
@@ -7746,32 +7743,24 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H85" t="n">
-        <v>5061603</v>
+        <v>3943973</v>
       </c>
       <c r="I85" t="n">
-        <v>1520.329</v>
-      </c>
-      <c r="J85" t="n">
-        <v>31044</v>
-      </c>
-      <c r="K85" t="n">
-        <v>9.325</v>
-      </c>
+        <v>1184.632</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85"/>
       <c r="L85" t="n">
-        <v>174163</v>
+        <v>9673</v>
       </c>
       <c r="M85" t="n">
-        <v>52.312</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="O85" t="n">
-        <v>61.5</v>
-      </c>
+        <v>2.905</v>
+      </c>
+      <c r="N85"/>
+      <c r="O85"/>
       <c r="P85" t="s">
         <v>36</v>
       </c>
@@ -7793,7 +7782,7 @@
         <v>510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D86" t="s">
         <v>511</v>
@@ -7803,31 +7792,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H86" t="n">
-        <v>8603089</v>
+        <v>8661569</v>
       </c>
       <c r="I86" t="n">
-        <v>230.369</v>
+        <v>231.935</v>
       </c>
       <c r="J86" t="n">
-        <v>9629</v>
+        <v>18323</v>
       </c>
       <c r="K86" t="n">
-        <v>0.258</v>
+        <v>0.491</v>
       </c>
       <c r="L86" t="n">
-        <v>20538</v>
+        <v>18238</v>
       </c>
       <c r="M86" t="n">
-        <v>0.55</v>
+        <v>0.488</v>
       </c>
       <c r="N86" t="n">
-        <v>0.103</v>
+        <v>0.095</v>
       </c>
       <c r="O86" t="n">
-        <v>9.7</v>
+        <v>10.6</v>
       </c>
       <c r="P86" t="s">
         <v>512</v>
@@ -7907,7 +7896,7 @@
         <v>522</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="D88" t="s">
         <v>523</v>
@@ -7917,31 +7906,31 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="H88" t="n">
-        <v>4070480</v>
+        <v>4188202</v>
       </c>
       <c r="I88" t="n">
-        <v>74.271</v>
+        <v>76.419</v>
       </c>
       <c r="J88" t="n">
-        <v>22800</v>
+        <v>19775</v>
       </c>
       <c r="K88" t="n">
-        <v>0.416</v>
+        <v>0.361</v>
       </c>
       <c r="L88" t="n">
-        <v>23329</v>
+        <v>20075</v>
       </c>
       <c r="M88" t="n">
-        <v>0.426</v>
+        <v>0.366</v>
       </c>
       <c r="N88" t="n">
-        <v>0.094</v>
+        <v>0.09</v>
       </c>
       <c r="O88" t="n">
-        <v>10.6</v>
+        <v>11.1</v>
       </c>
       <c r="P88" t="s">
         <v>524</v>
@@ -7964,7 +7953,7 @@
         <v>528</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44458</v>
+        <v>44461</v>
       </c>
       <c r="D89" t="s">
         <v>529</v>
@@ -7974,31 +7963,31 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H89" t="n">
-        <v>688760</v>
+        <v>691844</v>
       </c>
       <c r="I89" t="n">
-        <v>266.203</v>
+        <v>267.395</v>
       </c>
       <c r="J89" t="n">
-        <v>1326</v>
+        <v>1100</v>
       </c>
       <c r="K89" t="n">
-        <v>0.512</v>
+        <v>0.425</v>
       </c>
       <c r="L89" t="n">
-        <v>1505</v>
+        <v>1425</v>
       </c>
       <c r="M89" t="n">
-        <v>0.582</v>
+        <v>0.551</v>
       </c>
       <c r="N89" t="n">
-        <v>0.049</v>
+        <v>0.061</v>
       </c>
       <c r="O89" t="n">
-        <v>20.2</v>
+        <v>16.5</v>
       </c>
       <c r="P89" t="s">
         <v>531</v>
@@ -8021,7 +8010,7 @@
         <v>535</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D90" t="s">
         <v>536</v>
@@ -8031,31 +8020,31 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H90" t="n">
-        <v>4103886</v>
+        <v>4136208</v>
       </c>
       <c r="I90" t="n">
-        <v>138.295</v>
+        <v>139.384</v>
       </c>
       <c r="J90" t="n">
-        <v>10786</v>
+        <v>11629</v>
       </c>
       <c r="K90" t="n">
-        <v>0.363</v>
+        <v>0.392</v>
       </c>
       <c r="L90" t="n">
-        <v>9899</v>
+        <v>9660</v>
       </c>
       <c r="M90" t="n">
-        <v>0.334</v>
+        <v>0.326</v>
       </c>
       <c r="N90" t="n">
-        <v>0.104</v>
+        <v>0.1</v>
       </c>
       <c r="O90" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="P90" t="s">
         <v>537</v>
@@ -8078,7 +8067,7 @@
         <v>541</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44451</v>
+        <v>44458</v>
       </c>
       <c r="D91" t="s">
         <v>542</v>
@@ -8088,27 +8077,27 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H91" t="n">
-        <v>12903128</v>
+        <v>13007906</v>
       </c>
       <c r="I91" t="n">
-        <v>751.357</v>
+        <v>757.458</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>11404</v>
+        <v>12296</v>
       </c>
       <c r="M91" t="n">
-        <v>0.664</v>
+        <v>0.716</v>
       </c>
       <c r="N91" t="n">
-        <v>0.066</v>
+        <v>0.058</v>
       </c>
       <c r="O91" t="n">
-        <v>15.2</v>
+        <v>17.2</v>
       </c>
       <c r="P91" t="s">
         <v>544</v>
@@ -8131,7 +8120,7 @@
         <v>548</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="D92" t="s">
         <v>549</v>
@@ -8141,25 +8130,25 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H92" t="n">
-        <v>3287055</v>
+        <v>3301910</v>
       </c>
       <c r="I92" t="n">
-        <v>676.259</v>
+        <v>679.316</v>
       </c>
       <c r="J92" t="n">
-        <v>19194</v>
+        <v>14855</v>
       </c>
       <c r="K92" t="n">
-        <v>3.949</v>
+        <v>3.056</v>
       </c>
       <c r="L92" t="n">
-        <v>13735</v>
+        <v>13655</v>
       </c>
       <c r="M92" t="n">
-        <v>2.826</v>
+        <v>2.809</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -8237,7 +8226,7 @@
         <v>559</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D94" t="s">
         <v>560</v>
@@ -8247,27 +8236,27 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H94" t="n">
-        <v>1251483</v>
+        <v>1257522</v>
       </c>
       <c r="I94" t="n">
-        <v>600.906</v>
+        <v>603.805</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="n">
-        <v>4149</v>
+        <v>3233</v>
       </c>
       <c r="M94" t="n">
-        <v>1.992</v>
+        <v>1.552</v>
       </c>
       <c r="N94" t="n">
-        <v>0.116</v>
+        <v>0.141</v>
       </c>
       <c r="O94" t="n">
-        <v>8.6</v>
+        <v>7.1</v>
       </c>
       <c r="P94" t="s">
         <v>36</v>
@@ -8290,7 +8279,7 @@
         <v>564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44457</v>
+        <v>44460</v>
       </c>
       <c r="D95" t="s">
         <v>565</v>
@@ -8300,31 +8289,31 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H95" t="n">
-        <v>7609645</v>
+        <v>7669062</v>
       </c>
       <c r="I95" t="n">
-        <v>1392.273</v>
+        <v>1403.144</v>
       </c>
       <c r="J95" t="n">
-        <v>7898</v>
+        <v>21347</v>
       </c>
       <c r="K95" t="n">
-        <v>1.445</v>
+        <v>3.906</v>
       </c>
       <c r="L95" t="n">
-        <v>19722</v>
+        <v>18534</v>
       </c>
       <c r="M95" t="n">
-        <v>3.608</v>
+        <v>3.391</v>
       </c>
       <c r="N95" t="n">
-        <v>0.045</v>
+        <v>0.038</v>
       </c>
       <c r="O95" t="n">
-        <v>22</v>
+        <v>26.4</v>
       </c>
       <c r="P95" t="s">
         <v>566</v>
@@ -8392,7 +8381,7 @@
         <v>575</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="D97" t="s">
         <v>576</v>
@@ -8402,25 +8391,25 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H97" t="n">
-        <v>19049329</v>
+        <v>19102117</v>
       </c>
       <c r="I97" t="n">
-        <v>84.589</v>
+        <v>84.823</v>
       </c>
       <c r="J97" t="n">
-        <v>48151</v>
+        <v>52788</v>
       </c>
       <c r="K97" t="n">
-        <v>0.214</v>
+        <v>0.234</v>
       </c>
       <c r="L97" t="n">
-        <v>52371</v>
+        <v>51680</v>
       </c>
       <c r="M97" t="n">
-        <v>0.233</v>
+        <v>0.229</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -8445,7 +8434,7 @@
         <v>580</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D98" t="s">
         <v>581</v>
@@ -8453,27 +8442,27 @@
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>10057</v>
+        <v>9103</v>
       </c>
       <c r="K98" t="n">
-        <v>1.926</v>
+        <v>1.743</v>
       </c>
       <c r="L98" t="n">
-        <v>10688</v>
+        <v>9650</v>
       </c>
       <c r="M98" t="n">
-        <v>2.046</v>
+        <v>1.848</v>
       </c>
       <c r="N98" t="n">
-        <v>0.192</v>
+        <v>0.19</v>
       </c>
       <c r="O98" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="P98" t="s">
         <v>582</v>
@@ -8496,7 +8485,7 @@
         <v>586</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44458</v>
+        <v>44462</v>
       </c>
       <c r="D99" t="s">
         <v>587</v>
@@ -8506,31 +8495,31 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H99" t="n">
-        <v>3799405</v>
+        <v>3830296</v>
       </c>
       <c r="I99" t="n">
-        <v>867.131</v>
+        <v>874.181</v>
       </c>
       <c r="J99" t="n">
-        <v>5195</v>
+        <v>8413</v>
       </c>
       <c r="K99" t="n">
-        <v>1.186</v>
+        <v>1.92</v>
       </c>
       <c r="L99" t="n">
-        <v>6730</v>
+        <v>7252</v>
       </c>
       <c r="M99" t="n">
-        <v>1.536</v>
+        <v>1.655</v>
       </c>
       <c r="N99" t="n">
-        <v>0.048</v>
+        <v>0.04</v>
       </c>
       <c r="O99" t="n">
-        <v>20.7</v>
+        <v>25.2</v>
       </c>
       <c r="P99" t="s">
         <v>588</v>
@@ -8606,7 +8595,7 @@
         <v>597</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44458</v>
+        <v>44462</v>
       </c>
       <c r="D101" t="s">
         <v>598</v>
@@ -8616,31 +8605,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H101" t="n">
-        <v>1816025</v>
+        <v>1824448</v>
       </c>
       <c r="I101" t="n">
-        <v>251.54</v>
+        <v>252.706</v>
       </c>
       <c r="J101" t="n">
-        <v>2124</v>
+        <v>2164</v>
       </c>
       <c r="K101" t="n">
-        <v>0.294</v>
+        <v>0.3</v>
       </c>
       <c r="L101" t="n">
-        <v>2202</v>
+        <v>2137</v>
       </c>
       <c r="M101" t="n">
-        <v>0.305</v>
+        <v>0.296</v>
       </c>
       <c r="N101" t="n">
-        <v>0.024</v>
+        <v>0.015</v>
       </c>
       <c r="O101" t="n">
-        <v>42.2</v>
+        <v>65.9</v>
       </c>
       <c r="P101" t="s">
         <v>599</v>
@@ -8663,7 +8652,7 @@
         <v>603</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44426</v>
+        <v>44459</v>
       </c>
       <c r="D102" t="s">
         <v>604</v>
@@ -8673,31 +8662,31 @@
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="H102" t="n">
-        <v>5037992</v>
+        <v>5377958</v>
       </c>
       <c r="I102" t="n">
-        <v>151.022</v>
+        <v>161.213</v>
       </c>
       <c r="J102" t="n">
-        <v>4658</v>
+        <v>2452</v>
       </c>
       <c r="K102" t="n">
-        <v>0.14</v>
+        <v>0.074</v>
       </c>
       <c r="L102" t="n">
-        <v>9406</v>
+        <v>8527</v>
       </c>
       <c r="M102" t="n">
-        <v>0.282</v>
+        <v>0.256</v>
       </c>
       <c r="N102" t="n">
-        <v>0.048</v>
+        <v>0.036</v>
       </c>
       <c r="O102" t="n">
-        <v>20.8</v>
+        <v>27.8</v>
       </c>
       <c r="P102" t="s">
         <v>168</v>
@@ -8720,7 +8709,7 @@
         <v>608</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44458</v>
+        <v>44461</v>
       </c>
       <c r="D103" t="s">
         <v>609</v>
@@ -8730,31 +8719,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H103" t="n">
-        <v>19133985</v>
+        <v>19362705</v>
       </c>
       <c r="I103" t="n">
-        <v>172.305</v>
+        <v>174.365</v>
       </c>
       <c r="J103" t="n">
-        <v>44682</v>
+        <v>72825</v>
       </c>
       <c r="K103" t="n">
-        <v>0.402</v>
+        <v>0.656</v>
       </c>
       <c r="L103" t="n">
-        <v>71019</v>
+        <v>70701</v>
       </c>
       <c r="M103" t="n">
-        <v>0.64</v>
+        <v>0.637</v>
       </c>
       <c r="N103" t="n">
-        <v>0.28</v>
+        <v>0.272</v>
       </c>
       <c r="O103" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="P103" t="s">
         <v>315</v>
@@ -8777,7 +8766,7 @@
         <v>614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D104" t="s">
         <v>615</v>
@@ -8787,31 +8776,31 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H104" t="n">
-        <v>20092593</v>
+        <v>20221027</v>
       </c>
       <c r="I104" t="n">
-        <v>531.592</v>
+        <v>534.99</v>
       </c>
       <c r="J104" t="n">
-        <v>22207</v>
+        <v>41445</v>
       </c>
       <c r="K104" t="n">
-        <v>0.588</v>
+        <v>1.097</v>
       </c>
       <c r="L104" t="n">
-        <v>37080</v>
+        <v>37096</v>
       </c>
       <c r="M104" t="n">
         <v>0.981</v>
       </c>
       <c r="N104" t="n">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="O104" t="n">
-        <v>59.3</v>
+        <v>52.8</v>
       </c>
       <c r="P104" t="s">
         <v>616</v>
@@ -8837,7 +8826,7 @@
         <v>44458</v>
       </c>
       <c r="D105" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="E105" t="s">
         <v>616</v>
@@ -8885,293 +8874,285 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B106" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44457</v>
+        <v>44461</v>
       </c>
       <c r="D106" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E106" t="s">
         <v>36</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H106" t="n">
-        <v>18007442</v>
+        <v>18177290</v>
       </c>
       <c r="I106" t="n">
-        <v>1771.005</v>
+        <v>1787.709</v>
       </c>
       <c r="J106" t="n">
-        <v>36416</v>
+        <v>51337</v>
       </c>
       <c r="K106" t="n">
-        <v>3.581</v>
+        <v>5.049</v>
       </c>
       <c r="L106" t="n">
-        <v>57176</v>
+        <v>48812</v>
       </c>
       <c r="M106" t="n">
-        <v>5.623</v>
+        <v>4.801</v>
       </c>
       <c r="N106" t="n">
         <v>0.017</v>
       </c>
       <c r="O106" t="n">
-        <v>59.8</v>
+        <v>60.5</v>
       </c>
       <c r="P106" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q106" t="s">
         <v>623</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>622</v>
       </c>
       <c r="R106" t="s">
         <v>44</v>
       </c>
       <c r="S106" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B107" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44459</v>
+        <v>44460</v>
       </c>
       <c r="D107" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E107" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H107" t="n">
-        <v>2610510</v>
+        <v>2615766</v>
       </c>
       <c r="I107" t="n">
-        <v>890.8</v>
+        <v>892.593</v>
       </c>
       <c r="J107" t="n">
-        <v>5141</v>
+        <v>5256</v>
       </c>
       <c r="K107" t="n">
-        <v>1.754</v>
+        <v>1.794</v>
       </c>
       <c r="L107" t="n">
-        <v>5285</v>
+        <v>5275</v>
       </c>
       <c r="M107" t="n">
-        <v>1.803</v>
+        <v>1.8</v>
       </c>
       <c r="N107" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="O107" t="n">
-        <v>43.4</v>
+        <v>42.2</v>
       </c>
       <c r="P107" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Q107" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="R107" t="s">
         <v>31</v>
       </c>
       <c r="S107" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B108" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D108" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E108" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H108" t="n">
-        <v>9395743</v>
+        <v>9463782</v>
       </c>
       <c r="I108" t="n">
-        <v>491.209</v>
+        <v>494.767</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108" t="n">
-        <v>16130</v>
+        <v>20162</v>
       </c>
       <c r="M108" t="n">
-        <v>0.843</v>
+        <v>1.054</v>
       </c>
       <c r="N108" t="n">
-        <v>0.26</v>
+        <v>0.269</v>
       </c>
       <c r="O108" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="P108" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Q108" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="R108" t="s">
         <v>44</v>
       </c>
       <c r="S108" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B109" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D109" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E109" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H109" t="n">
-        <v>187347905</v>
+        <v>188786024</v>
       </c>
       <c r="I109" t="n">
-        <v>1283.979</v>
+        <v>1293.835</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>433205</v>
+        <v>448050</v>
       </c>
       <c r="M109" t="n">
-        <v>2.969</v>
+        <v>3.071</v>
       </c>
       <c r="N109" t="n">
         <v>0.044</v>
       </c>
       <c r="O109" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="P109" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Q109" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="R109" t="s">
         <v>44</v>
       </c>
       <c r="S109" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B110" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44461</v>
+        <v>44463</v>
       </c>
       <c r="D110" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E110" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H110" t="n">
-        <v>2710633</v>
+        <v>2731232</v>
       </c>
       <c r="I110" t="n">
-        <v>204.167</v>
-      </c>
-      <c r="J110" t="n">
-        <v>10186</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.767</v>
-      </c>
+        <v>205.719</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110"/>
       <c r="L110" t="n">
-        <v>13390</v>
+        <v>12403</v>
       </c>
       <c r="M110" t="n">
-        <v>1.009</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="O110" t="n">
-        <v>47.6</v>
-      </c>
+        <v>0.934</v>
+      </c>
+      <c r="N110"/>
+      <c r="O110"/>
       <c r="P110" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Q110" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="R110" t="s">
         <v>108</v>
       </c>
       <c r="S110" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B111" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>44461</v>
       </c>
       <c r="D111" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E111" t="s">
         <v>36</v>
@@ -9204,200 +9185,200 @@
         <v>36</v>
       </c>
       <c r="Q111" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="R111" t="s">
         <v>422</v>
       </c>
       <c r="S111" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B112" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44458</v>
+        <v>44461</v>
       </c>
       <c r="D112" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E112" t="s">
         <v>36</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H112" t="n">
-        <v>28433787</v>
+        <v>28595954</v>
       </c>
       <c r="I112" t="n">
-        <v>804.563</v>
+        <v>809.151</v>
       </c>
       <c r="J112" t="n">
-        <v>45291</v>
+        <v>51621</v>
       </c>
       <c r="K112" t="n">
-        <v>1.282</v>
+        <v>1.461</v>
       </c>
       <c r="L112" t="n">
-        <v>48127</v>
+        <v>49661</v>
       </c>
       <c r="M112" t="n">
-        <v>1.362</v>
+        <v>1.405</v>
       </c>
       <c r="N112" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="O112" t="n">
-        <v>578.8</v>
+        <v>383.7</v>
       </c>
       <c r="P112" t="s">
         <v>36</v>
       </c>
       <c r="Q112" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="R112" t="s">
         <v>44</v>
       </c>
       <c r="S112" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B113" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D113" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E113" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H113" t="n">
-        <v>795255</v>
+        <v>800077</v>
       </c>
       <c r="I113" t="n">
-        <v>46.246</v>
+        <v>46.526</v>
       </c>
       <c r="J113" t="n">
-        <v>1479</v>
+        <v>1688</v>
       </c>
       <c r="K113" t="n">
-        <v>0.086</v>
+        <v>0.098</v>
       </c>
       <c r="L113" t="n">
-        <v>1990</v>
+        <v>1810</v>
       </c>
       <c r="M113" t="n">
-        <v>0.116</v>
+        <v>0.105</v>
       </c>
       <c r="N113" t="n">
         <v>0.011</v>
       </c>
       <c r="O113" t="n">
-        <v>90.5</v>
+        <v>88</v>
       </c>
       <c r="P113" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q113" t="s">
         <v>662</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>661</v>
       </c>
       <c r="R113" t="s">
         <v>44</v>
       </c>
       <c r="S113" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B114" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44458</v>
+        <v>44462</v>
       </c>
       <c r="D114" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E114" t="s">
         <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G114" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H114" t="n">
-        <v>5407881</v>
+        <v>5498341</v>
       </c>
       <c r="I114" t="n">
-        <v>794.739</v>
+        <v>808.033</v>
       </c>
       <c r="J114" t="n">
-        <v>16642</v>
+        <v>21454</v>
       </c>
       <c r="K114" t="n">
-        <v>2.446</v>
+        <v>3.153</v>
       </c>
       <c r="L114" t="n">
-        <v>23800</v>
+        <v>22254</v>
       </c>
       <c r="M114" t="n">
-        <v>3.498</v>
+        <v>3.27</v>
       </c>
       <c r="N114" t="n">
-        <v>0.293</v>
+        <v>0.301</v>
       </c>
       <c r="O114" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P114" t="s">
         <v>36</v>
       </c>
       <c r="Q114" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="R114" t="s">
         <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B115" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>44459</v>
       </c>
       <c r="D115" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E115" t="s">
         <v>36</v>
@@ -9430,247 +9411,251 @@
         <v>36</v>
       </c>
       <c r="Q115" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="R115" t="s">
         <v>108</v>
       </c>
       <c r="S115" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B116" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44458</v>
+        <v>44461</v>
       </c>
       <c r="D116" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E116" t="s">
         <v>36</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="H116" t="n">
-        <v>41565148</v>
+        <v>41677440</v>
       </c>
       <c r="I116" t="n">
-        <v>7611.652</v>
+        <v>7632.216</v>
       </c>
       <c r="J116" t="n">
-        <v>12540</v>
+        <v>25317</v>
       </c>
       <c r="K116" t="n">
-        <v>2.296</v>
+        <v>4.636</v>
       </c>
       <c r="L116" t="n">
-        <v>23782</v>
+        <v>28998</v>
       </c>
       <c r="M116" t="n">
-        <v>4.355</v>
+        <v>5.31</v>
       </c>
       <c r="N116" t="n">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="O116" t="n">
-        <v>29.4</v>
+        <v>26.3</v>
       </c>
       <c r="P116" t="s">
         <v>36</v>
       </c>
       <c r="Q116" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="R116" t="s">
         <v>44</v>
       </c>
       <c r="S116" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B117" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D117" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E117" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H117" t="n">
-        <v>1535730</v>
+        <v>1552754</v>
       </c>
       <c r="I117" t="n">
-        <v>738.785</v>
+        <v>746.975</v>
       </c>
       <c r="J117" t="n">
-        <v>5728</v>
+        <v>5471</v>
       </c>
       <c r="K117" t="n">
-        <v>2.756</v>
+        <v>2.632</v>
       </c>
       <c r="L117" t="n">
-        <v>5178</v>
+        <v>4755</v>
       </c>
       <c r="M117" t="n">
-        <v>2.491</v>
+        <v>2.287</v>
       </c>
       <c r="N117" t="n">
-        <v>0.199</v>
+        <v>0.196</v>
       </c>
       <c r="O117" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="P117" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q117" t="s">
         <v>682</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>681</v>
       </c>
       <c r="R117" t="s">
         <v>44</v>
       </c>
       <c r="S117" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B118" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44458</v>
+        <v>44462</v>
       </c>
       <c r="D118" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E118" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H118" t="n">
-        <v>17352945</v>
+        <v>17493443</v>
       </c>
       <c r="I118" t="n">
-        <v>289.013</v>
+        <v>291.353</v>
       </c>
       <c r="J118" t="n">
-        <v>30987</v>
+        <v>40660</v>
       </c>
       <c r="K118" t="n">
-        <v>0.516</v>
+        <v>0.677</v>
       </c>
       <c r="L118" t="n">
-        <v>39958</v>
+        <v>36679</v>
       </c>
       <c r="M118" t="n">
-        <v>0.666</v>
+        <v>0.611</v>
       </c>
       <c r="N118" t="n">
-        <v>0.087</v>
+        <v>0.073</v>
       </c>
       <c r="O118" t="n">
-        <v>11.4</v>
+        <v>13.8</v>
       </c>
       <c r="P118" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Q118" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="R118" t="s">
         <v>31</v>
       </c>
       <c r="S118" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B119" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="D119" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E119" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H119" t="n">
-        <v>13116349</v>
+        <v>13191185</v>
       </c>
       <c r="I119" t="n">
-        <v>255.653</v>
-      </c>
-      <c r="J119"/>
-      <c r="K119"/>
+        <v>257.112</v>
+      </c>
+      <c r="J119" t="n">
+        <v>74836</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1.459</v>
+      </c>
       <c r="L119" t="n">
-        <v>20850</v>
+        <v>24780</v>
       </c>
       <c r="M119" t="n">
-        <v>0.406</v>
+        <v>0.483</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
       <c r="P119" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q119" t="s">
         <v>693</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>692</v>
       </c>
       <c r="R119" t="s">
         <v>31</v>
       </c>
       <c r="S119" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B120" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>44342</v>
       </c>
       <c r="D120" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E120" t="s">
         <v>36</v>
@@ -9703,30 +9688,30 @@
         <v>36</v>
       </c>
       <c r="Q120" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="R120" t="s">
         <v>44</v>
       </c>
       <c r="S120" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B121" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>44455</v>
       </c>
       <c r="D121" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E121" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
@@ -9753,137 +9738,137 @@
         <v>25.1</v>
       </c>
       <c r="P121" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Q121" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="R121" t="s">
         <v>44</v>
       </c>
       <c r="S121" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B122" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D122" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E122" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="H122" t="n">
-        <v>5201578</v>
+        <v>5224555</v>
       </c>
       <c r="I122" t="n">
-        <v>241.964</v>
+        <v>243.033</v>
       </c>
       <c r="J122" t="n">
-        <v>8338</v>
+        <v>8256</v>
       </c>
       <c r="K122" t="n">
-        <v>0.388</v>
+        <v>0.384</v>
       </c>
       <c r="L122" t="n">
-        <v>9752</v>
+        <v>8654</v>
       </c>
       <c r="M122" t="n">
-        <v>0.454</v>
+        <v>0.403</v>
       </c>
       <c r="N122" t="n">
-        <v>0.257</v>
+        <v>0.187</v>
       </c>
       <c r="O122" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="P122" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q122" t="s">
         <v>710</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>709</v>
       </c>
       <c r="R122" t="s">
         <v>44</v>
       </c>
       <c r="S122" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B123" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44451</v>
+        <v>44458</v>
       </c>
       <c r="D123" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E123" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="n">
-        <v>37493</v>
+        <v>26625</v>
       </c>
       <c r="K123" t="n">
-        <v>3.69</v>
+        <v>2.621</v>
       </c>
       <c r="L123" t="n">
-        <v>37493</v>
+        <v>26625</v>
       </c>
       <c r="M123" t="n">
-        <v>3.69</v>
+        <v>2.621</v>
       </c>
       <c r="N123" t="n">
-        <v>0.029</v>
+        <v>0.037</v>
       </c>
       <c r="O123" t="n">
-        <v>35</v>
+        <v>26.8</v>
       </c>
       <c r="P123" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Q123" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="R123" t="s">
         <v>44</v>
       </c>
       <c r="S123" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B124" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44457</v>
+        <v>44461</v>
       </c>
       <c r="D124" t="s">
         <v>443</v>
@@ -9893,31 +9878,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H124" t="n">
-        <v>10021691</v>
+        <v>10143064</v>
       </c>
       <c r="I124" t="n">
-        <v>1149.871</v>
+        <v>1163.797</v>
       </c>
       <c r="J124" t="n">
-        <v>31457</v>
+        <v>31584</v>
       </c>
       <c r="K124" t="n">
-        <v>3.609</v>
+        <v>3.624</v>
       </c>
       <c r="L124" t="n">
-        <v>37367</v>
+        <v>35858</v>
       </c>
       <c r="M124" t="n">
-        <v>4.287</v>
+        <v>4.114</v>
       </c>
       <c r="N124" t="n">
-        <v>0.059</v>
+        <v>0.048</v>
       </c>
       <c r="O124" t="n">
-        <v>16.9</v>
+        <v>20.8</v>
       </c>
       <c r="P124" t="s">
         <v>444</v>
@@ -9929,135 +9914,135 @@
         <v>44</v>
       </c>
       <c r="S124" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B125" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44459</v>
+        <v>44461</v>
       </c>
       <c r="D125" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E125" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H125" t="n">
-        <v>3173829</v>
+        <v>3227506</v>
       </c>
       <c r="I125" t="n">
-        <v>133.047</v>
+        <v>135.297</v>
       </c>
       <c r="J125" t="n">
-        <v>14406</v>
+        <v>28714</v>
       </c>
       <c r="K125" t="n">
-        <v>0.604</v>
+        <v>1.204</v>
       </c>
       <c r="L125" t="n">
-        <v>18860</v>
+        <v>19198</v>
       </c>
       <c r="M125" t="n">
-        <v>0.791</v>
+        <v>0.805</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>2444.9</v>
+        <v>2399.8</v>
       </c>
       <c r="P125" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q125" t="s">
         <v>725</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>724</v>
       </c>
       <c r="R125" t="s">
         <v>31</v>
       </c>
       <c r="S125" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B126" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44450</v>
+        <v>44457</v>
       </c>
       <c r="D126" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E126" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="H126" t="n">
-        <v>12894770</v>
+        <v>13258565</v>
       </c>
       <c r="I126" t="n">
-        <v>184.34</v>
+        <v>189.541</v>
       </c>
       <c r="J126" t="n">
-        <v>41354</v>
+        <v>36856</v>
       </c>
       <c r="K126" t="n">
-        <v>0.591</v>
+        <v>0.527</v>
       </c>
       <c r="L126" t="n">
-        <v>50234</v>
+        <v>51971</v>
       </c>
       <c r="M126" t="n">
-        <v>0.718</v>
+        <v>0.743</v>
       </c>
       <c r="N126" t="n">
-        <v>0.293</v>
+        <v>0.26</v>
       </c>
       <c r="O126" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P126" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Q126" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="R126" t="s">
         <v>44</v>
       </c>
       <c r="S126" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B127" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>44449</v>
       </c>
       <c r="D127" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E127" t="s">
         <v>36</v>
@@ -10090,84 +10075,84 @@
         <v>36</v>
       </c>
       <c r="Q127" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="R127" t="s">
         <v>24</v>
       </c>
       <c r="S127" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B128" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44458</v>
+        <v>44462</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F128" t="s">
+        <v>742</v>
+      </c>
+      <c r="G128" t="n">
+        <v>563</v>
+      </c>
+      <c r="H128" t="n">
+        <v>504440</v>
+      </c>
+      <c r="I128" t="n">
+        <v>59.498</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1613</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1631</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="O128" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="P128" t="s">
         <v>741</v>
       </c>
-      <c r="G128" t="n">
-        <v>559</v>
-      </c>
-      <c r="H128" t="n">
-        <v>498619</v>
-      </c>
-      <c r="I128" t="n">
-        <v>58.812</v>
-      </c>
-      <c r="J128" t="n">
-        <v>1634</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="L128" t="n">
-        <v>1675</v>
-      </c>
-      <c r="M128" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="O128" t="n">
-        <v>12</v>
-      </c>
-      <c r="P128" t="s">
-        <v>740</v>
-      </c>
       <c r="Q128" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="R128" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="S128" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B129" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>44456</v>
       </c>
       <c r="D129" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E129" t="s">
         <v>36</v>
@@ -10204,392 +10189,392 @@
         <v>36</v>
       </c>
       <c r="Q129" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="R129" t="s">
         <v>31</v>
       </c>
       <c r="S129" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B130" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44460</v>
+        <v>44461</v>
       </c>
       <c r="D130" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E130" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H130" t="n">
-        <v>2874427</v>
+        <v>2880794</v>
       </c>
       <c r="I130" t="n">
-        <v>240.825</v>
+        <v>241.358</v>
       </c>
       <c r="J130" t="n">
-        <v>9302</v>
+        <v>6367</v>
       </c>
       <c r="K130" t="n">
-        <v>0.779</v>
+        <v>0.533</v>
       </c>
       <c r="L130" t="n">
-        <v>8269</v>
+        <v>8579</v>
       </c>
       <c r="M130" t="n">
-        <v>0.693</v>
+        <v>0.719</v>
       </c>
       <c r="N130" t="n">
-        <v>0.093</v>
+        <v>0.104</v>
       </c>
       <c r="O130" t="n">
-        <v>10.7</v>
+        <v>9.6</v>
       </c>
       <c r="P130" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="Q130" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="R130" t="s">
         <v>31</v>
       </c>
       <c r="S130" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B131" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D131" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E131" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H131" t="n">
-        <v>82744951</v>
+        <v>83807592</v>
       </c>
       <c r="I131" t="n">
-        <v>972.981</v>
+        <v>985.476</v>
       </c>
       <c r="J131" t="n">
+        <v>356132</v>
+      </c>
+      <c r="K131" t="n">
+        <v>4.188</v>
+      </c>
+      <c r="L131" t="n">
         <v>346435</v>
       </c>
-      <c r="K131" t="n">
+      <c r="M131" t="n">
         <v>4.074</v>
       </c>
-      <c r="L131" t="n">
-        <v>340155</v>
-      </c>
-      <c r="M131" t="n">
-        <v>4</v>
-      </c>
       <c r="N131" t="n">
-        <v>0.081</v>
+        <v>0.08</v>
       </c>
       <c r="O131" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="P131" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="Q131" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="R131" t="s">
         <v>44</v>
       </c>
       <c r="S131" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B132" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44457</v>
+        <v>44460</v>
       </c>
       <c r="D132" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E132" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H132" t="n">
-        <v>1650421</v>
+        <v>1659900</v>
       </c>
       <c r="I132" t="n">
-        <v>35.023</v>
+        <v>35.224</v>
       </c>
       <c r="J132" t="n">
-        <v>3099</v>
+        <v>3790</v>
       </c>
       <c r="K132" t="n">
-        <v>0.066</v>
+        <v>0.08</v>
       </c>
       <c r="L132" t="n">
-        <v>3411</v>
+        <v>3467</v>
       </c>
       <c r="M132" t="n">
-        <v>0.072</v>
+        <v>0.074</v>
       </c>
       <c r="N132" t="n">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="O132" t="n">
-        <v>30.3</v>
+        <v>30.8</v>
       </c>
       <c r="P132" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Q132" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="R132" t="s">
         <v>108</v>
       </c>
       <c r="S132" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B133" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="D133" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E133" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H133" t="n">
-        <v>12593275</v>
+        <v>12633853</v>
       </c>
       <c r="I133" t="n">
-        <v>289.722</v>
+        <v>290.655</v>
       </c>
       <c r="J133" t="n">
-        <v>41625</v>
+        <v>40578</v>
       </c>
       <c r="K133" t="n">
-        <v>0.958</v>
+        <v>0.934</v>
       </c>
       <c r="L133" t="n">
-        <v>30850</v>
+        <v>31622</v>
       </c>
       <c r="M133" t="n">
-        <v>0.71</v>
+        <v>0.727</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
       <c r="P133" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Q133" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="R133" t="s">
         <v>44</v>
       </c>
       <c r="S133" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B134" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D134" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E134" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H134" t="n">
-        <v>80875407</v>
+        <v>81817905</v>
       </c>
       <c r="I134" t="n">
-        <v>8094.759</v>
+        <v>8189.093</v>
       </c>
       <c r="J134" t="n">
-        <v>227935</v>
+        <v>282897</v>
       </c>
       <c r="K134" t="n">
-        <v>22.814</v>
+        <v>28.315</v>
       </c>
       <c r="L134" t="n">
-        <v>317737</v>
+        <v>318278</v>
       </c>
       <c r="M134" t="n">
-        <v>31.802</v>
+        <v>31.856</v>
       </c>
       <c r="N134" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="O134" t="n">
-        <v>638.2</v>
+        <v>836</v>
       </c>
       <c r="P134" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q134" t="s">
         <v>778</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>777</v>
       </c>
       <c r="R134" t="s">
         <v>44</v>
       </c>
       <c r="S134" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B135" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44458</v>
+        <v>44461</v>
       </c>
       <c r="D135" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E135" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F135" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G135" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H135" t="n">
-        <v>263671147</v>
+        <v>266496020</v>
       </c>
       <c r="I135" t="n">
-        <v>3865.743</v>
+        <v>3907.159</v>
       </c>
       <c r="J135" t="n">
-        <v>1116116</v>
+        <v>958930</v>
       </c>
       <c r="K135" t="n">
-        <v>16.364</v>
+        <v>14.059</v>
       </c>
       <c r="L135" t="n">
-        <v>966042</v>
+        <v>945017</v>
       </c>
       <c r="M135" t="n">
-        <v>14.163</v>
+        <v>13.855</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="O135" t="n">
-        <v>33</v>
+        <v>30.2</v>
       </c>
       <c r="P135" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="Q135" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="R135" t="s">
         <v>44</v>
       </c>
       <c r="S135" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B136" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="D136" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E136" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H136" t="n">
-        <v>558104328</v>
+        <v>563303262</v>
       </c>
       <c r="I136" t="n">
-        <v>1676.417</v>
+        <v>1692.033</v>
       </c>
       <c r="J136" t="n">
-        <v>1101828</v>
+        <v>347115</v>
       </c>
       <c r="K136" t="n">
-        <v>3.31</v>
+        <v>1.043</v>
       </c>
       <c r="L136" t="n">
-        <v>1420333</v>
+        <v>1306039</v>
       </c>
       <c r="M136" t="n">
-        <v>4.266</v>
+        <v>3.923</v>
       </c>
       <c r="N136" t="n">
         <v>0.106</v>
@@ -10598,240 +10583,240 @@
         <v>9.4</v>
       </c>
       <c r="P136" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q136" t="s">
         <v>791</v>
       </c>
-      <c r="Q136" t="s">
-        <v>790</v>
-      </c>
       <c r="R136" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="S136" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B137" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="D137" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E137" t="s">
         <v>191</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H137" t="n">
-        <v>3518631</v>
+        <v>3527048</v>
       </c>
       <c r="I137" t="n">
-        <v>1009.606</v>
-      </c>
-      <c r="J137"/>
-      <c r="K137"/>
+        <v>1012.021</v>
+      </c>
+      <c r="J137" t="n">
+        <v>8417</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2.415</v>
+      </c>
       <c r="L137" t="n">
-        <v>8049</v>
+        <v>7773</v>
       </c>
       <c r="M137" t="n">
-        <v>2.31</v>
+        <v>2.23</v>
       </c>
       <c r="N137" t="n">
         <v>0.016</v>
       </c>
       <c r="O137" t="n">
-        <v>61.8</v>
+        <v>61</v>
       </c>
       <c r="P137" t="s">
         <v>191</v>
       </c>
       <c r="Q137" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="R137" t="s">
         <v>44</v>
       </c>
       <c r="S137" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B138" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44453</v>
+        <v>44461</v>
       </c>
       <c r="D138" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E138" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H138" t="n">
-        <v>18407857</v>
+        <v>20041268</v>
       </c>
       <c r="I138" t="n">
-        <v>187.512</v>
-      </c>
-      <c r="J138" t="n">
-        <v>209988</v>
-      </c>
-      <c r="K138" t="n">
-        <v>2.139</v>
-      </c>
+        <v>204.151</v>
+      </c>
+      <c r="J138"/>
+      <c r="K138"/>
       <c r="L138" t="n">
-        <v>259000</v>
+        <v>204176</v>
       </c>
       <c r="M138" t="n">
-        <v>2.638</v>
+        <v>2.08</v>
       </c>
       <c r="N138" t="n">
-        <v>0.046</v>
+        <v>0.051</v>
       </c>
       <c r="O138" t="n">
-        <v>21.6</v>
+        <v>19.5</v>
       </c>
       <c r="P138" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="Q138" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="R138" t="s">
         <v>108</v>
       </c>
       <c r="S138" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B139" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D139" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E139" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H139" t="n">
-        <v>2398197</v>
+        <v>2417680</v>
       </c>
       <c r="I139" t="n">
-        <v>126.75</v>
+        <v>127.78</v>
       </c>
       <c r="J139" t="n">
-        <v>3969</v>
+        <v>6084</v>
       </c>
       <c r="K139" t="n">
-        <v>0.21</v>
+        <v>0.322</v>
       </c>
       <c r="L139" t="n">
-        <v>6061</v>
+        <v>5983</v>
       </c>
       <c r="M139" t="n">
-        <v>0.32</v>
+        <v>0.316</v>
       </c>
       <c r="N139" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="O139" t="n">
-        <v>78.3</v>
+        <v>93.5</v>
       </c>
       <c r="P139" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Q139" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="R139" t="s">
         <v>44</v>
       </c>
       <c r="S139" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B140" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44458</v>
+        <v>44462</v>
       </c>
       <c r="D140" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E140" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="H140" t="n">
-        <v>1214437</v>
+        <v>1234873</v>
       </c>
       <c r="I140" t="n">
-        <v>80.468</v>
+        <v>81.822</v>
       </c>
       <c r="J140" t="n">
-        <v>2023</v>
+        <v>5245</v>
       </c>
       <c r="K140" t="n">
-        <v>0.134</v>
+        <v>0.348</v>
       </c>
       <c r="L140" t="n">
-        <v>4279</v>
+        <v>4373</v>
       </c>
       <c r="M140" t="n">
-        <v>0.284</v>
+        <v>0.29</v>
       </c>
       <c r="N140" t="n">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
       <c r="O140" t="n">
-        <v>17.9</v>
+        <v>17.3</v>
       </c>
       <c r="P140" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="Q140" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="R140" t="s">
         <v>44</v>
       </c>
       <c r="S140" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -2136,7 +2136,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/23-09_BULETIN_DE_PRESA_-_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/22-09__BULETIN_DE_PRESA_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -8994,7 +8994,7 @@
         <v>633</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44462</v>
+        <v>44461</v>
       </c>
       <c r="D108" t="s">
         <v>634</v>
@@ -9004,27 +9004,31 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>457</v>
+        <v>369</v>
       </c>
       <c r="H108" t="n">
-        <v>9463782</v>
+        <v>12393877</v>
       </c>
       <c r="I108" t="n">
-        <v>494.767</v>
-      </c>
-      <c r="J108"/>
-      <c r="K108"/>
+        <v>647.952</v>
+      </c>
+      <c r="J108" t="n">
+        <v>53951</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2.821</v>
+      </c>
       <c r="L108" t="n">
-        <v>20162</v>
+        <v>44569</v>
       </c>
       <c r="M108" t="n">
-        <v>1.054</v>
+        <v>2.33</v>
       </c>
       <c r="N108" t="n">
-        <v>0.269</v>
+        <v>0.113</v>
       </c>
       <c r="O108" t="n">
-        <v>3.7</v>
+        <v>8.8</v>
       </c>
       <c r="P108" t="s">
         <v>636</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4324</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4334</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-23-september-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-27-september-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1917-new-cases-1362-recoveries_i_0000134785.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1946-new-cases-1266-recoveries_i_0000134988.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -363,7 +363,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/4553250394736541/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4563579003703680/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/6055-el-ministerio-de-salud-informa-que-se-inmunizo-hasta-hoy-a-6-601-529-personas-con-primeras-segundas-y-dosis-unica</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/6060-el-ministerio-de-salud-informa-que-se-inmunizo-hasta-hoy-a-6-646-806-personas-con-primeras-segundas-y-dosis-unica</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-22-de-setembro-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-27-de-setembro-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -601,7 +601,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/2006975756134775</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/2009262225906128</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -715,7 +715,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-23092021-wqeq</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-27092021-td7h</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -733,7 +733,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-admin/admin-ajax.php?juwpfisadmin=false&amp;action=wpfd&amp;task=file.download&amp;wpfd_category_id=59&amp;wpfd_file_id=13291</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-admin/admin-ajax.php?juwpfisadmin=false&amp;action=wpfd&amp;task=file.download&amp;wpfd_category_id=59&amp;wpfd_file_id=13344</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/09/INFOGRAFIA-MEDIOS-18_Septiembre_2021.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/09/INFOGRAFIA-MEDIOS-25_Sept_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">Gambia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/09/GMB-COVID-19-Situational-Report_2021_16th_September_No-371.pdf</t>
+    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/09/GMB-COVID-19-Situational-Report_2021_24th_September_No-377.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, The Gambia</t>
@@ -951,7 +951,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/2721</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/2787</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1168,7 +1168,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/370576</t>
+    <t xml:space="preserve">http://irangov.ir/detail/370851</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1188,7 +1188,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1441060095341780992</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1442540704379686912</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1291,7 +1291,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-september-22-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-september-26-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1441085037101793286</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1442549668437659653</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1609,7 +1609,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1441085023910694925</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1442534507391893506</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1630,7 +1630,10 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/413355057049710/</t>
+    <t xml:space="preserve">https://github.com/COVID19-Malta/COVID19-Data/blob/master/COVID-19%20Malta%20-%20COVID%20Tests.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19 Public Health Response Team (Ministry for Health)</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1718,7 +1721,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1441068532553355269</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1442517916235141132</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1740,7 +1743,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1146:boletim-diario-covid-19-n-545</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1162:boletim-diario-covid-19-n-557</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1761,7 +1764,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FSep_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(23-9-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FSep_2021(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(26-9-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1781,7 +1784,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/photo/?fbid=153441840313491&amp;set=pcb.153441946980147</t>
+    <t xml:space="preserve">https://www.facebook.com/photo?fbid=155995170058158&amp;set=pcb.155995290058146</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1803,7 +1806,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/188FslaSpPfhv9-W8o8LEc4qMHgUxgDpy</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1WZV-GRDAhghwWhbwFOWKo1PqtjdsKGgr</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1956,7 +1959,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4187157074743472</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4200040476788465</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1978,7 +1981,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1441184371273199618</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1442290724272214018</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2012,7 +2015,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1441171725052432384</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1442256459316695042</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2049,7 +2052,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1wDB_hV3QcKX8PVPIZqmM9NRabXRg-47p</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/16vuOYaLsVyMcrVrV7_mrq6uqFbcIi4DR</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2070,7 +2073,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1440960377118855171</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1442409928228933639</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2086,9 +2089,6 @@
   </si>
   <si>
     <t xml:space="preserve">Poland - samples tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1439873213165670402</t>
   </si>
   <si>
     <t xml:space="preserve">PRT</t>
@@ -2136,7 +2136,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/22-09__BULETIN_DE_PRESA_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_27_septembrie_2021,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=19070</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=19102</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2316,7 +2316,7 @@
     <t xml:space="preserve">South Africa - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://sacoronavirus.co.za/2021/09/23/update-on-covid-19-thursday-23-september/</t>
+    <t xml:space="preserve">https://sacoronavirus.co.za/2021/09/27/update-on-covid-19-monday-27-september/</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Communicable Diseases (NICD)</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-850/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-859/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2584,7 +2584,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1440985553642602502</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1442394304580882437</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2756,7 +2756,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1441121153053913088</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1442213240558211074</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3331,7 +3331,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44457</v>
+        <v>44461</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3341,31 +3341,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H5" t="n">
-        <v>13888858</v>
+        <v>13991283</v>
       </c>
       <c r="I5" t="n">
-        <v>304.541</v>
+        <v>306.787</v>
       </c>
       <c r="J5" t="n">
-        <v>22636</v>
+        <v>27896</v>
       </c>
       <c r="K5" t="n">
-        <v>0.496</v>
+        <v>0.612</v>
       </c>
       <c r="L5" t="n">
-        <v>25688</v>
+        <v>25247</v>
       </c>
       <c r="M5" t="n">
-        <v>0.563</v>
+        <v>0.554</v>
       </c>
       <c r="N5" t="n">
-        <v>0.024</v>
+        <v>0.019</v>
       </c>
       <c r="O5" t="n">
-        <v>41.7</v>
+        <v>52.6</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3388,7 +3388,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3398,31 +3398,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H6" t="n">
-        <v>1669977</v>
+        <v>1693823</v>
       </c>
       <c r="I6" t="n">
-        <v>562.636</v>
+        <v>570.67</v>
       </c>
       <c r="J6" t="n">
-        <v>5823</v>
+        <v>5183</v>
       </c>
       <c r="K6" t="n">
-        <v>1.962</v>
+        <v>1.746</v>
       </c>
       <c r="L6" t="n">
-        <v>5199</v>
+        <v>5478</v>
       </c>
       <c r="M6" t="n">
-        <v>1.752</v>
+        <v>1.846</v>
       </c>
       <c r="N6" t="n">
-        <v>0.119</v>
+        <v>0.132</v>
       </c>
       <c r="O6" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3445,7 +3445,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3455,31 +3455,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H7" t="n">
-        <v>36475743</v>
+        <v>37217210</v>
       </c>
       <c r="I7" t="n">
-        <v>1414.434</v>
+        <v>1443.187</v>
       </c>
       <c r="J7" t="n">
-        <v>229864</v>
+        <v>171201</v>
       </c>
       <c r="K7" t="n">
-        <v>8.914</v>
+        <v>6.639</v>
       </c>
       <c r="L7" t="n">
-        <v>223405</v>
+        <v>198304</v>
       </c>
       <c r="M7" t="n">
-        <v>8.663</v>
+        <v>7.69</v>
       </c>
       <c r="N7" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="O7" t="n">
-        <v>133.2</v>
+        <v>113.8</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3502,7 +3502,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44461</v>
+        <v>44465</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3512,31 +3512,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H8" t="n">
-        <v>84232566</v>
+        <v>85737129</v>
       </c>
       <c r="I8" t="n">
-        <v>9314.596</v>
+        <v>9480.974</v>
       </c>
       <c r="J8" t="n">
-        <v>447985</v>
+        <v>350169</v>
       </c>
       <c r="K8" t="n">
-        <v>49.539</v>
+        <v>38.722</v>
       </c>
       <c r="L8" t="n">
-        <v>356408</v>
+        <v>356339</v>
       </c>
       <c r="M8" t="n">
-        <v>39.412</v>
+        <v>39.405</v>
       </c>
       <c r="N8" t="n">
         <v>0.005</v>
       </c>
       <c r="O8" t="n">
-        <v>194.9</v>
+        <v>210.4</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3559,7 +3559,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44462</v>
+        <v>44464</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3569,31 +3569,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H9" t="n">
-        <v>4790724</v>
+        <v>4823654</v>
       </c>
       <c r="I9" t="n">
-        <v>468.606</v>
+        <v>471.827</v>
       </c>
       <c r="J9" t="n">
-        <v>12331</v>
+        <v>21425</v>
       </c>
       <c r="K9" t="n">
-        <v>1.206</v>
+        <v>2.096</v>
       </c>
       <c r="L9" t="n">
-        <v>12541</v>
+        <v>13319</v>
       </c>
       <c r="M9" t="n">
-        <v>1.227</v>
+        <v>1.303</v>
       </c>
       <c r="N9" t="n">
-        <v>0.119</v>
+        <v>0.136</v>
       </c>
       <c r="O9" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3616,7 +3616,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3626,31 +3626,27 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="H10" t="n">
-        <v>6333485</v>
+        <v>6398019</v>
       </c>
       <c r="I10" t="n">
-        <v>3622.664</v>
-      </c>
-      <c r="J10" t="n">
-        <v>17491</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10.005</v>
-      </c>
+        <v>3659.576</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
       <c r="L10" t="n">
-        <v>16338</v>
+        <v>16301</v>
       </c>
       <c r="M10" t="n">
-        <v>9.345</v>
+        <v>9.324</v>
       </c>
       <c r="N10" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="O10" t="n">
-        <v>199.6</v>
+        <v>231</v>
       </c>
       <c r="P10" t="s">
         <v>70</v>
@@ -3673,7 +3669,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3683,31 +3679,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="H11" t="n">
-        <v>9523920</v>
+        <v>9623568</v>
       </c>
       <c r="I11" t="n">
-        <v>57.268</v>
+        <v>57.868</v>
       </c>
       <c r="J11" t="n">
-        <v>24820</v>
+        <v>27787</v>
       </c>
       <c r="K11" t="n">
-        <v>0.149</v>
+        <v>0.167</v>
       </c>
       <c r="L11" t="n">
-        <v>26400</v>
+        <v>26647</v>
       </c>
       <c r="M11" t="n">
-        <v>0.159</v>
+        <v>0.16</v>
       </c>
       <c r="N11" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="O11" t="n">
-        <v>18.3</v>
+        <v>22.4</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3730,7 +3726,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44460</v>
+        <v>44466</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3740,27 +3736,27 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H12" t="n">
-        <v>8238914</v>
+        <v>8414751</v>
       </c>
       <c r="I12" t="n">
-        <v>872.501</v>
+        <v>891.122</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>26008</v>
+        <v>28547</v>
       </c>
       <c r="M12" t="n">
-        <v>2.754</v>
+        <v>3.023</v>
       </c>
       <c r="N12" t="n">
-        <v>0.075</v>
+        <v>0.069</v>
       </c>
       <c r="O12" t="n">
-        <v>13.3</v>
+        <v>14.5</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3783,7 +3779,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44461</v>
+        <v>44465</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3793,31 +3789,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H13" t="n">
-        <v>19720819</v>
+        <v>19890333</v>
       </c>
       <c r="I13" t="n">
-        <v>1695.345</v>
+        <v>1709.918</v>
       </c>
       <c r="J13" t="n">
-        <v>53842</v>
+        <v>19988</v>
       </c>
       <c r="K13" t="n">
-        <v>4.629</v>
+        <v>1.718</v>
       </c>
       <c r="L13" t="n">
-        <v>47957</v>
+        <v>47118</v>
       </c>
       <c r="M13" t="n">
-        <v>4.123</v>
+        <v>4.051</v>
       </c>
       <c r="N13" t="n">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="O13" t="n">
-        <v>21.7</v>
+        <v>22.2</v>
       </c>
       <c r="P13" t="s">
         <v>90</v>
@@ -3840,7 +3836,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44454</v>
+        <v>44463</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3850,27 +3846,27 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>241828</v>
+        <v>252091</v>
       </c>
       <c r="I14" t="n">
-        <v>597.232</v>
+        <v>622.578</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>1098</v>
+        <v>1140</v>
       </c>
       <c r="M14" t="n">
-        <v>2.712</v>
+        <v>2.815</v>
       </c>
       <c r="N14" t="n">
-        <v>0.116</v>
+        <v>0.134</v>
       </c>
       <c r="O14" t="n">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -3938,7 +3934,7 @@
         <v>105</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -3948,31 +3944,31 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H16" t="n">
-        <v>1138183</v>
+        <v>1143781</v>
       </c>
       <c r="I16" t="n">
-        <v>1459.396</v>
+        <v>1466.574</v>
       </c>
       <c r="J16" t="n">
-        <v>2967</v>
+        <v>2189</v>
       </c>
       <c r="K16" t="n">
-        <v>3.804</v>
+        <v>2.807</v>
       </c>
       <c r="L16" t="n">
-        <v>1745</v>
+        <v>1767</v>
       </c>
       <c r="M16" t="n">
-        <v>2.237</v>
+        <v>2.266</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>4067.6</v>
+        <v>6178.3</v>
       </c>
       <c r="P16" t="s">
         <v>36</v>
@@ -3995,7 +3991,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44462</v>
+        <v>44464</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -4005,31 +4001,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H17" t="n">
-        <v>2411035</v>
+        <v>2419364</v>
       </c>
       <c r="I17" t="n">
-        <v>203.756</v>
+        <v>204.46</v>
       </c>
       <c r="J17" t="n">
-        <v>5960</v>
+        <v>3647</v>
       </c>
       <c r="K17" t="n">
-        <v>0.504</v>
+        <v>0.308</v>
       </c>
       <c r="L17" t="n">
-        <v>4633</v>
+        <v>4605</v>
       </c>
       <c r="M17" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
       <c r="N17" t="n">
-        <v>0.071</v>
+        <v>0.057</v>
       </c>
       <c r="O17" t="n">
-        <v>14.1</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4052,7 +4048,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4062,31 +4058,27 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H18" t="n">
-        <v>1207337</v>
+        <v>1216467</v>
       </c>
       <c r="I18" t="n">
-        <v>369.956</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3483</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.067</v>
-      </c>
+        <v>372.754</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
       <c r="L18" t="n">
-        <v>3124</v>
+        <v>2918</v>
       </c>
       <c r="M18" t="n">
-        <v>0.957</v>
+        <v>0.894</v>
       </c>
       <c r="N18" t="n">
-        <v>0.245</v>
+        <v>0.228</v>
       </c>
       <c r="O18" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="P18" t="s">
         <v>118</v>
@@ -4154,7 +4146,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4164,27 +4156,27 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H20" t="n">
-        <v>4679511</v>
+        <v>4744679</v>
       </c>
       <c r="I20" t="n">
-        <v>678.519</v>
+        <v>687.968</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>17063</v>
+        <v>16788</v>
       </c>
       <c r="M20" t="n">
-        <v>2.474</v>
+        <v>2.434</v>
       </c>
       <c r="N20" t="n">
-        <v>0.088</v>
+        <v>0.092</v>
       </c>
       <c r="O20" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="P20" t="s">
         <v>130</v>
@@ -4309,7 +4301,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D23" t="s">
         <v>140</v>
@@ -4319,31 +4311,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="H23" t="n">
-        <v>42578032</v>
+        <v>43006019</v>
       </c>
       <c r="I23" t="n">
-        <v>1118.476</v>
+        <v>1129.718</v>
       </c>
       <c r="J23" t="n">
-        <v>116899</v>
+        <v>84506</v>
       </c>
       <c r="K23" t="n">
-        <v>3.071</v>
+        <v>2.22</v>
       </c>
       <c r="L23" t="n">
-        <v>102365</v>
+        <v>102679</v>
       </c>
       <c r="M23" t="n">
-        <v>2.689</v>
+        <v>2.697</v>
       </c>
       <c r="N23" t="n">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="O23" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="P23" t="s">
         <v>141</v>
@@ -4366,7 +4358,7 @@
         <v>147</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44460</v>
+        <v>44465</v>
       </c>
       <c r="D24" t="s">
         <v>148</v>
@@ -4376,15 +4368,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>834</v>
+        <v>658</v>
       </c>
       <c r="K24" t="n">
-        <v>1.484</v>
+        <v>1.171</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4411,7 +4403,7 @@
         <v>153</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D25" t="s">
         <v>154</v>
@@ -4421,31 +4413,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H25" t="n">
-        <v>21145577</v>
+        <v>21422011</v>
       </c>
       <c r="I25" t="n">
-        <v>1100.623</v>
+        <v>1115.012</v>
       </c>
       <c r="J25" t="n">
-        <v>69628</v>
+        <v>58300</v>
       </c>
       <c r="K25" t="n">
-        <v>3.624</v>
+        <v>3.035</v>
       </c>
       <c r="L25" t="n">
-        <v>43639</v>
+        <v>58547</v>
       </c>
       <c r="M25" t="n">
-        <v>2.271</v>
+        <v>3.047</v>
       </c>
       <c r="N25" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="O25" t="n">
-        <v>85.1</v>
+        <v>88.7</v>
       </c>
       <c r="P25" t="s">
         <v>156</v>
@@ -4513,7 +4505,7 @@
         <v>166</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D27" t="s">
         <v>167</v>
@@ -4523,31 +4515,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H27" t="n">
-        <v>25177071</v>
+        <v>25348650</v>
       </c>
       <c r="I27" t="n">
-        <v>491.108</v>
+        <v>494.455</v>
       </c>
       <c r="J27" t="n">
-        <v>49750</v>
+        <v>30427</v>
       </c>
       <c r="K27" t="n">
-        <v>0.97</v>
+        <v>0.594</v>
       </c>
       <c r="L27" t="n">
-        <v>44645</v>
+        <v>45572</v>
       </c>
       <c r="M27" t="n">
-        <v>0.871</v>
+        <v>0.889</v>
       </c>
       <c r="N27" t="n">
-        <v>0.041</v>
+        <v>0.038</v>
       </c>
       <c r="O27" t="n">
-        <v>24.4</v>
+        <v>26.3</v>
       </c>
       <c r="P27" t="s">
         <v>168</v>
@@ -4570,7 +4562,7 @@
         <v>172</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
@@ -4580,31 +4572,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="H28" t="n">
-        <v>1834076</v>
+        <v>1858221</v>
       </c>
       <c r="I28" t="n">
-        <v>356.89</v>
+        <v>361.588</v>
       </c>
       <c r="J28" t="n">
-        <v>3380</v>
+        <v>7919</v>
       </c>
       <c r="K28" t="n">
-        <v>0.658</v>
+        <v>1.541</v>
       </c>
       <c r="L28" t="n">
-        <v>5703</v>
+        <v>6493</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.263</v>
       </c>
       <c r="N28" t="n">
-        <v>0.321</v>
+        <v>0.294</v>
       </c>
       <c r="O28" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P28" t="s">
         <v>174</v>
@@ -4627,7 +4619,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="D29" t="s">
         <v>178</v>
@@ -4637,31 +4629,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H29" t="n">
-        <v>991992</v>
+        <v>1001419</v>
       </c>
       <c r="I29" t="n">
-        <v>36.668</v>
+        <v>37.016</v>
       </c>
       <c r="J29" t="n">
-        <v>4469</v>
+        <v>3064</v>
       </c>
       <c r="K29" t="n">
-        <v>0.165</v>
+        <v>0.113</v>
       </c>
       <c r="L29" t="n">
-        <v>3866</v>
+        <v>3431</v>
       </c>
       <c r="M29" t="n">
-        <v>0.143</v>
+        <v>0.127</v>
       </c>
       <c r="N29" t="n">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="O29" t="n">
-        <v>26.4</v>
+        <v>28</v>
       </c>
       <c r="P29" t="s">
         <v>179</v>
@@ -4684,7 +4676,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4694,25 +4686,25 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H30" t="n">
-        <v>2772055</v>
+        <v>2803208</v>
       </c>
       <c r="I30" t="n">
-        <v>679.149</v>
+        <v>686.782</v>
       </c>
       <c r="J30" t="n">
-        <v>10201</v>
+        <v>9257</v>
       </c>
       <c r="K30" t="n">
-        <v>2.499</v>
+        <v>2.268</v>
       </c>
       <c r="L30" t="n">
-        <v>9374</v>
+        <v>8920</v>
       </c>
       <c r="M30" t="n">
-        <v>2.297</v>
+        <v>2.185</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -4796,7 +4788,7 @@
         <v>196</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D32" t="s">
         <v>197</v>
@@ -4806,31 +4798,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H32" t="n">
-        <v>12906842</v>
+        <v>13125839</v>
       </c>
       <c r="I32" t="n">
-        <v>14534.65</v>
+        <v>14781.267</v>
       </c>
       <c r="J32" t="n">
-        <v>57324</v>
+        <v>65826</v>
       </c>
       <c r="K32" t="n">
-        <v>64.554</v>
+        <v>74.128</v>
       </c>
       <c r="L32" t="n">
-        <v>54951</v>
+        <v>54405</v>
       </c>
       <c r="M32" t="n">
-        <v>61.881</v>
+        <v>61.267</v>
       </c>
       <c r="N32" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="O32" t="n">
-        <v>304.1</v>
+        <v>402.6</v>
       </c>
       <c r="P32" t="s">
         <v>36</v>
@@ -4853,7 +4845,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D33" t="s">
         <v>201</v>
@@ -4863,27 +4855,27 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>79364</v>
+        <v>68249</v>
       </c>
       <c r="K33" t="n">
-        <v>7.4</v>
+        <v>6.364</v>
       </c>
       <c r="L33" t="n">
-        <v>70604</v>
+        <v>70349</v>
       </c>
       <c r="M33" t="n">
-        <v>6.583</v>
+        <v>6.56</v>
       </c>
       <c r="N33" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="O33" t="n">
-        <v>166.7</v>
+        <v>142.9</v>
       </c>
       <c r="P33" t="s">
         <v>36</v>
@@ -4959,7 +4951,7 @@
         <v>210</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44461</v>
+        <v>44465</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -4969,31 +4961,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H35" t="n">
-        <v>40854665</v>
+        <v>40985717</v>
       </c>
       <c r="I35" t="n">
-        <v>7027.79</v>
+        <v>7050.333</v>
       </c>
       <c r="J35" t="n">
-        <v>24155</v>
+        <v>19815</v>
       </c>
       <c r="K35" t="n">
-        <v>4.155</v>
+        <v>3.409</v>
       </c>
       <c r="L35" t="n">
-        <v>34122</v>
+        <v>33384</v>
       </c>
       <c r="M35" t="n">
-        <v>5.87</v>
+        <v>5.743</v>
       </c>
       <c r="N35" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="O35" t="n">
-        <v>103.9</v>
+        <v>91.7</v>
       </c>
       <c r="P35" t="s">
         <v>212</v>
@@ -5016,7 +5008,7 @@
         <v>216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D36" t="s">
         <v>217</v>
@@ -5026,27 +5018,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H36" t="n">
-        <v>2027784</v>
+        <v>2039561</v>
       </c>
       <c r="I36" t="n">
-        <v>185.123</v>
+        <v>186.198</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>3532</v>
+        <v>3464</v>
       </c>
       <c r="M36" t="n">
-        <v>0.322</v>
+        <v>0.316</v>
       </c>
       <c r="N36" t="n">
-        <v>0.074</v>
+        <v>0.077</v>
       </c>
       <c r="O36" t="n">
-        <v>13.5</v>
+        <v>12.9</v>
       </c>
       <c r="P36" t="s">
         <v>218</v>
@@ -5069,7 +5061,7 @@
         <v>222</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44457</v>
+        <v>44464</v>
       </c>
       <c r="D37" t="s">
         <v>223</v>
@@ -5081,31 +5073,31 @@
         <v>225</v>
       </c>
       <c r="G37" t="n">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="H37" t="n">
-        <v>1716831</v>
+        <v>1732956</v>
       </c>
       <c r="I37" t="n">
-        <v>95.974</v>
+        <v>96.876</v>
       </c>
       <c r="J37" t="n">
-        <v>2158</v>
+        <v>3814</v>
       </c>
       <c r="K37" t="n">
-        <v>0.121</v>
+        <v>0.213</v>
       </c>
       <c r="L37" t="n">
-        <v>2227</v>
+        <v>2304</v>
       </c>
       <c r="M37" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="N37" t="n">
         <v>0.124</v>
       </c>
-      <c r="N37" t="n">
-        <v>0.038</v>
-      </c>
       <c r="O37" t="n">
-        <v>26.1</v>
+        <v>8.1</v>
       </c>
       <c r="P37" t="s">
         <v>226</v>
@@ -5238,7 +5230,7 @@
         <v>242</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D40" t="s">
         <v>243</v>
@@ -5248,31 +5240,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H40" t="n">
-        <v>1892324</v>
+        <v>1912943</v>
       </c>
       <c r="I40" t="n">
-        <v>1427.966</v>
+        <v>1443.526</v>
       </c>
       <c r="J40" t="n">
-        <v>6671</v>
+        <v>6222</v>
       </c>
       <c r="K40" t="n">
-        <v>5.034</v>
+        <v>4.695</v>
       </c>
       <c r="L40" t="n">
-        <v>6337</v>
+        <v>5865</v>
       </c>
       <c r="M40" t="n">
-        <v>4.782</v>
+        <v>4.426</v>
       </c>
       <c r="N40" t="n">
-        <v>0.079</v>
+        <v>0.092</v>
       </c>
       <c r="O40" t="n">
-        <v>12.7</v>
+        <v>10.8</v>
       </c>
       <c r="P40" t="s">
         <v>244</v>
@@ -5295,7 +5287,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D41" t="s">
         <v>248</v>
@@ -5305,31 +5297,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H41" t="n">
-        <v>3418988</v>
+        <v>3446676</v>
       </c>
       <c r="I41" t="n">
-        <v>29.005</v>
+        <v>29.24</v>
       </c>
       <c r="J41" t="n">
-        <v>9481</v>
+        <v>4422</v>
       </c>
       <c r="K41" t="n">
-        <v>0.08</v>
+        <v>0.038</v>
       </c>
       <c r="L41" t="n">
-        <v>8672</v>
+        <v>8144</v>
       </c>
       <c r="M41" t="n">
-        <v>0.074</v>
+        <v>0.069</v>
       </c>
       <c r="N41" t="n">
-        <v>0.158</v>
+        <v>0.151</v>
       </c>
       <c r="O41" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="P41" t="s">
         <v>249</v>
@@ -5409,7 +5401,7 @@
         <v>257</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44461</v>
+        <v>44465</v>
       </c>
       <c r="D43" t="s">
         <v>258</v>
@@ -5419,31 +5411,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H43" t="n">
-        <v>7016119</v>
+        <v>7058186</v>
       </c>
       <c r="I43" t="n">
-        <v>1264.539</v>
+        <v>1272.121</v>
       </c>
       <c r="J43" t="n">
-        <v>8564</v>
+        <v>4172</v>
       </c>
       <c r="K43" t="n">
-        <v>1.544</v>
+        <v>0.752</v>
       </c>
       <c r="L43" t="n">
-        <v>10675</v>
+        <v>10412</v>
       </c>
       <c r="M43" t="n">
-        <v>1.924</v>
+        <v>1.877</v>
       </c>
       <c r="N43" t="n">
-        <v>0.037</v>
+        <v>0.043</v>
       </c>
       <c r="O43" t="n">
-        <v>27</v>
+        <v>23.2</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5466,7 +5458,7 @@
         <v>263</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44459</v>
+        <v>44463</v>
       </c>
       <c r="D44" t="s">
         <v>264</v>
@@ -5476,27 +5468,27 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="n">
-        <v>613097</v>
+        <v>732346</v>
       </c>
       <c r="K44" t="n">
-        <v>9.074</v>
+        <v>10.839</v>
       </c>
       <c r="L44" t="n">
-        <v>530460</v>
+        <v>505299</v>
       </c>
       <c r="M44" t="n">
-        <v>7.851</v>
+        <v>7.479</v>
       </c>
       <c r="N44" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="O44" t="n">
-        <v>71.4</v>
+        <v>83.3</v>
       </c>
       <c r="P44" t="s">
         <v>265</v>
@@ -5576,7 +5568,7 @@
         <v>275</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44455</v>
+        <v>44463</v>
       </c>
       <c r="D46" t="s">
         <v>276</v>
@@ -5586,27 +5578,27 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H46" t="n">
-        <v>107328</v>
+        <v>109898</v>
       </c>
       <c r="I46" t="n">
-        <v>43.157</v>
+        <v>44.19</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="M46" t="n">
-        <v>0.132</v>
+        <v>0.128</v>
       </c>
       <c r="N46" t="n">
         <v>0.02</v>
       </c>
       <c r="O46" t="n">
-        <v>49</v>
+        <v>50.7</v>
       </c>
       <c r="P46" t="s">
         <v>277</v>
@@ -5629,7 +5621,7 @@
         <v>281</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D47" t="s">
         <v>282</v>
@@ -5639,27 +5631,27 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H47" t="n">
-        <v>8600000</v>
+        <v>8700000</v>
       </c>
       <c r="I47" t="n">
-        <v>2160.927</v>
+        <v>2186.054</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>21429</v>
+        <v>28571</v>
       </c>
       <c r="M47" t="n">
-        <v>5.384</v>
+        <v>7.179</v>
       </c>
       <c r="N47" t="n">
-        <v>0.094</v>
+        <v>0.062</v>
       </c>
       <c r="O47" t="n">
-        <v>10.6</v>
+        <v>16.2</v>
       </c>
       <c r="P47" t="s">
         <v>283</v>
@@ -5792,7 +5784,7 @@
         <v>299</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D50" t="s">
         <v>300</v>
@@ -5802,31 +5794,31 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H50" t="n">
-        <v>18766422</v>
+        <v>19401554</v>
       </c>
       <c r="I50" t="n">
-        <v>1809.554</v>
+        <v>1870.796</v>
       </c>
       <c r="J50" t="n">
-        <v>151279</v>
+        <v>78691</v>
       </c>
       <c r="K50" t="n">
-        <v>14.587</v>
+        <v>7.588</v>
       </c>
       <c r="L50" t="n">
-        <v>194242</v>
+        <v>197576</v>
       </c>
       <c r="M50" t="n">
-        <v>18.73</v>
+        <v>19.051</v>
       </c>
       <c r="N50" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="O50" t="n">
-        <v>85.3</v>
+        <v>91.1</v>
       </c>
       <c r="P50" t="s">
         <v>302</v>
@@ -5849,7 +5841,7 @@
         <v>306</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44461</v>
+        <v>44458</v>
       </c>
       <c r="D51" t="s">
         <v>307</v>
@@ -5859,31 +5851,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H51" t="n">
-        <v>2462778</v>
+        <v>2414918</v>
       </c>
       <c r="I51" t="n">
-        <v>134.948</v>
+        <v>132.325</v>
       </c>
       <c r="J51" t="n">
-        <v>16999</v>
+        <v>3999</v>
       </c>
       <c r="K51" t="n">
-        <v>0.931</v>
+        <v>0.219</v>
       </c>
       <c r="L51" t="n">
-        <v>12705</v>
+        <v>11675</v>
       </c>
       <c r="M51" t="n">
-        <v>0.696</v>
+        <v>0.64</v>
       </c>
       <c r="N51" t="n">
-        <v>0.202</v>
+        <v>0.229</v>
       </c>
       <c r="O51" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="P51" t="s">
         <v>309</v>
@@ -5959,7 +5951,7 @@
         <v>320</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44463</v>
+        <v>44466</v>
       </c>
       <c r="D53" t="s">
         <v>321</v>
@@ -5971,28 +5963,32 @@
         <v>323</v>
       </c>
       <c r="G53" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H53" t="n">
-        <v>6407687</v>
+        <v>6443079</v>
       </c>
       <c r="I53" t="n">
-        <v>665.101</v>
+        <v>668.774</v>
       </c>
       <c r="J53" t="n">
-        <v>14435</v>
+        <v>35392</v>
       </c>
       <c r="K53" t="n">
-        <v>1.498</v>
+        <v>3.674</v>
       </c>
       <c r="L53" t="n">
-        <v>12793</v>
+        <v>12576</v>
       </c>
       <c r="M53" t="n">
-        <v>1.328</v>
-      </c>
-      <c r="N53"/>
-      <c r="O53"/>
+        <v>1.305</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="O53" t="n">
+        <v>29.1</v>
+      </c>
       <c r="P53" t="s">
         <v>322</v>
       </c>
@@ -6014,7 +6010,7 @@
         <v>327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44461</v>
+        <v>44465</v>
       </c>
       <c r="D54" t="s">
         <v>328</v>
@@ -6024,25 +6020,25 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H54" t="n">
-        <v>625956</v>
+        <v>630991</v>
       </c>
       <c r="I54" t="n">
-        <v>1823.031</v>
+        <v>1837.695</v>
       </c>
       <c r="J54" t="n">
-        <v>1839</v>
+        <v>887</v>
       </c>
       <c r="K54" t="n">
-        <v>5.356</v>
+        <v>2.583</v>
       </c>
       <c r="L54" t="n">
-        <v>1451</v>
+        <v>1428</v>
       </c>
       <c r="M54" t="n">
-        <v>4.226</v>
+        <v>4.159</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -6067,7 +6063,7 @@
         <v>332</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D55" t="s">
         <v>333</v>
@@ -6079,25 +6075,25 @@
         <v>335</v>
       </c>
       <c r="G55" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H55" t="n">
-        <v>559932709</v>
+        <v>565730031</v>
       </c>
       <c r="I55" t="n">
-        <v>401.844</v>
+        <v>406.004</v>
       </c>
       <c r="J55" t="n">
-        <v>1565696</v>
+        <v>1321780</v>
       </c>
       <c r="K55" t="n">
-        <v>1.124</v>
+        <v>0.949</v>
       </c>
       <c r="L55" t="n">
-        <v>1529080</v>
+        <v>1527759</v>
       </c>
       <c r="M55" t="n">
-        <v>1.097</v>
+        <v>1.096</v>
       </c>
       <c r="N55"/>
       <c r="O55"/>
@@ -6122,7 +6118,7 @@
         <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
@@ -6132,27 +6128,27 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H56" t="n">
-        <v>24908070</v>
+        <v>25411647</v>
       </c>
       <c r="I56" t="n">
-        <v>90.128</v>
+        <v>91.951</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56" t="n">
-        <v>170461</v>
+        <v>168795</v>
       </c>
       <c r="M56" t="n">
-        <v>0.617</v>
+        <v>0.611</v>
       </c>
       <c r="N56" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="O56" t="n">
-        <v>58.9</v>
+        <v>68.5</v>
       </c>
       <c r="P56" t="s">
         <v>340</v>
@@ -6175,7 +6171,7 @@
         <v>344</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D57" t="s">
         <v>345</v>
@@ -6185,31 +6181,31 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H57" t="n">
-        <v>31437588</v>
+        <v>31868828</v>
       </c>
       <c r="I57" t="n">
-        <v>369.729</v>
+        <v>374.801</v>
       </c>
       <c r="J57" t="n">
-        <v>106327</v>
+        <v>111829</v>
       </c>
       <c r="K57" t="n">
-        <v>1.25</v>
+        <v>1.315</v>
       </c>
       <c r="L57" t="n">
-        <v>109239</v>
+        <v>107843</v>
       </c>
       <c r="M57" t="n">
-        <v>1.285</v>
+        <v>1.268</v>
       </c>
       <c r="N57" t="n">
-        <v>0.151</v>
+        <v>0.14</v>
       </c>
       <c r="O57" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="P57" t="s">
         <v>346</v>
@@ -6232,7 +6228,7 @@
         <v>350</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D58" t="s">
         <v>351</v>
@@ -6242,25 +6238,25 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H58" t="n">
-        <v>15075045</v>
+        <v>15154796</v>
       </c>
       <c r="I58" t="n">
-        <v>366.083</v>
+        <v>368.019</v>
       </c>
       <c r="J58" t="n">
-        <v>25195</v>
+        <v>20886</v>
       </c>
       <c r="K58" t="n">
-        <v>0.612</v>
+        <v>0.507</v>
       </c>
       <c r="L58" t="n">
-        <v>25664</v>
+        <v>22653</v>
       </c>
       <c r="M58" t="n">
-        <v>0.623</v>
+        <v>0.55</v>
       </c>
       <c r="N58" t="n">
         <v>0.112</v>
@@ -6289,7 +6285,7 @@
         <v>357</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D59" t="s">
         <v>358</v>
@@ -6299,31 +6295,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H59" t="n">
-        <v>7271205</v>
+        <v>7379746</v>
       </c>
       <c r="I59" t="n">
-        <v>1459.23</v>
+        <v>1481.013</v>
       </c>
       <c r="J59" t="n">
-        <v>26571</v>
+        <v>15162</v>
       </c>
       <c r="K59" t="n">
-        <v>5.332</v>
+        <v>3.043</v>
       </c>
       <c r="L59" t="n">
-        <v>24902</v>
+        <v>23333</v>
       </c>
       <c r="M59" t="n">
-        <v>4.997</v>
+        <v>4.683</v>
       </c>
       <c r="N59" t="n">
-        <v>0.054</v>
+        <v>0.056</v>
       </c>
       <c r="O59" t="n">
-        <v>18.5</v>
+        <v>17.7</v>
       </c>
       <c r="P59" t="s">
         <v>359</v>
@@ -6346,7 +6342,7 @@
         <v>363</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D60" t="s">
         <v>364</v>
@@ -6356,31 +6352,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H60" t="n">
-        <v>26488711</v>
+        <v>26868685</v>
       </c>
       <c r="I60" t="n">
-        <v>3013.582</v>
+        <v>3056.811</v>
       </c>
       <c r="J60" t="n">
-        <v>131819</v>
+        <v>90556</v>
       </c>
       <c r="K60" t="n">
-        <v>14.997</v>
+        <v>10.302</v>
       </c>
       <c r="L60" t="n">
-        <v>129541</v>
+        <v>104795</v>
       </c>
       <c r="M60" t="n">
-        <v>14.738</v>
+        <v>11.922</v>
       </c>
       <c r="N60" t="n">
-        <v>0.051</v>
+        <v>0.048</v>
       </c>
       <c r="O60" t="n">
-        <v>19.7</v>
+        <v>20.9</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
@@ -6403,7 +6399,7 @@
         <v>369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="D61" t="s">
         <v>370</v>
@@ -6415,31 +6411,31 @@
         <v>372</v>
       </c>
       <c r="G61" t="n">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="H61" t="n">
-        <v>33860806</v>
+        <v>34041736</v>
       </c>
       <c r="I61" t="n">
-        <v>560.911</v>
+        <v>563.909</v>
       </c>
       <c r="J61" t="n">
-        <v>58183</v>
+        <v>58731</v>
       </c>
       <c r="K61" t="n">
-        <v>0.964</v>
+        <v>0.973</v>
       </c>
       <c r="L61" t="n">
-        <v>54157</v>
+        <v>54620</v>
       </c>
       <c r="M61" t="n">
-        <v>0.897</v>
+        <v>0.905</v>
       </c>
       <c r="N61" t="n">
-        <v>0.071</v>
+        <v>0.063</v>
       </c>
       <c r="O61" t="n">
-        <v>14.2</v>
+        <v>15.8</v>
       </c>
       <c r="P61" t="s">
         <v>373</v>
@@ -6462,7 +6458,7 @@
         <v>376</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="D62" t="s">
         <v>370</v>
@@ -6474,31 +6470,31 @@
         <v>372</v>
       </c>
       <c r="G62" t="n">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H62" t="n">
-        <v>90487632</v>
+        <v>91398852</v>
       </c>
       <c r="I62" t="n">
-        <v>1498.947</v>
+        <v>1514.041</v>
       </c>
       <c r="J62" t="n">
-        <v>321554</v>
+        <v>276221</v>
       </c>
       <c r="K62" t="n">
-        <v>5.327</v>
+        <v>4.576</v>
       </c>
       <c r="L62" t="n">
-        <v>281604</v>
+        <v>282623</v>
       </c>
       <c r="M62" t="n">
-        <v>4.665</v>
+        <v>4.682</v>
       </c>
       <c r="N62" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="O62" t="n">
-        <v>73.7</v>
+        <v>81.7</v>
       </c>
       <c r="P62" t="s">
         <v>373</v>
@@ -6521,7 +6517,7 @@
         <v>379</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44461</v>
+        <v>44465</v>
       </c>
       <c r="D63" t="s">
         <v>380</v>
@@ -6531,31 +6527,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H63" t="n">
-        <v>590447</v>
+        <v>596881</v>
       </c>
       <c r="I63" t="n">
-        <v>198.572</v>
+        <v>200.736</v>
       </c>
       <c r="J63" t="n">
-        <v>1966</v>
+        <v>1349</v>
       </c>
       <c r="K63" t="n">
-        <v>0.661</v>
+        <v>0.454</v>
       </c>
       <c r="L63" t="n">
-        <v>1740</v>
+        <v>1508</v>
       </c>
       <c r="M63" t="n">
-        <v>0.585</v>
+        <v>0.507</v>
       </c>
       <c r="N63" t="n">
-        <v>0.284</v>
+        <v>0.294</v>
       </c>
       <c r="O63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P63" t="s">
         <v>381</v>
@@ -6578,7 +6574,7 @@
         <v>385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D64" t="s">
         <v>386</v>
@@ -6588,31 +6584,31 @@
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H64" t="n">
-        <v>23207886</v>
+        <v>23505196</v>
       </c>
       <c r="I64" t="n">
-        <v>184.115</v>
+        <v>186.474</v>
       </c>
       <c r="J64" t="n">
-        <v>47873</v>
+        <v>79290</v>
       </c>
       <c r="K64" t="n">
-        <v>0.38</v>
+        <v>0.629</v>
       </c>
       <c r="L64" t="n">
-        <v>74418</v>
+        <v>75094</v>
       </c>
       <c r="M64" t="n">
-        <v>0.59</v>
+        <v>0.596</v>
       </c>
       <c r="N64" t="n">
-        <v>0.048</v>
+        <v>0.032</v>
       </c>
       <c r="O64" t="n">
-        <v>20.7</v>
+        <v>31.6</v>
       </c>
       <c r="P64" t="s">
         <v>387</v>
@@ -6635,39 +6631,41 @@
         <v>391</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D65" t="s">
         <v>392</v>
       </c>
-      <c r="E65"/>
+      <c r="E65" t="s">
+        <v>393</v>
+      </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H65" t="n">
-        <v>9890698</v>
+        <v>9985935</v>
       </c>
       <c r="I65" t="n">
-        <v>963.159</v>
+        <v>972.433</v>
       </c>
       <c r="J65" t="n">
-        <v>30650</v>
+        <v>27367</v>
       </c>
       <c r="K65" t="n">
-        <v>2.985</v>
+        <v>2.665</v>
       </c>
       <c r="L65" t="n">
-        <v>26369</v>
+        <v>30085</v>
       </c>
       <c r="M65" t="n">
-        <v>2.568</v>
+        <v>2.93</v>
       </c>
       <c r="N65" t="n">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="O65" t="n">
-        <v>30.6</v>
+        <v>29.3</v>
       </c>
       <c r="P65" t="s">
         <v>393</v>
@@ -6800,7 +6798,7 @@
         <v>407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44460</v>
+        <v>44465</v>
       </c>
       <c r="D68" t="s">
         <v>408</v>
@@ -6810,31 +6808,31 @@
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H68" t="n">
-        <v>1169540</v>
+        <v>1187970</v>
       </c>
       <c r="I68" t="n">
-        <v>605.11</v>
+        <v>614.645</v>
       </c>
       <c r="J68" t="n">
-        <v>9999</v>
+        <v>1442</v>
       </c>
       <c r="K68" t="n">
-        <v>5.173</v>
+        <v>0.746</v>
       </c>
       <c r="L68" t="n">
-        <v>6516</v>
+        <v>4393</v>
       </c>
       <c r="M68" t="n">
-        <v>3.371</v>
+        <v>2.273</v>
       </c>
       <c r="N68" t="n">
-        <v>0.037</v>
+        <v>0.025</v>
       </c>
       <c r="O68" t="n">
-        <v>26.7</v>
+        <v>40.3</v>
       </c>
       <c r="P68" t="s">
         <v>410</v>
@@ -6857,7 +6855,7 @@
         <v>413</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D69" t="s">
         <v>414</v>
@@ -6867,31 +6865,31 @@
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H69" t="n">
-        <v>4123606</v>
+        <v>4197698</v>
       </c>
       <c r="I69" t="n">
-        <v>952.652</v>
+        <v>969.769</v>
       </c>
       <c r="J69" t="n">
-        <v>16999</v>
+        <v>19982</v>
       </c>
       <c r="K69" t="n">
-        <v>3.927</v>
+        <v>4.616</v>
       </c>
       <c r="L69" t="n">
-        <v>17189</v>
+        <v>18148</v>
       </c>
       <c r="M69" t="n">
-        <v>3.971</v>
+        <v>4.193</v>
       </c>
       <c r="N69" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="O69" t="n">
-        <v>353.9</v>
+        <v>423.5</v>
       </c>
       <c r="P69" t="s">
         <v>415</v>
@@ -6914,7 +6912,7 @@
         <v>419</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="D70" t="s">
         <v>420</v>
@@ -6924,27 +6922,27 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H70" t="n">
-        <v>526350</v>
+        <v>550870</v>
       </c>
       <c r="I70" t="n">
-        <v>71.327</v>
+        <v>74.65</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70" t="n">
-        <v>5580</v>
+        <v>5971</v>
       </c>
       <c r="M70" t="n">
-        <v>0.756</v>
+        <v>0.809</v>
       </c>
       <c r="N70" t="n">
-        <v>0.066</v>
+        <v>0.063</v>
       </c>
       <c r="O70" t="n">
-        <v>15.1</v>
+        <v>15.9</v>
       </c>
       <c r="P70" t="s">
         <v>421</v>
@@ -7075,7 +7073,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44461</v>
+        <v>44465</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -7085,15 +7083,15 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>5430</v>
+        <v>5268</v>
       </c>
       <c r="K73" t="n">
-        <v>0.78</v>
+        <v>0.757</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
@@ -7120,7 +7118,7 @@
         <v>442</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44460</v>
+        <v>44464</v>
       </c>
       <c r="D74" t="s">
         <v>443</v>
@@ -7130,31 +7128,31 @@
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H74" t="n">
-        <v>66189</v>
+        <v>67205</v>
       </c>
       <c r="I74" t="n">
-        <v>1730.25</v>
+        <v>1756.81</v>
       </c>
       <c r="J74" t="n">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="K74" t="n">
-        <v>4.366</v>
+        <v>2.17</v>
       </c>
       <c r="L74" t="n">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="M74" t="n">
-        <v>5.882</v>
+        <v>5.646</v>
       </c>
       <c r="N74" t="n">
-        <v>0.025</v>
+        <v>0.018</v>
       </c>
       <c r="O74" t="n">
-        <v>40</v>
+        <v>55.6</v>
       </c>
       <c r="P74" t="s">
         <v>444</v>
@@ -7177,7 +7175,7 @@
         <v>448</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D75" t="s">
         <v>449</v>
@@ -7187,31 +7185,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H75" t="n">
-        <v>4962147</v>
+        <v>5043074</v>
       </c>
       <c r="I75" t="n">
-        <v>1844.759</v>
+        <v>1874.845</v>
       </c>
       <c r="J75" t="n">
-        <v>25086</v>
+        <v>26640</v>
       </c>
       <c r="K75" t="n">
-        <v>9.326</v>
+        <v>9.904</v>
       </c>
       <c r="L75" t="n">
-        <v>21165</v>
+        <v>21920</v>
       </c>
       <c r="M75" t="n">
-        <v>7.868</v>
+        <v>8.149</v>
       </c>
       <c r="N75" t="n">
-        <v>0.061</v>
+        <v>0.063</v>
       </c>
       <c r="O75" t="n">
-        <v>16.4</v>
+        <v>15.9</v>
       </c>
       <c r="P75" t="s">
         <v>450</v>
@@ -7234,7 +7232,7 @@
         <v>453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44461</v>
+        <v>44464</v>
       </c>
       <c r="D76" t="s">
         <v>454</v>
@@ -7244,31 +7242,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="H76" t="n">
-        <v>3506815</v>
+        <v>3513588</v>
       </c>
       <c r="I76" t="n">
-        <v>5524.161</v>
+        <v>5534.831</v>
       </c>
       <c r="J76" t="n">
-        <v>2298</v>
+        <v>2171</v>
       </c>
       <c r="K76" t="n">
-        <v>3.62</v>
+        <v>3.42</v>
       </c>
       <c r="L76" t="n">
-        <v>1958</v>
+        <v>1874</v>
       </c>
       <c r="M76" t="n">
-        <v>3.084</v>
+        <v>2.952</v>
       </c>
       <c r="N76" t="n">
-        <v>0.041</v>
+        <v>0.044</v>
       </c>
       <c r="O76" t="n">
-        <v>24.7</v>
+        <v>22.9</v>
       </c>
       <c r="P76" t="s">
         <v>455</v>
@@ -7460,7 +7458,7 @@
         <v>477</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D80" t="s">
         <v>478</v>
@@ -7470,31 +7468,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H80" t="n">
-        <v>1490632</v>
+        <v>1506950</v>
       </c>
       <c r="I80" t="n">
-        <v>2742.048</v>
+        <v>2772.065</v>
       </c>
       <c r="J80" t="n">
-        <v>4172</v>
+        <v>4119</v>
       </c>
       <c r="K80" t="n">
-        <v>7.674</v>
+        <v>7.577</v>
       </c>
       <c r="L80" t="n">
-        <v>4354</v>
+        <v>4259</v>
       </c>
       <c r="M80" t="n">
-        <v>8.009</v>
+        <v>7.835</v>
       </c>
       <c r="N80" t="n">
         <v>0.028</v>
       </c>
       <c r="O80" t="n">
-        <v>35.6</v>
+        <v>36</v>
       </c>
       <c r="P80" t="s">
         <v>479</v>
@@ -7517,7 +7515,7 @@
         <v>483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44445</v>
+        <v>44466</v>
       </c>
       <c r="D81" t="s">
         <v>484</v>
@@ -7527,57 +7525,57 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>562</v>
+        <v>435</v>
       </c>
       <c r="H81" t="n">
-        <v>1211456</v>
+        <v>1277830</v>
       </c>
       <c r="I81" t="n">
-        <v>2354.335</v>
+        <v>2483.326</v>
       </c>
       <c r="J81" t="n">
-        <v>2601</v>
+        <v>2124</v>
       </c>
       <c r="K81" t="n">
-        <v>5.055</v>
+        <v>4.128</v>
       </c>
       <c r="L81" t="n">
-        <v>3465</v>
+        <v>2865</v>
       </c>
       <c r="M81" t="n">
-        <v>6.734</v>
+        <v>5.568</v>
       </c>
       <c r="N81" t="n">
-        <v>0.016</v>
+        <v>0.005</v>
       </c>
       <c r="O81" t="n">
-        <v>62.4</v>
+        <v>184</v>
       </c>
       <c r="P81" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q81" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="R81" t="s">
         <v>44</v>
       </c>
       <c r="S81" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B82" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>44290</v>
       </c>
       <c r="D82" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
@@ -7603,161 +7601,165 @@
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q82" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="R82" t="s">
         <v>44</v>
       </c>
       <c r="S82" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B83" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44461</v>
+        <v>44465</v>
       </c>
       <c r="D83" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E83" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="H83" t="n">
-        <v>9970552</v>
+        <v>10058888</v>
       </c>
       <c r="I83" t="n">
-        <v>76.542</v>
+        <v>77.22</v>
       </c>
       <c r="J83" t="n">
-        <v>11883</v>
+        <v>2291</v>
       </c>
       <c r="K83" t="n">
-        <v>0.091</v>
+        <v>0.018</v>
       </c>
       <c r="L83" t="n">
-        <v>16335</v>
+        <v>18515</v>
       </c>
       <c r="M83" t="n">
-        <v>0.125</v>
+        <v>0.142</v>
       </c>
       <c r="N83" t="n">
-        <v>0.347</v>
+        <v>0.322</v>
       </c>
       <c r="O83" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P83" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q83" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="R83" t="s">
         <v>31</v>
       </c>
       <c r="S83" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B84" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D84" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E84" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H84" t="n">
-        <v>1721795</v>
+        <v>1757762</v>
       </c>
       <c r="I84" t="n">
-        <v>427.879</v>
+        <v>436.817</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>6881</v>
+        <v>7864</v>
       </c>
       <c r="M84" t="n">
-        <v>1.71</v>
+        <v>1.954</v>
       </c>
       <c r="N84" t="n">
-        <v>0.153</v>
+        <v>0.134</v>
       </c>
       <c r="O84" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="P84" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q84" t="s">
         <v>503</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>502</v>
       </c>
       <c r="R84" t="s">
         <v>24</v>
       </c>
       <c r="S84" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B85" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D85" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H85" t="n">
-        <v>3943973</v>
+        <v>3980390</v>
       </c>
       <c r="I85" t="n">
-        <v>1184.632</v>
-      </c>
-      <c r="J85"/>
-      <c r="K85"/>
+        <v>1195.57</v>
+      </c>
+      <c r="J85" t="n">
+        <v>10395</v>
+      </c>
+      <c r="K85" t="n">
+        <v>3.122</v>
+      </c>
       <c r="L85" t="n">
-        <v>9673</v>
+        <v>9348</v>
       </c>
       <c r="M85" t="n">
-        <v>2.905</v>
+        <v>2.808</v>
       </c>
       <c r="N85"/>
       <c r="O85"/>
@@ -7765,315 +7767,311 @@
         <v>36</v>
       </c>
       <c r="Q85" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="R85" t="s">
         <v>108</v>
       </c>
       <c r="S85" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B86" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D86" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E86" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H86" t="n">
-        <v>8661569</v>
+        <v>8721384</v>
       </c>
       <c r="I86" t="n">
-        <v>231.935</v>
-      </c>
-      <c r="J86" t="n">
-        <v>18323</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.491</v>
-      </c>
+        <v>233.537</v>
+      </c>
+      <c r="J86"/>
+      <c r="K86"/>
       <c r="L86" t="n">
-        <v>18238</v>
+        <v>16899</v>
       </c>
       <c r="M86" t="n">
-        <v>0.488</v>
+        <v>0.453</v>
       </c>
       <c r="N86" t="n">
-        <v>0.095</v>
+        <v>0.079</v>
       </c>
       <c r="O86" t="n">
-        <v>10.6</v>
+        <v>12.7</v>
       </c>
       <c r="P86" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q86" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="R86" t="s">
         <v>31</v>
       </c>
       <c r="S86" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B87" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44452</v>
+        <v>44464</v>
       </c>
       <c r="D87" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E87" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="H87" t="n">
-        <v>878110</v>
+        <v>899393</v>
       </c>
       <c r="I87" t="n">
-        <v>27.302</v>
+        <v>27.964</v>
       </c>
       <c r="J87" t="n">
-        <v>705</v>
+        <v>1897</v>
       </c>
       <c r="K87" t="n">
-        <v>0.022</v>
+        <v>0.059</v>
       </c>
       <c r="L87" t="n">
-        <v>1844</v>
+        <v>1540</v>
       </c>
       <c r="M87" t="n">
-        <v>0.057</v>
+        <v>0.048</v>
       </c>
       <c r="N87" t="n">
-        <v>0.093</v>
+        <v>0.048</v>
       </c>
       <c r="O87" t="n">
-        <v>10.7</v>
+        <v>21</v>
       </c>
       <c r="P87" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q87" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="R87" t="s">
         <v>72</v>
       </c>
       <c r="S87" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B88" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="D88" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E88" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H88" t="n">
-        <v>4188202</v>
+        <v>4243234</v>
       </c>
       <c r="I88" t="n">
-        <v>76.419</v>
+        <v>77.423</v>
       </c>
       <c r="J88" t="n">
-        <v>19775</v>
+        <v>18436</v>
       </c>
       <c r="K88" t="n">
-        <v>0.361</v>
+        <v>0.336</v>
       </c>
       <c r="L88" t="n">
-        <v>20075</v>
+        <v>18983</v>
       </c>
       <c r="M88" t="n">
-        <v>0.366</v>
+        <v>0.346</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09</v>
+        <v>0.087</v>
       </c>
       <c r="O88" t="n">
-        <v>11.1</v>
+        <v>11.5</v>
       </c>
       <c r="P88" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q88" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="R88" t="s">
         <v>108</v>
       </c>
       <c r="S88" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B89" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44461</v>
+        <v>44465</v>
       </c>
       <c r="D89" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E89" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H89" t="n">
-        <v>691844</v>
+        <v>698457</v>
       </c>
       <c r="I89" t="n">
-        <v>267.395</v>
+        <v>269.951</v>
       </c>
       <c r="J89" t="n">
-        <v>1100</v>
+        <v>1498</v>
       </c>
       <c r="K89" t="n">
-        <v>0.425</v>
+        <v>0.579</v>
       </c>
       <c r="L89" t="n">
-        <v>1425</v>
+        <v>1385</v>
       </c>
       <c r="M89" t="n">
-        <v>0.551</v>
+        <v>0.535</v>
       </c>
       <c r="N89" t="n">
-        <v>0.061</v>
+        <v>0.046</v>
       </c>
       <c r="O89" t="n">
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
       <c r="P89" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q89" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="R89" t="s">
         <v>108</v>
       </c>
       <c r="S89" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B90" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D90" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E90" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H90" t="n">
-        <v>4136208</v>
+        <v>4174503</v>
       </c>
       <c r="I90" t="n">
-        <v>139.384</v>
+        <v>140.674</v>
       </c>
       <c r="J90" t="n">
-        <v>11629</v>
+        <v>12081</v>
       </c>
       <c r="K90" t="n">
-        <v>0.392</v>
+        <v>0.407</v>
       </c>
       <c r="L90" t="n">
-        <v>9660</v>
+        <v>10088</v>
       </c>
       <c r="M90" t="n">
-        <v>0.326</v>
+        <v>0.34</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1</v>
+        <v>0.097</v>
       </c>
       <c r="O90" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="P90" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Q90" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="R90" t="s">
         <v>44</v>
       </c>
       <c r="S90" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B91" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>44458</v>
       </c>
       <c r="D91" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E91" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
@@ -8100,136 +8098,136 @@
         <v>17.2</v>
       </c>
       <c r="P91" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Q91" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="R91" t="s">
         <v>31</v>
       </c>
       <c r="S91" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B92" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D92" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H92" t="n">
-        <v>3301910</v>
+        <v>3346490</v>
       </c>
       <c r="I92" t="n">
-        <v>679.316</v>
+        <v>688.487</v>
       </c>
       <c r="J92" t="n">
-        <v>14855</v>
+        <v>9955</v>
       </c>
       <c r="K92" t="n">
-        <v>3.056</v>
+        <v>2.048</v>
       </c>
       <c r="L92" t="n">
-        <v>13655</v>
+        <v>13930</v>
       </c>
       <c r="M92" t="n">
-        <v>2.809</v>
+        <v>2.866</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Q92" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R92" t="s">
         <v>44</v>
       </c>
       <c r="S92" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B93" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44458</v>
+        <v>44466</v>
       </c>
       <c r="D93" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E93" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H93" t="n">
-        <v>2997060</v>
+        <v>6040381</v>
       </c>
       <c r="I93" t="n">
-        <v>14.177</v>
+        <v>28.573</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>7783</v>
+        <v>380415</v>
       </c>
       <c r="M93" t="n">
-        <v>0.037</v>
+        <v>1.799</v>
       </c>
       <c r="N93" t="n">
-        <v>0.049</v>
+        <v>0.001</v>
       </c>
       <c r="O93" t="n">
-        <v>20.6</v>
+        <v>1039.8</v>
       </c>
       <c r="P93" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q93" t="s">
         <v>556</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>555</v>
       </c>
       <c r="R93" t="s">
         <v>108</v>
       </c>
       <c r="S93" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B94" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>44462</v>
       </c>
       <c r="D94" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E94" t="s">
         <v>36</v>
@@ -8262,87 +8260,87 @@
         <v>36</v>
       </c>
       <c r="Q94" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="R94" t="s">
         <v>44</v>
       </c>
       <c r="S94" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B95" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44460</v>
+        <v>44464</v>
       </c>
       <c r="D95" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E95" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H95" t="n">
-        <v>7669062</v>
+        <v>7725455</v>
       </c>
       <c r="I95" t="n">
-        <v>1403.144</v>
+        <v>1413.461</v>
       </c>
       <c r="J95" t="n">
-        <v>21347</v>
+        <v>5489</v>
       </c>
       <c r="K95" t="n">
-        <v>3.906</v>
+        <v>1.004</v>
       </c>
       <c r="L95" t="n">
-        <v>18534</v>
+        <v>16437</v>
       </c>
       <c r="M95" t="n">
-        <v>3.391</v>
+        <v>3.007</v>
       </c>
       <c r="N95" t="n">
-        <v>0.038</v>
+        <v>0.042</v>
       </c>
       <c r="O95" t="n">
-        <v>26.4</v>
+        <v>24</v>
       </c>
       <c r="P95" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q95" t="s">
         <v>566</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>565</v>
       </c>
       <c r="R95" t="s">
         <v>31</v>
       </c>
       <c r="S95" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B96" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="D96" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E96" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
@@ -8361,191 +8359,191 @@
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Q96" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R96" t="s">
         <v>72</v>
       </c>
       <c r="S96" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B97" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D97" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E97" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H97" t="n">
-        <v>19102117</v>
+        <v>19284635</v>
       </c>
       <c r="I97" t="n">
-        <v>84.823</v>
+        <v>85.633</v>
       </c>
       <c r="J97" t="n">
-        <v>52788</v>
+        <v>44116</v>
       </c>
       <c r="K97" t="n">
-        <v>0.234</v>
+        <v>0.196</v>
       </c>
       <c r="L97" t="n">
-        <v>51680</v>
+        <v>47799</v>
       </c>
       <c r="M97" t="n">
-        <v>0.229</v>
+        <v>0.212</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q97" t="s">
         <v>577</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>576</v>
       </c>
       <c r="R97" t="s">
         <v>44</v>
       </c>
       <c r="S97" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B98" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D98" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>9103</v>
+        <v>10312</v>
       </c>
       <c r="K98" t="n">
-        <v>1.743</v>
+        <v>1.974</v>
       </c>
       <c r="L98" t="n">
-        <v>9650</v>
+        <v>8168</v>
       </c>
       <c r="M98" t="n">
-        <v>1.848</v>
+        <v>1.564</v>
       </c>
       <c r="N98" t="n">
-        <v>0.19</v>
+        <v>0.218</v>
       </c>
       <c r="O98" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="P98" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q98" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="R98" t="s">
         <v>44</v>
       </c>
       <c r="S98" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B99" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="D99" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E99" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H99" t="n">
-        <v>3830296</v>
+        <v>3851353</v>
       </c>
       <c r="I99" t="n">
-        <v>874.181</v>
+        <v>878.987</v>
       </c>
       <c r="J99" t="n">
-        <v>8413</v>
+        <v>5280</v>
       </c>
       <c r="K99" t="n">
-        <v>1.92</v>
+        <v>1.205</v>
       </c>
       <c r="L99" t="n">
-        <v>7252</v>
+        <v>7421</v>
       </c>
       <c r="M99" t="n">
-        <v>1.655</v>
+        <v>1.694</v>
       </c>
       <c r="N99" t="n">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="O99" t="n">
-        <v>25.2</v>
+        <v>27.5</v>
       </c>
       <c r="P99" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q99" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="R99" t="s">
         <v>44</v>
       </c>
       <c r="S99" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B100" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>44304</v>
       </c>
       <c r="D100" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E100" t="s">
         <v>315</v>
@@ -8578,84 +8576,84 @@
         <v>315</v>
       </c>
       <c r="Q100" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="R100" t="s">
         <v>24</v>
       </c>
       <c r="S100" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B101" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="D101" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E101" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="H101" t="n">
-        <v>1824448</v>
+        <v>1830605</v>
       </c>
       <c r="I101" t="n">
-        <v>252.706</v>
+        <v>253.559</v>
       </c>
       <c r="J101" t="n">
-        <v>2164</v>
+        <v>2010</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3</v>
+        <v>0.278</v>
       </c>
       <c r="L101" t="n">
-        <v>2137</v>
+        <v>2083</v>
       </c>
       <c r="M101" t="n">
-        <v>0.296</v>
+        <v>0.289</v>
       </c>
       <c r="N101" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="O101" t="n">
-        <v>65.9</v>
+        <v>80.1</v>
       </c>
       <c r="P101" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Q101" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="R101" t="s">
         <v>44</v>
       </c>
       <c r="S101" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B102" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>44459</v>
       </c>
       <c r="D102" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E102" t="s">
         <v>168</v>
@@ -8692,184 +8690,184 @@
         <v>168</v>
       </c>
       <c r="Q102" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="R102" t="s">
         <v>44</v>
       </c>
       <c r="S102" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B103" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44461</v>
+        <v>44465</v>
       </c>
       <c r="D103" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E103" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H103" t="n">
-        <v>19362705</v>
+        <v>19656906</v>
       </c>
       <c r="I103" t="n">
-        <v>174.365</v>
+        <v>177.014</v>
       </c>
       <c r="J103" t="n">
-        <v>72825</v>
+        <v>42280</v>
       </c>
       <c r="K103" t="n">
-        <v>0.656</v>
+        <v>0.381</v>
       </c>
       <c r="L103" t="n">
-        <v>70701</v>
+        <v>68718</v>
       </c>
       <c r="M103" t="n">
-        <v>0.637</v>
+        <v>0.619</v>
       </c>
       <c r="N103" t="n">
-        <v>0.272</v>
+        <v>0.258</v>
       </c>
       <c r="O103" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="P103" t="s">
         <v>315</v>
       </c>
       <c r="Q103" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="R103" t="s">
         <v>31</v>
       </c>
       <c r="S103" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B104" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D104" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E104" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="H104" t="n">
-        <v>20221027</v>
+        <v>20352805</v>
       </c>
       <c r="I104" t="n">
-        <v>534.99</v>
+        <v>538.477</v>
       </c>
       <c r="J104" t="n">
-        <v>41445</v>
+        <v>21226</v>
       </c>
       <c r="K104" t="n">
-        <v>1.097</v>
+        <v>0.562</v>
       </c>
       <c r="L104" t="n">
-        <v>37096</v>
+        <v>37173</v>
       </c>
       <c r="M104" t="n">
-        <v>0.981</v>
+        <v>0.983</v>
       </c>
       <c r="N104" t="n">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="O104" t="n">
-        <v>52.8</v>
+        <v>48.6</v>
       </c>
       <c r="P104" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Q104" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="R104" t="s">
         <v>31</v>
       </c>
       <c r="S104" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B105" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44458</v>
+        <v>44465</v>
       </c>
       <c r="D105" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E105" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="H105" t="n">
-        <v>20505694</v>
+        <v>20767718</v>
       </c>
       <c r="I105" t="n">
-        <v>542.522</v>
+        <v>549.454</v>
       </c>
       <c r="J105" t="n">
-        <v>22331</v>
+        <v>21347</v>
       </c>
       <c r="K105" t="n">
-        <v>0.591</v>
+        <v>0.565</v>
       </c>
       <c r="L105" t="n">
-        <v>37356</v>
+        <v>37432</v>
       </c>
       <c r="M105" t="n">
-        <v>0.988</v>
+        <v>0.99</v>
       </c>
       <c r="N105" t="n">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="O105" t="n">
-        <v>61</v>
+        <v>49.4</v>
       </c>
       <c r="P105" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Q105" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="R105" t="s">
         <v>108</v>
       </c>
       <c r="S105" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="106">
@@ -8880,7 +8878,7 @@
         <v>622</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44461</v>
+        <v>44464</v>
       </c>
       <c r="D106" t="s">
         <v>623</v>
@@ -8890,31 +8888,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H106" t="n">
-        <v>18177290</v>
+        <v>18377574</v>
       </c>
       <c r="I106" t="n">
-        <v>1787.709</v>
+        <v>1807.407</v>
       </c>
       <c r="J106" t="n">
-        <v>51337</v>
+        <v>36453</v>
       </c>
       <c r="K106" t="n">
-        <v>5.049</v>
+        <v>3.585</v>
       </c>
       <c r="L106" t="n">
-        <v>48812</v>
+        <v>52824</v>
       </c>
       <c r="M106" t="n">
-        <v>4.801</v>
+        <v>5.195</v>
       </c>
       <c r="N106" t="n">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
       <c r="O106" t="n">
-        <v>60.5</v>
+        <v>74.3</v>
       </c>
       <c r="P106" t="s">
         <v>624</v>
@@ -8937,7 +8935,7 @@
         <v>627</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44460</v>
+        <v>44466</v>
       </c>
       <c r="D107" t="s">
         <v>628</v>
@@ -8947,31 +8945,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="H107" t="n">
-        <v>2615766</v>
+        <v>2648649</v>
       </c>
       <c r="I107" t="n">
-        <v>892.593</v>
+        <v>903.814</v>
       </c>
       <c r="J107" t="n">
-        <v>5256</v>
+        <v>6245</v>
       </c>
       <c r="K107" t="n">
-        <v>1.794</v>
+        <v>2.131</v>
       </c>
       <c r="L107" t="n">
-        <v>5275</v>
+        <v>5448</v>
       </c>
       <c r="M107" t="n">
-        <v>1.8</v>
+        <v>1.859</v>
       </c>
       <c r="N107" t="n">
-        <v>0.024</v>
+        <v>0.02</v>
       </c>
       <c r="O107" t="n">
-        <v>42.2</v>
+        <v>50</v>
       </c>
       <c r="P107" t="s">
         <v>630</v>
@@ -8994,7 +8992,7 @@
         <v>633</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44461</v>
+        <v>44467</v>
       </c>
       <c r="D108" t="s">
         <v>634</v>
@@ -9004,32 +9002,24 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H108" t="n">
-        <v>12393877</v>
+        <v>12644635</v>
       </c>
       <c r="I108" t="n">
-        <v>647.952</v>
-      </c>
-      <c r="J108" t="n">
-        <v>53951</v>
-      </c>
-      <c r="K108" t="n">
-        <v>2.821</v>
-      </c>
+        <v>661.062</v>
+      </c>
+      <c r="J108"/>
+      <c r="K108"/>
       <c r="L108" t="n">
-        <v>44569</v>
+        <v>43530</v>
       </c>
       <c r="M108" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="O108" t="n">
-        <v>8.8</v>
-      </c>
+        <v>2.276</v>
+      </c>
+      <c r="N108"/>
+      <c r="O108"/>
       <c r="P108" t="s">
         <v>636</v>
       </c>
@@ -9051,7 +9041,7 @@
         <v>640</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D109" t="s">
         <v>641</v>
@@ -9061,27 +9051,27 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H109" t="n">
-        <v>188786024</v>
+        <v>190551424</v>
       </c>
       <c r="I109" t="n">
-        <v>1293.835</v>
+        <v>1305.934</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>448050</v>
+        <v>457646</v>
       </c>
       <c r="M109" t="n">
-        <v>3.071</v>
+        <v>3.136</v>
       </c>
       <c r="N109" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="O109" t="n">
-        <v>22.7</v>
+        <v>22</v>
       </c>
       <c r="P109" t="s">
         <v>642</v>
@@ -9104,7 +9094,7 @@
         <v>646</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D110" t="s">
         <v>647</v>
@@ -9114,21 +9104,25 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H110" t="n">
-        <v>2731232</v>
+        <v>2776387</v>
       </c>
       <c r="I110" t="n">
-        <v>205.719</v>
-      </c>
-      <c r="J110"/>
-      <c r="K110"/>
+        <v>209.12</v>
+      </c>
+      <c r="J110" t="n">
+        <v>8873</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.668</v>
+      </c>
       <c r="L110" t="n">
-        <v>12403</v>
+        <v>10849</v>
       </c>
       <c r="M110" t="n">
-        <v>0.934</v>
+        <v>0.817</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
@@ -9153,7 +9147,7 @@
         <v>652</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44461</v>
+        <v>44465</v>
       </c>
       <c r="D111" t="s">
         <v>653</v>
@@ -9163,27 +9157,27 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H111" t="n">
-        <v>36602</v>
+        <v>38964</v>
       </c>
       <c r="I111" t="n">
-        <v>683.562</v>
+        <v>727.673</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111" t="n">
-        <v>219</v>
+        <v>425</v>
       </c>
       <c r="M111" t="n">
-        <v>4.09</v>
+        <v>7.937</v>
       </c>
       <c r="N111" t="n">
-        <v>0.106</v>
+        <v>0.068</v>
       </c>
       <c r="O111" t="n">
-        <v>9.5</v>
+        <v>14.7</v>
       </c>
       <c r="P111" t="s">
         <v>36</v>
@@ -9206,7 +9200,7 @@
         <v>657</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44461</v>
+        <v>44465</v>
       </c>
       <c r="D112" t="s">
         <v>658</v>
@@ -9216,31 +9210,31 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H112" t="n">
-        <v>28595954</v>
+        <v>28754325</v>
       </c>
       <c r="I112" t="n">
-        <v>809.151</v>
+        <v>813.632</v>
       </c>
       <c r="J112" t="n">
-        <v>51621</v>
+        <v>44262</v>
       </c>
       <c r="K112" t="n">
-        <v>1.461</v>
+        <v>1.252</v>
       </c>
       <c r="L112" t="n">
-        <v>49661</v>
+        <v>45791</v>
       </c>
       <c r="M112" t="n">
-        <v>1.405</v>
+        <v>1.296</v>
       </c>
       <c r="N112" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="O112" t="n">
-        <v>383.7</v>
+        <v>622.4</v>
       </c>
       <c r="P112" t="s">
         <v>36</v>
@@ -9263,7 +9257,7 @@
         <v>661</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D113" t="s">
         <v>662</v>
@@ -9273,31 +9267,31 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H113" t="n">
-        <v>800077</v>
+        <v>806818</v>
       </c>
       <c r="I113" t="n">
-        <v>46.526</v>
+        <v>46.918</v>
       </c>
       <c r="J113" t="n">
-        <v>1688</v>
+        <v>1432</v>
       </c>
       <c r="K113" t="n">
-        <v>0.098</v>
+        <v>0.083</v>
       </c>
       <c r="L113" t="n">
-        <v>1810</v>
+        <v>1652</v>
       </c>
       <c r="M113" t="n">
-        <v>0.105</v>
+        <v>0.096</v>
       </c>
       <c r="N113" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="O113" t="n">
-        <v>88</v>
+        <v>124.3</v>
       </c>
       <c r="P113" t="s">
         <v>663</v>
@@ -9320,7 +9314,7 @@
         <v>666</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D114" t="s">
         <v>667</v>
@@ -9332,31 +9326,31 @@
         <v>668</v>
       </c>
       <c r="G114" t="n">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H114" t="n">
-        <v>5498341</v>
+        <v>5575278</v>
       </c>
       <c r="I114" t="n">
-        <v>808.033</v>
+        <v>819.34</v>
       </c>
       <c r="J114" t="n">
-        <v>21454</v>
+        <v>20561</v>
       </c>
       <c r="K114" t="n">
-        <v>3.153</v>
+        <v>3.022</v>
       </c>
       <c r="L114" t="n">
-        <v>22254</v>
+        <v>20973</v>
       </c>
       <c r="M114" t="n">
-        <v>3.27</v>
+        <v>3.082</v>
       </c>
       <c r="N114" t="n">
-        <v>0.301</v>
+        <v>0.311</v>
       </c>
       <c r="O114" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P114" t="s">
         <v>36</v>
@@ -9406,10 +9400,10 @@
         <v>11.371</v>
       </c>
       <c r="N115" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="O115" t="n">
-        <v>85.2</v>
+        <v>73</v>
       </c>
       <c r="P115" t="s">
         <v>36</v>
@@ -9432,7 +9426,7 @@
         <v>677</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44461</v>
+        <v>44465</v>
       </c>
       <c r="D116" t="s">
         <v>678</v>
@@ -9442,31 +9436,31 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="H116" t="n">
-        <v>41677440</v>
+        <v>41793739</v>
       </c>
       <c r="I116" t="n">
-        <v>7632.216</v>
+        <v>7653.513</v>
       </c>
       <c r="J116" t="n">
-        <v>25317</v>
+        <v>11709</v>
       </c>
       <c r="K116" t="n">
-        <v>4.636</v>
+        <v>2.144</v>
       </c>
       <c r="L116" t="n">
-        <v>28998</v>
+        <v>30081</v>
       </c>
       <c r="M116" t="n">
-        <v>5.31</v>
+        <v>5.509</v>
       </c>
       <c r="N116" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="O116" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="P116" t="s">
         <v>36</v>
@@ -9489,7 +9483,7 @@
         <v>681</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D117" t="s">
         <v>682</v>
@@ -9499,31 +9493,31 @@
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H117" t="n">
-        <v>1552754</v>
+        <v>1566836</v>
       </c>
       <c r="I117" t="n">
-        <v>746.975</v>
+        <v>753.749</v>
       </c>
       <c r="J117" t="n">
-        <v>5471</v>
+        <v>4785</v>
       </c>
       <c r="K117" t="n">
-        <v>2.632</v>
+        <v>2.302</v>
       </c>
       <c r="L117" t="n">
-        <v>4755</v>
+        <v>4443</v>
       </c>
       <c r="M117" t="n">
-        <v>2.287</v>
+        <v>2.137</v>
       </c>
       <c r="N117" t="n">
-        <v>0.196</v>
+        <v>0.19</v>
       </c>
       <c r="O117" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="P117" t="s">
         <v>683</v>
@@ -9546,7 +9540,7 @@
         <v>686</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D118" t="s">
         <v>687</v>
@@ -9556,31 +9550,31 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H118" t="n">
-        <v>17493443</v>
+        <v>17588025</v>
       </c>
       <c r="I118" t="n">
-        <v>291.353</v>
+        <v>292.929</v>
       </c>
       <c r="J118" t="n">
-        <v>40660</v>
+        <v>15350</v>
       </c>
       <c r="K118" t="n">
-        <v>0.677</v>
+        <v>0.256</v>
       </c>
       <c r="L118" t="n">
-        <v>36679</v>
+        <v>30520</v>
       </c>
       <c r="M118" t="n">
-        <v>0.611</v>
+        <v>0.508</v>
       </c>
       <c r="N118" t="n">
-        <v>0.073</v>
+        <v>0.063</v>
       </c>
       <c r="O118" t="n">
-        <v>13.8</v>
+        <v>16</v>
       </c>
       <c r="P118" t="s">
         <v>688</v>
@@ -9603,7 +9597,7 @@
         <v>692</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D119" t="s">
         <v>693</v>
@@ -9613,25 +9607,25 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H119" t="n">
-        <v>13191185</v>
+        <v>13290179</v>
       </c>
       <c r="I119" t="n">
-        <v>257.112</v>
+        <v>259.042</v>
       </c>
       <c r="J119" t="n">
-        <v>74836</v>
+        <v>44355</v>
       </c>
       <c r="K119" t="n">
-        <v>1.459</v>
+        <v>0.865</v>
       </c>
       <c r="L119" t="n">
-        <v>24780</v>
+        <v>24967</v>
       </c>
       <c r="M119" t="n">
-        <v>0.483</v>
+        <v>0.487</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
@@ -9762,7 +9756,7 @@
         <v>709</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D122" t="s">
         <v>710</v>
@@ -9772,31 +9766,31 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="H122" t="n">
-        <v>5224555</v>
+        <v>5259319</v>
       </c>
       <c r="I122" t="n">
-        <v>243.033</v>
+        <v>244.65</v>
       </c>
       <c r="J122" t="n">
-        <v>8256</v>
+        <v>6655</v>
       </c>
       <c r="K122" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="L122" t="n">
+        <v>8249</v>
+      </c>
+      <c r="M122" t="n">
         <v>0.384</v>
       </c>
-      <c r="L122" t="n">
-        <v>8654</v>
-      </c>
-      <c r="M122" t="n">
-        <v>0.403</v>
-      </c>
       <c r="N122" t="n">
-        <v>0.187</v>
+        <v>0.149</v>
       </c>
       <c r="O122" t="n">
-        <v>5.3</v>
+        <v>6.7</v>
       </c>
       <c r="P122" t="s">
         <v>711</v>
@@ -9872,7 +9866,7 @@
         <v>721</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44461</v>
+        <v>44464</v>
       </c>
       <c r="D124" t="s">
         <v>443</v>
@@ -9882,31 +9876,31 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H124" t="n">
-        <v>10143064</v>
+        <v>10277624</v>
       </c>
       <c r="I124" t="n">
-        <v>1163.797</v>
+        <v>1179.236</v>
       </c>
       <c r="J124" t="n">
-        <v>31584</v>
+        <v>35254</v>
       </c>
       <c r="K124" t="n">
-        <v>3.624</v>
+        <v>4.045</v>
       </c>
       <c r="L124" t="n">
-        <v>35858</v>
+        <v>36041</v>
       </c>
       <c r="M124" t="n">
-        <v>4.114</v>
+        <v>4.135</v>
       </c>
       <c r="N124" t="n">
-        <v>0.048</v>
+        <v>0.043</v>
       </c>
       <c r="O124" t="n">
-        <v>20.8</v>
+        <v>23.3</v>
       </c>
       <c r="P124" t="s">
         <v>444</v>
@@ -9929,7 +9923,7 @@
         <v>724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44461</v>
+        <v>44466</v>
       </c>
       <c r="D125" t="s">
         <v>725</v>
@@ -9939,31 +9933,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="H125" t="n">
-        <v>3227506</v>
+        <v>3329815</v>
       </c>
       <c r="I125" t="n">
-        <v>135.297</v>
+        <v>139.586</v>
       </c>
       <c r="J125" t="n">
-        <v>28714</v>
+        <v>18886</v>
       </c>
       <c r="K125" t="n">
-        <v>1.204</v>
+        <v>0.792</v>
       </c>
       <c r="L125" t="n">
-        <v>19198</v>
+        <v>20573</v>
       </c>
       <c r="M125" t="n">
-        <v>0.805</v>
+        <v>0.862</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>2399.8</v>
+        <v>2823.6</v>
       </c>
       <c r="P125" t="s">
         <v>726</v>
@@ -10096,7 +10090,7 @@
         <v>740</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
@@ -10106,31 +10100,31 @@
         <v>742</v>
       </c>
       <c r="G128" t="n">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H128" t="n">
-        <v>504440</v>
+        <v>509788</v>
       </c>
       <c r="I128" t="n">
-        <v>59.498</v>
+        <v>60.129</v>
       </c>
       <c r="J128" t="n">
-        <v>1613</v>
+        <v>840</v>
       </c>
       <c r="K128" t="n">
-        <v>0.19</v>
+        <v>0.099</v>
       </c>
       <c r="L128" t="n">
-        <v>1631</v>
+        <v>1454</v>
       </c>
       <c r="M128" t="n">
-        <v>0.192</v>
+        <v>0.171</v>
       </c>
       <c r="N128" t="n">
-        <v>0.078</v>
+        <v>0.059</v>
       </c>
       <c r="O128" t="n">
-        <v>12.8</v>
+        <v>17</v>
       </c>
       <c r="P128" t="s">
         <v>741</v>
@@ -10153,7 +10147,7 @@
         <v>747</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44456</v>
+        <v>44465</v>
       </c>
       <c r="D129" t="s">
         <v>748</v>
@@ -10163,31 +10157,31 @@
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="H129" t="n">
-        <v>333526</v>
+        <v>344713</v>
       </c>
       <c r="I129" t="n">
-        <v>237.66</v>
+        <v>245.632</v>
       </c>
       <c r="J129" t="n">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="K129" t="n">
-        <v>0.538</v>
+        <v>0.542</v>
       </c>
       <c r="L129" t="n">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="M129" t="n">
-        <v>0.971</v>
+        <v>0.972</v>
       </c>
       <c r="N129" t="n">
-        <v>0.148</v>
+        <v>0.149</v>
       </c>
       <c r="O129" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="P129" t="s">
         <v>36</v>
@@ -10210,7 +10204,7 @@
         <v>752</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44461</v>
+        <v>44465</v>
       </c>
       <c r="D130" t="s">
         <v>753</v>
@@ -10220,31 +10214,27 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H130" t="n">
-        <v>2880794</v>
+        <v>2907111</v>
       </c>
       <c r="I130" t="n">
-        <v>241.358</v>
-      </c>
-      <c r="J130" t="n">
-        <v>6367</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.533</v>
-      </c>
+        <v>243.563</v>
+      </c>
+      <c r="J130"/>
+      <c r="K130"/>
       <c r="L130" t="n">
-        <v>8579</v>
+        <v>6536</v>
       </c>
       <c r="M130" t="n">
-        <v>0.719</v>
+        <v>0.548</v>
       </c>
       <c r="N130" t="n">
-        <v>0.104</v>
+        <v>0.109</v>
       </c>
       <c r="O130" t="n">
-        <v>9.6</v>
+        <v>9.2</v>
       </c>
       <c r="P130" t="s">
         <v>755</v>
@@ -10267,7 +10257,7 @@
         <v>759</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D131" t="s">
         <v>760</v>
@@ -10277,31 +10267,31 @@
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H131" t="n">
-        <v>83807592</v>
+        <v>85199508</v>
       </c>
       <c r="I131" t="n">
-        <v>985.476</v>
+        <v>1001.843</v>
       </c>
       <c r="J131" t="n">
-        <v>356132</v>
+        <v>353324</v>
       </c>
       <c r="K131" t="n">
-        <v>4.188</v>
+        <v>4.155</v>
       </c>
       <c r="L131" t="n">
-        <v>346435</v>
+        <v>350651</v>
       </c>
       <c r="M131" t="n">
-        <v>4.074</v>
+        <v>4.123</v>
       </c>
       <c r="N131" t="n">
-        <v>0.08</v>
+        <v>0.078</v>
       </c>
       <c r="O131" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="P131" t="s">
         <v>761</v>
@@ -10324,7 +10314,7 @@
         <v>765</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44460</v>
+        <v>44464</v>
       </c>
       <c r="D132" t="s">
         <v>766</v>
@@ -10334,31 +10324,31 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H132" t="n">
-        <v>1659900</v>
+        <v>1675142</v>
       </c>
       <c r="I132" t="n">
-        <v>35.224</v>
+        <v>35.548</v>
       </c>
       <c r="J132" t="n">
-        <v>3790</v>
+        <v>3838</v>
       </c>
       <c r="K132" t="n">
-        <v>0.08</v>
+        <v>0.081</v>
       </c>
       <c r="L132" t="n">
-        <v>3467</v>
+        <v>3532</v>
       </c>
       <c r="M132" t="n">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
       <c r="N132" t="n">
-        <v>0.032</v>
+        <v>0.04</v>
       </c>
       <c r="O132" t="n">
-        <v>30.8</v>
+        <v>25.2</v>
       </c>
       <c r="P132" t="s">
         <v>767</v>
@@ -10381,7 +10371,7 @@
         <v>771</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="D133" t="s">
         <v>772</v>
@@ -10391,25 +10381,25 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H133" t="n">
-        <v>12633853</v>
+        <v>12741131</v>
       </c>
       <c r="I133" t="n">
-        <v>290.655</v>
+        <v>293.123</v>
       </c>
       <c r="J133" t="n">
-        <v>40578</v>
+        <v>31051</v>
       </c>
       <c r="K133" t="n">
-        <v>0.934</v>
+        <v>0.714</v>
       </c>
       <c r="L133" t="n">
-        <v>31622</v>
+        <v>32303</v>
       </c>
       <c r="M133" t="n">
-        <v>0.727</v>
+        <v>0.743</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
@@ -10434,7 +10424,7 @@
         <v>777</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44462</v>
+        <v>44467</v>
       </c>
       <c r="D134" t="s">
         <v>778</v>
@@ -10444,32 +10434,28 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="H134" t="n">
-        <v>81817905</v>
+        <v>83372656</v>
       </c>
       <c r="I134" t="n">
-        <v>8189.093</v>
+        <v>8344.707</v>
       </c>
       <c r="J134" t="n">
-        <v>282897</v>
+        <v>330693</v>
       </c>
       <c r="K134" t="n">
-        <v>28.315</v>
+        <v>33.099</v>
       </c>
       <c r="L134" t="n">
-        <v>318278</v>
+        <v>308036</v>
       </c>
       <c r="M134" t="n">
-        <v>31.856</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O134" t="n">
-        <v>836</v>
-      </c>
+        <v>30.831</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134"/>
       <c r="P134" t="s">
         <v>779</v>
       </c>
@@ -10491,7 +10477,7 @@
         <v>782</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44461</v>
+        <v>44465</v>
       </c>
       <c r="D135" t="s">
         <v>783</v>
@@ -10503,31 +10489,31 @@
         <v>785</v>
       </c>
       <c r="G135" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H135" t="n">
-        <v>266496020</v>
+        <v>270309518</v>
       </c>
       <c r="I135" t="n">
-        <v>3907.159</v>
+        <v>3963.069</v>
       </c>
       <c r="J135" t="n">
-        <v>958930</v>
+        <v>1106362</v>
       </c>
       <c r="K135" t="n">
-        <v>14.059</v>
+        <v>16.221</v>
       </c>
       <c r="L135" t="n">
-        <v>945017</v>
+        <v>948339</v>
       </c>
       <c r="M135" t="n">
-        <v>13.855</v>
+        <v>13.904</v>
       </c>
       <c r="N135" t="n">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="O135" t="n">
-        <v>30.2</v>
+        <v>28.2</v>
       </c>
       <c r="P135" t="s">
         <v>786</v>
@@ -10550,7 +10536,7 @@
         <v>790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44459</v>
+        <v>44462</v>
       </c>
       <c r="D136" t="s">
         <v>791</v>
@@ -10560,31 +10546,31 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H136" t="n">
-        <v>563303262</v>
+        <v>570080992</v>
       </c>
       <c r="I136" t="n">
-        <v>1692.033</v>
+        <v>1712.392</v>
       </c>
       <c r="J136" t="n">
-        <v>347115</v>
+        <v>1129657</v>
       </c>
       <c r="K136" t="n">
-        <v>1.043</v>
+        <v>3.393</v>
       </c>
       <c r="L136" t="n">
-        <v>1306039</v>
+        <v>1381605</v>
       </c>
       <c r="M136" t="n">
-        <v>3.923</v>
+        <v>4.15</v>
       </c>
       <c r="N136" t="n">
-        <v>0.106</v>
+        <v>0.091</v>
       </c>
       <c r="O136" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="P136" t="s">
         <v>792</v>
@@ -10607,7 +10593,7 @@
         <v>796</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D137" t="s">
         <v>797</v>
@@ -10617,31 +10603,27 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H137" t="n">
-        <v>3527048</v>
+        <v>3553462</v>
       </c>
       <c r="I137" t="n">
-        <v>1012.021</v>
-      </c>
-      <c r="J137" t="n">
-        <v>8417</v>
-      </c>
-      <c r="K137" t="n">
-        <v>2.415</v>
-      </c>
+        <v>1019.6</v>
+      </c>
+      <c r="J137"/>
+      <c r="K137"/>
       <c r="L137" t="n">
-        <v>7773</v>
+        <v>7168</v>
       </c>
       <c r="M137" t="n">
-        <v>2.23</v>
+        <v>2.057</v>
       </c>
       <c r="N137" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="O137" t="n">
-        <v>61</v>
+        <v>60.6</v>
       </c>
       <c r="P137" t="s">
         <v>191</v>
@@ -10717,7 +10699,7 @@
         <v>808</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="D139" t="s">
         <v>809</v>
@@ -10727,31 +10709,31 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="H139" t="n">
-        <v>2417680</v>
+        <v>2437088</v>
       </c>
       <c r="I139" t="n">
-        <v>127.78</v>
+        <v>128.806</v>
       </c>
       <c r="J139" t="n">
-        <v>6084</v>
+        <v>4154</v>
       </c>
       <c r="K139" t="n">
-        <v>0.322</v>
+        <v>0.22</v>
       </c>
       <c r="L139" t="n">
-        <v>5983</v>
+        <v>5556</v>
       </c>
       <c r="M139" t="n">
-        <v>0.316</v>
+        <v>0.294</v>
       </c>
       <c r="N139" t="n">
-        <v>0.011</v>
+        <v>0.009</v>
       </c>
       <c r="O139" t="n">
-        <v>93.5</v>
+        <v>106.6</v>
       </c>
       <c r="P139" t="s">
         <v>811</v>
@@ -10774,7 +10756,7 @@
         <v>814</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44462</v>
+        <v>44465</v>
       </c>
       <c r="D140" t="s">
         <v>815</v>
@@ -10784,31 +10766,31 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H140" t="n">
-        <v>1234873</v>
+        <v>1247592</v>
       </c>
       <c r="I140" t="n">
-        <v>81.822</v>
+        <v>82.665</v>
       </c>
       <c r="J140" t="n">
-        <v>5245</v>
+        <v>2248</v>
       </c>
       <c r="K140" t="n">
-        <v>0.348</v>
+        <v>0.149</v>
       </c>
       <c r="L140" t="n">
-        <v>4373</v>
+        <v>4736</v>
       </c>
       <c r="M140" t="n">
-        <v>0.29</v>
+        <v>0.314</v>
       </c>
       <c r="N140" t="n">
-        <v>0.058</v>
+        <v>0.051</v>
       </c>
       <c r="O140" t="n">
-        <v>17.3</v>
+        <v>19.7</v>
       </c>
       <c r="P140" t="s">
         <v>816</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="836">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4353</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4367</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/09/coronavirus-covid-19-at-a-glance-29-september-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/10/coronavirus-covid-19-at-a-glance-4-october-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">Bahamas - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/7764dec0-752e-4d63-b508-fef744734b22/Update+%23549-+Ministry+of+Health+-+COVID-19+Report+%2867%29.pdf?MOD=AJPERES</t>
+    <t xml:space="preserve">https://www.bahamas.gov.bs/wps/wcm/connect/78fe926a-ee5c-425e-8f4d-5d91f22778f2/Update+%23555+-+Ministry+of+Health+-+COVID-19+Report+%2847%29.pdf?MOD=AJPERES</t>
   </si>
   <si>
     <t xml:space="preserve">Bahamas Ministry of Health and Wellness</t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/6074-bolivia-inmuniza-a-6-780-455-personas-hasta-la-fecha-y-rebasa-los-500-000-casos-acumulados-de-covid-19</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/6085-el-ministerio-de-salud-informa-que-se-inmunizo-hasta-hoy-a-6-825-033-personas-con-primeras-segundas-y-dosis-unica</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-29-de-setembro-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-03-de-outubro-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -748,7 +748,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-30092021-x0k9</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-04102021-jmtl</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/09/Presentacion-COVID-19-SNVSPSNGR_v2018.3.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/10/Presentacion-COVID-19-SNVSPSNGR_v2018.3.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -1201,7 +1201,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/371019</t>
+    <t xml:space="preserve">http://irangov.ir/detail/371281</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1221,7 +1221,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1443585965944020996</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1445029127191502859</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1324,7 +1324,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-september-29-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-october-3-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1443263067920478218</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1444693770826571781</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1642,7 +1642,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1443621664806342660</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1444708826867847174</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1443599268120510466</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1445049551921029121</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1797,7 +1797,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FSep_2021(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(29-9-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FOct_2021(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(3-10-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1839,7 +1839,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1wwGuyDzhzg8IHFH-RTXHmYqSlPXEDJpL</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1tTzaSBeFvUu85-pIbW7kDD1IyBY4O998</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1992,7 +1992,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4200040476788465</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4209866545805858</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2014,7 +2014,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1442290724272214018</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1444827582101442562</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1442256459316695042</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1444796799399735301</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2085,7 +2085,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1RCvZssxQO243yFekP5rxayGubgEvfP6z</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1WugUIGvBg2jObNz43AsxgOBXfrUSWoAe</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2106,7 +2106,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1442409928228933639</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1444946643321638914</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2169,7 +2169,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_30_septembrie_2021,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/4-10_BULETIN_DE_PRESA_-ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=19127</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=19178</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2245,6 +2245,24 @@
     <t xml:space="preserve">The Ministry of Health maintains a [table](https://covid19.gov.kn/stats2.php) reporting the number of people tested.</t>
   </si>
   <si>
+    <t xml:space="preserve">VCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent and the Grenadines - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/photos/a.872174376176320/4905196252874092/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent and the Grenadines Ministry of Health, Wellness and the Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/SVGHEALTH/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Saint Vincent and the Grenadines Ministry of Health, Wellness and the Environment publishes COVID-19 reports on its official [Facebook page](https://www.facebook.com/SVGHEALTH/) reporting the number of tests performed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAU</t>
   </si>
   <si>
@@ -2349,7 +2367,7 @@
     <t xml:space="preserve">South Africa - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://sacoronavirus.co.za/2021/09/27/update-on-covid-19-monday-27-september/</t>
+    <t xml:space="preserve">https://sacoronavirus.co.za/category/daily-cases/</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Communicable Diseases (NICD)</t>
@@ -2405,7 +2423,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_16_09_2021.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_30_09_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2555,7 +2573,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-859/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-864/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2617,7 +2635,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1442394304580882437</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1444958308666945539</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2743,7 +2761,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1461-bc-byt-2021-tinh-hinh-dich-covid-19-va-cong-tac-phong-chong-dich-ngay-23-9-2021-209888-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1517-bc-byt-210421-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam Ministry of Health</t>
@@ -2789,7 +2807,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1442213240558211074</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1444795677427503106</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3364,7 +3382,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44463</v>
+        <v>44468</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3374,31 +3392,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="H5" t="n">
-        <v>14046650</v>
+        <v>23858841</v>
       </c>
       <c r="I5" t="n">
-        <v>308.001</v>
+        <v>523.153</v>
       </c>
       <c r="J5" t="n">
-        <v>26194</v>
+        <v>49227</v>
       </c>
       <c r="K5" t="n">
-        <v>0.574</v>
+        <v>1.079</v>
       </c>
       <c r="L5" t="n">
-        <v>24732</v>
+        <v>45308</v>
       </c>
       <c r="M5" t="n">
-        <v>0.542</v>
+        <v>0.993</v>
       </c>
       <c r="N5" t="n">
-        <v>0.018</v>
+        <v>0.021</v>
       </c>
       <c r="O5" t="n">
-        <v>55.6</v>
+        <v>47.6</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3421,7 +3439,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3431,28 +3449,32 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H6" t="n">
-        <v>1712685</v>
+        <v>1755063</v>
       </c>
       <c r="I6" t="n">
-        <v>577.025</v>
+        <v>591.303</v>
       </c>
       <c r="J6" t="n">
-        <v>7472</v>
+        <v>7533</v>
       </c>
       <c r="K6" t="n">
-        <v>2.517</v>
+        <v>2.538</v>
       </c>
       <c r="L6" t="n">
-        <v>6101</v>
+        <v>8749</v>
       </c>
       <c r="M6" t="n">
-        <v>2.056</v>
-      </c>
-      <c r="N6"/>
-      <c r="O6"/>
+        <v>2.948</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9.7</v>
+      </c>
       <c r="P6" t="s">
         <v>36</v>
       </c>
@@ -3474,7 +3496,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3484,31 +3506,27 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H7" t="n">
-        <v>37631431</v>
+        <v>38607827</v>
       </c>
       <c r="I7" t="n">
-        <v>1459.249</v>
-      </c>
-      <c r="J7" t="n">
-        <v>210417</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8.159</v>
-      </c>
+        <v>1497.111</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7" t="n">
-        <v>197936</v>
+        <v>198660</v>
       </c>
       <c r="M7" t="n">
-        <v>7.675</v>
+        <v>7.704</v>
       </c>
       <c r="N7" t="n">
-        <v>0.009</v>
+        <v>0.011</v>
       </c>
       <c r="O7" t="n">
-        <v>107</v>
+        <v>93.4</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3531,7 +3549,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44468</v>
+        <v>44472</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3541,31 +3559,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H8" t="n">
-        <v>86750951</v>
+        <v>88109788</v>
       </c>
       <c r="I8" t="n">
-        <v>9593.084</v>
+        <v>9743.347</v>
       </c>
       <c r="J8" t="n">
-        <v>359097</v>
+        <v>408724</v>
       </c>
       <c r="K8" t="n">
-        <v>39.71</v>
+        <v>45.197</v>
       </c>
       <c r="L8" t="n">
-        <v>359769</v>
+        <v>338951</v>
       </c>
       <c r="M8" t="n">
-        <v>39.784</v>
+        <v>37.482</v>
       </c>
       <c r="N8" t="n">
         <v>0.005</v>
       </c>
       <c r="O8" t="n">
-        <v>203.9</v>
+        <v>183.4</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3588,7 +3606,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44468</v>
+        <v>44472</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3598,27 +3616,27 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>4839863</v>
+        <v>4892127</v>
       </c>
       <c r="I9" t="n">
-        <v>473.413</v>
+        <v>478.525</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>8781</v>
+        <v>8827</v>
       </c>
       <c r="M9" t="n">
-        <v>0.859</v>
+        <v>0.863</v>
       </c>
       <c r="N9" t="n">
-        <v>0.109</v>
+        <v>0.083</v>
       </c>
       <c r="O9" t="n">
-        <v>9.1</v>
+        <v>12</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3641,7 +3659,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44465</v>
+        <v>44471</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3651,24 +3669,32 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>145042</v>
+        <v>147633</v>
       </c>
       <c r="I10" t="n">
-        <v>365.424</v>
+        <v>371.952</v>
       </c>
       <c r="J10" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K10" t="n">
-        <v>0.685</v>
-      </c>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
+        <v>0.683</v>
+      </c>
+      <c r="L10" t="n">
+        <v>409</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.6</v>
+      </c>
       <c r="P10" t="s">
         <v>70</v>
       </c>
@@ -3690,7 +3716,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3700,31 +3726,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H11" t="n">
-        <v>6427427</v>
+        <v>6506778</v>
       </c>
       <c r="I11" t="n">
-        <v>3676.397</v>
+        <v>3721.785</v>
       </c>
       <c r="J11" t="n">
-        <v>15544</v>
+        <v>14876</v>
       </c>
       <c r="K11" t="n">
-        <v>8.891</v>
+        <v>8.509</v>
       </c>
       <c r="L11" t="n">
-        <v>15919</v>
+        <v>15537</v>
       </c>
       <c r="M11" t="n">
-        <v>9.105</v>
+        <v>8.887</v>
       </c>
       <c r="N11" t="n">
         <v>0.004</v>
       </c>
       <c r="O11" t="n">
-        <v>243.8</v>
+        <v>270.5</v>
       </c>
       <c r="P11" t="s">
         <v>76</v>
@@ -3747,7 +3773,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3757,28 +3783,32 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="H12" t="n">
-        <v>9707922</v>
+        <v>9786340</v>
       </c>
       <c r="I12" t="n">
-        <v>58.375</v>
+        <v>58.846</v>
       </c>
       <c r="J12" t="n">
-        <v>26569</v>
+        <v>17283</v>
       </c>
       <c r="K12" t="n">
-        <v>0.16</v>
+        <v>0.104</v>
       </c>
       <c r="L12" t="n">
-        <v>26286</v>
+        <v>23253</v>
       </c>
       <c r="M12" t="n">
-        <v>0.158</v>
-      </c>
-      <c r="N12"/>
-      <c r="O12"/>
+        <v>0.14</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="O12" t="n">
+        <v>26.3</v>
+      </c>
       <c r="P12" t="s">
         <v>83</v>
       </c>
@@ -3853,7 +3883,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44467</v>
+        <v>44472</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -3863,31 +3893,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="H14" t="n">
-        <v>19989310</v>
+        <v>20202918</v>
       </c>
       <c r="I14" t="n">
-        <v>1718.426</v>
+        <v>1736.79</v>
       </c>
       <c r="J14" t="n">
-        <v>55707</v>
+        <v>18958</v>
       </c>
       <c r="K14" t="n">
-        <v>4.789</v>
+        <v>1.63</v>
       </c>
       <c r="L14" t="n">
-        <v>46003</v>
+        <v>44276</v>
       </c>
       <c r="M14" t="n">
-        <v>3.955</v>
+        <v>3.806</v>
       </c>
       <c r="N14" t="n">
-        <v>0.046</v>
+        <v>0.047</v>
       </c>
       <c r="O14" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -4038,8 +4068,12 @@
       <c r="M17" t="n">
         <v>2.167</v>
       </c>
-      <c r="N17"/>
-      <c r="O17"/>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5909.1</v>
+      </c>
       <c r="P17" t="s">
         <v>36</v>
       </c>
@@ -4061,7 +4095,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44468</v>
+        <v>44471</v>
       </c>
       <c r="D18" t="s">
         <v>118</v>
@@ -4071,31 +4105,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H18" t="n">
-        <v>2438941</v>
+        <v>2456130</v>
       </c>
       <c r="I18" t="n">
-        <v>206.115</v>
+        <v>207.567</v>
       </c>
       <c r="J18" t="n">
-        <v>7107</v>
+        <v>4988</v>
       </c>
       <c r="K18" t="n">
-        <v>0.601</v>
+        <v>0.422</v>
       </c>
       <c r="L18" t="n">
-        <v>4838</v>
+        <v>5252</v>
       </c>
       <c r="M18" t="n">
-        <v>0.409</v>
+        <v>0.444</v>
       </c>
       <c r="N18" t="n">
-        <v>0.062</v>
+        <v>0.055</v>
       </c>
       <c r="O18" t="n">
-        <v>16.1</v>
+        <v>18.1</v>
       </c>
       <c r="P18" t="s">
         <v>36</v>
@@ -4118,7 +4152,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D19" t="s">
         <v>123</v>
@@ -4128,28 +4162,28 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H19" t="n">
-        <v>1227043</v>
+        <v>1235767</v>
       </c>
       <c r="I19" t="n">
-        <v>375.995</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3854</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.181</v>
-      </c>
+        <v>378.668</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
       <c r="L19" t="n">
-        <v>2815</v>
+        <v>2757</v>
       </c>
       <c r="M19" t="n">
-        <v>0.863</v>
-      </c>
-      <c r="N19"/>
-      <c r="O19"/>
+        <v>0.845</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4</v>
+      </c>
       <c r="P19" t="s">
         <v>124</v>
       </c>
@@ -4269,7 +4303,7 @@
         <v>138</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D22" t="s">
         <v>139</v>
@@ -4279,27 +4313,27 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H22" t="n">
-        <v>4786244</v>
+        <v>4866482</v>
       </c>
       <c r="I22" t="n">
-        <v>693.995</v>
+        <v>705.629</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22" t="n">
-        <v>17740</v>
+        <v>17400</v>
       </c>
       <c r="M22" t="n">
-        <v>2.572</v>
+        <v>2.523</v>
       </c>
       <c r="N22" t="n">
-        <v>0.101</v>
+        <v>0.11</v>
       </c>
       <c r="O22" t="n">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="P22" t="s">
         <v>141</v>
@@ -4424,7 +4458,7 @@
         <v>155</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D25" t="s">
         <v>151</v>
@@ -4434,31 +4468,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="H25" t="n">
-        <v>43215201</v>
+        <v>43775201</v>
       </c>
       <c r="I25" t="n">
-        <v>1135.213</v>
+        <v>1149.924</v>
       </c>
       <c r="J25" t="n">
-        <v>90685</v>
+        <v>98451</v>
       </c>
       <c r="K25" t="n">
-        <v>2.382</v>
+        <v>2.586</v>
       </c>
       <c r="L25" t="n">
-        <v>107724</v>
+        <v>109883</v>
       </c>
       <c r="M25" t="n">
-        <v>2.83</v>
+        <v>2.886</v>
       </c>
       <c r="N25" t="n">
-        <v>0.041</v>
+        <v>0.037</v>
       </c>
       <c r="O25" t="n">
-        <v>24.7</v>
+        <v>27.1</v>
       </c>
       <c r="P25" t="s">
         <v>152</v>
@@ -4481,7 +4515,7 @@
         <v>158</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44467</v>
+        <v>44471</v>
       </c>
       <c r="D26" t="s">
         <v>159</v>
@@ -4491,15 +4525,15 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26" t="n">
-        <v>715</v>
+        <v>399</v>
       </c>
       <c r="K26" t="n">
-        <v>1.272</v>
+        <v>0.71</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -4526,7 +4560,7 @@
         <v>164</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D27" t="s">
         <v>165</v>
@@ -4536,31 +4570,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="H27" t="n">
-        <v>21500852</v>
+        <v>21819938</v>
       </c>
       <c r="I27" t="n">
-        <v>1119.115</v>
+        <v>1135.724</v>
       </c>
       <c r="J27" t="n">
-        <v>46433</v>
+        <v>52355</v>
       </c>
       <c r="K27" t="n">
-        <v>2.417</v>
+        <v>2.725</v>
       </c>
       <c r="L27" t="n">
-        <v>60700</v>
+        <v>56847</v>
       </c>
       <c r="M27" t="n">
-        <v>3.159</v>
+        <v>2.959</v>
       </c>
       <c r="N27" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="O27" t="n">
-        <v>87.5</v>
+        <v>81.3</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -4628,7 +4662,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44467</v>
+        <v>44473</v>
       </c>
       <c r="D29" t="s">
         <v>178</v>
@@ -4638,31 +4672,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H29" t="n">
-        <v>25393612</v>
+        <v>25656616</v>
       </c>
       <c r="I29" t="n">
-        <v>495.332</v>
+        <v>500.462</v>
       </c>
       <c r="J29" t="n">
-        <v>44962</v>
+        <v>42124</v>
       </c>
       <c r="K29" t="n">
-        <v>0.877</v>
+        <v>0.822</v>
       </c>
       <c r="L29" t="n">
-        <v>44809</v>
+        <v>43995</v>
       </c>
       <c r="M29" t="n">
-        <v>0.874</v>
+        <v>0.858</v>
       </c>
       <c r="N29" t="n">
-        <v>0.038</v>
+        <v>0.041</v>
       </c>
       <c r="O29" t="n">
-        <v>26.3</v>
+        <v>24.4</v>
       </c>
       <c r="P29" t="s">
         <v>179</v>
@@ -4685,7 +4719,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44465</v>
+        <v>44470</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4695,31 +4729,31 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="H30" t="n">
-        <v>1879112</v>
+        <v>1888468</v>
       </c>
       <c r="I30" t="n">
-        <v>365.653</v>
+        <v>367.474</v>
       </c>
       <c r="J30" t="n">
-        <v>4383</v>
+        <v>1246</v>
       </c>
       <c r="K30" t="n">
-        <v>0.853</v>
+        <v>0.242</v>
       </c>
       <c r="L30" t="n">
-        <v>6917</v>
+        <v>3026</v>
       </c>
       <c r="M30" t="n">
-        <v>1.346</v>
+        <v>0.589</v>
       </c>
       <c r="N30" t="n">
-        <v>0.267</v>
+        <v>0.483</v>
       </c>
       <c r="O30" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="P30" t="s">
         <v>185</v>
@@ -4795,7 +4829,7 @@
         <v>194</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44469</v>
+        <v>44474</v>
       </c>
       <c r="D32" t="s">
         <v>195</v>
@@ -4805,25 +4839,25 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H32" t="n">
-        <v>2823030</v>
+        <v>2864396</v>
       </c>
       <c r="I32" t="n">
-        <v>691.638</v>
+        <v>701.773</v>
       </c>
       <c r="J32" t="n">
-        <v>9674</v>
+        <v>9320</v>
       </c>
       <c r="K32" t="n">
-        <v>2.37</v>
+        <v>2.283</v>
       </c>
       <c r="L32" t="n">
-        <v>8739</v>
+        <v>8741</v>
       </c>
       <c r="M32" t="n">
-        <v>2.141</v>
+        <v>2.142</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -4907,7 +4941,7 @@
         <v>207</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D34" t="s">
         <v>208</v>
@@ -4917,31 +4951,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H34" t="n">
-        <v>13224159</v>
+        <v>13474677</v>
       </c>
       <c r="I34" t="n">
-        <v>14891.987</v>
+        <v>15038.618</v>
       </c>
       <c r="J34" t="n">
-        <v>46347</v>
+        <v>63823</v>
       </c>
       <c r="K34" t="n">
-        <v>52.192</v>
+        <v>71.231</v>
       </c>
       <c r="L34" t="n">
-        <v>53520</v>
+        <v>49834</v>
       </c>
       <c r="M34" t="n">
-        <v>60.27</v>
+        <v>55.618</v>
       </c>
       <c r="N34" t="n">
         <v>0.002</v>
       </c>
       <c r="O34" t="n">
-        <v>474.2</v>
+        <v>477.2</v>
       </c>
       <c r="P34" t="s">
         <v>36</v>
@@ -4964,7 +4998,7 @@
         <v>211</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D35" t="s">
         <v>212</v>
@@ -4974,27 +5008,27 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="n">
-        <v>66030</v>
+        <v>59173</v>
       </c>
       <c r="K35" t="n">
-        <v>6.157</v>
+        <v>5.518</v>
       </c>
       <c r="L35" t="n">
-        <v>67291</v>
+        <v>61795</v>
       </c>
       <c r="M35" t="n">
-        <v>6.274</v>
+        <v>5.762</v>
       </c>
       <c r="N35" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="O35" t="n">
-        <v>142.9</v>
+        <v>90.9</v>
       </c>
       <c r="P35" t="s">
         <v>36</v>
@@ -5070,7 +5104,7 @@
         <v>221</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44468</v>
+        <v>44472</v>
       </c>
       <c r="D37" t="s">
         <v>222</v>
@@ -5080,31 +5114,31 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H37" t="n">
-        <v>41097142</v>
+        <v>41232559</v>
       </c>
       <c r="I37" t="n">
-        <v>7069.501</v>
+        <v>7092.795</v>
       </c>
       <c r="J37" t="n">
-        <v>24684</v>
+        <v>22601</v>
       </c>
       <c r="K37" t="n">
-        <v>4.246</v>
+        <v>3.888</v>
       </c>
       <c r="L37" t="n">
-        <v>32673</v>
+        <v>33994</v>
       </c>
       <c r="M37" t="n">
-        <v>5.62</v>
+        <v>5.848</v>
       </c>
       <c r="N37" t="n">
         <v>0.013</v>
       </c>
       <c r="O37" t="n">
-        <v>79</v>
+        <v>76.4</v>
       </c>
       <c r="P37" t="s">
         <v>223</v>
@@ -5180,7 +5214,7 @@
         <v>233</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44467</v>
+        <v>44470</v>
       </c>
       <c r="D39" t="s">
         <v>234</v>
@@ -5192,31 +5226,31 @@
         <v>236</v>
       </c>
       <c r="G39" t="n">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H39" t="n">
-        <v>1739233</v>
+        <v>1752319</v>
       </c>
       <c r="I39" t="n">
-        <v>97.226</v>
+        <v>97.958</v>
       </c>
       <c r="J39" t="n">
-        <v>4700</v>
+        <v>3921</v>
       </c>
       <c r="K39" t="n">
-        <v>0.263</v>
+        <v>0.219</v>
       </c>
       <c r="L39" t="n">
-        <v>2637</v>
+        <v>3311</v>
       </c>
       <c r="M39" t="n">
-        <v>0.147</v>
+        <v>0.185</v>
       </c>
       <c r="N39" t="n">
-        <v>0.089</v>
+        <v>0.06</v>
       </c>
       <c r="O39" t="n">
-        <v>11.3</v>
+        <v>16.8</v>
       </c>
       <c r="P39" t="s">
         <v>237</v>
@@ -5296,7 +5330,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D41" t="s">
         <v>248</v>
@@ -5306,27 +5340,27 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H41" t="n">
-        <v>221428</v>
+        <v>225262</v>
       </c>
       <c r="I41" t="n">
-        <v>152.72</v>
+        <v>155.365</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>792</v>
+        <v>757</v>
       </c>
       <c r="M41" t="n">
-        <v>0.546</v>
+        <v>0.522</v>
       </c>
       <c r="N41" t="n">
-        <v>0.121</v>
+        <v>0.137</v>
       </c>
       <c r="O41" t="n">
-        <v>8.3</v>
+        <v>7.3</v>
       </c>
       <c r="P41" t="s">
         <v>250</v>
@@ -5349,7 +5383,7 @@
         <v>253</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D42" t="s">
         <v>254</v>
@@ -5359,31 +5393,31 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="H42" t="n">
-        <v>1925417</v>
+        <v>1952053</v>
       </c>
       <c r="I42" t="n">
-        <v>1452.939</v>
+        <v>1473.039</v>
       </c>
       <c r="J42" t="n">
-        <v>6167</v>
+        <v>6239</v>
       </c>
       <c r="K42" t="n">
-        <v>4.654</v>
+        <v>4.708</v>
       </c>
       <c r="L42" t="n">
-        <v>5682</v>
+        <v>5590</v>
       </c>
       <c r="M42" t="n">
-        <v>4.288</v>
+        <v>4.218</v>
       </c>
       <c r="N42" t="n">
-        <v>0.105</v>
+        <v>0.127</v>
       </c>
       <c r="O42" t="n">
-        <v>9.5</v>
+        <v>7.9</v>
       </c>
       <c r="P42" t="s">
         <v>255</v>
@@ -5520,7 +5554,7 @@
         <v>268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44467</v>
+        <v>44472</v>
       </c>
       <c r="D45" t="s">
         <v>269</v>
@@ -5530,25 +5564,25 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="H45" t="n">
-        <v>7081724</v>
+        <v>7133790</v>
       </c>
       <c r="I45" t="n">
-        <v>1276.363</v>
+        <v>1285.747</v>
       </c>
       <c r="J45" t="n">
-        <v>5874</v>
+        <v>4490</v>
       </c>
       <c r="K45" t="n">
-        <v>1.059</v>
+        <v>0.809</v>
       </c>
       <c r="L45" t="n">
-        <v>9540</v>
+        <v>8710</v>
       </c>
       <c r="M45" t="n">
-        <v>1.719</v>
+        <v>1.57</v>
       </c>
       <c r="N45" t="n">
         <v>0.044</v>
@@ -5577,7 +5611,7 @@
         <v>274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44466</v>
+        <v>44470</v>
       </c>
       <c r="D46" t="s">
         <v>275</v>
@@ -5587,27 +5621,27 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" t="n">
-        <v>572662</v>
+        <v>705448</v>
       </c>
       <c r="K46" t="n">
-        <v>8.476</v>
+        <v>10.441</v>
       </c>
       <c r="L46" t="n">
-        <v>491255</v>
+        <v>480872</v>
       </c>
       <c r="M46" t="n">
-        <v>7.271</v>
+        <v>7.117</v>
       </c>
       <c r="N46" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="O46" t="n">
-        <v>83.3</v>
+        <v>90.9</v>
       </c>
       <c r="P46" t="s">
         <v>276</v>
@@ -5762,8 +5796,12 @@
       <c r="M49" t="n">
         <v>7.179</v>
       </c>
-      <c r="N49"/>
-      <c r="O49"/>
+      <c r="N49" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="O49" t="n">
+        <v>18.3</v>
+      </c>
       <c r="P49" t="s">
         <v>294</v>
       </c>
@@ -5895,7 +5933,7 @@
         <v>310</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44469</v>
+        <v>44472</v>
       </c>
       <c r="D52" t="s">
         <v>311</v>
@@ -5905,28 +5943,32 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H52" t="n">
-        <v>20138773</v>
+        <v>20685700</v>
       </c>
       <c r="I52" t="n">
-        <v>1941.883</v>
+        <v>1994.62</v>
       </c>
       <c r="J52" t="n">
-        <v>150433</v>
+        <v>150507</v>
       </c>
       <c r="K52" t="n">
-        <v>14.506</v>
+        <v>14.513</v>
       </c>
       <c r="L52" t="n">
-        <v>196050</v>
+        <v>194691</v>
       </c>
       <c r="M52" t="n">
-        <v>18.904</v>
-      </c>
-      <c r="N52"/>
-      <c r="O52"/>
+        <v>18.773</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="O52" t="n">
+        <v>88.8</v>
+      </c>
       <c r="P52" t="s">
         <v>313</v>
       </c>
@@ -5948,7 +5990,7 @@
         <v>317</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44458</v>
+        <v>44472</v>
       </c>
       <c r="D53" t="s">
         <v>318</v>
@@ -5958,31 +6000,31 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="H53" t="n">
-        <v>2414918</v>
+        <v>2594689</v>
       </c>
       <c r="I53" t="n">
-        <v>132.325</v>
+        <v>142.176</v>
       </c>
       <c r="J53" t="n">
-        <v>3999</v>
+        <v>4721</v>
       </c>
       <c r="K53" t="n">
-        <v>0.219</v>
+        <v>0.259</v>
       </c>
       <c r="L53" t="n">
-        <v>11675</v>
+        <v>12954</v>
       </c>
       <c r="M53" t="n">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="N53" t="n">
-        <v>0.229</v>
+        <v>0.184</v>
       </c>
       <c r="O53" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="P53" t="s">
         <v>320</v>
@@ -6005,7 +6047,7 @@
         <v>324</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44460</v>
+        <v>44467</v>
       </c>
       <c r="D54" t="s">
         <v>325</v>
@@ -6018,24 +6060,24 @@
         <v>23</v>
       </c>
       <c r="H54" t="n">
-        <v>25235157</v>
+        <v>25587465</v>
       </c>
       <c r="I54" t="n">
-        <v>3341.166</v>
+        <v>3387.812</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54" t="n">
-        <v>58029</v>
+        <v>56105</v>
       </c>
       <c r="M54" t="n">
-        <v>7.683</v>
+        <v>7.428</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>25000</v>
+        <v>16666.7</v>
       </c>
       <c r="P54" t="s">
         <v>327</v>
@@ -6058,7 +6100,7 @@
         <v>331</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D55" t="s">
         <v>332</v>
@@ -6070,28 +6112,32 @@
         <v>334</v>
       </c>
       <c r="G55" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H55" t="n">
-        <v>6481943</v>
+        <v>6529352</v>
       </c>
       <c r="I55" t="n">
-        <v>672.808</v>
+        <v>677.729</v>
       </c>
       <c r="J55" t="n">
-        <v>18313</v>
+        <v>32255</v>
       </c>
       <c r="K55" t="n">
-        <v>1.901</v>
+        <v>3.348</v>
       </c>
       <c r="L55" t="n">
-        <v>12670</v>
+        <v>12325</v>
       </c>
       <c r="M55" t="n">
-        <v>1.315</v>
-      </c>
-      <c r="N55"/>
-      <c r="O55"/>
+        <v>1.279</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="O55" t="n">
+        <v>23.9</v>
+      </c>
       <c r="P55" t="s">
         <v>333</v>
       </c>
@@ -6113,7 +6159,7 @@
         <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44468</v>
+        <v>44472</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
@@ -6123,25 +6169,25 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H56" t="n">
-        <v>635931</v>
+        <v>640762</v>
       </c>
       <c r="I56" t="n">
-        <v>1852.082</v>
+        <v>1866.152</v>
       </c>
       <c r="J56" t="n">
-        <v>1697</v>
+        <v>918</v>
       </c>
       <c r="K56" t="n">
-        <v>4.942</v>
+        <v>2.674</v>
       </c>
       <c r="L56" t="n">
-        <v>1425</v>
+        <v>1396</v>
       </c>
       <c r="M56" t="n">
-        <v>4.15</v>
+        <v>4.066</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
@@ -6166,7 +6212,7 @@
         <v>343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44469</v>
+        <v>44474</v>
       </c>
       <c r="D57" t="s">
         <v>344</v>
@@ -6178,25 +6224,25 @@
         <v>346</v>
       </c>
       <c r="G57" t="n">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="H57" t="n">
-        <v>568956439</v>
+        <v>575394042</v>
       </c>
       <c r="I57" t="n">
-        <v>408.32</v>
+        <v>412.94</v>
       </c>
       <c r="J57" t="n">
-        <v>1506254</v>
+        <v>1141642</v>
       </c>
       <c r="K57" t="n">
-        <v>1.081</v>
+        <v>0.819</v>
       </c>
       <c r="L57" t="n">
-        <v>1512775</v>
+        <v>1380573</v>
       </c>
       <c r="M57" t="n">
-        <v>1.086</v>
+        <v>0.991</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
@@ -6274,7 +6320,7 @@
         <v>355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D59" t="s">
         <v>356</v>
@@ -6284,28 +6330,28 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H59" t="n">
-        <v>32196441</v>
+        <v>32619228</v>
       </c>
       <c r="I59" t="n">
-        <v>378.654</v>
-      </c>
-      <c r="J59" t="n">
-        <v>109306</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1.286</v>
-      </c>
+        <v>383.626</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59"/>
       <c r="L59" t="n">
-        <v>108408</v>
+        <v>107200</v>
       </c>
       <c r="M59" t="n">
-        <v>1.275</v>
-      </c>
-      <c r="N59"/>
-      <c r="O59"/>
+        <v>1.261</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="O59" t="n">
+        <v>8.3</v>
+      </c>
       <c r="P59" t="s">
         <v>357</v>
       </c>
@@ -6327,7 +6373,7 @@
         <v>361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D60" t="s">
         <v>362</v>
@@ -6337,28 +6383,32 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H60" t="n">
-        <v>15211577</v>
+        <v>15291079</v>
       </c>
       <c r="I60" t="n">
-        <v>369.398</v>
+        <v>371.329</v>
       </c>
       <c r="J60" t="n">
-        <v>20499</v>
+        <v>16757</v>
       </c>
       <c r="K60" t="n">
-        <v>0.498</v>
+        <v>0.407</v>
       </c>
       <c r="L60" t="n">
-        <v>19505</v>
+        <v>19469</v>
       </c>
       <c r="M60" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="N60"/>
-      <c r="O60"/>
+        <v>0.473</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="O60" t="n">
+        <v>8.8</v>
+      </c>
       <c r="P60" t="s">
         <v>364</v>
       </c>
@@ -6380,7 +6430,7 @@
         <v>368</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D61" t="s">
         <v>369</v>
@@ -6390,28 +6440,32 @@
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="H61" t="n">
-        <v>7451653</v>
+        <v>7524930</v>
       </c>
       <c r="I61" t="n">
-        <v>1495.444</v>
+        <v>1510.15</v>
       </c>
       <c r="J61" t="n">
-        <v>19787</v>
+        <v>13333</v>
       </c>
       <c r="K61" t="n">
-        <v>3.971</v>
+        <v>2.676</v>
       </c>
       <c r="L61" t="n">
-        <v>21238</v>
+        <v>19321</v>
       </c>
       <c r="M61" t="n">
-        <v>4.262</v>
-      </c>
-      <c r="N61"/>
-      <c r="O61"/>
+        <v>3.877</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="O61" t="n">
+        <v>15.4</v>
+      </c>
       <c r="P61" t="s">
         <v>370</v>
       </c>
@@ -6433,7 +6487,7 @@
         <v>374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D62" t="s">
         <v>375</v>
@@ -6443,28 +6497,32 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H62" t="n">
-        <v>27184673</v>
+        <v>27634757</v>
       </c>
       <c r="I62" t="n">
-        <v>3092.761</v>
+        <v>3143.966</v>
       </c>
       <c r="J62" t="n">
-        <v>82345</v>
+        <v>126497</v>
       </c>
       <c r="K62" t="n">
-        <v>9.368</v>
+        <v>14.391</v>
       </c>
       <c r="L62" t="n">
-        <v>99385</v>
+        <v>101882</v>
       </c>
       <c r="M62" t="n">
-        <v>11.307</v>
-      </c>
-      <c r="N62"/>
-      <c r="O62"/>
+        <v>11.591</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="O62" t="n">
+        <v>30.7</v>
+      </c>
       <c r="P62" t="s">
         <v>36</v>
       </c>
@@ -6486,7 +6544,7 @@
         <v>380</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D63" t="s">
         <v>381</v>
@@ -6498,28 +6556,32 @@
         <v>383</v>
       </c>
       <c r="G63" t="n">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H63" t="n">
-        <v>34253561</v>
+        <v>34528037</v>
       </c>
       <c r="I63" t="n">
-        <v>567.418</v>
+        <v>571.964</v>
       </c>
       <c r="J63" t="n">
-        <v>62343</v>
+        <v>95479</v>
       </c>
       <c r="K63" t="n">
-        <v>1.033</v>
+        <v>1.582</v>
       </c>
       <c r="L63" t="n">
-        <v>56108</v>
+        <v>65731</v>
       </c>
       <c r="M63" t="n">
-        <v>0.929</v>
-      </c>
-      <c r="N63"/>
-      <c r="O63"/>
+        <v>1.089</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="O63" t="n">
+        <v>21.3</v>
+      </c>
       <c r="P63" t="s">
         <v>384</v>
       </c>
@@ -6541,7 +6603,7 @@
         <v>387</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44469</v>
+        <v>44472</v>
       </c>
       <c r="D64" t="s">
         <v>381</v>
@@ -6553,28 +6615,32 @@
         <v>383</v>
       </c>
       <c r="G64" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H64" t="n">
-        <v>92465642</v>
+        <v>93400967</v>
       </c>
       <c r="I64" t="n">
-        <v>1531.713</v>
+        <v>1547.207</v>
       </c>
       <c r="J64" t="n">
-        <v>308836</v>
+        <v>285960</v>
       </c>
       <c r="K64" t="n">
-        <v>5.116</v>
+        <v>4.737</v>
       </c>
       <c r="L64" t="n">
-        <v>283970</v>
+        <v>286016</v>
       </c>
       <c r="M64" t="n">
-        <v>4.704</v>
-      </c>
-      <c r="N64"/>
-      <c r="O64"/>
+        <v>4.738</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="O64" t="n">
+        <v>92.2</v>
+      </c>
       <c r="P64" t="s">
         <v>384</v>
       </c>
@@ -6596,7 +6662,7 @@
         <v>390</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44468</v>
+        <v>44472</v>
       </c>
       <c r="D65" t="s">
         <v>391</v>
@@ -6606,31 +6672,27 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H65" t="n">
-        <v>600465</v>
+        <v>607591</v>
       </c>
       <c r="I65" t="n">
-        <v>201.941</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1367</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.46</v>
-      </c>
+        <v>204.338</v>
+      </c>
+      <c r="J65"/>
+      <c r="K65"/>
       <c r="L65" t="n">
-        <v>1431</v>
+        <v>1530</v>
       </c>
       <c r="M65" t="n">
-        <v>0.481</v>
+        <v>0.515</v>
       </c>
       <c r="N65" t="n">
-        <v>0.252</v>
+        <v>0.18</v>
       </c>
       <c r="O65" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="P65" t="s">
         <v>392</v>
@@ -6653,7 +6715,7 @@
         <v>396</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D66" t="s">
         <v>397</v>
@@ -6663,31 +6725,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="H66" t="n">
-        <v>23668615</v>
+        <v>23956810</v>
       </c>
       <c r="I66" t="n">
-        <v>187.77</v>
+        <v>190.057</v>
       </c>
       <c r="J66" t="n">
-        <v>84946</v>
+        <v>64378</v>
       </c>
       <c r="K66" t="n">
-        <v>0.674</v>
+        <v>0.511</v>
       </c>
       <c r="L66" t="n">
-        <v>72657</v>
+        <v>64516</v>
       </c>
       <c r="M66" t="n">
-        <v>0.576</v>
+        <v>0.512</v>
       </c>
       <c r="N66" t="n">
-        <v>0.03</v>
+        <v>0.021</v>
       </c>
       <c r="O66" t="n">
-        <v>33.1</v>
+        <v>47.3</v>
       </c>
       <c r="P66" t="s">
         <v>398</v>
@@ -6710,7 +6772,7 @@
         <v>402</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D67" t="s">
         <v>403</v>
@@ -6720,28 +6782,32 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H67" t="n">
-        <v>10074026</v>
+        <v>10179551</v>
       </c>
       <c r="I67" t="n">
-        <v>981.011</v>
+        <v>991.287</v>
       </c>
       <c r="J67" t="n">
-        <v>31384</v>
+        <v>31040</v>
       </c>
       <c r="K67" t="n">
-        <v>3.056</v>
+        <v>3.023</v>
       </c>
       <c r="L67" t="n">
-        <v>26190</v>
+        <v>27659</v>
       </c>
       <c r="M67" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="N67"/>
-      <c r="O67"/>
+        <v>2.693</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="O67" t="n">
+        <v>28.9</v>
+      </c>
       <c r="P67" t="s">
         <v>404</v>
       </c>
@@ -6873,7 +6939,7 @@
         <v>418</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44468</v>
+        <v>44472</v>
       </c>
       <c r="D70" t="s">
         <v>419</v>
@@ -6883,31 +6949,31 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H70" t="n">
-        <v>1200033</v>
+        <v>1211314</v>
       </c>
       <c r="I70" t="n">
-        <v>620.886</v>
+        <v>682.285</v>
       </c>
       <c r="J70" t="n">
-        <v>3380</v>
+        <v>1515</v>
       </c>
       <c r="K70" t="n">
-        <v>1.749</v>
+        <v>0.853</v>
       </c>
       <c r="L70" t="n">
-        <v>3765</v>
+        <v>3335</v>
       </c>
       <c r="M70" t="n">
-        <v>1.948</v>
+        <v>1.878</v>
       </c>
       <c r="N70" t="n">
-        <v>0.02</v>
+        <v>0.014</v>
       </c>
       <c r="O70" t="n">
-        <v>48.9</v>
+        <v>72.3</v>
       </c>
       <c r="P70" t="s">
         <v>421</v>
@@ -6930,7 +6996,7 @@
         <v>424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44468</v>
+        <v>44472</v>
       </c>
       <c r="D71" t="s">
         <v>425</v>
@@ -6940,31 +7006,31 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="H71" t="n">
-        <v>4232071</v>
+        <v>4317146</v>
       </c>
       <c r="I71" t="n">
-        <v>977.71</v>
+        <v>997.365</v>
       </c>
       <c r="J71" t="n">
-        <v>16506</v>
+        <v>28538</v>
       </c>
       <c r="K71" t="n">
-        <v>3.813</v>
+        <v>6.593</v>
       </c>
       <c r="L71" t="n">
-        <v>17923</v>
+        <v>19919</v>
       </c>
       <c r="M71" t="n">
-        <v>4.141</v>
+        <v>4.602</v>
       </c>
       <c r="N71" t="n">
         <v>0.002</v>
       </c>
       <c r="O71" t="n">
-        <v>434.1</v>
+        <v>437.1</v>
       </c>
       <c r="P71" t="s">
         <v>426</v>
@@ -6987,7 +7053,7 @@
         <v>430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D72" t="s">
         <v>431</v>
@@ -6997,27 +7063,27 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H72" t="n">
-        <v>557950</v>
+        <v>576260</v>
       </c>
       <c r="I72" t="n">
-        <v>75.61</v>
+        <v>78.091</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="n">
-        <v>5284</v>
+        <v>3290</v>
       </c>
       <c r="M72" t="n">
-        <v>0.716</v>
+        <v>0.446</v>
       </c>
       <c r="N72" t="n">
-        <v>0.096</v>
+        <v>0.134</v>
       </c>
       <c r="O72" t="n">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="P72" t="s">
         <v>432</v>
@@ -7148,7 +7214,7 @@
         <v>447</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D75" t="s">
         <v>448</v>
@@ -7158,15 +7224,15 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="n">
-        <v>4702</v>
+        <v>4906</v>
       </c>
       <c r="K75" t="n">
-        <v>0.676</v>
+        <v>0.705</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
@@ -7193,7 +7259,7 @@
         <v>453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44467</v>
+        <v>44471</v>
       </c>
       <c r="D76" t="s">
         <v>454</v>
@@ -7203,31 +7269,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H76" t="n">
-        <v>67605</v>
+        <v>68590</v>
       </c>
       <c r="I76" t="n">
-        <v>1767.266</v>
+        <v>1793.015</v>
       </c>
       <c r="J76" t="n">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="K76" t="n">
-        <v>3.477</v>
+        <v>3.059</v>
       </c>
       <c r="L76" t="n">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M76" t="n">
-        <v>5.307</v>
+        <v>5.176</v>
       </c>
       <c r="N76" t="n">
-        <v>0.009</v>
+        <v>0.006</v>
       </c>
       <c r="O76" t="n">
-        <v>111.1</v>
+        <v>166.7</v>
       </c>
       <c r="P76" t="s">
         <v>455</v>
@@ -7250,7 +7316,7 @@
         <v>459</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="D77" t="s">
         <v>460</v>
@@ -7260,31 +7326,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="H77" t="n">
-        <v>5119726</v>
+        <v>5275213</v>
       </c>
       <c r="I77" t="n">
-        <v>1903.342</v>
+        <v>1961.146</v>
       </c>
       <c r="J77" t="n">
-        <v>23853</v>
+        <v>23143</v>
       </c>
       <c r="K77" t="n">
-        <v>8.868</v>
+        <v>8.604</v>
       </c>
       <c r="L77" t="n">
-        <v>22309</v>
+        <v>21953</v>
       </c>
       <c r="M77" t="n">
-        <v>8.294</v>
+        <v>8.161</v>
       </c>
       <c r="N77" t="n">
-        <v>0.069</v>
+        <v>0.089</v>
       </c>
       <c r="O77" t="n">
-        <v>14.5</v>
+        <v>11.2</v>
       </c>
       <c r="P77" t="s">
         <v>461</v>
@@ -7307,7 +7373,7 @@
         <v>464</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44468</v>
+        <v>44471</v>
       </c>
       <c r="D78" t="s">
         <v>465</v>
@@ -7317,31 +7383,31 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="H78" t="n">
-        <v>3521182</v>
+        <v>3528198</v>
       </c>
       <c r="I78" t="n">
-        <v>5546.793</v>
+        <v>5557.845</v>
       </c>
       <c r="J78" t="n">
-        <v>2541</v>
+        <v>1840</v>
       </c>
       <c r="K78" t="n">
-        <v>4.003</v>
+        <v>2.898</v>
       </c>
       <c r="L78" t="n">
-        <v>2052</v>
+        <v>2087</v>
       </c>
       <c r="M78" t="n">
-        <v>3.232</v>
+        <v>3.288</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="O78" t="n">
-        <v>24.9</v>
+        <v>25.9</v>
       </c>
       <c r="P78" t="s">
         <v>466</v>
@@ -7533,7 +7599,7 @@
         <v>488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44469</v>
+        <v>44472</v>
       </c>
       <c r="D82" t="s">
         <v>489</v>
@@ -7543,28 +7609,32 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H82" t="n">
-        <v>1519923</v>
+        <v>1532557</v>
       </c>
       <c r="I82" t="n">
-        <v>2795.929</v>
+        <v>2819.17</v>
       </c>
       <c r="J82" t="n">
-        <v>4160</v>
+        <v>5668</v>
       </c>
       <c r="K82" t="n">
-        <v>7.652</v>
+        <v>10.426</v>
       </c>
       <c r="L82" t="n">
-        <v>4184</v>
+        <v>4247</v>
       </c>
       <c r="M82" t="n">
-        <v>7.697</v>
-      </c>
-      <c r="N82"/>
-      <c r="O82"/>
+        <v>7.812</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O82" t="n">
+        <v>48.8</v>
+      </c>
       <c r="P82" t="s">
         <v>490</v>
       </c>
@@ -7586,7 +7656,7 @@
         <v>494</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D83" t="s">
         <v>495</v>
@@ -7596,28 +7666,32 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H83" t="n">
-        <v>1285965</v>
+        <v>1295106</v>
       </c>
       <c r="I83" t="n">
-        <v>2499.135</v>
+        <v>2516.9</v>
       </c>
       <c r="J83" t="n">
-        <v>2751</v>
+        <v>1757</v>
       </c>
       <c r="K83" t="n">
-        <v>5.346</v>
+        <v>3.415</v>
       </c>
       <c r="L83" t="n">
-        <v>2758</v>
+        <v>2468</v>
       </c>
       <c r="M83" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="N83"/>
-      <c r="O83"/>
+        <v>4.796</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O83" t="n">
+        <v>146.4</v>
+      </c>
       <c r="P83" t="s">
         <v>497</v>
       </c>
@@ -7688,7 +7762,7 @@
         <v>507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44467</v>
+        <v>44472</v>
       </c>
       <c r="D85" t="s">
         <v>508</v>
@@ -7698,31 +7772,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="H85" t="n">
-        <v>10122892</v>
+        <v>10228325</v>
       </c>
       <c r="I85" t="n">
-        <v>77.712</v>
+        <v>78.521</v>
       </c>
       <c r="J85" t="n">
-        <v>11047</v>
+        <v>1944</v>
       </c>
       <c r="K85" t="n">
-        <v>0.085</v>
+        <v>0.015</v>
       </c>
       <c r="L85" t="n">
-        <v>17344</v>
+        <v>16032</v>
       </c>
       <c r="M85" t="n">
-        <v>0.133</v>
+        <v>0.123</v>
       </c>
       <c r="N85" t="n">
-        <v>0.309</v>
+        <v>0.282</v>
       </c>
       <c r="O85" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P85" t="s">
         <v>510</v>
@@ -7745,7 +7819,7 @@
         <v>513</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D86" t="s">
         <v>514</v>
@@ -7755,27 +7829,27 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H86" t="n">
-        <v>1767094</v>
+        <v>1813539</v>
       </c>
       <c r="I86" t="n">
-        <v>439.136</v>
+        <v>450.678</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86" t="n">
-        <v>7380</v>
+        <v>7968</v>
       </c>
       <c r="M86" t="n">
-        <v>1.834</v>
+        <v>1.98</v>
       </c>
       <c r="N86" t="n">
-        <v>0.146</v>
+        <v>0.148</v>
       </c>
       <c r="O86" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="P86" t="s">
         <v>515</v>
@@ -7798,7 +7872,7 @@
         <v>518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44469</v>
+        <v>44474</v>
       </c>
       <c r="D87" t="s">
         <v>519</v>
@@ -7808,25 +7882,21 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H87" t="n">
-        <v>4001638</v>
+        <v>4022930</v>
       </c>
       <c r="I87" t="n">
-        <v>1201.952</v>
-      </c>
-      <c r="J87" t="n">
-        <v>11384</v>
-      </c>
-      <c r="K87" t="n">
-        <v>3.419</v>
-      </c>
+        <v>1208.348</v>
+      </c>
+      <c r="J87"/>
+      <c r="K87"/>
       <c r="L87" t="n">
-        <v>9620</v>
+        <v>6077</v>
       </c>
       <c r="M87" t="n">
-        <v>2.89</v>
+        <v>1.825</v>
       </c>
       <c r="N87"/>
       <c r="O87"/>
@@ -7851,7 +7921,7 @@
         <v>522</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D88" t="s">
         <v>523</v>
@@ -7861,28 +7931,32 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="H88" t="n">
-        <v>8775932</v>
+        <v>8826529</v>
       </c>
       <c r="I88" t="n">
-        <v>234.998</v>
+        <v>236.352</v>
       </c>
       <c r="J88" t="n">
-        <v>17261</v>
+        <v>6600</v>
       </c>
       <c r="K88" t="n">
-        <v>0.462</v>
+        <v>0.177</v>
       </c>
       <c r="L88" t="n">
-        <v>16338</v>
+        <v>15021</v>
       </c>
       <c r="M88" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="N88"/>
-      <c r="O88"/>
+        <v>0.402</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="O88" t="n">
+        <v>17.9</v>
+      </c>
       <c r="P88" t="s">
         <v>524</v>
       </c>
@@ -7961,7 +8035,7 @@
         <v>534</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44468</v>
+        <v>44472</v>
       </c>
       <c r="D90" t="s">
         <v>535</v>
@@ -7971,31 +8045,31 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H90" t="n">
-        <v>4299547</v>
+        <v>4376017</v>
       </c>
       <c r="I90" t="n">
-        <v>78.45</v>
+        <v>79.846</v>
       </c>
       <c r="J90" t="n">
-        <v>18702</v>
+        <v>14390</v>
       </c>
       <c r="K90" t="n">
-        <v>0.341</v>
+        <v>0.263</v>
       </c>
       <c r="L90" t="n">
-        <v>18731</v>
+        <v>18969</v>
       </c>
       <c r="M90" t="n">
-        <v>0.342</v>
+        <v>0.346</v>
       </c>
       <c r="N90" t="n">
-        <v>0.083</v>
+        <v>0.078</v>
       </c>
       <c r="O90" t="n">
-        <v>12</v>
+        <v>12.9</v>
       </c>
       <c r="P90" t="s">
         <v>536</v>
@@ -8071,7 +8145,7 @@
         <v>547</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D92" t="s">
         <v>548</v>
@@ -8081,28 +8155,32 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="H92" t="n">
-        <v>4205382</v>
+        <v>4234056</v>
       </c>
       <c r="I92" t="n">
-        <v>141.715</v>
+        <v>142.681</v>
       </c>
       <c r="J92" t="n">
-        <v>8555</v>
+        <v>5893</v>
       </c>
       <c r="K92" t="n">
-        <v>0.288</v>
+        <v>0.199</v>
       </c>
       <c r="L92" t="n">
-        <v>9882</v>
+        <v>8508</v>
       </c>
       <c r="M92" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="N92"/>
-      <c r="O92"/>
+        <v>0.287</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="O92" t="n">
+        <v>10.6</v>
+      </c>
       <c r="P92" t="s">
         <v>549</v>
       </c>
@@ -8177,7 +8255,7 @@
         <v>560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44469</v>
+        <v>44474</v>
       </c>
       <c r="D94" t="s">
         <v>561</v>
@@ -8187,25 +8265,25 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H94" t="n">
-        <v>3378464</v>
+        <v>3465057</v>
       </c>
       <c r="I94" t="n">
-        <v>695.065</v>
+        <v>712.881</v>
       </c>
       <c r="J94" t="n">
-        <v>16537</v>
+        <v>14905</v>
       </c>
       <c r="K94" t="n">
-        <v>3.402</v>
+        <v>3.066</v>
       </c>
       <c r="L94" t="n">
-        <v>13058</v>
+        <v>16938</v>
       </c>
       <c r="M94" t="n">
-        <v>2.686</v>
+        <v>3.485</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -8230,7 +8308,7 @@
         <v>566</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44468</v>
+        <v>44472</v>
       </c>
       <c r="D95" t="s">
         <v>567</v>
@@ -8240,27 +8318,27 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H95" t="n">
-        <v>3043321</v>
+        <v>3090114</v>
       </c>
       <c r="I95" t="n">
-        <v>14.396</v>
+        <v>14.617</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95" t="n">
-        <v>4626</v>
+        <v>8667</v>
       </c>
       <c r="M95" t="n">
-        <v>0.022</v>
+        <v>0.041</v>
       </c>
       <c r="N95" t="n">
-        <v>0.074</v>
+        <v>0.028</v>
       </c>
       <c r="O95" t="n">
-        <v>13.5</v>
+        <v>36.1</v>
       </c>
       <c r="P95" t="s">
         <v>568</v>
@@ -8336,7 +8414,7 @@
         <v>576</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44467</v>
+        <v>44471</v>
       </c>
       <c r="D97" t="s">
         <v>577</v>
@@ -8346,31 +8424,31 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H97" t="n">
-        <v>7762145</v>
+        <v>7801540</v>
       </c>
       <c r="I97" t="n">
-        <v>1420.174</v>
+        <v>1427.382</v>
       </c>
       <c r="J97" t="n">
-        <v>13029</v>
+        <v>4077</v>
       </c>
       <c r="K97" t="n">
-        <v>2.384</v>
+        <v>0.746</v>
       </c>
       <c r="L97" t="n">
-        <v>13266</v>
+        <v>10819</v>
       </c>
       <c r="M97" t="n">
-        <v>2.427</v>
+        <v>1.979</v>
       </c>
       <c r="N97" t="n">
-        <v>0.053</v>
+        <v>0.048</v>
       </c>
       <c r="O97" t="n">
-        <v>19</v>
+        <v>20.6</v>
       </c>
       <c r="P97" t="s">
         <v>578</v>
@@ -8438,7 +8516,7 @@
         <v>587</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44469</v>
+        <v>44474</v>
       </c>
       <c r="D99" t="s">
         <v>588</v>
@@ -8448,25 +8526,25 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H99" t="n">
-        <v>19386106</v>
+        <v>19639052</v>
       </c>
       <c r="I99" t="n">
-        <v>86.084</v>
+        <v>87.207</v>
       </c>
       <c r="J99" t="n">
-        <v>52635</v>
+        <v>48907</v>
       </c>
       <c r="K99" t="n">
-        <v>0.234</v>
+        <v>0.217</v>
       </c>
       <c r="L99" t="n">
-        <v>48111</v>
+        <v>50631</v>
       </c>
       <c r="M99" t="n">
-        <v>0.214</v>
+        <v>0.225</v>
       </c>
       <c r="N99"/>
       <c r="O99"/>
@@ -8491,7 +8569,7 @@
         <v>592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44466</v>
+        <v>44469</v>
       </c>
       <c r="D100" t="s">
         <v>593</v>
@@ -8499,27 +8577,27 @@
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100" t="n">
-        <v>10312</v>
+        <v>7987</v>
       </c>
       <c r="K100" t="n">
-        <v>1.974</v>
+        <v>1.529</v>
       </c>
       <c r="L100" t="n">
-        <v>8168</v>
+        <v>8069</v>
       </c>
       <c r="M100" t="n">
-        <v>1.564</v>
+        <v>1.545</v>
       </c>
       <c r="N100" t="n">
-        <v>0.218</v>
+        <v>0.199</v>
       </c>
       <c r="O100" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="P100" t="s">
         <v>594</v>
@@ -8542,7 +8620,7 @@
         <v>598</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44465</v>
+        <v>44472</v>
       </c>
       <c r="D101" t="s">
         <v>599</v>
@@ -8552,31 +8630,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="H101" t="n">
-        <v>3851353</v>
+        <v>3896810</v>
       </c>
       <c r="I101" t="n">
-        <v>878.987</v>
+        <v>889.361</v>
       </c>
       <c r="J101" t="n">
-        <v>5280</v>
+        <v>4682</v>
       </c>
       <c r="K101" t="n">
-        <v>1.205</v>
+        <v>1.069</v>
       </c>
       <c r="L101" t="n">
-        <v>7421</v>
+        <v>6494</v>
       </c>
       <c r="M101" t="n">
-        <v>1.694</v>
+        <v>1.482</v>
       </c>
       <c r="N101" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="O101" t="n">
-        <v>27.5</v>
+        <v>29.1</v>
       </c>
       <c r="P101" t="s">
         <v>600</v>
@@ -8652,7 +8730,7 @@
         <v>609</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44465</v>
+        <v>44472</v>
       </c>
       <c r="D103" t="s">
         <v>610</v>
@@ -8662,31 +8740,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="H103" t="n">
-        <v>1830605</v>
+        <v>1843277</v>
       </c>
       <c r="I103" t="n">
-        <v>253.559</v>
+        <v>255.314</v>
       </c>
       <c r="J103" t="n">
-        <v>2010</v>
+        <v>1823</v>
       </c>
       <c r="K103" t="n">
-        <v>0.278</v>
+        <v>0.253</v>
       </c>
       <c r="L103" t="n">
-        <v>2083</v>
+        <v>1810</v>
       </c>
       <c r="M103" t="n">
-        <v>0.289</v>
+        <v>0.251</v>
       </c>
       <c r="N103" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
       <c r="O103" t="n">
-        <v>80.1</v>
+        <v>58.1</v>
       </c>
       <c r="P103" t="s">
         <v>611</v>
@@ -8709,7 +8787,7 @@
         <v>615</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44459</v>
+        <v>44463</v>
       </c>
       <c r="D104" t="s">
         <v>616</v>
@@ -8719,31 +8797,31 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="H104" t="n">
-        <v>5377958</v>
+        <v>5539994</v>
       </c>
       <c r="I104" t="n">
-        <v>161.213</v>
+        <v>166.07</v>
       </c>
       <c r="J104" t="n">
-        <v>2452</v>
+        <v>6931</v>
       </c>
       <c r="K104" t="n">
-        <v>0.074</v>
+        <v>0.208</v>
       </c>
       <c r="L104" t="n">
-        <v>8527</v>
+        <v>10242</v>
       </c>
       <c r="M104" t="n">
-        <v>0.256</v>
+        <v>0.307</v>
       </c>
       <c r="N104" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="O104" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="P104" t="s">
         <v>179</v>
@@ -8766,7 +8844,7 @@
         <v>620</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44468</v>
+        <v>44472</v>
       </c>
       <c r="D105" t="s">
         <v>621</v>
@@ -8776,31 +8854,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H105" t="n">
-        <v>19852618</v>
+        <v>20114017</v>
       </c>
       <c r="I105" t="n">
-        <v>178.777</v>
+        <v>181.131</v>
       </c>
       <c r="J105" t="n">
-        <v>61533</v>
+        <v>37816</v>
       </c>
       <c r="K105" t="n">
-        <v>0.554</v>
+        <v>0.341</v>
       </c>
       <c r="L105" t="n">
-        <v>65097</v>
+        <v>60613</v>
       </c>
       <c r="M105" t="n">
-        <v>0.586</v>
+        <v>0.546</v>
       </c>
       <c r="N105" t="n">
-        <v>0.26</v>
+        <v>0.242</v>
       </c>
       <c r="O105" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="P105" t="s">
         <v>326</v>
@@ -8823,7 +8901,7 @@
         <v>626</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="D106" t="s">
         <v>627</v>
@@ -8833,31 +8911,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="H106" t="n">
-        <v>20352805</v>
+        <v>20619398</v>
       </c>
       <c r="I106" t="n">
-        <v>538.477</v>
+        <v>545.53</v>
       </c>
       <c r="J106" t="n">
-        <v>21226</v>
+        <v>21435</v>
       </c>
       <c r="K106" t="n">
-        <v>0.562</v>
+        <v>0.567</v>
       </c>
       <c r="L106" t="n">
-        <v>37173</v>
+        <v>38085</v>
       </c>
       <c r="M106" t="n">
-        <v>0.983</v>
+        <v>1.008</v>
       </c>
       <c r="N106" t="n">
-        <v>0.021</v>
+        <v>0.03</v>
       </c>
       <c r="O106" t="n">
-        <v>48.6</v>
+        <v>33.8</v>
       </c>
       <c r="P106" t="s">
         <v>628</v>
@@ -8880,7 +8958,7 @@
         <v>631</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44465</v>
+        <v>44472</v>
       </c>
       <c r="D107" t="s">
         <v>627</v>
@@ -8890,31 +8968,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="H107" t="n">
-        <v>20767718</v>
+        <v>21036799</v>
       </c>
       <c r="I107" t="n">
-        <v>549.454</v>
+        <v>556.573</v>
       </c>
       <c r="J107" t="n">
-        <v>21347</v>
+        <v>21583</v>
       </c>
       <c r="K107" t="n">
-        <v>0.565</v>
+        <v>0.571</v>
       </c>
       <c r="L107" t="n">
-        <v>37432</v>
+        <v>38440</v>
       </c>
       <c r="M107" t="n">
-        <v>0.99</v>
+        <v>1.017</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02</v>
+        <v>0.028</v>
       </c>
       <c r="O107" t="n">
-        <v>49.4</v>
+        <v>35.3</v>
       </c>
       <c r="P107" t="s">
         <v>628</v>
@@ -8937,7 +9015,7 @@
         <v>633</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44467</v>
+        <v>44469</v>
       </c>
       <c r="D108" t="s">
         <v>634</v>
@@ -8947,31 +9025,31 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H108" t="n">
-        <v>18505967</v>
+        <v>18640098</v>
       </c>
       <c r="I108" t="n">
-        <v>1820.034</v>
+        <v>1833.226</v>
       </c>
       <c r="J108" t="n">
-        <v>51483</v>
+        <v>60263</v>
       </c>
       <c r="K108" t="n">
-        <v>5.063</v>
+        <v>5.927</v>
       </c>
       <c r="L108" t="n">
-        <v>53788</v>
+        <v>53834</v>
       </c>
       <c r="M108" t="n">
-        <v>5.29</v>
+        <v>5.294</v>
       </c>
       <c r="N108" t="n">
         <v>0.012</v>
       </c>
       <c r="O108" t="n">
-        <v>80.5</v>
+        <v>85.6</v>
       </c>
       <c r="P108" t="s">
         <v>635</v>
@@ -8994,7 +9072,7 @@
         <v>638</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D109" t="s">
         <v>639</v>
@@ -9004,32 +9082,28 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="H109" t="n">
-        <v>2659577</v>
+        <v>2687715</v>
       </c>
       <c r="I109" t="n">
-        <v>907.543</v>
+        <v>917.145</v>
       </c>
       <c r="J109" t="n">
-        <v>5351</v>
+        <v>5394</v>
       </c>
       <c r="K109" t="n">
-        <v>1.826</v>
+        <v>1.841</v>
       </c>
       <c r="L109" t="n">
-        <v>5500</v>
+        <v>5581</v>
       </c>
       <c r="M109" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="O109" t="n">
-        <v>59.1</v>
-      </c>
+        <v>1.904</v>
+      </c>
+      <c r="N109"/>
+      <c r="O109"/>
       <c r="P109" t="s">
         <v>641</v>
       </c>
@@ -9051,7 +9125,7 @@
         <v>644</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44469</v>
+        <v>44474</v>
       </c>
       <c r="D110" t="s">
         <v>645</v>
@@ -9061,21 +9135,21 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H110" t="n">
-        <v>12856428</v>
+        <v>13080535</v>
       </c>
       <c r="I110" t="n">
-        <v>672.134</v>
+        <v>683.85</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
       <c r="L110" t="n">
-        <v>60108</v>
+        <v>62271</v>
       </c>
       <c r="M110" t="n">
-        <v>3.142</v>
+        <v>3.256</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
@@ -9100,7 +9174,7 @@
         <v>651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44468</v>
+        <v>44473</v>
       </c>
       <c r="D111" t="s">
         <v>652</v>
@@ -9110,27 +9184,27 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H111" t="n">
-        <v>191582882</v>
+        <v>194057552</v>
       </c>
       <c r="I111" t="n">
-        <v>1313.003</v>
+        <v>1329.963</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111" t="n">
-        <v>468033</v>
+        <v>500875</v>
       </c>
       <c r="M111" t="n">
-        <v>3.208</v>
+        <v>3.433</v>
       </c>
       <c r="N111" t="n">
-        <v>0.046</v>
+        <v>0.047</v>
       </c>
       <c r="O111" t="n">
-        <v>21.8</v>
+        <v>21.2</v>
       </c>
       <c r="P111" t="s">
         <v>653</v>
@@ -9153,7 +9227,7 @@
         <v>657</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44469</v>
+        <v>44474</v>
       </c>
       <c r="D112" t="s">
         <v>658</v>
@@ -9163,25 +9237,25 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H112" t="n">
-        <v>2806919</v>
+        <v>2869097</v>
       </c>
       <c r="I112" t="n">
-        <v>211.42</v>
+        <v>216.103</v>
       </c>
       <c r="J112" t="n">
-        <v>11085</v>
+        <v>7506</v>
       </c>
       <c r="K112" t="n">
-        <v>0.835</v>
+        <v>0.565</v>
       </c>
       <c r="L112" t="n">
-        <v>12284</v>
+        <v>13244</v>
       </c>
       <c r="M112" t="n">
-        <v>0.925</v>
+        <v>0.998</v>
       </c>
       <c r="N112"/>
       <c r="O112"/>
@@ -9206,7 +9280,7 @@
         <v>663</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D113" t="s">
         <v>664</v>
@@ -9216,24 +9290,32 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H113" t="n">
-        <v>41035</v>
+        <v>43625</v>
       </c>
       <c r="I113" t="n">
-        <v>766.35</v>
-      </c>
-      <c r="J113"/>
-      <c r="K113"/>
+        <v>814.72</v>
+      </c>
+      <c r="J113" t="n">
+        <v>741</v>
+      </c>
+      <c r="K113" t="n">
+        <v>13.839</v>
+      </c>
       <c r="L113" t="n">
-        <v>549</v>
+        <v>598</v>
       </c>
       <c r="M113" t="n">
-        <v>10.253</v>
-      </c>
-      <c r="N113"/>
-      <c r="O113"/>
+        <v>11.168</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="O113" t="n">
+        <v>25.4</v>
+      </c>
       <c r="P113" t="s">
         <v>36</v>
       </c>
@@ -9255,162 +9337,152 @@
         <v>668</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="D114" t="s">
         <v>669</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>670</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>577</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>28902511</v>
+        <v>77176</v>
       </c>
       <c r="I114" t="n">
-        <v>817.826</v>
-      </c>
-      <c r="J114" t="n">
-        <v>50644</v>
-      </c>
-      <c r="K114" t="n">
-        <v>1.433</v>
-      </c>
-      <c r="L114" t="n">
-        <v>43794</v>
-      </c>
-      <c r="M114" t="n">
-        <v>1.239</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O114" t="n">
-        <v>1021.9</v>
-      </c>
+        <v>693.598</v>
+      </c>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
       <c r="P114" t="s">
-        <v>36</v>
+        <v>670</v>
       </c>
       <c r="Q114" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="R114" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="S114" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B115" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44468</v>
+        <v>44472</v>
       </c>
       <c r="D115" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E115" t="s">
-        <v>674</v>
+        <v>36</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="H115" t="n">
-        <v>809390</v>
+        <v>29097781</v>
       </c>
       <c r="I115" t="n">
-        <v>47.068</v>
+        <v>823.351</v>
       </c>
       <c r="J115" t="n">
-        <v>1399</v>
+        <v>47386</v>
       </c>
       <c r="K115" t="n">
-        <v>0.081</v>
+        <v>1.341</v>
       </c>
       <c r="L115" t="n">
-        <v>1572</v>
+        <v>49065</v>
       </c>
       <c r="M115" t="n">
-        <v>0.091</v>
+        <v>1.388</v>
       </c>
       <c r="N115" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="O115" t="n">
-        <v>152.8</v>
+        <v>1651.2</v>
       </c>
       <c r="P115" t="s">
-        <v>674</v>
+        <v>36</v>
       </c>
       <c r="Q115" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="R115" t="s">
         <v>44</v>
       </c>
       <c r="S115" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B116" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D116" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
-      </c>
-      <c r="F116" t="s">
+        <v>680</v>
+      </c>
+      <c r="F116"/>
+      <c r="G116" t="n">
+        <v>581</v>
+      </c>
+      <c r="H116" t="n">
+        <v>817426</v>
+      </c>
+      <c r="I116" t="n">
+        <v>47.535</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1411</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1515</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O116" t="n">
+        <v>192.8</v>
+      </c>
+      <c r="P116" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q116" t="s">
         <v>679</v>
       </c>
-      <c r="G116" t="n">
-        <v>582</v>
-      </c>
-      <c r="H116" t="n">
-        <v>5650408</v>
-      </c>
-      <c r="I116" t="n">
-        <v>830.381</v>
-      </c>
-      <c r="J116" t="n">
-        <v>23991</v>
-      </c>
-      <c r="K116" t="n">
-        <v>3.526</v>
-      </c>
-      <c r="L116" t="n">
-        <v>21724</v>
-      </c>
-      <c r="M116" t="n">
-        <v>3.193</v>
-      </c>
-      <c r="N116"/>
-      <c r="O116"/>
-      <c r="P116" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>680</v>
-      </c>
       <c r="R116" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="S116" t="s">
         <v>681</v>
@@ -9424,7 +9496,7 @@
         <v>683</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="D117" t="s">
         <v>684</v>
@@ -9432,209 +9504,211 @@
       <c r="E117" t="s">
         <v>36</v>
       </c>
-      <c r="F117"/>
+      <c r="F117" t="s">
+        <v>685</v>
+      </c>
       <c r="G117" t="n">
-        <v>76</v>
+        <v>586</v>
       </c>
       <c r="H117" t="n">
-        <v>19560496</v>
+        <v>5727277</v>
       </c>
       <c r="I117" t="n">
-        <v>3317.203</v>
-      </c>
-      <c r="J117"/>
-      <c r="K117"/>
+        <v>829.052</v>
+      </c>
+      <c r="J117" t="n">
+        <v>19452</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2.816</v>
+      </c>
       <c r="L117" t="n">
-        <v>64614</v>
+        <v>21714</v>
       </c>
       <c r="M117" t="n">
-        <v>10.958</v>
+        <v>3.143</v>
       </c>
       <c r="N117" t="n">
-        <v>0.024</v>
+        <v>0.324</v>
       </c>
       <c r="O117" t="n">
-        <v>41.8</v>
+        <v>3.1</v>
       </c>
       <c r="P117" t="s">
         <v>36</v>
       </c>
       <c r="Q117" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="R117" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="S117" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B118" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44468</v>
+        <v>44466</v>
       </c>
       <c r="D118" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E118" t="s">
         <v>36</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>573</v>
+        <v>76</v>
       </c>
       <c r="H118" t="n">
-        <v>41912482</v>
+        <v>19560496</v>
       </c>
       <c r="I118" t="n">
-        <v>7675.258</v>
-      </c>
-      <c r="J118" t="n">
-        <v>26721</v>
-      </c>
-      <c r="K118" t="n">
-        <v>4.893</v>
-      </c>
+        <v>3317.203</v>
+      </c>
+      <c r="J118"/>
+      <c r="K118"/>
       <c r="L118" t="n">
-        <v>31210</v>
+        <v>64614</v>
       </c>
       <c r="M118" t="n">
-        <v>5.715</v>
+        <v>10.958</v>
       </c>
       <c r="N118" t="n">
-        <v>0.041</v>
+        <v>0.024</v>
       </c>
       <c r="O118" t="n">
-        <v>24.4</v>
+        <v>41.8</v>
       </c>
       <c r="P118" t="s">
         <v>36</v>
       </c>
       <c r="Q118" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="R118" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="S118" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B119" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44468</v>
+        <v>44472</v>
       </c>
       <c r="D119" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E119" t="s">
-        <v>694</v>
+        <v>36</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="H119" t="n">
-        <v>1579004</v>
+        <v>42024204</v>
       </c>
       <c r="I119" t="n">
-        <v>759.603</v>
+        <v>7695.717</v>
       </c>
       <c r="J119" t="n">
-        <v>5753</v>
+        <v>10931</v>
       </c>
       <c r="K119" t="n">
-        <v>2.768</v>
+        <v>2.002</v>
       </c>
       <c r="L119" t="n">
-        <v>4530</v>
+        <v>31015</v>
       </c>
       <c r="M119" t="n">
-        <v>2.179</v>
+        <v>5.68</v>
       </c>
       <c r="N119" t="n">
-        <v>0.192</v>
+        <v>0.047</v>
       </c>
       <c r="O119" t="n">
-        <v>5.2</v>
+        <v>21.3</v>
       </c>
       <c r="P119" t="s">
-        <v>694</v>
+        <v>36</v>
       </c>
       <c r="Q119" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="R119" t="s">
         <v>44</v>
       </c>
       <c r="S119" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B120" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="D120" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E120" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="H120" t="n">
-        <v>17588025</v>
+        <v>1597765</v>
       </c>
       <c r="I120" t="n">
-        <v>292.929</v>
+        <v>768.628</v>
       </c>
       <c r="J120" t="n">
-        <v>15350</v>
+        <v>4783</v>
       </c>
       <c r="K120" t="n">
-        <v>0.256</v>
+        <v>2.301</v>
       </c>
       <c r="L120" t="n">
-        <v>30520</v>
+        <v>4417</v>
       </c>
       <c r="M120" t="n">
-        <v>0.508</v>
+        <v>2.125</v>
       </c>
       <c r="N120" t="n">
-        <v>0.063</v>
+        <v>0.196</v>
       </c>
       <c r="O120" t="n">
-        <v>16</v>
+        <v>5.1</v>
       </c>
       <c r="P120" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q120" t="s">
         <v>699</v>
       </c>
-      <c r="Q120" t="s">
-        <v>700</v>
-      </c>
       <c r="R120" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="S120" t="s">
         <v>701</v>
@@ -9648,7 +9722,7 @@
         <v>703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44469</v>
+        <v>44472</v>
       </c>
       <c r="D121" t="s">
         <v>704</v>
@@ -9658,684 +9732,692 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="H121" t="n">
-        <v>13394600</v>
+        <v>17783920</v>
       </c>
       <c r="I121" t="n">
-        <v>261.077</v>
+        <v>296.191</v>
       </c>
       <c r="J121" t="n">
-        <v>46957</v>
+        <v>23685</v>
       </c>
       <c r="K121" t="n">
-        <v>0.915</v>
+        <v>0.394</v>
       </c>
       <c r="L121" t="n">
-        <v>39750</v>
+        <v>30178</v>
       </c>
       <c r="M121" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="N121"/>
-      <c r="O121"/>
+        <v>0.503</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="O121" t="n">
+        <v>22.3</v>
+      </c>
       <c r="P121" t="s">
         <v>705</v>
       </c>
       <c r="Q121" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="R121" t="s">
         <v>31</v>
       </c>
       <c r="S121" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B122" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44342</v>
+        <v>44474</v>
       </c>
       <c r="D122" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>711</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>141</v>
+        <v>560</v>
       </c>
       <c r="H122" t="n">
-        <v>164472</v>
+        <v>13503131</v>
       </c>
       <c r="I122" t="n">
-        <v>14.451</v>
-      </c>
-      <c r="J122"/>
-      <c r="K122"/>
+        <v>263.192</v>
+      </c>
+      <c r="J122" t="n">
+        <v>18100</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.353</v>
+      </c>
       <c r="L122" t="n">
-        <v>456</v>
+        <v>30422</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="O122" t="n">
-        <v>127.7</v>
-      </c>
+        <v>0.593</v>
+      </c>
+      <c r="N122"/>
+      <c r="O122"/>
       <c r="P122" t="s">
-        <v>36</v>
+        <v>711</v>
       </c>
       <c r="Q122" t="s">
         <v>710</v>
       </c>
       <c r="R122" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="S122" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B123" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44455</v>
+        <v>44342</v>
       </c>
       <c r="D123" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E123" t="s">
-        <v>715</v>
+        <v>36</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="H123" t="n">
-        <v>57549938</v>
+        <v>164472</v>
       </c>
       <c r="I123" t="n">
-        <v>1231.141</v>
+        <v>14.451</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123" t="n">
-        <v>83593</v>
+        <v>456</v>
       </c>
       <c r="M123" t="n">
-        <v>1.788</v>
+        <v>0.04</v>
       </c>
       <c r="N123" t="n">
-        <v>0.04</v>
+        <v>0.008</v>
       </c>
       <c r="O123" t="n">
-        <v>25.1</v>
+        <v>127.7</v>
       </c>
       <c r="P123" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q123" t="s">
         <v>716</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>717</v>
       </c>
       <c r="R123" t="s">
         <v>44</v>
       </c>
       <c r="S123" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>718</v>
+      </c>
+      <c r="B124" t="s">
         <v>719</v>
-      </c>
-      <c r="B124" t="s">
-        <v>720</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>44469</v>
       </c>
       <c r="D124" t="s">
+        <v>720</v>
+      </c>
+      <c r="E124" t="s">
         <v>721</v>
-      </c>
-      <c r="E124" t="s">
-        <v>722</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>585</v>
+        <v>77</v>
       </c>
       <c r="H124" t="n">
-        <v>5281658</v>
+        <v>59314343</v>
       </c>
       <c r="I124" t="n">
-        <v>245.689</v>
-      </c>
-      <c r="J124" t="n">
-        <v>7740</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.36</v>
-      </c>
+        <v>1268.886</v>
+      </c>
+      <c r="J124"/>
+      <c r="K124"/>
       <c r="L124" t="n">
-        <v>8158</v>
+        <v>91959</v>
       </c>
       <c r="M124" t="n">
-        <v>0.379</v>
-      </c>
-      <c r="N124"/>
-      <c r="O124"/>
+        <v>1.967</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="O124" t="n">
+        <v>42.2</v>
+      </c>
       <c r="P124" t="s">
         <v>722</v>
       </c>
       <c r="Q124" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="R124" t="s">
         <v>44</v>
       </c>
       <c r="S124" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B125" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44465</v>
+        <v>44473</v>
       </c>
       <c r="D125" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E125" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>441</v>
-      </c>
-      <c r="H125"/>
-      <c r="I125"/>
+        <v>589</v>
+      </c>
+      <c r="H125" t="n">
+        <v>5311341</v>
+      </c>
+      <c r="I125" t="n">
+        <v>247.07</v>
+      </c>
       <c r="J125" t="n">
-        <v>23127</v>
+        <v>6479</v>
       </c>
       <c r="K125" t="n">
-        <v>2.276</v>
+        <v>0.301</v>
       </c>
       <c r="L125" t="n">
-        <v>23127</v>
+        <v>7432</v>
       </c>
       <c r="M125" t="n">
-        <v>2.276</v>
+        <v>0.346</v>
       </c>
       <c r="N125" t="n">
-        <v>0.027</v>
+        <v>0.127</v>
       </c>
       <c r="O125" t="n">
-        <v>36.6</v>
+        <v>7.9</v>
       </c>
       <c r="P125" t="s">
         <v>728</v>
       </c>
       <c r="Q125" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="R125" t="s">
         <v>44</v>
       </c>
       <c r="S125" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>730</v>
+      </c>
+      <c r="B126" t="s">
         <v>731</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" s="1" t="n">
+        <v>44465</v>
+      </c>
+      <c r="D126" t="s">
         <v>732</v>
       </c>
-      <c r="C126" s="1" t="n">
-        <v>44468</v>
-      </c>
-      <c r="D126" t="s">
-        <v>454</v>
-      </c>
       <c r="E126" t="s">
-        <v>455</v>
+        <v>733</v>
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>495</v>
-      </c>
-      <c r="H126" t="n">
-        <v>10396629</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1192.89</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="H126"/>
+      <c r="I126"/>
       <c r="J126" t="n">
-        <v>31056</v>
+        <v>23127</v>
       </c>
       <c r="K126" t="n">
-        <v>3.563</v>
+        <v>2.276</v>
       </c>
       <c r="L126" t="n">
-        <v>35250</v>
+        <v>23127</v>
       </c>
       <c r="M126" t="n">
-        <v>4.045</v>
+        <v>2.276</v>
       </c>
       <c r="N126" t="n">
-        <v>0.038</v>
+        <v>0.027</v>
       </c>
       <c r="O126" t="n">
-        <v>26.3</v>
+        <v>36.6</v>
       </c>
       <c r="P126" t="s">
-        <v>455</v>
+        <v>734</v>
       </c>
       <c r="Q126" t="s">
-        <v>456</v>
+        <v>735</v>
       </c>
       <c r="R126" t="s">
         <v>44</v>
       </c>
       <c r="S126" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B127" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44468</v>
+        <v>44471</v>
       </c>
       <c r="D127" t="s">
-        <v>736</v>
+        <v>454</v>
       </c>
       <c r="E127" t="s">
-        <v>737</v>
+        <v>455</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>622</v>
+        <v>498</v>
       </c>
       <c r="H127" t="n">
-        <v>3393177</v>
+        <v>10530058</v>
       </c>
       <c r="I127" t="n">
-        <v>142.242</v>
+        <v>1208.2</v>
       </c>
       <c r="J127" t="n">
-        <v>23822</v>
+        <v>31795</v>
       </c>
       <c r="K127" t="n">
-        <v>0.999</v>
+        <v>3.648</v>
       </c>
       <c r="L127" t="n">
-        <v>23159</v>
+        <v>35527</v>
       </c>
       <c r="M127" t="n">
-        <v>0.971</v>
+        <v>4.076</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="O127" t="n">
-        <v>2844</v>
+        <v>27.8</v>
       </c>
       <c r="P127" t="s">
-        <v>737</v>
+        <v>455</v>
       </c>
       <c r="Q127" t="s">
-        <v>736</v>
+        <v>456</v>
       </c>
       <c r="R127" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="S127" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B128" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44457</v>
+        <v>44473</v>
       </c>
       <c r="D128" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E128" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="H128" t="n">
-        <v>13258565</v>
+        <v>3482953</v>
       </c>
       <c r="I128" t="n">
-        <v>189.541</v>
+        <v>146.005</v>
       </c>
       <c r="J128" t="n">
-        <v>36856</v>
+        <v>17812</v>
       </c>
       <c r="K128" t="n">
-        <v>0.527</v>
+        <v>0.747</v>
       </c>
       <c r="L128" t="n">
-        <v>51971</v>
+        <v>19838</v>
       </c>
       <c r="M128" t="n">
-        <v>0.743</v>
+        <v>0.832</v>
       </c>
       <c r="N128" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>3.8</v>
+        <v>2436.2</v>
       </c>
       <c r="P128" t="s">
         <v>743</v>
       </c>
       <c r="Q128" t="s">
+        <v>742</v>
+      </c>
+      <c r="R128" t="s">
+        <v>31</v>
+      </c>
+      <c r="S128" t="s">
         <v>744</v>
-      </c>
-      <c r="R128" t="s">
-        <v>44</v>
-      </c>
-      <c r="S128" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>745</v>
+      </c>
+      <c r="B129" t="s">
         <v>746</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" s="1" t="n">
+        <v>44457</v>
+      </c>
+      <c r="D129" t="s">
         <v>747</v>
       </c>
-      <c r="C129" s="1" t="n">
-        <v>44449</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>748</v>
-      </c>
-      <c r="E129" t="s">
-        <v>36</v>
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>22</v>
+        <v>623</v>
       </c>
       <c r="H129" t="n">
-        <v>194367</v>
+        <v>13258565</v>
       </c>
       <c r="I129" t="n">
-        <v>144.632</v>
-      </c>
-      <c r="J129"/>
-      <c r="K129"/>
+        <v>189.541</v>
+      </c>
+      <c r="J129" t="n">
+        <v>36856</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.527</v>
+      </c>
       <c r="L129" t="n">
-        <v>809</v>
+        <v>51971</v>
       </c>
       <c r="M129" t="n">
-        <v>0.602</v>
+        <v>0.743</v>
       </c>
       <c r="N129" t="n">
-        <v>0.164</v>
+        <v>0.26</v>
       </c>
       <c r="O129" t="n">
-        <v>6.1</v>
+        <v>3.8</v>
       </c>
       <c r="P129" t="s">
-        <v>36</v>
+        <v>749</v>
       </c>
       <c r="Q129" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="R129" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="S129" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B130" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44466</v>
-      </c>
-      <c r="D130"/>
+        <v>44449</v>
+      </c>
+      <c r="D130" t="s">
+        <v>754</v>
+      </c>
       <c r="E130" t="s">
-        <v>752</v>
-      </c>
-      <c r="F130" t="s">
-        <v>753</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F130"/>
       <c r="G130" t="n">
-        <v>567</v>
+        <v>22</v>
       </c>
       <c r="H130" t="n">
-        <v>509788</v>
+        <v>194367</v>
       </c>
       <c r="I130" t="n">
-        <v>60.129</v>
-      </c>
-      <c r="J130" t="n">
-        <v>840</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.099</v>
-      </c>
+        <v>144.632</v>
+      </c>
+      <c r="J130"/>
+      <c r="K130"/>
       <c r="L130" t="n">
-        <v>1454</v>
+        <v>809</v>
       </c>
       <c r="M130" t="n">
-        <v>0.171</v>
+        <v>0.602</v>
       </c>
       <c r="N130" t="n">
-        <v>0.059</v>
+        <v>0.164</v>
       </c>
       <c r="O130" t="n">
-        <v>17</v>
+        <v>6.1</v>
       </c>
       <c r="P130" t="s">
-        <v>752</v>
+        <v>36</v>
       </c>
       <c r="Q130" t="s">
         <v>754</v>
       </c>
       <c r="R130" t="s">
+        <v>24</v>
+      </c>
+      <c r="S130" t="s">
         <v>755</v>
-      </c>
-      <c r="S130" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>756</v>
+      </c>
+      <c r="B131" t="s">
         <v>757</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" s="1" t="n">
+        <v>44473</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131" t="s">
         <v>758</v>
       </c>
-      <c r="C131" s="1" t="n">
-        <v>44465</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="F131" t="s">
         <v>759</v>
       </c>
-      <c r="E131" t="s">
-        <v>36</v>
-      </c>
-      <c r="F131"/>
       <c r="G131" t="n">
-        <v>494</v>
+        <v>574</v>
       </c>
       <c r="H131" t="n">
-        <v>344713</v>
+        <v>518580</v>
       </c>
       <c r="I131" t="n">
-        <v>245.632</v>
+        <v>61.166</v>
       </c>
       <c r="J131" t="n">
-        <v>760</v>
+        <v>843</v>
       </c>
       <c r="K131" t="n">
-        <v>0.542</v>
+        <v>0.099</v>
       </c>
       <c r="L131" t="n">
-        <v>1364</v>
+        <v>1256</v>
       </c>
       <c r="M131" t="n">
-        <v>0.972</v>
+        <v>0.148</v>
       </c>
       <c r="N131" t="n">
-        <v>0.149</v>
+        <v>0.038</v>
       </c>
       <c r="O131" t="n">
-        <v>6.7</v>
+        <v>26.3</v>
       </c>
       <c r="P131" t="s">
-        <v>36</v>
+        <v>758</v>
       </c>
       <c r="Q131" t="s">
         <v>760</v>
       </c>
       <c r="R131" t="s">
-        <v>31</v>
+        <v>761</v>
       </c>
       <c r="S131" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B132" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="D132" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E132" t="s">
-        <v>765</v>
+        <v>36</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>111</v>
+        <v>499</v>
       </c>
       <c r="H132" t="n">
-        <v>2920578</v>
+        <v>353373</v>
       </c>
       <c r="I132" t="n">
-        <v>244.691</v>
-      </c>
-      <c r="J132"/>
-      <c r="K132"/>
+        <v>251.802</v>
+      </c>
+      <c r="J132" t="n">
+        <v>664</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.473</v>
+      </c>
       <c r="L132" t="n">
-        <v>5683</v>
+        <v>1426</v>
       </c>
       <c r="M132" t="n">
-        <v>0.476</v>
+        <v>1.016</v>
       </c>
       <c r="N132" t="n">
-        <v>0.096</v>
+        <v>0.122</v>
       </c>
       <c r="O132" t="n">
-        <v>10.4</v>
+        <v>8.2</v>
       </c>
       <c r="P132" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q132" t="s">
         <v>766</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>767</v>
       </c>
       <c r="R132" t="s">
         <v>31</v>
       </c>
       <c r="S132" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>768</v>
+      </c>
+      <c r="B133" t="s">
         <v>769</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="D133" t="s">
         <v>770</v>
       </c>
-      <c r="C133" s="1" t="n">
-        <v>44469</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>771</v>
-      </c>
-      <c r="E133" t="s">
-        <v>772</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>553</v>
+        <v>113</v>
       </c>
       <c r="H133" t="n">
-        <v>86269464</v>
+        <v>2959305</v>
       </c>
       <c r="I133" t="n">
-        <v>1014.425</v>
-      </c>
-      <c r="J133" t="n">
-        <v>357853</v>
-      </c>
-      <c r="K133" t="n">
-        <v>4.208</v>
-      </c>
+        <v>247.936</v>
+      </c>
+      <c r="J133"/>
+      <c r="K133"/>
       <c r="L133" t="n">
-        <v>351696</v>
+        <v>7456</v>
       </c>
       <c r="M133" t="n">
-        <v>4.136</v>
-      </c>
-      <c r="N133"/>
-      <c r="O133"/>
+        <v>0.625</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="O133" t="n">
+        <v>17</v>
+      </c>
       <c r="P133" t="s">
         <v>772</v>
       </c>
@@ -10343,7 +10425,7 @@
         <v>773</v>
       </c>
       <c r="R133" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="S133" t="s">
         <v>774</v>
@@ -10357,7 +10439,7 @@
         <v>776</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44464</v>
+        <v>44473</v>
       </c>
       <c r="D134" t="s">
         <v>777</v>
@@ -10367,31 +10449,31 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>412</v>
+        <v>557</v>
       </c>
       <c r="H134" t="n">
-        <v>1675142</v>
+        <v>87678654</v>
       </c>
       <c r="I134" t="n">
-        <v>35.548</v>
+        <v>1030.995</v>
       </c>
       <c r="J134" t="n">
-        <v>3838</v>
+        <v>352214</v>
       </c>
       <c r="K134" t="n">
+        <v>4.142</v>
+      </c>
+      <c r="L134" t="n">
+        <v>354164</v>
+      </c>
+      <c r="M134" t="n">
+        <v>4.165</v>
+      </c>
+      <c r="N134" t="n">
         <v>0.081</v>
       </c>
-      <c r="L134" t="n">
-        <v>3532</v>
-      </c>
-      <c r="M134" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.04</v>
-      </c>
       <c r="O134" t="n">
-        <v>25.2</v>
+        <v>12.4</v>
       </c>
       <c r="P134" t="s">
         <v>778</v>
@@ -10400,7 +10482,7 @@
         <v>779</v>
       </c>
       <c r="R134" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="S134" t="s">
         <v>780</v>
@@ -10414,7 +10496,7 @@
         <v>782</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44469</v>
+        <v>44471</v>
       </c>
       <c r="D135" t="s">
         <v>783</v>
@@ -10424,28 +10506,32 @@
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="H135" t="n">
-        <v>12829867</v>
+        <v>1700054</v>
       </c>
       <c r="I135" t="n">
-        <v>295.165</v>
+        <v>36.077</v>
       </c>
       <c r="J135" t="n">
-        <v>46604</v>
+        <v>3878</v>
       </c>
       <c r="K135" t="n">
-        <v>1.072</v>
+        <v>0.082</v>
       </c>
       <c r="L135" t="n">
-        <v>33799</v>
+        <v>3559</v>
       </c>
       <c r="M135" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="N135"/>
-      <c r="O135"/>
+        <v>0.076</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="O135" t="n">
+        <v>31.5</v>
+      </c>
       <c r="P135" t="s">
         <v>784</v>
       </c>
@@ -10453,7 +10539,7 @@
         <v>785</v>
       </c>
       <c r="R135" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="S135" t="s">
         <v>786</v>
@@ -10467,7 +10553,7 @@
         <v>788</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44469</v>
+        <v>44474</v>
       </c>
       <c r="D136" t="s">
         <v>789</v>
@@ -10477,25 +10563,25 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>580</v>
+        <v>448</v>
       </c>
       <c r="H136" t="n">
-        <v>83975380</v>
+        <v>13003972</v>
       </c>
       <c r="I136" t="n">
-        <v>8405.033</v>
+        <v>299.17</v>
       </c>
       <c r="J136" t="n">
-        <v>291055</v>
+        <v>37080</v>
       </c>
       <c r="K136" t="n">
-        <v>29.131</v>
+        <v>0.853</v>
       </c>
       <c r="L136" t="n">
-        <v>308211</v>
+        <v>37549</v>
       </c>
       <c r="M136" t="n">
-        <v>30.849</v>
+        <v>0.864</v>
       </c>
       <c r="N136"/>
       <c r="O136"/>
@@ -10503,126 +10589,122 @@
         <v>790</v>
       </c>
       <c r="Q136" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="R136" t="s">
         <v>44</v>
       </c>
       <c r="S136" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B137" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44468</v>
+        <v>44474</v>
       </c>
       <c r="D137" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E137" t="s">
+        <v>796</v>
+      </c>
+      <c r="F137"/>
+      <c r="G137" t="n">
+        <v>585</v>
+      </c>
+      <c r="H137" t="n">
+        <v>85511413</v>
+      </c>
+      <c r="I137" t="n">
+        <v>8558.773</v>
+      </c>
+      <c r="J137" t="n">
+        <v>364265</v>
+      </c>
+      <c r="K137" t="n">
+        <v>36.459</v>
+      </c>
+      <c r="L137" t="n">
+        <v>305537</v>
+      </c>
+      <c r="M137" t="n">
+        <v>30.581</v>
+      </c>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q137" t="s">
         <v>795</v>
-      </c>
-      <c r="F137" t="s">
-        <v>796</v>
-      </c>
-      <c r="G137" t="n">
-        <v>548</v>
-      </c>
-      <c r="H137" t="n">
-        <v>273286284</v>
-      </c>
-      <c r="I137" t="n">
-        <v>4006.712</v>
-      </c>
-      <c r="J137" t="n">
-        <v>1109355</v>
-      </c>
-      <c r="K137" t="n">
-        <v>16.265</v>
-      </c>
-      <c r="L137" t="n">
-        <v>970038</v>
-      </c>
-      <c r="M137" t="n">
-        <v>14.222</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="O137" t="n">
-        <v>28</v>
-      </c>
-      <c r="P137" t="s">
-        <v>797</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>798</v>
       </c>
       <c r="R137" t="s">
         <v>44</v>
       </c>
       <c r="S137" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>798</v>
+      </c>
+      <c r="B138" t="s">
+        <v>799</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="D138" t="s">
         <v>800</v>
       </c>
-      <c r="B138" t="s">
+      <c r="E138" t="s">
         <v>801</v>
       </c>
-      <c r="C138" s="1" t="n">
-        <v>44466</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="F138" t="s">
         <v>802</v>
       </c>
-      <c r="E138" t="s">
-        <v>803</v>
-      </c>
-      <c r="F138"/>
       <c r="G138" t="n">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="H138" t="n">
-        <v>574986405</v>
+        <v>276371381</v>
       </c>
       <c r="I138" t="n">
-        <v>1727.126</v>
+        <v>4051.944</v>
       </c>
       <c r="J138" t="n">
-        <v>331986</v>
+        <v>1007503</v>
       </c>
       <c r="K138" t="n">
-        <v>0.997</v>
+        <v>14.771</v>
       </c>
       <c r="L138" t="n">
-        <v>1278671</v>
+        <v>865980</v>
       </c>
       <c r="M138" t="n">
-        <v>3.841</v>
+        <v>12.696</v>
       </c>
       <c r="N138" t="n">
-        <v>0.092</v>
+        <v>0.039</v>
       </c>
       <c r="O138" t="n">
-        <v>10.9</v>
+        <v>25.5</v>
       </c>
       <c r="P138" t="s">
         <v>803</v>
       </c>
       <c r="Q138" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="R138" t="s">
-        <v>804</v>
+        <v>44</v>
       </c>
       <c r="S138" t="s">
         <v>805</v>
@@ -10636,160 +10718,156 @@
         <v>807</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="D139" t="s">
         <v>808</v>
       </c>
       <c r="E139" t="s">
-        <v>202</v>
+        <v>809</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>442</v>
+        <v>579</v>
       </c>
       <c r="H139" t="n">
-        <v>3575666</v>
+        <v>581534276</v>
       </c>
       <c r="I139" t="n">
-        <v>1025.971</v>
+        <v>1746.795</v>
       </c>
       <c r="J139" t="n">
-        <v>15849</v>
+        <v>1058258</v>
       </c>
       <c r="K139" t="n">
-        <v>4.548</v>
+        <v>3.179</v>
       </c>
       <c r="L139" t="n">
-        <v>8148</v>
+        <v>1344204</v>
       </c>
       <c r="M139" t="n">
-        <v>2.338</v>
+        <v>4.038</v>
       </c>
       <c r="N139" t="n">
-        <v>0.013</v>
+        <v>0.083</v>
       </c>
       <c r="O139" t="n">
-        <v>75.6</v>
+        <v>12</v>
       </c>
       <c r="P139" t="s">
-        <v>202</v>
+        <v>809</v>
       </c>
       <c r="Q139" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="R139" t="s">
-        <v>44</v>
+        <v>810</v>
       </c>
       <c r="S139" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B140" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44461</v>
+        <v>44473</v>
       </c>
       <c r="D140" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E140" t="s">
-        <v>814</v>
+        <v>202</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>171</v>
+        <v>444</v>
       </c>
       <c r="H140" t="n">
-        <v>20041268</v>
+        <v>3604859</v>
       </c>
       <c r="I140" t="n">
-        <v>204.151</v>
+        <v>1034.348</v>
       </c>
       <c r="J140"/>
       <c r="K140"/>
       <c r="L140" t="n">
-        <v>204176</v>
+        <v>7342</v>
       </c>
       <c r="M140" t="n">
-        <v>2.08</v>
+        <v>2.107</v>
       </c>
       <c r="N140" t="n">
-        <v>0.051</v>
+        <v>0.013</v>
       </c>
       <c r="O140" t="n">
-        <v>19.5</v>
+        <v>74.7</v>
       </c>
       <c r="P140" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q140" t="s">
         <v>815</v>
       </c>
-      <c r="Q140" t="s">
+      <c r="R140" t="s">
+        <v>44</v>
+      </c>
+      <c r="S140" t="s">
         <v>816</v>
-      </c>
-      <c r="R140" t="s">
-        <v>114</v>
-      </c>
-      <c r="S140" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>817</v>
+      </c>
+      <c r="B141" t="s">
         <v>818</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="D141" t="s">
         <v>819</v>
       </c>
-      <c r="C141" s="1" t="n">
-        <v>44466</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>820</v>
-      </c>
-      <c r="E141" t="s">
-        <v>821</v>
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>533</v>
+        <v>176</v>
       </c>
       <c r="H141" t="n">
-        <v>2437088</v>
+        <v>24871501</v>
       </c>
       <c r="I141" t="n">
-        <v>128.806</v>
-      </c>
-      <c r="J141" t="n">
-        <v>4154</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.22</v>
-      </c>
+        <v>253.354</v>
+      </c>
+      <c r="J141"/>
+      <c r="K141"/>
       <c r="L141" t="n">
-        <v>5556</v>
+        <v>133811</v>
       </c>
       <c r="M141" t="n">
-        <v>0.294</v>
+        <v>1.363</v>
       </c>
       <c r="N141" t="n">
-        <v>0.009</v>
+        <v>0.055</v>
       </c>
       <c r="O141" t="n">
-        <v>106.6</v>
+        <v>18.1</v>
       </c>
       <c r="P141" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q141" t="s">
         <v>822</v>
       </c>
-      <c r="Q141" t="s">
-        <v>820</v>
-      </c>
       <c r="R141" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="S141" t="s">
         <v>823</v>
@@ -10803,7 +10881,7 @@
         <v>825</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44465</v>
+        <v>44473</v>
       </c>
       <c r="D142" t="s">
         <v>826</v>
@@ -10813,43 +10891,100 @@
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="H142" t="n">
-        <v>1247592</v>
+        <v>2475220</v>
       </c>
       <c r="I142" t="n">
-        <v>82.665</v>
+        <v>130.821</v>
       </c>
       <c r="J142" t="n">
-        <v>2248</v>
+        <v>3073</v>
       </c>
       <c r="K142" t="n">
-        <v>0.149</v>
+        <v>0.162</v>
       </c>
       <c r="L142" t="n">
-        <v>4736</v>
+        <v>5447</v>
       </c>
       <c r="M142" t="n">
-        <v>0.314</v>
+        <v>0.288</v>
       </c>
       <c r="N142" t="n">
-        <v>0.051</v>
+        <v>0.008</v>
       </c>
       <c r="O142" t="n">
-        <v>19.7</v>
+        <v>125</v>
       </c>
       <c r="P142" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Q142" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="R142" t="s">
         <v>44</v>
       </c>
       <c r="S142" t="s">
         <v>829</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>830</v>
+      </c>
+      <c r="B143" t="s">
+        <v>831</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>44472</v>
+      </c>
+      <c r="D143" t="s">
+        <v>832</v>
+      </c>
+      <c r="E143" t="s">
+        <v>833</v>
+      </c>
+      <c r="F143"/>
+      <c r="G143" t="n">
+        <v>513</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1279611</v>
+      </c>
+      <c r="I143" t="n">
+        <v>84.786</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2016</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="L143" t="n">
+        <v>4574</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="O143" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="P143" t="s">
+        <v>833</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>834</v>
+      </c>
+      <c r="R143" t="s">
+        <v>44</v>
+      </c>
+      <c r="S143" t="s">
+        <v>835</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4367</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4379</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/10/coronavirus-covid-19-at-a-glance-4-october-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/10/coronavirus-covid-19-at-a-glance-7-october-2021_0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -381,7 +381,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4576942505700663/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4595134997214747/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-03-de-outubro-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-05-de-outubro-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -634,7 +634,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/230259442467902</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/233946092099237</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -748,7 +748,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-04102021-jmtl</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-07102021-6b7g</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/10/Presentacion-COVID-19-SNVSPSNGR_v2018.3.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/10/Presentacion-COVID-19-SNVSPSNGR-1.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -1201,7 +1201,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/371281</t>
+    <t xml:space="preserve">http://irangov.ir/detail/371367</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1221,7 +1221,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1445029127191502859</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1445826208525025280</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1324,7 +1324,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-october-3-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-october-6-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1444693770826571781</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1445811168661032962</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1642,7 +1642,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1444708826867847174</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1445795994382315523</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1445049551921029121</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1445775124364365831</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/photo?fbid=158021939855481&amp;set=pcb.158022046522137</t>
+    <t xml:space="preserve">https://www.facebook.com/photo?fbid=161893179468357&amp;set=pcb.161893279468347</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1839,7 +1839,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1tTzaSBeFvUu85-pIbW7kDD1IyBY4O998</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1rmN_v34WGCtz54YehvbBUcwMHFgsRZDB</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1860,7 +1860,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-09/COVID-19_WebSite_rapport_wekelijks_20210928_1146_final.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-10/COVID-19_WebSite_rapport_wekelijks_20211005_1150_final.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1992,7 +1992,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4209866545805858</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4227496904042822</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2014,7 +2014,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1444827582101442562</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1445555807152533510</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1444796799399735301</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1445498719101616133</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2085,7 +2085,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1WugUIGvBg2jObNz43AsxgOBXfrUSWoAe</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/17LtWCPT8mEhNvXEofeQ8jJqg-C-gj5Zn</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2106,7 +2106,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1444946643321638914</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1445671419128463360</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2169,7 +2169,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/4-10_BULETIN_DE_PRESA_-ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/7-_10_BULETIN_DE_PRESA_-_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=19178</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=19214</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2367,7 +2367,7 @@
     <t xml:space="preserve">South Africa - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://sacoronavirus.co.za/category/daily-cases/</t>
+    <t xml:space="preserve">https://sacoronavirus.co.za/2021/10/06/update-on-covid-19-wednesday-06-october-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Communicable Diseases (NICD)</t>
@@ -2635,7 +2635,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1444958308666945539</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1445694137940918285</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2807,7 +2807,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1444795677427503106</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1445835255571570688</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3284,7 +3284,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44465</v>
+        <v>44473</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3294,27 +3294,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
-        <v>214094</v>
+        <v>215733</v>
       </c>
       <c r="I3" t="n">
-        <v>2767.717</v>
+        <v>2788.906</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="M3" t="n">
-        <v>2.34</v>
+        <v>2.65</v>
       </c>
       <c r="N3" t="n">
-        <v>0.034</v>
+        <v>0.054</v>
       </c>
       <c r="O3" t="n">
-        <v>29.5</v>
+        <v>18.4</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3382,7 +3382,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44468</v>
+        <v>44471</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3392,25 +3392,25 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="H5" t="n">
-        <v>23858841</v>
+        <v>23996697</v>
       </c>
       <c r="I5" t="n">
-        <v>523.153</v>
+        <v>526.176</v>
       </c>
       <c r="J5" t="n">
-        <v>49227</v>
+        <v>29085</v>
       </c>
       <c r="K5" t="n">
-        <v>1.079</v>
+        <v>0.638</v>
       </c>
       <c r="L5" t="n">
-        <v>45308</v>
+        <v>44043</v>
       </c>
       <c r="M5" t="n">
-        <v>0.993</v>
+        <v>0.966</v>
       </c>
       <c r="N5" t="n">
         <v>0.021</v>
@@ -3439,7 +3439,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3449,31 +3449,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H6" t="n">
-        <v>1755063</v>
+        <v>1770914</v>
       </c>
       <c r="I6" t="n">
-        <v>591.303</v>
+        <v>596.643</v>
       </c>
       <c r="J6" t="n">
-        <v>7533</v>
+        <v>8947</v>
       </c>
       <c r="K6" t="n">
-        <v>2.538</v>
+        <v>3.014</v>
       </c>
       <c r="L6" t="n">
-        <v>8749</v>
+        <v>9386</v>
       </c>
       <c r="M6" t="n">
-        <v>2.948</v>
+        <v>3.162</v>
       </c>
       <c r="N6" t="n">
-        <v>0.103</v>
+        <v>0.102</v>
       </c>
       <c r="O6" t="n">
-        <v>9.7</v>
+        <v>9.8</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3496,7 +3496,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3506,27 +3506,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H7" t="n">
-        <v>38607827</v>
+        <v>39191561</v>
       </c>
       <c r="I7" t="n">
-        <v>1497.111</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
+        <v>1519.747</v>
+      </c>
+      <c r="J7" t="n">
+        <v>218881</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.488</v>
+      </c>
       <c r="L7" t="n">
-        <v>198660</v>
+        <v>192277</v>
       </c>
       <c r="M7" t="n">
-        <v>7.704</v>
+        <v>7.456</v>
       </c>
       <c r="N7" t="n">
         <v>0.011</v>
       </c>
       <c r="O7" t="n">
-        <v>93.4</v>
+        <v>87.5</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3549,7 +3553,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3559,31 +3563,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H8" t="n">
-        <v>88109788</v>
+        <v>89088903</v>
       </c>
       <c r="I8" t="n">
-        <v>9743.347</v>
+        <v>9851.619</v>
       </c>
       <c r="J8" t="n">
-        <v>408724</v>
+        <v>326599</v>
       </c>
       <c r="K8" t="n">
-        <v>45.197</v>
+        <v>36.116</v>
       </c>
       <c r="L8" t="n">
-        <v>338951</v>
+        <v>333993</v>
       </c>
       <c r="M8" t="n">
-        <v>37.482</v>
+        <v>36.934</v>
       </c>
       <c r="N8" t="n">
         <v>0.005</v>
       </c>
       <c r="O8" t="n">
-        <v>183.4</v>
+        <v>182.9</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3606,7 +3610,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44472</v>
+        <v>44476</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3616,27 +3620,27 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H9" t="n">
-        <v>4892127</v>
+        <v>4912156</v>
       </c>
       <c r="I9" t="n">
-        <v>478.525</v>
+        <v>480.484</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>8827</v>
+        <v>7575</v>
       </c>
       <c r="M9" t="n">
-        <v>0.863</v>
+        <v>0.741</v>
       </c>
       <c r="N9" t="n">
-        <v>0.083</v>
+        <v>0.081</v>
       </c>
       <c r="O9" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3716,7 +3720,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3726,31 +3730,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="H11" t="n">
-        <v>6506778</v>
+        <v>6550461</v>
       </c>
       <c r="I11" t="n">
-        <v>3721.785</v>
+        <v>3746.771</v>
       </c>
       <c r="J11" t="n">
-        <v>14876</v>
+        <v>14820</v>
       </c>
       <c r="K11" t="n">
-        <v>8.509</v>
+        <v>8.477</v>
       </c>
       <c r="L11" t="n">
-        <v>15537</v>
+        <v>15241</v>
       </c>
       <c r="M11" t="n">
-        <v>8.887</v>
+        <v>8.718</v>
       </c>
       <c r="N11" t="n">
         <v>0.004</v>
       </c>
       <c r="O11" t="n">
-        <v>270.5</v>
+        <v>266.1</v>
       </c>
       <c r="P11" t="s">
         <v>76</v>
@@ -3773,7 +3777,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3783,13 +3787,13 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H12" t="n">
-        <v>9786340</v>
+        <v>9838189</v>
       </c>
       <c r="I12" t="n">
-        <v>58.846</v>
+        <v>59.158</v>
       </c>
       <c r="J12" t="n">
         <v>17283</v>
@@ -3798,16 +3802,16 @@
         <v>0.104</v>
       </c>
       <c r="L12" t="n">
-        <v>23253</v>
+        <v>18610</v>
       </c>
       <c r="M12" t="n">
-        <v>0.14</v>
+        <v>0.112</v>
       </c>
       <c r="N12" t="n">
         <v>0.038</v>
       </c>
       <c r="O12" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3883,7 +3887,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -3893,31 +3897,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="H14" t="n">
-        <v>20202918</v>
+        <v>20349581</v>
       </c>
       <c r="I14" t="n">
-        <v>1736.79</v>
+        <v>1749.398</v>
       </c>
       <c r="J14" t="n">
-        <v>18958</v>
+        <v>50073</v>
       </c>
       <c r="K14" t="n">
-        <v>1.63</v>
+        <v>4.305</v>
       </c>
       <c r="L14" t="n">
-        <v>44276</v>
+        <v>44100</v>
       </c>
       <c r="M14" t="n">
-        <v>3.806</v>
+        <v>3.791</v>
       </c>
       <c r="N14" t="n">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="O14" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -3940,7 +3944,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44467</v>
+        <v>44474</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -3950,27 +3954,27 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>259340</v>
+        <v>270411</v>
       </c>
       <c r="I15" t="n">
-        <v>640.48</v>
+        <v>667.822</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="n">
-        <v>1524</v>
+        <v>1582</v>
       </c>
       <c r="M15" t="n">
-        <v>3.764</v>
+        <v>3.907</v>
       </c>
       <c r="N15" t="n">
-        <v>0.131</v>
+        <v>0.126</v>
       </c>
       <c r="O15" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="P15" t="s">
         <v>102</v>
@@ -4038,7 +4042,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44469</v>
+        <v>44475</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -4048,31 +4052,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H17" t="n">
-        <v>1150014</v>
+        <v>1160858</v>
       </c>
       <c r="I17" t="n">
-        <v>1474.566</v>
+        <v>1488.47</v>
       </c>
       <c r="J17" t="n">
-        <v>1516</v>
+        <v>2156</v>
       </c>
       <c r="K17" t="n">
-        <v>1.944</v>
+        <v>2.764</v>
       </c>
       <c r="L17" t="n">
-        <v>1690</v>
+        <v>1766</v>
       </c>
       <c r="M17" t="n">
-        <v>2.167</v>
+        <v>2.264</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O17" t="n">
-        <v>5909.1</v>
+        <v>1030.3</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4152,7 +4156,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D19" t="s">
         <v>123</v>
@@ -4162,27 +4166,27 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H19" t="n">
-        <v>1235767</v>
+        <v>1246009</v>
       </c>
       <c r="I19" t="n">
-        <v>378.668</v>
+        <v>381.806</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="n">
-        <v>2757</v>
+        <v>2709</v>
       </c>
       <c r="M19" t="n">
-        <v>0.845</v>
+        <v>0.83</v>
       </c>
       <c r="N19" t="n">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
       <c r="O19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="P19" t="s">
         <v>124</v>
@@ -4303,7 +4307,7 @@
         <v>138</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D22" t="s">
         <v>139</v>
@@ -4313,27 +4317,27 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H22" t="n">
-        <v>4866482</v>
+        <v>4928818</v>
       </c>
       <c r="I22" t="n">
-        <v>705.629</v>
+        <v>714.668</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22" t="n">
-        <v>17400</v>
+        <v>18075</v>
       </c>
       <c r="M22" t="n">
-        <v>2.523</v>
+        <v>2.621</v>
       </c>
       <c r="N22" t="n">
-        <v>0.11</v>
+        <v>0.113</v>
       </c>
       <c r="O22" t="n">
-        <v>9.1</v>
+        <v>8.8</v>
       </c>
       <c r="P22" t="s">
         <v>141</v>
@@ -4458,7 +4462,7 @@
         <v>155</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D25" t="s">
         <v>151</v>
@@ -4468,31 +4472,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="H25" t="n">
-        <v>43775201</v>
+        <v>44067861</v>
       </c>
       <c r="I25" t="n">
-        <v>1149.924</v>
+        <v>1157.612</v>
       </c>
       <c r="J25" t="n">
-        <v>98451</v>
+        <v>122731</v>
       </c>
       <c r="K25" t="n">
-        <v>2.586</v>
+        <v>3.224</v>
       </c>
       <c r="L25" t="n">
-        <v>109883</v>
+        <v>104997</v>
       </c>
       <c r="M25" t="n">
-        <v>2.886</v>
+        <v>2.758</v>
       </c>
       <c r="N25" t="n">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="O25" t="n">
-        <v>27.1</v>
+        <v>26.4</v>
       </c>
       <c r="P25" t="s">
         <v>152</v>
@@ -4515,7 +4519,7 @@
         <v>158</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44471</v>
+        <v>44473</v>
       </c>
       <c r="D26" t="s">
         <v>159</v>
@@ -4525,15 +4529,15 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26" t="n">
-        <v>399</v>
+        <v>714</v>
       </c>
       <c r="K26" t="n">
-        <v>0.71</v>
+        <v>1.271</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -4560,7 +4564,7 @@
         <v>164</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D27" t="s">
         <v>165</v>
@@ -4570,31 +4574,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H27" t="n">
-        <v>21819938</v>
+        <v>21959119</v>
       </c>
       <c r="I27" t="n">
-        <v>1135.724</v>
+        <v>1142.968</v>
       </c>
       <c r="J27" t="n">
-        <v>52355</v>
+        <v>64490</v>
       </c>
       <c r="K27" t="n">
-        <v>2.725</v>
+        <v>3.357</v>
       </c>
       <c r="L27" t="n">
-        <v>56847</v>
+        <v>55820</v>
       </c>
       <c r="M27" t="n">
-        <v>2.959</v>
+        <v>2.905</v>
       </c>
       <c r="N27" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="O27" t="n">
-        <v>81.3</v>
+        <v>76.3</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -4662,7 +4666,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D29" t="s">
         <v>178</v>
@@ -4672,31 +4676,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="H29" t="n">
-        <v>25656616</v>
+        <v>25788034</v>
       </c>
       <c r="I29" t="n">
-        <v>500.462</v>
+        <v>503.026</v>
       </c>
       <c r="J29" t="n">
-        <v>42124</v>
+        <v>48908</v>
       </c>
       <c r="K29" t="n">
-        <v>0.822</v>
+        <v>0.954</v>
       </c>
       <c r="L29" t="n">
-        <v>43995</v>
+        <v>42606</v>
       </c>
       <c r="M29" t="n">
-        <v>0.858</v>
+        <v>0.831</v>
       </c>
       <c r="N29" t="n">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="O29" t="n">
-        <v>24.4</v>
+        <v>25.6</v>
       </c>
       <c r="P29" t="s">
         <v>179</v>
@@ -4719,7 +4723,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4729,31 +4733,31 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H30" t="n">
-        <v>1888468</v>
+        <v>1916650</v>
       </c>
       <c r="I30" t="n">
-        <v>367.474</v>
+        <v>372.958</v>
       </c>
       <c r="J30" t="n">
-        <v>1246</v>
+        <v>6594</v>
       </c>
       <c r="K30" t="n">
-        <v>0.242</v>
+        <v>1.283</v>
       </c>
       <c r="L30" t="n">
-        <v>3026</v>
+        <v>5989</v>
       </c>
       <c r="M30" t="n">
-        <v>0.589</v>
+        <v>1.165</v>
       </c>
       <c r="N30" t="n">
-        <v>0.483</v>
+        <v>0.239</v>
       </c>
       <c r="O30" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="P30" t="s">
         <v>185</v>
@@ -4776,7 +4780,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44468</v>
+        <v>44474</v>
       </c>
       <c r="D31" t="s">
         <v>189</v>
@@ -4786,27 +4790,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="H31" t="n">
-        <v>1011465</v>
+        <v>1029903</v>
       </c>
       <c r="I31" t="n">
-        <v>37.387</v>
-      </c>
-      <c r="J31"/>
-      <c r="K31"/>
+        <v>38.069</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2294</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.085</v>
+      </c>
       <c r="L31" t="n">
-        <v>3420</v>
+        <v>3156</v>
       </c>
       <c r="M31" t="n">
-        <v>0.126</v>
+        <v>0.117</v>
       </c>
       <c r="N31" t="n">
-        <v>0.03</v>
+        <v>0.021</v>
       </c>
       <c r="O31" t="n">
-        <v>32.8</v>
+        <v>47.9</v>
       </c>
       <c r="P31" t="s">
         <v>190</v>
@@ -4829,7 +4837,7 @@
         <v>194</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44474</v>
+        <v>44476</v>
       </c>
       <c r="D32" t="s">
         <v>195</v>
@@ -4839,28 +4847,32 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H32" t="n">
-        <v>2864396</v>
+        <v>2885071</v>
       </c>
       <c r="I32" t="n">
-        <v>701.773</v>
+        <v>706.838</v>
       </c>
       <c r="J32" t="n">
-        <v>9320</v>
+        <v>10592</v>
       </c>
       <c r="K32" t="n">
-        <v>2.283</v>
+        <v>2.595</v>
       </c>
       <c r="L32" t="n">
-        <v>8741</v>
+        <v>8863</v>
       </c>
       <c r="M32" t="n">
-        <v>2.142</v>
-      </c>
-      <c r="N32"/>
-      <c r="O32"/>
+        <v>2.171</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="O32" t="n">
+        <v>7</v>
+      </c>
       <c r="P32" t="s">
         <v>196</v>
       </c>
@@ -4941,7 +4953,7 @@
         <v>207</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D34" t="s">
         <v>208</v>
@@ -4951,31 +4963,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H34" t="n">
-        <v>13474677</v>
+        <v>13631719</v>
       </c>
       <c r="I34" t="n">
-        <v>15038.618</v>
+        <v>15213.887</v>
       </c>
       <c r="J34" t="n">
-        <v>63823</v>
+        <v>56507</v>
       </c>
       <c r="K34" t="n">
-        <v>71.231</v>
+        <v>63.065</v>
       </c>
       <c r="L34" t="n">
-        <v>49834</v>
+        <v>49324</v>
       </c>
       <c r="M34" t="n">
-        <v>55.618</v>
+        <v>55.049</v>
       </c>
       <c r="N34" t="n">
         <v>0.002</v>
       </c>
       <c r="O34" t="n">
-        <v>477.2</v>
+        <v>480.9</v>
       </c>
       <c r="P34" t="s">
         <v>36</v>
@@ -4998,7 +5010,7 @@
         <v>211</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D35" t="s">
         <v>212</v>
@@ -5008,27 +5020,27 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="n">
-        <v>59173</v>
+        <v>68257</v>
       </c>
       <c r="K35" t="n">
-        <v>5.518</v>
+        <v>6.365</v>
       </c>
       <c r="L35" t="n">
-        <v>61795</v>
+        <v>61577</v>
       </c>
       <c r="M35" t="n">
-        <v>5.762</v>
+        <v>5.742</v>
       </c>
       <c r="N35" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="O35" t="n">
-        <v>90.9</v>
+        <v>76.9</v>
       </c>
       <c r="P35" t="s">
         <v>36</v>
@@ -5104,7 +5116,7 @@
         <v>221</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D37" t="s">
         <v>222</v>
@@ -5114,31 +5126,31 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="H37" t="n">
-        <v>41232559</v>
+        <v>41347033</v>
       </c>
       <c r="I37" t="n">
-        <v>7092.795</v>
+        <v>7112.487</v>
       </c>
       <c r="J37" t="n">
-        <v>22601</v>
+        <v>26700</v>
       </c>
       <c r="K37" t="n">
-        <v>3.888</v>
+        <v>4.593</v>
       </c>
       <c r="L37" t="n">
-        <v>33994</v>
+        <v>33754</v>
       </c>
       <c r="M37" t="n">
-        <v>5.848</v>
+        <v>5.806</v>
       </c>
       <c r="N37" t="n">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="O37" t="n">
-        <v>76.4</v>
+        <v>74</v>
       </c>
       <c r="P37" t="s">
         <v>223</v>
@@ -5214,7 +5226,7 @@
         <v>233</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44470</v>
+        <v>44474</v>
       </c>
       <c r="D39" t="s">
         <v>234</v>
@@ -5226,31 +5238,31 @@
         <v>236</v>
       </c>
       <c r="G39" t="n">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H39" t="n">
-        <v>1752319</v>
+        <v>1761061</v>
       </c>
       <c r="I39" t="n">
-        <v>97.958</v>
+        <v>98.447</v>
       </c>
       <c r="J39" t="n">
-        <v>3921</v>
+        <v>3162</v>
       </c>
       <c r="K39" t="n">
-        <v>0.219</v>
+        <v>0.177</v>
       </c>
       <c r="L39" t="n">
-        <v>3311</v>
+        <v>3118</v>
       </c>
       <c r="M39" t="n">
-        <v>0.185</v>
+        <v>0.174</v>
       </c>
       <c r="N39" t="n">
-        <v>0.06</v>
+        <v>0.105</v>
       </c>
       <c r="O39" t="n">
-        <v>16.8</v>
+        <v>9.5</v>
       </c>
       <c r="P39" t="s">
         <v>237</v>
@@ -5330,7 +5342,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44473</v>
+        <v>44477</v>
       </c>
       <c r="D41" t="s">
         <v>248</v>
@@ -5340,28 +5352,24 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H41" t="n">
-        <v>225262</v>
+        <v>227920</v>
       </c>
       <c r="I41" t="n">
-        <v>155.365</v>
+        <v>157.198</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>757</v>
+        <v>614</v>
       </c>
       <c r="M41" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="O41" t="n">
-        <v>7.3</v>
-      </c>
+        <v>0.423</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
       <c r="P41" t="s">
         <v>250</v>
       </c>
@@ -5383,7 +5391,7 @@
         <v>253</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D42" t="s">
         <v>254</v>
@@ -5393,31 +5401,31 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="H42" t="n">
-        <v>1952053</v>
+        <v>1972386</v>
       </c>
       <c r="I42" t="n">
-        <v>1473.039</v>
+        <v>1488.382</v>
       </c>
       <c r="J42" t="n">
-        <v>6239</v>
+        <v>7082</v>
       </c>
       <c r="K42" t="n">
-        <v>4.708</v>
+        <v>5.344</v>
       </c>
       <c r="L42" t="n">
-        <v>5590</v>
+        <v>5803</v>
       </c>
       <c r="M42" t="n">
-        <v>4.218</v>
+        <v>4.379</v>
       </c>
       <c r="N42" t="n">
-        <v>0.127</v>
+        <v>0.136</v>
       </c>
       <c r="O42" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="P42" t="s">
         <v>255</v>
@@ -5554,7 +5562,7 @@
         <v>268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44472</v>
+        <v>44474</v>
       </c>
       <c r="D45" t="s">
         <v>269</v>
@@ -5564,31 +5572,31 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H45" t="n">
-        <v>7133790</v>
+        <v>7172545</v>
       </c>
       <c r="I45" t="n">
-        <v>1285.747</v>
+        <v>1292.732</v>
       </c>
       <c r="J45" t="n">
-        <v>4490</v>
+        <v>10118</v>
       </c>
       <c r="K45" t="n">
-        <v>0.809</v>
+        <v>1.824</v>
       </c>
       <c r="L45" t="n">
-        <v>8710</v>
+        <v>10766</v>
       </c>
       <c r="M45" t="n">
-        <v>1.57</v>
+        <v>1.94</v>
       </c>
       <c r="N45" t="n">
-        <v>0.044</v>
+        <v>0.052</v>
       </c>
       <c r="O45" t="n">
-        <v>22.5</v>
+        <v>19.3</v>
       </c>
       <c r="P45" t="s">
         <v>271</v>
@@ -5611,7 +5619,7 @@
         <v>274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44470</v>
+        <v>44473</v>
       </c>
       <c r="D46" t="s">
         <v>275</v>
@@ -5621,27 +5629,27 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" t="n">
-        <v>705448</v>
+        <v>512152</v>
       </c>
       <c r="K46" t="n">
-        <v>10.441</v>
+        <v>7.58</v>
       </c>
       <c r="L46" t="n">
-        <v>480872</v>
+        <v>470864</v>
       </c>
       <c r="M46" t="n">
-        <v>7.117</v>
+        <v>6.969</v>
       </c>
       <c r="N46" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="O46" t="n">
-        <v>90.9</v>
+        <v>100</v>
       </c>
       <c r="P46" t="s">
         <v>276</v>
@@ -5823,7 +5831,7 @@
         <v>298</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44465</v>
+        <v>44472</v>
       </c>
       <c r="D50" t="s">
         <v>299</v>
@@ -5833,27 +5841,27 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H50" t="n">
-        <v>74240045</v>
+        <v>75158696</v>
       </c>
       <c r="I50" t="n">
-        <v>884.859</v>
+        <v>895.808</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>134487</v>
+        <v>128454</v>
       </c>
       <c r="M50" t="n">
-        <v>1.603</v>
+        <v>1.531</v>
       </c>
       <c r="N50" t="n">
-        <v>0.064</v>
+        <v>0.066</v>
       </c>
       <c r="O50" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="P50" t="s">
         <v>300</v>
@@ -5933,7 +5941,7 @@
         <v>310</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44472</v>
+        <v>44476</v>
       </c>
       <c r="D52" t="s">
         <v>311</v>
@@ -5943,31 +5951,31 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H52" t="n">
-        <v>20685700</v>
+        <v>21474989</v>
       </c>
       <c r="I52" t="n">
-        <v>1994.62</v>
+        <v>2070.727</v>
       </c>
       <c r="J52" t="n">
-        <v>150507</v>
+        <v>148334</v>
       </c>
       <c r="K52" t="n">
-        <v>14.513</v>
+        <v>14.303</v>
       </c>
       <c r="L52" t="n">
-        <v>194691</v>
+        <v>190888</v>
       </c>
       <c r="M52" t="n">
-        <v>18.773</v>
+        <v>18.406</v>
       </c>
       <c r="N52" t="n">
         <v>0.011</v>
       </c>
       <c r="O52" t="n">
-        <v>88.8</v>
+        <v>87.5</v>
       </c>
       <c r="P52" t="s">
         <v>313</v>
@@ -5990,7 +5998,7 @@
         <v>317</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D53" t="s">
         <v>318</v>
@@ -6000,31 +6008,31 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="H53" t="n">
-        <v>2594689</v>
+        <v>2641776</v>
       </c>
       <c r="I53" t="n">
-        <v>142.176</v>
+        <v>144.756</v>
       </c>
       <c r="J53" t="n">
-        <v>4721</v>
+        <v>16323</v>
       </c>
       <c r="K53" t="n">
-        <v>0.259</v>
+        <v>0.894</v>
       </c>
       <c r="L53" t="n">
-        <v>12954</v>
+        <v>12561</v>
       </c>
       <c r="M53" t="n">
-        <v>0.71</v>
+        <v>0.688</v>
       </c>
       <c r="N53" t="n">
-        <v>0.184</v>
+        <v>0.169</v>
       </c>
       <c r="O53" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="P53" t="s">
         <v>320</v>
@@ -6100,7 +6108,7 @@
         <v>331</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D55" t="s">
         <v>332</v>
@@ -6112,31 +6120,31 @@
         <v>334</v>
       </c>
       <c r="G55" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H55" t="n">
-        <v>6529352</v>
+        <v>6565775</v>
       </c>
       <c r="I55" t="n">
-        <v>677.729</v>
+        <v>681.51</v>
       </c>
       <c r="J55" t="n">
-        <v>32255</v>
+        <v>16194</v>
       </c>
       <c r="K55" t="n">
-        <v>3.348</v>
+        <v>1.681</v>
       </c>
       <c r="L55" t="n">
-        <v>12325</v>
+        <v>11976</v>
       </c>
       <c r="M55" t="n">
-        <v>1.279</v>
+        <v>1.243</v>
       </c>
       <c r="N55" t="n">
-        <v>0.042</v>
+        <v>0.047</v>
       </c>
       <c r="O55" t="n">
-        <v>23.9</v>
+        <v>21.3</v>
       </c>
       <c r="P55" t="s">
         <v>333</v>
@@ -6159,7 +6167,7 @@
         <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
@@ -6169,25 +6177,25 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="H56" t="n">
-        <v>640762</v>
+        <v>645951</v>
       </c>
       <c r="I56" t="n">
-        <v>1866.152</v>
+        <v>1881.265</v>
       </c>
       <c r="J56" t="n">
-        <v>918</v>
+        <v>1751</v>
       </c>
       <c r="K56" t="n">
-        <v>2.674</v>
+        <v>5.1</v>
       </c>
       <c r="L56" t="n">
-        <v>1396</v>
+        <v>1431</v>
       </c>
       <c r="M56" t="n">
-        <v>4.066</v>
+        <v>4.168</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
@@ -6212,7 +6220,7 @@
         <v>343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D57" t="s">
         <v>344</v>
@@ -6224,25 +6232,25 @@
         <v>346</v>
       </c>
       <c r="G57" t="n">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H57" t="n">
-        <v>575394042</v>
+        <v>580043190</v>
       </c>
       <c r="I57" t="n">
-        <v>412.94</v>
+        <v>416.276</v>
       </c>
       <c r="J57" t="n">
-        <v>1141642</v>
+        <v>1385706</v>
       </c>
       <c r="K57" t="n">
-        <v>0.819</v>
+        <v>0.994</v>
       </c>
       <c r="L57" t="n">
-        <v>1380573</v>
+        <v>1366550</v>
       </c>
       <c r="M57" t="n">
-        <v>0.991</v>
+        <v>0.981</v>
       </c>
       <c r="N57"/>
       <c r="O57"/>
@@ -6320,7 +6328,7 @@
         <v>355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="D59" t="s">
         <v>356</v>
@@ -6330,24 +6338,28 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H59" t="n">
-        <v>32619228</v>
+        <v>32829944</v>
       </c>
       <c r="I59" t="n">
-        <v>383.626</v>
-      </c>
-      <c r="J59"/>
-      <c r="K59"/>
+        <v>386.104</v>
+      </c>
+      <c r="J59" t="n">
+        <v>106347</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.251</v>
+      </c>
       <c r="L59" t="n">
-        <v>107200</v>
+        <v>106116</v>
       </c>
       <c r="M59" t="n">
-        <v>1.261</v>
+        <v>1.248</v>
       </c>
       <c r="N59" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="O59" t="n">
         <v>8.3</v>
@@ -6373,7 +6385,7 @@
         <v>361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="D60" t="s">
         <v>362</v>
@@ -6383,31 +6395,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H60" t="n">
-        <v>15291079</v>
+        <v>15338457</v>
       </c>
       <c r="I60" t="n">
-        <v>371.329</v>
+        <v>372.479</v>
       </c>
       <c r="J60" t="n">
-        <v>16757</v>
+        <v>24804</v>
       </c>
       <c r="K60" t="n">
-        <v>0.407</v>
+        <v>0.602</v>
       </c>
       <c r="L60" t="n">
-        <v>19469</v>
+        <v>21054</v>
       </c>
       <c r="M60" t="n">
-        <v>0.473</v>
+        <v>0.511</v>
       </c>
       <c r="N60" t="n">
-        <v>0.113</v>
+        <v>0.107</v>
       </c>
       <c r="O60" t="n">
-        <v>8.8</v>
+        <v>9.4</v>
       </c>
       <c r="P60" t="s">
         <v>364</v>
@@ -6430,7 +6442,7 @@
         <v>368</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D61" t="s">
         <v>369</v>
@@ -6440,31 +6452,31 @@
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="H61" t="n">
-        <v>7524930</v>
+        <v>7594120</v>
       </c>
       <c r="I61" t="n">
-        <v>1510.15</v>
+        <v>1524.035</v>
       </c>
       <c r="J61" t="n">
-        <v>13333</v>
+        <v>21849</v>
       </c>
       <c r="K61" t="n">
-        <v>2.676</v>
+        <v>4.385</v>
       </c>
       <c r="L61" t="n">
-        <v>19321</v>
+        <v>19233</v>
       </c>
       <c r="M61" t="n">
-        <v>3.877</v>
+        <v>3.86</v>
       </c>
       <c r="N61" t="n">
-        <v>0.065</v>
+        <v>0.059</v>
       </c>
       <c r="O61" t="n">
-        <v>15.4</v>
+        <v>17</v>
       </c>
       <c r="P61" t="s">
         <v>370</v>
@@ -6487,7 +6499,7 @@
         <v>374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D62" t="s">
         <v>375</v>
@@ -6497,31 +6509,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="H62" t="n">
-        <v>27634757</v>
+        <v>27963824</v>
       </c>
       <c r="I62" t="n">
-        <v>3143.966</v>
+        <v>3181.403</v>
       </c>
       <c r="J62" t="n">
-        <v>126497</v>
+        <v>103220</v>
       </c>
       <c r="K62" t="n">
-        <v>14.391</v>
+        <v>11.743</v>
       </c>
       <c r="L62" t="n">
-        <v>101882</v>
+        <v>105628</v>
       </c>
       <c r="M62" t="n">
-        <v>11.591</v>
+        <v>12.017</v>
       </c>
       <c r="N62" t="n">
-        <v>0.033</v>
+        <v>0.025</v>
       </c>
       <c r="O62" t="n">
-        <v>30.7</v>
+        <v>39.4</v>
       </c>
       <c r="P62" t="s">
         <v>36</v>
@@ -6544,7 +6556,7 @@
         <v>380</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D63" t="s">
         <v>381</v>
@@ -6556,31 +6568,31 @@
         <v>383</v>
       </c>
       <c r="G63" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H63" t="n">
-        <v>34528037</v>
+        <v>34626978</v>
       </c>
       <c r="I63" t="n">
-        <v>571.964</v>
+        <v>573.603</v>
       </c>
       <c r="J63" t="n">
-        <v>95479</v>
+        <v>53955</v>
       </c>
       <c r="K63" t="n">
-        <v>1.582</v>
+        <v>0.894</v>
       </c>
       <c r="L63" t="n">
-        <v>65731</v>
+        <v>53345</v>
       </c>
       <c r="M63" t="n">
-        <v>1.089</v>
+        <v>0.884</v>
       </c>
       <c r="N63" t="n">
-        <v>0.047</v>
+        <v>0.053</v>
       </c>
       <c r="O63" t="n">
-        <v>21.3</v>
+        <v>18.7</v>
       </c>
       <c r="P63" t="s">
         <v>384</v>
@@ -6603,7 +6615,7 @@
         <v>387</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44472</v>
+        <v>44476</v>
       </c>
       <c r="D64" t="s">
         <v>381</v>
@@ -6615,31 +6627,31 @@
         <v>383</v>
       </c>
       <c r="G64" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H64" t="n">
-        <v>93400967</v>
+        <v>94444592</v>
       </c>
       <c r="I64" t="n">
-        <v>1547.207</v>
+        <v>1564.495</v>
       </c>
       <c r="J64" t="n">
-        <v>285960</v>
+        <v>297356</v>
       </c>
       <c r="K64" t="n">
-        <v>4.737</v>
+        <v>4.926</v>
       </c>
       <c r="L64" t="n">
-        <v>286016</v>
+        <v>282707</v>
       </c>
       <c r="M64" t="n">
-        <v>4.738</v>
+        <v>4.683</v>
       </c>
       <c r="N64" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="O64" t="n">
-        <v>92.2</v>
+        <v>99.3</v>
       </c>
       <c r="P64" t="s">
         <v>384</v>
@@ -6662,7 +6674,7 @@
         <v>390</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D65" t="s">
         <v>391</v>
@@ -6672,27 +6684,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H65" t="n">
-        <v>607591</v>
+        <v>611197</v>
       </c>
       <c r="I65" t="n">
-        <v>204.338</v>
-      </c>
-      <c r="J65"/>
-      <c r="K65"/>
+        <v>205.551</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.494</v>
+      </c>
       <c r="L65" t="n">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="M65" t="n">
-        <v>0.515</v>
+        <v>0.516</v>
       </c>
       <c r="N65" t="n">
-        <v>0.18</v>
+        <v>0.165</v>
       </c>
       <c r="O65" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="P65" t="s">
         <v>392</v>
@@ -6715,7 +6731,7 @@
         <v>396</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D66" t="s">
         <v>397</v>
@@ -6725,31 +6741,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="H66" t="n">
-        <v>23956810</v>
+        <v>24146710</v>
       </c>
       <c r="I66" t="n">
-        <v>190.057</v>
+        <v>191.563</v>
       </c>
       <c r="J66" t="n">
-        <v>64378</v>
+        <v>59576</v>
       </c>
       <c r="K66" t="n">
-        <v>0.511</v>
+        <v>0.473</v>
       </c>
       <c r="L66" t="n">
-        <v>64516</v>
+        <v>58615</v>
       </c>
       <c r="M66" t="n">
-        <v>0.512</v>
+        <v>0.465</v>
       </c>
       <c r="N66" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="O66" t="n">
-        <v>47.3</v>
+        <v>55.8</v>
       </c>
       <c r="P66" t="s">
         <v>398</v>
@@ -6772,7 +6788,7 @@
         <v>402</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="D67" t="s">
         <v>403</v>
@@ -6782,31 +6798,31 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H67" t="n">
-        <v>10179551</v>
+        <v>10237614</v>
       </c>
       <c r="I67" t="n">
-        <v>991.287</v>
+        <v>996.941</v>
       </c>
       <c r="J67" t="n">
-        <v>31040</v>
+        <v>31208</v>
       </c>
       <c r="K67" t="n">
-        <v>3.023</v>
+        <v>3.039</v>
       </c>
       <c r="L67" t="n">
-        <v>27659</v>
+        <v>27853</v>
       </c>
       <c r="M67" t="n">
-        <v>2.693</v>
+        <v>2.712</v>
       </c>
       <c r="N67" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="O67" t="n">
-        <v>28.9</v>
+        <v>27.9</v>
       </c>
       <c r="P67" t="s">
         <v>404</v>
@@ -6939,7 +6955,7 @@
         <v>418</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44472</v>
+        <v>44474</v>
       </c>
       <c r="D70" t="s">
         <v>419</v>
@@ -6949,31 +6965,31 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H70" t="n">
-        <v>1211314</v>
+        <v>1217376</v>
       </c>
       <c r="I70" t="n">
-        <v>682.285</v>
+        <v>685.7</v>
       </c>
       <c r="J70" t="n">
-        <v>1515</v>
+        <v>2777</v>
       </c>
       <c r="K70" t="n">
-        <v>0.853</v>
+        <v>1.564</v>
       </c>
       <c r="L70" t="n">
-        <v>3335</v>
+        <v>2960</v>
       </c>
       <c r="M70" t="n">
-        <v>1.878</v>
+        <v>1.667</v>
       </c>
       <c r="N70" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="O70" t="n">
-        <v>72.3</v>
+        <v>74.8</v>
       </c>
       <c r="P70" t="s">
         <v>421</v>
@@ -6996,7 +7012,7 @@
         <v>424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D71" t="s">
         <v>425</v>
@@ -7006,31 +7022,31 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H71" t="n">
-        <v>4317146</v>
+        <v>4389988</v>
       </c>
       <c r="I71" t="n">
-        <v>997.365</v>
+        <v>1014.193</v>
       </c>
       <c r="J71" t="n">
-        <v>28538</v>
+        <v>17528</v>
       </c>
       <c r="K71" t="n">
-        <v>6.593</v>
+        <v>4.049</v>
       </c>
       <c r="L71" t="n">
-        <v>19919</v>
+        <v>22560</v>
       </c>
       <c r="M71" t="n">
-        <v>4.602</v>
+        <v>5.212</v>
       </c>
       <c r="N71" t="n">
         <v>0.002</v>
       </c>
       <c r="O71" t="n">
-        <v>437.1</v>
+        <v>478.5</v>
       </c>
       <c r="P71" t="s">
         <v>426</v>
@@ -7053,7 +7069,7 @@
         <v>430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D72" t="s">
         <v>431</v>
@@ -7063,27 +7079,27 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H72" t="n">
-        <v>576260</v>
+        <v>601260</v>
       </c>
       <c r="I72" t="n">
-        <v>78.091</v>
+        <v>81.479</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="n">
-        <v>3290</v>
+        <v>5735</v>
       </c>
       <c r="M72" t="n">
-        <v>0.446</v>
+        <v>0.777</v>
       </c>
       <c r="N72" t="n">
-        <v>0.134</v>
+        <v>0.075</v>
       </c>
       <c r="O72" t="n">
-        <v>7.5</v>
+        <v>13.2</v>
       </c>
       <c r="P72" t="s">
         <v>432</v>
@@ -7214,7 +7230,7 @@
         <v>447</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="D75" t="s">
         <v>448</v>
@@ -7224,15 +7240,15 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="n">
-        <v>4906</v>
+        <v>5403</v>
       </c>
       <c r="K75" t="n">
-        <v>0.705</v>
+        <v>0.776</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
@@ -7259,7 +7275,7 @@
         <v>453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44471</v>
+        <v>44474</v>
       </c>
       <c r="D76" t="s">
         <v>454</v>
@@ -7269,25 +7285,25 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H76" t="n">
-        <v>68590</v>
+        <v>69015</v>
       </c>
       <c r="I76" t="n">
-        <v>1793.015</v>
+        <v>1804.125</v>
       </c>
       <c r="J76" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K76" t="n">
-        <v>3.059</v>
+        <v>3.32</v>
       </c>
       <c r="L76" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M76" t="n">
-        <v>5.176</v>
+        <v>5.254</v>
       </c>
       <c r="N76" t="n">
         <v>0.006</v>
@@ -7373,7 +7389,7 @@
         <v>464</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44471</v>
+        <v>44475</v>
       </c>
       <c r="D78" t="s">
         <v>465</v>
@@ -7383,31 +7399,31 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H78" t="n">
-        <v>3528198</v>
+        <v>3535512</v>
       </c>
       <c r="I78" t="n">
-        <v>5557.845</v>
+        <v>5569.367</v>
       </c>
       <c r="J78" t="n">
-        <v>1840</v>
+        <v>2753</v>
       </c>
       <c r="K78" t="n">
-        <v>2.898</v>
+        <v>4.337</v>
       </c>
       <c r="L78" t="n">
-        <v>2087</v>
+        <v>2047</v>
       </c>
       <c r="M78" t="n">
-        <v>3.288</v>
+        <v>3.225</v>
       </c>
       <c r="N78" t="n">
-        <v>0.039</v>
+        <v>0.045</v>
       </c>
       <c r="O78" t="n">
-        <v>25.9</v>
+        <v>22</v>
       </c>
       <c r="P78" t="s">
         <v>466</v>
@@ -7599,7 +7615,7 @@
         <v>488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D82" t="s">
         <v>489</v>
@@ -7609,31 +7625,31 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H82" t="n">
-        <v>1532557</v>
+        <v>1543706</v>
       </c>
       <c r="I82" t="n">
-        <v>2819.17</v>
+        <v>2839.678</v>
       </c>
       <c r="J82" t="n">
-        <v>5668</v>
+        <v>3761</v>
       </c>
       <c r="K82" t="n">
-        <v>10.426</v>
+        <v>6.918</v>
       </c>
       <c r="L82" t="n">
-        <v>4247</v>
+        <v>3992</v>
       </c>
       <c r="M82" t="n">
-        <v>7.812</v>
+        <v>7.343</v>
       </c>
       <c r="N82" t="n">
         <v>0.02</v>
       </c>
       <c r="O82" t="n">
-        <v>48.8</v>
+        <v>50.1</v>
       </c>
       <c r="P82" t="s">
         <v>490</v>
@@ -7656,7 +7672,7 @@
         <v>494</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D83" t="s">
         <v>495</v>
@@ -7666,31 +7682,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H83" t="n">
-        <v>1295106</v>
+        <v>1300358</v>
       </c>
       <c r="I83" t="n">
-        <v>2516.9</v>
+        <v>2527.106</v>
       </c>
       <c r="J83" t="n">
-        <v>1757</v>
+        <v>1786</v>
       </c>
       <c r="K83" t="n">
-        <v>3.415</v>
+        <v>3.471</v>
       </c>
       <c r="L83" t="n">
-        <v>2468</v>
+        <v>2056</v>
       </c>
       <c r="M83" t="n">
-        <v>4.796</v>
+        <v>3.996</v>
       </c>
       <c r="N83" t="n">
-        <v>0.007</v>
+        <v>0.009</v>
       </c>
       <c r="O83" t="n">
-        <v>146.4</v>
+        <v>107.4</v>
       </c>
       <c r="P83" t="s">
         <v>497</v>
@@ -7762,7 +7778,7 @@
         <v>507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D85" t="s">
         <v>508</v>
@@ -7772,31 +7788,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H85" t="n">
-        <v>10228325</v>
+        <v>10314994</v>
       </c>
       <c r="I85" t="n">
-        <v>78.521</v>
+        <v>79.186</v>
       </c>
       <c r="J85" t="n">
-        <v>1944</v>
+        <v>9629</v>
       </c>
       <c r="K85" t="n">
-        <v>0.015</v>
+        <v>0.074</v>
       </c>
       <c r="L85" t="n">
-        <v>16032</v>
+        <v>14617</v>
       </c>
       <c r="M85" t="n">
-        <v>0.123</v>
+        <v>0.112</v>
       </c>
       <c r="N85" t="n">
-        <v>0.282</v>
+        <v>0.266</v>
       </c>
       <c r="O85" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P85" t="s">
         <v>510</v>
@@ -7819,7 +7835,7 @@
         <v>513</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D86" t="s">
         <v>514</v>
@@ -7829,27 +7845,27 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H86" t="n">
-        <v>1813539</v>
+        <v>1822979</v>
       </c>
       <c r="I86" t="n">
-        <v>450.678</v>
+        <v>453.024</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86" t="n">
-        <v>7968</v>
+        <v>6657</v>
       </c>
       <c r="M86" t="n">
-        <v>1.98</v>
+        <v>1.654</v>
       </c>
       <c r="N86" t="n">
-        <v>0.148</v>
+        <v>0.189</v>
       </c>
       <c r="O86" t="n">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="P86" t="s">
         <v>515</v>
@@ -7872,7 +7888,7 @@
         <v>518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D87" t="s">
         <v>519</v>
@@ -7882,21 +7898,25 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H87" t="n">
-        <v>4022930</v>
+        <v>4051769</v>
       </c>
       <c r="I87" t="n">
-        <v>1208.348</v>
-      </c>
-      <c r="J87"/>
-      <c r="K87"/>
+        <v>1217.01</v>
+      </c>
+      <c r="J87" t="n">
+        <v>9837</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2.955</v>
+      </c>
       <c r="L87" t="n">
-        <v>6077</v>
+        <v>6553</v>
       </c>
       <c r="M87" t="n">
-        <v>1.825</v>
+        <v>1.968</v>
       </c>
       <c r="N87"/>
       <c r="O87"/>
@@ -7921,7 +7941,7 @@
         <v>522</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="D88" t="s">
         <v>523</v>
@@ -7931,31 +7951,31 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H88" t="n">
-        <v>8826529</v>
+        <v>8853903</v>
       </c>
       <c r="I88" t="n">
-        <v>236.352</v>
+        <v>237.085</v>
       </c>
       <c r="J88" t="n">
-        <v>6600</v>
+        <v>13346</v>
       </c>
       <c r="K88" t="n">
-        <v>0.177</v>
+        <v>0.357</v>
       </c>
       <c r="L88" t="n">
-        <v>15021</v>
+        <v>13605</v>
       </c>
       <c r="M88" t="n">
-        <v>0.402</v>
+        <v>0.364</v>
       </c>
       <c r="N88" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
       <c r="O88" t="n">
-        <v>17.9</v>
+        <v>19.1</v>
       </c>
       <c r="P88" t="s">
         <v>524</v>
@@ -8092,7 +8112,7 @@
         <v>540</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44468</v>
+        <v>44474</v>
       </c>
       <c r="D91" t="s">
         <v>541</v>
@@ -8102,27 +8122,31 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="H91" t="n">
-        <v>703334</v>
+        <v>713463</v>
       </c>
       <c r="I91" t="n">
-        <v>271.836</v>
-      </c>
-      <c r="J91"/>
-      <c r="K91"/>
+        <v>275.751</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1316</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.509</v>
+      </c>
       <c r="L91" t="n">
-        <v>1641</v>
+        <v>1678</v>
       </c>
       <c r="M91" t="n">
-        <v>0.634</v>
+        <v>0.649</v>
       </c>
       <c r="N91" t="n">
-        <v>0.04</v>
+        <v>0.037</v>
       </c>
       <c r="O91" t="n">
-        <v>25.1</v>
+        <v>27.3</v>
       </c>
       <c r="P91" t="s">
         <v>543</v>
@@ -8145,7 +8169,7 @@
         <v>547</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="D92" t="s">
         <v>548</v>
@@ -8155,31 +8179,31 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H92" t="n">
-        <v>4234056</v>
+        <v>4256803</v>
       </c>
       <c r="I92" t="n">
-        <v>142.681</v>
+        <v>143.448</v>
       </c>
       <c r="J92" t="n">
-        <v>5893</v>
+        <v>11165</v>
       </c>
       <c r="K92" t="n">
-        <v>0.199</v>
+        <v>0.376</v>
       </c>
       <c r="L92" t="n">
-        <v>8508</v>
+        <v>8568</v>
       </c>
       <c r="M92" t="n">
-        <v>0.287</v>
+        <v>0.289</v>
       </c>
       <c r="N92" t="n">
-        <v>0.095</v>
+        <v>0.091</v>
       </c>
       <c r="O92" t="n">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="P92" t="s">
         <v>549</v>
@@ -8202,7 +8226,7 @@
         <v>553</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44465</v>
+        <v>44472</v>
       </c>
       <c r="D93" t="s">
         <v>554</v>
@@ -8212,27 +8236,27 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H93" t="n">
-        <v>13131813</v>
+        <v>13409992</v>
       </c>
       <c r="I93" t="n">
-        <v>764.674</v>
+        <v>780.872</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>11941</v>
+        <v>16240</v>
       </c>
       <c r="M93" t="n">
-        <v>0.695</v>
+        <v>0.946</v>
       </c>
       <c r="N93" t="n">
-        <v>0.051</v>
+        <v>0.063</v>
       </c>
       <c r="O93" t="n">
-        <v>19.6</v>
+        <v>15.9</v>
       </c>
       <c r="P93" t="s">
         <v>556</v>
@@ -8255,7 +8279,7 @@
         <v>560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D94" t="s">
         <v>561</v>
@@ -8265,25 +8289,25 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H94" t="n">
-        <v>3465057</v>
+        <v>3543083</v>
       </c>
       <c r="I94" t="n">
-        <v>712.881</v>
+        <v>728.933</v>
       </c>
       <c r="J94" t="n">
-        <v>14905</v>
+        <v>29927</v>
       </c>
       <c r="K94" t="n">
-        <v>3.066</v>
+        <v>6.157</v>
       </c>
       <c r="L94" t="n">
-        <v>16938</v>
+        <v>20583</v>
       </c>
       <c r="M94" t="n">
-        <v>3.485</v>
+        <v>4.235</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -8414,7 +8438,7 @@
         <v>576</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44471</v>
+        <v>44474</v>
       </c>
       <c r="D97" t="s">
         <v>577</v>
@@ -8424,31 +8448,31 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H97" t="n">
-        <v>7801540</v>
+        <v>7831123</v>
       </c>
       <c r="I97" t="n">
-        <v>1427.382</v>
+        <v>1432.794</v>
       </c>
       <c r="J97" t="n">
-        <v>4077</v>
+        <v>10274</v>
       </c>
       <c r="K97" t="n">
-        <v>0.746</v>
+        <v>1.88</v>
       </c>
       <c r="L97" t="n">
-        <v>10819</v>
+        <v>9821</v>
       </c>
       <c r="M97" t="n">
-        <v>1.979</v>
+        <v>1.797</v>
       </c>
       <c r="N97" t="n">
         <v>0.048</v>
       </c>
       <c r="O97" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="P97" t="s">
         <v>578</v>
@@ -8516,7 +8540,7 @@
         <v>587</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D99" t="s">
         <v>588</v>
@@ -8526,25 +8550,25 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H99" t="n">
-        <v>19639052</v>
+        <v>19782491</v>
       </c>
       <c r="I99" t="n">
-        <v>87.207</v>
+        <v>87.844</v>
       </c>
       <c r="J99" t="n">
-        <v>48907</v>
+        <v>45619</v>
       </c>
       <c r="K99" t="n">
-        <v>0.217</v>
+        <v>0.203</v>
       </c>
       <c r="L99" t="n">
-        <v>50631</v>
+        <v>49423</v>
       </c>
       <c r="M99" t="n">
-        <v>0.225</v>
+        <v>0.219</v>
       </c>
       <c r="N99"/>
       <c r="O99"/>
@@ -8569,7 +8593,7 @@
         <v>592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44469</v>
+        <v>44475</v>
       </c>
       <c r="D100" t="s">
         <v>593</v>
@@ -8577,27 +8601,27 @@
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100" t="n">
-        <v>7987</v>
+        <v>7136</v>
       </c>
       <c r="K100" t="n">
-        <v>1.529</v>
+        <v>1.366</v>
       </c>
       <c r="L100" t="n">
-        <v>8069</v>
+        <v>6902</v>
       </c>
       <c r="M100" t="n">
-        <v>1.545</v>
+        <v>1.322</v>
       </c>
       <c r="N100" t="n">
-        <v>0.199</v>
+        <v>0.778</v>
       </c>
       <c r="O100" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="P100" t="s">
         <v>594</v>
@@ -8620,7 +8644,7 @@
         <v>598</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44472</v>
+        <v>44474</v>
       </c>
       <c r="D101" t="s">
         <v>599</v>
@@ -8630,31 +8654,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H101" t="n">
-        <v>3896810</v>
+        <v>3906709</v>
       </c>
       <c r="I101" t="n">
-        <v>889.361</v>
+        <v>891.62</v>
       </c>
       <c r="J101" t="n">
-        <v>4682</v>
+        <v>6894</v>
       </c>
       <c r="K101" t="n">
-        <v>1.069</v>
+        <v>1.573</v>
       </c>
       <c r="L101" t="n">
-        <v>6494</v>
+        <v>6378</v>
       </c>
       <c r="M101" t="n">
-        <v>1.482</v>
+        <v>1.456</v>
       </c>
       <c r="N101" t="n">
         <v>0.034</v>
       </c>
       <c r="O101" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="P101" t="s">
         <v>600</v>
@@ -8730,7 +8754,7 @@
         <v>609</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44472</v>
+        <v>44474</v>
       </c>
       <c r="D103" t="s">
         <v>610</v>
@@ -8740,31 +8764,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H103" t="n">
-        <v>1843277</v>
+        <v>1846953</v>
       </c>
       <c r="I103" t="n">
-        <v>255.314</v>
+        <v>255.823</v>
       </c>
       <c r="J103" t="n">
-        <v>1823</v>
+        <v>1870</v>
       </c>
       <c r="K103" t="n">
-        <v>0.253</v>
+        <v>0.259</v>
       </c>
       <c r="L103" t="n">
-        <v>1810</v>
+        <v>1784</v>
       </c>
       <c r="M103" t="n">
-        <v>0.251</v>
+        <v>0.247</v>
       </c>
       <c r="N103" t="n">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
       <c r="O103" t="n">
-        <v>58.1</v>
+        <v>77.1</v>
       </c>
       <c r="P103" t="s">
         <v>611</v>
@@ -8844,7 +8868,7 @@
         <v>620</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D105" t="s">
         <v>621</v>
@@ -8854,31 +8878,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H105" t="n">
-        <v>20114017</v>
+        <v>20286976</v>
       </c>
       <c r="I105" t="n">
-        <v>181.131</v>
+        <v>182.688</v>
       </c>
       <c r="J105" t="n">
-        <v>37816</v>
+        <v>55788</v>
       </c>
       <c r="K105" t="n">
-        <v>0.341</v>
+        <v>0.502</v>
       </c>
       <c r="L105" t="n">
-        <v>60613</v>
+        <v>57638</v>
       </c>
       <c r="M105" t="n">
-        <v>0.546</v>
+        <v>0.519</v>
       </c>
       <c r="N105" t="n">
-        <v>0.242</v>
+        <v>0.216</v>
       </c>
       <c r="O105" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="P105" t="s">
         <v>326</v>
@@ -8901,7 +8925,7 @@
         <v>626</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44473</v>
+        <v>44475</v>
       </c>
       <c r="D106" t="s">
         <v>627</v>
@@ -8911,31 +8935,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H106" t="n">
-        <v>20619398</v>
+        <v>20707050</v>
       </c>
       <c r="I106" t="n">
-        <v>545.53</v>
+        <v>547.849</v>
       </c>
       <c r="J106" t="n">
-        <v>21435</v>
+        <v>43364</v>
       </c>
       <c r="K106" t="n">
-        <v>0.567</v>
+        <v>1.147</v>
       </c>
       <c r="L106" t="n">
-        <v>38085</v>
+        <v>37461</v>
       </c>
       <c r="M106" t="n">
-        <v>1.008</v>
+        <v>0.991</v>
       </c>
       <c r="N106" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="O106" t="n">
-        <v>33.8</v>
+        <v>28.8</v>
       </c>
       <c r="P106" t="s">
         <v>628</v>
@@ -8958,7 +8982,7 @@
         <v>631</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44472</v>
+        <v>44474</v>
       </c>
       <c r="D107" t="s">
         <v>627</v>
@@ -8968,31 +8992,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H107" t="n">
-        <v>21036799</v>
+        <v>21125159</v>
       </c>
       <c r="I107" t="n">
-        <v>556.573</v>
+        <v>558.911</v>
       </c>
       <c r="J107" t="n">
-        <v>21583</v>
+        <v>43668</v>
       </c>
       <c r="K107" t="n">
-        <v>0.571</v>
+        <v>1.155</v>
       </c>
       <c r="L107" t="n">
-        <v>38440</v>
+        <v>37817</v>
       </c>
       <c r="M107" t="n">
-        <v>1.017</v>
+        <v>1.001</v>
       </c>
       <c r="N107" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="O107" t="n">
-        <v>35.3</v>
+        <v>32.1</v>
       </c>
       <c r="P107" t="s">
         <v>628</v>
@@ -9015,7 +9039,7 @@
         <v>633</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44469</v>
+        <v>44475</v>
       </c>
       <c r="D108" t="s">
         <v>634</v>
@@ -9025,31 +9049,31 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="H108" t="n">
-        <v>18640098</v>
+        <v>18868916</v>
       </c>
       <c r="I108" t="n">
-        <v>1833.226</v>
+        <v>1855.73</v>
       </c>
       <c r="J108" t="n">
-        <v>60263</v>
+        <v>48959</v>
       </c>
       <c r="K108" t="n">
-        <v>5.927</v>
+        <v>4.815</v>
       </c>
       <c r="L108" t="n">
-        <v>53834</v>
+        <v>39726</v>
       </c>
       <c r="M108" t="n">
-        <v>5.294</v>
+        <v>3.907</v>
       </c>
       <c r="N108" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="O108" t="n">
-        <v>85.6</v>
+        <v>69.4</v>
       </c>
       <c r="P108" t="s">
         <v>635</v>
@@ -9072,7 +9096,7 @@
         <v>638</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="D109" t="s">
         <v>639</v>
@@ -9082,25 +9106,25 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H109" t="n">
-        <v>2687715</v>
+        <v>2693526</v>
       </c>
       <c r="I109" t="n">
-        <v>917.145</v>
+        <v>919.128</v>
       </c>
       <c r="J109" t="n">
-        <v>5394</v>
+        <v>5811</v>
       </c>
       <c r="K109" t="n">
-        <v>1.841</v>
+        <v>1.983</v>
       </c>
       <c r="L109" t="n">
-        <v>5581</v>
+        <v>5614</v>
       </c>
       <c r="M109" t="n">
-        <v>1.904</v>
+        <v>1.916</v>
       </c>
       <c r="N109"/>
       <c r="O109"/>
@@ -9125,7 +9149,7 @@
         <v>644</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D110" t="s">
         <v>645</v>
@@ -9135,21 +9159,21 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H110" t="n">
-        <v>13080535</v>
+        <v>13294804</v>
       </c>
       <c r="I110" t="n">
-        <v>683.85</v>
+        <v>695.052</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
       <c r="L110" t="n">
-        <v>62271</v>
+        <v>56222</v>
       </c>
       <c r="M110" t="n">
-        <v>3.256</v>
+        <v>2.939</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
@@ -9174,7 +9198,7 @@
         <v>651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D111" t="s">
         <v>652</v>
@@ -9184,27 +9208,27 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H111" t="n">
-        <v>194057552</v>
+        <v>195638185</v>
       </c>
       <c r="I111" t="n">
-        <v>1329.963</v>
+        <v>1340.796</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111" t="n">
-        <v>500875</v>
+        <v>508624</v>
       </c>
       <c r="M111" t="n">
-        <v>3.433</v>
+        <v>3.486</v>
       </c>
       <c r="N111" t="n">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="O111" t="n">
-        <v>21.2</v>
+        <v>20.4</v>
       </c>
       <c r="P111" t="s">
         <v>653</v>
@@ -9227,7 +9251,7 @@
         <v>657</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D112" t="s">
         <v>658</v>
@@ -9237,25 +9261,25 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H112" t="n">
-        <v>2869097</v>
+        <v>2896278</v>
       </c>
       <c r="I112" t="n">
-        <v>216.103</v>
+        <v>218.15</v>
       </c>
       <c r="J112" t="n">
-        <v>7506</v>
+        <v>10466</v>
       </c>
       <c r="K112" t="n">
-        <v>0.565</v>
+        <v>0.788</v>
       </c>
       <c r="L112" t="n">
-        <v>13244</v>
+        <v>11065</v>
       </c>
       <c r="M112" t="n">
-        <v>0.998</v>
+        <v>0.833</v>
       </c>
       <c r="N112"/>
       <c r="O112"/>
@@ -9280,7 +9304,7 @@
         <v>663</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44473</v>
+        <v>44477</v>
       </c>
       <c r="D113" t="s">
         <v>664</v>
@@ -9290,32 +9314,28 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H113" t="n">
-        <v>43625</v>
+        <v>44642</v>
       </c>
       <c r="I113" t="n">
-        <v>814.72</v>
+        <v>833.713</v>
       </c>
       <c r="J113" t="n">
-        <v>741</v>
+        <v>656</v>
       </c>
       <c r="K113" t="n">
-        <v>13.839</v>
+        <v>12.251</v>
       </c>
       <c r="L113" t="n">
-        <v>598</v>
+        <v>442</v>
       </c>
       <c r="M113" t="n">
-        <v>11.168</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="O113" t="n">
-        <v>25.4</v>
-      </c>
+        <v>8.255</v>
+      </c>
+      <c r="N113"/>
+      <c r="O113"/>
       <c r="P113" t="s">
         <v>36</v>
       </c>
@@ -9382,7 +9402,7 @@
         <v>674</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D115" t="s">
         <v>675</v>
@@ -9392,31 +9412,31 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="H115" t="n">
-        <v>29097781</v>
+        <v>29251941</v>
       </c>
       <c r="I115" t="n">
-        <v>823.351</v>
+        <v>827.713</v>
       </c>
       <c r="J115" t="n">
-        <v>47386</v>
+        <v>51683</v>
       </c>
       <c r="K115" t="n">
-        <v>1.341</v>
+        <v>1.462</v>
       </c>
       <c r="L115" t="n">
-        <v>49065</v>
+        <v>49919</v>
       </c>
       <c r="M115" t="n">
-        <v>1.388</v>
+        <v>1.413</v>
       </c>
       <c r="N115" t="n">
         <v>0.001</v>
       </c>
       <c r="O115" t="n">
-        <v>1651.2</v>
+        <v>952.1</v>
       </c>
       <c r="P115" t="s">
         <v>36</v>
@@ -9439,7 +9459,7 @@
         <v>678</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D116" t="s">
         <v>679</v>
@@ -9449,31 +9469,31 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="H116" t="n">
-        <v>817426</v>
+        <v>822153</v>
       </c>
       <c r="I116" t="n">
-        <v>47.535</v>
+        <v>47.81</v>
       </c>
       <c r="J116" t="n">
-        <v>1411</v>
+        <v>1667</v>
       </c>
       <c r="K116" t="n">
-        <v>0.082</v>
+        <v>0.097</v>
       </c>
       <c r="L116" t="n">
-        <v>1515</v>
+        <v>1572</v>
       </c>
       <c r="M116" t="n">
-        <v>0.088</v>
+        <v>0.091</v>
       </c>
       <c r="N116" t="n">
         <v>0.005</v>
       </c>
       <c r="O116" t="n">
-        <v>192.8</v>
+        <v>220.1</v>
       </c>
       <c r="P116" t="s">
         <v>680</v>
@@ -9496,7 +9516,7 @@
         <v>683</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D117" t="s">
         <v>684</v>
@@ -9508,31 +9528,31 @@
         <v>685</v>
       </c>
       <c r="G117" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="H117" t="n">
-        <v>5727277</v>
+        <v>5798095</v>
       </c>
       <c r="I117" t="n">
-        <v>829.052</v>
+        <v>839.303</v>
       </c>
       <c r="J117" t="n">
-        <v>19452</v>
+        <v>22978</v>
       </c>
       <c r="K117" t="n">
-        <v>2.816</v>
+        <v>3.326</v>
       </c>
       <c r="L117" t="n">
-        <v>21714</v>
+        <v>21098</v>
       </c>
       <c r="M117" t="n">
-        <v>3.143</v>
+        <v>3.054</v>
       </c>
       <c r="N117" t="n">
-        <v>0.324</v>
+        <v>0.314</v>
       </c>
       <c r="O117" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P117" t="s">
         <v>36</v>
@@ -9555,7 +9575,7 @@
         <v>689</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44466</v>
+        <v>44473</v>
       </c>
       <c r="D118" t="s">
         <v>690</v>
@@ -9565,27 +9585,27 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H118" t="n">
-        <v>19560496</v>
+        <v>20013983</v>
       </c>
       <c r="I118" t="n">
-        <v>3317.203</v>
+        <v>3394.108</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>64614</v>
+        <v>64784</v>
       </c>
       <c r="M118" t="n">
-        <v>10.958</v>
+        <v>10.987</v>
       </c>
       <c r="N118" t="n">
-        <v>0.024</v>
+        <v>0.037</v>
       </c>
       <c r="O118" t="n">
-        <v>41.8</v>
+        <v>27</v>
       </c>
       <c r="P118" t="s">
         <v>36</v>
@@ -9608,7 +9628,7 @@
         <v>694</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D119" t="s">
         <v>695</v>
@@ -9618,31 +9638,31 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H119" t="n">
-        <v>42024204</v>
+        <v>42155641</v>
       </c>
       <c r="I119" t="n">
-        <v>7695.717</v>
+        <v>7719.787</v>
       </c>
       <c r="J119" t="n">
-        <v>10931</v>
+        <v>30284</v>
       </c>
       <c r="K119" t="n">
-        <v>2.002</v>
+        <v>5.546</v>
       </c>
       <c r="L119" t="n">
-        <v>31015</v>
+        <v>32614</v>
       </c>
       <c r="M119" t="n">
-        <v>5.68</v>
+        <v>5.972</v>
       </c>
       <c r="N119" t="n">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="O119" t="n">
-        <v>21.3</v>
+        <v>20.4</v>
       </c>
       <c r="P119" t="s">
         <v>36</v>
@@ -9665,7 +9685,7 @@
         <v>698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D120" t="s">
         <v>699</v>
@@ -9675,31 +9695,31 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="H120" t="n">
-        <v>1597765</v>
+        <v>1614007</v>
       </c>
       <c r="I120" t="n">
-        <v>768.628</v>
+        <v>776.442</v>
       </c>
       <c r="J120" t="n">
-        <v>4783</v>
+        <v>4709</v>
       </c>
       <c r="K120" t="n">
-        <v>2.301</v>
+        <v>2.265</v>
       </c>
       <c r="L120" t="n">
-        <v>4417</v>
+        <v>4236</v>
       </c>
       <c r="M120" t="n">
-        <v>2.125</v>
+        <v>2.038</v>
       </c>
       <c r="N120" t="n">
-        <v>0.196</v>
+        <v>0.194</v>
       </c>
       <c r="O120" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="P120" t="s">
         <v>700</v>
@@ -9722,7 +9742,7 @@
         <v>703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D121" t="s">
         <v>704</v>
@@ -9732,31 +9752,31 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="H121" t="n">
-        <v>17783920</v>
+        <v>17864698</v>
       </c>
       <c r="I121" t="n">
-        <v>296.191</v>
+        <v>297.537</v>
       </c>
       <c r="J121" t="n">
-        <v>23685</v>
+        <v>35715</v>
       </c>
       <c r="K121" t="n">
-        <v>0.394</v>
+        <v>0.595</v>
       </c>
       <c r="L121" t="n">
-        <v>30178</v>
+        <v>30710</v>
       </c>
       <c r="M121" t="n">
-        <v>0.503</v>
+        <v>0.511</v>
       </c>
       <c r="N121" t="n">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="O121" t="n">
-        <v>22.3</v>
+        <v>21.8</v>
       </c>
       <c r="P121" t="s">
         <v>705</v>
@@ -9779,7 +9799,7 @@
         <v>709</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D122" t="s">
         <v>710</v>
@@ -9789,25 +9809,25 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H122" t="n">
-        <v>13503131</v>
+        <v>13649344</v>
       </c>
       <c r="I122" t="n">
-        <v>263.192</v>
+        <v>266.042</v>
       </c>
       <c r="J122" t="n">
-        <v>18100</v>
+        <v>55107</v>
       </c>
       <c r="K122" t="n">
-        <v>0.353</v>
+        <v>1.074</v>
       </c>
       <c r="L122" t="n">
-        <v>30422</v>
+        <v>31351</v>
       </c>
       <c r="M122" t="n">
-        <v>0.593</v>
+        <v>0.611</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
@@ -9938,7 +9958,7 @@
         <v>726</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D125" t="s">
         <v>727</v>
@@ -9948,31 +9968,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="H125" t="n">
-        <v>5311341</v>
+        <v>5329543</v>
       </c>
       <c r="I125" t="n">
-        <v>247.07</v>
+        <v>247.917</v>
       </c>
       <c r="J125" t="n">
-        <v>6479</v>
+        <v>6282</v>
       </c>
       <c r="K125" t="n">
-        <v>0.301</v>
+        <v>0.292</v>
       </c>
       <c r="L125" t="n">
-        <v>7432</v>
+        <v>6841</v>
       </c>
       <c r="M125" t="n">
-        <v>0.346</v>
+        <v>0.318</v>
       </c>
       <c r="N125" t="n">
-        <v>0.127</v>
+        <v>0.129</v>
       </c>
       <c r="O125" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="P125" t="s">
         <v>728</v>
@@ -9995,7 +10015,7 @@
         <v>731</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44465</v>
+        <v>44472</v>
       </c>
       <c r="D126" t="s">
         <v>732</v>
@@ -10005,27 +10025,27 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="H126"/>
       <c r="I126"/>
       <c r="J126" t="n">
-        <v>23127</v>
+        <v>20461</v>
       </c>
       <c r="K126" t="n">
-        <v>2.276</v>
+        <v>2.014</v>
       </c>
       <c r="L126" t="n">
-        <v>23127</v>
+        <v>20461</v>
       </c>
       <c r="M126" t="n">
-        <v>2.276</v>
+        <v>2.014</v>
       </c>
       <c r="N126" t="n">
-        <v>0.027</v>
+        <v>0.03</v>
       </c>
       <c r="O126" t="n">
-        <v>36.6</v>
+        <v>33.7</v>
       </c>
       <c r="P126" t="s">
         <v>734</v>
@@ -10048,7 +10068,7 @@
         <v>738</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44471</v>
+        <v>44475</v>
       </c>
       <c r="D127" t="s">
         <v>454</v>
@@ -10058,31 +10078,31 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H127" t="n">
-        <v>10530058</v>
+        <v>10639080</v>
       </c>
       <c r="I127" t="n">
-        <v>1208.2</v>
+        <v>1220.709</v>
       </c>
       <c r="J127" t="n">
-        <v>31795</v>
+        <v>27821</v>
       </c>
       <c r="K127" t="n">
-        <v>3.648</v>
+        <v>3.192</v>
       </c>
       <c r="L127" t="n">
-        <v>35527</v>
+        <v>33864</v>
       </c>
       <c r="M127" t="n">
-        <v>4.076</v>
+        <v>3.885</v>
       </c>
       <c r="N127" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="O127" t="n">
-        <v>27.8</v>
+        <v>29.4</v>
       </c>
       <c r="P127" t="s">
         <v>455</v>
@@ -10105,7 +10125,7 @@
         <v>741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D128" t="s">
         <v>742</v>
@@ -10115,31 +10135,31 @@
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="H128" t="n">
-        <v>3482953</v>
+        <v>3551517</v>
       </c>
       <c r="I128" t="n">
-        <v>146.005</v>
+        <v>148.879</v>
       </c>
       <c r="J128" t="n">
-        <v>17812</v>
+        <v>12245</v>
       </c>
       <c r="K128" t="n">
-        <v>0.747</v>
+        <v>0.513</v>
       </c>
       <c r="L128" t="n">
-        <v>19838</v>
+        <v>19879</v>
       </c>
       <c r="M128" t="n">
-        <v>0.832</v>
+        <v>0.833</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>2436.2</v>
+        <v>2899.1</v>
       </c>
       <c r="P128" t="s">
         <v>743</v>
@@ -10386,7 +10406,7 @@
         <v>769</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D133" t="s">
         <v>770</v>
@@ -10396,27 +10416,27 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H133" t="n">
-        <v>2959305</v>
+        <v>2975899</v>
       </c>
       <c r="I133" t="n">
-        <v>247.936</v>
+        <v>249.326</v>
       </c>
       <c r="J133"/>
       <c r="K133"/>
       <c r="L133" t="n">
-        <v>7456</v>
+        <v>7903</v>
       </c>
       <c r="M133" t="n">
-        <v>0.625</v>
+        <v>0.662</v>
       </c>
       <c r="N133" t="n">
-        <v>0.059</v>
+        <v>0.049</v>
       </c>
       <c r="O133" t="n">
-        <v>17</v>
+        <v>20.6</v>
       </c>
       <c r="P133" t="s">
         <v>772</v>
@@ -10439,7 +10459,7 @@
         <v>776</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D134" t="s">
         <v>777</v>
@@ -10449,31 +10469,31 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H134" t="n">
-        <v>87678654</v>
+        <v>88754434</v>
       </c>
       <c r="I134" t="n">
-        <v>1030.995</v>
+        <v>1043.645</v>
       </c>
       <c r="J134" t="n">
-        <v>352214</v>
+        <v>362152</v>
       </c>
       <c r="K134" t="n">
-        <v>4.142</v>
+        <v>4.258</v>
       </c>
       <c r="L134" t="n">
-        <v>354164</v>
+        <v>354996</v>
       </c>
       <c r="M134" t="n">
-        <v>4.165</v>
+        <v>4.174</v>
       </c>
       <c r="N134" t="n">
-        <v>0.081</v>
+        <v>0.082</v>
       </c>
       <c r="O134" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="P134" t="s">
         <v>778</v>
@@ -10496,7 +10516,7 @@
         <v>782</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44471</v>
+        <v>44473</v>
       </c>
       <c r="D135" t="s">
         <v>783</v>
@@ -10506,22 +10526,22 @@
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H135" t="n">
-        <v>1700054</v>
+        <v>1705808</v>
       </c>
       <c r="I135" t="n">
-        <v>36.077</v>
+        <v>36.199</v>
       </c>
       <c r="J135" t="n">
-        <v>3878</v>
+        <v>2863</v>
       </c>
       <c r="K135" t="n">
-        <v>0.082</v>
+        <v>0.061</v>
       </c>
       <c r="L135" t="n">
-        <v>3559</v>
+        <v>3564</v>
       </c>
       <c r="M135" t="n">
         <v>0.076</v>
@@ -10530,7 +10550,7 @@
         <v>0.032</v>
       </c>
       <c r="O135" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="P135" t="s">
         <v>784</v>
@@ -10553,7 +10573,7 @@
         <v>788</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44474</v>
+        <v>44477</v>
       </c>
       <c r="D136" t="s">
         <v>789</v>
@@ -10563,25 +10583,25 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H136" t="n">
-        <v>13003972</v>
+        <v>13164600</v>
       </c>
       <c r="I136" t="n">
-        <v>299.17</v>
+        <v>302.865</v>
       </c>
       <c r="J136" t="n">
-        <v>37080</v>
+        <v>53211</v>
       </c>
       <c r="K136" t="n">
-        <v>0.853</v>
+        <v>1.224</v>
       </c>
       <c r="L136" t="n">
-        <v>37549</v>
+        <v>41210</v>
       </c>
       <c r="M136" t="n">
-        <v>0.864</v>
+        <v>0.948</v>
       </c>
       <c r="N136"/>
       <c r="O136"/>
@@ -10606,7 +10626,7 @@
         <v>794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44474</v>
+        <v>44476</v>
       </c>
       <c r="D137" t="s">
         <v>795</v>
@@ -10616,28 +10636,32 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H137" t="n">
-        <v>85511413</v>
+        <v>86074773</v>
       </c>
       <c r="I137" t="n">
-        <v>8558.773</v>
+        <v>8615.159</v>
       </c>
       <c r="J137" t="n">
-        <v>364265</v>
+        <v>264452</v>
       </c>
       <c r="K137" t="n">
-        <v>36.459</v>
+        <v>26.469</v>
       </c>
       <c r="L137" t="n">
-        <v>305537</v>
+        <v>299913</v>
       </c>
       <c r="M137" t="n">
-        <v>30.581</v>
-      </c>
-      <c r="N137"/>
-      <c r="O137"/>
+        <v>30.018</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O137" t="n">
+        <v>1520.2</v>
+      </c>
       <c r="P137" t="s">
         <v>796</v>
       </c>
@@ -10659,7 +10683,7 @@
         <v>799</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D138" t="s">
         <v>800</v>
@@ -10671,31 +10695,31 @@
         <v>802</v>
       </c>
       <c r="G138" t="n">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H138" t="n">
-        <v>276371381</v>
+        <v>279222165</v>
       </c>
       <c r="I138" t="n">
-        <v>4051.944</v>
+        <v>4093.74</v>
       </c>
       <c r="J138" t="n">
-        <v>1007503</v>
+        <v>1053450</v>
       </c>
       <c r="K138" t="n">
-        <v>14.771</v>
+        <v>15.445</v>
       </c>
       <c r="L138" t="n">
-        <v>865980</v>
+        <v>847983</v>
       </c>
       <c r="M138" t="n">
-        <v>12.696</v>
+        <v>12.432</v>
       </c>
       <c r="N138" t="n">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="O138" t="n">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="P138" t="s">
         <v>803</v>
@@ -10718,7 +10742,7 @@
         <v>807</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44469</v>
+        <v>44473</v>
       </c>
       <c r="D139" t="s">
         <v>808</v>
@@ -10728,31 +10752,31 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="H139" t="n">
-        <v>581534276</v>
+        <v>586170669</v>
       </c>
       <c r="I139" t="n">
-        <v>1746.795</v>
+        <v>1760.721</v>
       </c>
       <c r="J139" t="n">
-        <v>1058258</v>
+        <v>325072</v>
       </c>
       <c r="K139" t="n">
-        <v>3.179</v>
+        <v>0.976</v>
       </c>
       <c r="L139" t="n">
-        <v>1344204</v>
+        <v>1245183</v>
       </c>
       <c r="M139" t="n">
-        <v>4.038</v>
+        <v>3.74</v>
       </c>
       <c r="N139" t="n">
-        <v>0.083</v>
+        <v>0.084</v>
       </c>
       <c r="O139" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="P139" t="s">
         <v>809</v>
@@ -10775,7 +10799,7 @@
         <v>813</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D140" t="s">
         <v>814</v>
@@ -10785,27 +10809,31 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H140" t="n">
-        <v>3604859</v>
+        <v>3628184</v>
       </c>
       <c r="I140" t="n">
-        <v>1034.348</v>
-      </c>
-      <c r="J140"/>
-      <c r="K140"/>
+        <v>1041.04</v>
+      </c>
+      <c r="J140" t="n">
+        <v>8996</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2.581</v>
+      </c>
       <c r="L140" t="n">
-        <v>7342</v>
+        <v>6921</v>
       </c>
       <c r="M140" t="n">
-        <v>2.107</v>
+        <v>1.986</v>
       </c>
       <c r="N140" t="n">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="O140" t="n">
-        <v>74.7</v>
+        <v>66.1</v>
       </c>
       <c r="P140" t="s">
         <v>202</v>
@@ -10881,7 +10909,7 @@
         <v>825</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D142" t="s">
         <v>826</v>
@@ -10891,31 +10919,31 @@
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H142" t="n">
-        <v>2475220</v>
+        <v>2493045</v>
       </c>
       <c r="I142" t="n">
-        <v>130.821</v>
+        <v>131.763</v>
       </c>
       <c r="J142" t="n">
-        <v>3073</v>
+        <v>5225</v>
       </c>
       <c r="K142" t="n">
-        <v>0.162</v>
+        <v>0.276</v>
       </c>
       <c r="L142" t="n">
-        <v>5447</v>
+        <v>5208</v>
       </c>
       <c r="M142" t="n">
-        <v>0.288</v>
+        <v>0.275</v>
       </c>
       <c r="N142" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="O142" t="n">
-        <v>125</v>
+        <v>153.8</v>
       </c>
       <c r="P142" t="s">
         <v>828</v>
@@ -10938,7 +10966,7 @@
         <v>831</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44472</v>
+        <v>44475</v>
       </c>
       <c r="D143" t="s">
         <v>832</v>
@@ -10948,31 +10976,31 @@
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H143" t="n">
-        <v>1279611</v>
+        <v>1288436</v>
       </c>
       <c r="I143" t="n">
-        <v>84.786</v>
+        <v>85.371</v>
       </c>
       <c r="J143" t="n">
-        <v>2016</v>
+        <v>4051</v>
       </c>
       <c r="K143" t="n">
-        <v>0.134</v>
+        <v>0.268</v>
       </c>
       <c r="L143" t="n">
-        <v>4574</v>
+        <v>3558</v>
       </c>
       <c r="M143" t="n">
-        <v>0.303</v>
+        <v>0.236</v>
       </c>
       <c r="N143" t="n">
-        <v>0.047</v>
+        <v>0.038</v>
       </c>
       <c r="O143" t="n">
-        <v>21.3</v>
+        <v>26.2</v>
       </c>
       <c r="P143" t="s">
         <v>833</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/10/coronavirus-covid-19-at-a-glance-7-october-2021_0.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/10/coronavirus-covid-19-at-a-glance-11-october-2021_0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-05-de-outubro-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-10-de-outubro-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -748,7 +748,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-07102021-6b7g</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-11102021-4oow</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -1201,7 +1201,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/371367</t>
+    <t xml:space="preserve">http://irangov.ir/detail/371720</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1324,7 +1324,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-october-6-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-october-10-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -2085,7 +2085,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/17LtWCPT8mEhNvXEofeQ8jJqg-C-gj5Zn</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1eW35rhQ-ZnA9qxqsQ_K4SUREO_34SGMY</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2514,21 +2514,20 @@
     <t xml:space="preserve">Thailand - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www3.dmsc.moph.go.th/</t>
+    <t xml:space="preserve">https://data.go.th/dataset/covid-19-testing-data</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Medical Sciences Ministry of Public Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Department of Medical Sciences, Ministry of Public Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://service.dmsc.moph.go.th/labscovid19/</t>
+    <t xml:space="preserve">Department of Medical Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://data.go.th/en/dataset/covid-19-testing-data</t>
   </si>
   <si>
     <t xml:space="preserve">The Ministry of Public Health's Department of Medical Sciences publishes a complete time series of tests performed in Thailand. Data is available since January 2020.
-We use this time series to collect a time series of tests performed in the country, as well as the positive rate (dividing the 7-day average number of positive results by the 7-day average number of tests).
-As of June 2021, it is unclear according to what definition cases are confirmed, with the number of confirmed cases being sometimes greater than the number of positive tests. Therefore, we currently do not calculate any positive rate for Thailand.</t>
+We use this time series to collect a time series of tests performed in the country.</t>
   </si>
   <si>
     <t xml:space="preserve">TLS</t>
@@ -3382,7 +3381,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44471</v>
+        <v>44475</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3392,31 +3391,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="H5" t="n">
-        <v>23996697</v>
+        <v>24156096</v>
       </c>
       <c r="I5" t="n">
-        <v>526.176</v>
+        <v>529.671</v>
       </c>
       <c r="J5" t="n">
-        <v>29085</v>
+        <v>43346</v>
       </c>
       <c r="K5" t="n">
-        <v>0.638</v>
+        <v>0.95</v>
       </c>
       <c r="L5" t="n">
-        <v>44043</v>
+        <v>40669</v>
       </c>
       <c r="M5" t="n">
-        <v>0.966</v>
+        <v>0.892</v>
       </c>
       <c r="N5" t="n">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
       <c r="O5" t="n">
-        <v>47.6</v>
+        <v>52.6</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3496,7 +3495,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3506,31 +3505,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H7" t="n">
-        <v>39191561</v>
+        <v>39943525</v>
       </c>
       <c r="I7" t="n">
-        <v>1519.747</v>
+        <v>1548.906</v>
       </c>
       <c r="J7" t="n">
-        <v>218881</v>
+        <v>185992</v>
       </c>
       <c r="K7" t="n">
-        <v>8.488</v>
+        <v>7.212</v>
       </c>
       <c r="L7" t="n">
-        <v>192277</v>
+        <v>190814</v>
       </c>
       <c r="M7" t="n">
-        <v>7.456</v>
+        <v>7.399</v>
       </c>
       <c r="N7" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="O7" t="n">
-        <v>87.5</v>
+        <v>85.5</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3553,7 +3552,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3563,31 +3562,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="H8" t="n">
-        <v>89088903</v>
+        <v>90377770</v>
       </c>
       <c r="I8" t="n">
-        <v>9851.619</v>
+        <v>9994.145</v>
       </c>
       <c r="J8" t="n">
-        <v>326599</v>
+        <v>298259</v>
       </c>
       <c r="K8" t="n">
-        <v>36.116</v>
+        <v>32.982</v>
       </c>
       <c r="L8" t="n">
-        <v>333993</v>
+        <v>323997</v>
       </c>
       <c r="M8" t="n">
-        <v>36.934</v>
+        <v>35.828</v>
       </c>
       <c r="N8" t="n">
         <v>0.005</v>
       </c>
       <c r="O8" t="n">
-        <v>182.9</v>
+        <v>183</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3610,7 +3609,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44476</v>
+        <v>44478</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3620,27 +3619,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H9" t="n">
-        <v>4912156</v>
+        <v>4952737</v>
       </c>
       <c r="I9" t="n">
-        <v>480.484</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9"/>
+        <v>484.454</v>
+      </c>
+      <c r="J9" t="n">
+        <v>20064</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.963</v>
+      </c>
       <c r="L9" t="n">
-        <v>7575</v>
+        <v>9639</v>
       </c>
       <c r="M9" t="n">
-        <v>0.741</v>
+        <v>0.943</v>
       </c>
       <c r="N9" t="n">
-        <v>0.081</v>
+        <v>0.087</v>
       </c>
       <c r="O9" t="n">
-        <v>12.3</v>
+        <v>11.5</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3720,7 +3723,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3730,31 +3733,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="H11" t="n">
-        <v>6550461</v>
+        <v>6612314</v>
       </c>
       <c r="I11" t="n">
-        <v>3746.771</v>
+        <v>3782.15</v>
       </c>
       <c r="J11" t="n">
-        <v>14820</v>
+        <v>15134</v>
       </c>
       <c r="K11" t="n">
-        <v>8.477</v>
+        <v>8.656</v>
       </c>
       <c r="L11" t="n">
-        <v>15241</v>
+        <v>15077</v>
       </c>
       <c r="M11" t="n">
-        <v>8.718</v>
+        <v>8.624</v>
       </c>
       <c r="N11" t="n">
         <v>0.004</v>
       </c>
       <c r="O11" t="n">
-        <v>266.1</v>
+        <v>232</v>
       </c>
       <c r="P11" t="s">
         <v>76</v>
@@ -3777,7 +3780,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3787,13 +3790,13 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="H12" t="n">
-        <v>9838189</v>
+        <v>9907321</v>
       </c>
       <c r="I12" t="n">
-        <v>59.158</v>
+        <v>59.574</v>
       </c>
       <c r="J12" t="n">
         <v>17283</v>
@@ -3802,16 +3805,16 @@
         <v>0.104</v>
       </c>
       <c r="L12" t="n">
-        <v>18610</v>
+        <v>17283</v>
       </c>
       <c r="M12" t="n">
-        <v>0.112</v>
+        <v>0.104</v>
       </c>
       <c r="N12" t="n">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="O12" t="n">
-        <v>26.5</v>
+        <v>28.8</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3887,7 +3890,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -3897,31 +3900,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H14" t="n">
-        <v>20349581</v>
+        <v>20514883</v>
       </c>
       <c r="I14" t="n">
-        <v>1749.398</v>
+        <v>1763.608</v>
       </c>
       <c r="J14" t="n">
-        <v>50073</v>
+        <v>19425</v>
       </c>
       <c r="K14" t="n">
-        <v>4.305</v>
+        <v>1.67</v>
       </c>
       <c r="L14" t="n">
-        <v>44100</v>
+        <v>44471</v>
       </c>
       <c r="M14" t="n">
-        <v>3.791</v>
+        <v>3.823</v>
       </c>
       <c r="N14" t="n">
-        <v>0.048</v>
+        <v>0.051</v>
       </c>
       <c r="O14" t="n">
-        <v>20.8</v>
+        <v>19.6</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -3944,7 +3947,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44474</v>
+        <v>44480</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -3954,27 +3957,27 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" t="n">
-        <v>270411</v>
+        <v>278894</v>
       </c>
       <c r="I15" t="n">
-        <v>667.822</v>
+        <v>688.772</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="n">
-        <v>1582</v>
+        <v>1438</v>
       </c>
       <c r="M15" t="n">
-        <v>3.907</v>
+        <v>3.551</v>
       </c>
       <c r="N15" t="n">
-        <v>0.126</v>
+        <v>0.076</v>
       </c>
       <c r="O15" t="n">
-        <v>8</v>
+        <v>13.2</v>
       </c>
       <c r="P15" t="s">
         <v>102</v>
@@ -4156,7 +4159,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D19" t="s">
         <v>123</v>
@@ -4166,27 +4169,27 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H19" t="n">
-        <v>1246009</v>
+        <v>1253492</v>
       </c>
       <c r="I19" t="n">
-        <v>381.806</v>
+        <v>384.099</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="n">
-        <v>2709</v>
+        <v>2532</v>
       </c>
       <c r="M19" t="n">
-        <v>0.83</v>
+        <v>0.776</v>
       </c>
       <c r="N19" t="n">
-        <v>0.244</v>
+        <v>0.238</v>
       </c>
       <c r="O19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="P19" t="s">
         <v>124</v>
@@ -4307,7 +4310,7 @@
         <v>138</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D22" t="s">
         <v>139</v>
@@ -4317,27 +4320,27 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H22" t="n">
-        <v>4928818</v>
+        <v>4990220</v>
       </c>
       <c r="I22" t="n">
-        <v>714.668</v>
+        <v>723.571</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22" t="n">
-        <v>18075</v>
+        <v>17677</v>
       </c>
       <c r="M22" t="n">
-        <v>2.621</v>
+        <v>2.563</v>
       </c>
       <c r="N22" t="n">
-        <v>0.113</v>
+        <v>0.126</v>
       </c>
       <c r="O22" t="n">
-        <v>8.8</v>
+        <v>8</v>
       </c>
       <c r="P22" t="s">
         <v>141</v>
@@ -4462,7 +4465,7 @@
         <v>155</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44476</v>
+        <v>44477</v>
       </c>
       <c r="D25" t="s">
         <v>151</v>
@@ -4472,31 +4475,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H25" t="n">
-        <v>44067861</v>
+        <v>44186056</v>
       </c>
       <c r="I25" t="n">
-        <v>1157.612</v>
+        <v>1160.717</v>
       </c>
       <c r="J25" t="n">
-        <v>122731</v>
+        <v>118195</v>
       </c>
       <c r="K25" t="n">
-        <v>3.224</v>
+        <v>3.105</v>
       </c>
       <c r="L25" t="n">
-        <v>104997</v>
+        <v>104256</v>
       </c>
       <c r="M25" t="n">
-        <v>2.758</v>
+        <v>2.739</v>
       </c>
       <c r="N25" t="n">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="O25" t="n">
-        <v>26.4</v>
+        <v>27.8</v>
       </c>
       <c r="P25" t="s">
         <v>152</v>
@@ -4519,7 +4522,7 @@
         <v>158</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44473</v>
+        <v>44478</v>
       </c>
       <c r="D26" t="s">
         <v>159</v>
@@ -4529,15 +4532,15 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26" t="n">
-        <v>714</v>
+        <v>343</v>
       </c>
       <c r="K26" t="n">
-        <v>1.271</v>
+        <v>0.61</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -4564,7 +4567,7 @@
         <v>164</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D27" t="s">
         <v>165</v>
@@ -4574,31 +4577,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="H27" t="n">
-        <v>21959119</v>
+        <v>22194480</v>
       </c>
       <c r="I27" t="n">
-        <v>1142.968</v>
+        <v>1155.219</v>
       </c>
       <c r="J27" t="n">
-        <v>64490</v>
+        <v>51267</v>
       </c>
       <c r="K27" t="n">
-        <v>3.357</v>
+        <v>2.668</v>
       </c>
       <c r="L27" t="n">
-        <v>55820</v>
+        <v>53506</v>
       </c>
       <c r="M27" t="n">
-        <v>2.905</v>
+        <v>2.785</v>
       </c>
       <c r="N27" t="n">
-        <v>0.013</v>
+        <v>0.016</v>
       </c>
       <c r="O27" t="n">
-        <v>76.3</v>
+        <v>61.1</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -4666,7 +4669,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D29" t="s">
         <v>178</v>
@@ -4676,31 +4679,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H29" t="n">
-        <v>25788034</v>
+        <v>25954762</v>
       </c>
       <c r="I29" t="n">
-        <v>503.026</v>
+        <v>506.278</v>
       </c>
       <c r="J29" t="n">
-        <v>48908</v>
+        <v>39128</v>
       </c>
       <c r="K29" t="n">
-        <v>0.954</v>
+        <v>0.763</v>
       </c>
       <c r="L29" t="n">
-        <v>42606</v>
+        <v>42592</v>
       </c>
       <c r="M29" t="n">
         <v>0.831</v>
       </c>
       <c r="N29" t="n">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
       <c r="O29" t="n">
-        <v>25.6</v>
+        <v>27</v>
       </c>
       <c r="P29" t="s">
         <v>179</v>
@@ -4723,7 +4726,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44471</v>
+        <v>44475</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4733,31 +4736,31 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H30" t="n">
-        <v>1916650</v>
+        <v>1927328</v>
       </c>
       <c r="I30" t="n">
-        <v>372.958</v>
+        <v>375.036</v>
       </c>
       <c r="J30" t="n">
-        <v>6594</v>
+        <v>1277</v>
       </c>
       <c r="K30" t="n">
-        <v>1.283</v>
+        <v>0.248</v>
       </c>
       <c r="L30" t="n">
-        <v>5989</v>
+        <v>4482</v>
       </c>
       <c r="M30" t="n">
-        <v>1.165</v>
+        <v>0.872</v>
       </c>
       <c r="N30" t="n">
-        <v>0.239</v>
+        <v>0.281</v>
       </c>
       <c r="O30" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P30" t="s">
         <v>185</v>
@@ -4837,7 +4840,7 @@
         <v>194</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44476</v>
+        <v>44479</v>
       </c>
       <c r="D32" t="s">
         <v>195</v>
@@ -4847,25 +4850,25 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H32" t="n">
-        <v>2885071</v>
+        <v>2913176</v>
       </c>
       <c r="I32" t="n">
-        <v>706.838</v>
+        <v>713.724</v>
       </c>
       <c r="J32" t="n">
-        <v>10592</v>
+        <v>8894</v>
       </c>
       <c r="K32" t="n">
-        <v>2.595</v>
+        <v>2.179</v>
       </c>
       <c r="L32" t="n">
-        <v>8863</v>
+        <v>9160</v>
       </c>
       <c r="M32" t="n">
-        <v>2.171</v>
+        <v>2.244</v>
       </c>
       <c r="N32" t="n">
         <v>0.143</v>
@@ -4953,7 +4956,7 @@
         <v>207</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D34" t="s">
         <v>208</v>
@@ -4963,31 +4966,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H34" t="n">
-        <v>13631719</v>
+        <v>13835984</v>
       </c>
       <c r="I34" t="n">
-        <v>15213.887</v>
+        <v>15441.86</v>
       </c>
       <c r="J34" t="n">
-        <v>56507</v>
+        <v>64004</v>
       </c>
       <c r="K34" t="n">
-        <v>63.065</v>
+        <v>71.433</v>
       </c>
       <c r="L34" t="n">
-        <v>49324</v>
+        <v>51615</v>
       </c>
       <c r="M34" t="n">
-        <v>55.049</v>
+        <v>57.606</v>
       </c>
       <c r="N34" t="n">
         <v>0.002</v>
       </c>
       <c r="O34" t="n">
-        <v>480.9</v>
+        <v>417.2</v>
       </c>
       <c r="P34" t="s">
         <v>36</v>
@@ -5010,7 +5013,7 @@
         <v>211</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D35" t="s">
         <v>212</v>
@@ -5020,27 +5023,27 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="n">
-        <v>68257</v>
+        <v>62395</v>
       </c>
       <c r="K35" t="n">
-        <v>6.365</v>
+        <v>5.818</v>
       </c>
       <c r="L35" t="n">
-        <v>61577</v>
+        <v>61516</v>
       </c>
       <c r="M35" t="n">
-        <v>5.742</v>
+        <v>5.736</v>
       </c>
       <c r="N35" t="n">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="O35" t="n">
-        <v>76.9</v>
+        <v>66.7</v>
       </c>
       <c r="P35" t="s">
         <v>36</v>
@@ -5116,7 +5119,7 @@
         <v>221</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="D37" t="s">
         <v>222</v>
@@ -5126,31 +5129,31 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H37" t="n">
-        <v>41347033</v>
+        <v>41501675</v>
       </c>
       <c r="I37" t="n">
-        <v>7112.487</v>
+        <v>7139.088</v>
       </c>
       <c r="J37" t="n">
-        <v>26700</v>
+        <v>30378</v>
       </c>
       <c r="K37" t="n">
-        <v>4.593</v>
+        <v>5.226</v>
       </c>
       <c r="L37" t="n">
-        <v>33754</v>
+        <v>37423</v>
       </c>
       <c r="M37" t="n">
-        <v>5.806</v>
+        <v>6.437</v>
       </c>
       <c r="N37" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="O37" t="n">
-        <v>74</v>
+        <v>66.1</v>
       </c>
       <c r="P37" t="s">
         <v>223</v>
@@ -5342,7 +5345,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D41" t="s">
         <v>248</v>
@@ -5352,24 +5355,28 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H41" t="n">
-        <v>227920</v>
+        <v>230491</v>
       </c>
       <c r="I41" t="n">
-        <v>157.198</v>
+        <v>158.971</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>614</v>
+        <v>747</v>
       </c>
       <c r="M41" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="N41"/>
-      <c r="O41"/>
+        <v>0.515</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="O41" t="n">
+        <v>20.6</v>
+      </c>
       <c r="P41" t="s">
         <v>250</v>
       </c>
@@ -5391,7 +5398,7 @@
         <v>253</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D42" t="s">
         <v>254</v>
@@ -5401,31 +5408,31 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H42" t="n">
-        <v>1972386</v>
+        <v>1997046</v>
       </c>
       <c r="I42" t="n">
-        <v>1488.382</v>
+        <v>1506.991</v>
       </c>
       <c r="J42" t="n">
-        <v>7082</v>
+        <v>7385</v>
       </c>
       <c r="K42" t="n">
-        <v>5.344</v>
+        <v>5.573</v>
       </c>
       <c r="L42" t="n">
-        <v>5803</v>
+        <v>6425</v>
       </c>
       <c r="M42" t="n">
-        <v>4.379</v>
+        <v>4.848</v>
       </c>
       <c r="N42" t="n">
-        <v>0.136</v>
+        <v>0.143</v>
       </c>
       <c r="O42" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="P42" t="s">
         <v>255</v>
@@ -5448,7 +5455,7 @@
         <v>258</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44466</v>
+        <v>44480</v>
       </c>
       <c r="D43" t="s">
         <v>259</v>
@@ -5458,31 +5465,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="H43" t="n">
-        <v>3446676</v>
+        <v>3557710</v>
       </c>
       <c r="I43" t="n">
-        <v>29.24</v>
+        <v>30.182</v>
       </c>
       <c r="J43" t="n">
-        <v>4422</v>
+        <v>5727</v>
       </c>
       <c r="K43" t="n">
-        <v>0.038</v>
+        <v>0.049</v>
       </c>
       <c r="L43" t="n">
-        <v>8144</v>
+        <v>7717</v>
       </c>
       <c r="M43" t="n">
-        <v>0.069</v>
+        <v>0.065</v>
       </c>
       <c r="N43" t="n">
-        <v>0.151</v>
+        <v>0.107</v>
       </c>
       <c r="O43" t="n">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5562,7 +5569,7 @@
         <v>268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44474</v>
+        <v>44479</v>
       </c>
       <c r="D45" t="s">
         <v>269</v>
@@ -5572,31 +5579,31 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="H45" t="n">
-        <v>7172545</v>
+        <v>7224917</v>
       </c>
       <c r="I45" t="n">
-        <v>1292.732</v>
+        <v>1302.171</v>
       </c>
       <c r="J45" t="n">
-        <v>10118</v>
+        <v>4826</v>
       </c>
       <c r="K45" t="n">
-        <v>1.824</v>
+        <v>0.87</v>
       </c>
       <c r="L45" t="n">
-        <v>10766</v>
+        <v>10304</v>
       </c>
       <c r="M45" t="n">
-        <v>1.94</v>
+        <v>1.857</v>
       </c>
       <c r="N45" t="n">
-        <v>0.052</v>
+        <v>0.049</v>
       </c>
       <c r="O45" t="n">
-        <v>19.3</v>
+        <v>20.2</v>
       </c>
       <c r="P45" t="s">
         <v>271</v>
@@ -5619,7 +5626,7 @@
         <v>274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44473</v>
+        <v>44477</v>
       </c>
       <c r="D46" t="s">
         <v>275</v>
@@ -5629,21 +5636,21 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" t="n">
-        <v>512152</v>
+        <v>673246</v>
       </c>
       <c r="K46" t="n">
-        <v>7.58</v>
+        <v>9.965</v>
       </c>
       <c r="L46" t="n">
-        <v>470864</v>
+        <v>449074</v>
       </c>
       <c r="M46" t="n">
-        <v>6.969</v>
+        <v>6.647</v>
       </c>
       <c r="N46" t="n">
         <v>0.01</v>
@@ -5941,7 +5948,7 @@
         <v>310</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44476</v>
+        <v>44479</v>
       </c>
       <c r="D52" t="s">
         <v>311</v>
@@ -5951,31 +5958,31 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H52" t="n">
-        <v>21474989</v>
+        <v>21991126</v>
       </c>
       <c r="I52" t="n">
-        <v>2070.727</v>
+        <v>2120.496</v>
       </c>
       <c r="J52" t="n">
-        <v>148334</v>
+        <v>149628</v>
       </c>
       <c r="K52" t="n">
-        <v>14.303</v>
+        <v>14.428</v>
       </c>
       <c r="L52" t="n">
-        <v>190888</v>
+        <v>186489</v>
       </c>
       <c r="M52" t="n">
-        <v>18.406</v>
+        <v>17.982</v>
       </c>
       <c r="N52" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="O52" t="n">
-        <v>87.5</v>
+        <v>84.3</v>
       </c>
       <c r="P52" t="s">
         <v>313</v>
@@ -5998,7 +6005,7 @@
         <v>317</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="D53" t="s">
         <v>318</v>
@@ -6008,31 +6015,31 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H53" t="n">
-        <v>2641776</v>
+        <v>2228737</v>
       </c>
       <c r="I53" t="n">
-        <v>144.756</v>
+        <v>122.123</v>
       </c>
       <c r="J53" t="n">
-        <v>16323</v>
+        <v>5271</v>
       </c>
       <c r="K53" t="n">
-        <v>0.894</v>
+        <v>0.289</v>
       </c>
       <c r="L53" t="n">
-        <v>12561</v>
+        <v>11493</v>
       </c>
       <c r="M53" t="n">
-        <v>0.688</v>
+        <v>0.63</v>
       </c>
       <c r="N53" t="n">
-        <v>0.169</v>
+        <v>0.165</v>
       </c>
       <c r="O53" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="P53" t="s">
         <v>320</v>
@@ -6055,7 +6062,7 @@
         <v>324</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44467</v>
+        <v>44474</v>
       </c>
       <c r="D54" t="s">
         <v>325</v>
@@ -6065,27 +6072,27 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H54" t="n">
-        <v>25587465</v>
+        <v>25906063</v>
       </c>
       <c r="I54" t="n">
-        <v>3387.812</v>
+        <v>3429.995</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54" t="n">
-        <v>56105</v>
+        <v>46141</v>
       </c>
       <c r="M54" t="n">
-        <v>7.428</v>
+        <v>6.109</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>16666.7</v>
+        <v>11111.1</v>
       </c>
       <c r="P54" t="s">
         <v>327</v>
@@ -6108,7 +6115,7 @@
         <v>331</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D55" t="s">
         <v>332</v>
@@ -6120,31 +6127,31 @@
         <v>334</v>
       </c>
       <c r="G55" t="n">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H55" t="n">
-        <v>6565775</v>
+        <v>6620866</v>
       </c>
       <c r="I55" t="n">
-        <v>681.51</v>
+        <v>687.228</v>
       </c>
       <c r="J55" t="n">
-        <v>16194</v>
+        <v>39373</v>
       </c>
       <c r="K55" t="n">
-        <v>1.681</v>
+        <v>4.087</v>
       </c>
       <c r="L55" t="n">
-        <v>11976</v>
+        <v>13073</v>
       </c>
       <c r="M55" t="n">
-        <v>1.243</v>
+        <v>1.357</v>
       </c>
       <c r="N55" t="n">
-        <v>0.047</v>
+        <v>0.05</v>
       </c>
       <c r="O55" t="n">
-        <v>21.3</v>
+        <v>20</v>
       </c>
       <c r="P55" t="s">
         <v>333</v>
@@ -6167,7 +6174,7 @@
         <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
@@ -6177,25 +6184,25 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H56" t="n">
-        <v>645951</v>
+        <v>650933</v>
       </c>
       <c r="I56" t="n">
-        <v>1881.265</v>
+        <v>1895.774</v>
       </c>
       <c r="J56" t="n">
-        <v>1751</v>
+        <v>685</v>
       </c>
       <c r="K56" t="n">
-        <v>5.1</v>
+        <v>1.995</v>
       </c>
       <c r="L56" t="n">
-        <v>1431</v>
+        <v>1453</v>
       </c>
       <c r="M56" t="n">
-        <v>4.168</v>
+        <v>4.232</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
@@ -6220,7 +6227,7 @@
         <v>343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D57" t="s">
         <v>344</v>
@@ -6232,28 +6239,32 @@
         <v>346</v>
       </c>
       <c r="G57" t="n">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="H57" t="n">
-        <v>580043190</v>
+        <v>583631490</v>
       </c>
       <c r="I57" t="n">
-        <v>416.276</v>
+        <v>418.852</v>
       </c>
       <c r="J57" t="n">
-        <v>1385706</v>
+        <v>1035797</v>
       </c>
       <c r="K57" t="n">
-        <v>0.994</v>
+        <v>0.743</v>
       </c>
       <c r="L57" t="n">
-        <v>1366550</v>
+        <v>1339870</v>
       </c>
       <c r="M57" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="N57"/>
-      <c r="O57"/>
+        <v>0.962</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O57" t="n">
+        <v>70.6</v>
+      </c>
       <c r="P57" t="s">
         <v>345</v>
       </c>
@@ -6328,7 +6339,7 @@
         <v>355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44475</v>
+        <v>44480</v>
       </c>
       <c r="D59" t="s">
         <v>356</v>
@@ -6338,31 +6349,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H59" t="n">
-        <v>32829944</v>
+        <v>33350660</v>
       </c>
       <c r="I59" t="n">
-        <v>386.104</v>
+        <v>392.228</v>
       </c>
       <c r="J59" t="n">
-        <v>106347</v>
+        <v>104213</v>
       </c>
       <c r="K59" t="n">
-        <v>1.251</v>
+        <v>1.226</v>
       </c>
       <c r="L59" t="n">
-        <v>106116</v>
+        <v>104490</v>
       </c>
       <c r="M59" t="n">
-        <v>1.248</v>
+        <v>1.229</v>
       </c>
       <c r="N59" t="n">
-        <v>0.12</v>
+        <v>0.106</v>
       </c>
       <c r="O59" t="n">
-        <v>8.3</v>
+        <v>9.4</v>
       </c>
       <c r="P59" t="s">
         <v>357</v>
@@ -6442,7 +6453,7 @@
         <v>368</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D61" t="s">
         <v>369</v>
@@ -6452,31 +6463,31 @@
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="H61" t="n">
-        <v>7594120</v>
+        <v>7668724</v>
       </c>
       <c r="I61" t="n">
-        <v>1524.035</v>
+        <v>1539.007</v>
       </c>
       <c r="J61" t="n">
-        <v>21849</v>
+        <v>14117</v>
       </c>
       <c r="K61" t="n">
-        <v>4.385</v>
+        <v>2.833</v>
       </c>
       <c r="L61" t="n">
-        <v>19233</v>
+        <v>19576</v>
       </c>
       <c r="M61" t="n">
-        <v>3.86</v>
+        <v>3.929</v>
       </c>
       <c r="N61" t="n">
-        <v>0.059</v>
+        <v>0.073</v>
       </c>
       <c r="O61" t="n">
-        <v>17</v>
+        <v>13.7</v>
       </c>
       <c r="P61" t="s">
         <v>370</v>
@@ -6499,7 +6510,7 @@
         <v>374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D62" t="s">
         <v>375</v>
@@ -6509,31 +6520,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H62" t="n">
-        <v>27963824</v>
+        <v>28327710</v>
       </c>
       <c r="I62" t="n">
-        <v>3181.403</v>
+        <v>3222.802</v>
       </c>
       <c r="J62" t="n">
-        <v>103220</v>
+        <v>122135</v>
       </c>
       <c r="K62" t="n">
-        <v>11.743</v>
+        <v>13.895</v>
       </c>
       <c r="L62" t="n">
-        <v>105628</v>
+        <v>98815</v>
       </c>
       <c r="M62" t="n">
-        <v>12.017</v>
+        <v>11.242</v>
       </c>
       <c r="N62" t="n">
-        <v>0.025</v>
+        <v>0.021</v>
       </c>
       <c r="O62" t="n">
-        <v>39.4</v>
+        <v>48.1</v>
       </c>
       <c r="P62" t="s">
         <v>36</v>
@@ -6556,7 +6567,7 @@
         <v>380</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D63" t="s">
         <v>381</v>
@@ -6568,31 +6579,31 @@
         <v>383</v>
       </c>
       <c r="G63" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H63" t="n">
-        <v>34626978</v>
+        <v>34815383</v>
       </c>
       <c r="I63" t="n">
-        <v>573.603</v>
+        <v>576.724</v>
       </c>
       <c r="J63" t="n">
-        <v>53955</v>
+        <v>26049</v>
       </c>
       <c r="K63" t="n">
-        <v>0.894</v>
+        <v>0.432</v>
       </c>
       <c r="L63" t="n">
-        <v>53345</v>
+        <v>50965</v>
       </c>
       <c r="M63" t="n">
-        <v>0.884</v>
+        <v>0.844</v>
       </c>
       <c r="N63" t="n">
-        <v>0.053</v>
+        <v>0.051</v>
       </c>
       <c r="O63" t="n">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="P63" t="s">
         <v>384</v>
@@ -6615,7 +6626,7 @@
         <v>387</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44476</v>
+        <v>44479</v>
       </c>
       <c r="D64" t="s">
         <v>381</v>
@@ -6627,31 +6638,31 @@
         <v>383</v>
       </c>
       <c r="G64" t="n">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="H64" t="n">
-        <v>94444592</v>
+        <v>95331171</v>
       </c>
       <c r="I64" t="n">
-        <v>1564.495</v>
+        <v>1579.181</v>
       </c>
       <c r="J64" t="n">
-        <v>297356</v>
+        <v>270044</v>
       </c>
       <c r="K64" t="n">
-        <v>4.926</v>
+        <v>4.473</v>
       </c>
       <c r="L64" t="n">
-        <v>282707</v>
+        <v>275743</v>
       </c>
       <c r="M64" t="n">
-        <v>4.683</v>
+        <v>4.568</v>
       </c>
       <c r="N64" t="n">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="O64" t="n">
-        <v>99.3</v>
+        <v>105.6</v>
       </c>
       <c r="P64" t="s">
         <v>384</v>
@@ -6674,7 +6685,7 @@
         <v>390</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="D65" t="s">
         <v>391</v>
@@ -6684,31 +6695,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H65" t="n">
-        <v>611197</v>
+        <v>617665</v>
       </c>
       <c r="I65" t="n">
-        <v>205.551</v>
+        <v>207.726</v>
       </c>
       <c r="J65" t="n">
-        <v>1470</v>
+        <v>1601</v>
       </c>
       <c r="K65" t="n">
-        <v>0.494</v>
+        <v>0.538</v>
       </c>
       <c r="L65" t="n">
-        <v>1533</v>
+        <v>1439</v>
       </c>
       <c r="M65" t="n">
-        <v>0.516</v>
+        <v>0.484</v>
       </c>
       <c r="N65" t="n">
-        <v>0.165</v>
+        <v>0.141</v>
       </c>
       <c r="O65" t="n">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="P65" t="s">
         <v>392</v>
@@ -6731,7 +6742,7 @@
         <v>396</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D66" t="s">
         <v>397</v>
@@ -6741,31 +6752,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="H66" t="n">
-        <v>24146710</v>
+        <v>24344819</v>
       </c>
       <c r="I66" t="n">
-        <v>191.563</v>
+        <v>193.135</v>
       </c>
       <c r="J66" t="n">
-        <v>59576</v>
+        <v>58344</v>
       </c>
       <c r="K66" t="n">
-        <v>0.473</v>
+        <v>0.463</v>
       </c>
       <c r="L66" t="n">
-        <v>58615</v>
+        <v>55430</v>
       </c>
       <c r="M66" t="n">
-        <v>0.465</v>
+        <v>0.44</v>
       </c>
       <c r="N66" t="n">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="O66" t="n">
-        <v>55.8</v>
+        <v>69.3</v>
       </c>
       <c r="P66" t="s">
         <v>398</v>
@@ -7069,7 +7080,7 @@
         <v>430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44476</v>
+        <v>44479</v>
       </c>
       <c r="D72" t="s">
         <v>431</v>
@@ -7079,13 +7090,13 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H72" t="n">
-        <v>601260</v>
+        <v>612410</v>
       </c>
       <c r="I72" t="n">
-        <v>81.479</v>
+        <v>82.99</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
@@ -7096,10 +7107,10 @@
         <v>0.777</v>
       </c>
       <c r="N72" t="n">
-        <v>0.075</v>
+        <v>0.083</v>
       </c>
       <c r="O72" t="n">
-        <v>13.2</v>
+        <v>12.1</v>
       </c>
       <c r="P72" t="s">
         <v>432</v>
@@ -7230,7 +7241,7 @@
         <v>447</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44475</v>
+        <v>44480</v>
       </c>
       <c r="D75" t="s">
         <v>448</v>
@@ -7240,15 +7251,15 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="n">
-        <v>5403</v>
+        <v>4097</v>
       </c>
       <c r="K75" t="n">
-        <v>0.776</v>
+        <v>0.589</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
@@ -7275,7 +7286,7 @@
         <v>453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44474</v>
+        <v>44478</v>
       </c>
       <c r="D76" t="s">
         <v>454</v>
@@ -7285,31 +7296,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H76" t="n">
-        <v>69015</v>
+        <v>69730</v>
       </c>
       <c r="I76" t="n">
-        <v>1804.125</v>
+        <v>1822.816</v>
       </c>
       <c r="J76" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K76" t="n">
-        <v>3.32</v>
+        <v>3.059</v>
       </c>
       <c r="L76" t="n">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="M76" t="n">
-        <v>5.254</v>
+        <v>4.261</v>
       </c>
       <c r="N76" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="O76" t="n">
-        <v>166.7</v>
+        <v>90.9</v>
       </c>
       <c r="P76" t="s">
         <v>455</v>
@@ -7332,7 +7343,7 @@
         <v>459</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44473</v>
+        <v>44477</v>
       </c>
       <c r="D77" t="s">
         <v>460</v>
@@ -7342,31 +7353,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="H77" t="n">
-        <v>5275213</v>
+        <v>5381950</v>
       </c>
       <c r="I77" t="n">
-        <v>1961.146</v>
+        <v>2000.828</v>
       </c>
       <c r="J77" t="n">
-        <v>23143</v>
+        <v>25445</v>
       </c>
       <c r="K77" t="n">
-        <v>8.604</v>
+        <v>9.46</v>
       </c>
       <c r="L77" t="n">
-        <v>21953</v>
+        <v>21744</v>
       </c>
       <c r="M77" t="n">
-        <v>8.161</v>
+        <v>8.084</v>
       </c>
       <c r="N77" t="n">
-        <v>0.089</v>
+        <v>0.104</v>
       </c>
       <c r="O77" t="n">
-        <v>11.2</v>
+        <v>9.6</v>
       </c>
       <c r="P77" t="s">
         <v>461</v>
@@ -7389,7 +7400,7 @@
         <v>464</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44475</v>
+        <v>44478</v>
       </c>
       <c r="D78" t="s">
         <v>465</v>
@@ -7399,31 +7410,31 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="H78" t="n">
-        <v>3535512</v>
+        <v>3543784</v>
       </c>
       <c r="I78" t="n">
-        <v>5569.367</v>
+        <v>5582.397</v>
       </c>
       <c r="J78" t="n">
-        <v>2753</v>
+        <v>1877</v>
       </c>
       <c r="K78" t="n">
-        <v>4.337</v>
+        <v>2.957</v>
       </c>
       <c r="L78" t="n">
-        <v>2047</v>
+        <v>2226</v>
       </c>
       <c r="M78" t="n">
-        <v>3.225</v>
+        <v>3.507</v>
       </c>
       <c r="N78" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="O78" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="P78" t="s">
         <v>466</v>
@@ -7672,7 +7683,7 @@
         <v>494</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D83" t="s">
         <v>495</v>
@@ -7682,31 +7693,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H83" t="n">
-        <v>1300358</v>
+        <v>1306982</v>
       </c>
       <c r="I83" t="n">
-        <v>2527.106</v>
+        <v>2539.979</v>
       </c>
       <c r="J83" t="n">
-        <v>1786</v>
+        <v>1385</v>
       </c>
       <c r="K83" t="n">
-        <v>3.471</v>
+        <v>2.692</v>
       </c>
       <c r="L83" t="n">
-        <v>2056</v>
+        <v>1697</v>
       </c>
       <c r="M83" t="n">
-        <v>3.996</v>
+        <v>3.298</v>
       </c>
       <c r="N83" t="n">
-        <v>0.009</v>
+        <v>0.012</v>
       </c>
       <c r="O83" t="n">
-        <v>107.4</v>
+        <v>86.7</v>
       </c>
       <c r="P83" t="s">
         <v>497</v>
@@ -7778,7 +7789,7 @@
         <v>507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="D85" t="s">
         <v>508</v>
@@ -7788,31 +7799,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="H85" t="n">
-        <v>10314994</v>
+        <v>10389202</v>
       </c>
       <c r="I85" t="n">
-        <v>79.186</v>
+        <v>79.756</v>
       </c>
       <c r="J85" t="n">
-        <v>9629</v>
+        <v>2092</v>
       </c>
       <c r="K85" t="n">
-        <v>0.074</v>
+        <v>0.016</v>
       </c>
       <c r="L85" t="n">
-        <v>14617</v>
+        <v>15067</v>
       </c>
       <c r="M85" t="n">
-        <v>0.112</v>
+        <v>0.116</v>
       </c>
       <c r="N85" t="n">
-        <v>0.266</v>
+        <v>0.249</v>
       </c>
       <c r="O85" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P85" t="s">
         <v>510</v>
@@ -7888,7 +7899,7 @@
         <v>518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="D87" t="s">
         <v>519</v>
@@ -7898,25 +7909,25 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H87" t="n">
-        <v>4051769</v>
+        <v>4082943</v>
       </c>
       <c r="I87" t="n">
-        <v>1217.01</v>
+        <v>1226.373</v>
       </c>
       <c r="J87" t="n">
-        <v>9837</v>
+        <v>8904</v>
       </c>
       <c r="K87" t="n">
-        <v>2.955</v>
+        <v>2.674</v>
       </c>
       <c r="L87" t="n">
-        <v>6553</v>
+        <v>8573</v>
       </c>
       <c r="M87" t="n">
-        <v>1.968</v>
+        <v>2.575</v>
       </c>
       <c r="N87"/>
       <c r="O87"/>
@@ -8279,7 +8290,7 @@
         <v>560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="D94" t="s">
         <v>561</v>
@@ -8289,25 +8300,25 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H94" t="n">
-        <v>3543083</v>
+        <v>3619154</v>
       </c>
       <c r="I94" t="n">
-        <v>728.933</v>
+        <v>744.584</v>
       </c>
       <c r="J94" t="n">
-        <v>29927</v>
+        <v>16565</v>
       </c>
       <c r="K94" t="n">
-        <v>6.157</v>
+        <v>3.408</v>
       </c>
       <c r="L94" t="n">
-        <v>20583</v>
+        <v>22014</v>
       </c>
       <c r="M94" t="n">
-        <v>4.235</v>
+        <v>4.529</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -8332,7 +8343,7 @@
         <v>566</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44472</v>
+        <v>44479</v>
       </c>
       <c r="D95" t="s">
         <v>567</v>
@@ -8342,27 +8353,27 @@
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H95" t="n">
-        <v>3090114</v>
+        <v>3142971</v>
       </c>
       <c r="I95" t="n">
-        <v>14.617</v>
+        <v>14.867</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95" t="n">
-        <v>8667</v>
+        <v>7551</v>
       </c>
       <c r="M95" t="n">
-        <v>0.041</v>
+        <v>0.036</v>
       </c>
       <c r="N95" t="n">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="O95" t="n">
-        <v>36.1</v>
+        <v>34</v>
       </c>
       <c r="P95" t="s">
         <v>568</v>
@@ -8438,7 +8449,7 @@
         <v>576</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44474</v>
+        <v>44478</v>
       </c>
       <c r="D97" t="s">
         <v>577</v>
@@ -8448,31 +8459,31 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H97" t="n">
-        <v>7831123</v>
+        <v>7864561</v>
       </c>
       <c r="I97" t="n">
-        <v>1432.794</v>
+        <v>1438.912</v>
       </c>
       <c r="J97" t="n">
-        <v>10274</v>
+        <v>3584</v>
       </c>
       <c r="K97" t="n">
-        <v>1.88</v>
+        <v>0.656</v>
       </c>
       <c r="L97" t="n">
-        <v>9821</v>
+        <v>8939</v>
       </c>
       <c r="M97" t="n">
-        <v>1.797</v>
+        <v>1.635</v>
       </c>
       <c r="N97" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="O97" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="P97" t="s">
         <v>578</v>
@@ -8540,7 +8551,7 @@
         <v>587</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="D99" t="s">
         <v>588</v>
@@ -8550,25 +8561,25 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H99" t="n">
-        <v>19782491</v>
+        <v>19953497</v>
       </c>
       <c r="I99" t="n">
-        <v>87.844</v>
+        <v>88.603</v>
       </c>
       <c r="J99" t="n">
-        <v>45619</v>
+        <v>42476</v>
       </c>
       <c r="K99" t="n">
-        <v>0.203</v>
+        <v>0.189</v>
       </c>
       <c r="L99" t="n">
-        <v>49423</v>
+        <v>44921</v>
       </c>
       <c r="M99" t="n">
-        <v>0.219</v>
+        <v>0.199</v>
       </c>
       <c r="N99"/>
       <c r="O99"/>
@@ -8868,7 +8879,7 @@
         <v>620</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="D105" t="s">
         <v>621</v>
@@ -8878,31 +8889,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H105" t="n">
-        <v>20286976</v>
+        <v>20507811</v>
       </c>
       <c r="I105" t="n">
-        <v>182.688</v>
+        <v>184.677</v>
       </c>
       <c r="J105" t="n">
-        <v>55788</v>
+        <v>33157</v>
       </c>
       <c r="K105" t="n">
-        <v>0.502</v>
+        <v>0.299</v>
       </c>
       <c r="L105" t="n">
-        <v>57638</v>
+        <v>53181</v>
       </c>
       <c r="M105" t="n">
-        <v>0.519</v>
+        <v>0.479</v>
       </c>
       <c r="N105" t="n">
-        <v>0.216</v>
+        <v>0.197</v>
       </c>
       <c r="O105" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="P105" t="s">
         <v>326</v>
@@ -9039,7 +9050,7 @@
         <v>633</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="D108" t="s">
         <v>634</v>
@@ -9049,31 +9060,31 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H108" t="n">
-        <v>18868916</v>
+        <v>19023656</v>
       </c>
       <c r="I108" t="n">
-        <v>1855.73</v>
+        <v>1870.948</v>
       </c>
       <c r="J108" t="n">
-        <v>48959</v>
+        <v>14990</v>
       </c>
       <c r="K108" t="n">
-        <v>4.815</v>
+        <v>1.474</v>
       </c>
       <c r="L108" t="n">
-        <v>39726</v>
+        <v>37594</v>
       </c>
       <c r="M108" t="n">
-        <v>3.907</v>
+        <v>3.697</v>
       </c>
       <c r="N108" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="O108" t="n">
-        <v>69.4</v>
+        <v>62.7</v>
       </c>
       <c r="P108" t="s">
         <v>635</v>
@@ -9096,7 +9107,7 @@
         <v>638</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44474</v>
+        <v>44480</v>
       </c>
       <c r="D109" t="s">
         <v>639</v>
@@ -9106,25 +9117,25 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="H109" t="n">
-        <v>2693526</v>
+        <v>2723342</v>
       </c>
       <c r="I109" t="n">
-        <v>919.128</v>
+        <v>929.302</v>
       </c>
       <c r="J109" t="n">
-        <v>5811</v>
+        <v>4657</v>
       </c>
       <c r="K109" t="n">
-        <v>1.983</v>
+        <v>1.589</v>
       </c>
       <c r="L109" t="n">
-        <v>5614</v>
+        <v>5090</v>
       </c>
       <c r="M109" t="n">
-        <v>1.916</v>
+        <v>1.737</v>
       </c>
       <c r="N109"/>
       <c r="O109"/>
@@ -9175,8 +9186,12 @@
       <c r="M110" t="n">
         <v>2.939</v>
       </c>
-      <c r="N110"/>
-      <c r="O110"/>
+      <c r="N110" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="O110" t="n">
+        <v>4.5</v>
+      </c>
       <c r="P110" t="s">
         <v>647</v>
       </c>
@@ -9251,7 +9266,7 @@
         <v>657</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="D112" t="s">
         <v>658</v>
@@ -9261,25 +9276,25 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H112" t="n">
-        <v>2896278</v>
+        <v>2946155</v>
       </c>
       <c r="I112" t="n">
-        <v>218.15</v>
+        <v>221.907</v>
       </c>
       <c r="J112" t="n">
-        <v>10466</v>
+        <v>7498</v>
       </c>
       <c r="K112" t="n">
-        <v>0.788</v>
+        <v>0.565</v>
       </c>
       <c r="L112" t="n">
-        <v>11065</v>
+        <v>11008</v>
       </c>
       <c r="M112" t="n">
-        <v>0.833</v>
+        <v>0.829</v>
       </c>
       <c r="N112"/>
       <c r="O112"/>
@@ -9304,7 +9319,7 @@
         <v>663</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44477</v>
+        <v>44479</v>
       </c>
       <c r="D113" t="s">
         <v>664</v>
@@ -9314,28 +9329,32 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H113" t="n">
-        <v>44642</v>
+        <v>46380</v>
       </c>
       <c r="I113" t="n">
-        <v>833.713</v>
+        <v>866.171</v>
       </c>
       <c r="J113" t="n">
-        <v>656</v>
+        <v>904</v>
       </c>
       <c r="K113" t="n">
-        <v>12.251</v>
+        <v>16.883</v>
       </c>
       <c r="L113" t="n">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="M113" t="n">
-        <v>8.255</v>
-      </c>
-      <c r="N113"/>
-      <c r="O113"/>
+        <v>9.319</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="O113" t="n">
+        <v>9.5</v>
+      </c>
       <c r="P113" t="s">
         <v>36</v>
       </c>
@@ -9402,7 +9421,7 @@
         <v>674</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="D115" t="s">
         <v>675</v>
@@ -9412,31 +9431,31 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H115" t="n">
-        <v>29251941</v>
+        <v>29430910</v>
       </c>
       <c r="I115" t="n">
-        <v>827.713</v>
+        <v>832.777</v>
       </c>
       <c r="J115" t="n">
-        <v>51683</v>
+        <v>48355</v>
       </c>
       <c r="K115" t="n">
-        <v>1.462</v>
+        <v>1.368</v>
       </c>
       <c r="L115" t="n">
-        <v>49919</v>
+        <v>47590</v>
       </c>
       <c r="M115" t="n">
-        <v>1.413</v>
+        <v>1.347</v>
       </c>
       <c r="N115" t="n">
         <v>0.001</v>
       </c>
       <c r="O115" t="n">
-        <v>952.1</v>
+        <v>728.9</v>
       </c>
       <c r="P115" t="s">
         <v>36</v>
@@ -9459,7 +9478,7 @@
         <v>678</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D116" t="s">
         <v>679</v>
@@ -9469,31 +9488,31 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H116" t="n">
-        <v>822153</v>
+        <v>828629</v>
       </c>
       <c r="I116" t="n">
-        <v>47.81</v>
+        <v>48.186</v>
       </c>
       <c r="J116" t="n">
-        <v>1667</v>
+        <v>1429</v>
       </c>
       <c r="K116" t="n">
-        <v>0.097</v>
+        <v>0.083</v>
       </c>
       <c r="L116" t="n">
-        <v>1572</v>
+        <v>1600</v>
       </c>
       <c r="M116" t="n">
-        <v>0.091</v>
+        <v>0.093</v>
       </c>
       <c r="N116" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="O116" t="n">
-        <v>220.1</v>
+        <v>287.2</v>
       </c>
       <c r="P116" t="s">
         <v>680</v>
@@ -9516,7 +9535,7 @@
         <v>683</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D117" t="s">
         <v>684</v>
@@ -9528,31 +9547,31 @@
         <v>685</v>
       </c>
       <c r="G117" t="n">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H117" t="n">
-        <v>5798095</v>
+        <v>5874429</v>
       </c>
       <c r="I117" t="n">
-        <v>839.303</v>
+        <v>850.353</v>
       </c>
       <c r="J117" t="n">
-        <v>22978</v>
+        <v>19360</v>
       </c>
       <c r="K117" t="n">
-        <v>3.326</v>
+        <v>2.802</v>
       </c>
       <c r="L117" t="n">
-        <v>21098</v>
+        <v>21022</v>
       </c>
       <c r="M117" t="n">
-        <v>3.054</v>
+        <v>3.043</v>
       </c>
       <c r="N117" t="n">
-        <v>0.314</v>
+        <v>0.298</v>
       </c>
       <c r="O117" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P117" t="s">
         <v>36</v>
@@ -9575,7 +9594,7 @@
         <v>689</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44473</v>
+        <v>44480</v>
       </c>
       <c r="D118" t="s">
         <v>690</v>
@@ -9585,27 +9604,27 @@
       </c>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H118" t="n">
-        <v>20013983</v>
+        <v>20436387</v>
       </c>
       <c r="I118" t="n">
-        <v>3394.108</v>
+        <v>3465.742</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118" t="n">
-        <v>64784</v>
+        <v>60343</v>
       </c>
       <c r="M118" t="n">
-        <v>10.987</v>
+        <v>10.233</v>
       </c>
       <c r="N118" t="n">
-        <v>0.037</v>
+        <v>0.054</v>
       </c>
       <c r="O118" t="n">
-        <v>27</v>
+        <v>18.4</v>
       </c>
       <c r="P118" t="s">
         <v>36</v>
@@ -9628,7 +9647,7 @@
         <v>694</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="D119" t="s">
         <v>695</v>
@@ -9638,31 +9657,31 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="H119" t="n">
-        <v>42155641</v>
+        <v>42271380</v>
       </c>
       <c r="I119" t="n">
-        <v>7719.787</v>
+        <v>7740.982</v>
       </c>
       <c r="J119" t="n">
-        <v>30284</v>
+        <v>12411</v>
       </c>
       <c r="K119" t="n">
-        <v>5.546</v>
+        <v>2.273</v>
       </c>
       <c r="L119" t="n">
-        <v>32614</v>
+        <v>32792</v>
       </c>
       <c r="M119" t="n">
-        <v>5.972</v>
+        <v>6.005</v>
       </c>
       <c r="N119" t="n">
-        <v>0.049</v>
+        <v>0.056</v>
       </c>
       <c r="O119" t="n">
-        <v>20.4</v>
+        <v>17.9</v>
       </c>
       <c r="P119" t="s">
         <v>36</v>
@@ -9685,7 +9704,7 @@
         <v>698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D120" t="s">
         <v>699</v>
@@ -9695,31 +9714,31 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H120" t="n">
-        <v>1614007</v>
+        <v>1626242</v>
       </c>
       <c r="I120" t="n">
-        <v>776.442</v>
+        <v>782.327</v>
       </c>
       <c r="J120" t="n">
-        <v>4709</v>
+        <v>4558</v>
       </c>
       <c r="K120" t="n">
-        <v>2.265</v>
+        <v>2.193</v>
       </c>
       <c r="L120" t="n">
-        <v>4236</v>
+        <v>4065</v>
       </c>
       <c r="M120" t="n">
-        <v>2.038</v>
+        <v>1.956</v>
       </c>
       <c r="N120" t="n">
-        <v>0.194</v>
+        <v>0.196</v>
       </c>
       <c r="O120" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="P120" t="s">
         <v>700</v>
@@ -9799,7 +9818,7 @@
         <v>709</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D122" t="s">
         <v>710</v>
@@ -9809,28 +9828,32 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="H122" t="n">
-        <v>13649344</v>
+        <v>13721674</v>
       </c>
       <c r="I122" t="n">
-        <v>266.042</v>
+        <v>267.452</v>
       </c>
       <c r="J122" t="n">
-        <v>55107</v>
+        <v>31728</v>
       </c>
       <c r="K122" t="n">
-        <v>1.074</v>
+        <v>0.618</v>
       </c>
       <c r="L122" t="n">
-        <v>31351</v>
+        <v>33806</v>
       </c>
       <c r="M122" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="N122"/>
-      <c r="O122"/>
+        <v>0.659</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="O122" t="n">
+        <v>18.5</v>
+      </c>
       <c r="P122" t="s">
         <v>711</v>
       </c>
@@ -9958,7 +9981,7 @@
         <v>726</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D125" t="s">
         <v>727</v>
@@ -9968,31 +9991,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H125" t="n">
-        <v>5329543</v>
+        <v>5355028</v>
       </c>
       <c r="I125" t="n">
-        <v>247.917</v>
+        <v>249.102</v>
       </c>
       <c r="J125" t="n">
-        <v>6282</v>
+        <v>5299</v>
       </c>
       <c r="K125" t="n">
-        <v>0.292</v>
+        <v>0.246</v>
       </c>
       <c r="L125" t="n">
-        <v>6841</v>
+        <v>6241</v>
       </c>
       <c r="M125" t="n">
-        <v>0.318</v>
+        <v>0.29</v>
       </c>
       <c r="N125" t="n">
-        <v>0.129</v>
+        <v>0.134</v>
       </c>
       <c r="O125" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="P125" t="s">
         <v>728</v>
@@ -10068,7 +10091,7 @@
         <v>738</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44475</v>
+        <v>44478</v>
       </c>
       <c r="D127" t="s">
         <v>454</v>
@@ -10078,31 +10101,31 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H127" t="n">
-        <v>10639080</v>
+        <v>10760244</v>
       </c>
       <c r="I127" t="n">
-        <v>1220.709</v>
+        <v>1234.611</v>
       </c>
       <c r="J127" t="n">
-        <v>27821</v>
+        <v>30661</v>
       </c>
       <c r="K127" t="n">
-        <v>3.192</v>
+        <v>3.518</v>
       </c>
       <c r="L127" t="n">
-        <v>33864</v>
+        <v>32424</v>
       </c>
       <c r="M127" t="n">
-        <v>3.885</v>
+        <v>3.72</v>
       </c>
       <c r="N127" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="O127" t="n">
-        <v>29.4</v>
+        <v>30.3</v>
       </c>
       <c r="P127" t="s">
         <v>455</v>
@@ -10125,7 +10148,7 @@
         <v>741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D128" t="s">
         <v>742</v>
@@ -10135,31 +10158,31 @@
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="H128" t="n">
-        <v>3551517</v>
+        <v>3619373</v>
       </c>
       <c r="I128" t="n">
-        <v>148.879</v>
+        <v>151.724</v>
       </c>
       <c r="J128" t="n">
-        <v>12245</v>
+        <v>12723</v>
       </c>
       <c r="K128" t="n">
-        <v>0.513</v>
+        <v>0.533</v>
       </c>
       <c r="L128" t="n">
-        <v>19879</v>
+        <v>17844</v>
       </c>
       <c r="M128" t="n">
-        <v>0.833</v>
+        <v>0.748</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>2899.1</v>
+        <v>2498.1</v>
       </c>
       <c r="P128" t="s">
         <v>743</v>
@@ -10182,7 +10205,7 @@
         <v>746</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44457</v>
+        <v>44478</v>
       </c>
       <c r="D129" t="s">
         <v>747</v>
@@ -10192,31 +10215,31 @@
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="H129" t="n">
-        <v>13258565</v>
+        <v>14201188</v>
       </c>
       <c r="I129" t="n">
-        <v>189.541</v>
+        <v>203.017</v>
       </c>
       <c r="J129" t="n">
-        <v>36856</v>
+        <v>38706</v>
       </c>
       <c r="K129" t="n">
-        <v>0.527</v>
+        <v>0.553</v>
       </c>
       <c r="L129" t="n">
-        <v>51971</v>
+        <v>47093</v>
       </c>
       <c r="M129" t="n">
-        <v>0.743</v>
+        <v>0.673</v>
       </c>
       <c r="N129" t="n">
-        <v>0.26</v>
+        <v>0.223</v>
       </c>
       <c r="O129" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P129" t="s">
         <v>749</v>
@@ -10239,7 +10262,7 @@
         <v>753</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44449</v>
+        <v>44480</v>
       </c>
       <c r="D130" t="s">
         <v>754</v>
@@ -10249,27 +10272,27 @@
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H130" t="n">
-        <v>194367</v>
+        <v>209126</v>
       </c>
       <c r="I130" t="n">
-        <v>144.632</v>
+        <v>155.614</v>
       </c>
       <c r="J130"/>
       <c r="K130"/>
       <c r="L130" t="n">
-        <v>809</v>
+        <v>476</v>
       </c>
       <c r="M130" t="n">
-        <v>0.602</v>
+        <v>0.354</v>
       </c>
       <c r="N130" t="n">
-        <v>0.164</v>
+        <v>0.025</v>
       </c>
       <c r="O130" t="n">
-        <v>6.1</v>
+        <v>40.1</v>
       </c>
       <c r="P130" t="s">
         <v>36</v>
@@ -10406,7 +10429,7 @@
         <v>769</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="D133" t="s">
         <v>770</v>
@@ -10416,27 +10439,27 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H133" t="n">
-        <v>2975899</v>
+        <v>2994047</v>
       </c>
       <c r="I133" t="n">
-        <v>249.326</v>
+        <v>250.847</v>
       </c>
       <c r="J133"/>
       <c r="K133"/>
       <c r="L133" t="n">
-        <v>7903</v>
+        <v>4963</v>
       </c>
       <c r="M133" t="n">
-        <v>0.662</v>
+        <v>0.416</v>
       </c>
       <c r="N133" t="n">
-        <v>0.049</v>
+        <v>0.053</v>
       </c>
       <c r="O133" t="n">
-        <v>20.6</v>
+        <v>18.8</v>
       </c>
       <c r="P133" t="s">
         <v>772</v>
@@ -10459,7 +10482,7 @@
         <v>776</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D134" t="s">
         <v>777</v>
@@ -10469,31 +10492,31 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H134" t="n">
-        <v>88754434</v>
+        <v>90162700</v>
       </c>
       <c r="I134" t="n">
-        <v>1043.645</v>
+        <v>1060.205</v>
       </c>
       <c r="J134" t="n">
-        <v>362152</v>
+        <v>355015</v>
       </c>
       <c r="K134" t="n">
-        <v>4.258</v>
+        <v>4.175</v>
       </c>
       <c r="L134" t="n">
-        <v>354996</v>
+        <v>354864</v>
       </c>
       <c r="M134" t="n">
-        <v>4.174</v>
+        <v>4.173</v>
       </c>
       <c r="N134" t="n">
-        <v>0.082</v>
+        <v>0.084</v>
       </c>
       <c r="O134" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="P134" t="s">
         <v>778</v>
@@ -10573,7 +10596,7 @@
         <v>788</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44477</v>
+        <v>44481</v>
       </c>
       <c r="D136" t="s">
         <v>789</v>
@@ -10583,25 +10606,25 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H136" t="n">
-        <v>13164600</v>
+        <v>13323492</v>
       </c>
       <c r="I136" t="n">
-        <v>302.865</v>
+        <v>306.521</v>
       </c>
       <c r="J136" t="n">
-        <v>53211</v>
+        <v>46233</v>
       </c>
       <c r="K136" t="n">
-        <v>1.224</v>
+        <v>1.064</v>
       </c>
       <c r="L136" t="n">
-        <v>41210</v>
+        <v>45646</v>
       </c>
       <c r="M136" t="n">
-        <v>0.948</v>
+        <v>1.05</v>
       </c>
       <c r="N136"/>
       <c r="O136"/>
@@ -10626,7 +10649,7 @@
         <v>794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D137" t="s">
         <v>795</v>
@@ -10636,31 +10659,31 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H137" t="n">
-        <v>86074773</v>
+        <v>87246490</v>
       </c>
       <c r="I137" t="n">
-        <v>8615.159</v>
+        <v>8732.436</v>
       </c>
       <c r="J137" t="n">
-        <v>264452</v>
+        <v>276637</v>
       </c>
       <c r="K137" t="n">
-        <v>26.469</v>
+        <v>27.688</v>
       </c>
       <c r="L137" t="n">
-        <v>299913</v>
+        <v>299906</v>
       </c>
       <c r="M137" t="n">
-        <v>30.018</v>
+        <v>30.017</v>
       </c>
       <c r="N137" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="O137" t="n">
-        <v>1520.2</v>
+        <v>2114.1</v>
       </c>
       <c r="P137" t="s">
         <v>796</v>
@@ -10683,7 +10706,7 @@
         <v>799</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44475</v>
+        <v>44479</v>
       </c>
       <c r="D138" t="s">
         <v>800</v>
@@ -10695,31 +10718,31 @@
         <v>802</v>
       </c>
       <c r="G138" t="n">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H138" t="n">
-        <v>279222165</v>
+        <v>283376305</v>
       </c>
       <c r="I138" t="n">
-        <v>4093.74</v>
+        <v>4154.644</v>
       </c>
       <c r="J138" t="n">
-        <v>1053450</v>
+        <v>968269</v>
       </c>
       <c r="K138" t="n">
-        <v>15.445</v>
+        <v>14.196</v>
       </c>
       <c r="L138" t="n">
-        <v>847983</v>
+        <v>915449</v>
       </c>
       <c r="M138" t="n">
-        <v>12.432</v>
+        <v>13.422</v>
       </c>
       <c r="N138" t="n">
         <v>0.04</v>
       </c>
       <c r="O138" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="P138" t="s">
         <v>803</v>
@@ -10742,7 +10765,7 @@
         <v>807</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44473</v>
+        <v>44476</v>
       </c>
       <c r="D139" t="s">
         <v>808</v>
@@ -10752,31 +10775,31 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H139" t="n">
-        <v>586170669</v>
+        <v>592381867</v>
       </c>
       <c r="I139" t="n">
-        <v>1760.721</v>
+        <v>1779.378</v>
       </c>
       <c r="J139" t="n">
-        <v>325072</v>
+        <v>1065518</v>
       </c>
       <c r="K139" t="n">
-        <v>0.976</v>
+        <v>3.201</v>
       </c>
       <c r="L139" t="n">
-        <v>1245183</v>
+        <v>1292914</v>
       </c>
       <c r="M139" t="n">
-        <v>3.74</v>
+        <v>3.884</v>
       </c>
       <c r="N139" t="n">
-        <v>0.084</v>
+        <v>0.077</v>
       </c>
       <c r="O139" t="n">
-        <v>11.9</v>
+        <v>13</v>
       </c>
       <c r="P139" t="s">
         <v>809</v>
@@ -10799,7 +10822,7 @@
         <v>813</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44476</v>
+        <v>44477</v>
       </c>
       <c r="D140" t="s">
         <v>814</v>
@@ -10809,31 +10832,31 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H140" t="n">
-        <v>3628184</v>
+        <v>3635691</v>
       </c>
       <c r="I140" t="n">
-        <v>1041.04</v>
+        <v>1043.194</v>
       </c>
       <c r="J140" t="n">
-        <v>8996</v>
+        <v>7507</v>
       </c>
       <c r="K140" t="n">
-        <v>2.581</v>
+        <v>2.154</v>
       </c>
       <c r="L140" t="n">
-        <v>6921</v>
+        <v>7411</v>
       </c>
       <c r="M140" t="n">
-        <v>1.986</v>
+        <v>2.126</v>
       </c>
       <c r="N140" t="n">
         <v>0.015</v>
       </c>
       <c r="O140" t="n">
-        <v>66.1</v>
+        <v>65.5</v>
       </c>
       <c r="P140" t="s">
         <v>202</v>
@@ -10909,7 +10932,7 @@
         <v>825</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D142" t="s">
         <v>826</v>
@@ -10919,31 +10942,31 @@
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H142" t="n">
-        <v>2493045</v>
+        <v>2509600</v>
       </c>
       <c r="I142" t="n">
-        <v>131.763</v>
+        <v>132.638</v>
       </c>
       <c r="J142" t="n">
-        <v>5225</v>
+        <v>2943</v>
       </c>
       <c r="K142" t="n">
-        <v>0.276</v>
+        <v>0.156</v>
       </c>
       <c r="L142" t="n">
-        <v>5208</v>
+        <v>4911</v>
       </c>
       <c r="M142" t="n">
-        <v>0.275</v>
+        <v>0.26</v>
       </c>
       <c r="N142" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="O142" t="n">
-        <v>153.8</v>
+        <v>189.9</v>
       </c>
       <c r="P142" t="s">
         <v>828</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4379</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4406</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/10/coronavirus-covid-19-at-a-glance-11-october-2021_0.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/10/coronavirus-covid-19-at-a-glance-14-october-2021_0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -381,7 +381,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4595134997214747/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4621469121248001/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/6085-el-ministerio-de-salud-informa-que-se-inmunizo-hasta-hoy-a-6-825-033-personas-con-primeras-segundas-y-dosis-unica</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/6111-covid-19-hasta-hoy-la-inmunizacion-alcanza-a-7-040-751-dosis-aplicadas-con-primeras-segundas-y-unidosis</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-10-de-outubro-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-13-de-outubro-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -634,7 +634,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/233946092099237</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/239636124863567</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -748,7 +748,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-11102021-4oow</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-14102021-7aea</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/10/Presentacion-COVID-19-SNVSPSNGR-1.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/10/Presentacio%CC%81n-COVID-19-SNVSPSNGR-2.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -984,7 +984,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/2867</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/3126</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1201,7 +1201,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/371720</t>
+    <t xml:space="preserve">http://irangov.ir/detail/371911</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1221,7 +1221,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1445826208525025280</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1448408879054925832</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1324,7 +1324,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-october-10-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-october-13-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1445811168661032962</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1448355378123657217</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1642,7 +1642,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1445795994382315523</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1448332710166941699</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1445775124364365831</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1447952544752447489</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1776,7 +1776,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1165:boletim-diario-covid-19-n-560</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1185:boletim-diario-covid-19-n-573</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1797,7 +1797,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FOct_2021(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(3-10-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FOct_2021(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208%20PM%20News%20(12-10-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/photo?fbid=161893179468357&amp;set=pcb.161893279468347</t>
+    <t xml:space="preserve">https://www.facebook.com/photo?fbid=166174095706932&amp;set=pcb.166174185706923</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1839,7 +1839,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1rmN_v34WGCtz54YehvbBUcwMHFgsRZDB</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1ACuT_D0BONcJWtokEruvIU0ulFbVDW0T</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1860,7 +1860,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-10/COVID-19_WebSite_rapport_wekelijks_20211005_1150_final.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-10/COVID-19_WebSite_rapport_wekelijks_20211012_1259.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1992,7 +1992,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4227496904042822</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4252852238173955</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2014,7 +2014,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1445555807152533510</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1448489706077966340</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1445498719101616133</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1448396819801821187</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2085,7 +2085,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1eW35rhQ-ZnA9qxqsQ_K4SUREO_34SGMY</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/16XGfV54N5Esn8ZOqeYplfgyx--FPHxsv</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2106,7 +2106,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1445671419128463360</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1448570522242068482</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2169,7 +2169,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/7-_10_BULETIN_DE_PRESA_-_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_14_octombrie_2021,_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=19214</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=19330</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2367,7 +2367,7 @@
     <t xml:space="preserve">South Africa - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://sacoronavirus.co.za/2021/10/06/update-on-covid-19-wednesday-06-october-2021/</t>
+    <t xml:space="preserve">https://sacoronavirus.co.za/2021/10/13/update-on-covid-19-wednesday-13-october-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Communicable Diseases (NICD)</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_30_09_2021.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_07_10_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2572,7 +2572,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-864/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-869/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2634,7 +2634,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1445694137940918285</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1448589500670676995</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2760,7 +2760,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1517-bc-byt-210421-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1578-bc-byt-2021-tinh-hinh-dich-va-cong-tac-phong-chong-dich-covid-19-ngay-12-10-210902-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam Ministry of Health</t>
@@ -2806,7 +2806,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1445835255571570688</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1448375445909557255</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3283,7 +3283,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44473</v>
+        <v>44480</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3293,27 +3293,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>215733</v>
+        <v>217286</v>
       </c>
       <c r="I3" t="n">
-        <v>2788.906</v>
+        <v>2808.982</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M3" t="n">
-        <v>2.65</v>
+        <v>2.87</v>
       </c>
       <c r="N3" t="n">
-        <v>0.054</v>
+        <v>0.026</v>
       </c>
       <c r="O3" t="n">
-        <v>18.4</v>
+        <v>38.9</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3381,7 +3381,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44475</v>
+        <v>44478</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3391,25 +3391,25 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H5" t="n">
-        <v>24156096</v>
+        <v>24255457</v>
       </c>
       <c r="I5" t="n">
-        <v>529.671</v>
+        <v>531.85</v>
       </c>
       <c r="J5" t="n">
-        <v>43346</v>
+        <v>23286</v>
       </c>
       <c r="K5" t="n">
-        <v>0.95</v>
+        <v>0.511</v>
       </c>
       <c r="L5" t="n">
-        <v>40669</v>
+        <v>35458</v>
       </c>
       <c r="M5" t="n">
-        <v>0.892</v>
+        <v>0.777</v>
       </c>
       <c r="N5" t="n">
         <v>0.019</v>
@@ -3438,7 +3438,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44475</v>
+        <v>44483</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3448,31 +3448,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H6" t="n">
-        <v>1770914</v>
+        <v>1839622</v>
       </c>
       <c r="I6" t="n">
-        <v>596.643</v>
+        <v>619.792</v>
       </c>
       <c r="J6" t="n">
-        <v>8947</v>
+        <v>12522</v>
       </c>
       <c r="K6" t="n">
-        <v>3.014</v>
+        <v>4.219</v>
       </c>
       <c r="L6" t="n">
-        <v>9386</v>
+        <v>8517</v>
       </c>
       <c r="M6" t="n">
-        <v>3.162</v>
+        <v>2.869</v>
       </c>
       <c r="N6" t="n">
-        <v>0.102</v>
+        <v>0.134</v>
       </c>
       <c r="O6" t="n">
-        <v>9.8</v>
+        <v>7.5</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3495,7 +3495,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3505,31 +3505,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H7" t="n">
-        <v>39943525</v>
+        <v>40530009</v>
       </c>
       <c r="I7" t="n">
-        <v>1548.906</v>
+        <v>1571.648</v>
       </c>
       <c r="J7" t="n">
-        <v>185992</v>
+        <v>197156</v>
       </c>
       <c r="K7" t="n">
-        <v>7.212</v>
+        <v>7.645</v>
       </c>
       <c r="L7" t="n">
-        <v>190814</v>
+        <v>191207</v>
       </c>
       <c r="M7" t="n">
-        <v>7.399</v>
+        <v>7.415</v>
       </c>
       <c r="N7" t="n">
         <v>0.012</v>
       </c>
       <c r="O7" t="n">
-        <v>85.5</v>
+        <v>82.9</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3552,7 +3552,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3562,31 +3562,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H8" t="n">
-        <v>90377770</v>
+        <v>91294829</v>
       </c>
       <c r="I8" t="n">
-        <v>9994.145</v>
+        <v>10095.555</v>
       </c>
       <c r="J8" t="n">
-        <v>298259</v>
+        <v>329066</v>
       </c>
       <c r="K8" t="n">
-        <v>32.982</v>
+        <v>36.389</v>
       </c>
       <c r="L8" t="n">
-        <v>323997</v>
+        <v>315132</v>
       </c>
       <c r="M8" t="n">
-        <v>35.828</v>
+        <v>34.848</v>
       </c>
       <c r="N8" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="O8" t="n">
-        <v>183</v>
+        <v>173.6</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3609,7 +3609,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44478</v>
+        <v>44483</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3619,31 +3619,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H9" t="n">
-        <v>4952737</v>
+        <v>4989627</v>
       </c>
       <c r="I9" t="n">
-        <v>484.454</v>
+        <v>488.062</v>
       </c>
       <c r="J9" t="n">
-        <v>20064</v>
+        <v>10092</v>
       </c>
       <c r="K9" t="n">
-        <v>1.963</v>
+        <v>0.987</v>
       </c>
       <c r="L9" t="n">
-        <v>9639</v>
+        <v>11067</v>
       </c>
       <c r="M9" t="n">
-        <v>0.943</v>
+        <v>1.083</v>
       </c>
       <c r="N9" t="n">
-        <v>0.087</v>
+        <v>0.111</v>
       </c>
       <c r="O9" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3723,7 +3723,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3733,31 +3733,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H11" t="n">
-        <v>6612314</v>
+        <v>6657852</v>
       </c>
       <c r="I11" t="n">
-        <v>3782.15</v>
+        <v>3808.197</v>
       </c>
       <c r="J11" t="n">
-        <v>15134</v>
+        <v>17009</v>
       </c>
       <c r="K11" t="n">
-        <v>8.656</v>
+        <v>9.729</v>
       </c>
       <c r="L11" t="n">
-        <v>15077</v>
+        <v>15342</v>
       </c>
       <c r="M11" t="n">
-        <v>8.624</v>
+        <v>8.775</v>
       </c>
       <c r="N11" t="n">
         <v>0.004</v>
       </c>
       <c r="O11" t="n">
-        <v>232</v>
+        <v>236.6</v>
       </c>
       <c r="P11" t="s">
         <v>76</v>
@@ -3780,7 +3780,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3790,13 +3790,13 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H12" t="n">
-        <v>9907321</v>
+        <v>9959170</v>
       </c>
       <c r="I12" t="n">
-        <v>59.574</v>
+        <v>59.886</v>
       </c>
       <c r="J12" t="n">
         <v>17283</v>
@@ -3811,10 +3811,10 @@
         <v>0.104</v>
       </c>
       <c r="N12" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="O12" t="n">
-        <v>28.8</v>
+        <v>33</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3890,7 +3890,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -3900,31 +3900,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="H14" t="n">
-        <v>20514883</v>
+        <v>20675619</v>
       </c>
       <c r="I14" t="n">
-        <v>1763.608</v>
+        <v>1777.427</v>
       </c>
       <c r="J14" t="n">
-        <v>19425</v>
+        <v>55549</v>
       </c>
       <c r="K14" t="n">
-        <v>1.67</v>
+        <v>4.775</v>
       </c>
       <c r="L14" t="n">
-        <v>44471</v>
+        <v>46475</v>
       </c>
       <c r="M14" t="n">
-        <v>3.823</v>
+        <v>3.995</v>
       </c>
       <c r="N14" t="n">
-        <v>0.051</v>
+        <v>0.058</v>
       </c>
       <c r="O14" t="n">
-        <v>19.6</v>
+        <v>17.2</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -4045,7 +4045,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44475</v>
+        <v>44483</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -4055,31 +4055,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H17" t="n">
-        <v>1160858</v>
+        <v>1174178</v>
       </c>
       <c r="I17" t="n">
-        <v>1488.47</v>
+        <v>1505.549</v>
       </c>
       <c r="J17" t="n">
-        <v>2156</v>
+        <v>1403</v>
       </c>
       <c r="K17" t="n">
-        <v>2.764</v>
+        <v>1.799</v>
       </c>
       <c r="L17" t="n">
-        <v>1766</v>
+        <v>1717</v>
       </c>
       <c r="M17" t="n">
-        <v>2.264</v>
+        <v>2.202</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1030.3</v>
+        <v>4002.3</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4102,7 +4102,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44471</v>
+        <v>44482</v>
       </c>
       <c r="D18" t="s">
         <v>118</v>
@@ -4112,31 +4112,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="H18" t="n">
-        <v>2456130</v>
+        <v>2513678</v>
       </c>
       <c r="I18" t="n">
-        <v>207.567</v>
+        <v>212.431</v>
       </c>
       <c r="J18" t="n">
-        <v>4988</v>
+        <v>6838</v>
       </c>
       <c r="K18" t="n">
-        <v>0.422</v>
+        <v>0.578</v>
       </c>
       <c r="L18" t="n">
-        <v>5252</v>
+        <v>5430</v>
       </c>
       <c r="M18" t="n">
-        <v>0.444</v>
+        <v>0.459</v>
       </c>
       <c r="N18" t="n">
-        <v>0.055</v>
+        <v>0.069</v>
       </c>
       <c r="O18" t="n">
-        <v>18.1</v>
+        <v>14.6</v>
       </c>
       <c r="P18" t="s">
         <v>36</v>
@@ -4159,7 +4159,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D19" t="s">
         <v>123</v>
@@ -4169,24 +4169,28 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H19" t="n">
-        <v>1253492</v>
+        <v>1262217</v>
       </c>
       <c r="I19" t="n">
-        <v>384.099</v>
-      </c>
-      <c r="J19"/>
-      <c r="K19"/>
+        <v>386.773</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3327</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.019</v>
+      </c>
       <c r="L19" t="n">
-        <v>2532</v>
+        <v>2315</v>
       </c>
       <c r="M19" t="n">
-        <v>0.776</v>
+        <v>0.709</v>
       </c>
       <c r="N19" t="n">
-        <v>0.238</v>
+        <v>0.236</v>
       </c>
       <c r="O19" t="n">
         <v>4.2</v>
@@ -4310,7 +4314,7 @@
         <v>138</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D22" t="s">
         <v>139</v>
@@ -4320,27 +4324,27 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H22" t="n">
-        <v>4990220</v>
+        <v>5045972</v>
       </c>
       <c r="I22" t="n">
-        <v>723.571</v>
+        <v>731.655</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22" t="n">
-        <v>17677</v>
+        <v>16736</v>
       </c>
       <c r="M22" t="n">
-        <v>2.563</v>
+        <v>2.427</v>
       </c>
       <c r="N22" t="n">
-        <v>0.126</v>
+        <v>0.152</v>
       </c>
       <c r="O22" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="P22" t="s">
         <v>141</v>
@@ -4465,7 +4469,7 @@
         <v>155</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44477</v>
+        <v>44483</v>
       </c>
       <c r="D25" t="s">
         <v>151</v>
@@ -4475,31 +4479,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="H25" t="n">
-        <v>44186056</v>
+        <v>44725696</v>
       </c>
       <c r="I25" t="n">
-        <v>1160.717</v>
+        <v>1174.892</v>
       </c>
       <c r="J25" t="n">
-        <v>118195</v>
+        <v>83845</v>
       </c>
       <c r="K25" t="n">
-        <v>3.105</v>
+        <v>2.203</v>
       </c>
       <c r="L25" t="n">
-        <v>104256</v>
+        <v>93976</v>
       </c>
       <c r="M25" t="n">
-        <v>2.739</v>
+        <v>2.469</v>
       </c>
       <c r="N25" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="O25" t="n">
-        <v>27.8</v>
+        <v>29.7</v>
       </c>
       <c r="P25" t="s">
         <v>152</v>
@@ -4522,7 +4526,7 @@
         <v>158</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44478</v>
+        <v>44481</v>
       </c>
       <c r="D26" t="s">
         <v>159</v>
@@ -4532,15 +4536,15 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26" t="n">
-        <v>343</v>
+        <v>574</v>
       </c>
       <c r="K26" t="n">
-        <v>0.61</v>
+        <v>1.022</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -4567,7 +4571,7 @@
         <v>164</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D27" t="s">
         <v>165</v>
@@ -4577,31 +4581,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="H27" t="n">
-        <v>22194480</v>
+        <v>22299937</v>
       </c>
       <c r="I27" t="n">
-        <v>1155.219</v>
+        <v>1160.708</v>
       </c>
       <c r="J27" t="n">
-        <v>51267</v>
+        <v>47921</v>
       </c>
       <c r="K27" t="n">
-        <v>2.668</v>
+        <v>2.494</v>
       </c>
       <c r="L27" t="n">
-        <v>53506</v>
+        <v>48688</v>
       </c>
       <c r="M27" t="n">
-        <v>2.785</v>
+        <v>2.534</v>
       </c>
       <c r="N27" t="n">
-        <v>0.016</v>
+        <v>0.019</v>
       </c>
       <c r="O27" t="n">
-        <v>61.1</v>
+        <v>52.2</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -4669,7 +4673,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D29" t="s">
         <v>178</v>
@@ -4679,25 +4683,25 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H29" t="n">
-        <v>25954762</v>
+        <v>26092509</v>
       </c>
       <c r="I29" t="n">
-        <v>506.278</v>
+        <v>508.965</v>
       </c>
       <c r="J29" t="n">
-        <v>39128</v>
+        <v>48080</v>
       </c>
       <c r="K29" t="n">
-        <v>0.763</v>
+        <v>0.938</v>
       </c>
       <c r="L29" t="n">
-        <v>42592</v>
+        <v>43496</v>
       </c>
       <c r="M29" t="n">
-        <v>0.831</v>
+        <v>0.848</v>
       </c>
       <c r="N29" t="n">
         <v>0.037</v>
@@ -4726,7 +4730,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44475</v>
+        <v>44478</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4736,31 +4740,31 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H30" t="n">
-        <v>1927328</v>
+        <v>1957444</v>
       </c>
       <c r="I30" t="n">
-        <v>375.036</v>
+        <v>380.896</v>
       </c>
       <c r="J30" t="n">
-        <v>1277</v>
+        <v>5622</v>
       </c>
       <c r="K30" t="n">
-        <v>0.248</v>
+        <v>1.094</v>
       </c>
       <c r="L30" t="n">
-        <v>4482</v>
+        <v>5828</v>
       </c>
       <c r="M30" t="n">
-        <v>0.872</v>
+        <v>1.134</v>
       </c>
       <c r="N30" t="n">
-        <v>0.281</v>
+        <v>0.188</v>
       </c>
       <c r="O30" t="n">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="P30" t="s">
         <v>185</v>
@@ -4783,7 +4787,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44474</v>
+        <v>44482</v>
       </c>
       <c r="D31" t="s">
         <v>189</v>
@@ -4793,31 +4797,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="H31" t="n">
-        <v>1029903</v>
+        <v>1050249</v>
       </c>
       <c r="I31" t="n">
-        <v>38.069</v>
+        <v>38.821</v>
       </c>
       <c r="J31" t="n">
-        <v>2294</v>
+        <v>2167</v>
       </c>
       <c r="K31" t="n">
-        <v>0.085</v>
+        <v>0.08</v>
       </c>
       <c r="L31" t="n">
-        <v>3156</v>
+        <v>2489</v>
       </c>
       <c r="M31" t="n">
-        <v>0.117</v>
+        <v>0.092</v>
       </c>
       <c r="N31" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="O31" t="n">
-        <v>47.9</v>
+        <v>57.1</v>
       </c>
       <c r="P31" t="s">
         <v>190</v>
@@ -4840,7 +4844,7 @@
         <v>194</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44479</v>
+        <v>44483</v>
       </c>
       <c r="D32" t="s">
         <v>195</v>
@@ -4850,31 +4854,31 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H32" t="n">
-        <v>2913176</v>
+        <v>2944660</v>
       </c>
       <c r="I32" t="n">
-        <v>713.724</v>
+        <v>721.437</v>
       </c>
       <c r="J32" t="n">
-        <v>8894</v>
+        <v>9484</v>
       </c>
       <c r="K32" t="n">
-        <v>2.179</v>
+        <v>2.324</v>
       </c>
       <c r="L32" t="n">
-        <v>9160</v>
+        <v>8513</v>
       </c>
       <c r="M32" t="n">
-        <v>2.244</v>
+        <v>2.086</v>
       </c>
       <c r="N32" t="n">
-        <v>0.143</v>
+        <v>0.155</v>
       </c>
       <c r="O32" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="P32" t="s">
         <v>196</v>
@@ -4956,7 +4960,7 @@
         <v>207</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D34" t="s">
         <v>208</v>
@@ -4966,31 +4970,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H34" t="n">
-        <v>13835984</v>
+        <v>13935404</v>
       </c>
       <c r="I34" t="n">
-        <v>15441.86</v>
+        <v>15552.819</v>
       </c>
       <c r="J34" t="n">
-        <v>64004</v>
+        <v>46145</v>
       </c>
       <c r="K34" t="n">
-        <v>71.433</v>
+        <v>51.501</v>
       </c>
       <c r="L34" t="n">
-        <v>51615</v>
+        <v>51456</v>
       </c>
       <c r="M34" t="n">
-        <v>57.606</v>
+        <v>57.428</v>
       </c>
       <c r="N34" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="O34" t="n">
-        <v>417.2</v>
+        <v>383.6</v>
       </c>
       <c r="P34" t="s">
         <v>36</v>
@@ -5013,7 +5017,7 @@
         <v>211</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D35" t="s">
         <v>212</v>
@@ -5023,27 +5027,27 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="n">
-        <v>62395</v>
+        <v>74820</v>
       </c>
       <c r="K35" t="n">
-        <v>5.818</v>
+        <v>6.977</v>
       </c>
       <c r="L35" t="n">
-        <v>61516</v>
+        <v>64028</v>
       </c>
       <c r="M35" t="n">
-        <v>5.736</v>
+        <v>5.97</v>
       </c>
       <c r="N35" t="n">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="O35" t="n">
-        <v>66.7</v>
+        <v>55.6</v>
       </c>
       <c r="P35" t="s">
         <v>36</v>
@@ -5119,7 +5123,7 @@
         <v>221</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="D37" t="s">
         <v>222</v>
@@ -5129,31 +5133,31 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="H37" t="n">
-        <v>41501675</v>
+        <v>41652255</v>
       </c>
       <c r="I37" t="n">
-        <v>7139.088</v>
+        <v>7164.991</v>
       </c>
       <c r="J37" t="n">
-        <v>30378</v>
+        <v>36238</v>
       </c>
       <c r="K37" t="n">
-        <v>5.226</v>
+        <v>6.234</v>
       </c>
       <c r="L37" t="n">
-        <v>37423</v>
+        <v>41930</v>
       </c>
       <c r="M37" t="n">
-        <v>6.437</v>
+        <v>7.213</v>
       </c>
       <c r="N37" t="n">
         <v>0.015</v>
       </c>
       <c r="O37" t="n">
-        <v>66.1</v>
+        <v>65.2</v>
       </c>
       <c r="P37" t="s">
         <v>223</v>
@@ -5229,7 +5233,7 @@
         <v>233</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44474</v>
+        <v>44479</v>
       </c>
       <c r="D39" t="s">
         <v>234</v>
@@ -5241,31 +5245,31 @@
         <v>236</v>
       </c>
       <c r="G39" t="n">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="H39" t="n">
-        <v>1761061</v>
+        <v>1771831</v>
       </c>
       <c r="I39" t="n">
-        <v>98.447</v>
+        <v>99.049</v>
       </c>
       <c r="J39" t="n">
-        <v>3162</v>
+        <v>1235</v>
       </c>
       <c r="K39" t="n">
-        <v>0.177</v>
+        <v>0.069</v>
       </c>
       <c r="L39" t="n">
-        <v>3118</v>
+        <v>2156</v>
       </c>
       <c r="M39" t="n">
-        <v>0.174</v>
+        <v>0.121</v>
       </c>
       <c r="N39" t="n">
-        <v>0.105</v>
+        <v>0.072</v>
       </c>
       <c r="O39" t="n">
-        <v>9.5</v>
+        <v>14</v>
       </c>
       <c r="P39" t="s">
         <v>237</v>
@@ -5345,7 +5349,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D41" t="s">
         <v>248</v>
@@ -5355,27 +5359,27 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41" t="n">
-        <v>230491</v>
+        <v>231798</v>
       </c>
       <c r="I41" t="n">
-        <v>158.971</v>
+        <v>159.873</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>747</v>
+        <v>649</v>
       </c>
       <c r="M41" t="n">
-        <v>0.515</v>
+        <v>0.448</v>
       </c>
       <c r="N41" t="n">
-        <v>0.049</v>
+        <v>0.04</v>
       </c>
       <c r="O41" t="n">
-        <v>20.6</v>
+        <v>24.8</v>
       </c>
       <c r="P41" t="s">
         <v>250</v>
@@ -5398,7 +5402,7 @@
         <v>253</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D42" t="s">
         <v>254</v>
@@ -5408,31 +5412,31 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="H42" t="n">
-        <v>1997046</v>
+        <v>2011321</v>
       </c>
       <c r="I42" t="n">
-        <v>1506.991</v>
+        <v>1517.763</v>
       </c>
       <c r="J42" t="n">
-        <v>7385</v>
+        <v>6940</v>
       </c>
       <c r="K42" t="n">
-        <v>5.573</v>
+        <v>5.237</v>
       </c>
       <c r="L42" t="n">
-        <v>6425</v>
+        <v>6571</v>
       </c>
       <c r="M42" t="n">
-        <v>4.848</v>
+        <v>4.959</v>
       </c>
       <c r="N42" t="n">
-        <v>0.143</v>
+        <v>0.152</v>
       </c>
       <c r="O42" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="P42" t="s">
         <v>255</v>
@@ -5455,7 +5459,7 @@
         <v>258</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D43" t="s">
         <v>259</v>
@@ -5465,31 +5469,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="H43" t="n">
-        <v>3557710</v>
+        <v>3582471</v>
       </c>
       <c r="I43" t="n">
-        <v>30.182</v>
+        <v>30.392</v>
       </c>
       <c r="J43" t="n">
-        <v>5727</v>
+        <v>8253</v>
       </c>
       <c r="K43" t="n">
-        <v>0.049</v>
+        <v>0.07</v>
       </c>
       <c r="L43" t="n">
-        <v>7717</v>
+        <v>7254</v>
       </c>
       <c r="M43" t="n">
-        <v>0.065</v>
+        <v>0.062</v>
       </c>
       <c r="N43" t="n">
-        <v>0.107</v>
+        <v>0.099</v>
       </c>
       <c r="O43" t="n">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5569,7 +5573,7 @@
         <v>268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44479</v>
+        <v>44481</v>
       </c>
       <c r="D45" t="s">
         <v>269</v>
@@ -5579,31 +5583,31 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H45" t="n">
-        <v>7224917</v>
+        <v>7255329</v>
       </c>
       <c r="I45" t="n">
-        <v>1302.171</v>
+        <v>1307.653</v>
       </c>
       <c r="J45" t="n">
-        <v>4826</v>
+        <v>13203</v>
       </c>
       <c r="K45" t="n">
-        <v>0.87</v>
+        <v>2.38</v>
       </c>
       <c r="L45" t="n">
-        <v>10304</v>
+        <v>10930</v>
       </c>
       <c r="M45" t="n">
-        <v>1.857</v>
+        <v>1.97</v>
       </c>
       <c r="N45" t="n">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
       <c r="O45" t="n">
-        <v>20.2</v>
+        <v>19.5</v>
       </c>
       <c r="P45" t="s">
         <v>271</v>
@@ -5626,7 +5630,7 @@
         <v>274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D46" t="s">
         <v>275</v>
@@ -5636,21 +5640,21 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" t="n">
-        <v>673246</v>
+        <v>506623</v>
       </c>
       <c r="K46" t="n">
-        <v>9.965</v>
+        <v>7.498</v>
       </c>
       <c r="L46" t="n">
-        <v>449074</v>
+        <v>445492</v>
       </c>
       <c r="M46" t="n">
-        <v>6.647</v>
+        <v>6.594</v>
       </c>
       <c r="N46" t="n">
         <v>0.01</v>
@@ -5679,7 +5683,7 @@
         <v>279</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44468</v>
+        <v>44484</v>
       </c>
       <c r="D47" t="s">
         <v>280</v>
@@ -5689,28 +5693,24 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H47" t="n">
-        <v>1188832</v>
+        <v>1266103</v>
       </c>
       <c r="I47" t="n">
-        <v>521.685</v>
+        <v>555.594</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>8405</v>
+        <v>8695</v>
       </c>
       <c r="M47" t="n">
-        <v>3.688</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="O47" t="n">
-        <v>74.6</v>
-      </c>
+        <v>3.816</v>
+      </c>
+      <c r="N47"/>
+      <c r="O47"/>
       <c r="P47" t="s">
         <v>281</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>292</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44469</v>
+        <v>44483</v>
       </c>
       <c r="D49" t="s">
         <v>293</v>
@@ -5795,27 +5795,27 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H49" t="n">
-        <v>8900000</v>
+        <v>9400000</v>
       </c>
       <c r="I49" t="n">
-        <v>2236.308</v>
+        <v>2361.944</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>28571</v>
+        <v>40000</v>
       </c>
       <c r="M49" t="n">
-        <v>7.179</v>
+        <v>10.051</v>
       </c>
       <c r="N49" t="n">
-        <v>0.055</v>
+        <v>0.083</v>
       </c>
       <c r="O49" t="n">
-        <v>18.3</v>
+        <v>12</v>
       </c>
       <c r="P49" t="s">
         <v>294</v>
@@ -5838,7 +5838,7 @@
         <v>298</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44472</v>
+        <v>44479</v>
       </c>
       <c r="D50" t="s">
         <v>299</v>
@@ -5848,27 +5848,27 @@
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H50" t="n">
-        <v>75158696</v>
+        <v>76111301</v>
       </c>
       <c r="I50" t="n">
-        <v>895.808</v>
+        <v>907.162</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>128454</v>
+        <v>134130</v>
       </c>
       <c r="M50" t="n">
-        <v>1.531</v>
+        <v>1.599</v>
       </c>
       <c r="N50" t="n">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
       <c r="O50" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="P50" t="s">
         <v>300</v>
@@ -5891,7 +5891,7 @@
         <v>304</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44403</v>
+        <v>44472</v>
       </c>
       <c r="D51" t="s">
         <v>305</v>
@@ -5901,31 +5901,31 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="H51" t="n">
-        <v>1422916</v>
+        <v>1781277</v>
       </c>
       <c r="I51" t="n">
-        <v>44.841</v>
+        <v>56.135</v>
       </c>
       <c r="J51" t="n">
-        <v>5964</v>
+        <v>3692</v>
       </c>
       <c r="K51" t="n">
-        <v>0.188</v>
+        <v>0.116</v>
       </c>
       <c r="L51" t="n">
-        <v>5491</v>
+        <v>4006</v>
       </c>
       <c r="M51" t="n">
-        <v>0.173</v>
+        <v>0.126</v>
       </c>
       <c r="N51" t="n">
-        <v>0.085</v>
+        <v>0.031</v>
       </c>
       <c r="O51" t="n">
-        <v>11.7</v>
+        <v>32.6</v>
       </c>
       <c r="P51" t="s">
         <v>307</v>
@@ -5948,7 +5948,7 @@
         <v>310</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44479</v>
+        <v>44483</v>
       </c>
       <c r="D52" t="s">
         <v>311</v>
@@ -5958,31 +5958,31 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H52" t="n">
-        <v>21991126</v>
+        <v>22778198</v>
       </c>
       <c r="I52" t="n">
-        <v>2120.496</v>
+        <v>2196.389</v>
       </c>
       <c r="J52" t="n">
-        <v>149628</v>
+        <v>151640</v>
       </c>
       <c r="K52" t="n">
-        <v>14.428</v>
+        <v>14.622</v>
       </c>
       <c r="L52" t="n">
-        <v>186489</v>
+        <v>186173</v>
       </c>
       <c r="M52" t="n">
-        <v>17.982</v>
+        <v>17.952</v>
       </c>
       <c r="N52" t="n">
         <v>0.012</v>
       </c>
       <c r="O52" t="n">
-        <v>84.3</v>
+        <v>80.3</v>
       </c>
       <c r="P52" t="s">
         <v>313</v>
@@ -6005,7 +6005,7 @@
         <v>317</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="D53" t="s">
         <v>318</v>
@@ -6015,31 +6015,31 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="H53" t="n">
-        <v>2228737</v>
+        <v>2729628</v>
       </c>
       <c r="I53" t="n">
-        <v>122.123</v>
+        <v>149.57</v>
       </c>
       <c r="J53" t="n">
-        <v>5271</v>
+        <v>13682</v>
       </c>
       <c r="K53" t="n">
-        <v>0.289</v>
+        <v>0.75</v>
       </c>
       <c r="L53" t="n">
-        <v>11493</v>
+        <v>12550</v>
       </c>
       <c r="M53" t="n">
-        <v>0.63</v>
+        <v>0.688</v>
       </c>
       <c r="N53" t="n">
-        <v>0.165</v>
+        <v>0.126</v>
       </c>
       <c r="O53" t="n">
-        <v>6.1</v>
+        <v>7.9</v>
       </c>
       <c r="P53" t="s">
         <v>320</v>
@@ -6115,7 +6115,7 @@
         <v>331</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44480</v>
+        <v>44484</v>
       </c>
       <c r="D55" t="s">
         <v>332</v>
@@ -6127,32 +6127,28 @@
         <v>334</v>
       </c>
       <c r="G55" t="n">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="H55" t="n">
-        <v>6620866</v>
+        <v>6676874</v>
       </c>
       <c r="I55" t="n">
-        <v>687.228</v>
+        <v>693.041</v>
       </c>
       <c r="J55" t="n">
-        <v>39373</v>
+        <v>17554</v>
       </c>
       <c r="K55" t="n">
-        <v>4.087</v>
+        <v>1.822</v>
       </c>
       <c r="L55" t="n">
-        <v>13073</v>
+        <v>13626</v>
       </c>
       <c r="M55" t="n">
-        <v>1.357</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O55" t="n">
-        <v>20</v>
-      </c>
+        <v>1.414</v>
+      </c>
+      <c r="N55"/>
+      <c r="O55"/>
       <c r="P55" t="s">
         <v>333</v>
       </c>
@@ -6174,7 +6170,7 @@
         <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
@@ -6184,25 +6180,25 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="H56" t="n">
-        <v>650933</v>
+        <v>655645</v>
       </c>
       <c r="I56" t="n">
-        <v>1895.774</v>
+        <v>1909.497</v>
       </c>
       <c r="J56" t="n">
-        <v>685</v>
+        <v>1389</v>
       </c>
       <c r="K56" t="n">
-        <v>1.995</v>
+        <v>4.045</v>
       </c>
       <c r="L56" t="n">
-        <v>1453</v>
+        <v>1385</v>
       </c>
       <c r="M56" t="n">
-        <v>4.232</v>
+        <v>4.034</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
@@ -6227,7 +6223,7 @@
         <v>343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44480</v>
+        <v>44484</v>
       </c>
       <c r="D57" t="s">
         <v>344</v>
@@ -6239,32 +6235,28 @@
         <v>346</v>
       </c>
       <c r="G57" t="n">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H57" t="n">
-        <v>583631490</v>
+        <v>588844673</v>
       </c>
       <c r="I57" t="n">
-        <v>418.852</v>
+        <v>422.593</v>
       </c>
       <c r="J57" t="n">
-        <v>1035797</v>
+        <v>1180148</v>
       </c>
       <c r="K57" t="n">
-        <v>0.743</v>
+        <v>0.847</v>
       </c>
       <c r="L57" t="n">
-        <v>1339870</v>
+        <v>1257355</v>
       </c>
       <c r="M57" t="n">
-        <v>0.962</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="O57" t="n">
-        <v>70.6</v>
-      </c>
+        <v>0.902</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
       <c r="P57" t="s">
         <v>345</v>
       </c>
@@ -6339,7 +6331,7 @@
         <v>355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D59" t="s">
         <v>356</v>
@@ -6349,31 +6341,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H59" t="n">
-        <v>33350660</v>
+        <v>33674304</v>
       </c>
       <c r="I59" t="n">
-        <v>392.228</v>
+        <v>396.034</v>
       </c>
       <c r="J59" t="n">
-        <v>104213</v>
+        <v>110914</v>
       </c>
       <c r="K59" t="n">
-        <v>1.226</v>
+        <v>1.304</v>
       </c>
       <c r="L59" t="n">
-        <v>104490</v>
+        <v>105641</v>
       </c>
       <c r="M59" t="n">
-        <v>1.229</v>
+        <v>1.242</v>
       </c>
       <c r="N59" t="n">
-        <v>0.106</v>
+        <v>0.108</v>
       </c>
       <c r="O59" t="n">
-        <v>9.4</v>
+        <v>9.2</v>
       </c>
       <c r="P59" t="s">
         <v>357</v>
@@ -6396,7 +6388,7 @@
         <v>361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="D60" t="s">
         <v>362</v>
@@ -6406,31 +6398,27 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="H60" t="n">
-        <v>15338457</v>
+        <v>15453389</v>
       </c>
       <c r="I60" t="n">
-        <v>372.479</v>
-      </c>
-      <c r="J60" t="n">
-        <v>24804</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.602</v>
-      </c>
+        <v>375.27</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60"/>
       <c r="L60" t="n">
-        <v>21054</v>
+        <v>16419</v>
       </c>
       <c r="M60" t="n">
-        <v>0.511</v>
+        <v>0.399</v>
       </c>
       <c r="N60" t="n">
-        <v>0.107</v>
+        <v>0.1</v>
       </c>
       <c r="O60" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="P60" t="s">
         <v>364</v>
@@ -6453,7 +6441,7 @@
         <v>368</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D61" t="s">
         <v>369</v>
@@ -6463,31 +6451,31 @@
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="H61" t="n">
-        <v>7668724</v>
+        <v>7738084</v>
       </c>
       <c r="I61" t="n">
-        <v>1539.007</v>
+        <v>1552.927</v>
       </c>
       <c r="J61" t="n">
-        <v>14117</v>
+        <v>23713</v>
       </c>
       <c r="K61" t="n">
-        <v>2.833</v>
+        <v>4.759</v>
       </c>
       <c r="L61" t="n">
-        <v>19576</v>
+        <v>20356</v>
       </c>
       <c r="M61" t="n">
-        <v>3.929</v>
+        <v>4.085</v>
       </c>
       <c r="N61" t="n">
-        <v>0.073</v>
+        <v>0.083</v>
       </c>
       <c r="O61" t="n">
-        <v>13.7</v>
+        <v>12.1</v>
       </c>
       <c r="P61" t="s">
         <v>370</v>
@@ -6510,7 +6498,7 @@
         <v>374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D62" t="s">
         <v>375</v>
@@ -6520,31 +6508,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H62" t="n">
-        <v>28327710</v>
+        <v>28643002</v>
       </c>
       <c r="I62" t="n">
-        <v>3222.802</v>
+        <v>3258.673</v>
       </c>
       <c r="J62" t="n">
-        <v>122135</v>
+        <v>94434</v>
       </c>
       <c r="K62" t="n">
-        <v>13.895</v>
+        <v>10.744</v>
       </c>
       <c r="L62" t="n">
-        <v>98815</v>
+        <v>96829</v>
       </c>
       <c r="M62" t="n">
-        <v>11.242</v>
+        <v>11.016</v>
       </c>
       <c r="N62" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="O62" t="n">
-        <v>48.1</v>
+        <v>56.8</v>
       </c>
       <c r="P62" t="s">
         <v>36</v>
@@ -6567,7 +6555,7 @@
         <v>380</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D63" t="s">
         <v>381</v>
@@ -6579,31 +6567,31 @@
         <v>383</v>
       </c>
       <c r="G63" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H63" t="n">
-        <v>34815383</v>
+        <v>34985613</v>
       </c>
       <c r="I63" t="n">
-        <v>576.724</v>
+        <v>579.544</v>
       </c>
       <c r="J63" t="n">
-        <v>26049</v>
+        <v>60887</v>
       </c>
       <c r="K63" t="n">
-        <v>0.432</v>
+        <v>1.009</v>
       </c>
       <c r="L63" t="n">
-        <v>50965</v>
+        <v>51234</v>
       </c>
       <c r="M63" t="n">
-        <v>0.844</v>
+        <v>0.849</v>
       </c>
       <c r="N63" t="n">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
       <c r="O63" t="n">
-        <v>19.6</v>
+        <v>20.5</v>
       </c>
       <c r="P63" t="s">
         <v>384</v>
@@ -6626,7 +6614,7 @@
         <v>387</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44479</v>
+        <v>44483</v>
       </c>
       <c r="D64" t="s">
         <v>381</v>
@@ -6638,31 +6626,31 @@
         <v>383</v>
       </c>
       <c r="G64" t="n">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H64" t="n">
-        <v>95331171</v>
+        <v>96364791</v>
       </c>
       <c r="I64" t="n">
-        <v>1579.181</v>
+        <v>1596.303</v>
       </c>
       <c r="J64" t="n">
-        <v>270044</v>
+        <v>324614</v>
       </c>
       <c r="K64" t="n">
-        <v>4.473</v>
+        <v>5.377</v>
       </c>
       <c r="L64" t="n">
-        <v>275743</v>
+        <v>274314</v>
       </c>
       <c r="M64" t="n">
-        <v>4.568</v>
+        <v>4.544</v>
       </c>
       <c r="N64" t="n">
         <v>0.009</v>
       </c>
       <c r="O64" t="n">
-        <v>105.6</v>
+        <v>109.9</v>
       </c>
       <c r="P64" t="s">
         <v>384</v>
@@ -6685,7 +6673,7 @@
         <v>390</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="D65" t="s">
         <v>391</v>
@@ -6695,31 +6683,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H65" t="n">
-        <v>617665</v>
+        <v>620529</v>
       </c>
       <c r="I65" t="n">
-        <v>207.726</v>
+        <v>208.689</v>
       </c>
       <c r="J65" t="n">
-        <v>1601</v>
+        <v>1379</v>
       </c>
       <c r="K65" t="n">
-        <v>0.538</v>
+        <v>0.464</v>
       </c>
       <c r="L65" t="n">
-        <v>1439</v>
+        <v>1333</v>
       </c>
       <c r="M65" t="n">
-        <v>0.484</v>
+        <v>0.448</v>
       </c>
       <c r="N65" t="n">
-        <v>0.141</v>
+        <v>0.134</v>
       </c>
       <c r="O65" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="P65" t="s">
         <v>392</v>
@@ -6742,7 +6730,7 @@
         <v>396</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D66" t="s">
         <v>397</v>
@@ -6752,31 +6740,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="H66" t="n">
-        <v>24344819</v>
+        <v>24534767</v>
       </c>
       <c r="I66" t="n">
-        <v>193.135</v>
+        <v>194.642</v>
       </c>
       <c r="J66" t="n">
-        <v>58344</v>
+        <v>74021</v>
       </c>
       <c r="K66" t="n">
-        <v>0.463</v>
+        <v>0.587</v>
       </c>
       <c r="L66" t="n">
-        <v>55430</v>
+        <v>55437</v>
       </c>
       <c r="M66" t="n">
         <v>0.44</v>
       </c>
       <c r="N66" t="n">
-        <v>0.014</v>
+        <v>0.011</v>
       </c>
       <c r="O66" t="n">
-        <v>69.3</v>
+        <v>87.1</v>
       </c>
       <c r="P66" t="s">
         <v>398</v>
@@ -6799,7 +6787,7 @@
         <v>402</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44475</v>
+        <v>44483</v>
       </c>
       <c r="D67" t="s">
         <v>403</v>
@@ -6809,31 +6797,31 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H67" t="n">
-        <v>10237614</v>
+        <v>10438248</v>
       </c>
       <c r="I67" t="n">
-        <v>996.941</v>
+        <v>1016.479</v>
       </c>
       <c r="J67" t="n">
-        <v>31208</v>
+        <v>33878</v>
       </c>
       <c r="K67" t="n">
-        <v>3.039</v>
+        <v>3.299</v>
       </c>
       <c r="L67" t="n">
-        <v>27853</v>
+        <v>25259</v>
       </c>
       <c r="M67" t="n">
-        <v>2.712</v>
+        <v>2.46</v>
       </c>
       <c r="N67" t="n">
-        <v>0.036</v>
+        <v>0.043</v>
       </c>
       <c r="O67" t="n">
-        <v>27.9</v>
+        <v>23.3</v>
       </c>
       <c r="P67" t="s">
         <v>404</v>
@@ -6966,7 +6954,7 @@
         <v>418</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44474</v>
+        <v>44482</v>
       </c>
       <c r="D70" t="s">
         <v>419</v>
@@ -6976,31 +6964,31 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H70" t="n">
-        <v>1217376</v>
+        <v>1235648</v>
       </c>
       <c r="I70" t="n">
-        <v>685.7</v>
+        <v>695.992</v>
       </c>
       <c r="J70" t="n">
-        <v>2777</v>
+        <v>2332</v>
       </c>
       <c r="K70" t="n">
-        <v>1.564</v>
+        <v>1.314</v>
       </c>
       <c r="L70" t="n">
-        <v>2960</v>
+        <v>2285</v>
       </c>
       <c r="M70" t="n">
-        <v>1.667</v>
+        <v>1.287</v>
       </c>
       <c r="N70" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="O70" t="n">
-        <v>74.8</v>
+        <v>86.5</v>
       </c>
       <c r="P70" t="s">
         <v>421</v>
@@ -7023,7 +7011,7 @@
         <v>424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="D71" t="s">
         <v>425</v>
@@ -7033,31 +7021,31 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="H71" t="n">
-        <v>4389988</v>
+        <v>4515664</v>
       </c>
       <c r="I71" t="n">
-        <v>1014.193</v>
+        <v>1043.227</v>
       </c>
       <c r="J71" t="n">
-        <v>17528</v>
+        <v>15482</v>
       </c>
       <c r="K71" t="n">
-        <v>4.049</v>
+        <v>3.577</v>
       </c>
       <c r="L71" t="n">
-        <v>22560</v>
+        <v>17954</v>
       </c>
       <c r="M71" t="n">
-        <v>5.212</v>
+        <v>4.148</v>
       </c>
       <c r="N71" t="n">
         <v>0.002</v>
       </c>
       <c r="O71" t="n">
-        <v>478.5</v>
+        <v>481.5</v>
       </c>
       <c r="P71" t="s">
         <v>426</v>
@@ -7080,7 +7068,7 @@
         <v>430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44479</v>
+        <v>44483</v>
       </c>
       <c r="D72" t="s">
         <v>431</v>
@@ -7090,27 +7078,27 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H72" t="n">
-        <v>612410</v>
+        <v>634530</v>
       </c>
       <c r="I72" t="n">
-        <v>82.99</v>
+        <v>85.987</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="n">
-        <v>5735</v>
+        <v>4753</v>
       </c>
       <c r="M72" t="n">
-        <v>0.777</v>
+        <v>0.644</v>
       </c>
       <c r="N72" t="n">
-        <v>0.083</v>
+        <v>0.112</v>
       </c>
       <c r="O72" t="n">
-        <v>12.1</v>
+        <v>8.9</v>
       </c>
       <c r="P72" t="s">
         <v>432</v>
@@ -7133,7 +7121,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44435</v>
+        <v>44483</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -7145,31 +7133,31 @@
         <v>439</v>
       </c>
       <c r="G73" t="n">
-        <v>546</v>
+        <v>594</v>
       </c>
       <c r="H73" t="n">
-        <v>3339462</v>
+        <v>4566903</v>
       </c>
       <c r="I73" t="n">
-        <v>1788.741</v>
+        <v>2446.205</v>
       </c>
       <c r="J73" t="n">
-        <v>33416</v>
+        <v>21504</v>
       </c>
       <c r="K73" t="n">
-        <v>17.899</v>
+        <v>11.518</v>
       </c>
       <c r="L73" t="n">
-        <v>14518</v>
+        <v>16795</v>
       </c>
       <c r="M73" t="n">
-        <v>7.776</v>
+        <v>8.996</v>
       </c>
       <c r="N73" t="n">
-        <v>0.011</v>
+        <v>0.1</v>
       </c>
       <c r="O73" t="n">
-        <v>93.8</v>
+        <v>10</v>
       </c>
       <c r="P73" t="s">
         <v>438</v>
@@ -7241,7 +7229,7 @@
         <v>447</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D75" t="s">
         <v>448</v>
@@ -7251,15 +7239,15 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="n">
-        <v>4097</v>
+        <v>4201</v>
       </c>
       <c r="K75" t="n">
-        <v>0.589</v>
+        <v>0.604</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
@@ -7286,7 +7274,7 @@
         <v>453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44478</v>
+        <v>44481</v>
       </c>
       <c r="D76" t="s">
         <v>454</v>
@@ -7296,31 +7284,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H76" t="n">
-        <v>69730</v>
+        <v>70141</v>
       </c>
       <c r="I76" t="n">
-        <v>1822.816</v>
+        <v>1833.56</v>
       </c>
       <c r="J76" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K76" t="n">
-        <v>3.059</v>
+        <v>3.398</v>
       </c>
       <c r="L76" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M76" t="n">
-        <v>4.261</v>
+        <v>4.209</v>
       </c>
       <c r="N76" t="n">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="O76" t="n">
-        <v>90.9</v>
+        <v>62.5</v>
       </c>
       <c r="P76" t="s">
         <v>455</v>
@@ -7343,7 +7331,7 @@
         <v>459</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="D77" t="s">
         <v>460</v>
@@ -7353,31 +7341,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H77" t="n">
-        <v>5381950</v>
+        <v>5429715</v>
       </c>
       <c r="I77" t="n">
-        <v>2000.828</v>
+        <v>2018.585</v>
       </c>
       <c r="J77" t="n">
-        <v>25445</v>
+        <v>23565</v>
       </c>
       <c r="K77" t="n">
-        <v>9.46</v>
+        <v>8.761</v>
       </c>
       <c r="L77" t="n">
-        <v>21744</v>
+        <v>21908</v>
       </c>
       <c r="M77" t="n">
-        <v>8.084</v>
+        <v>8.145</v>
       </c>
       <c r="N77" t="n">
-        <v>0.104</v>
+        <v>0.107</v>
       </c>
       <c r="O77" t="n">
-        <v>9.6</v>
+        <v>9.3</v>
       </c>
       <c r="P77" t="s">
         <v>461</v>
@@ -7400,7 +7388,7 @@
         <v>464</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44478</v>
+        <v>44482</v>
       </c>
       <c r="D78" t="s">
         <v>465</v>
@@ -7410,31 +7398,31 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H78" t="n">
-        <v>3543784</v>
+        <v>3552180</v>
       </c>
       <c r="I78" t="n">
-        <v>5582.397</v>
+        <v>5595.623</v>
       </c>
       <c r="J78" t="n">
-        <v>1877</v>
+        <v>2827</v>
       </c>
       <c r="K78" t="n">
-        <v>2.957</v>
+        <v>4.453</v>
       </c>
       <c r="L78" t="n">
-        <v>2226</v>
+        <v>2381</v>
       </c>
       <c r="M78" t="n">
-        <v>3.507</v>
+        <v>3.751</v>
       </c>
       <c r="N78" t="n">
-        <v>0.044</v>
+        <v>0.041</v>
       </c>
       <c r="O78" t="n">
-        <v>22.5</v>
+        <v>24.4</v>
       </c>
       <c r="P78" t="s">
         <v>466</v>
@@ -7626,7 +7614,7 @@
         <v>488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="D82" t="s">
         <v>489</v>
@@ -7636,31 +7624,31 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="H82" t="n">
-        <v>1543706</v>
+        <v>1569487</v>
       </c>
       <c r="I82" t="n">
-        <v>2839.678</v>
+        <v>2887.103</v>
       </c>
       <c r="J82" t="n">
-        <v>3761</v>
+        <v>4284</v>
       </c>
       <c r="K82" t="n">
-        <v>6.918</v>
+        <v>7.881</v>
       </c>
       <c r="L82" t="n">
-        <v>3992</v>
+        <v>3683</v>
       </c>
       <c r="M82" t="n">
-        <v>7.343</v>
+        <v>6.775</v>
       </c>
       <c r="N82" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="O82" t="n">
-        <v>50.1</v>
+        <v>46</v>
       </c>
       <c r="P82" t="s">
         <v>490</v>
@@ -7683,7 +7671,7 @@
         <v>494</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D83" t="s">
         <v>495</v>
@@ -7693,31 +7681,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H83" t="n">
-        <v>1306982</v>
+        <v>1312451</v>
       </c>
       <c r="I83" t="n">
-        <v>2539.979</v>
+        <v>2550.608</v>
       </c>
       <c r="J83" t="n">
-        <v>1385</v>
+        <v>1853</v>
       </c>
       <c r="K83" t="n">
-        <v>2.692</v>
+        <v>3.601</v>
       </c>
       <c r="L83" t="n">
-        <v>1697</v>
+        <v>1728</v>
       </c>
       <c r="M83" t="n">
-        <v>3.298</v>
+        <v>3.358</v>
       </c>
       <c r="N83" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="O83" t="n">
-        <v>86.7</v>
+        <v>93.8</v>
       </c>
       <c r="P83" t="s">
         <v>497</v>
@@ -7789,7 +7777,7 @@
         <v>507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="D85" t="s">
         <v>508</v>
@@ -7799,31 +7787,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="H85" t="n">
-        <v>10389202</v>
+        <v>10476579</v>
       </c>
       <c r="I85" t="n">
-        <v>79.756</v>
+        <v>80.427</v>
       </c>
       <c r="J85" t="n">
-        <v>2092</v>
+        <v>9979</v>
       </c>
       <c r="K85" t="n">
-        <v>0.016</v>
+        <v>0.077</v>
       </c>
       <c r="L85" t="n">
-        <v>15067</v>
+        <v>15127</v>
       </c>
       <c r="M85" t="n">
         <v>0.116</v>
       </c>
       <c r="N85" t="n">
-        <v>0.249</v>
+        <v>0.225</v>
       </c>
       <c r="O85" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="P85" t="s">
         <v>510</v>
@@ -7846,7 +7834,7 @@
         <v>513</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44476</v>
+        <v>44483</v>
       </c>
       <c r="D86" t="s">
         <v>514</v>
@@ -7856,27 +7844,27 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="n">
-        <v>1822979</v>
+        <v>1863784</v>
       </c>
       <c r="I86" t="n">
-        <v>453.024</v>
+        <v>463.164</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86" t="n">
-        <v>6657</v>
+        <v>5829</v>
       </c>
       <c r="M86" t="n">
-        <v>1.654</v>
+        <v>1.449</v>
       </c>
       <c r="N86" t="n">
-        <v>0.189</v>
+        <v>0.226</v>
       </c>
       <c r="O86" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="P86" t="s">
         <v>515</v>
@@ -7899,7 +7887,7 @@
         <v>518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44481</v>
+        <v>44484</v>
       </c>
       <c r="D87" t="s">
         <v>519</v>
@@ -7909,25 +7897,25 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H87" t="n">
-        <v>4082943</v>
+        <v>4112374</v>
       </c>
       <c r="I87" t="n">
-        <v>1226.373</v>
+        <v>1235.213</v>
       </c>
       <c r="J87" t="n">
-        <v>8904</v>
+        <v>9967</v>
       </c>
       <c r="K87" t="n">
-        <v>2.674</v>
+        <v>2.994</v>
       </c>
       <c r="L87" t="n">
-        <v>8573</v>
+        <v>8658</v>
       </c>
       <c r="M87" t="n">
-        <v>2.575</v>
+        <v>2.601</v>
       </c>
       <c r="N87"/>
       <c r="O87"/>
@@ -7952,7 +7940,7 @@
         <v>522</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44475</v>
+        <v>44481</v>
       </c>
       <c r="D88" t="s">
         <v>523</v>
@@ -7962,31 +7950,31 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="H88" t="n">
-        <v>8853903</v>
+        <v>8923240</v>
       </c>
       <c r="I88" t="n">
-        <v>237.085</v>
+        <v>238.942</v>
       </c>
       <c r="J88" t="n">
-        <v>13346</v>
+        <v>14278</v>
       </c>
       <c r="K88" t="n">
-        <v>0.357</v>
+        <v>0.382</v>
       </c>
       <c r="L88" t="n">
-        <v>13605</v>
+        <v>11812</v>
       </c>
       <c r="M88" t="n">
-        <v>0.364</v>
+        <v>0.316</v>
       </c>
       <c r="N88" t="n">
-        <v>0.052</v>
+        <v>0.045</v>
       </c>
       <c r="O88" t="n">
-        <v>19.1</v>
+        <v>22.4</v>
       </c>
       <c r="P88" t="s">
         <v>524</v>
@@ -8009,7 +7997,7 @@
         <v>528</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44467</v>
+        <v>44480</v>
       </c>
       <c r="D89" t="s">
         <v>529</v>
@@ -8019,31 +8007,31 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="H89" t="n">
-        <v>901901</v>
+        <v>918384</v>
       </c>
       <c r="I89" t="n">
-        <v>28.042</v>
+        <v>28.554</v>
       </c>
       <c r="J89" t="n">
-        <v>1342</v>
+        <v>498</v>
       </c>
       <c r="K89" t="n">
-        <v>0.042</v>
+        <v>0.015</v>
       </c>
       <c r="L89" t="n">
-        <v>1399</v>
+        <v>1206</v>
       </c>
       <c r="M89" t="n">
-        <v>0.043</v>
+        <v>0.037</v>
       </c>
       <c r="N89" t="n">
-        <v>0.038</v>
+        <v>0.022</v>
       </c>
       <c r="O89" t="n">
-        <v>26.4</v>
+        <v>45.9</v>
       </c>
       <c r="P89" t="s">
         <v>530</v>
@@ -8066,7 +8054,7 @@
         <v>534</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44472</v>
+        <v>44482</v>
       </c>
       <c r="D90" t="s">
         <v>535</v>
@@ -8076,25 +8064,25 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="H90" t="n">
-        <v>4376017</v>
+        <v>4557424</v>
       </c>
       <c r="I90" t="n">
-        <v>79.846</v>
+        <v>83.156</v>
       </c>
       <c r="J90" t="n">
-        <v>14390</v>
+        <v>18861</v>
       </c>
       <c r="K90" t="n">
-        <v>0.263</v>
+        <v>0.344</v>
       </c>
       <c r="L90" t="n">
-        <v>18969</v>
+        <v>17960</v>
       </c>
       <c r="M90" t="n">
-        <v>0.346</v>
+        <v>0.328</v>
       </c>
       <c r="N90" t="n">
         <v>0.078</v>
@@ -8123,7 +8111,7 @@
         <v>540</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44474</v>
+        <v>44480</v>
       </c>
       <c r="D91" t="s">
         <v>541</v>
@@ -8133,31 +8121,31 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="H91" t="n">
-        <v>713463</v>
+        <v>722619</v>
       </c>
       <c r="I91" t="n">
-        <v>275.751</v>
+        <v>279.29</v>
       </c>
       <c r="J91" t="n">
-        <v>1316</v>
+        <v>1421</v>
       </c>
       <c r="K91" t="n">
-        <v>0.509</v>
+        <v>0.549</v>
       </c>
       <c r="L91" t="n">
-        <v>1678</v>
+        <v>1496</v>
       </c>
       <c r="M91" t="n">
-        <v>0.649</v>
+        <v>0.578</v>
       </c>
       <c r="N91" t="n">
-        <v>0.037</v>
+        <v>0.025</v>
       </c>
       <c r="O91" t="n">
-        <v>27.3</v>
+        <v>39.2</v>
       </c>
       <c r="P91" t="s">
         <v>543</v>
@@ -8180,7 +8168,7 @@
         <v>547</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44475</v>
+        <v>44483</v>
       </c>
       <c r="D92" t="s">
         <v>548</v>
@@ -8190,31 +8178,31 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="H92" t="n">
-        <v>4256803</v>
+        <v>4310320</v>
       </c>
       <c r="I92" t="n">
-        <v>143.448</v>
+        <v>145.251</v>
       </c>
       <c r="J92" t="n">
-        <v>11165</v>
+        <v>3418</v>
       </c>
       <c r="K92" t="n">
-        <v>0.376</v>
+        <v>0.115</v>
       </c>
       <c r="L92" t="n">
-        <v>8568</v>
+        <v>6608</v>
       </c>
       <c r="M92" t="n">
-        <v>0.289</v>
+        <v>0.223</v>
       </c>
       <c r="N92" t="n">
-        <v>0.091</v>
+        <v>0.086</v>
       </c>
       <c r="O92" t="n">
-        <v>11</v>
+        <v>11.6</v>
       </c>
       <c r="P92" t="s">
         <v>549</v>
@@ -8237,7 +8225,7 @@
         <v>553</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44472</v>
+        <v>44479</v>
       </c>
       <c r="D93" t="s">
         <v>554</v>
@@ -8247,27 +8235,27 @@
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H93" t="n">
-        <v>13409992</v>
+        <v>13510265</v>
       </c>
       <c r="I93" t="n">
-        <v>780.872</v>
+        <v>786.711</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>16240</v>
+        <v>11565</v>
       </c>
       <c r="M93" t="n">
-        <v>0.946</v>
+        <v>0.673</v>
       </c>
       <c r="N93" t="n">
-        <v>0.063</v>
+        <v>0.079</v>
       </c>
       <c r="O93" t="n">
-        <v>15.9</v>
+        <v>12.7</v>
       </c>
       <c r="P93" t="s">
         <v>556</v>
@@ -8290,7 +8278,7 @@
         <v>560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44481</v>
+        <v>44484</v>
       </c>
       <c r="D94" t="s">
         <v>561</v>
@@ -8300,25 +8288,25 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H94" t="n">
-        <v>3619154</v>
+        <v>3701367</v>
       </c>
       <c r="I94" t="n">
-        <v>744.584</v>
+        <v>761.498</v>
       </c>
       <c r="J94" t="n">
-        <v>16565</v>
+        <v>27767</v>
       </c>
       <c r="K94" t="n">
-        <v>3.408</v>
+        <v>5.713</v>
       </c>
       <c r="L94" t="n">
-        <v>22014</v>
+        <v>22612</v>
       </c>
       <c r="M94" t="n">
-        <v>4.529</v>
+        <v>4.652</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -8449,7 +8437,7 @@
         <v>576</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44478</v>
+        <v>44481</v>
       </c>
       <c r="D97" t="s">
         <v>577</v>
@@ -8459,31 +8447,31 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H97" t="n">
-        <v>7864561</v>
+        <v>7889460</v>
       </c>
       <c r="I97" t="n">
-        <v>1438.912</v>
+        <v>1443.468</v>
       </c>
       <c r="J97" t="n">
-        <v>3584</v>
+        <v>8599</v>
       </c>
       <c r="K97" t="n">
-        <v>0.656</v>
+        <v>1.573</v>
       </c>
       <c r="L97" t="n">
-        <v>8939</v>
+        <v>8217</v>
       </c>
       <c r="M97" t="n">
-        <v>1.635</v>
+        <v>1.503</v>
       </c>
       <c r="N97" t="n">
-        <v>0.049</v>
+        <v>0.053</v>
       </c>
       <c r="O97" t="n">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="P97" t="s">
         <v>578</v>
@@ -8551,7 +8539,7 @@
         <v>587</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44481</v>
+        <v>44484</v>
       </c>
       <c r="D99" t="s">
         <v>588</v>
@@ -8561,25 +8549,25 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H99" t="n">
-        <v>19953497</v>
+        <v>20098599</v>
       </c>
       <c r="I99" t="n">
-        <v>88.603</v>
+        <v>89.248</v>
       </c>
       <c r="J99" t="n">
-        <v>42476</v>
+        <v>53590</v>
       </c>
       <c r="K99" t="n">
-        <v>0.189</v>
+        <v>0.238</v>
       </c>
       <c r="L99" t="n">
-        <v>44921</v>
+        <v>45158</v>
       </c>
       <c r="M99" t="n">
-        <v>0.199</v>
+        <v>0.201</v>
       </c>
       <c r="N99"/>
       <c r="O99"/>
@@ -8604,7 +8592,7 @@
         <v>592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44475</v>
+        <v>44483</v>
       </c>
       <c r="D100" t="s">
         <v>593</v>
@@ -8612,27 +8600,27 @@
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100" t="n">
-        <v>7136</v>
+        <v>6113</v>
       </c>
       <c r="K100" t="n">
-        <v>1.366</v>
+        <v>1.17</v>
       </c>
       <c r="L100" t="n">
-        <v>6902</v>
+        <v>5579</v>
       </c>
       <c r="M100" t="n">
-        <v>1.322</v>
+        <v>1.068</v>
       </c>
       <c r="N100" t="n">
-        <v>0.778</v>
+        <v>0.137</v>
       </c>
       <c r="O100" t="n">
-        <v>1.3</v>
+        <v>7.3</v>
       </c>
       <c r="P100" t="s">
         <v>594</v>
@@ -8655,7 +8643,7 @@
         <v>598</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44474</v>
+        <v>44482</v>
       </c>
       <c r="D101" t="s">
         <v>599</v>
@@ -8665,31 +8653,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="H101" t="n">
-        <v>3906709</v>
+        <v>3954874</v>
       </c>
       <c r="I101" t="n">
-        <v>891.62</v>
+        <v>902.613</v>
       </c>
       <c r="J101" t="n">
-        <v>6894</v>
+        <v>5176</v>
       </c>
       <c r="K101" t="n">
-        <v>1.573</v>
+        <v>1.181</v>
       </c>
       <c r="L101" t="n">
-        <v>6378</v>
+        <v>5803</v>
       </c>
       <c r="M101" t="n">
-        <v>1.456</v>
+        <v>1.324</v>
       </c>
       <c r="N101" t="n">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
       <c r="O101" t="n">
-        <v>29.3</v>
+        <v>32.7</v>
       </c>
       <c r="P101" t="s">
         <v>600</v>
@@ -8765,7 +8753,7 @@
         <v>609</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44474</v>
+        <v>44482</v>
       </c>
       <c r="D103" t="s">
         <v>610</v>
@@ -8775,31 +8763,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="H103" t="n">
-        <v>1846953</v>
+        <v>1861723</v>
       </c>
       <c r="I103" t="n">
-        <v>255.823</v>
+        <v>257.869</v>
       </c>
       <c r="J103" t="n">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="K103" t="n">
         <v>0.259</v>
       </c>
       <c r="L103" t="n">
-        <v>1784</v>
+        <v>1835</v>
       </c>
       <c r="M103" t="n">
-        <v>0.247</v>
+        <v>0.254</v>
       </c>
       <c r="N103" t="n">
         <v>0.013</v>
       </c>
       <c r="O103" t="n">
-        <v>77.1</v>
+        <v>78.3</v>
       </c>
       <c r="P103" t="s">
         <v>611</v>
@@ -8822,7 +8810,7 @@
         <v>615</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44463</v>
+        <v>44480</v>
       </c>
       <c r="D104" t="s">
         <v>616</v>
@@ -8832,31 +8820,31 @@
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="H104" t="n">
-        <v>5539994</v>
+        <v>5653847</v>
       </c>
       <c r="I104" t="n">
-        <v>166.07</v>
+        <v>169.483</v>
       </c>
       <c r="J104" t="n">
-        <v>6931</v>
+        <v>5579</v>
       </c>
       <c r="K104" t="n">
-        <v>0.208</v>
+        <v>0.167</v>
       </c>
       <c r="L104" t="n">
-        <v>10242</v>
+        <v>9517</v>
       </c>
       <c r="M104" t="n">
-        <v>0.307</v>
+        <v>0.285</v>
       </c>
       <c r="N104" t="n">
-        <v>0.037</v>
+        <v>0.04</v>
       </c>
       <c r="O104" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P104" t="s">
         <v>179</v>
@@ -8879,7 +8867,7 @@
         <v>620</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="D105" t="s">
         <v>621</v>
@@ -8889,31 +8877,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H105" t="n">
-        <v>20507811</v>
+        <v>20677261</v>
       </c>
       <c r="I105" t="n">
-        <v>184.677</v>
+        <v>186.203</v>
       </c>
       <c r="J105" t="n">
-        <v>33157</v>
+        <v>48234</v>
       </c>
       <c r="K105" t="n">
-        <v>0.299</v>
+        <v>0.434</v>
       </c>
       <c r="L105" t="n">
-        <v>53181</v>
+        <v>50601</v>
       </c>
       <c r="M105" t="n">
-        <v>0.479</v>
+        <v>0.456</v>
       </c>
       <c r="N105" t="n">
-        <v>0.197</v>
+        <v>0.191</v>
       </c>
       <c r="O105" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="P105" t="s">
         <v>326</v>
@@ -8936,7 +8924,7 @@
         <v>626</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44475</v>
+        <v>44483</v>
       </c>
       <c r="D106" t="s">
         <v>627</v>
@@ -8946,31 +8934,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="H106" t="n">
-        <v>20707050</v>
+        <v>21002143</v>
       </c>
       <c r="I106" t="n">
-        <v>547.849</v>
+        <v>555.656</v>
       </c>
       <c r="J106" t="n">
-        <v>43364</v>
+        <v>44266</v>
       </c>
       <c r="K106" t="n">
-        <v>1.147</v>
+        <v>1.171</v>
       </c>
       <c r="L106" t="n">
-        <v>37461</v>
+        <v>36323</v>
       </c>
       <c r="M106" t="n">
-        <v>0.991</v>
+        <v>0.961</v>
       </c>
       <c r="N106" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="O106" t="n">
-        <v>28.8</v>
+        <v>18</v>
       </c>
       <c r="P106" t="s">
         <v>628</v>
@@ -8993,7 +8981,7 @@
         <v>631</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44474</v>
+        <v>44482</v>
       </c>
       <c r="D107" t="s">
         <v>627</v>
@@ -9003,31 +8991,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="H107" t="n">
-        <v>21125159</v>
+        <v>21423885</v>
       </c>
       <c r="I107" t="n">
-        <v>558.911</v>
+        <v>566.814</v>
       </c>
       <c r="J107" t="n">
-        <v>43668</v>
+        <v>44889</v>
       </c>
       <c r="K107" t="n">
-        <v>1.155</v>
+        <v>1.188</v>
       </c>
       <c r="L107" t="n">
-        <v>37817</v>
+        <v>36798</v>
       </c>
       <c r="M107" t="n">
-        <v>1.001</v>
+        <v>0.974</v>
       </c>
       <c r="N107" t="n">
-        <v>0.031</v>
+        <v>0.051</v>
       </c>
       <c r="O107" t="n">
-        <v>32.1</v>
+        <v>19.7</v>
       </c>
       <c r="P107" t="s">
         <v>628</v>
@@ -9050,7 +9038,7 @@
         <v>633</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="D108" t="s">
         <v>634</v>
@@ -9060,31 +9048,31 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="H108" t="n">
-        <v>19023656</v>
+        <v>19195884</v>
       </c>
       <c r="I108" t="n">
-        <v>1870.948</v>
+        <v>1887.886</v>
       </c>
       <c r="J108" t="n">
-        <v>14990</v>
+        <v>55921</v>
       </c>
       <c r="K108" t="n">
-        <v>1.474</v>
+        <v>5.5</v>
       </c>
       <c r="L108" t="n">
-        <v>37594</v>
+        <v>46488</v>
       </c>
       <c r="M108" t="n">
-        <v>3.697</v>
+        <v>4.572</v>
       </c>
       <c r="N108" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
       <c r="O108" t="n">
-        <v>62.7</v>
+        <v>70</v>
       </c>
       <c r="P108" t="s">
         <v>635</v>
@@ -9107,7 +9095,7 @@
         <v>638</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="D109" t="s">
         <v>639</v>
@@ -9117,25 +9105,25 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H109" t="n">
-        <v>2723342</v>
+        <v>2729471</v>
       </c>
       <c r="I109" t="n">
-        <v>929.302</v>
+        <v>931.393</v>
       </c>
       <c r="J109" t="n">
-        <v>4657</v>
+        <v>6129</v>
       </c>
       <c r="K109" t="n">
-        <v>1.589</v>
+        <v>2.091</v>
       </c>
       <c r="L109" t="n">
-        <v>5090</v>
+        <v>5135</v>
       </c>
       <c r="M109" t="n">
-        <v>1.737</v>
+        <v>1.752</v>
       </c>
       <c r="N109"/>
       <c r="O109"/>
@@ -9160,7 +9148,7 @@
         <v>644</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44477</v>
+        <v>44484</v>
       </c>
       <c r="D110" t="s">
         <v>645</v>
@@ -9170,28 +9158,24 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H110" t="n">
-        <v>13294804</v>
+        <v>13721352</v>
       </c>
       <c r="I110" t="n">
-        <v>695.052</v>
+        <v>717.352</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
       <c r="L110" t="n">
-        <v>56222</v>
+        <v>60935</v>
       </c>
       <c r="M110" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.223</v>
-      </c>
-      <c r="O110" t="n">
-        <v>4.5</v>
-      </c>
+        <v>3.186</v>
+      </c>
+      <c r="N110"/>
+      <c r="O110"/>
       <c r="P110" t="s">
         <v>647</v>
       </c>
@@ -9213,7 +9197,7 @@
         <v>651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44476</v>
+        <v>44483</v>
       </c>
       <c r="D111" t="s">
         <v>652</v>
@@ -9223,27 +9207,27 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H111" t="n">
-        <v>195638185</v>
+        <v>199319746</v>
       </c>
       <c r="I111" t="n">
-        <v>1340.796</v>
+        <v>1366.027</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111" t="n">
-        <v>508624</v>
+        <v>525937</v>
       </c>
       <c r="M111" t="n">
-        <v>3.486</v>
+        <v>3.604</v>
       </c>
       <c r="N111" t="n">
-        <v>0.049</v>
+        <v>0.054</v>
       </c>
       <c r="O111" t="n">
-        <v>20.4</v>
+        <v>18.6</v>
       </c>
       <c r="P111" t="s">
         <v>653</v>
@@ -9266,7 +9250,7 @@
         <v>657</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44481</v>
+        <v>44484</v>
       </c>
       <c r="D112" t="s">
         <v>658</v>
@@ -9276,25 +9260,25 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H112" t="n">
-        <v>2946155</v>
+        <v>2969916</v>
       </c>
       <c r="I112" t="n">
-        <v>221.907</v>
+        <v>223.697</v>
       </c>
       <c r="J112" t="n">
-        <v>7498</v>
+        <v>8376</v>
       </c>
       <c r="K112" t="n">
-        <v>0.565</v>
+        <v>0.631</v>
       </c>
       <c r="L112" t="n">
-        <v>11008</v>
+        <v>10520</v>
       </c>
       <c r="M112" t="n">
-        <v>0.829</v>
+        <v>0.792</v>
       </c>
       <c r="N112"/>
       <c r="O112"/>
@@ -9319,7 +9303,7 @@
         <v>663</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44479</v>
+        <v>44484</v>
       </c>
       <c r="D113" t="s">
         <v>664</v>
@@ -9329,32 +9313,24 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H113" t="n">
-        <v>46380</v>
+        <v>48765</v>
       </c>
       <c r="I113" t="n">
-        <v>866.171</v>
-      </c>
-      <c r="J113" t="n">
-        <v>904</v>
-      </c>
-      <c r="K113" t="n">
-        <v>16.883</v>
-      </c>
+        <v>910.712</v>
+      </c>
+      <c r="J113"/>
+      <c r="K113"/>
       <c r="L113" t="n">
-        <v>499</v>
+        <v>589</v>
       </c>
       <c r="M113" t="n">
-        <v>9.319</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="O113" t="n">
-        <v>9.5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N113"/>
+      <c r="O113"/>
       <c r="P113" t="s">
         <v>36</v>
       </c>
@@ -9421,7 +9397,7 @@
         <v>674</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="D115" t="s">
         <v>675</v>
@@ -9431,31 +9407,31 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="H115" t="n">
-        <v>29430910</v>
+        <v>29590955</v>
       </c>
       <c r="I115" t="n">
-        <v>832.777</v>
+        <v>837.306</v>
       </c>
       <c r="J115" t="n">
-        <v>48355</v>
+        <v>52320</v>
       </c>
       <c r="K115" t="n">
-        <v>1.368</v>
+        <v>1.48</v>
       </c>
       <c r="L115" t="n">
-        <v>47590</v>
+        <v>48431</v>
       </c>
       <c r="M115" t="n">
-        <v>1.347</v>
+        <v>1.37</v>
       </c>
       <c r="N115" t="n">
         <v>0.001</v>
       </c>
       <c r="O115" t="n">
-        <v>728.9</v>
+        <v>944.3</v>
       </c>
       <c r="P115" t="s">
         <v>36</v>
@@ -9478,7 +9454,7 @@
         <v>678</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="D116" t="s">
         <v>679</v>
@@ -9488,31 +9464,31 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H116" t="n">
-        <v>828629</v>
+        <v>831261</v>
       </c>
       <c r="I116" t="n">
-        <v>48.186</v>
+        <v>48.34</v>
       </c>
       <c r="J116" t="n">
-        <v>1429</v>
+        <v>1648</v>
       </c>
       <c r="K116" t="n">
-        <v>0.083</v>
+        <v>0.096</v>
       </c>
       <c r="L116" t="n">
-        <v>1600</v>
+        <v>1539</v>
       </c>
       <c r="M116" t="n">
-        <v>0.093</v>
+        <v>0.089</v>
       </c>
       <c r="N116" t="n">
         <v>0.003</v>
       </c>
       <c r="O116" t="n">
-        <v>287.2</v>
+        <v>336.7</v>
       </c>
       <c r="P116" t="s">
         <v>680</v>
@@ -9535,7 +9511,7 @@
         <v>683</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D117" t="s">
         <v>684</v>
@@ -9547,28 +9523,28 @@
         <v>685</v>
       </c>
       <c r="G117" t="n">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="H117" t="n">
-        <v>5874429</v>
+        <v>5943113</v>
       </c>
       <c r="I117" t="n">
-        <v>850.353</v>
+        <v>860.295</v>
       </c>
       <c r="J117" t="n">
-        <v>19360</v>
+        <v>22710</v>
       </c>
       <c r="K117" t="n">
-        <v>2.802</v>
+        <v>3.287</v>
       </c>
       <c r="L117" t="n">
-        <v>21022</v>
+        <v>20717</v>
       </c>
       <c r="M117" t="n">
-        <v>3.043</v>
+        <v>2.999</v>
       </c>
       <c r="N117" t="n">
-        <v>0.298</v>
+        <v>0.296</v>
       </c>
       <c r="O117" t="n">
         <v>3.4</v>
@@ -9647,7 +9623,7 @@
         <v>694</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="D119" t="s">
         <v>695</v>
@@ -9657,31 +9633,31 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H119" t="n">
-        <v>42271380</v>
+        <v>42398618</v>
       </c>
       <c r="I119" t="n">
-        <v>7740.982</v>
+        <v>7764.282</v>
       </c>
       <c r="J119" t="n">
-        <v>12411</v>
+        <v>31064</v>
       </c>
       <c r="K119" t="n">
-        <v>2.273</v>
+        <v>5.689</v>
       </c>
       <c r="L119" t="n">
-        <v>32792</v>
+        <v>33132</v>
       </c>
       <c r="M119" t="n">
-        <v>6.005</v>
+        <v>6.067</v>
       </c>
       <c r="N119" t="n">
-        <v>0.056</v>
+        <v>0.06</v>
       </c>
       <c r="O119" t="n">
-        <v>17.9</v>
+        <v>16.7</v>
       </c>
       <c r="P119" t="s">
         <v>36</v>
@@ -9704,7 +9680,7 @@
         <v>698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D120" t="s">
         <v>699</v>
@@ -9714,31 +9690,31 @@
       </c>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H120" t="n">
-        <v>1626242</v>
+        <v>1642441</v>
       </c>
       <c r="I120" t="n">
-        <v>782.327</v>
+        <v>790.12</v>
       </c>
       <c r="J120" t="n">
-        <v>4558</v>
+        <v>5139</v>
       </c>
       <c r="K120" t="n">
-        <v>2.193</v>
+        <v>2.472</v>
       </c>
       <c r="L120" t="n">
-        <v>4065</v>
+        <v>4061</v>
       </c>
       <c r="M120" t="n">
-        <v>1.956</v>
+        <v>1.954</v>
       </c>
       <c r="N120" t="n">
-        <v>0.196</v>
+        <v>0.21</v>
       </c>
       <c r="O120" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="P120" t="s">
         <v>700</v>
@@ -9761,7 +9737,7 @@
         <v>703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="D121" t="s">
         <v>704</v>
@@ -9771,31 +9747,31 @@
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="H121" t="n">
-        <v>17864698</v>
+        <v>18055424</v>
       </c>
       <c r="I121" t="n">
-        <v>297.537</v>
+        <v>300.713</v>
       </c>
       <c r="J121" t="n">
-        <v>35715</v>
+        <v>38969</v>
       </c>
       <c r="K121" t="n">
-        <v>0.595</v>
+        <v>0.649</v>
       </c>
       <c r="L121" t="n">
-        <v>30710</v>
+        <v>27247</v>
       </c>
       <c r="M121" t="n">
-        <v>0.511</v>
+        <v>0.454</v>
       </c>
       <c r="N121" t="n">
-        <v>0.046</v>
+        <v>0.027</v>
       </c>
       <c r="O121" t="n">
-        <v>21.8</v>
+        <v>37.3</v>
       </c>
       <c r="P121" t="s">
         <v>705</v>
@@ -9818,7 +9794,7 @@
         <v>709</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44480</v>
+        <v>44484</v>
       </c>
       <c r="D122" t="s">
         <v>710</v>
@@ -9828,32 +9804,24 @@
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H122" t="n">
-        <v>13721674</v>
+        <v>15152526</v>
       </c>
       <c r="I122" t="n">
-        <v>267.452</v>
-      </c>
-      <c r="J122" t="n">
-        <v>31728</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.618</v>
-      </c>
+        <v>295.341</v>
+      </c>
+      <c r="J122"/>
+      <c r="K122"/>
       <c r="L122" t="n">
-        <v>33806</v>
+        <v>214740</v>
       </c>
       <c r="M122" t="n">
-        <v>0.659</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="O122" t="n">
-        <v>18.5</v>
-      </c>
+        <v>4.186</v>
+      </c>
+      <c r="N122"/>
+      <c r="O122"/>
       <c r="P122" t="s">
         <v>711</v>
       </c>
@@ -9928,7 +9896,7 @@
         <v>719</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44469</v>
+        <v>44476</v>
       </c>
       <c r="D124" t="s">
         <v>720</v>
@@ -9938,27 +9906,27 @@
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H124" t="n">
-        <v>59314343</v>
+        <v>60002572</v>
       </c>
       <c r="I124" t="n">
-        <v>1268.886</v>
+        <v>1283.609</v>
       </c>
       <c r="J124"/>
       <c r="K124"/>
       <c r="L124" t="n">
-        <v>91959</v>
+        <v>86367</v>
       </c>
       <c r="M124" t="n">
-        <v>1.967</v>
+        <v>1.848</v>
       </c>
       <c r="N124" t="n">
-        <v>0.024</v>
+        <v>0.02</v>
       </c>
       <c r="O124" t="n">
-        <v>42.2</v>
+        <v>49.5</v>
       </c>
       <c r="P124" t="s">
         <v>722</v>
@@ -9981,7 +9949,7 @@
         <v>726</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D125" t="s">
         <v>727</v>
@@ -9991,31 +9959,31 @@
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="H125" t="n">
-        <v>5355028</v>
+        <v>5374102</v>
       </c>
       <c r="I125" t="n">
-        <v>249.102</v>
+        <v>249.99</v>
       </c>
       <c r="J125" t="n">
-        <v>5299</v>
+        <v>7069</v>
       </c>
       <c r="K125" t="n">
-        <v>0.246</v>
+        <v>0.329</v>
       </c>
       <c r="L125" t="n">
-        <v>6241</v>
+        <v>6366</v>
       </c>
       <c r="M125" t="n">
-        <v>0.29</v>
+        <v>0.296</v>
       </c>
       <c r="N125" t="n">
-        <v>0.134</v>
+        <v>0.139</v>
       </c>
       <c r="O125" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="P125" t="s">
         <v>728</v>
@@ -10038,7 +10006,7 @@
         <v>731</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44472</v>
+        <v>44479</v>
       </c>
       <c r="D126" t="s">
         <v>732</v>
@@ -10048,27 +10016,27 @@
       </c>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="H126"/>
       <c r="I126"/>
       <c r="J126" t="n">
-        <v>20461</v>
+        <v>19998</v>
       </c>
       <c r="K126" t="n">
-        <v>2.014</v>
+        <v>1.968</v>
       </c>
       <c r="L126" t="n">
-        <v>20461</v>
+        <v>19998</v>
       </c>
       <c r="M126" t="n">
-        <v>2.014</v>
+        <v>1.968</v>
       </c>
       <c r="N126" t="n">
         <v>0.03</v>
       </c>
       <c r="O126" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="P126" t="s">
         <v>734</v>
@@ -10091,7 +10059,7 @@
         <v>738</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44478</v>
+        <v>44482</v>
       </c>
       <c r="D127" t="s">
         <v>454</v>
@@ -10101,31 +10069,31 @@
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H127" t="n">
-        <v>10760244</v>
+        <v>10848330</v>
       </c>
       <c r="I127" t="n">
-        <v>1234.611</v>
+        <v>1244.718</v>
       </c>
       <c r="J127" t="n">
-        <v>30661</v>
+        <v>21425</v>
       </c>
       <c r="K127" t="n">
-        <v>3.518</v>
+        <v>2.458</v>
       </c>
       <c r="L127" t="n">
-        <v>32424</v>
+        <v>29146</v>
       </c>
       <c r="M127" t="n">
-        <v>3.72</v>
+        <v>3.344</v>
       </c>
       <c r="N127" t="n">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="O127" t="n">
-        <v>30.3</v>
+        <v>29.4</v>
       </c>
       <c r="P127" t="s">
         <v>455</v>
@@ -10148,7 +10116,7 @@
         <v>741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D128" t="s">
         <v>742</v>
@@ -10158,31 +10126,31 @@
       </c>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="H128" t="n">
-        <v>3619373</v>
+        <v>3687649</v>
       </c>
       <c r="I128" t="n">
-        <v>151.724</v>
+        <v>154.586</v>
       </c>
       <c r="J128" t="n">
-        <v>12723</v>
+        <v>11202</v>
       </c>
       <c r="K128" t="n">
-        <v>0.533</v>
+        <v>0.47</v>
       </c>
       <c r="L128" t="n">
-        <v>17844</v>
+        <v>18323</v>
       </c>
       <c r="M128" t="n">
-        <v>0.748</v>
+        <v>0.768</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>2498.1</v>
+        <v>2565.2</v>
       </c>
       <c r="P128" t="s">
         <v>743</v>
@@ -10315,7 +10283,7 @@
         <v>757</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44473</v>
+        <v>44482</v>
       </c>
       <c r="D131"/>
       <c r="E131" t="s">
@@ -10325,31 +10293,31 @@
         <v>759</v>
       </c>
       <c r="G131" t="n">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="H131" t="n">
-        <v>518580</v>
+        <v>529142</v>
       </c>
       <c r="I131" t="n">
-        <v>61.166</v>
+        <v>62.412</v>
       </c>
       <c r="J131" t="n">
-        <v>843</v>
+        <v>1205</v>
       </c>
       <c r="K131" t="n">
-        <v>0.099</v>
+        <v>0.142</v>
       </c>
       <c r="L131" t="n">
-        <v>1256</v>
+        <v>1146</v>
       </c>
       <c r="M131" t="n">
-        <v>0.148</v>
+        <v>0.135</v>
       </c>
       <c r="N131" t="n">
-        <v>0.038</v>
+        <v>0.022</v>
       </c>
       <c r="O131" t="n">
-        <v>26.3</v>
+        <v>46.4</v>
       </c>
       <c r="P131" t="s">
         <v>758</v>
@@ -10372,7 +10340,7 @@
         <v>764</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44470</v>
+        <v>44475</v>
       </c>
       <c r="D132" t="s">
         <v>765</v>
@@ -10382,31 +10350,31 @@
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="H132" t="n">
-        <v>353373</v>
+        <v>357432</v>
       </c>
       <c r="I132" t="n">
-        <v>251.802</v>
+        <v>254.695</v>
       </c>
       <c r="J132" t="n">
-        <v>664</v>
+        <v>954</v>
       </c>
       <c r="K132" t="n">
-        <v>0.473</v>
+        <v>0.68</v>
       </c>
       <c r="L132" t="n">
-        <v>1426</v>
+        <v>825</v>
       </c>
       <c r="M132" t="n">
-        <v>1.016</v>
+        <v>0.588</v>
       </c>
       <c r="N132" t="n">
-        <v>0.122</v>
+        <v>0.234</v>
       </c>
       <c r="O132" t="n">
-        <v>8.2</v>
+        <v>4.3</v>
       </c>
       <c r="P132" t="s">
         <v>36</v>
@@ -10429,7 +10397,7 @@
         <v>769</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44479</v>
+        <v>44483</v>
       </c>
       <c r="D133" t="s">
         <v>770</v>
@@ -10439,27 +10407,27 @@
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H133" t="n">
-        <v>2994047</v>
+        <v>3006649</v>
       </c>
       <c r="I133" t="n">
-        <v>250.847</v>
+        <v>251.903</v>
       </c>
       <c r="J133"/>
       <c r="K133"/>
       <c r="L133" t="n">
-        <v>4963</v>
+        <v>4093</v>
       </c>
       <c r="M133" t="n">
-        <v>0.416</v>
+        <v>0.343</v>
       </c>
       <c r="N133" t="n">
-        <v>0.053</v>
+        <v>0.038</v>
       </c>
       <c r="O133" t="n">
-        <v>18.8</v>
+        <v>26</v>
       </c>
       <c r="P133" t="s">
         <v>772</v>
@@ -10482,7 +10450,7 @@
         <v>776</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D134" t="s">
         <v>777</v>
@@ -10492,31 +10460,31 @@
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="H134" t="n">
-        <v>90162700</v>
+        <v>91243717</v>
       </c>
       <c r="I134" t="n">
-        <v>1060.205</v>
+        <v>1072.916</v>
       </c>
       <c r="J134" t="n">
-        <v>355015</v>
+        <v>362217</v>
       </c>
       <c r="K134" t="n">
-        <v>4.175</v>
+        <v>4.259</v>
       </c>
       <c r="L134" t="n">
-        <v>354864</v>
+        <v>355612</v>
       </c>
       <c r="M134" t="n">
-        <v>4.173</v>
+        <v>4.182</v>
       </c>
       <c r="N134" t="n">
-        <v>0.084</v>
+        <v>0.086</v>
       </c>
       <c r="O134" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="P134" t="s">
         <v>778</v>
@@ -10539,7 +10507,7 @@
         <v>782</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44473</v>
+        <v>44481</v>
       </c>
       <c r="D135" t="s">
         <v>783</v>
@@ -10549,31 +10517,31 @@
       </c>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="H135" t="n">
-        <v>1705808</v>
+        <v>1739178</v>
       </c>
       <c r="I135" t="n">
-        <v>36.199</v>
+        <v>36.907</v>
       </c>
       <c r="J135" t="n">
-        <v>2863</v>
+        <v>3507</v>
       </c>
       <c r="K135" t="n">
-        <v>0.061</v>
+        <v>0.074</v>
       </c>
       <c r="L135" t="n">
-        <v>3564</v>
+        <v>4267</v>
       </c>
       <c r="M135" t="n">
-        <v>0.076</v>
+        <v>0.091</v>
       </c>
       <c r="N135" t="n">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
       <c r="O135" t="n">
-        <v>31.4</v>
+        <v>42.1</v>
       </c>
       <c r="P135" t="s">
         <v>784</v>
@@ -10596,7 +10564,7 @@
         <v>788</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44481</v>
+        <v>44484</v>
       </c>
       <c r="D136" t="s">
         <v>789</v>
@@ -10606,25 +10574,25 @@
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H136" t="n">
-        <v>13323492</v>
+        <v>13482871</v>
       </c>
       <c r="I136" t="n">
-        <v>306.521</v>
+        <v>310.188</v>
       </c>
       <c r="J136" t="n">
-        <v>46233</v>
+        <v>39886</v>
       </c>
       <c r="K136" t="n">
-        <v>1.064</v>
+        <v>0.918</v>
       </c>
       <c r="L136" t="n">
-        <v>45646</v>
+        <v>45467</v>
       </c>
       <c r="M136" t="n">
-        <v>1.05</v>
+        <v>1.046</v>
       </c>
       <c r="N136"/>
       <c r="O136"/>
@@ -10649,7 +10617,7 @@
         <v>794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D137" t="s">
         <v>795</v>
@@ -10659,31 +10627,31 @@
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="H137" t="n">
-        <v>87246490</v>
+        <v>88238674</v>
       </c>
       <c r="I137" t="n">
-        <v>8732.436</v>
+        <v>8831.743</v>
       </c>
       <c r="J137" t="n">
-        <v>276637</v>
+        <v>320554</v>
       </c>
       <c r="K137" t="n">
-        <v>27.688</v>
+        <v>32.084</v>
       </c>
       <c r="L137" t="n">
-        <v>299906</v>
+        <v>309129</v>
       </c>
       <c r="M137" t="n">
-        <v>30.017</v>
+        <v>30.94</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
       </c>
       <c r="O137" t="n">
-        <v>2114.1</v>
+        <v>2417.8</v>
       </c>
       <c r="P137" t="s">
         <v>796</v>
@@ -10706,7 +10674,7 @@
         <v>799</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="D138" t="s">
         <v>800</v>
@@ -10718,31 +10686,31 @@
         <v>802</v>
       </c>
       <c r="G138" t="n">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H138" t="n">
-        <v>283376305</v>
+        <v>286031247</v>
       </c>
       <c r="I138" t="n">
-        <v>4154.644</v>
+        <v>4193.569</v>
       </c>
       <c r="J138" t="n">
-        <v>968269</v>
+        <v>845156</v>
       </c>
       <c r="K138" t="n">
-        <v>14.196</v>
+        <v>12.391</v>
       </c>
       <c r="L138" t="n">
-        <v>915449</v>
+        <v>887471</v>
       </c>
       <c r="M138" t="n">
-        <v>13.422</v>
+        <v>13.011</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04</v>
+        <v>0.043</v>
       </c>
       <c r="O138" t="n">
-        <v>25.2</v>
+        <v>23.2</v>
       </c>
       <c r="P138" t="s">
         <v>803</v>
@@ -10765,7 +10733,7 @@
         <v>807</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44476</v>
+        <v>44480</v>
       </c>
       <c r="D139" t="s">
         <v>808</v>
@@ -10775,31 +10743,31 @@
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="H139" t="n">
-        <v>592381867</v>
+        <v>596657477</v>
       </c>
       <c r="I139" t="n">
-        <v>1779.378</v>
+        <v>1792.221</v>
       </c>
       <c r="J139" t="n">
-        <v>1065518</v>
+        <v>289529</v>
       </c>
       <c r="K139" t="n">
-        <v>3.201</v>
+        <v>0.87</v>
       </c>
       <c r="L139" t="n">
-        <v>1292914</v>
+        <v>1172975</v>
       </c>
       <c r="M139" t="n">
-        <v>3.884</v>
+        <v>3.523</v>
       </c>
       <c r="N139" t="n">
-        <v>0.077</v>
+        <v>0.074</v>
       </c>
       <c r="O139" t="n">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="P139" t="s">
         <v>809</v>
@@ -10822,7 +10790,7 @@
         <v>813</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44477</v>
+        <v>44483</v>
       </c>
       <c r="D140" t="s">
         <v>814</v>
@@ -10832,31 +10800,31 @@
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H140" t="n">
-        <v>3635691</v>
+        <v>3677125</v>
       </c>
       <c r="I140" t="n">
-        <v>1043.194</v>
+        <v>1055.083</v>
       </c>
       <c r="J140" t="n">
-        <v>7507</v>
+        <v>10937</v>
       </c>
       <c r="K140" t="n">
-        <v>2.154</v>
+        <v>3.138</v>
       </c>
       <c r="L140" t="n">
-        <v>7411</v>
+        <v>6992</v>
       </c>
       <c r="M140" t="n">
-        <v>2.126</v>
+        <v>2.006</v>
       </c>
       <c r="N140" t="n">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
       <c r="O140" t="n">
-        <v>65.5</v>
+        <v>53.5</v>
       </c>
       <c r="P140" t="s">
         <v>202</v>
@@ -10879,7 +10847,7 @@
         <v>818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44472</v>
+        <v>44481</v>
       </c>
       <c r="D141" t="s">
         <v>819</v>
@@ -10889,27 +10857,27 @@
       </c>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H141" t="n">
-        <v>24871501</v>
+        <v>25868520</v>
       </c>
       <c r="I141" t="n">
-        <v>253.354</v>
+        <v>263.511</v>
       </c>
       <c r="J141"/>
       <c r="K141"/>
       <c r="L141" t="n">
-        <v>133811</v>
+        <v>94031</v>
       </c>
       <c r="M141" t="n">
-        <v>1.363</v>
+        <v>0.958</v>
       </c>
       <c r="N141" t="n">
-        <v>0.055</v>
+        <v>0.042</v>
       </c>
       <c r="O141" t="n">
-        <v>18.1</v>
+        <v>23.6</v>
       </c>
       <c r="P141" t="s">
         <v>821</v>
@@ -10932,7 +10900,7 @@
         <v>825</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D142" t="s">
         <v>826</v>
@@ -10942,31 +10910,31 @@
       </c>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H142" t="n">
-        <v>2509600</v>
+        <v>2526602</v>
       </c>
       <c r="I142" t="n">
-        <v>132.638</v>
+        <v>133.537</v>
       </c>
       <c r="J142" t="n">
-        <v>2943</v>
+        <v>5487</v>
       </c>
       <c r="K142" t="n">
-        <v>0.156</v>
+        <v>0.29</v>
       </c>
       <c r="L142" t="n">
-        <v>4911</v>
+        <v>4794</v>
       </c>
       <c r="M142" t="n">
-        <v>0.26</v>
+        <v>0.253</v>
       </c>
       <c r="N142" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="O142" t="n">
-        <v>189.9</v>
+        <v>226.7</v>
       </c>
       <c r="P142" t="s">
         <v>828</v>
@@ -10989,7 +10957,7 @@
         <v>831</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44475</v>
+        <v>44482</v>
       </c>
       <c r="D143" t="s">
         <v>832</v>
@@ -10999,31 +10967,31 @@
       </c>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="H143" t="n">
-        <v>1288436</v>
+        <v>1317973</v>
       </c>
       <c r="I143" t="n">
-        <v>85.371</v>
+        <v>87.328</v>
       </c>
       <c r="J143" t="n">
-        <v>4051</v>
+        <v>6246</v>
       </c>
       <c r="K143" t="n">
-        <v>0.268</v>
+        <v>0.414</v>
       </c>
       <c r="L143" t="n">
-        <v>3558</v>
+        <v>4220</v>
       </c>
       <c r="M143" t="n">
-        <v>0.236</v>
+        <v>0.28</v>
       </c>
       <c r="N143" t="n">
-        <v>0.038</v>
+        <v>0.023</v>
       </c>
       <c r="O143" t="n">
-        <v>26.2</v>
+        <v>43.8</v>
       </c>
       <c r="P143" t="s">
         <v>833</v>

--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4406</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4419</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/10/coronavirus-covid-19-at-a-glance-14-october-2021_0.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/10/coronavirus-covid-19-at-a-glance-18-october-2021_0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -381,7 +381,7 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4621469121248001/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.999012646827018/4630934156968164/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/6111-covid-19-hasta-hoy-la-inmunizacion-alcanza-a-7-040-751-dosis-aplicadas-con-primeras-segundas-y-unidosis</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/6125-covid-19-hasta-hoy-la-inmunizacion-alcanza-a-7-143-577-vacunas-aplicadas-con-primeras-segundas-unidosis-y-tercera-dosis</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -634,7 +634,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/239636124863567</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/242568007903712</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -748,7 +748,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-14102021-7aea</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-18102021-77fq</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -766,7 +766,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-admin/admin-ajax.php?juwpfisadmin=false&amp;action=wpfd&amp;task=file.download&amp;wpfd_category_id=59&amp;wpfd_file_id=13344</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-admin/admin-ajax.php?juwpfisadmin=false&amp;action=wpfd&amp;task=file.download&amp;wpfd_category_id=59&amp;wpfd_file_id=13660</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/10/Presentacio%CC%81n-COVID-19-SNVSPSNGR-2.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/10/Presentacion-COVID-19-SNVSPSNGR-1-1.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">Gambia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/09/GMB-COVID-19-Situational-Report_2021_24th_September_No-377.pdf</t>
+    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/10/GMB-COVID-19-Situational-Report_2021_7th_9th_October_No-386.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, The Gambia</t>
@@ -984,7 +984,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/3126</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/3164</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1201,7 +1201,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/371911</t>
+    <t xml:space="preserve">http://irangov.ir/detail/372133</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1221,7 +1221,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1448408879054925832</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1449457926347935746</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1324,7 +1324,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-october-13-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-october-17-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1448355378123657217</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1449797389972353024</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1642,7 +1642,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1448332710166941699</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1449782262803820544</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1447952544752447489</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1449757652293230597</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1776,7 +1776,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1185:boletim-diario-covid-19-n-573</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1194:boletim-diario-covid-19-n-579</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1797,7 +1797,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FOct_2021(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208%20PM%20News%20(12-10-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FOct_2021(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(17-10-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/photo?fbid=166174095706932&amp;set=pcb.166174185706923</t>
+    <t xml:space="preserve">https://www.facebook.com/photo/?fbid=169691332021875&amp;set=pcb.169691402021868</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1839,7 +1839,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1ACuT_D0BONcJWtokEruvIU0ulFbVDW0T</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1rTDkpwosyyEQtKN-wZ0tQSnmSD8Oq_wb</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1992,7 +1992,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4252852238173955</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4265140623611783</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -2014,7 +2014,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1448489706077966340</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1449562397488910337</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1448396819801821187</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1449866569421570048</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2085,7 +2085,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/16XGfV54N5Esn8ZOqeYplfgyx--FPHxsv</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1rUxSuRb3aEpRnyqghXjfXT_b8mwTeNqQ</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2106,7 +2106,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1448570522242068482</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1450020073893076995</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2169,7 +2169,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_14_octombrie_2021,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/18-10_BULETIN_DE_PRESA_-_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=19330</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=19363</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2367,7 +2367,7 @@
     <t xml:space="preserve">South Africa - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://sacoronavirus.co.za/2021/10/13/update-on-covid-19-wednesday-13-october-2021/</t>
+    <t xml:space="preserve">https://sacoronavirus.co.za/2021/10/17/update-on-covid-19-sunday-17-october-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Communicable Diseases (NICD)</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_07_10_2021.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_14_10_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2634,7 +2634,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1448589500670676995</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1450040367563280387</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2760,7 +2760,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1578-bc-byt-2021-tinh-hinh-dich-va-cong-tac-phong-chong-dich-covid-19-ngay-12-10-210902-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1638-bc-byt-2021-tinh-hinh-dich-va-ket-qua-phong-chong-covid-19-den-ngay-18-10-211192-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam Ministry of Health</t>
@@ -2806,7 +2806,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1448375445909557255</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1449538765253402626</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -3381,7 +3381,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44478</v>
+        <v>44482</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3391,31 +3391,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="H5" t="n">
-        <v>24255457</v>
+        <v>24402123</v>
       </c>
       <c r="I5" t="n">
-        <v>531.85</v>
+        <v>535.066</v>
       </c>
       <c r="J5" t="n">
-        <v>23286</v>
+        <v>46970</v>
       </c>
       <c r="K5" t="n">
-        <v>0.511</v>
+        <v>1.03</v>
       </c>
       <c r="L5" t="n">
-        <v>35458</v>
+        <v>32562</v>
       </c>
       <c r="M5" t="n">
-        <v>0.777</v>
+        <v>0.714</v>
       </c>
       <c r="N5" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="O5" t="n">
-        <v>52.6</v>
+        <v>50</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3438,7 +3438,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3448,31 +3448,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H6" t="n">
-        <v>1839622</v>
+        <v>1897268</v>
       </c>
       <c r="I6" t="n">
-        <v>619.792</v>
+        <v>639.214</v>
       </c>
       <c r="J6" t="n">
-        <v>12522</v>
+        <v>11204</v>
       </c>
       <c r="K6" t="n">
-        <v>4.219</v>
+        <v>3.775</v>
       </c>
       <c r="L6" t="n">
-        <v>8517</v>
+        <v>12305</v>
       </c>
       <c r="M6" t="n">
-        <v>2.869</v>
+        <v>4.146</v>
       </c>
       <c r="N6" t="n">
-        <v>0.134</v>
+        <v>0.119</v>
       </c>
       <c r="O6" t="n">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3495,7 +3495,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3505,31 +3505,27 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H7" t="n">
-        <v>40530009</v>
+        <v>41192051</v>
       </c>
       <c r="I7" t="n">
-        <v>1571.648</v>
-      </c>
-      <c r="J7" t="n">
-        <v>197156</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7.645</v>
-      </c>
+        <v>1597.321</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7" t="n">
-        <v>191207</v>
+        <v>178361</v>
       </c>
       <c r="M7" t="n">
-        <v>7.415</v>
+        <v>6.916</v>
       </c>
       <c r="N7" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="O7" t="n">
-        <v>82.9</v>
+        <v>78.6</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3552,7 +3548,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3562,31 +3558,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H8" t="n">
-        <v>91294829</v>
+        <v>92623066</v>
       </c>
       <c r="I8" t="n">
-        <v>10095.555</v>
+        <v>10242.434</v>
       </c>
       <c r="J8" t="n">
-        <v>329066</v>
+        <v>298128</v>
       </c>
       <c r="K8" t="n">
-        <v>36.389</v>
+        <v>32.968</v>
       </c>
       <c r="L8" t="n">
-        <v>315132</v>
+        <v>320757</v>
       </c>
       <c r="M8" t="n">
-        <v>34.848</v>
+        <v>35.47</v>
       </c>
       <c r="N8" t="n">
         <v>0.006</v>
       </c>
       <c r="O8" t="n">
-        <v>173.6</v>
+        <v>154.2</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3609,7 +3605,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44483</v>
+        <v>44486</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3619,31 +3615,27 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H9" t="n">
-        <v>4989627</v>
+        <v>5032555</v>
       </c>
       <c r="I9" t="n">
-        <v>488.062</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10092</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.987</v>
-      </c>
+        <v>492.261</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
       <c r="L9" t="n">
-        <v>11067</v>
+        <v>10606</v>
       </c>
       <c r="M9" t="n">
-        <v>1.083</v>
+        <v>1.037</v>
       </c>
       <c r="N9" t="n">
-        <v>0.111</v>
+        <v>0.135</v>
       </c>
       <c r="O9" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3723,7 +3715,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44483</v>
+        <v>44486</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
@@ -3733,31 +3725,27 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H11" t="n">
-        <v>6657852</v>
+        <v>6717283</v>
       </c>
       <c r="I11" t="n">
-        <v>3808.197</v>
-      </c>
-      <c r="J11" t="n">
-        <v>17009</v>
-      </c>
-      <c r="K11" t="n">
-        <v>9.729</v>
-      </c>
+        <v>3842.191</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
       <c r="L11" t="n">
-        <v>15342</v>
+        <v>17158</v>
       </c>
       <c r="M11" t="n">
-        <v>8.775</v>
+        <v>9.814</v>
       </c>
       <c r="N11" t="n">
         <v>0.004</v>
       </c>
       <c r="O11" t="n">
-        <v>236.6</v>
+        <v>258.8</v>
       </c>
       <c r="P11" t="s">
         <v>76</v>
@@ -3780,7 +3768,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3790,13 +3778,13 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H12" t="n">
-        <v>9959170</v>
+        <v>10028302</v>
       </c>
       <c r="I12" t="n">
-        <v>59.886</v>
+        <v>60.301</v>
       </c>
       <c r="J12" t="n">
         <v>17283</v>
@@ -3811,10 +3799,10 @@
         <v>0.104</v>
       </c>
       <c r="N12" t="n">
-        <v>0.03</v>
+        <v>0.024</v>
       </c>
       <c r="O12" t="n">
-        <v>33</v>
+        <v>42.2</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3890,7 +3878,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -3900,31 +3888,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H14" t="n">
-        <v>20675619</v>
+        <v>20867335</v>
       </c>
       <c r="I14" t="n">
-        <v>1777.427</v>
+        <v>1793.908</v>
       </c>
       <c r="J14" t="n">
-        <v>55549</v>
+        <v>23750</v>
       </c>
       <c r="K14" t="n">
-        <v>4.775</v>
+        <v>2.042</v>
       </c>
       <c r="L14" t="n">
-        <v>46475</v>
+        <v>50221</v>
       </c>
       <c r="M14" t="n">
-        <v>3.995</v>
+        <v>4.317</v>
       </c>
       <c r="N14" t="n">
-        <v>0.058</v>
+        <v>0.068</v>
       </c>
       <c r="O14" t="n">
-        <v>17.2</v>
+        <v>14.7</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -4045,7 +4033,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44483</v>
+        <v>44486</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -4055,31 +4043,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H17" t="n">
-        <v>1174178</v>
+        <v>1178767</v>
       </c>
       <c r="I17" t="n">
-        <v>1505.549</v>
+        <v>1511.434</v>
       </c>
       <c r="J17" t="n">
-        <v>1403</v>
+        <v>1452</v>
       </c>
       <c r="K17" t="n">
-        <v>1.799</v>
+        <v>1.862</v>
       </c>
       <c r="L17" t="n">
-        <v>1717</v>
+        <v>1391</v>
       </c>
       <c r="M17" t="n">
-        <v>2.202</v>
+        <v>1.784</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>4002.3</v>
+        <v>2436.1</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4102,7 +4090,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D18" t="s">
         <v>118</v>
@@ -4112,31 +4100,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H18" t="n">
-        <v>2513678</v>
+        <v>2533373</v>
       </c>
       <c r="I18" t="n">
-        <v>212.431</v>
+        <v>214.095</v>
       </c>
       <c r="J18" t="n">
-        <v>6838</v>
+        <v>2390</v>
       </c>
       <c r="K18" t="n">
-        <v>0.578</v>
+        <v>0.202</v>
       </c>
       <c r="L18" t="n">
-        <v>5430</v>
+        <v>5103</v>
       </c>
       <c r="M18" t="n">
-        <v>0.459</v>
+        <v>0.431</v>
       </c>
       <c r="N18" t="n">
-        <v>0.069</v>
+        <v>0.082</v>
       </c>
       <c r="O18" t="n">
-        <v>14.6</v>
+        <v>12.2</v>
       </c>
       <c r="P18" t="s">
         <v>36</v>
@@ -4159,7 +4147,7 @@
         <v>122</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D19" t="s">
         <v>123</v>
@@ -4169,31 +4157,27 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H19" t="n">
-        <v>1262217</v>
+        <v>1270807</v>
       </c>
       <c r="I19" t="n">
-        <v>386.773</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3327</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.019</v>
-      </c>
+        <v>389.405</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
       <c r="L19" t="n">
-        <v>2315</v>
+        <v>2474</v>
       </c>
       <c r="M19" t="n">
-        <v>0.709</v>
+        <v>0.758</v>
       </c>
       <c r="N19" t="n">
-        <v>0.236</v>
+        <v>0.223</v>
       </c>
       <c r="O19" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P19" t="s">
         <v>124</v>
@@ -4314,7 +4298,7 @@
         <v>138</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D22" t="s">
         <v>139</v>
@@ -4324,27 +4308,27 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H22" t="n">
-        <v>5045972</v>
+        <v>5114963</v>
       </c>
       <c r="I22" t="n">
-        <v>731.655</v>
+        <v>741.659</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22" t="n">
-        <v>16736</v>
+        <v>17820</v>
       </c>
       <c r="M22" t="n">
-        <v>2.427</v>
+        <v>2.584</v>
       </c>
       <c r="N22" t="n">
-        <v>0.152</v>
+        <v>0.17</v>
       </c>
       <c r="O22" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="P22" t="s">
         <v>141</v>
@@ -4469,7 +4453,7 @@
         <v>155</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D25" t="s">
         <v>151</v>
@@ -4479,31 +4463,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="H25" t="n">
-        <v>44725696</v>
+        <v>45140412</v>
       </c>
       <c r="I25" t="n">
-        <v>1174.892</v>
+        <v>1185.786</v>
       </c>
       <c r="J25" t="n">
-        <v>83845</v>
+        <v>87734</v>
       </c>
       <c r="K25" t="n">
-        <v>2.203</v>
+        <v>2.305</v>
       </c>
       <c r="L25" t="n">
-        <v>93976</v>
+        <v>91183</v>
       </c>
       <c r="M25" t="n">
-        <v>2.469</v>
+        <v>2.395</v>
       </c>
       <c r="N25" t="n">
-        <v>0.034</v>
+        <v>0.04</v>
       </c>
       <c r="O25" t="n">
-        <v>29.7</v>
+        <v>25.2</v>
       </c>
       <c r="P25" t="s">
         <v>152</v>
@@ -4571,7 +4555,7 @@
         <v>164</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D27" t="s">
         <v>165</v>
@@ -4581,31 +4565,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="H27" t="n">
-        <v>22299937</v>
+        <v>22549945</v>
       </c>
       <c r="I27" t="n">
-        <v>1160.708</v>
+        <v>1173.721</v>
       </c>
       <c r="J27" t="n">
-        <v>47921</v>
+        <v>51974</v>
       </c>
       <c r="K27" t="n">
-        <v>2.494</v>
+        <v>2.705</v>
       </c>
       <c r="L27" t="n">
-        <v>48688</v>
+        <v>50781</v>
       </c>
       <c r="M27" t="n">
-        <v>2.534</v>
+        <v>2.643</v>
       </c>
       <c r="N27" t="n">
-        <v>0.019</v>
+        <v>0.024</v>
       </c>
       <c r="O27" t="n">
-        <v>52.2</v>
+        <v>40.9</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -4673,7 +4657,7 @@
         <v>177</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D29" t="s">
         <v>178</v>
@@ -4683,25 +4667,25 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="H29" t="n">
-        <v>26092509</v>
+        <v>26239165</v>
       </c>
       <c r="I29" t="n">
-        <v>508.965</v>
+        <v>511.826</v>
       </c>
       <c r="J29" t="n">
-        <v>48080</v>
+        <v>28648</v>
       </c>
       <c r="K29" t="n">
-        <v>0.938</v>
+        <v>0.559</v>
       </c>
       <c r="L29" t="n">
-        <v>43496</v>
+        <v>40629</v>
       </c>
       <c r="M29" t="n">
-        <v>0.848</v>
+        <v>0.793</v>
       </c>
       <c r="N29" t="n">
         <v>0.037</v>
@@ -4730,7 +4714,7 @@
         <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44478</v>
+        <v>44482</v>
       </c>
       <c r="D30" t="s">
         <v>184</v>
@@ -4740,31 +4724,31 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H30" t="n">
-        <v>1957444</v>
+        <v>1972853</v>
       </c>
       <c r="I30" t="n">
-        <v>380.896</v>
+        <v>383.894</v>
       </c>
       <c r="J30" t="n">
-        <v>5622</v>
+        <v>4008</v>
       </c>
       <c r="K30" t="n">
-        <v>1.094</v>
+        <v>0.78</v>
       </c>
       <c r="L30" t="n">
-        <v>5828</v>
+        <v>5031</v>
       </c>
       <c r="M30" t="n">
-        <v>1.134</v>
+        <v>0.979</v>
       </c>
       <c r="N30" t="n">
-        <v>0.188</v>
+        <v>0.185</v>
       </c>
       <c r="O30" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="P30" t="s">
         <v>185</v>
@@ -4787,7 +4771,7 @@
         <v>188</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D31" t="s">
         <v>189</v>
@@ -4797,31 +4781,27 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H31" t="n">
-        <v>1050249</v>
+        <v>1060912</v>
       </c>
       <c r="I31" t="n">
-        <v>38.821</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2167</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.08</v>
-      </c>
+        <v>39.215</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31"/>
       <c r="L31" t="n">
-        <v>2489</v>
+        <v>2298</v>
       </c>
       <c r="M31" t="n">
-        <v>0.092</v>
+        <v>0.085</v>
       </c>
       <c r="N31" t="n">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="O31" t="n">
-        <v>57.1</v>
+        <v>73.5</v>
       </c>
       <c r="P31" t="s">
         <v>190</v>
@@ -4844,7 +4824,7 @@
         <v>194</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D32" t="s">
         <v>195</v>
@@ -4854,31 +4834,27 @@
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H32" t="n">
-        <v>2944660</v>
+        <v>2974167</v>
       </c>
       <c r="I32" t="n">
-        <v>721.437</v>
-      </c>
-      <c r="J32" t="n">
-        <v>9484</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.324</v>
-      </c>
+        <v>728.667</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
       <c r="L32" t="n">
-        <v>8513</v>
+        <v>8305</v>
       </c>
       <c r="M32" t="n">
-        <v>2.086</v>
+        <v>2.035</v>
       </c>
       <c r="N32" t="n">
-        <v>0.155</v>
+        <v>0.176</v>
       </c>
       <c r="O32" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="P32" t="s">
         <v>196</v>
@@ -4960,7 +4936,7 @@
         <v>207</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44482</v>
+        <v>44487</v>
       </c>
       <c r="D34" t="s">
         <v>208</v>
@@ -4970,31 +4946,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="H34" t="n">
-        <v>13935404</v>
+        <v>14193354</v>
       </c>
       <c r="I34" t="n">
-        <v>15552.819</v>
+        <v>15840.708</v>
       </c>
       <c r="J34" t="n">
-        <v>46145</v>
+        <v>66954</v>
       </c>
       <c r="K34" t="n">
-        <v>51.501</v>
+        <v>74.725</v>
       </c>
       <c r="L34" t="n">
-        <v>51456</v>
+        <v>51053</v>
       </c>
       <c r="M34" t="n">
-        <v>57.428</v>
+        <v>56.978</v>
       </c>
       <c r="N34" t="n">
         <v>0.003</v>
       </c>
       <c r="O34" t="n">
-        <v>383.6</v>
+        <v>358.1</v>
       </c>
       <c r="P34" t="s">
         <v>36</v>
@@ -5017,7 +4993,7 @@
         <v>211</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D35" t="s">
         <v>212</v>
@@ -5027,27 +5003,27 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="n">
-        <v>74820</v>
+        <v>71023</v>
       </c>
       <c r="K35" t="n">
-        <v>6.977</v>
+        <v>6.622</v>
       </c>
       <c r="L35" t="n">
-        <v>64028</v>
+        <v>68812</v>
       </c>
       <c r="M35" t="n">
-        <v>5.97</v>
+        <v>6.416</v>
       </c>
       <c r="N35" t="n">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
       <c r="O35" t="n">
-        <v>55.6</v>
+        <v>45.5</v>
       </c>
       <c r="P35" t="s">
         <v>36</v>
@@ -5123,7 +5099,7 @@
         <v>221</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D37" t="s">
         <v>222</v>
@@ -5133,31 +5109,31 @@
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="H37" t="n">
-        <v>41652255</v>
+        <v>41872264</v>
       </c>
       <c r="I37" t="n">
-        <v>7164.991</v>
+        <v>7202.837</v>
       </c>
       <c r="J37" t="n">
-        <v>36238</v>
+        <v>32928</v>
       </c>
       <c r="K37" t="n">
-        <v>6.234</v>
+        <v>5.664</v>
       </c>
       <c r="L37" t="n">
-        <v>41930</v>
+        <v>51973</v>
       </c>
       <c r="M37" t="n">
-        <v>7.213</v>
+        <v>8.94</v>
       </c>
       <c r="N37" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="O37" t="n">
-        <v>65.2</v>
+        <v>75</v>
       </c>
       <c r="P37" t="s">
         <v>223</v>
@@ -5180,7 +5156,7 @@
         <v>227</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44462</v>
+        <v>44483</v>
       </c>
       <c r="D38" t="s">
         <v>228</v>
@@ -5190,27 +5166,27 @@
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H38" t="n">
-        <v>2039561</v>
+        <v>2131595</v>
       </c>
       <c r="I38" t="n">
-        <v>186.198</v>
+        <v>194.6</v>
       </c>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38" t="n">
-        <v>3464</v>
+        <v>4383</v>
       </c>
       <c r="M38" t="n">
-        <v>0.316</v>
+        <v>0.4</v>
       </c>
       <c r="N38" t="n">
-        <v>0.077</v>
+        <v>0.143</v>
       </c>
       <c r="O38" t="n">
-        <v>12.9</v>
+        <v>7</v>
       </c>
       <c r="P38" t="s">
         <v>229</v>
@@ -5233,7 +5209,7 @@
         <v>233</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="D39" t="s">
         <v>234</v>
@@ -5245,31 +5221,31 @@
         <v>236</v>
       </c>
       <c r="G39" t="n">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H39" t="n">
-        <v>1771831</v>
+        <v>1779047</v>
       </c>
       <c r="I39" t="n">
-        <v>99.049</v>
+        <v>99.452</v>
       </c>
       <c r="J39" t="n">
-        <v>1235</v>
+        <v>2487</v>
       </c>
       <c r="K39" t="n">
-        <v>0.069</v>
+        <v>0.139</v>
       </c>
       <c r="L39" t="n">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="M39" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="N39" t="n">
-        <v>0.072</v>
+        <v>0.05</v>
       </c>
       <c r="O39" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P39" t="s">
         <v>237</v>
@@ -5349,7 +5325,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44483</v>
+        <v>44488</v>
       </c>
       <c r="D41" t="s">
         <v>248</v>
@@ -5359,28 +5335,24 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41" t="n">
-        <v>231798</v>
+        <v>235199</v>
       </c>
       <c r="I41" t="n">
-        <v>159.873</v>
+        <v>162.218</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41" t="n">
-        <v>649</v>
+        <v>610</v>
       </c>
       <c r="M41" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O41" t="n">
-        <v>24.8</v>
-      </c>
+        <v>0.421</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
       <c r="P41" t="s">
         <v>250</v>
       </c>
@@ -5402,7 +5374,7 @@
         <v>253</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44482</v>
+        <v>44487</v>
       </c>
       <c r="D42" t="s">
         <v>254</v>
@@ -5412,31 +5384,31 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="H42" t="n">
-        <v>2011321</v>
+        <v>2046829</v>
       </c>
       <c r="I42" t="n">
-        <v>1517.763</v>
+        <v>1544.557</v>
       </c>
       <c r="J42" t="n">
-        <v>6940</v>
+        <v>7610</v>
       </c>
       <c r="K42" t="n">
-        <v>5.237</v>
+        <v>5.743</v>
       </c>
       <c r="L42" t="n">
-        <v>6571</v>
+        <v>7115</v>
       </c>
       <c r="M42" t="n">
-        <v>4.959</v>
+        <v>5.369</v>
       </c>
       <c r="N42" t="n">
-        <v>0.152</v>
+        <v>0.16</v>
       </c>
       <c r="O42" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="P42" t="s">
         <v>255</v>
@@ -5459,7 +5431,7 @@
         <v>258</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44483</v>
+        <v>44486</v>
       </c>
       <c r="D43" t="s">
         <v>259</v>
@@ -5469,31 +5441,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H43" t="n">
-        <v>3582471</v>
+        <v>3604407</v>
       </c>
       <c r="I43" t="n">
-        <v>30.392</v>
+        <v>30.578</v>
       </c>
       <c r="J43" t="n">
-        <v>8253</v>
+        <v>6456</v>
       </c>
       <c r="K43" t="n">
-        <v>0.07</v>
+        <v>0.055</v>
       </c>
       <c r="L43" t="n">
-        <v>7254</v>
+        <v>7489</v>
       </c>
       <c r="M43" t="n">
-        <v>0.062</v>
+        <v>0.064</v>
       </c>
       <c r="N43" t="n">
-        <v>0.099</v>
+        <v>0.091</v>
       </c>
       <c r="O43" t="n">
-        <v>10.1</v>
+        <v>11</v>
       </c>
       <c r="P43" t="s">
         <v>260</v>
@@ -5573,7 +5545,7 @@
         <v>268</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44481</v>
+        <v>44485</v>
       </c>
       <c r="D45" t="s">
         <v>269</v>
@@ -5583,31 +5555,31 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H45" t="n">
-        <v>7255329</v>
+        <v>7279577</v>
       </c>
       <c r="I45" t="n">
-        <v>1307.653</v>
+        <v>1312.023</v>
       </c>
       <c r="J45" t="n">
-        <v>13203</v>
+        <v>2071</v>
       </c>
       <c r="K45" t="n">
-        <v>2.38</v>
+        <v>0.373</v>
       </c>
       <c r="L45" t="n">
-        <v>10930</v>
+        <v>7733</v>
       </c>
       <c r="M45" t="n">
-        <v>1.97</v>
+        <v>1.394</v>
       </c>
       <c r="N45" t="n">
-        <v>0.051</v>
+        <v>0.078</v>
       </c>
       <c r="O45" t="n">
-        <v>19.5</v>
+        <v>12.8</v>
       </c>
       <c r="P45" t="s">
         <v>271</v>
@@ -5630,7 +5602,7 @@
         <v>274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D46" t="s">
         <v>275</v>
@@ -5640,27 +5612,27 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" t="n">
-        <v>506623</v>
+        <v>806782</v>
       </c>
       <c r="K46" t="n">
-        <v>7.498</v>
+        <v>11.941</v>
       </c>
       <c r="L46" t="n">
-        <v>445492</v>
+        <v>493177</v>
       </c>
       <c r="M46" t="n">
-        <v>6.594</v>
+        <v>7.299</v>
       </c>
       <c r="N46" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="O46" t="n">
-        <v>100</v>
+        <v>90.9</v>
       </c>
       <c r="P46" t="s">
         <v>276</v>
@@ -5709,8 +5681,12 @@
       <c r="M47" t="n">
         <v>3.816</v>
       </c>
-      <c r="N47"/>
-      <c r="O47"/>
+      <c r="N47" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="O47" t="n">
+        <v>32.8</v>
+      </c>
       <c r="P47" t="s">
         <v>281</v>
       </c>
@@ -5732,7 +5708,7 @@
         <v>286</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44463</v>
+        <v>44478</v>
       </c>
       <c r="D48" t="s">
         <v>287</v>
@@ -5742,27 +5718,27 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H48" t="n">
-        <v>109898</v>
+        <v>114099</v>
       </c>
       <c r="I48" t="n">
-        <v>44.19</v>
+        <v>45.879</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="M48" t="n">
-        <v>0.128</v>
+        <v>0.11</v>
       </c>
       <c r="N48" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="O48" t="n">
-        <v>50.7</v>
+        <v>478.1</v>
       </c>
       <c r="P48" t="s">
         <v>288</v>
@@ -5785,7 +5761,7 @@
         <v>292</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D49" t="s">
         <v>293</v>
@@ -5795,27 +5771,27 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H49" t="n">
-        <v>9400000</v>
+        <v>9600000</v>
       </c>
       <c r="I49" t="n">
-        <v>2361.944</v>
+        <v>2412.198</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>40000</v>
+        <v>57143</v>
       </c>
       <c r="M49" t="n">
-        <v>10.051</v>
+        <v>14.358</v>
       </c>
       <c r="N49" t="n">
-        <v>0.083</v>
+        <v>0.073</v>
       </c>
       <c r="O49" t="n">
-        <v>12</v>
+        <v>13.7</v>
       </c>
       <c r="P49" t="s">
         <v>294</v>
@@ -5891,7 +5867,7 @@
         <v>304</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44472</v>
+        <v>44482</v>
       </c>
       <c r="D51" t="s">
         <v>305</v>
@@ -5901,31 +5877,27 @@
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H51" t="n">
-        <v>1781277</v>
+        <v>1820128</v>
       </c>
       <c r="I51" t="n">
-        <v>56.135</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3692</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.116</v>
-      </c>
+        <v>57.359</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51"/>
       <c r="L51" t="n">
-        <v>4006</v>
+        <v>3863</v>
       </c>
       <c r="M51" t="n">
-        <v>0.126</v>
+        <v>0.122</v>
       </c>
       <c r="N51" t="n">
-        <v>0.031</v>
+        <v>0.008</v>
       </c>
       <c r="O51" t="n">
-        <v>32.6</v>
+        <v>129.4</v>
       </c>
       <c r="P51" t="s">
         <v>307</v>
@@ -5948,7 +5920,7 @@
         <v>310</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D52" t="s">
         <v>311</v>
@@ -5958,31 +5930,27 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H52" t="n">
-        <v>22778198</v>
+        <v>23344586</v>
       </c>
       <c r="I52" t="n">
-        <v>2196.389</v>
-      </c>
-      <c r="J52" t="n">
-        <v>151640</v>
-      </c>
-      <c r="K52" t="n">
-        <v>14.622</v>
-      </c>
+        <v>2251.003</v>
+      </c>
+      <c r="J52"/>
+      <c r="K52"/>
       <c r="L52" t="n">
-        <v>186173</v>
+        <v>182945</v>
       </c>
       <c r="M52" t="n">
-        <v>17.952</v>
+        <v>17.64</v>
       </c>
       <c r="N52" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="O52" t="n">
-        <v>80.3</v>
+        <v>71.6</v>
       </c>
       <c r="P52" t="s">
         <v>313</v>
@@ -6005,7 +5973,7 @@
         <v>317</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D53" t="s">
         <v>318</v>
@@ -6015,31 +5983,31 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="H53" t="n">
-        <v>2729628</v>
+        <v>2770204</v>
       </c>
       <c r="I53" t="n">
-        <v>149.57</v>
+        <v>151.793</v>
       </c>
       <c r="J53" t="n">
-        <v>13682</v>
+        <v>4275</v>
       </c>
       <c r="K53" t="n">
-        <v>0.75</v>
+        <v>0.234</v>
       </c>
       <c r="L53" t="n">
-        <v>12550</v>
+        <v>11921</v>
       </c>
       <c r="M53" t="n">
-        <v>0.688</v>
+        <v>0.653</v>
       </c>
       <c r="N53" t="n">
-        <v>0.126</v>
+        <v>0.103</v>
       </c>
       <c r="O53" t="n">
-        <v>7.9</v>
+        <v>9.7</v>
       </c>
       <c r="P53" t="s">
         <v>320</v>
@@ -6115,7 +6083,7 @@
         <v>331</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="D55" t="s">
         <v>332</v>
@@ -6127,28 +6095,32 @@
         <v>334</v>
       </c>
       <c r="G55" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H55" t="n">
-        <v>6676874</v>
+        <v>6721517</v>
       </c>
       <c r="I55" t="n">
-        <v>693.041</v>
+        <v>697.675</v>
       </c>
       <c r="J55" t="n">
-        <v>17554</v>
+        <v>44643</v>
       </c>
       <c r="K55" t="n">
-        <v>1.822</v>
+        <v>4.634</v>
       </c>
       <c r="L55" t="n">
-        <v>13626</v>
+        <v>14379</v>
       </c>
       <c r="M55" t="n">
-        <v>1.414</v>
-      </c>
-      <c r="N55"/>
-      <c r="O55"/>
+        <v>1.493</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="O55" t="n">
+        <v>14.5</v>
+      </c>
       <c r="P55" t="s">
         <v>333</v>
       </c>
@@ -6170,7 +6142,7 @@
         <v>338</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D56" t="s">
         <v>339</v>
@@ -6180,25 +6152,25 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H56" t="n">
-        <v>655645</v>
+        <v>660096</v>
       </c>
       <c r="I56" t="n">
-        <v>1909.497</v>
+        <v>1922.46</v>
       </c>
       <c r="J56" t="n">
-        <v>1389</v>
+        <v>725</v>
       </c>
       <c r="K56" t="n">
-        <v>4.045</v>
+        <v>2.111</v>
       </c>
       <c r="L56" t="n">
-        <v>1385</v>
+        <v>1309</v>
       </c>
       <c r="M56" t="n">
-        <v>4.034</v>
+        <v>3.812</v>
       </c>
       <c r="N56"/>
       <c r="O56"/>
@@ -6223,7 +6195,7 @@
         <v>343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="D57" t="s">
         <v>344</v>
@@ -6235,28 +6207,32 @@
         <v>346</v>
       </c>
       <c r="G57" t="n">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H57" t="n">
-        <v>588844673</v>
+        <v>591924874</v>
       </c>
       <c r="I57" t="n">
-        <v>422.593</v>
+        <v>424.803</v>
       </c>
       <c r="J57" t="n">
-        <v>1180148</v>
+        <v>989493</v>
       </c>
       <c r="K57" t="n">
-        <v>0.847</v>
+        <v>0.71</v>
       </c>
       <c r="L57" t="n">
-        <v>1257355</v>
+        <v>1184769</v>
       </c>
       <c r="M57" t="n">
-        <v>0.902</v>
-      </c>
-      <c r="N57"/>
-      <c r="O57"/>
+        <v>0.85</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O57" t="n">
+        <v>76.5</v>
+      </c>
       <c r="P57" t="s">
         <v>345</v>
       </c>
@@ -6331,7 +6307,7 @@
         <v>355</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44483</v>
+        <v>44486</v>
       </c>
       <c r="D59" t="s">
         <v>356</v>
@@ -6341,31 +6317,27 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H59" t="n">
-        <v>33674304</v>
+        <v>34008636</v>
       </c>
       <c r="I59" t="n">
-        <v>396.034</v>
-      </c>
-      <c r="J59" t="n">
-        <v>110914</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1.304</v>
-      </c>
+        <v>399.966</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59"/>
       <c r="L59" t="n">
-        <v>105641</v>
+        <v>108884</v>
       </c>
       <c r="M59" t="n">
-        <v>1.242</v>
+        <v>1.281</v>
       </c>
       <c r="N59" t="n">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="O59" t="n">
-        <v>9.2</v>
+        <v>9.3</v>
       </c>
       <c r="P59" t="s">
         <v>357</v>
@@ -6388,7 +6360,7 @@
         <v>361</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44482</v>
+        <v>44485</v>
       </c>
       <c r="D60" t="s">
         <v>362</v>
@@ -6398,27 +6370,31 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H60" t="n">
-        <v>15453389</v>
+        <v>15521023</v>
       </c>
       <c r="I60" t="n">
-        <v>375.27</v>
-      </c>
-      <c r="J60"/>
-      <c r="K60"/>
+        <v>376.913</v>
+      </c>
+      <c r="J60" t="n">
+        <v>16051</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.39</v>
+      </c>
       <c r="L60" t="n">
-        <v>16419</v>
+        <v>17876</v>
       </c>
       <c r="M60" t="n">
-        <v>0.399</v>
+        <v>0.434</v>
       </c>
       <c r="N60" t="n">
-        <v>0.1</v>
+        <v>0.093</v>
       </c>
       <c r="O60" t="n">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="P60" t="s">
         <v>364</v>
@@ -6441,7 +6417,7 @@
         <v>368</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D61" t="s">
         <v>369</v>
@@ -6451,31 +6427,31 @@
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H61" t="n">
-        <v>7738084</v>
+        <v>7821752</v>
       </c>
       <c r="I61" t="n">
-        <v>1552.927</v>
+        <v>1569.718</v>
       </c>
       <c r="J61" t="n">
-        <v>23713</v>
+        <v>17584</v>
       </c>
       <c r="K61" t="n">
-        <v>4.759</v>
+        <v>3.529</v>
       </c>
       <c r="L61" t="n">
-        <v>20356</v>
+        <v>21465</v>
       </c>
       <c r="M61" t="n">
-        <v>4.085</v>
+        <v>4.308</v>
       </c>
       <c r="N61" t="n">
-        <v>0.083</v>
+        <v>0.081</v>
       </c>
       <c r="O61" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="P61" t="s">
         <v>370</v>
@@ -6498,7 +6474,7 @@
         <v>374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D62" t="s">
         <v>375</v>
@@ -6508,31 +6484,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="H62" t="n">
-        <v>28643002</v>
+        <v>28992795</v>
       </c>
       <c r="I62" t="n">
-        <v>3258.673</v>
+        <v>3298.468</v>
       </c>
       <c r="J62" t="n">
-        <v>94434</v>
+        <v>110569</v>
       </c>
       <c r="K62" t="n">
-        <v>10.744</v>
+        <v>12.579</v>
       </c>
       <c r="L62" t="n">
-        <v>96829</v>
+        <v>94687</v>
       </c>
       <c r="M62" t="n">
-        <v>11.016</v>
+        <v>10.772</v>
       </c>
       <c r="N62" t="n">
-        <v>0.018</v>
+        <v>0.015</v>
       </c>
       <c r="O62" t="n">
-        <v>56.8</v>
+        <v>67</v>
       </c>
       <c r="P62" t="s">
         <v>36</v>
@@ -6555,7 +6531,7 @@
         <v>380</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D63" t="s">
         <v>381</v>
@@ -6567,31 +6543,31 @@
         <v>383</v>
       </c>
       <c r="G63" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H63" t="n">
-        <v>34985613</v>
+        <v>35273695</v>
       </c>
       <c r="I63" t="n">
-        <v>579.544</v>
+        <v>584.316</v>
       </c>
       <c r="J63" t="n">
-        <v>60887</v>
+        <v>35834</v>
       </c>
       <c r="K63" t="n">
-        <v>1.009</v>
+        <v>0.594</v>
       </c>
       <c r="L63" t="n">
-        <v>51234</v>
+        <v>65473</v>
       </c>
       <c r="M63" t="n">
-        <v>0.849</v>
+        <v>1.085</v>
       </c>
       <c r="N63" t="n">
-        <v>0.049</v>
+        <v>0.039</v>
       </c>
       <c r="O63" t="n">
-        <v>20.5</v>
+        <v>26</v>
       </c>
       <c r="P63" t="s">
         <v>384</v>
@@ -6614,7 +6590,7 @@
         <v>387</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D64" t="s">
         <v>381</v>
@@ -6626,31 +6602,31 @@
         <v>383</v>
       </c>
       <c r="G64" t="n">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H64" t="n">
-        <v>96364791</v>
+        <v>97944298</v>
       </c>
       <c r="I64" t="n">
-        <v>1596.303</v>
+        <v>1622.468</v>
       </c>
       <c r="J64" t="n">
-        <v>324614</v>
+        <v>219878</v>
       </c>
       <c r="K64" t="n">
-        <v>5.377</v>
+        <v>3.642</v>
       </c>
       <c r="L64" t="n">
-        <v>274314</v>
+        <v>356907</v>
       </c>
       <c r="M64" t="n">
-        <v>4.544</v>
+        <v>5.912</v>
       </c>
       <c r="N64" t="n">
-        <v>0.009</v>
+        <v>0.007</v>
       </c>
       <c r="O64" t="n">
-        <v>109.9</v>
+        <v>141.5</v>
       </c>
       <c r="P64" t="s">
         <v>384</v>
@@ -6673,7 +6649,7 @@
         <v>390</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D65" t="s">
         <v>391</v>
@@ -6683,31 +6659,27 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H65" t="n">
-        <v>620529</v>
+        <v>626602</v>
       </c>
       <c r="I65" t="n">
-        <v>208.689</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1379</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.464</v>
-      </c>
+        <v>210.731</v>
+      </c>
+      <c r="J65"/>
+      <c r="K65"/>
       <c r="L65" t="n">
-        <v>1333</v>
+        <v>1277</v>
       </c>
       <c r="M65" t="n">
-        <v>0.448</v>
+        <v>0.429</v>
       </c>
       <c r="N65" t="n">
-        <v>0.134</v>
+        <v>0.141</v>
       </c>
       <c r="O65" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="P65" t="s">
         <v>392</v>
@@ -6730,7 +6702,7 @@
         <v>396</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D66" t="s">
         <v>397</v>
@@ -6740,31 +6712,31 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="H66" t="n">
-        <v>24534767</v>
+        <v>24712021</v>
       </c>
       <c r="I66" t="n">
-        <v>194.642</v>
+        <v>196.048</v>
       </c>
       <c r="J66" t="n">
-        <v>74021</v>
+        <v>51790</v>
       </c>
       <c r="K66" t="n">
-        <v>0.587</v>
+        <v>0.411</v>
       </c>
       <c r="L66" t="n">
-        <v>55437</v>
+        <v>52457</v>
       </c>
       <c r="M66" t="n">
-        <v>0.44</v>
+        <v>0.416</v>
       </c>
       <c r="N66" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="O66" t="n">
-        <v>87.1</v>
+        <v>101.5</v>
       </c>
       <c r="P66" t="s">
         <v>398</v>
@@ -6787,7 +6759,7 @@
         <v>402</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D67" t="s">
         <v>403</v>
@@ -6797,31 +6769,31 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H67" t="n">
-        <v>10438248</v>
+        <v>10547055</v>
       </c>
       <c r="I67" t="n">
-        <v>1016.479</v>
+        <v>1027.075</v>
       </c>
       <c r="J67" t="n">
-        <v>33878</v>
+        <v>28099</v>
       </c>
       <c r="K67" t="n">
-        <v>3.299</v>
+        <v>2.736</v>
       </c>
       <c r="L67" t="n">
-        <v>25259</v>
+        <v>27190</v>
       </c>
       <c r="M67" t="n">
-        <v>2.46</v>
+        <v>2.648</v>
       </c>
       <c r="N67" t="n">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="O67" t="n">
-        <v>23.3</v>
+        <v>22.6</v>
       </c>
       <c r="P67" t="s">
         <v>404</v>
@@ -6954,7 +6926,7 @@
         <v>418</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D70" t="s">
         <v>419</v>
@@ -6964,31 +6936,31 @@
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H70" t="n">
-        <v>1235648</v>
+        <v>1243597</v>
       </c>
       <c r="I70" t="n">
-        <v>695.992</v>
+        <v>700.469</v>
       </c>
       <c r="J70" t="n">
-        <v>2332</v>
+        <v>1419</v>
       </c>
       <c r="K70" t="n">
-        <v>1.314</v>
+        <v>0.799</v>
       </c>
       <c r="L70" t="n">
-        <v>2285</v>
+        <v>2119</v>
       </c>
       <c r="M70" t="n">
-        <v>1.287</v>
+        <v>1.194</v>
       </c>
       <c r="N70" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="O70" t="n">
-        <v>86.5</v>
+        <v>96.3</v>
       </c>
       <c r="P70" t="s">
         <v>421</v>
@@ -7011,7 +6983,7 @@
         <v>424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D71" t="s">
         <v>425</v>
@@ -7021,31 +6993,31 @@
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H71" t="n">
-        <v>4515664</v>
+        <v>4582700</v>
       </c>
       <c r="I71" t="n">
-        <v>1043.227</v>
+        <v>1058.714</v>
       </c>
       <c r="J71" t="n">
-        <v>15482</v>
+        <v>21020</v>
       </c>
       <c r="K71" t="n">
-        <v>3.577</v>
+        <v>4.856</v>
       </c>
       <c r="L71" t="n">
-        <v>17954</v>
+        <v>17368</v>
       </c>
       <c r="M71" t="n">
-        <v>4.148</v>
+        <v>4.012</v>
       </c>
       <c r="N71" t="n">
         <v>0.002</v>
       </c>
       <c r="O71" t="n">
-        <v>481.5</v>
+        <v>480.5</v>
       </c>
       <c r="P71" t="s">
         <v>426</v>
@@ -7068,7 +7040,7 @@
         <v>430</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44483</v>
+        <v>44486</v>
       </c>
       <c r="D72" t="s">
         <v>431</v>
@@ -7078,27 +7050,27 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H72" t="n">
-        <v>634530</v>
+        <v>646750</v>
       </c>
       <c r="I72" t="n">
-        <v>85.987</v>
+        <v>87.643</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72" t="n">
-        <v>4753</v>
+        <v>4906</v>
       </c>
       <c r="M72" t="n">
-        <v>0.644</v>
+        <v>0.665</v>
       </c>
       <c r="N72" t="n">
-        <v>0.112</v>
+        <v>0.102</v>
       </c>
       <c r="O72" t="n">
-        <v>8.9</v>
+        <v>9.8</v>
       </c>
       <c r="P72" t="s">
         <v>432</v>
@@ -7121,7 +7093,7 @@
         <v>436</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D73" t="s">
         <v>437</v>
@@ -7133,31 +7105,31 @@
         <v>439</v>
       </c>
       <c r="G73" t="n">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H73" t="n">
-        <v>4566903</v>
+        <v>4635105</v>
       </c>
       <c r="I73" t="n">
-        <v>2446.205</v>
+        <v>2482.736</v>
       </c>
       <c r="J73" t="n">
-        <v>21504</v>
+        <v>8365</v>
       </c>
       <c r="K73" t="n">
-        <v>11.518</v>
+        <v>4.481</v>
       </c>
       <c r="L73" t="n">
-        <v>16795</v>
+        <v>18152</v>
       </c>
       <c r="M73" t="n">
-        <v>8.996</v>
+        <v>9.723</v>
       </c>
       <c r="N73" t="n">
-        <v>0.1</v>
+        <v>0.115</v>
       </c>
       <c r="O73" t="n">
-        <v>10</v>
+        <v>8.7</v>
       </c>
       <c r="P73" t="s">
         <v>438</v>
@@ -7229,7 +7201,7 @@
         <v>447</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D75" t="s">
         <v>448</v>
@@ -7239,15 +7211,15 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="n">
-        <v>4201</v>
+        <v>4514</v>
       </c>
       <c r="K75" t="n">
-        <v>0.604</v>
+        <v>0.649</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
@@ -7274,7 +7246,7 @@
         <v>453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44481</v>
+        <v>44485</v>
       </c>
       <c r="D76" t="s">
         <v>454</v>
@@ -7284,31 +7256,31 @@
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="H76" t="n">
-        <v>70141</v>
+        <v>70741</v>
       </c>
       <c r="I76" t="n">
-        <v>1833.56</v>
+        <v>1849.245</v>
       </c>
       <c r="J76" t="n">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="K76" t="n">
-        <v>3.398</v>
+        <v>1.778</v>
       </c>
       <c r="L76" t="n">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="M76" t="n">
-        <v>4.209</v>
+        <v>3.764</v>
       </c>
       <c r="N76" t="n">
-        <v>0.016</v>
+        <v>0.033</v>
       </c>
       <c r="O76" t="n">
-        <v>62.5</v>
+        <v>30.3</v>
       </c>
       <c r="P76" t="s">
         <v>455</v>
@@ -7331,7 +7303,7 @@
         <v>459</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D77" t="s">
         <v>460</v>
@@ -7341,31 +7313,31 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H77" t="n">
-        <v>5429715</v>
+        <v>5509131</v>
       </c>
       <c r="I77" t="n">
-        <v>2018.585</v>
+        <v>2048.109</v>
       </c>
       <c r="J77" t="n">
-        <v>23565</v>
+        <v>26564</v>
       </c>
       <c r="K77" t="n">
-        <v>8.761</v>
+        <v>9.876</v>
       </c>
       <c r="L77" t="n">
-        <v>21908</v>
+        <v>21782</v>
       </c>
       <c r="M77" t="n">
-        <v>8.145</v>
+        <v>8.098</v>
       </c>
       <c r="N77" t="n">
-        <v>0.107</v>
+        <v>0.117</v>
       </c>
       <c r="O77" t="n">
-        <v>9.3</v>
+        <v>8.5</v>
       </c>
       <c r="P77" t="s">
         <v>461</v>
@@ -7388,7 +7360,7 @@
         <v>464</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44482</v>
+        <v>44485</v>
       </c>
       <c r="D78" t="s">
         <v>465</v>
@@ -7398,31 +7370,31 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="H78" t="n">
-        <v>3552180</v>
+        <v>3560235</v>
       </c>
       <c r="I78" t="n">
-        <v>5595.623</v>
+        <v>5608.312</v>
       </c>
       <c r="J78" t="n">
-        <v>2827</v>
+        <v>2323</v>
       </c>
       <c r="K78" t="n">
-        <v>4.453</v>
+        <v>3.659</v>
       </c>
       <c r="L78" t="n">
-        <v>2381</v>
+        <v>2350</v>
       </c>
       <c r="M78" t="n">
-        <v>3.751</v>
+        <v>3.702</v>
       </c>
       <c r="N78" t="n">
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
       <c r="O78" t="n">
-        <v>24.4</v>
+        <v>23.4</v>
       </c>
       <c r="P78" t="s">
         <v>466</v>
@@ -7555,7 +7527,7 @@
         <v>481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44433</v>
+        <v>44485</v>
       </c>
       <c r="D81" t="s">
         <v>482</v>
@@ -7567,31 +7539,31 @@
         <v>484</v>
       </c>
       <c r="G81" t="n">
-        <v>580</v>
+        <v>632</v>
       </c>
       <c r="H81" t="n">
-        <v>25530515</v>
+        <v>32592286</v>
       </c>
       <c r="I81" t="n">
-        <v>778.935</v>
+        <v>994.389</v>
       </c>
       <c r="J81" t="n">
-        <v>161322</v>
+        <v>105528</v>
       </c>
       <c r="K81" t="n">
-        <v>4.922</v>
+        <v>3.22</v>
       </c>
       <c r="L81" t="n">
-        <v>156118</v>
+        <v>130499</v>
       </c>
       <c r="M81" t="n">
-        <v>4.763</v>
+        <v>3.982</v>
       </c>
       <c r="N81" t="n">
-        <v>0.137</v>
+        <v>0.057</v>
       </c>
       <c r="O81" t="n">
-        <v>7.3</v>
+        <v>17.5</v>
       </c>
       <c r="P81" t="s">
         <v>36</v>
@@ -7614,7 +7586,7 @@
         <v>488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D82" t="s">
         <v>489</v>
@@ -7624,31 +7596,31 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="H82" t="n">
-        <v>1569487</v>
+        <v>1584781</v>
       </c>
       <c r="I82" t="n">
-        <v>2887.103</v>
+        <v>2915.237</v>
       </c>
       <c r="J82" t="n">
-        <v>4284</v>
+        <v>3210</v>
       </c>
       <c r="K82" t="n">
-        <v>7.881</v>
+        <v>5.905</v>
       </c>
       <c r="L82" t="n">
-        <v>3683</v>
+        <v>3827</v>
       </c>
       <c r="M82" t="n">
-        <v>6.775</v>
+        <v>7.04</v>
       </c>
       <c r="N82" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="O82" t="n">
-        <v>46</v>
+        <v>43.4</v>
       </c>
       <c r="P82" t="s">
         <v>490</v>
@@ -7671,7 +7643,7 @@
         <v>494</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D83" t="s">
         <v>495</v>
@@ -7681,31 +7653,31 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H83" t="n">
-        <v>1312451</v>
+        <v>1319301</v>
       </c>
       <c r="I83" t="n">
-        <v>2550.608</v>
+        <v>2563.92</v>
       </c>
       <c r="J83" t="n">
-        <v>1853</v>
+        <v>1475</v>
       </c>
       <c r="K83" t="n">
-        <v>3.601</v>
+        <v>2.867</v>
       </c>
       <c r="L83" t="n">
-        <v>1728</v>
+        <v>1760</v>
       </c>
       <c r="M83" t="n">
-        <v>3.358</v>
+        <v>3.42</v>
       </c>
       <c r="N83" t="n">
-        <v>0.011</v>
+        <v>0.009</v>
       </c>
       <c r="O83" t="n">
-        <v>93.8</v>
+        <v>116.2</v>
       </c>
       <c r="P83" t="s">
         <v>497</v>
@@ -7777,7 +7749,7 @@
         <v>507</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D85" t="s">
         <v>508</v>
@@ -7787,31 +7759,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="H85" t="n">
-        <v>10476579</v>
+        <v>10545820</v>
       </c>
       <c r="I85" t="n">
-        <v>80.427</v>
+        <v>80.958</v>
       </c>
       <c r="J85" t="n">
-        <v>9979</v>
+        <v>1738</v>
       </c>
       <c r="K85" t="n">
-        <v>0.077</v>
+        <v>0.013</v>
       </c>
       <c r="L85" t="n">
-        <v>15127</v>
+        <v>14869</v>
       </c>
       <c r="M85" t="n">
-        <v>0.116</v>
+        <v>0.114</v>
       </c>
       <c r="N85" t="n">
-        <v>0.225</v>
+        <v>0.21</v>
       </c>
       <c r="O85" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="P85" t="s">
         <v>510</v>
@@ -7834,7 +7806,7 @@
         <v>513</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D86" t="s">
         <v>514</v>
@@ -7844,27 +7816,27 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="n">
-        <v>1863784</v>
+        <v>1909629</v>
       </c>
       <c r="I86" t="n">
-        <v>463.164</v>
+        <v>474.557</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86" t="n">
-        <v>5829</v>
+        <v>9048</v>
       </c>
       <c r="M86" t="n">
-        <v>1.449</v>
+        <v>2.248</v>
       </c>
       <c r="N86" t="n">
-        <v>0.226</v>
+        <v>0.169</v>
       </c>
       <c r="O86" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="P86" t="s">
         <v>515</v>
@@ -7887,7 +7859,7 @@
         <v>518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="D87" t="s">
         <v>519</v>
@@ -7897,25 +7869,25 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H87" t="n">
-        <v>4112374</v>
+        <v>4143744</v>
       </c>
       <c r="I87" t="n">
-        <v>1235.213</v>
+        <v>1244.636</v>
       </c>
       <c r="J87" t="n">
-        <v>9967</v>
+        <v>10085</v>
       </c>
       <c r="K87" t="n">
-        <v>2.994</v>
+        <v>3.029</v>
       </c>
       <c r="L87" t="n">
-        <v>8658</v>
+        <v>8686</v>
       </c>
       <c r="M87" t="n">
-        <v>2.601</v>
+        <v>2.609</v>
       </c>
       <c r="N87"/>
       <c r="O87"/>
@@ -7940,7 +7912,7 @@
         <v>522</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44481</v>
+        <v>44486</v>
       </c>
       <c r="D88" t="s">
         <v>523</v>
@@ -7950,31 +7922,31 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H88" t="n">
-        <v>8923240</v>
+        <v>8988264</v>
       </c>
       <c r="I88" t="n">
-        <v>238.942</v>
+        <v>240.683</v>
       </c>
       <c r="J88" t="n">
-        <v>14278</v>
+        <v>9308</v>
       </c>
       <c r="K88" t="n">
-        <v>0.382</v>
+        <v>0.249</v>
       </c>
       <c r="L88" t="n">
-        <v>11812</v>
+        <v>12027</v>
       </c>
       <c r="M88" t="n">
-        <v>0.316</v>
+        <v>0.322</v>
       </c>
       <c r="N88" t="n">
-        <v>0.045</v>
+        <v>0.035</v>
       </c>
       <c r="O88" t="n">
-        <v>22.4</v>
+        <v>28.6</v>
       </c>
       <c r="P88" t="s">
         <v>524</v>
@@ -7997,7 +7969,7 @@
         <v>528</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44480</v>
+        <v>44486</v>
       </c>
       <c r="D89" t="s">
         <v>529</v>
@@ -8007,31 +7979,31 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="H89" t="n">
-        <v>918384</v>
+        <v>926360</v>
       </c>
       <c r="I89" t="n">
-        <v>28.554</v>
+        <v>28.802</v>
       </c>
       <c r="J89" t="n">
-        <v>498</v>
+        <v>760</v>
       </c>
       <c r="K89" t="n">
-        <v>0.015</v>
+        <v>0.024</v>
       </c>
       <c r="L89" t="n">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="M89" t="n">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="N89" t="n">
-        <v>0.022</v>
+        <v>0.014</v>
       </c>
       <c r="O89" t="n">
-        <v>45.9</v>
+        <v>72.5</v>
       </c>
       <c r="P89" t="s">
         <v>530</v>
@@ -8054,7 +8026,7 @@
         <v>534</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D90" t="s">
         <v>535</v>
@@ -8064,31 +8036,31 @@
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="H90" t="n">
-        <v>4557424</v>
+        <v>4625179</v>
       </c>
       <c r="I90" t="n">
-        <v>83.156</v>
+        <v>84.392</v>
       </c>
       <c r="J90" t="n">
-        <v>18861</v>
+        <v>13680</v>
       </c>
       <c r="K90" t="n">
-        <v>0.344</v>
+        <v>0.25</v>
       </c>
       <c r="L90" t="n">
-        <v>17960</v>
+        <v>17298</v>
       </c>
       <c r="M90" t="n">
-        <v>0.328</v>
+        <v>0.316</v>
       </c>
       <c r="N90" t="n">
-        <v>0.078</v>
+        <v>0.076</v>
       </c>
       <c r="O90" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="P90" t="s">
         <v>536</v>
@@ -8111,7 +8083,7 @@
         <v>540</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44480</v>
+        <v>44485</v>
       </c>
       <c r="D91" t="s">
         <v>541</v>
@@ -8121,31 +8093,31 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H91" t="n">
-        <v>722619</v>
+        <v>730765</v>
       </c>
       <c r="I91" t="n">
-        <v>279.29</v>
+        <v>282.438</v>
       </c>
       <c r="J91" t="n">
-        <v>1421</v>
+        <v>3535</v>
       </c>
       <c r="K91" t="n">
-        <v>0.549</v>
+        <v>1.366</v>
       </c>
       <c r="L91" t="n">
-        <v>1496</v>
+        <v>1570</v>
       </c>
       <c r="M91" t="n">
-        <v>0.578</v>
+        <v>0.607</v>
       </c>
       <c r="N91" t="n">
-        <v>0.025</v>
+        <v>0.015</v>
       </c>
       <c r="O91" t="n">
-        <v>39.2</v>
+        <v>65</v>
       </c>
       <c r="P91" t="s">
         <v>543</v>
@@ -8168,7 +8140,7 @@
         <v>547</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D92" t="s">
         <v>548</v>
@@ -8178,31 +8150,31 @@
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H92" t="n">
-        <v>4310320</v>
+        <v>4328478</v>
       </c>
       <c r="I92" t="n">
-        <v>145.251</v>
+        <v>145.863</v>
       </c>
       <c r="J92" t="n">
-        <v>3418</v>
+        <v>7654</v>
       </c>
       <c r="K92" t="n">
-        <v>0.115</v>
+        <v>0.258</v>
       </c>
       <c r="L92" t="n">
-        <v>6608</v>
+        <v>4615</v>
       </c>
       <c r="M92" t="n">
-        <v>0.223</v>
+        <v>0.156</v>
       </c>
       <c r="N92" t="n">
-        <v>0.086</v>
+        <v>0.084</v>
       </c>
       <c r="O92" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="P92" t="s">
         <v>549</v>
@@ -8278,7 +8250,7 @@
         <v>560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="D94" t="s">
         <v>561</v>
@@ -8288,25 +8260,25 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H94" t="n">
-        <v>3701367</v>
+        <v>3789996</v>
       </c>
       <c r="I94" t="n">
-        <v>761.498</v>
+        <v>779.732</v>
       </c>
       <c r="J94" t="n">
-        <v>27767</v>
+        <v>16921</v>
       </c>
       <c r="K94" t="n">
-        <v>5.713</v>
+        <v>3.481</v>
       </c>
       <c r="L94" t="n">
-        <v>22612</v>
+        <v>24406</v>
       </c>
       <c r="M94" t="n">
-        <v>4.652</v>
+        <v>5.021</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -8437,7 +8409,7 @@
         <v>576</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44481</v>
+        <v>44485</v>
       </c>
       <c r="D97" t="s">
         <v>577</v>
@@ -8447,31 +8419,31 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H97" t="n">
-        <v>7889460</v>
+        <v>7916560</v>
       </c>
       <c r="I97" t="n">
-        <v>1443.468</v>
+        <v>1448.426</v>
       </c>
       <c r="J97" t="n">
-        <v>8599</v>
+        <v>3100</v>
       </c>
       <c r="K97" t="n">
-        <v>1.573</v>
+        <v>0.567</v>
       </c>
       <c r="L97" t="n">
-        <v>8217</v>
+        <v>7344</v>
       </c>
       <c r="M97" t="n">
-        <v>1.503</v>
+        <v>1.344</v>
       </c>
       <c r="N97" t="n">
-        <v>0.053</v>
+        <v>0.056</v>
       </c>
       <c r="O97" t="n">
-        <v>19</v>
+        <v>17.9</v>
       </c>
       <c r="P97" t="s">
         <v>578</v>
@@ -8539,7 +8511,7 @@
         <v>587</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="D99" t="s">
         <v>588</v>
@@ -8549,25 +8521,25 @@
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H99" t="n">
-        <v>20098599</v>
+        <v>20279697</v>
       </c>
       <c r="I99" t="n">
-        <v>89.248</v>
+        <v>90.052</v>
       </c>
       <c r="J99" t="n">
-        <v>53590</v>
+        <v>43776</v>
       </c>
       <c r="K99" t="n">
-        <v>0.238</v>
+        <v>0.194</v>
       </c>
       <c r="L99" t="n">
-        <v>45158</v>
+        <v>46600</v>
       </c>
       <c r="M99" t="n">
-        <v>0.201</v>
+        <v>0.207</v>
       </c>
       <c r="N99"/>
       <c r="O99"/>
@@ -8592,7 +8564,7 @@
         <v>592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D100" t="s">
         <v>593</v>
@@ -8600,28 +8572,20 @@
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100" t="n">
-        <v>6113</v>
+        <v>5958</v>
       </c>
       <c r="K100" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="L100" t="n">
-        <v>5579</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1.068</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="O100" t="n">
-        <v>7.3</v>
-      </c>
+        <v>1.141</v>
+      </c>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
       <c r="P100" t="s">
         <v>594</v>
       </c>
@@ -8643,7 +8607,7 @@
         <v>598</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44482</v>
+        <v>44485</v>
       </c>
       <c r="D101" t="s">
         <v>599</v>
@@ -8653,31 +8617,31 @@
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H101" t="n">
-        <v>3954874</v>
+        <v>3976308</v>
       </c>
       <c r="I101" t="n">
-        <v>902.613</v>
+        <v>907.505</v>
       </c>
       <c r="J101" t="n">
-        <v>5176</v>
+        <v>12839</v>
       </c>
       <c r="K101" t="n">
-        <v>1.181</v>
+        <v>2.93</v>
       </c>
       <c r="L101" t="n">
-        <v>5803</v>
+        <v>5867</v>
       </c>
       <c r="M101" t="n">
-        <v>1.324</v>
+        <v>1.339</v>
       </c>
       <c r="N101" t="n">
-        <v>0.031</v>
+        <v>0.025</v>
       </c>
       <c r="O101" t="n">
-        <v>32.7</v>
+        <v>39.7</v>
       </c>
       <c r="P101" t="s">
         <v>600</v>
@@ -8753,7 +8717,7 @@
         <v>609</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D103" t="s">
         <v>610</v>
@@ -8763,31 +8727,31 @@
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H103" t="n">
-        <v>1861723</v>
+        <v>1868996</v>
       </c>
       <c r="I103" t="n">
-        <v>257.869</v>
+        <v>258.877</v>
       </c>
       <c r="J103" t="n">
-        <v>1871</v>
+        <v>1781</v>
       </c>
       <c r="K103" t="n">
-        <v>0.259</v>
+        <v>0.247</v>
       </c>
       <c r="L103" t="n">
-        <v>1835</v>
+        <v>1801</v>
       </c>
       <c r="M103" t="n">
-        <v>0.254</v>
+        <v>0.249</v>
       </c>
       <c r="N103" t="n">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
       <c r="O103" t="n">
-        <v>78.3</v>
+        <v>95.5</v>
       </c>
       <c r="P103" t="s">
         <v>611</v>
@@ -8867,7 +8831,7 @@
         <v>620</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D105" t="s">
         <v>621</v>
@@ -8877,31 +8841,31 @@
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="H105" t="n">
-        <v>20677261</v>
+        <v>20907414</v>
       </c>
       <c r="I105" t="n">
-        <v>186.203</v>
+        <v>188.276</v>
       </c>
       <c r="J105" t="n">
-        <v>48234</v>
+        <v>35095</v>
       </c>
       <c r="K105" t="n">
-        <v>0.434</v>
+        <v>0.316</v>
       </c>
       <c r="L105" t="n">
-        <v>50601</v>
+        <v>51680</v>
       </c>
       <c r="M105" t="n">
-        <v>0.456</v>
+        <v>0.465</v>
       </c>
       <c r="N105" t="n">
-        <v>0.191</v>
+        <v>0.149</v>
       </c>
       <c r="O105" t="n">
-        <v>5.2</v>
+        <v>6.7</v>
       </c>
       <c r="P105" t="s">
         <v>326</v>
@@ -8924,7 +8888,7 @@
         <v>626</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D106" t="s">
         <v>627</v>
@@ -8934,31 +8898,31 @@
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="H106" t="n">
-        <v>21002143</v>
+        <v>21134928</v>
       </c>
       <c r="I106" t="n">
-        <v>555.656</v>
+        <v>559.169</v>
       </c>
       <c r="J106" t="n">
-        <v>44266</v>
+        <v>22041</v>
       </c>
       <c r="K106" t="n">
-        <v>1.171</v>
+        <v>0.583</v>
       </c>
       <c r="L106" t="n">
-        <v>36323</v>
+        <v>37644</v>
       </c>
       <c r="M106" t="n">
-        <v>0.961</v>
+        <v>0.996</v>
       </c>
       <c r="N106" t="n">
-        <v>0.055</v>
+        <v>0.068</v>
       </c>
       <c r="O106" t="n">
-        <v>18</v>
+        <v>14.8</v>
       </c>
       <c r="P106" t="s">
         <v>628</v>
@@ -8981,7 +8945,7 @@
         <v>631</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D107" t="s">
         <v>627</v>
@@ -8991,31 +8955,31 @@
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H107" t="n">
-        <v>21423885</v>
+        <v>21558454</v>
       </c>
       <c r="I107" t="n">
-        <v>566.814</v>
+        <v>570.375</v>
       </c>
       <c r="J107" t="n">
-        <v>44889</v>
+        <v>22364</v>
       </c>
       <c r="K107" t="n">
-        <v>1.188</v>
+        <v>0.592</v>
       </c>
       <c r="L107" t="n">
-        <v>36798</v>
+        <v>38172</v>
       </c>
       <c r="M107" t="n">
-        <v>0.974</v>
+        <v>1.01</v>
       </c>
       <c r="N107" t="n">
-        <v>0.051</v>
+        <v>0.064</v>
       </c>
       <c r="O107" t="n">
-        <v>19.7</v>
+        <v>15.5</v>
       </c>
       <c r="P107" t="s">
         <v>628</v>
@@ -9038,7 +9002,7 @@
         <v>633</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D108" t="s">
         <v>634</v>
@@ -9048,31 +9012,31 @@
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H108" t="n">
-        <v>19195884</v>
+        <v>19388732</v>
       </c>
       <c r="I108" t="n">
-        <v>1887.886</v>
+        <v>1906.853</v>
       </c>
       <c r="J108" t="n">
-        <v>55921</v>
+        <v>14112</v>
       </c>
       <c r="K108" t="n">
-        <v>5.5</v>
+        <v>1.388</v>
       </c>
       <c r="L108" t="n">
-        <v>46488</v>
+        <v>50222</v>
       </c>
       <c r="M108" t="n">
-        <v>4.572</v>
+        <v>4.939</v>
       </c>
       <c r="N108" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="O108" t="n">
-        <v>70</v>
+        <v>78.2</v>
       </c>
       <c r="P108" t="s">
         <v>635</v>
@@ -9095,7 +9059,7 @@
         <v>638</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44481</v>
+        <v>44487</v>
       </c>
       <c r="D109" t="s">
         <v>639</v>
@@ -9105,25 +9069,25 @@
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="H109" t="n">
-        <v>2729471</v>
+        <v>2762080</v>
       </c>
       <c r="I109" t="n">
-        <v>931.393</v>
+        <v>942.521</v>
       </c>
       <c r="J109" t="n">
-        <v>6129</v>
+        <v>5095</v>
       </c>
       <c r="K109" t="n">
-        <v>2.091</v>
+        <v>1.739</v>
       </c>
       <c r="L109" t="n">
-        <v>5135</v>
+        <v>5534</v>
       </c>
       <c r="M109" t="n">
-        <v>1.752</v>
+        <v>1.888</v>
       </c>
       <c r="N109"/>
       <c r="O109"/>
@@ -9148,7 +9112,7 @@
         <v>644</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="D110" t="s">
         <v>645</v>
@@ -9158,24 +9122,28 @@
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H110" t="n">
-        <v>13721352</v>
+        <v>13934089</v>
       </c>
       <c r="I110" t="n">
-        <v>717.352</v>
+        <v>728.474</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
       <c r="L110" t="n">
-        <v>60935</v>
+        <v>65211</v>
       </c>
       <c r="M110" t="n">
-        <v>3.186</v>
-      </c>
-      <c r="N110"/>
-      <c r="O110"/>
+        <v>3.409</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="O110" t="n">
+        <v>4.5</v>
+      </c>
       <c r="P110" t="s">
         <v>647</v>
       </c>
@@ -9197,7 +9165,7 @@
         <v>651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D111" t="s">
         <v>652</v>
@@ -9207,27 +9175,27 @@
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H111" t="n">
-        <v>199319746</v>
+        <v>201631267</v>
       </c>
       <c r="I111" t="n">
-        <v>1366.027</v>
+        <v>1381.869</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111" t="n">
-        <v>525937</v>
+        <v>555619</v>
       </c>
       <c r="M111" t="n">
-        <v>3.604</v>
+        <v>3.808</v>
       </c>
       <c r="N111" t="n">
-        <v>0.054</v>
+        <v>0.056</v>
       </c>
       <c r="O111" t="n">
-        <v>18.6</v>
+        <v>18</v>
       </c>
       <c r="P111" t="s">
         <v>653</v>
@@ -9250,7 +9218,7 @@
         <v>657</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44484</v>
+        <v>44488</v>
       </c>
       <c r="D112" t="s">
         <v>658</v>
@@ -9260,25 +9228,25 @@
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H112" t="n">
-        <v>2969916</v>
+        <v>3004482</v>
       </c>
       <c r="I112" t="n">
-        <v>223.697</v>
+        <v>226.3</v>
       </c>
       <c r="J112" t="n">
-        <v>8376</v>
+        <v>6811</v>
       </c>
       <c r="K112" t="n">
-        <v>0.631</v>
+        <v>0.513</v>
       </c>
       <c r="L112" t="n">
-        <v>10520</v>
+        <v>8332</v>
       </c>
       <c r="M112" t="n">
-        <v>0.792</v>
+        <v>0.628</v>
       </c>
       <c r="N112"/>
       <c r="O112"/>
@@ -9303,7 +9271,7 @@
         <v>663</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44484</v>
+        <v>44487</v>
       </c>
       <c r="D113" t="s">
         <v>664</v>
@@ -9313,24 +9281,28 @@
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H113" t="n">
-        <v>48765</v>
+        <v>49554</v>
       </c>
       <c r="I113" t="n">
-        <v>910.712</v>
+        <v>925.447</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
       <c r="L113" t="n">
-        <v>589</v>
+        <v>403</v>
       </c>
       <c r="M113" t="n">
-        <v>11</v>
-      </c>
-      <c r="N113"/>
-      <c r="O113"/>
+        <v>7.526</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="O113" t="n">
+        <v>19.6</v>
+      </c>
       <c r="P113" t="s">
         <v>36</v>
       </c>
@@ -9397,7 +9369,7 @@
         <v>674</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D115" t="s">
         <v>675</v>
@@ -9407,31 +9379,31 @@
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="H115" t="n">
-        <v>29590955</v>
+        <v>29796124</v>
       </c>
       <c r="I115" t="n">
-        <v>837.306</v>
+        <v>843.111</v>
       </c>
       <c r="J115" t="n">
-        <v>52320</v>
+        <v>49202</v>
       </c>
       <c r="K115" t="n">
-        <v>1.48</v>
+        <v>1.392</v>
       </c>
       <c r="L115" t="n">
-        <v>48431</v>
+        <v>52173</v>
       </c>
       <c r="M115" t="n">
-        <v>1.37</v>
+        <v>1.476</v>
       </c>
       <c r="N115" t="n">
         <v>0.001</v>
       </c>
       <c r="O115" t="n">
-        <v>944.3</v>
+        <v>1074.2</v>
       </c>
       <c r="P115" t="s">
         <v>36</v>
@@ -9454,7 +9426,7 @@
         <v>678</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44482</v>
+        <v>44487</v>
       </c>
       <c r="D116" t="s">
         <v>679</v>
@@ -9464,31 +9436,31 @@
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="H116" t="n">
-        <v>831261</v>
+        <v>838854</v>
       </c>
       <c r="I116" t="n">
-        <v>48.34</v>
+        <v>48.781</v>
       </c>
       <c r="J116" t="n">
-        <v>1648</v>
+        <v>1307</v>
       </c>
       <c r="K116" t="n">
-        <v>0.096</v>
+        <v>0.076</v>
       </c>
       <c r="L116" t="n">
-        <v>1539</v>
+        <v>1461</v>
       </c>
       <c r="M116" t="n">
-        <v>0.089</v>
+        <v>0.085</v>
       </c>
       <c r="N116" t="n">
         <v>0.003</v>
       </c>
       <c r="O116" t="n">
-        <v>336.7</v>
+        <v>319.6</v>
       </c>
       <c r="P116" t="s">
         <v>680</v>
@@ -9511,7 +9483,7 @@
         <v>683</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="D117" t="s">
         <v>684</v>
@@ -9523,31 +9495,31 @@
         <v>685</v>
       </c>
       <c r="G117" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H117" t="n">
-        <v>5943113</v>
+        <v>6020429</v>
       </c>
       <c r="I117" t="n">
-        <v>860.295</v>
+        <v>871.487</v>
       </c>
       <c r="J117" t="n">
-        <v>22710</v>
+        <v>20852</v>
       </c>
       <c r="K117" t="n">
-        <v>3.287</v>
+        <v>3.018</v>
       </c>
       <c r="L117" t="n">
-        <v>20717</v>
+        <v>20857</v>
       </c>
       <c r="M117" t="n">
-        <v>2.999</v>
+        <v>3.019</v>
       </c>
       <c r="N117" t="n">
-        <v>0.296</v>
+        <v>0.304</v>
       </c>
       <c r="O117" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P117" t="s">
         <v>36</v>
@@ -9623,7 +9595,7 @@
         <v>694</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="D119" t="s">
         <v>695</v>
@@ -9633,31 +9605,31 @@
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>587</v>
+        <v>591</v>
   